--- a/results/flows_per_year.xlsx
+++ b/results/flows_per_year.xlsx
@@ -16,31 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>F_1_2_t</t>
-  </si>
-  <si>
     <t>F_2_3_t</t>
-  </si>
-  <si>
-    <t>F_3_0_t</t>
   </si>
   <si>
     <t>F_3_4_t</t>
   </si>
   <si>
-    <t>F_3_6_t</t>
+    <t>F_4_0_t</t>
   </si>
   <si>
     <t>F_4_5_t</t>
   </si>
   <si>
-    <t>F_4_6_t</t>
+    <t>F_4_7_t</t>
   </si>
   <si>
-    <t>F_5_0_t</t>
+    <t>F_5_6_t</t>
   </si>
   <si>
-    <t>F_5_1_t</t>
+    <t>F_5_7_t</t>
   </si>
   <si>
     <t>F_6_0_t</t>
@@ -49,7 +43,13 @@
     <t>F_6_1_t</t>
   </si>
   <si>
-    <t>F_0_1_t</t>
+    <t>F_7_0_t</t>
+  </si>
+  <si>
+    <t>F_7_1_t</t>
+  </si>
+  <si>
+    <t>F_1_2_t</t>
   </si>
   <si>
     <t>scrap_surplus_t</t>
@@ -2701,7 +2701,7 @@
         <v>3.69199856350706e-06</v>
       </c>
       <c r="M52">
-        <v>0.5102780366178435</v>
+        <v>0.5102828806193229</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>1.133555389075159e-05</v>
       </c>
       <c r="M53">
-        <v>0.5166548458552224</v>
+        <v>0.516669718407005</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>3.269584649046043e-05</v>
       </c>
       <c r="M54">
-        <v>0.5250169472423073</v>
+        <v>0.5250598450728583</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>8.868662055747415e-05</v>
       </c>
       <c r="M55">
-        <v>0.5548103323740613</v>
+        <v>0.5549266916070887</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0.0002249630604164127</v>
       </c>
       <c r="M56">
-        <v>0.5603710461134606</v>
+        <v>0.5606662037032415</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0.0005351886286893814</v>
       </c>
       <c r="M57">
-        <v>0.6225696999573235</v>
+        <v>0.6232718818418949</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0.001191348548049431</v>
       </c>
       <c r="M58">
-        <v>0.631968747155777</v>
+        <v>0.6335318285140253</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0.002483076961150369</v>
       </c>
       <c r="M59">
-        <v>0.5923356199692319</v>
+        <v>0.5955934837702366</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0.004849322360381204</v>
       </c>
       <c r="M60">
-        <v>0.5920288715668027</v>
+        <v>0.5983913130152423</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0.00888026360010323</v>
       </c>
       <c r="M61">
-        <v>0.6020665134238342</v>
+        <v>0.6137176582650126</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>0.01526901050747382</v>
       </c>
       <c r="M62">
-        <v>0.6077203265082131</v>
+        <v>0.6277536792345876</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>0.02468962350072268</v>
       </c>
       <c r="M63">
-        <v>0.6035919860956463</v>
+        <v>0.6359854366096307</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0.03763062914845259</v>
       </c>
       <c r="M64">
-        <v>0.6009976051081632</v>
+        <v>0.6503700033180759</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>0.05421210169105414</v>
       </c>
       <c r="M65">
-        <v>0.6569410302150959</v>
+        <v>0.7280687666642501</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0.0740665170607612</v>
       </c>
       <c r="M66">
-        <v>0.6599155320931528</v>
+        <v>0.7570927958566408</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>0.09634506440067188</v>
       </c>
       <c r="M67">
-        <v>0.6902696534213889</v>
+        <v>0.8166769708856849</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0.1198616826661093</v>
       </c>
       <c r="M68">
-        <v>0.668278153989069</v>
+        <v>0.8255399075291283</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0.1433414496572367</v>
       </c>
       <c r="M69">
-        <v>0.6341206565092636</v>
+        <v>0.8221884962613993</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0.1656785726530213</v>
       </c>
       <c r="M70">
-        <v>0.6722775403321198</v>
+        <v>0.8896522866220384</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0.1861498318228493</v>
       </c>
       <c r="M71">
-        <v>0.6712309689753679</v>
+        <v>0.915464558246726</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>0.261729174767803</v>
       </c>
       <c r="M72">
-        <v>0.5601852434550415</v>
+        <v>0.9035809647651953</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0.2831772698776341</v>
       </c>
       <c r="M73">
-        <v>0.6243822459381871</v>
+        <v>0.9959184452730141</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0.3022269880990044</v>
       </c>
       <c r="M74">
-        <v>0.6494267396631525</v>
+        <v>1.045956681996581</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0.3195757166396982</v>
       </c>
       <c r="M75">
-        <v>0.6732039256483545</v>
+        <v>1.092495866739968</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0.3360624609195487</v>
       </c>
       <c r="M76">
-        <v>0.5394013113043189</v>
+        <v>0.9803243046049885</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0.3525436743183593</v>
       </c>
       <c r="M77">
-        <v>0.5219951075588923</v>
+        <v>0.9845418964038379</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0.3697778574821058</v>
       </c>
       <c r="M78">
-        <v>0.6165630168137965</v>
+        <v>1.10172151779957</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>0.3883398799817269</v>
       </c>
       <c r="M79">
-        <v>0.7099987938563795</v>
+        <v>1.219511167928284</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0.4085630320600947</v>
       </c>
       <c r="M80">
-        <v>0.7788019288373101</v>
+        <v>1.31484762270926</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0.4305128792004665</v>
       </c>
       <c r="M81">
-        <v>0.7982680501615286</v>
+        <v>1.36311253422606</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0.4540481799200349</v>
       </c>
       <c r="M82">
-        <v>0.6835059841538974</v>
+        <v>1.279229416176819</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0.4787010260388669</v>
       </c>
       <c r="M83">
-        <v>0.6519688300175961</v>
+        <v>1.280037547355418</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0.02652781675385016</v>
       </c>
       <c r="L84">
-        <v>0.4952872470062997</v>
+        <v>0.504028518323153</v>
       </c>
       <c r="M84">
-        <v>0.6273823337909336</v>
+        <v>1.279940383139227</v>
       </c>
       <c r="N84">
-        <v>0.00874127131685329</v>
+        <v>0.008741271316853311</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4153,7 +4153,7 @@
         <v>0.5295614822596909</v>
       </c>
       <c r="M85">
-        <v>0.7250516586963577</v>
+        <v>1.419851644933041</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0.5549521561672141</v>
       </c>
       <c r="M86">
-        <v>0.8185158257236228</v>
+        <v>1.546631001058964</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0.5800661125021569</v>
       </c>
       <c r="M87">
-        <v>0.9518406754536242</v>
+        <v>1.712910885515025</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>0.6050182442375056</v>
       </c>
       <c r="M88">
-        <v>0.9509705082297314</v>
+        <v>1.744789858238614</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0.6301601822644688</v>
       </c>
       <c r="M89">
-        <v>1.049172210828235</v>
+        <v>1.876003014706268</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>0.6559882664155264</v>
       </c>
       <c r="M90">
-        <v>1.149964482855474</v>
+        <v>2.010732449452155</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>0.6830176568401627</v>
       </c>
       <c r="M91">
-        <v>1.210938690376401</v>
+        <v>2.107265313709849</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>0.7116562739223862</v>
       </c>
       <c r="M92">
-        <v>1.418797837770611</v>
+        <v>2.352869598949975</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0.7421254798843165</v>
       </c>
       <c r="M93">
-        <v>1.443975715438146</v>
+        <v>2.418310037210902</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>0.7745017331194134</v>
       </c>
       <c r="M94">
-        <v>1.487270673868871</v>
+        <v>2.504535692240622</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0.8088505504294802</v>
       </c>
       <c r="M95">
-        <v>1.490700690621021</v>
+        <v>2.553707092759789</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0.8454310913759325</v>
       </c>
       <c r="M96">
-        <v>1.613426535728269</v>
+        <v>2.725382211854786</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0.9016715469218934</v>
       </c>
       <c r="M97">
-        <v>1.68456943767881</v>
+        <v>2.871723071146878</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>0.9396965990678172</v>
       </c>
       <c r="M98">
-        <v>1.866660699811592</v>
+        <v>3.10536315657654</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>0.9827586113167952</v>
       </c>
       <c r="M99">
-        <v>2.028777204077946</v>
+        <v>3.326008930096381</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>1.032086277705539</v>
       </c>
       <c r="M100">
-        <v>2.11038295548216</v>
+        <v>3.474731694744438</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>1.088508754706406</v>
       </c>
       <c r="M101">
-        <v>2.350927508206896</v>
+        <v>3.79204514918327</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>1.152141103124779</v>
       </c>
       <c r="M102">
-        <v>2.526927511675928</v>
+        <v>4.054575995693402</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>1.222261664085171</v>
       </c>
       <c r="M103">
-        <v>2.387354029502856</v>
+        <v>4.010294357635344</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>1.297459719376046</v>
       </c>
       <c r="M104">
-        <v>2.539686112409901</v>
+        <v>4.264767908251616</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5033,7 +5033,7 @@
         <v>1.375990120136508</v>
       </c>
       <c r="M105">
-        <v>2.683104959053618</v>
+        <v>4.514829405688729</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>1.456276529272188</v>
       </c>
       <c r="M106">
-        <v>3.054338715148369</v>
+        <v>4.99509157636402</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5121,7 +5121,7 @@
         <v>1.537333394688894</v>
       </c>
       <c r="M107">
-        <v>3.457872201301788</v>
+        <v>5.508717731141357</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>1.618993504873867</v>
       </c>
       <c r="M108">
-        <v>3.802324284996109</v>
+        <v>5.964101143454548</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>1.701876743634807</v>
       </c>
       <c r="M109">
-        <v>4.123703260217542</v>
+        <v>6.398077947644984</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>1.788765060116461</v>
       </c>
       <c r="M110">
-        <v>4.02220066906438</v>
+        <v>6.414563993245897</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -5297,7 +5297,7 @@
         <v>1.878293800202865</v>
       </c>
       <c r="M111">
-        <v>3.287099220998342</v>
+        <v>5.801014989085774</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>1.947902447691213</v>
       </c>
       <c r="M112">
-        <v>4.339581839551846</v>
+        <v>7.062141365224273</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -5385,7 +5385,7 @@
         <v>2.052408897642469</v>
       </c>
       <c r="M113">
-        <v>4.580910607411867</v>
+        <v>7.445890212056876</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>2.166410956460142</v>
       </c>
       <c r="M114">
-        <v>5.043432276431457</v>
+        <v>8.063052196594999</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>2.291222008424413</v>
       </c>
       <c r="M115">
-        <v>5.389832241127377</v>
+        <v>8.578405521463791</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>2.431449355818935</v>
       </c>
       <c r="M116">
-        <v>5.746613430144285</v>
+        <v>9.124963293040034</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>2.581786014405899</v>
       </c>
       <c r="M117">
-        <v>5.920844106203846</v>
+        <v>9.502894731612617</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>2.745362053007191</v>
       </c>
       <c r="M118">
-        <v>6.352350635122149</v>
+        <v>10.15633386560947</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>2.921899415869751</v>
       </c>
       <c r="M119">
-        <v>6.974428736115963</v>
+        <v>11.01819513312171</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>3.110502000176572</v>
       </c>
       <c r="M120">
-        <v>6.850162401094821</v>
+        <v>11.15030017533369</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -5737,7 +5737,7 @@
         <v>3.309940187940562</v>
       </c>
       <c r="M121">
-        <v>8.947119363414117</v>
+        <v>13.51853464436738</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>3.518952428969058</v>
       </c>
       <c r="M122">
-        <v>8.370630980700604</v>
+        <v>13.22658022345069</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -5822,10 +5822,10 @@
         <v>0.1966816539267917</v>
       </c>
       <c r="L123">
-        <v>3.736951424609043</v>
+        <v>3.643527638993817</v>
       </c>
       <c r="M123">
-        <v>8.551925891622915</v>
+        <v>13.70503296232731</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         <v>0.208655749881566</v>
       </c>
       <c r="L124">
-        <v>3.964459247749754</v>
+        <v>3.766236285362266</v>
       </c>
       <c r="M124">
-        <v>10.15102804723463</v>
+        <v>15.61485869122209</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -5910,10 +5910,10 @@
         <v>0.2212276415706851</v>
       </c>
       <c r="L125">
-        <v>4.203325189843018</v>
+        <v>3.888075800604792</v>
       </c>
       <c r="M125">
-        <v>10.57089368742084</v>
+        <v>16.36178729181363</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -5954,10 +5954,10 @@
         <v>0.2345605653300943</v>
       </c>
       <c r="L126">
-        <v>4.456650741271792</v>
+        <v>4.010985667144613</v>
       </c>
       <c r="M126">
-        <v>11.11410295999389</v>
+        <v>17.25287387176779</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -5998,10 +5998,10 @@
         <v>0.2488525022702585</v>
       </c>
       <c r="L127">
-        <v>4.728197543134912</v>
+        <v>4.137172850243049</v>
       </c>
       <c r="M127">
-        <v>11.58852534643345</v>
+        <v>18.10135676296288</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6042,10 +6042,10 @@
         <v>0.2642936317596002</v>
       </c>
       <c r="L128">
-        <v>5.021579003432405</v>
+        <v>4.268342152917543</v>
       </c>
       <c r="M128">
-        <v>12.15792127812817</v>
+        <v>19.0761957257819</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6086,10 +6086,10 @@
         <v>0.2810219038605005</v>
       </c>
       <c r="L129">
-        <v>5.339416173349507</v>
+        <v>4.405018343013344</v>
       </c>
       <c r="M129">
-        <v>12.74398309511271</v>
+        <v>20.10300639473459</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6130,10 +6130,10 @@
         <v>0.2990935212616019</v>
       </c>
       <c r="L130">
-        <v>5.682776903970437</v>
+        <v>4.546221523176349</v>
       </c>
       <c r="M130">
-        <v>13.24724367593347</v>
+        <v>21.08422671372097</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -6174,10 +6174,10 @@
         <v>0.3184814465824887</v>
       </c>
       <c r="L131">
-        <v>6.051147485067285</v>
+        <v>4.689639300927146</v>
       </c>
       <c r="M131">
-        <v>13.74470306795981</v>
+        <v>22.09667840307107</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -6218,13 +6218,13 @@
         <v>0.3391061351020049</v>
       </c>
       <c r="L132">
-        <v>6.390682224774504</v>
+        <v>4.83226242520357</v>
       </c>
       <c r="M132">
-        <v>14.24326760928802</v>
+        <v>23.09340491993343</v>
       </c>
       <c r="N132">
-        <v>0.0523343421635896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6262,13 +6262,13 @@
         <v>0.3608881351618692</v>
       </c>
       <c r="L133">
-        <v>6.099126367694576</v>
+        <v>4.971234061854747</v>
       </c>
       <c r="M133">
-        <v>13.82337139696503</v>
+        <v>22.55252506063162</v>
       </c>
       <c r="N133">
-        <v>0.7577482003809359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6306,13 +6306,13 @@
         <v>0.3838178588076352</v>
       </c>
       <c r="L134">
-        <v>6.171925754134659</v>
+        <v>5.104777522141549</v>
       </c>
       <c r="M134">
-        <v>14.11840398982377</v>
+        <v>23.10328568696132</v>
       </c>
       <c r="N134">
-        <v>1.120613563210411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6350,13 +6350,13 @@
         <v>0.4079841917511476</v>
       </c>
       <c r="L135">
-        <v>6.234352022370432</v>
+        <v>5.232397259208467</v>
       </c>
       <c r="M135">
-        <v>14.38654832962162</v>
+        <v>23.63030746751238</v>
       </c>
       <c r="N135">
-        <v>1.517347620901371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6394,13 +6394,13 @@
         <v>0.4335998948837712</v>
       </c>
       <c r="L136">
-        <v>6.291351808602599</v>
+        <v>5.354958701814573</v>
       </c>
       <c r="M136">
-        <v>14.63797681922198</v>
+        <v>24.1509965347631</v>
       </c>
       <c r="N136">
-        <v>1.947046194189052</v>
+        <v>0.02899257651740307</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6438,13 +6438,13 @@
         <v>0.4610160401600559</v>
       </c>
       <c r="L137">
-        <v>6.348753636305891</v>
+        <v>5.474565476900663</v>
       </c>
       <c r="M137">
-        <v>14.88571842343568</v>
+        <v>24.68793678712501</v>
       </c>
       <c r="N137">
-        <v>2.410551126735171</v>
+        <v>0.2186348278125633</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6482,13 +6482,13 @@
         <v>0.4907720344682965</v>
       </c>
       <c r="L138">
-        <v>6.412858143106991</v>
+        <v>5.594801192938578</v>
       </c>
       <c r="M138">
-        <v>15.14453448746816</v>
+        <v>25.2679229503968</v>
       </c>
       <c r="N138">
-        <v>2.911810511790641</v>
+        <v>0.4144811464015073</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6526,13 +6526,13 @@
         <v>0.5236824375799181</v>
       </c>
       <c r="L139">
-        <v>6.490722292043716</v>
+        <v>5.721230630560602</v>
       </c>
       <c r="M139">
-        <v>15.43135674670215</v>
+        <v>25.92341006260021</v>
       </c>
       <c r="N139">
-        <v>3.459244021974727</v>
+        <v>0.6178008467246232</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6570,13 +6570,13 @@
         <v>0.5608762573551791</v>
       </c>
       <c r="L140">
-        <v>6.59044028863599</v>
+        <v>5.861156889361621</v>
       </c>
       <c r="M140">
-        <v>15.76589888745648</v>
+        <v>26.69348991873918</v>
       </c>
       <c r="N140">
-        <v>4.066208601112414</v>
+        <v>0.8318260143913753</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6614,13 +6614,13 @@
         <v>0.603618089128282</v>
       </c>
       <c r="L141">
-        <v>6.720793227110465</v>
+        <v>6.02109043905461</v>
       </c>
       <c r="M141">
-        <v>16.16991238877817</v>
+        <v>27.62074690740913</v>
       </c>
       <c r="N141">
-        <v>4.74795046632689</v>
+        <v>1.05933408629137</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6658,13 +6658,13 @@
         <v>0.6527648327689839</v>
       </c>
       <c r="L142">
-        <v>6.88805512672373</v>
+        <v>6.201265911305343</v>
       </c>
       <c r="M142">
-        <v>16.65958927064687</v>
+        <v>28.73513745805013</v>
       </c>
       <c r="N142">
-        <v>5.514476695886961</v>
+        <v>1.298935738521695</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6702,13 +6702,13 @@
         <v>0.7079241002643445</v>
       </c>
       <c r="L143">
-        <v>7.084471542456564</v>
+        <v>6.389015004885707</v>
       </c>
       <c r="M143">
-        <v>17.24198448007169</v>
+        <v>30.03116016780058</v>
       </c>
       <c r="N143">
-        <v>6.366086362565981</v>
+        <v>1.547177203883071</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6746,13 +6746,13 @@
         <v>0.7667521961827493</v>
       </c>
       <c r="L144">
-        <v>7.3029924859546</v>
+        <v>6.555731277362504</v>
       </c>
       <c r="M144">
-        <v>17.87736284258692</v>
+        <v>31.4390062916234</v>
       </c>
       <c r="N144">
-        <v>7.265299241517635</v>
+        <v>1.777675720261958</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6790,13 +6790,13 @@
         <v>0.8249656031231076</v>
       </c>
       <c r="L145">
-        <v>7.518302585908691</v>
+        <v>6.661597245219092</v>
       </c>
       <c r="M145">
-        <v>18.50356486022053</v>
+        <v>32.83101012412658</v>
       </c>
       <c r="N145">
-        <v>8.156043873430354</v>
+        <v>1.963439913860894</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6834,13 +6834,13 @@
         <v>0.8776506954741128</v>
       </c>
       <c r="L146">
-        <v>7.700805178040221</v>
+        <v>6.670145285603253</v>
       </c>
       <c r="M146">
-        <v>19.04616486558795</v>
+        <v>34.0587482367197</v>
       </c>
       <c r="N146">
-        <v>8.97455803596792</v>
+        <v>2.080505583751598</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -6878,13 +6878,13 @@
         <v>0.9217798817670486</v>
       </c>
       <c r="L147">
-        <v>7.832536380892038</v>
+        <v>6.567681657590218</v>
       </c>
       <c r="M147">
-        <v>19.45845164866878</v>
+        <v>35.03242968957792</v>
       </c>
       <c r="N147">
-        <v>9.681281372681887</v>
+        <v>2.119902808124075</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -6922,13 +6922,13 @@
         <v>0.9590206625976641</v>
       </c>
       <c r="L148">
-        <v>7.924979428463507</v>
+        <v>6.37748740627446</v>
       </c>
       <c r="M148">
-        <v>19.767827468278</v>
+        <v>35.81029870481003</v>
       </c>
       <c r="N148">
-        <v>10.29641316089211</v>
+        <v>2.095713462210971</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -6966,13 +6966,13 @@
         <v>0.9969416117324224</v>
       </c>
       <c r="L149">
-        <v>8.026717460917274</v>
+        <v>6.156114452447702</v>
       </c>
       <c r="M149">
-        <v>20.0978659650437</v>
+        <v>36.63741007721087</v>
       </c>
       <c r="N149">
-        <v>10.91517316199876</v>
+        <v>2.041650781456637</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7010,13 +7010,13 @@
         <v>1.046514905610715</v>
       </c>
       <c r="L150">
-        <v>8.207989790095658</v>
+        <v>5.965134961981072</v>
       </c>
       <c r="M150">
-        <v>20.63148457605077</v>
+        <v>37.86712479985761</v>
       </c>
       <c r="N150">
-        <v>11.67579341650793</v>
+        <v>1.992612980593269</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7054,13 +7054,13 @@
         <v>1.11566950452979</v>
       </c>
       <c r="L151">
-        <v>8.520650854586387</v>
+        <v>5.829373161168148</v>
       </c>
       <c r="M151">
-        <v>21.50847949143678</v>
+        <v>39.75683710949776</v>
       </c>
       <c r="N151">
-        <v>12.67706973147963</v>
+        <v>1.959130348477006</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7098,13 +7098,13 @@
         <v>1.202379768396284</v>
       </c>
       <c r="L152">
-        <v>8.95415637504045</v>
+        <v>5.711303899882349</v>
       </c>
       <c r="M152">
-        <v>22.70826008082116</v>
+        <v>42.24500285206719</v>
       </c>
       <c r="N152">
-        <v>13.89105922448895</v>
+        <v>1.914543577730211</v>
       </c>
     </row>
   </sheetData>

--- a/results/flows_per_year.xlsx
+++ b/results/flows_per_year.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>F_0_1_t</t>
+  </si>
+  <si>
+    <t>F_1_2_t</t>
+  </si>
+  <si>
+    <t>F_1_9_t</t>
+  </si>
   <si>
     <t>F_2_3_t</t>
   </si>
@@ -49,10 +58,10 @@
     <t>F_7_1_t</t>
   </si>
   <si>
-    <t>F_1_2_t</t>
+    <t>F_7_8_t</t>
   </si>
   <si>
-    <t>scrap_surplus_t</t>
+    <t>F_8_1_t</t>
   </si>
   <si>
     <t>Time</t>
@@ -413,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -462,8 +471,17 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1900</v>
       </c>
@@ -506,8 +524,17 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1901</v>
       </c>
@@ -550,8 +577,17 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>1902</v>
       </c>
@@ -594,8 +630,17 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>1903</v>
       </c>
@@ -638,8 +683,17 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>1904</v>
       </c>
@@ -682,8 +736,17 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>1905</v>
       </c>
@@ -726,8 +789,17 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>1906</v>
       </c>
@@ -770,8 +842,17 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>1907</v>
       </c>
@@ -814,8 +895,17 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>1908</v>
       </c>
@@ -858,8 +948,17 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>1909</v>
       </c>
@@ -902,8 +1001,17 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>1910</v>
       </c>
@@ -946,8 +1054,17 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>1911</v>
       </c>
@@ -990,8 +1107,17 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>1912</v>
       </c>
@@ -1034,8 +1160,17 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>1913</v>
       </c>
@@ -1078,8 +1213,17 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>1914</v>
       </c>
@@ -1122,8 +1266,17 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>1915</v>
       </c>
@@ -1166,8 +1319,17 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>1916</v>
       </c>
@@ -1210,8 +1372,17 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>1917</v>
       </c>
@@ -1254,8 +1425,17 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>1918</v>
       </c>
@@ -1298,8 +1478,17 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>1919</v>
       </c>
@@ -1342,8 +1531,17 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>1920</v>
       </c>
@@ -1386,8 +1584,17 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>1921</v>
       </c>
@@ -1430,8 +1637,17 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>1922</v>
       </c>
@@ -1474,8 +1690,17 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>1923</v>
       </c>
@@ -1518,8 +1743,17 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>1924</v>
       </c>
@@ -1562,8 +1796,17 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>1925</v>
       </c>
@@ -1606,8 +1849,17 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>1926</v>
       </c>
@@ -1650,8 +1902,17 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>1927</v>
       </c>
@@ -1694,8 +1955,17 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>1928</v>
       </c>
@@ -1738,8 +2008,17 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>1929</v>
       </c>
@@ -1782,8 +2061,17 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>1930</v>
       </c>
@@ -1826,8 +2114,17 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>1931</v>
       </c>
@@ -1870,8 +2167,17 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>1932</v>
       </c>
@@ -1914,8 +2220,17 @@
       <c r="N34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>1933</v>
       </c>
@@ -1958,8 +2273,17 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>1934</v>
       </c>
@@ -2002,8 +2326,17 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>1935</v>
       </c>
@@ -2046,8 +2379,17 @@
       <c r="N37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>1936</v>
       </c>
@@ -2090,8 +2432,17 @@
       <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>1937</v>
       </c>
@@ -2134,8 +2485,17 @@
       <c r="N39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>1938</v>
       </c>
@@ -2178,8 +2538,17 @@
       <c r="N40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>1939</v>
       </c>
@@ -2222,8 +2591,17 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>1940</v>
       </c>
@@ -2266,8 +2644,17 @@
       <c r="N42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>1941</v>
       </c>
@@ -2310,8 +2697,17 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>1942</v>
       </c>
@@ -2354,8 +2750,17 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>1943</v>
       </c>
@@ -2398,8 +2803,17 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>1944</v>
       </c>
@@ -2442,8 +2856,17 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>1945</v>
       </c>
@@ -2486,8 +2909,17 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>1946</v>
       </c>
@@ -2530,8 +2962,17 @@
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>1947</v>
       </c>
@@ -2574,8 +3015,17 @@
       <c r="N49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>1948</v>
       </c>
@@ -2618,8 +3068,17 @@
       <c r="N50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>1949</v>
       </c>
@@ -2662,4449 +3121,5367 @@
       <c r="N51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>1950</v>
       </c>
       <c r="B52">
+        <v>0.5102780366178435</v>
+      </c>
+      <c r="C52">
         <v>0.5102828806193229</v>
       </c>
-      <c r="C52">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.5102828806193229</v>
+      </c>
+      <c r="F52">
         <v>1.616129251539567e-05</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <v>1.106234358965443e-05</v>
       </c>
-      <c r="E52">
+      <c r="H52">
         <v>1.732335211950548e-06</v>
       </c>
-      <c r="F52">
+      <c r="I52">
         <v>3.366613713790687e-06</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>1.212634648365383e-06</v>
       </c>
-      <c r="H52">
+      <c r="K52">
         <v>5.197005635851645e-07</v>
       </c>
-      <c r="I52">
+      <c r="L52">
         <v>6.063173241826919e-08</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>1.152002915947115e-06</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>1.943157138687926e-07</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>3.69199856350706e-06</v>
       </c>
-      <c r="M52">
-        <v>0.5102828806193229</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>1951</v>
       </c>
       <c r="B53">
+        <v>0.5166548458552224</v>
+      </c>
+      <c r="C53">
+        <v>0.516669718407005</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>0.5166697184070049</v>
       </c>
-      <c r="C53">
+      <c r="F53">
         <v>4.869684070200343e-05</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>3.304152303605461e-05</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>5.318793822405684e-06</v>
       </c>
-      <c r="F53">
+      <c r="I53">
         <v>1.033652384354312e-05</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>3.723155675683978e-06</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>1.595638146721705e-06</v>
       </c>
-      <c r="I53">
+      <c r="L53">
         <v>1.861577837841989e-07</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>3.53699789189978e-06</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>5.966080995132413e-07</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>1.133555389075159e-05</v>
       </c>
-      <c r="M53">
-        <v>0.516669718407005</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>1952</v>
       </c>
       <c r="B54">
+        <v>0.5250169472423073</v>
+      </c>
+      <c r="C54">
         <v>0.5250598450728583</v>
       </c>
-      <c r="C54">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.5250598450728583</v>
+      </c>
+      <c r="F54">
         <v>0.0001371500431573373</v>
       </c>
-      <c r="D54">
+      <c r="G54">
         <v>9.199443205103991e-05</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>1.5341329414319e-05</v>
       </c>
-      <c r="F54">
+      <c r="I54">
         <v>2.981428169197844e-05</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>1.07389305900233e-05</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>4.602398824295699e-06</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <v>5.369465295011651e-07</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>1.020198406052214e-05</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>1.720834025813707e-06</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>3.269584649046043e-05</v>
       </c>
-      <c r="M54">
-        <v>0.5250598450728583</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>1953</v>
       </c>
       <c r="B55">
+        <v>0.5548103323740613</v>
+      </c>
+      <c r="C55">
+        <v>0.5549266916070887</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>0.5549266916070885</v>
       </c>
-      <c r="C55">
+      <c r="F55">
         <v>0.0003618034051088319</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>0.0002393200019220231</v>
       </c>
-      <c r="E55">
+      <c r="H55">
         <v>4.16129510826978e-05</v>
       </c>
-      <c r="F55">
+      <c r="I55">
         <v>8.08704521041108e-05</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>2.912906575788846e-05</v>
       </c>
-      <c r="H55">
+      <c r="K55">
         <v>1.248388532480934e-05</v>
       </c>
-      <c r="I55">
+      <c r="L55">
         <v>1.456453287894423e-06</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>2.767261246999403e-05</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>4.667716871446008e-06</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>8.868662055747415e-05</v>
       </c>
-      <c r="M55">
-        <v>0.5549266916070887</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>1954</v>
       </c>
       <c r="B56">
+        <v>0.5603710461134606</v>
+      </c>
+      <c r="C56">
         <v>0.5606662037032415</v>
       </c>
-      <c r="C56">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0.5606662037032415</v>
+      </c>
+      <c r="F56">
         <v>0.0008910099146668005</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>0.0005803177148973318</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>0.0001055556832550119</v>
       </c>
-      <c r="F56">
+      <c r="I56">
         <v>0.0002051365165144572</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>7.388897827850835e-05</v>
       </c>
-      <c r="H56">
+      <c r="K56">
         <v>3.166670497650358e-05</v>
       </c>
-      <c r="I56">
+      <c r="L56">
         <v>3.694448913925417e-06</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>7.019452936458294e-05</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>1.184016107454804e-05</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <v>0.0002249630604164127</v>
       </c>
-      <c r="M56">
-        <v>0.5606662037032415</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>1955</v>
       </c>
       <c r="B57">
+        <v>0.6225696999573235</v>
+      </c>
+      <c r="C57">
         <v>0.6232718818418949</v>
       </c>
-      <c r="C57">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.6232718818418949</v>
+      </c>
+      <c r="F57">
         <v>0.002054281961380824</v>
       </c>
-      <c r="D57">
+      <c r="G57">
         <v>0.001315143135516156</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>0.0002511176780181242</v>
       </c>
-      <c r="F57">
+      <c r="I57">
         <v>0.0004880211478465432</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>0.000175782374612687</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <v>7.533530340543729e-05</v>
       </c>
-      <c r="I57">
+      <c r="L57">
         <v>8.789118730634348e-06</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>0.0001669932558820527</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>2.816782256259903e-05</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>0.0005351886286893814</v>
       </c>
-      <c r="M57">
-        <v>0.6232718818418949</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>1956</v>
       </c>
       <c r="B58">
+        <v>0.631968747155777</v>
+      </c>
+      <c r="C58">
+        <v>0.6335318285140253</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>0.6335318285140252</v>
       </c>
-      <c r="C58">
+      <c r="F58">
         <v>0.004428736052988665</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <v>0.002783387254832661</v>
       </c>
-      <c r="E58">
+      <c r="H58">
         <v>0.0005589967070658212</v>
       </c>
-      <c r="F58">
+      <c r="I58">
         <v>0.001086352091090181</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>0.0003912976949460747</v>
       </c>
-      <c r="H58">
+      <c r="K58">
         <v>0.0001676990121197463</v>
       </c>
-      <c r="I58">
+      <c r="L58">
         <v>1.956488474730373e-05</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>0.0003717328101987711</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>6.270255516049637e-05</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>0.001191348548049431</v>
       </c>
-      <c r="M58">
-        <v>0.6335318285140253</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>1957</v>
       </c>
       <c r="B59">
+        <v>0.5923356199692319</v>
+      </c>
+      <c r="C59">
+        <v>0.5955934837702366</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>0.5955934837702365</v>
       </c>
-      <c r="C59">
+      <c r="F59">
         <v>0.008937039194624848</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <v>0.005507708877777805</v>
       </c>
-      <c r="E59">
+      <c r="H59">
         <v>0.001165092992262135</v>
       </c>
-      <c r="F59">
+      <c r="I59">
         <v>0.002264237324584904</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>0.0008155650945834949</v>
       </c>
-      <c r="H59">
+      <c r="K59">
         <v>0.0003495278976786406</v>
       </c>
-      <c r="I59">
+      <c r="L59">
         <v>4.077825472917474e-05</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>0.0007747868398543201</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>0.0001306882611131773</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>0.002483076961150369</v>
       </c>
-      <c r="M59">
-        <v>0.5955934837702366</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>1958</v>
       </c>
       <c r="B60">
+        <v>0.5920288715668027</v>
+      </c>
+      <c r="C60">
         <v>0.5983913130152423</v>
       </c>
-      <c r="C60">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.5983913130152423</v>
+      </c>
+      <c r="F60">
         <v>0.01690002413615826</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>0.01020271734832713</v>
       </c>
-      <c r="E60">
+      <c r="H60">
         <v>0.002275367049711866</v>
       </c>
-      <c r="F60">
+      <c r="I60">
         <v>0.004421939738119288</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>0.001592756934798306</v>
       </c>
-      <c r="H60">
+      <c r="K60">
         <v>0.0006826101149135596</v>
       </c>
-      <c r="I60">
+      <c r="L60">
         <v>7.963784673991529e-05</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>0.00151311908805839</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>0.0002552274926516423</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>0.004849322360381204</v>
       </c>
-      <c r="M60">
-        <v>0.5983913130152423</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>1959</v>
       </c>
       <c r="B61">
+        <v>0.6020665134238342</v>
+      </c>
+      <c r="C61">
+        <v>0.6137176582650126</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>0.6137176582650128</v>
       </c>
-      <c r="C61">
+      <c r="F61">
         <v>0.02998028566786859</v>
       </c>
-      <c r="D61">
+      <c r="G61">
         <v>0.01771592267715453</v>
       </c>
-      <c r="E61">
+      <c r="H61">
         <v>0.004166738708383615</v>
       </c>
-      <c r="F61">
+      <c r="I61">
         <v>0.008097624282330424</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>0.00291671709586853</v>
       </c>
-      <c r="H61">
+      <c r="K61">
         <v>0.001250021612515084</v>
       </c>
-      <c r="I61">
+      <c r="L61">
         <v>0.0001458358547934265</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>0.002770881241075104</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>0.0004673822947422753</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>0.00888026360010323</v>
       </c>
-      <c r="M61">
-        <v>0.6137176582650126</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>1960</v>
       </c>
       <c r="B62">
+        <v>0.6077203265082131</v>
+      </c>
+      <c r="C62">
+        <v>0.6277536792345876</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>0.6277536792345877</v>
       </c>
-      <c r="C62">
+      <c r="F62">
         <v>0.04996968465321808</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>0.02888194494124506</v>
       </c>
-      <c r="E62">
+      <c r="H62">
         <v>0.007164424389324181</v>
       </c>
-      <c r="F62">
+      <c r="I62">
         <v>0.01392331532264886</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>0.005015097072526924</v>
       </c>
-      <c r="H62">
+      <c r="K62">
         <v>0.002149327316797253</v>
       </c>
-      <c r="I62">
+      <c r="L62">
         <v>0.0002507548536263462</v>
       </c>
-      <c r="J62">
+      <c r="M62">
         <v>0.004764342218900578</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>0.0008036321319723062</v>
       </c>
-      <c r="L62">
+      <c r="O62">
         <v>0.01526901050747382</v>
       </c>
-      <c r="M62">
-        <v>0.6277536792345876</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>1961</v>
       </c>
       <c r="B63">
+        <v>0.6035919860956463</v>
+      </c>
+      <c r="C63">
+        <v>0.6359854366096307</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>0.6359854366096308</v>
       </c>
-      <c r="C63">
+      <c r="F63">
         <v>0.07840592896891456</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>0.04430756000682579</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>0.01158470227558145</v>
       </c>
-      <c r="F63">
+      <c r="I63">
         <v>0.02251366668650733</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>0.008109291592907013</v>
       </c>
-      <c r="H63">
+      <c r="K63">
         <v>0.003475410682674434</v>
       </c>
-      <c r="I63">
+      <c r="L63">
         <v>0.0004054645796453507</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>0.007703827013261662</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>0.001299453868459088</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>0.02468962350072268</v>
       </c>
-      <c r="M63">
-        <v>0.6359854366096307</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>1962</v>
       </c>
       <c r="B64">
+        <v>0.6009976051081632</v>
+      </c>
+      <c r="C64">
         <v>0.6503700033180759</v>
       </c>
-      <c r="C64">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0.6503700033180759</v>
+      </c>
+      <c r="F64">
         <v>0.1160938400264405</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>0.06412289454232201</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>0.01765679558114282</v>
       </c>
-      <c r="F64">
+      <c r="I64">
         <v>0.03431414990297565</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>0.01235975690679997</v>
       </c>
-      <c r="H64">
+      <c r="K64">
         <v>0.005297038674342845</v>
       </c>
-      <c r="I64">
+      <c r="L64">
         <v>0.0006179878453399987</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>0.01174176906145998</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>0.001980559428865926</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>0.03763062914845259</v>
       </c>
-      <c r="M64">
-        <v>0.6503700033180759</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>1963</v>
       </c>
       <c r="B65">
+        <v>0.6569410302150959</v>
+      </c>
+      <c r="C65">
         <v>0.7280687666642501</v>
       </c>
-      <c r="C65">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.7280687666642501</v>
+      </c>
+      <c r="F65">
         <v>0.1626868137134633</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>0.08781551218803772</v>
       </c>
-      <c r="E65">
+      <c r="H65">
         <v>0.02543704474902277</v>
       </c>
-      <c r="F65">
+      <c r="I65">
         <v>0.04943425677640279</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>0.01780593132431595</v>
       </c>
-      <c r="H65">
+      <c r="K65">
         <v>0.007631113424706835</v>
       </c>
-      <c r="I65">
+      <c r="L65">
         <v>0.0008902965662157974</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>0.01691563475810015</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>0.00285326851005548</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <v>0.05421210169105414</v>
       </c>
-      <c r="M65">
-        <v>0.7280687666642501</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
         <v>1964</v>
       </c>
       <c r="B66">
+        <v>0.6599155320931528</v>
+      </c>
+      <c r="C66">
         <v>0.7570927958566408</v>
       </c>
-      <c r="C66">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0.7570927958566408</v>
+      </c>
+      <c r="F66">
         <v>0.2165036749126137</v>
       </c>
-      <c r="D66">
+      <c r="G66">
         <v>0.1142118183194683</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>0.03475300256049173</v>
       </c>
-      <c r="F66">
+      <c r="I66">
         <v>0.06753885403265375</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>0.0243271017923442</v>
       </c>
-      <c r="H66">
+      <c r="K66">
         <v>0.01042590076814752</v>
       </c>
-      <c r="I66">
+      <c r="L66">
         <v>0.00121635508961721</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>0.023110746702727</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>0.003898237740040064</v>
       </c>
-      <c r="L66">
+      <c r="O66">
         <v>0.0740665170607612</v>
       </c>
-      <c r="M66">
-        <v>0.7570927958566408</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
         <v>1965</v>
       </c>
       <c r="B67">
+        <v>0.6902696534213889</v>
+      </c>
+      <c r="C67">
+        <v>0.8166769708856849</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>0.8166769708856852</v>
       </c>
-      <c r="C67">
+      <c r="F67">
         <v>0.2747151445203694</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>0.141654810347426</v>
       </c>
-      <c r="E67">
+      <c r="H67">
         <v>0.04520639558439744</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>0.08785393858854586</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>0.03164447690907818</v>
       </c>
-      <c r="H67">
+      <c r="K67">
         <v>0.01356191867531922</v>
       </c>
-      <c r="I67">
+      <c r="L67">
         <v>0.001582223845453909</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>0.03006225306362427</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>0.005070792863193258</v>
       </c>
-      <c r="L67">
+      <c r="O67">
         <v>0.09634506440067188</v>
       </c>
-      <c r="M67">
-        <v>0.8166769708856849</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
         <v>1966</v>
       </c>
       <c r="B68">
+        <v>0.668278153989069</v>
+      </c>
+      <c r="C68">
         <v>0.8255399075291283</v>
       </c>
-      <c r="C68">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0.8255399075291283</v>
+      </c>
+      <c r="F68">
         <v>0.333859630767728</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>0.1683209428308232</v>
       </c>
-      <c r="E68">
+      <c r="H68">
         <v>0.05624070808112783</v>
       </c>
-      <c r="F68">
+      <c r="I68">
         <v>0.1092979798557767</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>0.03936849565678948</v>
       </c>
-      <c r="H68">
+      <c r="K68">
         <v>0.01687221242433835</v>
       </c>
-      <c r="I68">
+      <c r="L68">
         <v>0.001968424782839475</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>0.03740007087395001</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>0.006308509614005755</v>
       </c>
-      <c r="L68">
+      <c r="O68">
         <v>0.1198616826661093</v>
       </c>
-      <c r="M68">
-        <v>0.8255399075291283</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>1967</v>
       </c>
       <c r="B69">
+        <v>0.6341206565092636</v>
+      </c>
+      <c r="C69">
         <v>0.8221884962613993</v>
       </c>
-      <c r="C69">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.8221884962613993</v>
+      </c>
+      <c r="F69">
         <v>0.3905465629351396</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>0.1925804158276282</v>
       </c>
-      <c r="E69">
+      <c r="H69">
         <v>0.06725772946601344</v>
       </c>
-      <c r="F69">
+      <c r="I69">
         <v>0.1307084176414977</v>
       </c>
-      <c r="G69">
+      <c r="J69">
         <v>0.04708041062620941</v>
       </c>
-      <c r="H69">
+      <c r="K69">
         <v>0.02017731883980403</v>
       </c>
-      <c r="I69">
+      <c r="L69">
         <v>0.00235402053131047</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>0.04472639009489894</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <v>0.007544286824065096</v>
       </c>
-      <c r="L69">
+      <c r="O69">
         <v>0.1433414496572367</v>
       </c>
-      <c r="M69">
-        <v>0.8221884962613993</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>1968</v>
       </c>
       <c r="B70">
+        <v>0.6722775403321198</v>
+      </c>
+      <c r="C70">
+        <v>0.8896522866220384</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>0.8896522866220383</v>
       </c>
-      <c r="C70">
+      <c r="F70">
         <v>0.4421004245139363</v>
       </c>
-      <c r="D70">
+      <c r="G70">
         <v>0.2132849021034959</v>
       </c>
-      <c r="E70">
+      <c r="H70">
         <v>0.07773860697277794</v>
       </c>
-      <c r="F70">
+      <c r="I70">
         <v>0.1510769154376628</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>0.05441702488094454</v>
       </c>
-      <c r="H70">
+      <c r="K70">
         <v>0.02332158209183337</v>
       </c>
-      <c r="I70">
+      <c r="L70">
         <v>0.002720851244047227</v>
       </c>
-      <c r="J70">
+      <c r="M70">
         <v>0.05169617363689731</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>0.008719924876474808</v>
       </c>
-      <c r="L70">
+      <c r="O70">
         <v>0.1656785726530213</v>
       </c>
-      <c r="M70">
-        <v>0.8896522866220384</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
         <v>1969</v>
       </c>
       <c r="B71">
+        <v>0.6712309689753679</v>
+      </c>
+      <c r="C71">
         <v>0.915464558246726</v>
       </c>
-      <c r="C71">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0.915464558246726</v>
+      </c>
+      <c r="F71">
         <v>0.4869508134587571</v>
       </c>
-      <c r="D71">
+      <c r="G71">
         <v>0.2298628247520642</v>
       </c>
-      <c r="E71">
+      <c r="H71">
         <v>0.08734399616317123</v>
       </c>
-      <c r="F71">
+      <c r="I71">
         <v>0.1697439925435215</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>0.06114079731421988</v>
       </c>
-      <c r="H71">
+      <c r="K71">
         <v>0.02620319884895138</v>
       </c>
-      <c r="I71">
+      <c r="L71">
         <v>0.003057039865710994</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>0.05808375744850889</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>0.009797359569623645</v>
       </c>
-      <c r="L71">
+      <c r="O71">
         <v>0.1861498318228493</v>
       </c>
-      <c r="M71">
-        <v>0.915464558246726</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>1970</v>
       </c>
       <c r="B72">
+        <v>0.5601852434550415</v>
+      </c>
+      <c r="C72">
+        <v>0.9035809647651953</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>0.9035809647651951</v>
       </c>
-      <c r="C72">
+      <c r="F72">
         <v>0.5247102152897273</v>
       </c>
-      <c r="D72">
+      <c r="G72">
         <v>0.1632410349632497</v>
       </c>
-      <c r="E72">
+      <c r="H72">
         <v>0.1228068369057903</v>
       </c>
-      <c r="F72">
+      <c r="I72">
         <v>0.2386623434206869</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>0.08596478583405331</v>
       </c>
-      <c r="H72">
+      <c r="K72">
         <v>0.03684205107173713</v>
       </c>
-      <c r="I72">
+      <c r="L72">
         <v>0.004298239291702666</v>
       </c>
-      <c r="J72">
+      <c r="M72">
         <v>0.08166654654235064</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>0.01377521972462121</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>0.261729174767803</v>
       </c>
-      <c r="M72">
-        <v>0.9035809647651953</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>1971</v>
       </c>
       <c r="B73">
+        <v>0.6243822459381871</v>
+      </c>
+      <c r="C73">
+        <v>0.9959184452730141</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
         <v>0.9959184452730143</v>
       </c>
-      <c r="C73">
+      <c r="F73">
         <v>0.5559860880386529</v>
       </c>
-      <c r="D73">
+      <c r="G73">
         <v>0.1648953518967299</v>
       </c>
-      <c r="E73">
+      <c r="H73">
         <v>0.1328705706123201</v>
       </c>
-      <c r="F73">
+      <c r="I73">
         <v>0.2582201655296033</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>0.09300939942862403</v>
       </c>
-      <c r="H73">
+      <c r="K73">
         <v>0.03986117118369602</v>
       </c>
-      <c r="I73">
+      <c r="L73">
         <v>0.004650469971431202</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>0.08835892945719284</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>0.01490406683566496</v>
       </c>
-      <c r="L73">
+      <c r="O73">
         <v>0.2831772698776341</v>
       </c>
-      <c r="M73">
-        <v>0.9959184452730141</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
         <v>1972</v>
       </c>
       <c r="B74">
+        <v>0.6494267396631525</v>
+      </c>
+      <c r="C74">
         <v>1.045956681996581</v>
       </c>
-      <c r="C74">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1.045956681996581</v>
+      </c>
+      <c r="F74">
         <v>0.5820478384007998</v>
       </c>
-      <c r="D74">
+      <c r="G74">
         <v>0.1646478991024535</v>
       </c>
-      <c r="E74">
+      <c r="H74">
         <v>0.1418089537359765</v>
       </c>
-      <c r="F74">
+      <c r="I74">
         <v>0.2755909855623697</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <v>0.09926626761518359</v>
       </c>
-      <c r="H74">
+      <c r="K74">
         <v>0.04254268612079297</v>
       </c>
-      <c r="I74">
+      <c r="L74">
         <v>0.00496331338075918</v>
       </c>
-      <c r="J74">
+      <c r="M74">
         <v>0.09430295423442442</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>0.01590668358415813</v>
       </c>
-      <c r="L74">
+      <c r="O74">
         <v>0.3022269880990044</v>
       </c>
-      <c r="M74">
-        <v>1.045956681996581</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
         <v>1973</v>
       </c>
       <c r="B75">
+        <v>0.6732039256483545</v>
+      </c>
+      <c r="C75">
         <v>1.092495866739968</v>
       </c>
-      <c r="C75">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1.092495866739968</v>
+      </c>
+      <c r="F75">
         <v>0.6044989735626252</v>
       </c>
-      <c r="D75">
+      <c r="G75">
         <v>0.1631390355714524</v>
       </c>
-      <c r="E75">
+      <c r="H75">
         <v>0.1499492097021293</v>
       </c>
-      <c r="F75">
+      <c r="I75">
         <v>0.2914107282890435</v>
       </c>
-      <c r="G75">
+      <c r="J75">
         <v>0.1049644467914904</v>
       </c>
-      <c r="H75">
+      <c r="K75">
         <v>0.04498476291063876</v>
       </c>
-      <c r="I75">
+      <c r="L75">
         <v>0.005248222339574523</v>
       </c>
-      <c r="J75">
+      <c r="M75">
         <v>0.09971622445191591</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>0.01681977455998412</v>
       </c>
-      <c r="L75">
+      <c r="O75">
         <v>0.3195757166396982</v>
       </c>
-      <c r="M75">
-        <v>1.092495866739968</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
         <v>1974</v>
       </c>
       <c r="B76">
+        <v>0.5394013113043189</v>
+      </c>
+      <c r="C76">
         <v>0.9803243046049885</v>
       </c>
-      <c r="C76">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0.9803243046049885</v>
+      </c>
+      <c r="F76">
         <v>0.6249990672293236</v>
       </c>
-      <c r="D76">
+      <c r="G76">
         <v>0.1608696005970398</v>
       </c>
-      <c r="E76">
+      <c r="H76">
         <v>0.1576850110994297</v>
       </c>
-      <c r="F76">
+      <c r="I76">
         <v>0.306444455532854</v>
       </c>
-      <c r="G76">
+      <c r="J76">
         <v>0.1103795077696008</v>
       </c>
-      <c r="H76">
+      <c r="K76">
         <v>0.04730550332982893</v>
       </c>
-      <c r="I76">
+      <c r="L76">
         <v>0.005518975388480042</v>
       </c>
-      <c r="J76">
+      <c r="M76">
         <v>0.1048605323811208</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>0.01768749794313415</v>
       </c>
-      <c r="L76">
+      <c r="O76">
         <v>0.3360624609195487</v>
       </c>
-      <c r="M76">
-        <v>0.9803243046049885</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
         <v>1975</v>
       </c>
       <c r="B77">
+        <v>0.5219951075588923</v>
+      </c>
+      <c r="C77">
+        <v>0.9845418964038379</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>0.984541896403838</v>
       </c>
-      <c r="C77">
+      <c r="F77">
         <v>0.6450837225231484</v>
       </c>
-      <c r="D77">
+      <c r="G77">
         <v>0.1581923658442586</v>
       </c>
-      <c r="E77">
+      <c r="H77">
         <v>0.1654182173332128</v>
       </c>
-      <c r="F77">
+      <c r="I77">
         <v>0.3214731393456774</v>
       </c>
-      <c r="G77">
+      <c r="J77">
         <v>0.1157927521332489</v>
       </c>
-      <c r="H77">
+      <c r="K77">
         <v>0.0496254651999638</v>
       </c>
-      <c r="I77">
+      <c r="L77">
         <v>0.005789637606662444</v>
       </c>
-      <c r="J77">
+      <c r="M77">
         <v>0.1100031145265864</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>0.01855493022728207</v>
       </c>
-      <c r="L77">
+      <c r="O77">
         <v>0.3525436743183593</v>
       </c>
-      <c r="M77">
-        <v>0.9845418964038379</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
         <v>1976</v>
       </c>
       <c r="B78">
+        <v>0.6165630168137965</v>
+      </c>
+      <c r="C78">
         <v>1.10172151779957</v>
       </c>
-      <c r="C78">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1.10172151779957</v>
+      </c>
+      <c r="F78">
         <v>0.6660275452179033</v>
       </c>
-      <c r="D78">
+      <c r="G78">
         <v>0.1553343862855101</v>
       </c>
-      <c r="E78">
+      <c r="H78">
         <v>0.173504727073185</v>
       </c>
-      <c r="F78">
+      <c r="I78">
         <v>0.3371884318592086</v>
       </c>
-      <c r="G78">
+      <c r="J78">
         <v>0.1214533089512295</v>
       </c>
-      <c r="H78">
+      <c r="K78">
         <v>0.0520514181219555</v>
       </c>
-      <c r="I78">
+      <c r="L78">
         <v>0.006072665447561475</v>
       </c>
-      <c r="J78">
+      <c r="M78">
         <v>0.115380643503668</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <v>0.0194619924990582</v>
       </c>
-      <c r="L78">
+      <c r="O78">
         <v>0.3697778574821058</v>
       </c>
-      <c r="M78">
-        <v>1.10172151779957</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
         <v>1977</v>
       </c>
       <c r="B79">
+        <v>0.7099987938563795</v>
+      </c>
+      <c r="C79">
         <v>1.219511167928284</v>
       </c>
-      <c r="C79">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1.219511167928284</v>
+      </c>
+      <c r="F79">
         <v>0.688757070437958</v>
       </c>
-      <c r="D79">
+      <c r="G79">
         <v>0.1524282556254276</v>
       </c>
-      <c r="E79">
+      <c r="H79">
         <v>0.182214276827334</v>
       </c>
-      <c r="F79">
+      <c r="I79">
         <v>0.3541145379851964</v>
       </c>
-      <c r="G79">
+      <c r="J79">
         <v>0.1275499937791339</v>
       </c>
-      <c r="H79">
+      <c r="K79">
         <v>0.05466428304820024</v>
       </c>
-      <c r="I79">
+      <c r="L79">
         <v>0.006377499688956695</v>
       </c>
-      <c r="J79">
+      <c r="M79">
         <v>0.1211724940901772</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>0.02043894105166983</v>
       </c>
-      <c r="L79">
+      <c r="O79">
         <v>0.3883398799817269</v>
       </c>
-      <c r="M79">
-        <v>1.219511167928284</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
         <v>1978</v>
       </c>
       <c r="B80">
+        <v>0.7788019288373101</v>
+      </c>
+      <c r="C80">
         <v>1.31484762270926</v>
       </c>
-      <c r="C80">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1.31484762270926</v>
+      </c>
+      <c r="F80">
         <v>0.7137982435856746</v>
       </c>
-      <c r="D80">
+      <c r="G80">
         <v>0.1495396184573064</v>
       </c>
-      <c r="E80">
+      <c r="H80">
         <v>0.1917032508448942</v>
       </c>
-      <c r="F80">
+      <c r="I80">
         <v>0.3725553742834739</v>
       </c>
-      <c r="G80">
+      <c r="J80">
         <v>0.134192275591426</v>
       </c>
-      <c r="H80">
+      <c r="K80">
         <v>0.05751097525346827</v>
       </c>
-      <c r="I80">
+      <c r="L80">
         <v>0.006709613779571299</v>
       </c>
-      <c r="J80">
+      <c r="M80">
         <v>0.1274826618118547</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>0.02150331747684709</v>
       </c>
-      <c r="L80">
+      <c r="O80">
         <v>0.4085630320600947</v>
       </c>
-      <c r="M80">
-        <v>1.31484762270926</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
         <v>1979</v>
       </c>
       <c r="B81">
+        <v>0.7982680501615286</v>
+      </c>
+      <c r="C81">
         <v>1.36311253422606</v>
       </c>
-      <c r="C81">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1.36311253422606</v>
+      </c>
+      <c r="F81">
         <v>0.7412574691994479</v>
       </c>
-      <c r="D81">
+      <c r="G81">
         <v>0.1466843280788884</v>
       </c>
-      <c r="E81">
+      <c r="H81">
         <v>0.2020024133294208</v>
       </c>
-      <c r="F81">
+      <c r="I81">
         <v>0.3925707277911388</v>
       </c>
-      <c r="G81">
+      <c r="J81">
         <v>0.1414016893305945</v>
       </c>
-      <c r="H81">
+      <c r="K81">
         <v>0.06060072399882625</v>
       </c>
-      <c r="I81">
+      <c r="L81">
         <v>0.007070084466529728</v>
       </c>
-      <c r="J81">
+      <c r="M81">
         <v>0.1343316048640648</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>0.02265857258949824</v>
       </c>
-      <c r="L81">
+      <c r="O81">
         <v>0.4305128792004665</v>
       </c>
-      <c r="M81">
-        <v>1.36311253422606</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
         <v>1980</v>
       </c>
       <c r="B82">
+        <v>0.6835059841538974</v>
+      </c>
+      <c r="C82">
         <v>1.279229416176819</v>
       </c>
-      <c r="C82">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1.279229416176819</v>
+      </c>
+      <c r="F82">
         <v>0.7708504934094716</v>
       </c>
-      <c r="D82">
+      <c r="G82">
         <v>0.1437731965432383</v>
       </c>
-      <c r="E82">
+      <c r="H82">
         <v>0.2130454918840408</v>
       </c>
-      <c r="F82">
+      <c r="I82">
         <v>0.4140318049821925</v>
       </c>
-      <c r="G82">
+      <c r="J82">
         <v>0.1491318443188286</v>
       </c>
-      <c r="H82">
+      <c r="K82">
         <v>0.06391364756521228</v>
       </c>
-      <c r="I82">
+      <c r="L82">
         <v>0.007456592215941433</v>
       </c>
-      <c r="J82">
+      <c r="M82">
         <v>0.1416752521028872</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>0.02389727262737026</v>
       </c>
-      <c r="L82">
+      <c r="O82">
         <v>0.4540481799200349</v>
       </c>
-      <c r="M82">
-        <v>1.279229416176819</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
         <v>1981</v>
       </c>
       <c r="B83">
+        <v>0.6519688300175961</v>
+      </c>
+      <c r="C83">
         <v>1.280037547355418</v>
       </c>
-      <c r="C83">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1.280037547355418</v>
+      </c>
+      <c r="F83">
         <v>0.8019970082792512</v>
       </c>
-      <c r="D83">
+      <c r="G83">
         <v>0.1408720426604914</v>
       </c>
-      <c r="E83">
+      <c r="H83">
         <v>0.2246130696224891</v>
       </c>
-      <c r="F83">
+      <c r="I83">
         <v>0.436511895996271</v>
       </c>
-      <c r="G83">
+      <c r="J83">
         <v>0.1572291487357423</v>
       </c>
-      <c r="H83">
+      <c r="K83">
         <v>0.0673839208867467</v>
       </c>
-      <c r="I83">
+      <c r="L83">
         <v>0.007861457436787116</v>
       </c>
-      <c r="J83">
+      <c r="M83">
         <v>0.1493676912989552</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>0.02519479084415089</v>
       </c>
-      <c r="L83">
+      <c r="O83">
         <v>0.4787010260388669</v>
       </c>
-      <c r="M83">
-        <v>1.280037547355418</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
         <v>1982</v>
       </c>
       <c r="B84">
+        <v>0.6273823337909336</v>
+      </c>
+      <c r="C84">
         <v>1.279940383139227</v>
       </c>
-      <c r="C84">
+      <c r="D84">
+        <v>0.008741271316853311</v>
+      </c>
+      <c r="E84">
+        <v>1.279940383139227</v>
+      </c>
+      <c r="F84">
         <v>0.8339512109138441</v>
       </c>
-      <c r="D84">
+      <c r="G84">
         <v>0.1378466628452688</v>
       </c>
-      <c r="E84">
+      <c r="H84">
         <v>0.2364974471308177</v>
       </c>
-      <c r="F84">
+      <c r="I84">
         <v>0.4596071009377578</v>
       </c>
-      <c r="G84">
+      <c r="J84">
         <v>0.1655482129915724</v>
       </c>
-      <c r="H84">
+      <c r="K84">
         <v>0.07094923413924534</v>
       </c>
-      <c r="I84">
+      <c r="L84">
         <v>0.008277410649578622</v>
       </c>
-      <c r="J84">
+      <c r="M84">
         <v>0.1572708023419938</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <v>0.02652781675385016</v>
       </c>
-      <c r="L84">
+      <c r="O84">
         <v>0.504028518323153</v>
       </c>
-      <c r="M84">
-        <v>1.279940383139227</v>
-      </c>
-      <c r="N84">
-        <v>0.008741271316853311</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
         <v>1983</v>
       </c>
       <c r="B85">
+        <v>0.7250516586963577</v>
+      </c>
+      <c r="C85">
+        <v>1.419851644933041</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
         <v>1.41985164493304</v>
       </c>
-      <c r="C85">
+      <c r="F85">
         <v>0.8659824235372968</v>
       </c>
-      <c r="D85">
+      <c r="G85">
         <v>0.1346140169723674</v>
       </c>
-      <c r="E85">
+      <c r="H85">
         <v>0.24847895334886</v>
       </c>
-      <c r="F85">
+      <c r="I85">
         <v>0.4828894532160692</v>
       </c>
-      <c r="G85">
+      <c r="J85">
         <v>0.173935267344202</v>
       </c>
-      <c r="H85">
+      <c r="K85">
         <v>0.07454368600465798</v>
       </c>
-      <c r="I85">
+      <c r="L85">
         <v>0.008696763367210099</v>
       </c>
-      <c r="J85">
+      <c r="M85">
         <v>0.1652385039769919</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>0.02787165696103637</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <v>0.5295614822596909</v>
       </c>
-      <c r="M85">
-        <v>1.419851644933041</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
         <v>1984</v>
       </c>
       <c r="B86">
+        <v>0.8185158257236228</v>
+      </c>
+      <c r="C86">
+        <v>1.546631001058964</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
         <v>1.546631001058963</v>
       </c>
-      <c r="C86">
+      <c r="F86">
         <v>0.8975411613538368</v>
       </c>
-      <c r="D86">
+      <c r="G86">
         <v>0.1311041346850571</v>
       </c>
-      <c r="E86">
+      <c r="H86">
         <v>0.2603955175460556</v>
       </c>
-      <c r="F86">
+      <c r="I86">
         <v>0.5060415091227246</v>
       </c>
-      <c r="G86">
+      <c r="J86">
         <v>0.1822768622822389</v>
       </c>
-      <c r="H86">
+      <c r="K86">
         <v>0.07811865526381667</v>
       </c>
-      <c r="I86">
+      <c r="L86">
         <v>0.009113843114111946</v>
       </c>
-      <c r="J86">
+      <c r="M86">
         <v>0.1731630191681269</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>0.02920800821932705</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>0.5549521561672141</v>
       </c>
-      <c r="M86">
-        <v>1.546631001058964</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
         <v>1985</v>
       </c>
       <c r="B87">
+        <v>0.9518406754536242</v>
+      </c>
+      <c r="C87">
         <v>1.712910885515025</v>
       </c>
-      <c r="C87">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1.712910885515025</v>
+      </c>
+      <c r="F87">
         <v>0.9284066746107631</v>
       </c>
-      <c r="D87">
+      <c r="G87">
         <v>0.1272801377040254</v>
       </c>
-      <c r="E87">
+      <c r="H87">
         <v>0.2721866128710436</v>
       </c>
-      <c r="F87">
+      <c r="I87">
         <v>0.5289399240356939</v>
       </c>
-      <c r="G87">
+      <c r="J87">
         <v>0.1905306290097306</v>
       </c>
-      <c r="H87">
+      <c r="K87">
         <v>0.08165598386131313</v>
       </c>
-      <c r="I87">
+      <c r="L87">
         <v>0.009526531450486531</v>
       </c>
-      <c r="J87">
+      <c r="M87">
         <v>0.1810040975592441</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>0.03052979539485036</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <v>0.5800661125021569</v>
       </c>
-      <c r="M87">
-        <v>1.712910885515025</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1">
         <v>1986</v>
       </c>
       <c r="B88">
+        <v>0.9509705082297314</v>
+      </c>
+      <c r="C88">
         <v>1.744789858238614</v>
       </c>
-      <c r="C88">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1.744789858238614</v>
+      </c>
+      <c r="F88">
         <v>0.9587487263138547</v>
       </c>
-      <c r="D88">
+      <c r="G88">
         <v>0.1231494105150307</v>
       </c>
-      <c r="E88">
+      <c r="H88">
         <v>0.2839114372501906</v>
       </c>
-      <c r="F88">
+      <c r="I88">
         <v>0.5516878785486332</v>
       </c>
-      <c r="G88">
+      <c r="J88">
         <v>0.1987380060751335</v>
       </c>
-      <c r="H88">
+      <c r="K88">
         <v>0.08517343117505718</v>
       </c>
-      <c r="I88">
+      <c r="L88">
         <v>0.009936900303756675</v>
       </c>
-      <c r="J88">
+      <c r="M88">
         <v>0.1888011057713768</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>0.03184306548618451</v>
       </c>
-      <c r="L88">
+      <c r="O88">
         <v>0.6050182442375056</v>
       </c>
-      <c r="M88">
-        <v>1.744789858238614</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="1">
         <v>1987</v>
       </c>
       <c r="B89">
+        <v>1.049172210828235</v>
+      </c>
+      <c r="C89">
         <v>1.876003014706268</v>
       </c>
-      <c r="C89">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1.876003014706268</v>
+      </c>
+      <c r="F89">
         <v>0.9891110034366873</v>
       </c>
-      <c r="D89">
+      <c r="G89">
         <v>0.1187627888282321</v>
       </c>
-      <c r="E89">
+      <c r="H89">
         <v>0.2957452956594946</v>
       </c>
-      <c r="F89">
+      <c r="I89">
         <v>0.574602918948961</v>
       </c>
-      <c r="G89">
+      <c r="J89">
         <v>0.2070217069616463</v>
       </c>
-      <c r="H89">
+      <c r="K89">
         <v>0.08872358869784842</v>
       </c>
-      <c r="I89">
+      <c r="L89">
         <v>0.01035108534808232</v>
       </c>
-      <c r="J89">
+      <c r="M89">
         <v>0.196670621613564</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <v>0.03316632538234046</v>
       </c>
-      <c r="L89">
+      <c r="O89">
         <v>0.6301601822644688</v>
       </c>
-      <c r="M89">
-        <v>1.876003014706268</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
         <v>1988</v>
       </c>
       <c r="B90">
+        <v>1.149964482855474</v>
+      </c>
+      <c r="C90">
         <v>2.010732449452155</v>
       </c>
-      <c r="C90">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>2.010732449452155</v>
+      </c>
+      <c r="F90">
         <v>1.020269705759581</v>
       </c>
-      <c r="D90">
+      <c r="G90">
         <v>0.1141981619736001</v>
       </c>
-      <c r="E90">
+      <c r="H90">
         <v>0.3079393987686543</v>
       </c>
-      <c r="F90">
+      <c r="I90">
         <v>0.5981321450173261</v>
       </c>
-      <c r="G90">
+      <c r="J90">
         <v>0.2155575791380581</v>
       </c>
-      <c r="H90">
+      <c r="K90">
         <v>0.09238181963059632</v>
       </c>
-      <c r="I90">
+      <c r="L90">
         <v>0.0107778789569029</v>
       </c>
-      <c r="J90">
+      <c r="M90">
         <v>0.2047797001811552</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>0.03452569823239613</v>
       </c>
-      <c r="L90">
+      <c r="O90">
         <v>0.6559882664155264</v>
       </c>
-      <c r="M90">
-        <v>2.010732449452155</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
         <v>1989</v>
       </c>
       <c r="B91">
+        <v>1.210938690376401</v>
+      </c>
+      <c r="C91">
         <v>2.107265313709849</v>
       </c>
-      <c r="C91">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>2.107265313709849</v>
+      </c>
+      <c r="F91">
         <v>1.053038116615546</v>
       </c>
-      <c r="D91">
+      <c r="G91">
         <v>0.109536407843494</v>
       </c>
-      <c r="E91">
+      <c r="H91">
         <v>0.3207653631477986</v>
       </c>
-      <c r="F91">
+      <c r="I91">
         <v>0.6227363456242528</v>
       </c>
-      <c r="G91">
+      <c r="J91">
         <v>0.2245357542034591</v>
       </c>
-      <c r="H91">
+      <c r="K91">
         <v>0.0962296089443396</v>
       </c>
-      <c r="I91">
+      <c r="L91">
         <v>0.01122678771017296</v>
       </c>
-      <c r="J91">
+      <c r="M91">
         <v>0.2133089664932861</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>0.03594829772842961</v>
       </c>
-      <c r="L91">
+      <c r="O91">
         <v>0.6830176568401627</v>
       </c>
-      <c r="M91">
-        <v>2.107265313709849</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="1">
         <v>1990</v>
       </c>
       <c r="B92">
+        <v>1.418797837770611</v>
+      </c>
+      <c r="C92">
         <v>2.352869598949975</v>
       </c>
-      <c r="C92">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>2.352869598949975</v>
+      </c>
+      <c r="F92">
         <v>1.088073393393555</v>
       </c>
-      <c r="D92">
+      <c r="G92">
         <v>0.1048399605731727</v>
       </c>
-      <c r="E92">
+      <c r="H92">
         <v>0.334459379333802</v>
       </c>
-      <c r="F92">
+      <c r="I92">
         <v>0.6487740534865818</v>
       </c>
-      <c r="G92">
+      <c r="J92">
         <v>0.2341215655336611</v>
       </c>
-      <c r="H92">
+      <c r="K92">
         <v>0.1003378138001405</v>
       </c>
-      <c r="I92">
+      <c r="L92">
         <v>0.01170607827668306</v>
       </c>
-      <c r="J92">
+      <c r="M92">
         <v>0.2224154872569781</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>0.03745559336433611</v>
       </c>
-      <c r="L92">
+      <c r="O92">
         <v>0.7116562739223862</v>
       </c>
-      <c r="M92">
-        <v>2.352869598949975</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
         <v>1991</v>
       </c>
       <c r="B93">
+        <v>1.443975715438146</v>
+      </c>
+      <c r="C93">
         <v>2.418310037210902</v>
       </c>
-      <c r="C93">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>2.418310037210902</v>
+      </c>
+      <c r="F93">
         <v>1.125756431219542</v>
       </c>
-      <c r="D93">
+      <c r="G93">
         <v>0.1001413556692731</v>
       </c>
-      <c r="E93">
+      <c r="H93">
         <v>0.3491862284036684</v>
       </c>
-      <c r="F93">
+      <c r="I93">
         <v>0.676428847146601</v>
       </c>
-      <c r="G93">
+      <c r="J93">
         <v>0.2444303598825679</v>
       </c>
-      <c r="H93">
+      <c r="K93">
         <v>0.1047558685211005</v>
       </c>
-      <c r="I93">
+      <c r="L93">
         <v>0.0122215179941284</v>
       </c>
-      <c r="J93">
+      <c r="M93">
         <v>0.2322088418884395</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>0.03905923578338508</v>
       </c>
-      <c r="L93">
+      <c r="O93">
         <v>0.7421254798843165</v>
       </c>
-      <c r="M93">
-        <v>2.418310037210902</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="1">
         <v>1992</v>
       </c>
       <c r="B94">
+        <v>1.487270673868871</v>
+      </c>
+      <c r="C94">
         <v>2.504535692240622</v>
       </c>
-      <c r="C94">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>2.504535692240622</v>
+      </c>
+      <c r="F94">
         <v>1.166255625620028</v>
       </c>
-      <c r="D94">
+      <c r="G94">
         <v>0.09545034312344679</v>
       </c>
-      <c r="E94">
+      <c r="H94">
         <v>0.3650575718080274</v>
       </c>
-      <c r="F94">
+      <c r="I94">
         <v>0.7057477106885534</v>
       </c>
-      <c r="G94">
+      <c r="J94">
         <v>0.2555403002656192</v>
       </c>
-      <c r="H94">
+      <c r="K94">
         <v>0.1095172715424082</v>
       </c>
-      <c r="I94">
+      <c r="L94">
         <v>0.01277701501328096</v>
       </c>
-      <c r="J94">
+      <c r="M94">
         <v>0.2427632852523383</v>
       </c>
-      <c r="K94">
+      <c r="N94">
         <v>0.04076324911154808</v>
       </c>
-      <c r="L94">
+      <c r="O94">
         <v>0.7745017331194134</v>
       </c>
-      <c r="M94">
-        <v>2.504535692240622</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="1">
         <v>1993</v>
       </c>
       <c r="B95">
+        <v>1.490700690621021</v>
+      </c>
+      <c r="C95">
         <v>2.553707092759789</v>
       </c>
-      <c r="C95">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>2.553707092759789</v>
+      </c>
+      <c r="F95">
         <v>1.209722300747509</v>
       </c>
-      <c r="D95">
+      <c r="G95">
         <v>0.09076819323301646</v>
       </c>
-      <c r="E95">
+      <c r="H95">
         <v>0.3821892506906581</v>
       </c>
-      <c r="F95">
+      <c r="I95">
         <v>0.7367648568238342</v>
       </c>
-      <c r="G95">
+      <c r="J95">
         <v>0.2675324754834607</v>
       </c>
-      <c r="H95">
+      <c r="K95">
         <v>0.1146567752071974</v>
       </c>
-      <c r="I95">
+      <c r="L95">
         <v>0.01337662377417303</v>
       </c>
-      <c r="J95">
+      <c r="M95">
         <v>0.2541558517092876</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <v>0.04257108160155159</v>
       </c>
-      <c r="L95">
+      <c r="O95">
         <v>0.8088505504294802</v>
       </c>
-      <c r="M95">
-        <v>2.553707092759789</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="1">
         <v>1994</v>
       </c>
       <c r="B96">
+        <v>1.613426535728269</v>
+      </c>
+      <c r="C96">
         <v>2.725382211854786</v>
       </c>
-      <c r="C96">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>2.725382211854786</v>
+      </c>
+      <c r="F96">
         <v>1.256582019381745</v>
       </c>
-      <c r="D96">
+      <c r="G96">
         <v>0.08610236030119962</v>
       </c>
-      <c r="E96">
+      <c r="H96">
         <v>0.4007888492489998</v>
       </c>
-      <c r="F96">
+      <c r="I96">
         <v>0.7696908098315449</v>
       </c>
-      <c r="G96">
+      <c r="J96">
         <v>0.2805521944743001</v>
       </c>
-      <c r="H96">
+      <c r="K96">
         <v>0.1202366547747001</v>
       </c>
-      <c r="I96">
+      <c r="L96">
         <v>0.01402760972371501</v>
       </c>
-      <c r="J96">
+      <c r="M96">
         <v>0.2665245847505851</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>0.04449637323031224</v>
       </c>
-      <c r="L96">
+      <c r="O96">
         <v>0.8454310913759325</v>
       </c>
-      <c r="M96">
-        <v>2.725382211854786</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="1">
         <v>1995</v>
       </c>
       <c r="B97">
+        <v>1.68456943767881</v>
+      </c>
+      <c r="C97">
         <v>2.871723071146878</v>
       </c>
-      <c r="C97">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>2.871723071146878</v>
+      </c>
+      <c r="F97">
         <v>1.307756667476647</v>
       </c>
-      <c r="D97">
+      <c r="G97">
         <v>0.05812126382604962</v>
       </c>
-      <c r="E97">
+      <c r="H97">
         <v>0.4292963707461271</v>
       </c>
-      <c r="F97">
+      <c r="I97">
         <v>0.8203390329044703</v>
       </c>
-      <c r="G97">
+      <c r="J97">
         <v>0.300507459522289</v>
       </c>
-      <c r="H97">
+      <c r="K97">
         <v>0.1287889112238381</v>
       </c>
-      <c r="I97">
+      <c r="L97">
         <v>0.01502537297611445</v>
       </c>
-      <c r="J97">
+      <c r="M97">
         <v>0.2854820865461745</v>
       </c>
-      <c r="K97">
+      <c r="N97">
         <v>0.04745639720641544</v>
       </c>
-      <c r="L97">
+      <c r="O97">
         <v>0.9016715469218934</v>
       </c>
-      <c r="M97">
-        <v>2.871723071146878</v>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="1">
         <v>1996</v>
       </c>
       <c r="B98">
+        <v>1.866660699811592</v>
+      </c>
+      <c r="C98">
         <v>3.10536315657654</v>
       </c>
-      <c r="C98">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>3.10536315657654</v>
+      </c>
+      <c r="F98">
         <v>1.364721038456947</v>
       </c>
-      <c r="D98">
+      <c r="G98">
         <v>0.06082371554647519</v>
       </c>
-      <c r="E98">
+      <c r="H98">
         <v>0.4496328687174907</v>
       </c>
-      <c r="F98">
+      <c r="I98">
         <v>0.8542644541929812</v>
       </c>
-      <c r="G98">
+      <c r="J98">
         <v>0.3147430081022434</v>
       </c>
-      <c r="H98">
+      <c r="K98">
         <v>0.1348898606152472</v>
       </c>
-      <c r="I98">
+      <c r="L98">
         <v>0.01573715040511217</v>
       </c>
-      <c r="J98">
+      <c r="M98">
         <v>0.2990058576971312</v>
       </c>
-      <c r="K98">
+      <c r="N98">
         <v>0.04945771574041143</v>
       </c>
-      <c r="L98">
+      <c r="O98">
         <v>0.9396965990678172</v>
       </c>
-      <c r="M98">
-        <v>3.10536315657654</v>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="1">
         <v>1997</v>
       </c>
       <c r="B99">
+        <v>2.028777204077946</v>
+      </c>
+      <c r="C99">
+        <v>3.326008930096381</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
         <v>3.32600893009638</v>
       </c>
-      <c r="C99">
+      <c r="F99">
         <v>1.429294937719166</v>
       </c>
-      <c r="D99">
+      <c r="G99">
         <v>0.06378785769976175</v>
       </c>
-      <c r="E99">
+      <c r="H99">
         <v>0.4728919018069757</v>
       </c>
-      <c r="F99">
+      <c r="I99">
         <v>0.8926151782124291</v>
       </c>
-      <c r="G99">
+      <c r="J99">
         <v>0.3310243312648829</v>
       </c>
-      <c r="H99">
+      <c r="K99">
         <v>0.1418675705420927</v>
       </c>
-      <c r="I99">
+      <c r="L99">
         <v>0.01655121656324415</v>
       </c>
-      <c r="J99">
+      <c r="M99">
         <v>0.3144731147016387</v>
       </c>
-      <c r="K99">
+      <c r="N99">
         <v>0.05172413743772608</v>
       </c>
-      <c r="L99">
+      <c r="O99">
         <v>0.9827586113167952</v>
       </c>
-      <c r="M99">
-        <v>3.326008930096381</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="1">
         <v>1998</v>
       </c>
       <c r="B100">
+        <v>2.11038295548216</v>
+      </c>
+      <c r="C100">
         <v>3.474731694744438</v>
       </c>
-      <c r="C100">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>3.474731694744438</v>
+      </c>
+      <c r="F100">
         <v>1.50322258708897</v>
       </c>
-      <c r="D100">
+      <c r="G100">
         <v>0.06706601944446584</v>
       </c>
-      <c r="E100">
+      <c r="H100">
         <v>0.4996427993334424</v>
       </c>
-      <c r="F100">
+      <c r="I100">
         <v>0.9365137683110601</v>
       </c>
-      <c r="G100">
+      <c r="J100">
         <v>0.3497499595334099</v>
       </c>
-      <c r="H100">
+      <c r="K100">
         <v>0.1498928398000328</v>
       </c>
-      <c r="I100">
+      <c r="L100">
         <v>0.0174874979766705</v>
       </c>
-      <c r="J100">
+      <c r="M100">
         <v>0.3322624615567394</v>
       </c>
-      <c r="K100">
+      <c r="N100">
         <v>0.05432033040555468</v>
       </c>
-      <c r="L100">
+      <c r="O100">
         <v>1.032086277705539</v>
       </c>
-      <c r="M100">
-        <v>3.474731694744438</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="1">
         <v>1999</v>
       </c>
       <c r="B101">
+        <v>2.350927508206896</v>
+      </c>
+      <c r="C101">
+        <v>3.79204514918327</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>3.792045149183269</v>
       </c>
-      <c r="C101">
+      <c r="F101">
         <v>1.587658534917006</v>
       </c>
-      <c r="D101">
+      <c r="G101">
         <v>0.07069259704713919</v>
       </c>
-      <c r="E101">
+      <c r="H101">
         <v>0.5302389267217567</v>
       </c>
-      <c r="F101">
+      <c r="I101">
         <v>0.9867270111481107</v>
       </c>
-      <c r="G101">
+      <c r="J101">
         <v>0.3711672487052297</v>
       </c>
-      <c r="H101">
+      <c r="K101">
         <v>0.159071678016527</v>
       </c>
-      <c r="I101">
+      <c r="L101">
         <v>0.01855836243526148</v>
       </c>
-      <c r="J101">
+      <c r="M101">
         <v>0.3526088862699682</v>
       </c>
-      <c r="K101">
+      <c r="N101">
         <v>0.05728993445823187</v>
       </c>
-      <c r="L101">
+      <c r="O101">
         <v>1.088508754706406</v>
       </c>
-      <c r="M101">
-        <v>3.79204514918327</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="1">
         <v>2000</v>
       </c>
       <c r="B102">
+        <v>2.526927511675928</v>
+      </c>
+      <c r="C102">
         <v>4.054575995693402</v>
       </c>
-      <c r="C102">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>4.054575995693402</v>
+      </c>
+      <c r="F102">
         <v>1.68272119219379</v>
       </c>
-      <c r="D102">
+      <c r="G102">
         <v>0.07467015638592189</v>
       </c>
-      <c r="E102">
+      <c r="H102">
         <v>0.5646727532220992</v>
       </c>
-      <c r="F102">
+      <c r="I102">
         <v>1.043378282585769</v>
       </c>
-      <c r="G102">
+      <c r="J102">
         <v>0.3952709272554691</v>
       </c>
-      <c r="H102">
+      <c r="K102">
         <v>0.1694018259666296</v>
       </c>
-      <c r="I102">
+      <c r="L102">
         <v>0.01976354636277346</v>
       </c>
-      <c r="J102">
+      <c r="M102">
         <v>0.3755073808926956</v>
       </c>
-      <c r="K102">
+      <c r="N102">
         <v>0.06063900542761994</v>
       </c>
-      <c r="L102">
+      <c r="O102">
         <v>1.152141103124779</v>
       </c>
-      <c r="M102">
-        <v>4.054575995693402</v>
-      </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="1">
         <v>2001</v>
       </c>
       <c r="B103">
+        <v>2.387354029502856</v>
+      </c>
+      <c r="C103">
         <v>4.010294357635344</v>
       </c>
-      <c r="C103">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>4.010294357635344</v>
+      </c>
+      <c r="F103">
         <v>1.787324849756118</v>
       </c>
-      <c r="D103">
+      <c r="G103">
         <v>0.07896660961665573</v>
       </c>
-      <c r="E103">
+      <c r="H103">
         <v>0.6025243068380726</v>
       </c>
-      <c r="F103">
+      <c r="I103">
         <v>1.10583393330139</v>
       </c>
-      <c r="G103">
+      <c r="J103">
         <v>0.4217670147866503</v>
       </c>
-      <c r="H103">
+      <c r="K103">
         <v>0.1807572920514216</v>
       </c>
-      <c r="I103">
+      <c r="L103">
         <v>0.02108835073933251</v>
       </c>
-      <c r="J103">
+      <c r="M103">
         <v>0.4006786640473178</v>
       </c>
-      <c r="K103">
+      <c r="N103">
         <v>0.06432956126764056</v>
       </c>
-      <c r="L103">
+      <c r="O103">
         <v>1.222261664085171</v>
       </c>
-      <c r="M103">
-        <v>4.010294357635344</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="1">
         <v>2002</v>
       </c>
       <c r="B104">
+        <v>2.539686112409901</v>
+      </c>
+      <c r="C104">
         <v>4.264767908251616</v>
       </c>
-      <c r="C104">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>4.264767908251616</v>
+      </c>
+      <c r="F104">
         <v>1.899403729606825</v>
       </c>
-      <c r="D104">
+      <c r="G104">
         <v>0.08352815503659879</v>
       </c>
-      <c r="E104">
+      <c r="H104">
         <v>0.6430407164897268</v>
       </c>
-      <c r="F104">
+      <c r="I104">
         <v>1.1728348580805</v>
       </c>
-      <c r="G104">
+      <c r="J104">
         <v>0.4501285015428086</v>
       </c>
-      <c r="H104">
+      <c r="K104">
         <v>0.192912214946918</v>
       </c>
-      <c r="I104">
+      <c r="L104">
         <v>0.02250642507714043</v>
       </c>
-      <c r="J104">
+      <c r="M104">
         <v>0.4276220764656682</v>
       </c>
-      <c r="K104">
+      <c r="N104">
         <v>0.06828735365137088</v>
       </c>
-      <c r="L104">
+      <c r="O104">
         <v>1.297459719376046</v>
       </c>
-      <c r="M104">
-        <v>4.264767908251616</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="1">
         <v>2003</v>
       </c>
       <c r="B105">
+        <v>2.683104959053618</v>
+      </c>
+      <c r="C105">
+        <v>4.514829405688729</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
         <v>4.51482940568873</v>
       </c>
-      <c r="C105">
+      <c r="F105">
         <v>2.016430482734296</v>
       </c>
-      <c r="D105">
+      <c r="G105">
         <v>0.0882994862762839</v>
       </c>
-      <c r="E105">
+      <c r="H105">
         <v>0.6853147766896298</v>
       </c>
-      <c r="F105">
+      <c r="I105">
         <v>1.242816219768382</v>
       </c>
-      <c r="G105">
+      <c r="J105">
         <v>0.4797203436827409</v>
       </c>
-      <c r="H105">
+      <c r="K105">
         <v>0.205594433006889</v>
       </c>
-      <c r="I105">
+      <c r="L105">
         <v>0.02398601718413704</v>
       </c>
-      <c r="J105">
+      <c r="M105">
         <v>0.4557343264986039</v>
       </c>
-      <c r="K105">
+      <c r="N105">
         <v>0.07242053263876357</v>
       </c>
-      <c r="L105">
+      <c r="O105">
         <v>1.375990120136508</v>
       </c>
-      <c r="M105">
-        <v>4.514829405688729</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="1">
         <v>2004</v>
       </c>
       <c r="B106">
+        <v>3.054338715148369</v>
+      </c>
+      <c r="C106">
+        <v>4.99509157636402</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
         <v>4.995091576364021</v>
       </c>
-      <c r="C106">
+      <c r="F106">
         <v>2.136149019877561</v>
       </c>
-      <c r="D106">
+      <c r="G106">
         <v>0.09325127122950602</v>
       </c>
-      <c r="E106">
+      <c r="H106">
         <v>0.7285358375089682</v>
       </c>
-      <c r="F106">
+      <c r="I106">
         <v>1.314361911139087</v>
       </c>
-      <c r="G106">
+      <c r="J106">
         <v>0.5099750862562775</v>
       </c>
-      <c r="H106">
+      <c r="K106">
         <v>0.2185607512526904</v>
       </c>
-      <c r="I106">
+      <c r="L106">
         <v>0.02549875431281388</v>
       </c>
-      <c r="J106">
+      <c r="M106">
         <v>0.4844763319434637</v>
       </c>
-      <c r="K106">
+      <c r="N106">
         <v>0.07664613311958886</v>
       </c>
-      <c r="L106">
+      <c r="O106">
         <v>1.456276529272188</v>
       </c>
-      <c r="M106">
-        <v>4.99509157636402</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="1">
         <v>2005</v>
       </c>
       <c r="B107">
+        <v>3.457872201301788</v>
+      </c>
+      <c r="C107">
         <v>5.508717731141357</v>
       </c>
-      <c r="C107">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>5.508717731141357</v>
+      </c>
+      <c r="F107">
         <v>2.257183867554826</v>
       </c>
-      <c r="D107">
+      <c r="G107">
         <v>0.09839909930264827</v>
       </c>
-      <c r="E107">
+      <c r="H107">
         <v>0.7721986994747</v>
       </c>
-      <c r="F107">
+      <c r="I107">
         <v>1.386586068777479</v>
       </c>
-      <c r="G107">
+      <c r="J107">
         <v>0.5405390896322901</v>
       </c>
-      <c r="H107">
+      <c r="K107">
         <v>0.23165960984241</v>
       </c>
-      <c r="I107">
+      <c r="L107">
         <v>0.0270269544816145</v>
       </c>
-      <c r="J107">
+      <c r="M107">
         <v>0.5135121351506755</v>
       </c>
-      <c r="K107">
+      <c r="N107">
         <v>0.08091228393099442</v>
       </c>
-      <c r="L107">
+      <c r="O107">
         <v>1.537333394688894</v>
       </c>
-      <c r="M107">
-        <v>5.508717731141357</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="1">
         <v>2006</v>
       </c>
       <c r="B108">
+        <v>3.802324284996109</v>
+      </c>
+      <c r="C108">
         <v>5.964101143454548</v>
       </c>
-      <c r="C108">
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>5.964101143454548</v>
+      </c>
+      <c r="F108">
         <v>2.37936688341855</v>
       </c>
-      <c r="D108">
+      <c r="G108">
         <v>0.1038122955675626</v>
       </c>
-      <c r="E108">
+      <c r="H108">
         <v>0.8162155693001079</v>
       </c>
-      <c r="F108">
+      <c r="I108">
         <v>1.459339018550879</v>
       </c>
-      <c r="G108">
+      <c r="J108">
         <v>0.5713508985100755</v>
       </c>
-      <c r="H108">
+      <c r="K108">
         <v>0.2448646707900323</v>
       </c>
-      <c r="I108">
+      <c r="L108">
         <v>0.02856754492550377</v>
       </c>
-      <c r="J108">
+      <c r="M108">
         <v>0.5427833535845716</v>
       </c>
-      <c r="K108">
+      <c r="N108">
         <v>0.0852101844670456</v>
       </c>
-      <c r="L108">
+      <c r="O108">
         <v>1.618993504873867</v>
       </c>
-      <c r="M108">
-        <v>5.964101143454548</v>
-      </c>
-      <c r="N108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="1">
         <v>2007</v>
       </c>
       <c r="B109">
+        <v>4.123703260217542</v>
+      </c>
+      <c r="C109">
         <v>6.398077947644984</v>
       </c>
-      <c r="C109">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>6.398077947644984</v>
+      </c>
+      <c r="F109">
         <v>2.503686483805392</v>
       </c>
-      <c r="D109">
+      <c r="G109">
         <v>0.1096078654607176</v>
       </c>
-      <c r="E109">
+      <c r="H109">
         <v>0.8608991635979469</v>
       </c>
-      <c r="F109">
+      <c r="I109">
         <v>1.533179454746729</v>
       </c>
-      <c r="G109">
+      <c r="J109">
         <v>0.6026294145185629</v>
       </c>
-      <c r="H109">
+      <c r="K109">
         <v>0.2582697490793841</v>
       </c>
-      <c r="I109">
+      <c r="L109">
         <v>0.03013147072592815</v>
       </c>
-      <c r="J109">
+      <c r="M109">
         <v>0.5724979437926349</v>
       </c>
-      <c r="K109">
+      <c r="N109">
         <v>0.08957246019130563</v>
       </c>
-      <c r="L109">
+      <c r="O109">
         <v>1.701876743634807</v>
       </c>
-      <c r="M109">
-        <v>6.398077947644984</v>
-      </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="1">
         <v>2008</v>
       </c>
       <c r="B110">
+        <v>4.02220066906438</v>
+      </c>
+      <c r="C110">
         <v>6.414563993245897</v>
       </c>
-      <c r="C110">
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>6.414563993245897</v>
+      </c>
+      <c r="F110">
         <v>2.631954196878534</v>
       </c>
-      <c r="D110">
+      <c r="G110">
         <v>0.113677013529569</v>
       </c>
-      <c r="E110">
+      <c r="H110">
         <v>0.907666562503844</v>
       </c>
-      <c r="F110">
+      <c r="I110">
         <v>1.610610620845121</v>
       </c>
-      <c r="G110">
+      <c r="J110">
         <v>0.6353665937526906</v>
       </c>
-      <c r="H110">
+      <c r="K110">
         <v>0.272299968751153</v>
       </c>
-      <c r="I110">
+      <c r="L110">
         <v>0.03176832968763452</v>
       </c>
-      <c r="J110">
+      <c r="M110">
         <v>0.6035982640650559</v>
       </c>
-      <c r="K110">
+      <c r="N110">
         <v>0.09414552947981375</v>
       </c>
-      <c r="L110">
+      <c r="O110">
         <v>1.788765060116461</v>
       </c>
-      <c r="M110">
-        <v>6.414563993245897</v>
-      </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="1">
         <v>2009</v>
       </c>
       <c r="B111">
+        <v>3.287099220998342</v>
+      </c>
+      <c r="C111">
+        <v>5.801014989085774</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
         <v>5.801014989085775</v>
       </c>
-      <c r="C111">
+      <c r="F111">
         <v>2.766416493049219</v>
       </c>
-      <c r="D111">
+      <c r="G111">
         <v>0.1201893687466591</v>
       </c>
-      <c r="E111">
+      <c r="H111">
         <v>0.9558225080970936</v>
       </c>
-      <c r="F111">
+      <c r="I111">
         <v>1.690404616205466</v>
       </c>
-      <c r="G111">
+      <c r="J111">
         <v>0.6690757556679657</v>
       </c>
-      <c r="H111">
+      <c r="K111">
         <v>0.2867467524291283</v>
       </c>
-      <c r="I111">
+      <c r="L111">
         <v>0.0334537877833983</v>
       </c>
-      <c r="J111">
+      <c r="M111">
         <v>0.6356219678845676</v>
       </c>
-      <c r="K111">
+      <c r="N111">
         <v>0.09885756843172973</v>
       </c>
-      <c r="L111">
+      <c r="O111">
         <v>1.878293800202865</v>
       </c>
-      <c r="M111">
-        <v>5.801014989085774</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="1">
         <v>2010</v>
       </c>
       <c r="B112">
+        <v>4.339581839551846</v>
+      </c>
+      <c r="C112">
+        <v>7.062141365224273</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>7.062141365224272</v>
       </c>
-      <c r="C112">
+      <c r="F112">
         <v>2.909540127736497</v>
       </c>
-      <c r="D112">
+      <c r="G112">
         <v>0.04368799544973339</v>
       </c>
-      <c r="E112">
+      <c r="H112">
         <v>1.164897861625886</v>
       </c>
-      <c r="F112">
+      <c r="I112">
         <v>1.70095427066088</v>
       </c>
-      <c r="G112">
+      <c r="J112">
         <v>0.8154285031381197</v>
       </c>
-      <c r="H112">
+      <c r="K112">
         <v>0.3494693584877656</v>
       </c>
-      <c r="I112">
+      <c r="L112">
         <v>0.04077142515690599</v>
       </c>
-      <c r="J112">
+      <c r="M112">
         <v>0.7746570779812139</v>
       </c>
-      <c r="K112">
+      <c r="N112">
         <v>0.1025211814574323</v>
       </c>
-      <c r="L112">
+      <c r="O112">
         <v>1.947902447691213</v>
       </c>
-      <c r="M112">
-        <v>7.062141365224273</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1">
         <v>2011</v>
       </c>
       <c r="B113">
+        <v>4.580910607411867</v>
+      </c>
+      <c r="C113">
+        <v>7.445890212056876</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
         <v>7.445890212056874</v>
       </c>
-      <c r="C113">
+      <c r="F113">
         <v>3.06373912568211</v>
       </c>
-      <c r="D113">
+      <c r="G113">
         <v>0.04797112079262841</v>
       </c>
-      <c r="E113">
+      <c r="H113">
         <v>1.2219108375978</v>
       </c>
-      <c r="F113">
+      <c r="I113">
         <v>1.79385716729168</v>
       </c>
-      <c r="G113">
+      <c r="J113">
         <v>0.8553375863184607</v>
       </c>
-      <c r="H113">
+      <c r="K113">
         <v>0.3665732512793403</v>
       </c>
-      <c r="I113">
+      <c r="L113">
         <v>0.04276687931592304</v>
       </c>
-      <c r="J113">
+      <c r="M113">
         <v>0.8125707070025376</v>
       </c>
-      <c r="K113">
+      <c r="N113">
         <v>0.1080215209285511</v>
       </c>
-      <c r="L113">
+      <c r="O113">
         <v>2.052408897642469</v>
       </c>
-      <c r="M113">
-        <v>7.445890212056876</v>
-      </c>
-      <c r="N113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="1">
         <v>2012</v>
       </c>
       <c r="B114">
+        <v>5.043432276431457</v>
+      </c>
+      <c r="C114">
+        <v>8.063052196594999</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
         <v>8.063052196594997</v>
       </c>
-      <c r="C114">
+      <c r="F114">
         <v>3.23145635038251</v>
       </c>
-      <c r="D114">
+      <c r="G114">
         <v>0.05290906599983316</v>
       </c>
-      <c r="E114">
+      <c r="H114">
         <v>1.283020998050224</v>
       </c>
-      <c r="F114">
+      <c r="I114">
         <v>1.89552628633245</v>
       </c>
-      <c r="G114">
+      <c r="J114">
         <v>0.8981146986351564</v>
       </c>
-      <c r="H114">
+      <c r="K114">
         <v>0.3849062994150669</v>
       </c>
-      <c r="I114">
+      <c r="L114">
         <v>0.04490573493175781</v>
       </c>
-      <c r="J114">
+      <c r="M114">
         <v>0.8532089637033985</v>
       </c>
-      <c r="K114">
+      <c r="N114">
         <v>0.1140216292873759</v>
       </c>
-      <c r="L114">
+      <c r="O114">
         <v>2.166410956460142</v>
       </c>
-      <c r="M114">
-        <v>8.063052196594999</v>
-      </c>
-      <c r="N114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1">
         <v>2013</v>
       </c>
       <c r="B115">
+        <v>5.389832241127377</v>
+      </c>
+      <c r="C115">
         <v>8.578405521463791</v>
       </c>
-      <c r="C115">
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>8.578405521463791</v>
+      </c>
+      <c r="F115">
         <v>3.415016703052754</v>
       </c>
-      <c r="D115">
+      <c r="G115">
         <v>0.0586237763828474</v>
       </c>
-      <c r="E115">
+      <c r="H115">
         <v>1.349400408890227</v>
       </c>
-      <c r="F115">
+      <c r="I115">
         <v>2.006992517779686</v>
       </c>
-      <c r="G115">
+      <c r="J115">
         <v>0.944580286223159</v>
       </c>
-      <c r="H115">
+      <c r="K115">
         <v>0.4048201226670682</v>
       </c>
-      <c r="I115">
+      <c r="L115">
         <v>0.04722901431115795</v>
       </c>
-      <c r="J115">
+      <c r="M115">
         <v>0.8973512719120011</v>
       </c>
-      <c r="K115">
+      <c r="N115">
         <v>0.1205906320223376</v>
       </c>
-      <c r="L115">
+      <c r="O115">
         <v>2.291222008424413</v>
       </c>
-      <c r="M115">
-        <v>8.578405521463791</v>
-      </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="1">
         <v>2014</v>
       </c>
       <c r="B116">
+        <v>5.746613430144285</v>
+      </c>
+      <c r="C116">
+        <v>9.124963293040034</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
         <v>9.124963293040031</v>
       </c>
-      <c r="C116">
+      <c r="F116">
         <v>3.616467261575029</v>
       </c>
-      <c r="D116">
+      <c r="G116">
         <v>0.06030951115845298</v>
       </c>
-      <c r="E116">
+      <c r="H116">
         <v>1.423910536957613</v>
       </c>
-      <c r="F116">
+      <c r="I116">
         <v>2.132247213458962</v>
       </c>
-      <c r="G116">
+      <c r="J116">
         <v>0.9967373758703292</v>
       </c>
-      <c r="H116">
+      <c r="K116">
         <v>0.427173161087284</v>
       </c>
-      <c r="I116">
+      <c r="L116">
         <v>0.04983686879351647</v>
       </c>
-      <c r="J116">
+      <c r="M116">
         <v>0.9469005070768127</v>
       </c>
-      <c r="K116">
+      <c r="N116">
         <v>0.1279710187273124</v>
       </c>
-      <c r="L116">
+      <c r="O116">
         <v>2.431449355818935</v>
       </c>
-      <c r="M116">
-        <v>9.124963293040034</v>
-      </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1">
         <v>2015</v>
       </c>
       <c r="B117">
+        <v>5.920844106203846</v>
+      </c>
+      <c r="C117">
         <v>9.502894731612617</v>
       </c>
-      <c r="C117">
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>9.502894731612617</v>
+      </c>
+      <c r="F117">
         <v>3.837290704463663</v>
       </c>
-      <c r="D117">
+      <c r="G117">
         <v>0.06671109877021175</v>
       </c>
-      <c r="E117">
+      <c r="H117">
         <v>1.504157309778756</v>
       </c>
-      <c r="F117">
+      <c r="I117">
         <v>2.266422295914686</v>
       </c>
-      <c r="G117">
+      <c r="J117">
         <v>1.052910116845128</v>
       </c>
-      <c r="H117">
+      <c r="K117">
         <v>0.4512471929336264</v>
       </c>
-      <c r="I117">
+      <c r="L117">
         <v>0.05264550584225642</v>
       </c>
-      <c r="J117">
+      <c r="M117">
         <v>1.000264611002872</v>
       </c>
-      <c r="K117">
+      <c r="N117">
         <v>0.1358834744424157</v>
       </c>
-      <c r="L117">
+      <c r="O117">
         <v>2.581786014405899</v>
       </c>
-      <c r="M117">
-        <v>9.502894731612617</v>
-      </c>
-      <c r="N117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="1">
         <v>2016</v>
       </c>
       <c r="B118">
+        <v>6.352350635122149</v>
+      </c>
+      <c r="C118">
         <v>10.15633386560947</v>
       </c>
-      <c r="C118">
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>10.15633386560947</v>
+      </c>
+      <c r="F118">
         <v>4.078139655702551</v>
       </c>
-      <c r="D118">
+      <c r="G118">
         <v>0.07394678150537563</v>
       </c>
-      <c r="E118">
+      <c r="H118">
         <v>1.591911545082894</v>
       </c>
-      <c r="F118">
+      <c r="I118">
         <v>2.412281329114283</v>
       </c>
-      <c r="G118">
+      <c r="J118">
         <v>1.114338081558026</v>
       </c>
-      <c r="H118">
+      <c r="K118">
         <v>0.4775734635248684</v>
       </c>
-      <c r="I118">
+      <c r="L118">
         <v>0.05571690407790132</v>
       </c>
-      <c r="J118">
+      <c r="M118">
         <v>1.058621177480125</v>
       </c>
-      <c r="K118">
+      <c r="N118">
         <v>0.1444927396319574</v>
       </c>
-      <c r="L118">
+      <c r="O118">
         <v>2.745362053007191</v>
       </c>
-      <c r="M118">
-        <v>10.15633386560947</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="1">
         <v>2017</v>
       </c>
       <c r="B119">
+        <v>6.974428736115963</v>
+      </c>
+      <c r="C119">
         <v>11.01819513312171</v>
       </c>
-      <c r="C119">
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>11.01819513312171</v>
+      </c>
+      <c r="F119">
         <v>4.338654406474556</v>
       </c>
-      <c r="D119">
+      <c r="G119">
         <v>0.08205819910007653</v>
       </c>
-      <c r="E119">
+      <c r="H119">
         <v>1.687018016745865</v>
       </c>
-      <c r="F119">
+      <c r="I119">
         <v>2.569578190628608</v>
       </c>
-      <c r="G119">
+      <c r="J119">
         <v>1.180912611722105</v>
       </c>
-      <c r="H119">
+      <c r="K119">
         <v>0.5061054050237594</v>
       </c>
-      <c r="I119">
+      <c r="L119">
         <v>0.05904563058610527</v>
       </c>
-      <c r="J119">
+      <c r="M119">
         <v>1.121866981136</v>
       </c>
-      <c r="K119">
+      <c r="N119">
         <v>0.1537841797826185</v>
       </c>
-      <c r="L119">
+      <c r="O119">
         <v>2.921899415869751</v>
       </c>
-      <c r="M119">
-        <v>11.01819513312171</v>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" s="1">
         <v>2018</v>
       </c>
       <c r="B120">
+        <v>6.850162401094821</v>
+      </c>
+      <c r="C120">
         <v>11.15030017533369</v>
       </c>
-      <c r="C120">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>11.15030017533369</v>
+      </c>
+      <c r="F120">
         <v>4.61750973682024</v>
       </c>
-      <c r="D120">
+      <c r="G120">
         <v>0.09104892183195155</v>
       </c>
-      <c r="E120">
+      <c r="H120">
         <v>1.788925976033537</v>
       </c>
-      <c r="F120">
+      <c r="I120">
         <v>2.737534838954752</v>
       </c>
-      <c r="G120">
+      <c r="J120">
         <v>1.252248183223475</v>
       </c>
-      <c r="H120">
+      <c r="K120">
         <v>0.5366777928100607</v>
       </c>
-      <c r="I120">
+      <c r="L120">
         <v>0.06261240916117376</v>
       </c>
-      <c r="J120">
+      <c r="M120">
         <v>1.189635774062301</v>
       </c>
-      <c r="K120">
+      <c r="N120">
         <v>0.1637106315882406</v>
       </c>
-      <c r="L120">
+      <c r="O120">
         <v>3.110502000176572</v>
       </c>
-      <c r="M120">
-        <v>11.15030017533369</v>
-      </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="1">
         <v>2019</v>
       </c>
       <c r="B121">
+        <v>8.947119363414117</v>
+      </c>
+      <c r="C121">
         <v>13.51853464436738</v>
       </c>
-      <c r="C121">
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>13.51853464436738</v>
+      </c>
+      <c r="F121">
         <v>4.912897788768616</v>
       </c>
-      <c r="D121">
+      <c r="G121">
         <v>0.100881703554648</v>
       </c>
-      <c r="E121">
+      <c r="H121">
         <v>1.896955027086774</v>
       </c>
-      <c r="F121">
+      <c r="I121">
         <v>2.915061058127193</v>
       </c>
-      <c r="G121">
+      <c r="J121">
         <v>1.327868518960742</v>
       </c>
-      <c r="H121">
+      <c r="K121">
         <v>0.5690865081260321</v>
       </c>
-      <c r="I121">
+      <c r="L121">
         <v>0.06639342594803709</v>
       </c>
-      <c r="J121">
+      <c r="M121">
         <v>1.261475093012705</v>
       </c>
-      <c r="K121">
+      <c r="N121">
         <v>0.1742073783126611</v>
       </c>
-      <c r="L121">
+      <c r="O121">
         <v>3.309940187940562</v>
       </c>
-      <c r="M121">
-        <v>13.51853464436738</v>
-      </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="1">
         <v>2020</v>
       </c>
       <c r="B122">
+        <v>8.370630980700604</v>
+      </c>
+      <c r="C122">
         <v>13.22658022345069</v>
       </c>
-      <c r="C122">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>13.22658022345069</v>
+      </c>
+      <c r="F122">
         <v>5.222989261745111</v>
       </c>
-      <c r="D122">
+      <c r="G122">
         <v>0.111463743060809</v>
       </c>
-      <c r="E122">
+      <c r="H122">
         <v>2.010521524482744</v>
       </c>
-      <c r="F122">
+      <c r="I122">
         <v>3.101003994201551</v>
       </c>
-      <c r="G122">
+      <c r="J122">
         <v>1.407365067137922</v>
       </c>
-      <c r="H122">
+      <c r="K122">
         <v>0.6031564573448238</v>
       </c>
-      <c r="I122">
+      <c r="L122">
         <v>0.07036825335689613</v>
       </c>
-      <c r="J122">
+      <c r="M122">
         <v>1.336996813781026</v>
       </c>
-      <c r="K122">
+      <c r="N122">
         <v>0.1852080225773189</v>
       </c>
-      <c r="L122">
+      <c r="O122">
         <v>3.518952428969058</v>
       </c>
-      <c r="M122">
-        <v>13.22658022345069</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="1">
         <v>2021</v>
       </c>
       <c r="B123">
+        <v>8.551925891622915</v>
+      </c>
+      <c r="C123">
         <v>13.70503296232731</v>
       </c>
-      <c r="C123">
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>13.70503296232731</v>
+      </c>
+      <c r="F123">
         <v>5.546990715023645</v>
       </c>
-      <c r="D123">
+      <c r="G123">
         <v>0.1226674827032355</v>
       </c>
-      <c r="E123">
+      <c r="H123">
         <v>2.129557362549397</v>
       </c>
-      <c r="F123">
+      <c r="I123">
         <v>3.294765869771016</v>
       </c>
-      <c r="G123">
+      <c r="J123">
         <v>1.490690153784576</v>
       </c>
-      <c r="H123">
+      <c r="K123">
         <v>0.6388672087648184</v>
       </c>
-      <c r="I123">
+      <c r="L123">
         <v>0.07453450768922881</v>
       </c>
-      <c r="J123">
+      <c r="M123">
         <v>1.416155646095347</v>
       </c>
-      <c r="K123">
+      <c r="N123">
         <v>0.1966816539267917</v>
       </c>
-      <c r="L123">
+      <c r="O123">
         <v>3.643527638993817</v>
       </c>
-      <c r="M123">
-        <v>13.70503296232731</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+      <c r="P123">
+        <v>0.09342378561522609</v>
+      </c>
+      <c r="Q123">
+        <v>0.09342378561522609</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="1">
         <v>2022</v>
       </c>
       <c r="B124">
+        <v>10.15102804723463</v>
+      </c>
+      <c r="C124">
         <v>15.61485869122209</v>
       </c>
-      <c r="C124">
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>15.61485869122209</v>
+      </c>
+      <c r="F124">
         <v>5.88574107900198</v>
       </c>
-      <c r="D124">
+      <c r="G124">
         <v>0.1343404011204469</v>
       </c>
-      <c r="E124">
+      <c r="H124">
         <v>2.254693828928881</v>
       </c>
-      <c r="F124">
+      <c r="I124">
         <v>3.496706848952655</v>
       </c>
-      <c r="G124">
+      <c r="J124">
         <v>1.578285680250216</v>
       </c>
-      <c r="H124">
+      <c r="K124">
         <v>0.6764081486786641</v>
       </c>
-      <c r="I124">
+      <c r="L124">
         <v>0.07891428401251081</v>
       </c>
-      <c r="J124">
+      <c r="M124">
         <v>1.499371396237706</v>
       </c>
-      <c r="K124">
+      <c r="N124">
         <v>0.208655749881566</v>
       </c>
-      <c r="L124">
+      <c r="O124">
         <v>3.766236285362266</v>
       </c>
-      <c r="M124">
-        <v>15.61485869122209</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="P124">
+        <v>0.1982229623874877</v>
+      </c>
+      <c r="Q124">
+        <v>0.1982229623874877</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="1">
         <v>2023</v>
       </c>
       <c r="B125">
+        <v>10.57089368742084</v>
+      </c>
+      <c r="C125">
         <v>16.36178729181363</v>
       </c>
-      <c r="C125">
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>16.36178729181363</v>
+      </c>
+      <c r="F125">
         <v>6.242005157680368</v>
       </c>
-      <c r="D125">
+      <c r="G125">
         <v>0.1463276793721682</v>
       </c>
-      <c r="E125">
+      <c r="H125">
         <v>2.387320924134994</v>
       </c>
-      <c r="F125">
+      <c r="I125">
         <v>3.70835655417321</v>
       </c>
-      <c r="G125">
+      <c r="J125">
         <v>1.671124646894499</v>
       </c>
-      <c r="H125">
+      <c r="K125">
         <v>0.7161962772404996</v>
       </c>
-      <c r="I125">
+      <c r="L125">
         <v>0.08355623234472495</v>
       </c>
-      <c r="J125">
+      <c r="M125">
         <v>1.587568414549774</v>
       </c>
-      <c r="K125">
+      <c r="N125">
         <v>0.2212276415706851</v>
       </c>
-      <c r="L125">
+      <c r="O125">
         <v>3.888075800604792</v>
       </c>
-      <c r="M125">
-        <v>16.36178729181363</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="P125">
+        <v>0.3152493892382264</v>
+      </c>
+      <c r="Q125">
+        <v>0.3152493892382264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="1">
         <v>2024</v>
       </c>
       <c r="B126">
+        <v>11.11410295999389</v>
+      </c>
+      <c r="C126">
+        <v>17.25287387176779</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
         <v>17.25287387176778</v>
       </c>
-      <c r="C126">
+      <c r="F126">
         <v>6.620362582331358</v>
       </c>
-      <c r="D126">
+      <c r="G126">
         <v>0.1584984646746127</v>
       </c>
-      <c r="E126">
+      <c r="H126">
         <v>2.529504015792643</v>
       </c>
-      <c r="F126">
+      <c r="I126">
         <v>3.932360101864098</v>
       </c>
-      <c r="G126">
+      <c r="J126">
         <v>1.77065281105485</v>
       </c>
-      <c r="H126">
+      <c r="K126">
         <v>0.7588512047377931</v>
       </c>
-      <c r="I126">
+      <c r="L126">
         <v>0.08853264055274253</v>
       </c>
-      <c r="J126">
+      <c r="M126">
         <v>1.682120170502108</v>
       </c>
-      <c r="K126">
+      <c r="N126">
         <v>0.2345605653300943</v>
       </c>
-      <c r="L126">
+      <c r="O126">
         <v>4.010985667144613</v>
       </c>
-      <c r="M126">
-        <v>17.25287387176779</v>
-      </c>
-      <c r="N126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="P126">
+        <v>0.4456650741271793</v>
+      </c>
+      <c r="Q126">
+        <v>0.4456650741271793</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="1">
         <v>2025</v>
       </c>
       <c r="B127">
+        <v>11.58852534643345</v>
+      </c>
+      <c r="C127">
+        <v>18.10135676296288</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
         <v>18.10135676296287</v>
       </c>
-      <c r="C127">
+      <c r="F127">
         <v>7.026382270270071</v>
       </c>
-      <c r="D127">
+      <c r="G127">
         <v>0.1707702528706826</v>
       </c>
-      <c r="E127">
+      <c r="H127">
         <v>2.683659959991742</v>
       </c>
-      <c r="F127">
+      <c r="I127">
         <v>4.171952057407643</v>
       </c>
-      <c r="G127">
+      <c r="J127">
         <v>1.878561971994219</v>
       </c>
-      <c r="H127">
+      <c r="K127">
         <v>0.8050979879975223</v>
       </c>
-      <c r="I127">
+      <c r="L127">
         <v>0.09392809859971096</v>
       </c>
-      <c r="J127">
+      <c r="M127">
         <v>1.784633873394508</v>
       </c>
-      <c r="K127">
+      <c r="N127">
         <v>0.2488525022702585</v>
       </c>
-      <c r="L127">
+      <c r="O127">
         <v>4.137172850243049</v>
       </c>
-      <c r="M127">
-        <v>18.10135676296288</v>
-      </c>
-      <c r="N127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+      <c r="P127">
+        <v>0.591024692891864</v>
+      </c>
+      <c r="Q127">
+        <v>0.591024692891864</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="1">
         <v>2026</v>
       </c>
       <c r="B128">
+        <v>12.15792127812817</v>
+      </c>
+      <c r="C128">
         <v>19.0761957257819</v>
       </c>
-      <c r="C128">
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>19.0761957257819</v>
+      </c>
+      <c r="F128">
         <v>7.465530731716588</v>
       </c>
-      <c r="D128">
+      <c r="G128">
         <v>0.1831365762916143</v>
       </c>
-      <c r="E128">
+      <c r="H128">
         <v>2.85217360033281</v>
       </c>
-      <c r="F128">
+      <c r="I128">
         <v>4.430220555092158</v>
       </c>
-      <c r="G128">
+      <c r="J128">
         <v>1.996521520232971</v>
       </c>
-      <c r="H128">
+      <c r="K128">
         <v>0.8556520800998448</v>
       </c>
-      <c r="I128">
+      <c r="L128">
         <v>0.09982607601164856</v>
       </c>
-      <c r="J128">
+      <c r="M128">
         <v>1.896695444221322</v>
       </c>
-      <c r="K128">
+      <c r="N128">
         <v>0.2642936317596002</v>
       </c>
-      <c r="L128">
+      <c r="O128">
         <v>4.268342152917543</v>
       </c>
-      <c r="M128">
-        <v>19.0761957257819</v>
-      </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="P128">
+        <v>0.7532368505148607</v>
+      </c>
+      <c r="Q128">
+        <v>0.7532368505148607</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="1">
         <v>2027</v>
       </c>
       <c r="B129">
+        <v>12.74398309511271</v>
+      </c>
+      <c r="C129">
         <v>20.10300639473459</v>
       </c>
-      <c r="C129">
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>20.10300639473459</v>
+      </c>
+      <c r="F129">
         <v>7.942034369404291</v>
       </c>
-      <c r="D129">
+      <c r="G129">
         <v>0.1956940540128504</v>
       </c>
-      <c r="E129">
+      <c r="H129">
         <v>3.037003197402047</v>
       </c>
-      <c r="F129">
+      <c r="I129">
         <v>4.709337117989389</v>
       </c>
-      <c r="G129">
+      <c r="J129">
         <v>2.125902238181436</v>
       </c>
-      <c r="H129">
+      <c r="K129">
         <v>0.9111009592206154</v>
       </c>
-      <c r="I129">
+      <c r="L129">
         <v>0.1062951119090718</v>
       </c>
-      <c r="J129">
+      <c r="M129">
         <v>2.019607126272364</v>
       </c>
-      <c r="K129">
+      <c r="N129">
         <v>0.2810219038605005</v>
       </c>
-      <c r="L129">
+      <c r="O129">
         <v>4.405018343013344</v>
       </c>
-      <c r="M129">
-        <v>20.10300639473459</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="P129">
+        <v>0.9343978303361637</v>
+      </c>
+      <c r="Q129">
+        <v>0.9343978303361637</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="1">
         <v>2028</v>
       </c>
       <c r="B130">
+        <v>13.24724367593347</v>
+      </c>
+      <c r="C130">
         <v>21.08422671372097</v>
       </c>
-      <c r="C130">
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>21.08422671372097</v>
+      </c>
+      <c r="F130">
         <v>8.45812022610804</v>
       </c>
-      <c r="D130">
+      <c r="G130">
         <v>0.2086643968580404</v>
       </c>
-      <c r="E130">
+      <c r="H130">
         <v>3.239407720025663</v>
       </c>
-      <c r="F130">
+      <c r="I130">
         <v>5.010048109224335</v>
       </c>
-      <c r="G130">
+      <c r="J130">
         <v>2.267585404017959</v>
       </c>
-      <c r="H130">
+      <c r="K130">
         <v>0.9718223160076968</v>
       </c>
-      <c r="I130">
+      <c r="L130">
         <v>0.113379270200898</v>
       </c>
-      <c r="J130">
+      <c r="M130">
         <v>2.15420613381706</v>
       </c>
-      <c r="K130">
+      <c r="N130">
         <v>0.2990935212616019</v>
       </c>
-      <c r="L130">
+      <c r="O130">
         <v>4.546221523176349</v>
       </c>
-      <c r="M130">
-        <v>21.08422671372097</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="P130">
+        <v>1.136555380794087</v>
+      </c>
+      <c r="Q130">
+        <v>1.136555380794087</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="1">
         <v>2029</v>
       </c>
       <c r="B131">
+        <v>13.74470306795981</v>
+      </c>
+      <c r="C131">
         <v>22.09667840307107</v>
       </c>
-      <c r="C131">
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>22.09667840307107</v>
+      </c>
+      <c r="F131">
         <v>9.013953183899368</v>
       </c>
-      <c r="D131">
+      <c r="G131">
         <v>0.2224001995717262</v>
       </c>
-      <c r="E131">
+      <c r="H131">
         <v>3.459891503825523</v>
       </c>
-      <c r="F131">
+      <c r="I131">
         <v>5.331661480502119</v>
       </c>
-      <c r="G131">
+      <c r="J131">
         <v>2.421924052677866</v>
       </c>
-      <c r="H131">
+      <c r="K131">
         <v>1.037967451147657</v>
       </c>
-      <c r="I131">
+      <c r="L131">
         <v>0.1210962026338933</v>
       </c>
-      <c r="J131">
+      <c r="M131">
         <v>2.300827850043973</v>
       </c>
-      <c r="K131">
+      <c r="N131">
         <v>0.3184814465824887</v>
       </c>
-      <c r="L131">
+      <c r="O131">
         <v>4.689639300927146</v>
       </c>
-      <c r="M131">
-        <v>22.09667840307107</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="P131">
+        <v>1.361508184140139</v>
+      </c>
+      <c r="Q131">
+        <v>1.361508184140139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="1">
         <v>2030</v>
       </c>
       <c r="B132">
+        <v>14.19093326712443</v>
+      </c>
+      <c r="C132">
         <v>23.09340491993343</v>
       </c>
-      <c r="C132">
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>23.09340491993343</v>
+      </c>
+      <c r="F132">
         <v>9.608382547393925</v>
       </c>
-      <c r="D132">
+      <c r="G132">
         <v>0.2373597549633784</v>
       </c>
-      <c r="E132">
+      <c r="H132">
         <v>3.698428700557762</v>
       </c>
-      <c r="F132">
+      <c r="I132">
         <v>5.672594091872774</v>
       </c>
-      <c r="G132">
+      <c r="J132">
         <v>2.588900090390435</v>
       </c>
-      <c r="H132">
+      <c r="K132">
         <v>1.109528610167329</v>
       </c>
-      <c r="I132">
+      <c r="L132">
         <v>0.1294450045195217</v>
       </c>
-      <c r="J132">
+      <c r="M132">
         <v>2.459455085870913</v>
       </c>
-      <c r="K132">
+      <c r="N132">
         <v>0.3391061351020049</v>
       </c>
-      <c r="L132">
+      <c r="O132">
         <v>4.83226242520357</v>
       </c>
-      <c r="M132">
-        <v>23.09340491993343</v>
-      </c>
-      <c r="N132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="P132">
+        <v>1.610754141734523</v>
+      </c>
+      <c r="Q132">
+        <v>1.610754141734523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133" s="1">
         <v>2031</v>
       </c>
       <c r="B133">
+        <v>13.0656231965841</v>
+      </c>
+      <c r="C133">
+        <v>22.55252506063162</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
         <v>22.55252506063164</v>
       </c>
-      <c r="C133">
+      <c r="F133">
         <v>10.2402534451091</v>
       </c>
-      <c r="D133">
+      <c r="G133">
         <v>0.2540409566380126</v>
       </c>
-      <c r="E133">
+      <c r="H133">
         <v>3.954928264619568</v>
       </c>
-      <c r="F133">
+      <c r="I133">
         <v>6.031284223851515</v>
       </c>
-      <c r="G133">
+      <c r="J133">
         <v>2.768449785233696</v>
       </c>
-      <c r="H133">
+      <c r="K133">
         <v>1.18647847938587</v>
       </c>
-      <c r="I133">
+      <c r="L133">
         <v>0.1384224892616848</v>
       </c>
-      <c r="J133">
+      <c r="M133">
         <v>2.630027295972011</v>
       </c>
-      <c r="K133">
+      <c r="N133">
         <v>0.3608881351618692</v>
       </c>
-      <c r="L133">
+      <c r="O133">
         <v>4.971234061854747</v>
       </c>
-      <c r="M133">
-        <v>22.55252506063162</v>
-      </c>
-      <c r="N133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="P133">
+        <v>1.885640506220766</v>
+      </c>
+      <c r="Q133">
+        <v>1.885640506220766</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" s="1">
         <v>2032</v>
       </c>
       <c r="B134">
+        <v>12.99779042661336</v>
+      </c>
+      <c r="C134">
         <v>23.10328568696132</v>
       </c>
-      <c r="C134">
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>23.10328568696132</v>
+      </c>
+      <c r="F134">
         <v>10.91026365684213</v>
       </c>
-      <c r="D134">
+      <c r="G134">
         <v>0.2729002248968894</v>
       </c>
-      <c r="E134">
+      <c r="H134">
         <v>4.230008936846461</v>
       </c>
-      <c r="F134">
+      <c r="I134">
         <v>6.407354495098777</v>
       </c>
-      <c r="G134">
+      <c r="J134">
         <v>2.96100625579252</v>
       </c>
-      <c r="H134">
+      <c r="K134">
         <v>1.269002681053937</v>
       </c>
-      <c r="I134">
+      <c r="L134">
         <v>0.148050312789626</v>
       </c>
-      <c r="J134">
+      <c r="M134">
         <v>2.812955943002895</v>
       </c>
-      <c r="K134">
+      <c r="N134">
         <v>0.3838178588076352</v>
       </c>
-      <c r="L134">
+      <c r="O134">
         <v>5.104777522141549</v>
       </c>
-      <c r="M134">
-        <v>23.10328568696132</v>
-      </c>
-      <c r="N134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="P134">
+        <v>2.187761795203521</v>
+      </c>
+      <c r="Q134">
+        <v>2.187761795203521</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" s="1">
         <v>2033</v>
       </c>
       <c r="B135">
+        <v>12.86920070872025</v>
+      </c>
+      <c r="C135">
         <v>23.63030746751238</v>
       </c>
-      <c r="C135">
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>23.63030746751238</v>
+      </c>
+      <c r="F135">
         <v>11.6217187858854</v>
       </c>
-      <c r="D135">
+      <c r="G135">
         <v>0.2942379871568439</v>
       </c>
-      <c r="E135">
+      <c r="H135">
         <v>4.52542423386516</v>
       </c>
-      <c r="F135">
+      <c r="I135">
         <v>6.80205656486341</v>
       </c>
-      <c r="G135">
+      <c r="J135">
         <v>3.167796963705609</v>
       </c>
-      <c r="H135">
+      <c r="K135">
         <v>1.357627270159547</v>
       </c>
-      <c r="I135">
+      <c r="L135">
         <v>0.1583898481852805</v>
       </c>
-      <c r="J135">
+      <c r="M135">
         <v>3.009407115520329</v>
       </c>
-      <c r="K135">
+      <c r="N135">
         <v>0.4079841917511476</v>
       </c>
-      <c r="L135">
+      <c r="O135">
         <v>5.232397259208467</v>
       </c>
-      <c r="M135">
-        <v>23.63030746751238</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="P135">
+        <v>2.519302384063336</v>
+      </c>
+      <c r="Q135">
+        <v>2.519302384063336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" s="1">
         <v>2034</v>
       </c>
       <c r="B136">
+        <v>12.71992320155033</v>
+      </c>
+      <c r="C136">
         <v>24.1509965347631</v>
       </c>
-      <c r="C136">
+      <c r="D136">
+        <v>0.02899257651740307</v>
+      </c>
+      <c r="E136">
+        <v>24.1509965347631</v>
+      </c>
+      <c r="F136">
         <v>12.38136838751596</v>
       </c>
-      <c r="D136">
+      <c r="G136">
         <v>0.3181411141157771</v>
       </c>
-      <c r="E136">
+      <c r="H136">
         <v>4.844613393892511</v>
       </c>
-      <c r="F136">
+      <c r="I136">
         <v>7.218613879507678</v>
       </c>
-      <c r="G136">
+      <c r="J136">
         <v>3.391229375724761</v>
       </c>
-      <c r="H136">
+      <c r="K136">
         <v>1.453384018167755</v>
       </c>
-      <c r="I136">
+      <c r="L136">
         <v>0.169561468786238</v>
       </c>
-      <c r="J136">
+      <c r="M136">
         <v>3.221667906938522</v>
       </c>
-      <c r="K136">
+      <c r="N136">
         <v>0.4335998948837712</v>
       </c>
-      <c r="L136">
+      <c r="O136">
         <v>5.354958701814573</v>
       </c>
-      <c r="M136">
-        <v>24.1509965347631</v>
-      </c>
-      <c r="N136">
-        <v>0.02899257651740307</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="P136">
+        <v>2.883439300977078</v>
+      </c>
+      <c r="Q136">
+        <v>2.883439300977078</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" s="1">
         <v>2035</v>
       </c>
       <c r="B137">
+        <v>12.69380212451307</v>
+      </c>
+      <c r="C137">
         <v>24.68793678712501</v>
       </c>
-      <c r="C137">
+      <c r="D137">
+        <v>0.2186348278125633</v>
+      </c>
+      <c r="E137">
+        <v>24.68793678712501</v>
+      </c>
+      <c r="F137">
         <v>13.20003556661873</v>
       </c>
-      <c r="D137">
+      <c r="G137">
         <v>0.3444887345929443</v>
       </c>
-      <c r="E137">
+      <c r="H137">
         <v>5.19318004117812</v>
       </c>
-      <c r="F137">
+      <c r="I137">
         <v>7.662366790847688</v>
       </c>
-      <c r="G137">
+      <c r="J137">
         <v>3.635226028824681</v>
       </c>
-      <c r="H137">
+      <c r="K137">
         <v>1.557954012353435</v>
       </c>
-      <c r="I137">
+      <c r="L137">
         <v>0.1817613014412341</v>
       </c>
-      <c r="J137">
+      <c r="M137">
         <v>3.453464727383447</v>
       </c>
-      <c r="K137">
+      <c r="N137">
         <v>0.4610160401600559</v>
       </c>
-      <c r="L137">
+      <c r="O137">
         <v>5.474565476900663</v>
       </c>
-      <c r="M137">
-        <v>24.68793678712501</v>
-      </c>
-      <c r="N137">
-        <v>0.2186348278125633</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="P137">
+        <v>3.284739286140399</v>
+      </c>
+      <c r="Q137">
+        <v>3.284739286140399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" s="1">
         <v>2036</v>
       </c>
       <c r="B138">
+        <v>12.64720512207902</v>
+      </c>
+      <c r="C138">
+        <v>25.2679229503968</v>
+      </c>
+      <c r="D138">
+        <v>0.4144811464015073</v>
+      </c>
+      <c r="E138">
         <v>25.26792295039679</v>
       </c>
-      <c r="C138">
+      <c r="F138">
         <v>14.09431710133462</v>
       </c>
-      <c r="D138">
+      <c r="G138">
         <v>0.3730550226827322</v>
       </c>
-      <c r="E138">
+      <c r="H138">
         <v>5.579744841837065</v>
       </c>
-      <c r="F138">
+      <c r="I138">
         <v>8.141517236814812</v>
       </c>
-      <c r="G138">
+      <c r="J138">
         <v>3.905821389285943</v>
       </c>
-      <c r="H138">
+      <c r="K138">
         <v>1.673923452551118</v>
       </c>
-      <c r="I138">
+      <c r="L138">
         <v>0.1952910694642972</v>
       </c>
-      <c r="J138">
+      <c r="M138">
         <v>3.710530319821646</v>
       </c>
-      <c r="K138">
+      <c r="N138">
         <v>0.4907720344682965</v>
       </c>
-      <c r="L138">
+      <c r="O138">
         <v>5.594801192938578</v>
       </c>
-      <c r="M138">
-        <v>25.2679229503968</v>
-      </c>
-      <c r="N138">
-        <v>0.4144811464015073</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="P138">
+        <v>3.729867461959054</v>
+      </c>
+      <c r="Q138">
+        <v>3.729867461959054</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" s="1">
         <v>2037</v>
       </c>
       <c r="B139">
+        <v>12.58991357145205</v>
+      </c>
+      <c r="C139">
+        <v>25.92341006260021</v>
+      </c>
+      <c r="D139">
+        <v>0.6178008467246232</v>
+      </c>
+      <c r="E139">
         <v>25.92341006260022</v>
       </c>
-      <c r="C139">
+      <c r="F139">
         <v>15.08926101616414</v>
       </c>
-      <c r="D139">
+      <c r="G139">
         <v>0.4036848710348923</v>
       </c>
-      <c r="E139">
+      <c r="H139">
         <v>6.017039133615561</v>
       </c>
-      <c r="F139">
+      <c r="I139">
         <v>8.668537011513706</v>
       </c>
-      <c r="G139">
+      <c r="J139">
         <v>4.211927393530895</v>
       </c>
-      <c r="H139">
+      <c r="K139">
         <v>1.805111740084669</v>
       </c>
-      <c r="I139">
+      <c r="L139">
         <v>0.2105963696765447</v>
       </c>
-      <c r="J139">
+      <c r="M139">
         <v>4.00133102385435</v>
       </c>
-      <c r="K139">
+      <c r="N139">
         <v>0.5236824375799181</v>
       </c>
-      <c r="L139">
+      <c r="O139">
         <v>5.721230630560602</v>
       </c>
-      <c r="M139">
-        <v>25.92341006260021</v>
-      </c>
-      <c r="N139">
-        <v>0.6178008467246232</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="P139">
+        <v>4.228735683457839</v>
+      </c>
+      <c r="Q139">
+        <v>4.228735683457839</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" s="1">
         <v>2038</v>
       </c>
       <c r="B140">
+        <v>12.53151630073543</v>
+      </c>
+      <c r="C140">
+        <v>26.69348991873918</v>
+      </c>
+      <c r="D140">
+        <v>0.8318260143913753</v>
+      </c>
+      <c r="E140">
         <v>26.69348991873919</v>
       </c>
-      <c r="C140">
+      <c r="F140">
         <v>16.21940873429297</v>
       </c>
-      <c r="D140">
+      <c r="G140">
         <v>0.4364617528244153</v>
       </c>
-      <c r="E140">
+      <c r="H140">
         <v>6.522031191949951</v>
       </c>
-      <c r="F140">
+      <c r="I140">
         <v>9.260915789518597</v>
       </c>
-      <c r="G140">
+      <c r="J140">
         <v>4.565421834364966</v>
       </c>
-      <c r="H140">
+      <c r="K140">
         <v>1.956609357584986</v>
       </c>
-      <c r="I140">
+      <c r="L140">
         <v>0.2282710917182484</v>
       </c>
-      <c r="J140">
+      <c r="M140">
         <v>4.337150742646718</v>
       </c>
-      <c r="K140">
+      <c r="N140">
         <v>0.5608762573551791</v>
       </c>
-      <c r="L140">
+      <c r="O140">
         <v>5.861156889361621</v>
       </c>
-      <c r="M140">
-        <v>26.69348991873918</v>
-      </c>
-      <c r="N140">
-        <v>0.8318260143913753</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+      <c r="P140">
+        <v>4.795492000386783</v>
+      </c>
+      <c r="Q140">
+        <v>4.795492000386783</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="1">
         <v>2039</v>
       </c>
       <c r="B141">
+        <v>12.48129600874265</v>
+      </c>
+      <c r="C141">
         <v>27.62074690740913</v>
       </c>
-      <c r="C141">
+      <c r="D141">
+        <v>1.05933408629137</v>
+      </c>
+      <c r="E141">
+        <v>27.62074690740913</v>
+      </c>
+      <c r="F141">
         <v>17.52309588391507</v>
       </c>
-      <c r="D141">
+      <c r="G141">
         <v>0.4717432681699745</v>
       </c>
-      <c r="E141">
+      <c r="H141">
         <v>7.112844047399259</v>
       </c>
-      <c r="F141">
+      <c r="I141">
         <v>9.938508568345865</v>
       </c>
-      <c r="G141">
+      <c r="J141">
         <v>4.978990833179472</v>
       </c>
-      <c r="H141">
+      <c r="K141">
         <v>2.133853214219774</v>
       </c>
-      <c r="I141">
+      <c r="L141">
         <v>0.2489495416589737</v>
       </c>
-      <c r="J141">
+      <c r="M141">
         <v>4.730041291520498</v>
       </c>
-      <c r="K141">
+      <c r="N141">
         <v>0.603618089128282</v>
       </c>
-      <c r="L141">
+      <c r="O141">
         <v>6.02109043905461</v>
       </c>
-      <c r="M141">
-        <v>27.62074690740913</v>
-      </c>
-      <c r="N141">
-        <v>1.05933408629137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="P141">
+        <v>5.447653254382746</v>
+      </c>
+      <c r="Q141">
+        <v>5.447653254382746</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" s="1">
         <v>2040</v>
       </c>
       <c r="B142">
+        <v>12.4440483132816</v>
+      </c>
+      <c r="C142">
         <v>28.73513745805013</v>
       </c>
-      <c r="C142">
+      <c r="D142">
+        <v>1.298935738521695</v>
+      </c>
+      <c r="E142">
+        <v>28.73513745805013</v>
+      </c>
+      <c r="F142">
         <v>19.02577223366858</v>
       </c>
-      <c r="D142">
+      <c r="G142">
         <v>0.5099565670473166</v>
       </c>
-      <c r="E142">
+      <c r="H142">
         <v>7.800741444630871</v>
       </c>
-      <c r="F142">
+      <c r="I142">
         <v>10.71507422199043</v>
       </c>
-      <c r="G142">
+      <c r="J142">
         <v>5.460519011241611</v>
       </c>
-      <c r="H142">
+      <c r="K142">
         <v>2.340222433389262</v>
       </c>
-      <c r="I142">
+      <c r="L142">
         <v>0.2730259505620805</v>
       </c>
-      <c r="J142">
+      <c r="M142">
         <v>5.187493060679529</v>
       </c>
-      <c r="K142">
+      <c r="N142">
         <v>0.6527648327689839</v>
       </c>
-      <c r="L142">
+      <c r="O142">
         <v>6.201265911305343</v>
       </c>
-      <c r="M142">
-        <v>28.73513745805013</v>
-      </c>
-      <c r="N142">
-        <v>1.298935738521695</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="P142">
+        <v>6.201265911305346</v>
+      </c>
+      <c r="Q142">
+        <v>6.201265911305346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" s="1">
         <v>2041</v>
       </c>
       <c r="B143">
+        <v>12.42307532138878</v>
+      </c>
+      <c r="C143">
         <v>30.03116016780058</v>
       </c>
-      <c r="C143">
+      <c r="D143">
+        <v>1.547177203883071</v>
+      </c>
+      <c r="E143">
+        <v>30.03116016780058</v>
+      </c>
+      <c r="F143">
         <v>20.71458809316823</v>
       </c>
-      <c r="D143">
+      <c r="G143">
         <v>0.551154356015725</v>
       </c>
-      <c r="E143">
+      <c r="H143">
         <v>8.578502474093719</v>
       </c>
-      <c r="F143">
+      <c r="I143">
         <v>11.58493126305877</v>
       </c>
-      <c r="G143">
+      <c r="J143">
         <v>6.004951731865606</v>
       </c>
-      <c r="H143">
+      <c r="K143">
         <v>2.573550742228117</v>
       </c>
-      <c r="I143">
+      <c r="L143">
         <v>0.3002475865932803</v>
       </c>
-      <c r="J143">
+      <c r="M143">
         <v>5.704704145272325</v>
       </c>
-      <c r="K143">
+      <c r="N143">
         <v>0.7079241002643445</v>
       </c>
-      <c r="L143">
+      <c r="O143">
         <v>6.389015004885707</v>
       </c>
-      <c r="M143">
-        <v>30.03116016780058</v>
-      </c>
-      <c r="N143">
-        <v>1.547177203883071</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="P143">
+        <v>7.061542900136837</v>
+      </c>
+      <c r="Q143">
+        <v>7.061542900136837</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" s="1">
         <v>2042</v>
       </c>
       <c r="B144">
+        <v>12.38973932133124</v>
+      </c>
+      <c r="C144">
         <v>31.4390062916234</v>
       </c>
-      <c r="C144">
+      <c r="D144">
+        <v>1.777675720261958</v>
+      </c>
+      <c r="E144">
+        <v>31.4390062916234</v>
+      </c>
+      <c r="F144">
         <v>22.5176356146735</v>
       </c>
-      <c r="D144">
+      <c r="G144">
         <v>0.5945380456691793</v>
       </c>
-      <c r="E144">
+      <c r="H144">
         <v>9.41150520764192</v>
       </c>
-      <c r="F144">
+      <c r="I144">
         <v>12.51159236136243</v>
       </c>
-      <c r="G144">
+      <c r="J144">
         <v>6.588053645349344</v>
       </c>
-      <c r="H144">
+      <c r="K144">
         <v>2.823451562292577</v>
       </c>
-      <c r="I144">
+      <c r="L144">
         <v>0.3294026822674673</v>
       </c>
-      <c r="J144">
+      <c r="M144">
         <v>6.258650963081878</v>
       </c>
-      <c r="K144">
+      <c r="N144">
         <v>0.7667521961827493</v>
       </c>
-      <c r="L144">
+      <c r="O144">
         <v>6.555731277362504</v>
       </c>
-      <c r="M144">
-        <v>31.4390062916234</v>
-      </c>
-      <c r="N144">
-        <v>1.777675720261958</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="P144">
+        <v>8.012560450109731</v>
+      </c>
+      <c r="Q144">
+        <v>8.012560450109731</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145" s="1">
         <v>2043</v>
       </c>
       <c r="B145">
+        <v>12.31096090065107</v>
+      </c>
+      <c r="C145">
+        <v>32.83101012412658</v>
+      </c>
+      <c r="D145">
+        <v>1.963439913860894</v>
+      </c>
+      <c r="E145">
         <v>32.83101012412659</v>
       </c>
-      <c r="C145">
+      <c r="F145">
         <v>24.30506759132176</v>
       </c>
-      <c r="D145">
+      <c r="G145">
         <v>0.6382369204413485</v>
       </c>
-      <c r="E145">
+      <c r="H145">
         <v>10.23931229774039</v>
       </c>
-      <c r="F145">
+      <c r="I145">
         <v>13.42751837314005</v>
       </c>
-      <c r="G145">
+      <c r="J145">
         <v>7.167518608418278</v>
       </c>
-      <c r="H145">
+      <c r="K145">
         <v>3.071793689322119</v>
       </c>
-      <c r="I145">
+      <c r="L145">
         <v>0.3583759304209139</v>
       </c>
-      <c r="J145">
+      <c r="M145">
         <v>6.809142677997364</v>
       </c>
-      <c r="K145">
+      <c r="N145">
         <v>0.8249656031231076</v>
       </c>
-      <c r="L145">
+      <c r="O145">
         <v>6.661597245219092</v>
       </c>
-      <c r="M145">
-        <v>32.83101012412658</v>
-      </c>
-      <c r="N145">
-        <v>1.963439913860894</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="P145">
+        <v>9.012749214119953</v>
+      </c>
+      <c r="Q145">
+        <v>9.012749214119953</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" s="1">
         <v>2044</v>
       </c>
       <c r="B146">
+        <v>12.15211241337162</v>
+      </c>
+      <c r="C146">
+        <v>34.0587482367197</v>
+      </c>
+      <c r="D146">
+        <v>2.080505583751598</v>
+      </c>
+      <c r="E146">
         <v>34.05874823671971</v>
       </c>
-      <c r="C146">
+      <c r="F146">
         <v>25.92937353687971</v>
       </c>
-      <c r="D146">
+      <c r="G146">
         <v>0.6797510030905818</v>
       </c>
-      <c r="E146">
+      <c r="H146">
         <v>10.99515517758126</v>
       </c>
-      <c r="F146">
+      <c r="I146">
         <v>14.25446735620786</v>
       </c>
-      <c r="G146">
+      <c r="J146">
         <v>7.696608624306879</v>
       </c>
-      <c r="H146">
+      <c r="K146">
         <v>3.298546553274377</v>
       </c>
-      <c r="I146">
+      <c r="L146">
         <v>0.3848304312153439</v>
       </c>
-      <c r="J146">
+      <c r="M146">
         <v>7.311778193091534</v>
       </c>
-      <c r="K146">
+      <c r="N146">
         <v>0.8776506954741128</v>
       </c>
-      <c r="L146">
+      <c r="O146">
         <v>6.670145285603253</v>
       </c>
-      <c r="M146">
-        <v>34.0587482367197</v>
-      </c>
-      <c r="N146">
-        <v>2.080505583751598</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="P146">
+        <v>10.00521792840489</v>
+      </c>
+      <c r="Q146">
+        <v>10.00521792840489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" s="1">
         <v>2045</v>
       </c>
       <c r="B147">
+        <v>11.89707308411096</v>
+      </c>
+      <c r="C147">
         <v>35.03242968957792</v>
       </c>
-      <c r="C147">
+      <c r="D147">
+        <v>2.119902808124075</v>
+      </c>
+      <c r="E147">
+        <v>35.03242968957792</v>
+      </c>
+      <c r="F147">
         <v>27.30163248818371</v>
       </c>
-      <c r="D147">
+      <c r="G147">
         <v>0.7171488949300325</v>
       </c>
-      <c r="E147">
+      <c r="H147">
         <v>11.64126565416106</v>
       </c>
-      <c r="F147">
+      <c r="I147">
         <v>14.94321793909265</v>
       </c>
-      <c r="G147">
+      <c r="J147">
         <v>8.148885957912743</v>
       </c>
-      <c r="H147">
+      <c r="K147">
         <v>3.492379696248319</v>
       </c>
-      <c r="I147">
+      <c r="L147">
         <v>0.4074442978956371</v>
       </c>
-      <c r="J147">
+      <c r="M147">
         <v>7.741441660017106</v>
       </c>
-      <c r="K147">
+      <c r="N147">
         <v>0.9217798817670486</v>
       </c>
-      <c r="L147">
+      <c r="O147">
         <v>6.567681657590218</v>
       </c>
-      <c r="M147">
-        <v>35.03242968957792</v>
-      </c>
-      <c r="N147">
-        <v>2.119902808124075</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="P147">
+        <v>10.94613609598371</v>
+      </c>
+      <c r="Q147">
+        <v>10.94613609598371</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" s="1">
         <v>2046</v>
       </c>
       <c r="B148">
+        <v>11.56712776959686</v>
+      </c>
+      <c r="C148">
         <v>35.81029870481003</v>
       </c>
-      <c r="C148">
+      <c r="D148">
+        <v>2.095713462210971</v>
+      </c>
+      <c r="E148">
+        <v>35.81029870481003</v>
+      </c>
+      <c r="F148">
         <v>28.47585593561471</v>
       </c>
-      <c r="D148">
+      <c r="G148">
         <v>0.7507144646419333</v>
       </c>
-      <c r="E148">
+      <c r="H148">
         <v>12.20675459859927</v>
       </c>
-      <c r="F148">
+      <c r="I148">
         <v>15.51838687237351</v>
       </c>
-      <c r="G148">
+      <c r="J148">
         <v>8.544728219019497</v>
       </c>
-      <c r="H148">
+      <c r="K148">
         <v>3.662026379579785</v>
       </c>
-      <c r="I148">
+      <c r="L148">
         <v>0.4272364109509749</v>
       </c>
-      <c r="J148">
+      <c r="M148">
         <v>8.117491808068522</v>
       </c>
-      <c r="K148">
+      <c r="N148">
         <v>0.9590206625976641</v>
       </c>
-      <c r="L148">
+      <c r="O148">
         <v>6.37748740627446</v>
       </c>
-      <c r="M148">
-        <v>35.81029870481003</v>
-      </c>
-      <c r="N148">
-        <v>2.095713462210971</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="P148">
+        <v>11.84390518308115</v>
+      </c>
+      <c r="Q148">
+        <v>11.84390518308115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" s="1">
         <v>2047</v>
       </c>
       <c r="B149">
+        <v>11.22434358450158</v>
+      </c>
+      <c r="C149">
+        <v>36.63741007721087</v>
+      </c>
+      <c r="D149">
+        <v>2.041650781456637</v>
+      </c>
+      <c r="E149">
         <v>36.63741007721086</v>
       </c>
-      <c r="C149">
+      <c r="F149">
         <v>29.68382782545124</v>
       </c>
-      <c r="D149">
+      <c r="G149">
         <v>0.7841254315923698</v>
       </c>
-      <c r="E149">
+      <c r="H149">
         <v>12.80124308458631</v>
       </c>
-      <c r="F149">
+      <c r="I149">
         <v>16.09845930927256</v>
       </c>
-      <c r="G149">
+      <c r="J149">
         <v>8.960870159210419</v>
       </c>
-      <c r="H149">
+      <c r="K149">
         <v>3.840372925375894</v>
       </c>
-      <c r="I149">
+      <c r="L149">
         <v>0.448043507960521</v>
       </c>
-      <c r="J149">
+      <c r="M149">
         <v>8.512826651249899</v>
       </c>
-      <c r="K149">
+      <c r="N149">
         <v>0.9969416117324224</v>
       </c>
-      <c r="L149">
+      <c r="O149">
         <v>6.156114452447702</v>
       </c>
-      <c r="M149">
-        <v>36.63741007721087</v>
-      </c>
-      <c r="N149">
-        <v>2.041650781456637</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="P149">
+        <v>12.78577617046832</v>
+      </c>
+      <c r="Q149">
+        <v>12.78577617046832</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" s="1">
         <v>2048</v>
       </c>
       <c r="B150">
+        <v>10.9483041401361</v>
+      </c>
+      <c r="C150">
         <v>37.86712479985761</v>
       </c>
-      <c r="C150">
+      <c r="D150">
+        <v>1.992612980593269</v>
+      </c>
+      <c r="E150">
+        <v>37.86712479985761</v>
+      </c>
+      <c r="F150">
         <v>31.25699439526791</v>
       </c>
-      <c r="D150">
+      <c r="G150">
         <v>0.8239063528312893</v>
       </c>
-      <c r="E150">
+      <c r="H150">
         <v>13.57541418603186</v>
       </c>
-      <c r="F150">
+      <c r="I150">
         <v>16.85767385640476</v>
       </c>
-      <c r="G150">
+      <c r="J150">
         <v>9.50278993022231</v>
       </c>
-      <c r="H150">
+      <c r="K150">
         <v>4.07262425580956</v>
       </c>
-      <c r="I150">
+      <c r="L150">
         <v>0.4751394965111155</v>
       </c>
-      <c r="J150">
+      <c r="M150">
         <v>9.027650433711193</v>
       </c>
-      <c r="K150">
+      <c r="N150">
         <v>1.046514905610715</v>
       </c>
-      <c r="L150">
+      <c r="O150">
         <v>5.965134961981072</v>
       </c>
-      <c r="M150">
-        <v>37.86712479985761</v>
-      </c>
-      <c r="N150">
-        <v>1.992612980593269</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="P150">
+        <v>13.91864824462252</v>
+      </c>
+      <c r="Q150">
+        <v>13.91864824462252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" s="1">
         <v>2049</v>
       </c>
       <c r="B151">
+        <v>10.79054010843416</v>
+      </c>
+      <c r="C151">
+        <v>39.75683710949776</v>
+      </c>
+      <c r="D151">
+        <v>1.959130348477006</v>
+      </c>
+      <c r="E151">
         <v>39.75683710949777</v>
       </c>
-      <c r="C151">
+      <c r="F151">
         <v>33.42957328066957</v>
       </c>
-      <c r="D151">
+      <c r="G151">
         <v>0.8764918601005254</v>
       </c>
-      <c r="E151">
+      <c r="H151">
         <v>14.62813047139037</v>
       </c>
-      <c r="F151">
+      <c r="I151">
         <v>17.9249509491787</v>
       </c>
-      <c r="G151">
+      <c r="J151">
         <v>10.23969132997324</v>
       </c>
-      <c r="H151">
+      <c r="K151">
         <v>4.388439141417105</v>
       </c>
-      <c r="I151">
+      <c r="L151">
         <v>0.5119845664986622</v>
       </c>
-      <c r="J151">
+      <c r="M151">
         <v>9.727706763474583</v>
       </c>
-      <c r="K151">
+      <c r="N151">
         <v>1.11566950452979</v>
       </c>
-      <c r="L151">
+      <c r="O151">
         <v>5.829373161168148</v>
       </c>
-      <c r="M151">
-        <v>39.75683710949776</v>
-      </c>
-      <c r="N151">
-        <v>1.959130348477006</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="P151">
+        <v>15.36834742489787</v>
+      </c>
+      <c r="Q151">
+        <v>15.36834742489787</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" s="1">
         <v>2050</v>
       </c>
       <c r="B152">
+        <v>10.73174443406242</v>
+      </c>
+      <c r="C152">
+        <v>42.24500285206719</v>
+      </c>
+      <c r="D152">
+        <v>1.914543577730211</v>
+      </c>
+      <c r="E152">
         <v>42.2450028520672</v>
       </c>
-      <c r="C152">
+      <c r="F152">
         <v>36.13112225241878</v>
       </c>
-      <c r="D152">
+      <c r="G152">
         <v>0.943962256908279</v>
       </c>
-      <c r="E152">
+      <c r="H152">
         <v>15.91366375369263</v>
       </c>
-      <c r="F152">
+      <c r="I152">
         <v>19.27349624181786</v>
       </c>
-      <c r="G152">
+      <c r="J152">
         <v>11.13956462758483</v>
       </c>
-      <c r="H152">
+      <c r="K152">
         <v>4.774099126107784</v>
       </c>
-      <c r="I152">
+      <c r="L152">
         <v>0.5569782313792415</v>
       </c>
-      <c r="J152">
+      <c r="M152">
         <v>10.58258639620559</v>
       </c>
-      <c r="K152">
+      <c r="N152">
         <v>1.202379768396284</v>
       </c>
-      <c r="L152">
+      <c r="O152">
         <v>5.711303899882349</v>
       </c>
-      <c r="M152">
-        <v>42.24500285206719</v>
-      </c>
-      <c r="N152">
-        <v>1.914543577730211</v>
+      <c r="P152">
+        <v>17.13391169964705</v>
+      </c>
+      <c r="Q152">
+        <v>17.13391169964705</v>
       </c>
     </row>
   </sheetData>

--- a/results/flows_per_year.xlsx
+++ b/results/flows_per_year.xlsx
@@ -3175,7 +3175,7 @@
         <v>1950</v>
       </c>
       <c r="B52" t="n">
-        <v>0.782389537074956</v>
+        <v>0.7823895370749557</v>
       </c>
       <c r="C52" t="n">
         <v>0.7823983635889724</v>
@@ -3193,28 +3193,28 @@
         <v>1.548846039717237e-05</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>3.216138710500837e-07</v>
       </c>
       <c r="I52" t="n">
-        <v>9.291067385891307e-06</v>
+        <v>8.969453514841231e-06</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2.251297097350587e-07</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>9.648416131502515e-08</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.125648548675293e-08</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2.138732242483057e-07</v>
       </c>
       <c r="N52" t="n">
-        <v>4.645533692945654e-07</v>
+        <v>4.532968838078127e-07</v>
       </c>
       <c r="O52" t="n">
-        <v>8.826514016596742e-06</v>
+        <v>8.61264079234844e-06</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3246,28 +3246,28 @@
         <v>5.164987880566476e-05</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1.098152651803456e-06</v>
       </c>
       <c r="I53" t="n">
-        <v>3.172440994098872e-05</v>
+        <v>3.062625728918525e-05</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>7.687068562624188e-07</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>3.294457955410367e-07</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>3.843534281312094e-08</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>7.302715134492979e-07</v>
       </c>
       <c r="N53" t="n">
-        <v>1.586220497049435e-06</v>
+        <v>1.547785154236315e-06</v>
       </c>
       <c r="O53" t="n">
-        <v>3.013818944393927e-05</v>
+        <v>2.940791793048997e-05</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3299,28 +3299,28 @@
         <v>0.0001425199144243226</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>3.089644169519017e-06</v>
       </c>
       <c r="I54" t="n">
-        <v>8.925638711943829e-05</v>
+        <v>8.616674294991927e-05</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>2.162750918663312e-06</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>9.268932508557052e-07</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1.081375459331656e-07</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>2.054613372730147e-06</v>
       </c>
       <c r="N54" t="n">
-        <v>4.462819355971914e-06</v>
+        <v>4.354681810038749e-06</v>
       </c>
       <c r="O54" t="n">
-        <v>8.479356776346638e-05</v>
+        <v>8.273895439073621e-05</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3352,28 +3352,28 @@
         <v>0.0003672762044942191</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>8.164754911547536e-06</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0002358706974447065</v>
+        <v>0.000227705942533159</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>5.715328438083275e-06</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>2.449426473464261e-06</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2.857664219041639e-07</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>5.42956201617911e-06</v>
       </c>
       <c r="N55" t="n">
-        <v>1.179353487223533e-05</v>
+        <v>1.150776845033116e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0002240771625724713</v>
+        <v>0.0002186476005562921</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3405,28 +3405,28 @@
         <v>0.000886579472278362</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2.031927202061536e-05</v>
       </c>
       <c r="I56" t="n">
-        <v>0.000587001191706667</v>
+        <v>0.000566681919686051</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1.422349041443076e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>6.09578160618461e-06</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>7.111745207215381e-07</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1.351231589370922e-05</v>
       </c>
       <c r="N56" t="n">
-        <v>2.935005958533332e-05</v>
+        <v>2.863888506461178e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.000557651132121333</v>
+        <v>0.0005441388162276237</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3458,28 +3458,28 @@
         <v>0.002006524485207306</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>4.763032674479875e-05</v>
       </c>
       <c r="I57" t="n">
-        <v>0.001375987217071963</v>
+        <v>0.001328356890327164</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>3.33412287213591e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1.428909802343962e-05</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.667061436067956e-06</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>3.167416728529115e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>6.879936085359817e-05</v>
+        <v>6.713229941753023e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>0.001307187856218365</v>
+        <v>0.001275513688933074</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>1956</v>
       </c>
       <c r="B58" t="n">
-        <v>1.523947228182804</v>
+        <v>1.523947228182803</v>
       </c>
       <c r="C58" t="n">
         <v>1.526832260614457</v>
@@ -3511,28 +3511,28 @@
         <v>0.004259839690215275</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.000105122639210051</v>
       </c>
       <c r="I58" t="n">
-        <v>0.003036876243845917</v>
+        <v>0.002931753604635868</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>7.358584744703572e-05</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>3.153679176301531e-05</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>3.679292372351787e-06</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>6.990655507468395e-05</v>
       </c>
       <c r="N58" t="n">
-        <v>0.000151843812192296</v>
+        <v>0.0001481645198199442</v>
       </c>
       <c r="O58" t="n">
-        <v>0.002885032431653623</v>
+        <v>0.00281512587657894</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>1957</v>
       </c>
       <c r="B59" t="n">
-        <v>1.599721972127493</v>
+        <v>1.599721972127494</v>
       </c>
       <c r="C59" t="n">
         <v>1.605715143852206</v>
@@ -3564,28 +3564,28 @@
         <v>0.008488727259083621</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.0002183746782283898</v>
       </c>
       <c r="I59" t="n">
-        <v>0.006308601815486818</v>
+        <v>0.006090227137258432</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>0.0001528622747598728</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>6.551240346851689e-05</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>7.643113737993637e-06</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.0001452191610218791</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0003154300907743407</v>
+        <v>0.000307786977036347</v>
       </c>
       <c r="O59" t="n">
-        <v>0.005993171724712474</v>
+        <v>0.005847952563690592</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3617,28 +3617,28 @@
         <v>0.01589317966724957</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.0004269729688988061</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01233477465707661</v>
+        <v>0.01190780168817779</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>0.0002988810782291642</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>0.0001280918906696418</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1.494405391145821e-05</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>0.000283937024317706</v>
       </c>
       <c r="N60" t="n">
-        <v>0.000616738732853831</v>
+        <v>0.0006017946789423726</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01171803592422279</v>
+        <v>0.01143409889990508</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3670,28 +3670,28 @@
         <v>0.0279932324288149</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.0007861886312717883</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02271211601451835</v>
+        <v>0.02192592738324654</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>0.0005503320418902518</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>0.0002358565893815365</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2.751660209451259e-05</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>0.0005228154397957393</v>
       </c>
       <c r="N61" t="n">
-        <v>0.001135605800725916</v>
+        <v>0.001108089198631403</v>
       </c>
       <c r="O61" t="n">
-        <v>0.02157651021379239</v>
+        <v>0.02105369477399666</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3723,28 +3723,28 @@
         <v>0.04605105163331238</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.001378949050662182</v>
       </c>
       <c r="I62" t="n">
-        <v>0.03983630590801864</v>
+        <v>0.03845735685735644</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>0.0009652643354635283</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>0.000413684715198655</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>4.826321677317641e-05</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>0.0009170011186903518</v>
       </c>
       <c r="N62" t="n">
-        <v>0.00199181529540093</v>
+        <v>0.001943552078627755</v>
       </c>
       <c r="O62" t="n">
-        <v>0.03784449061261769</v>
+        <v>0.03692748949392733</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3776,28 +3776,28 @@
         <v>0.07212077164149419</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.002261167995164797</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06532263097142764</v>
+        <v>0.06306146297626282</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>0.001582817596615359</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>0.0006783503985494396</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>7.914087983076798e-05</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>0.001503676716784591</v>
       </c>
       <c r="N63" t="n">
-        <v>0.003266131548571377</v>
+        <v>0.00318699066874061</v>
       </c>
       <c r="O63" t="n">
-        <v>0.06205649942285614</v>
+        <v>0.06055282270607158</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3829,28 +3829,28 @@
         <v>0.1069555201404066</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.003507533556648657</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1013287471920722</v>
+        <v>0.09782121363542358</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>0.002455273489654057</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>0.001052260066994596</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>0.0001227636744827029</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.002332509815171354</v>
       </c>
       <c r="N64" t="n">
-        <v>0.005066437359603612</v>
+        <v>0.004943673685120909</v>
       </c>
       <c r="O64" t="n">
-        <v>0.09626230983246861</v>
+        <v>0.09392980001729727</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>1963</v>
       </c>
       <c r="B65" t="n">
-        <v>2.021987783097669</v>
+        <v>2.02198778309767</v>
       </c>
       <c r="C65" t="n">
         <v>2.163619866882521</v>
@@ -3882,28 +3882,28 @@
         <v>0.1506551732839584</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.005160683214832626</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1490864039840538</v>
+        <v>0.1439257207692212</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.003612478250382839</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.001548204964449788</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.000180623912519142</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.003431854337863697</v>
       </c>
       <c r="N65" t="n">
-        <v>0.007454320199202683</v>
+        <v>0.00727369628668354</v>
       </c>
       <c r="O65" t="n">
-        <v>0.141632083784851</v>
+        <v>0.1382002294469873</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>1964</v>
       </c>
       <c r="B66" t="n">
-        <v>2.081305704868988</v>
+        <v>2.081305704868987</v>
       </c>
       <c r="C66" t="n">
         <v>2.279593568491393</v>
@@ -3935,28 +3935,28 @@
         <v>0.2022477709524026</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.007225063856686829</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2087240669709528</v>
+        <v>0.2014990031142661</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>0.005057544699680779</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>0.002167519157006048</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>0.0002528772349840389</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.004804667464696739</v>
       </c>
       <c r="N66" t="n">
-        <v>0.01043620334854764</v>
+        <v>0.0101833261135636</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1982878636224051</v>
+        <v>0.1934831961577084</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>1965</v>
       </c>
       <c r="B67" t="n">
-        <v>2.138767917762036</v>
+        <v>2.138767917762037</v>
       </c>
       <c r="C67" t="n">
         <v>2.403911251260527</v>
@@ -3988,28 +3988,28 @@
         <v>0.2597336911242545</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.009661093123426797</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2790982457878848</v>
+        <v>0.2694371526644581</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>0.006762765186398761</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>0.00289832793702804</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.000338138259319938</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.006424626927078821</v>
       </c>
       <c r="N67" t="n">
-        <v>0.01395491228939426</v>
+        <v>0.01361677403007432</v>
       </c>
       <c r="O67" t="n">
-        <v>0.2651433334984911</v>
+        <v>0.2587187065714121</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>1966</v>
       </c>
       <c r="B68" t="n">
-        <v>2.195928426539526</v>
+        <v>2.195928426539525</v>
       </c>
       <c r="C68" t="n">
         <v>2.53597778287106</v>
@@ -4041,28 +4041,28 @@
         <v>0.3203778909377725</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.01239046237645264</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3579466908752977</v>
+        <v>0.345556228498846</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.008673323663516848</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.003717138712935792</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.0004336661831758424</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.008239657480341006</v>
       </c>
       <c r="N68" t="n">
-        <v>0.01789733454376493</v>
+        <v>0.01746366836058908</v>
       </c>
       <c r="O68" t="n">
-        <v>0.3400493563315335</v>
+        <v>0.3318096988511925</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -4094,28 +4094,28 @@
         <v>0.3811689614927141</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.01531167989009349</v>
       </c>
       <c r="I69" t="n">
-        <v>0.442337419047146</v>
+        <v>0.4270257391570521</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>0.01071817592306545</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>0.00459350396702805</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.0005359087961532725</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>0.01018226712691218</v>
       </c>
       <c r="N69" t="n">
-        <v>0.02211687095235728</v>
+        <v>0.02158096215620401</v>
       </c>
       <c r="O69" t="n">
-        <v>0.4202205480947882</v>
+        <v>0.410038280967876</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>1968</v>
       </c>
       <c r="B70" t="n">
-        <v>2.328316656380987</v>
+        <v>2.328316656380988</v>
       </c>
       <c r="C70" t="n">
         <v>2.828605545489053</v>
@@ -4147,28 +4147,28 @@
         <v>0.441966855219895</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.01822914980555707</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5266198832716492</v>
+        <v>0.5083907334660915</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>0.01276040486388995</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>0.005468744941667121</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.0006380202431944974</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.01212238462069545</v>
       </c>
       <c r="N70" t="n">
-        <v>0.02633099416358243</v>
+        <v>0.02569297392038793</v>
       </c>
       <c r="O70" t="n">
-        <v>0.5002888891080661</v>
+        <v>0.4881665044873706</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -4200,28 +4200,28 @@
         <v>0.4988929988495314</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.02111558300558612</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6100057312724873</v>
+        <v>0.5888901482669016</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.01478090810391029</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>0.006334674901675838</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.0007390454051955143</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.01404186269871477</v>
       </c>
       <c r="N71" t="n">
-        <v>0.03050028656362439</v>
+        <v>0.02976124115842887</v>
       </c>
       <c r="O71" t="n">
-        <v>0.5795054447088633</v>
+        <v>0.5654635820101486</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4235,7 +4235,7 @@
         <v>1970</v>
       </c>
       <c r="B72" t="n">
-        <v>2.213937512451966</v>
+        <v>2.213937512451965</v>
       </c>
       <c r="C72" t="n">
         <v>3.163969480252374</v>
@@ -4253,28 +4253,28 @@
         <v>0.2414684237928338</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.03461654943402299</v>
       </c>
       <c r="I72" t="n">
-        <v>1.000033650316217</v>
+        <v>0.9654171008821939</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>0.02423158460381607</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>0.01038496483020689</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.001211579230190803</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.02302000537362527</v>
       </c>
       <c r="N72" t="n">
-        <v>0.05000168251581092</v>
+        <v>0.04879010328562012</v>
       </c>
       <c r="O72" t="n">
-        <v>0.9500319678004072</v>
+        <v>0.9270119624267823</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         <v>0.2563873926646564</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>0.03838649982156456</v>
       </c>
       <c r="I73" t="n">
-        <v>1.108943328178534</v>
+        <v>1.070556828356969</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>0.02687054987509519</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>0.01151594994646937</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.00134352749375476</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.02552702238134044</v>
       </c>
       <c r="N73" t="n">
-        <v>0.05544716640892662</v>
+        <v>0.05410363891517184</v>
       </c>
       <c r="O73" t="n">
-        <v>1.053496161769606</v>
+        <v>1.027969139388265</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>1972</v>
       </c>
       <c r="B74" t="n">
-        <v>2.371311995363846</v>
+        <v>2.371311995363845</v>
       </c>
       <c r="C74" t="n">
         <v>3.522426915577626</v>
@@ -4359,28 +4359,28 @@
         <v>0.2692477353787726</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>0.04194345863127138</v>
       </c>
       <c r="I74" t="n">
-        <v>1.211699916014506</v>
+        <v>1.169756457383234</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>0.02936042104188995</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.01258303758938141</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>0.001468021052094498</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>0.02789239998979546</v>
       </c>
       <c r="N74" t="n">
-        <v>0.06058499580072531</v>
+        <v>0.05911697474863077</v>
       </c>
       <c r="O74" t="n">
-        <v>1.151114920213781</v>
+        <v>1.123222520223985</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>1973</v>
       </c>
       <c r="B75" t="n">
-        <v>2.461666539187352</v>
+        <v>2.461666539187351</v>
       </c>
       <c r="C75" t="n">
         <v>3.705661353790857</v>
@@ -4412,28 +4412,28 @@
         <v>0.2805942084064351</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.04532774628109947</v>
       </c>
       <c r="I75" t="n">
-        <v>1.30946822589843</v>
+        <v>1.264140479617329</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.03172942239676961</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>0.01359832388432984</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.001586471119838481</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.03014295127693115</v>
       </c>
       <c r="N75" t="n">
-        <v>0.06547341129492142</v>
+        <v>0.06388694017508292</v>
       </c>
       <c r="O75" t="n">
-        <v>1.243994814603507</v>
+        <v>1.213851863326576</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>1974</v>
       </c>
       <c r="B76" t="n">
-        <v>2.557109521132035</v>
+        <v>2.557109521132036</v>
       </c>
       <c r="C76" t="n">
         <v>3.89098263293052</v>
@@ -4465,28 +4465,28 @@
         <v>0.2909093527297431</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.04860266399265732</v>
       </c>
       <c r="I76" t="n">
-        <v>1.404076959787877</v>
+        <v>1.355474295795219</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.03402186479486013</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>0.01458079919779719</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.001701093239743006</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>0.03232077155511711</v>
       </c>
       <c r="N76" t="n">
-        <v>0.07020384798939391</v>
+        <v>0.06850275474965091</v>
       </c>
       <c r="O76" t="n">
-        <v>1.333873111798484</v>
+        <v>1.301552340243367</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>1975</v>
       </c>
       <c r="B77" t="n">
-        <v>2.638597670149225</v>
+        <v>2.638597670149226</v>
       </c>
       <c r="C77" t="n">
         <v>4.06131531902916</v>
@@ -4518,28 +4518,28 @@
         <v>0.3005641585498969</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.05183991433165753</v>
       </c>
       <c r="I77" t="n">
-        <v>1.497597525136771</v>
+        <v>1.445757610805115</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.03628794003216024</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>0.01555197429949725</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>0.001814397001608012</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>0.03447354303055224</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0748798762568386</v>
+        <v>0.0730654792552306</v>
       </c>
       <c r="O77" t="n">
-        <v>1.422717648879934</v>
+        <v>1.388244105849382</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>1976</v>
       </c>
       <c r="B78" t="n">
-        <v>2.935836610765425</v>
+        <v>2.935836610765424</v>
       </c>
       <c r="C78" t="n">
         <v>4.448270032903375</v>
@@ -4571,28 +4571,28 @@
         <v>0.3098122243215768</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>0.05510891011838686</v>
       </c>
       <c r="I78" t="n">
-        <v>1.592035181197844</v>
+        <v>1.536926271079454</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>0.03857623708287079</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>0.01653267303551605</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>0.00192881185414354</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>0.03664742522872724</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07960175905989209</v>
+        <v>0.07767294720574855</v>
       </c>
       <c r="O78" t="n">
-        <v>1.51243342213795</v>
+        <v>1.475785996909222</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>1977</v>
       </c>
       <c r="B79" t="n">
-        <v>3.239856469522337</v>
+        <v>3.239856469522336</v>
       </c>
       <c r="C79" t="n">
         <v>4.844539358548025</v>
@@ -4624,28 +4624,28 @@
         <v>0.3188065880383696</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.05847022672563244</v>
       </c>
       <c r="I79" t="n">
-        <v>1.689139883184938</v>
+        <v>1.630669656459305</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.0409291587079427</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>0.01754106801768973</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.002046457935397135</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.03888270077254557</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08445699415924683</v>
+        <v>0.08241053622384971</v>
       </c>
       <c r="O79" t="n">
-        <v>1.60468288902569</v>
+        <v>1.565800188253145</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>1978</v>
       </c>
       <c r="B80" t="n">
-        <v>3.560374328403036</v>
+        <v>3.560374328403034</v>
       </c>
       <c r="C80" t="n">
         <v>5.261210467632917</v>
@@ -4677,28 +4677,28 @@
         <v>0.3276288347938159</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>0.06197378644967178</v>
       </c>
       <c r="I80" t="n">
-        <v>1.790353830768298</v>
+        <v>1.728380044318627</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>0.04338165051477027</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>0.01859213593490154</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>0.002169082525738514</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.04121256798903176</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08951769153841482</v>
+        <v>0.08734860901267631</v>
       </c>
       <c r="O80" t="n">
-        <v>1.700836139229881</v>
+        <v>1.65962357124085</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>1979</v>
       </c>
       <c r="B81" t="n">
-        <v>3.898912640085513</v>
+        <v>3.898912640085512</v>
       </c>
       <c r="C81" t="n">
         <v>5.700902481867001</v>
@@ -4730,28 +4730,28 @@
         <v>0.3363162118459249</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.06565954889082358</v>
       </c>
       <c r="I81" t="n">
-        <v>1.896831412401569</v>
+        <v>1.831171863510744</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.04596168422357649</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>0.01969786466724707</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>0.002298084211178824</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.04366360001239766</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09484157062007842</v>
+        <v>0.0925434864088996</v>
       </c>
       <c r="O81" t="n">
-        <v>1.80198984178149</v>
+        <v>1.758326241769092</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -4783,28 +4783,28 @@
         <v>0.3343010916428283</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.06992609756300845</v>
       </c>
       <c r="I82" t="n">
-        <v>2.020087262931352</v>
+        <v>1.950161165368345</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>0.0489482682941059</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>0.02097782926890253</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.002447413414705295</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.04650085487940062</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1010043631465677</v>
+        <v>0.09855694973186246</v>
       </c>
       <c r="O82" t="n">
-        <v>1.919082899784786</v>
+        <v>1.872582044905386</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -4836,28 +4836,28 @@
         <v>0.341743069187942</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>0.0741054618560282</v>
       </c>
       <c r="I83" t="n">
-        <v>2.140761298554141</v>
+        <v>2.066655836698111</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>0.05187382329921975</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>0.02223163855680846</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.002593691164960988</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.04928013213425875</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1070380649277071</v>
+        <v>0.1044443737627461</v>
       </c>
       <c r="O83" t="n">
-        <v>2.033723233626436</v>
+        <v>1.984443101492177</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>1982</v>
       </c>
       <c r="B84" t="n">
-        <v>4.840204477535282</v>
+        <v>4.84020447753528</v>
       </c>
       <c r="C84" t="n">
         <v>6.996012553418439</v>
@@ -4889,28 +4889,28 @@
         <v>0.3489863367590043</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.07856020020981068</v>
       </c>
       <c r="I84" t="n">
-        <v>2.269271658824378</v>
+        <v>2.190711458614564</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.05499214014686751</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>0.02356806006294321</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.002749607007343375</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>0.05224253313952412</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1134635829412188</v>
+        <v>0.1107139759338755</v>
       </c>
       <c r="O84" t="n">
-        <v>2.155808075883158</v>
+        <v>2.103565542743635</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>1983</v>
       </c>
       <c r="B85" t="n">
-        <v>5.164071075422294</v>
+        <v>5.164071075422292</v>
       </c>
       <c r="C85" t="n">
         <v>7.450185134085848</v>
@@ -4942,28 +4942,28 @@
         <v>0.3560543761823688</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>0.0833254288786542</v>
       </c>
       <c r="I85" t="n">
-        <v>2.406435851224797</v>
+        <v>2.323110422346142</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>0.05832780021505792</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>0.02499762866359626</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.002916390010752896</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>0.05541141020430503</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1203217925612398</v>
+        <v>0.117405402550487</v>
       </c>
       <c r="O85" t="n">
-        <v>2.286114058663557</v>
+        <v>2.230702648459252</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>1984</v>
       </c>
       <c r="B86" t="n">
-        <v>5.506678902937046</v>
+        <v>5.506678902937047</v>
       </c>
       <c r="C86" t="n">
         <v>7.932276888826484</v>
@@ -4995,28 +4995,28 @@
         <v>0.3629986348539272</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.08845226597175081</v>
       </c>
       <c r="I86" t="n">
-        <v>2.553261037778354</v>
+        <v>2.464808771806602</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.0619165861802256</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>0.02653567979152526</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.003095829309011281</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>0.05882075687121433</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1276630518889177</v>
+        <v>0.1245672225799064</v>
       </c>
       <c r="O86" t="n">
-        <v>2.425597985889436</v>
+        <v>2.366777229018221</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1985</v>
       </c>
       <c r="B87" t="n">
-        <v>5.87368423840656</v>
+        <v>5.873684238406561</v>
       </c>
       <c r="C87" t="n">
         <v>8.4492106127342</v>
@@ -5048,28 +5048,28 @@
         <v>0.3699086366390083</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.09402292950468553</v>
       </c>
       <c r="I87" t="n">
-        <v>2.711080394029096</v>
+        <v>2.617057464524409</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.0658160506532799</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>0.02820687885140567</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>0.003290802532663994</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.0625252481206159</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1355540197014547</v>
+        <v>0.1322632171687907</v>
       </c>
       <c r="O87" t="n">
-        <v>2.575526374327639</v>
+        <v>2.513001126207022</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>1986</v>
       </c>
       <c r="B88" t="n">
-        <v>6.485868424462864</v>
+        <v>6.485868424462868</v>
       </c>
       <c r="C88" t="n">
         <v>9.223458478176109</v>
@@ -5101,28 +5101,28 @@
         <v>0.3769178220357238</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>0.1001736062829566</v>
       </c>
       <c r="I88" t="n">
-        <v>2.881673740750776</v>
+        <v>2.781500134467824</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.07012152439806964</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>0.03005208188488699</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>0.003506076219903481</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>0.06661544817816614</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1440836870375392</v>
+        <v>0.1405776108176358</v>
       </c>
       <c r="O88" t="n">
-        <v>2.737590053713245</v>
+        <v>2.670974605535079</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -5136,7 +5136,7 @@
         <v>1987</v>
       </c>
       <c r="B89" t="n">
-        <v>7.094801017068057</v>
+        <v>7.094801017068058</v>
       </c>
       <c r="C89" t="n">
         <v>10.00874157381215</v>
@@ -5154,28 +5154,28 @@
         <v>0.3841969366630467</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>0.1071249025416769</v>
       </c>
       <c r="I89" t="n">
-        <v>3.067305849204307</v>
+        <v>2.960180946662628</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>0.07498743177917386</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>0.03213747076250308</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>0.003749371588958693</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>0.07123806019021514</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1533652924602153</v>
+        <v>0.1496159208712566</v>
       </c>
       <c r="O89" t="n">
-        <v>2.91394055674409</v>
+        <v>2.842702496553875</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>1988</v>
       </c>
       <c r="B90" t="n">
-        <v>7.728811355387212</v>
+        <v>7.728811355387215</v>
       </c>
       <c r="C90" t="n">
         <v>10.83594791283362</v>
@@ -5207,28 +5207,28 @@
         <v>0.3919371985010966</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.1152211362940993</v>
       </c>
       <c r="I90" t="n">
-        <v>3.2706700604699</v>
+        <v>3.1554489241758</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.08065479540586945</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>0.03456634088822978</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.004032739770293474</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.07662205563557598</v>
       </c>
       <c r="N90" t="n">
-        <v>0.163533503023495</v>
+        <v>0.1595007632532014</v>
       </c>
       <c r="O90" t="n">
-        <v>3.107136557446403</v>
+        <v>3.030514501810827</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>1989</v>
       </c>
       <c r="B91" t="n">
-        <v>8.383753233104875</v>
+        <v>8.383753233104876</v>
       </c>
       <c r="C91" t="n">
         <v>11.70370975114997</v>
@@ -5260,28 +5260,28 @@
         <v>0.4003205594044466</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.1249722637436758</v>
       </c>
       <c r="I91" t="n">
-        <v>3.494691071626423</v>
+        <v>3.369718807882742</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>0.08748058462057316</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>0.03749167912310278</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.004374029231028658</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.08310655538954449</v>
       </c>
       <c r="N91" t="n">
-        <v>0.174734553581321</v>
+        <v>0.1703605243502922</v>
       </c>
       <c r="O91" t="n">
-        <v>3.319956518045097</v>
+        <v>3.236849962655552</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -5313,28 +5313,28 @@
         <v>0.4094864729853884</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1370893961709882</v>
       </c>
       <c r="I92" t="n">
-        <v>3.742234348706854</v>
+        <v>3.605144952535865</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>0.09596257731969175</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>0.04112681885129645</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>0.004798128865984589</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>0.09116444845370716</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1871117174353428</v>
+        <v>0.1823135885693583</v>
       </c>
       <c r="O92" t="n">
-        <v>3.555122631271514</v>
+        <v>3.463958182817807</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -5366,28 +5366,28 @@
         <v>0.4195047758352188</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.1524998166381014</v>
       </c>
       <c r="I93" t="n">
-        <v>4.015806466176251</v>
+        <v>3.863306649538149</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>0.106749871646671</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>0.04574994499143042</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>0.005337493582333551</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>0.1014123780643374</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2007903233088126</v>
+        <v>0.1954528297264791</v>
       </c>
       <c r="O93" t="n">
-        <v>3.815016142867439</v>
+        <v>3.7136037648031</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -5419,28 +5419,28 @@
         <v>0.4303617507492168</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.1723251610992703</v>
       </c>
       <c r="I94" t="n">
-        <v>4.317347098210043</v>
+        <v>4.145021937110776</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>0.1206276127694892</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>0.0516975483297811</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.006031380638474463</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>0.1145962321310148</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2158673549105019</v>
+        <v>0.2098359742720275</v>
       </c>
       <c r="O94" t="n">
-        <v>4.101479743299536</v>
+        <v>3.986883511168522</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -5472,28 +5472,28 @@
         <v>0.441964175827937</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>0.1978163986983907</v>
       </c>
       <c r="I95" t="n">
-        <v>4.648232726186144</v>
+        <v>4.450416327487757</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>0.1384714790888736</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>0.05934491960951725</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>0.00692357395444368</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>0.1315479051344299</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2324116363093077</v>
+        <v>0.2254880623548639</v>
       </c>
       <c r="O95" t="n">
-        <v>4.415821089876847</v>
+        <v>4.284273184742414</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5525,28 +5525,28 @@
         <v>0.4541557008605959</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.2302484572284473</v>
       </c>
       <c r="I96" t="n">
-        <v>5.009512769672384</v>
+        <v>4.77926431244394</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>0.1611739200599131</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>0.06907453716853421</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.008058696002995656</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>0.1531152240569175</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2504756384836194</v>
+        <v>0.2424169424806237</v>
       </c>
       <c r="O96" t="n">
-        <v>4.759037131188768</v>
+        <v>4.605921907131851</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5578,28 +5578,28 @@
         <v>0.3473071208556951</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.2773483974211842</v>
       </c>
       <c r="I97" t="n">
-        <v>5.521766866643913</v>
+        <v>5.244418469222724</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>0.1941438781948289</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>0.08320451922635529</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.00970719390974145</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>0.1844366842850875</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2760883433321953</v>
+        <v>0.2663811494224539</v>
       </c>
       <c r="O97" t="n">
-        <v>5.24567852331171</v>
+        <v>5.061241839026624</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5631,28 +5631,28 @@
         <v>0.3740283488089066</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.3268403015127088</v>
       </c>
       <c r="I98" t="n">
-        <v>5.933897376859512</v>
+        <v>5.607057075346804</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>0.2287882110588961</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>0.09805209045381263</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>0.01143941055294481</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>0.2173488005059513</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2966948688429756</v>
+        <v>0.2852554582900308</v>
       </c>
       <c r="O98" t="n">
-        <v>5.637202508016535</v>
+        <v>5.419853707510586</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5684,28 +5684,28 @@
         <v>0.4028049581860883</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.3858122957569509</v>
       </c>
       <c r="I99" t="n">
-        <v>6.379866477778341</v>
+        <v>5.994054182021385</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>0.2700686070298656</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>0.1157436887270852</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>0.01350343035149328</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>0.2565651766783723</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3189933238889163</v>
+        <v>0.3054898935374229</v>
       </c>
       <c r="O99" t="n">
-        <v>6.060873153889408</v>
+        <v>5.804307977211035</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5737,28 +5737,28 @@
         <v>0.433798564783296</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>0.4545278240957051</v>
       </c>
       <c r="I100" t="n">
-        <v>6.863022770631315</v>
+        <v>6.408494946535606</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>0.3181694768669936</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>0.1363583472287115</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>0.01590847384334968</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>0.3022610030236439</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3431511385315655</v>
+        <v>0.3272426646882156</v>
       </c>
       <c r="O100" t="n">
-        <v>6.519871632099743</v>
+        <v>6.217610629076096</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5790,28 +5790,28 @@
         <v>0.4672595303031036</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.5329962463415562</v>
       </c>
       <c r="I101" t="n">
-        <v>7.387515944441656</v>
+        <v>6.854519698100094</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.3730973724390893</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>0.1598988739024668</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>0.01865486862195446</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>0.3544425038171347</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3693757972220821</v>
+        <v>0.3507209286001274</v>
       </c>
       <c r="O101" t="n">
-        <v>7.018140147219561</v>
+        <v>6.663697643402423</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5843,28 +5843,28 @@
         <v>0.5035221825985924</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>0.6210632189450225</v>
       </c>
       <c r="I102" t="n">
-        <v>7.957919965372294</v>
+        <v>7.336856746427269</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>0.4347442532615157</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>0.1863189656835068</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>0.02173721266307579</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>0.41300704059844</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3978959982686142</v>
+        <v>0.3761587856055382</v>
       </c>
       <c r="O102" t="n">
-        <v>7.56002396710367</v>
+        <v>7.147016926505227</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -5878,7 +5878,7 @@
         <v>2001</v>
       </c>
       <c r="B103" t="n">
-        <v>21.52906479298958</v>
+        <v>21.52906479298959</v>
       </c>
       <c r="C103" t="n">
         <v>29.67893729575596</v>
@@ -5896,28 +5896,28 @@
         <v>0.5429887495686379</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>0.7185158291067386</v>
       </c>
       <c r="I103" t="n">
-        <v>8.578813160806696</v>
+        <v>7.860297331699955</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>0.5029610803747172</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>0.2155547487320216</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>0.02514805401873586</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>0.4778130263559813</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4289406580403357</v>
+        <v>0.4037926040215997</v>
       </c>
       <c r="O103" t="n">
-        <v>8.149872502766376</v>
+        <v>7.672059476410391</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -5949,28 +5949,28 @@
         <v>0.5861118204225867</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>0.8251865658535784</v>
       </c>
       <c r="I104" t="n">
-        <v>9.2545153695075</v>
+        <v>8.429328803653927</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>0.5776305960975044</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>0.2475559697560734</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>0.02888152980487523</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>0.5487490662926293</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4627257684753754</v>
+        <v>0.4338442386705001</v>
       </c>
       <c r="O104" t="n">
-        <v>8.79178960103213</v>
+        <v>8.243040534739503</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -5984,7 +5984,7 @@
         <v>2003</v>
       </c>
       <c r="B105" t="n">
-        <v>25.61682836721569</v>
+        <v>25.61682836721571</v>
       </c>
       <c r="C105" t="n">
         <v>35.10639525044857</v>
@@ -6002,28 +6002,28 @@
         <v>0.6333768915502709</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>0.9410341640843113</v>
       </c>
       <c r="I105" t="n">
-        <v>9.989017771824082</v>
+        <v>9.047983607739774</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>0.6587239148590174</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>0.2823102492252932</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>0.03293619574295088</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>0.6257877191160665</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4994508885912042</v>
+        <v>0.466514692848253</v>
       </c>
       <c r="O105" t="n">
-        <v>9.489566883232879</v>
+        <v>8.86377916411681</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -6055,28 +6055,28 @@
         <v>0.6852901068048161</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1.066196865923339</v>
       </c>
       <c r="I106" t="n">
-        <v>10.78612062948754</v>
+        <v>9.719923763564188</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>0.7463378061463369</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>0.3198590597770015</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>0.03731689030731686</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>0.7090209158390203</v>
       </c>
       <c r="N106" t="n">
-        <v>0.5393060314743758</v>
+        <v>0.5019891411670589</v>
       </c>
       <c r="O106" t="n">
-        <v>10.24681459801314</v>
+        <v>9.53779368217412</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -6108,28 +6108,28 @@
         <v>0.7423711775471842</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1.201021972706486</v>
       </c>
       <c r="I107" t="n">
-        <v>11.6497274321716</v>
+        <v>10.44870545946513</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>0.8407153808945398</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>0.3603065918119458</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>0.042035769044727</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>0.7986796118498132</v>
       </c>
       <c r="N107" t="n">
-        <v>0.58248637160858</v>
+        <v>0.540450602563853</v>
       </c>
       <c r="O107" t="n">
-        <v>11.06724106056302</v>
+        <v>10.26856144871321</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>2006</v>
       </c>
       <c r="B108" t="n">
-        <v>32.98087007413066</v>
+        <v>32.98087007413067</v>
       </c>
       <c r="C108" t="n">
         <v>44.93576872973179</v>
@@ -6161,28 +6161,28 @@
         <v>0.8051450735073482</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1.346064683057886</v>
       </c>
       <c r="I108" t="n">
-        <v>12.58410384800121</v>
+        <v>11.23803916494331</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>0.9422452781405208</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>0.403819404917366</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>0.04711226390702604</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>0.8951330142334947</v>
       </c>
       <c r="N108" t="n">
-        <v>0.6292051924000599</v>
+        <v>0.5820929284930334</v>
       </c>
       <c r="O108" t="n">
-        <v>11.95489865560114</v>
+        <v>11.05976564136763</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>2007</v>
       </c>
       <c r="B109" t="n">
-        <v>34.44486646795254</v>
+        <v>34.44486646795255</v>
       </c>
       <c r="C109" t="n">
         <v>47.35929930440431</v>
@@ -6214,28 +6214,28 @@
         <v>0.8741385354891777</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1.502080210431748</v>
       </c>
       <c r="I109" t="n">
-        <v>13.59413982784393</v>
+        <v>12.09205961741221</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1.051456147302223</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>0.4506240631295244</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>0.05257280736511117</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>0.9988833399371119</v>
       </c>
       <c r="N109" t="n">
-        <v>0.6797069913921986</v>
+        <v>0.627134184027087</v>
       </c>
       <c r="O109" t="n">
-        <v>12.91443283645177</v>
+        <v>11.91554949651465</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>2008</v>
       </c>
       <c r="B110" t="n">
-        <v>35.99779999661325</v>
+        <v>35.99779999661326</v>
       </c>
       <c r="C110" t="n">
         <v>49.97152138176251</v>
@@ -6267,28 +6267,28 @@
         <v>0.9261401489136417</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1.672834559733693</v>
       </c>
       <c r="I110" t="n">
-        <v>14.70918040542026</v>
+        <v>13.03634584568659</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>1.170984191813584</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>0.5018503679201075</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>0.05854920959067921</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1.112434982222905</v>
       </c>
       <c r="N110" t="n">
-        <v>0.7354590202710147</v>
+        <v>0.6769098106803352</v>
       </c>
       <c r="O110" t="n">
-        <v>13.97372138514927</v>
+        <v>12.86128640292636</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>2009</v>
       </c>
       <c r="B111" t="n">
-        <v>37.31318191314006</v>
+        <v>37.31318191314007</v>
       </c>
       <c r="C111" t="n">
         <v>52.41103899180159</v>
@@ -6320,28 +6320,28 @@
         <v>1.004770111523327</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1.854330021547832</v>
       </c>
       <c r="I111" t="n">
-        <v>15.89248113543316</v>
+        <v>14.03815111388533</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>1.298031015083482</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>0.5562990064643497</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>0.06490155075417411</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1.233129464329309</v>
       </c>
       <c r="N111" t="n">
-        <v>0.7946240567716598</v>
+        <v>0.7297225060174857</v>
       </c>
       <c r="O111" t="n">
-        <v>15.09785707866153</v>
+        <v>13.86472761433222</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>2010</v>
       </c>
       <c r="B112" t="n">
-        <v>38.53270291330153</v>
+        <v>38.53270291330154</v>
       </c>
       <c r="C112" t="n">
         <v>55.26574352741148</v>
@@ -6373,28 +6373,28 @@
         <v>0.6479917954345021</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2.101947885417857</v>
       </c>
       <c r="I112" t="n">
-        <v>17.61372696222103</v>
+        <v>15.51177907680317</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1.471363519792502</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>0.6305843656253578</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>0.07356817598962509</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1.397795343802876</v>
       </c>
       <c r="N112" t="n">
-        <v>0.8806863481110492</v>
+        <v>0.8071181721214243</v>
       </c>
       <c r="O112" t="n">
-        <v>16.73304061410994</v>
+        <v>15.33524527030706</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>2011</v>
       </c>
       <c r="B113" t="n">
-        <v>40.79939021894845</v>
+        <v>40.79939021894846</v>
       </c>
       <c r="C113" t="n">
         <v>58.87040531933942</v>
@@ -6426,28 +6426,28 @@
         <v>0.714981846688314</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2.31772477082815</v>
       </c>
       <c r="I113" t="n">
-        <v>19.02212115830625</v>
+        <v>16.70439638747812</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>1.622407339579706</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>0.6953174312484455</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>0.08112036697898529</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1.541286972600721</v>
       </c>
       <c r="N113" t="n">
-        <v>0.9511060579153147</v>
+        <v>0.8699856909363285</v>
       </c>
       <c r="O113" t="n">
-        <v>18.07101510039098</v>
+        <v>16.52972812779025</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6479,28 +6479,28 @@
         <v>0.7889390057814439</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2.550764993437445</v>
       </c>
       <c r="I114" t="n">
-        <v>20.5434189489364</v>
+        <v>17.99265395549892</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1.785535495406209</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>0.7652294980312322</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>0.08927677477031044</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1.696258720635899</v>
       </c>
       <c r="N114" t="n">
-        <v>1.027170947446817</v>
+        <v>0.9378941726765063</v>
       </c>
       <c r="O114" t="n">
-        <v>19.51624800148952</v>
+        <v>17.81998928085362</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>2013</v>
       </c>
       <c r="B115" t="n">
-        <v>45.55413567694197</v>
+        <v>45.55413567694195</v>
       </c>
       <c r="C115" t="n">
         <v>66.63099116507644</v>
@@ -6532,28 +6532,28 @@
         <v>0.870482427532682</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2.802541120871313</v>
       </c>
       <c r="I115" t="n">
-        <v>22.18616367172045</v>
+        <v>19.38362255084913</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>1.96177878460992</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>0.8407623362613943</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>0.09808893923049601</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>1.863689845379424</v>
       </c>
       <c r="N115" t="n">
-        <v>1.109308183586024</v>
+        <v>1.011219244355528</v>
       </c>
       <c r="O115" t="n">
-        <v>21.07685548813444</v>
+        <v>19.21316564275503</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>2014</v>
       </c>
       <c r="B116" t="n">
-        <v>48.55749619010847</v>
+        <v>48.55749619010848</v>
       </c>
       <c r="C116" t="n">
         <v>71.35622192922754</v>
@@ -6585,28 +6585,28 @@
         <v>0.9198485050420869</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>3.079777952781366</v>
       </c>
       <c r="I116" t="n">
-        <v>23.99865867275694</v>
+        <v>20.91888071997557</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>2.155844566946954</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>0.923933385834409</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>0.1077922283473477</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>2.048052338599606</v>
       </c>
       <c r="N116" t="n">
-        <v>1.199932933637846</v>
+        <v>1.092140705290499</v>
       </c>
       <c r="O116" t="n">
-        <v>22.79872573911908</v>
+        <v>20.75067340051947</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>2015</v>
       </c>
       <c r="B117" t="n">
-        <v>51.68981323588294</v>
+        <v>51.68981323588291</v>
       </c>
       <c r="C117" t="n">
         <v>76.30776642543557</v>
@@ -6638,28 +6638,28 @@
         <v>1.010910746808613</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>3.373996976501415</v>
       </c>
       <c r="I117" t="n">
-        <v>25.91363493637101</v>
+        <v>22.53963795986976</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>2.361797883550991</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1.012199092950425</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>0.1180898941775496</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>2.243707989373441</v>
       </c>
       <c r="N117" t="n">
-        <v>1.295681746818561</v>
+        <v>1.177591852641011</v>
       </c>
       <c r="O117" t="n">
-        <v>24.61795318955266</v>
+        <v>22.37424520017922</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>2016</v>
       </c>
       <c r="B118" t="n">
-        <v>54.9089298174447</v>
+        <v>54.90892981744472</v>
       </c>
       <c r="C118" t="n">
         <v>81.47867853446489</v>
@@ -6691,28 +6691,28 @@
         <v>1.109715474914016</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>3.690337783736823</v>
       </c>
       <c r="I118" t="n">
-        <v>27.96815654423178</v>
+        <v>24.27781876049494</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>2.583236448615778</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>1.107101335121048</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>0.1291618224307889</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>2.454074626184989</v>
       </c>
       <c r="N118" t="n">
-        <v>1.398407827211589</v>
+        <v>1.2692460047808</v>
       </c>
       <c r="O118" t="n">
-        <v>26.56974871702019</v>
+        <v>24.11567409083519</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -6744,28 +6744,28 @@
         <v>1.21615258312595</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>4.028864951069711</v>
       </c>
       <c r="I119" t="n">
-        <v>30.16074134597401</v>
+        <v>26.13187639490427</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>2.820205465748798</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1.208659485320914</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>0.14101027328744</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>2.679195192461358</v>
       </c>
       <c r="N119" t="n">
-        <v>1.508037067298698</v>
+        <v>1.367026794011258</v>
       </c>
       <c r="O119" t="n">
-        <v>28.65270427867525</v>
+        <v>25.9735090862139</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6797,28 +6797,28 @@
         <v>1.329804020453647</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>4.388946822404344</v>
       </c>
       <c r="I120" t="n">
-        <v>32.48502179302655</v>
+        <v>28.09607497062228</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>3.072262775683035</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>1.316684046721301</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>0.1536131387841518</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>2.918649636898884</v>
       </c>
       <c r="N120" t="n">
-        <v>1.624251089651335</v>
+        <v>1.470637950867183</v>
       </c>
       <c r="O120" t="n">
-        <v>30.86077070337537</v>
+        <v>27.94212106647648</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -6850,28 +6850,28 @@
         <v>1.449987207361574</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>4.769440059122014</v>
       </c>
       <c r="I121" t="n">
-        <v>34.93108565325411</v>
+        <v>30.16164559413206</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>3.33860804138541</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>1.430832017736604</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>0.1669304020692704</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>3.171677639316139</v>
       </c>
       <c r="N121" t="n">
-        <v>1.746554282662703</v>
+        <v>1.579623880593432</v>
       </c>
       <c r="O121" t="n">
-        <v>33.18453137059134</v>
+        <v>30.01285373127521</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>2020</v>
       </c>
       <c r="B122" t="n">
-        <v>76.24035465322308</v>
+        <v>76.24035465322309</v>
       </c>
       <c r="C122" t="n">
         <v>111.8543888051666</v>
@@ -6903,28 +6903,28 @@
         <v>1.575895745944168</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>5.173235904039406</v>
       </c>
       <c r="I122" t="n">
-        <v>37.4884570020459</v>
+        <v>32.31522109800648</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>3.621265132827584</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>1.551970771211822</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>0.1810632566413792</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>3.440201876186205</v>
       </c>
       <c r="N122" t="n">
-        <v>1.874422850102293</v>
+        <v>1.693359593460912</v>
       </c>
       <c r="O122" t="n">
-        <v>35.61403415194357</v>
+        <v>32.17383227575733</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>2021</v>
       </c>
       <c r="B123" t="n">
-        <v>80.24034840796246</v>
+        <v>80.24034840796251</v>
       </c>
       <c r="C123" t="n">
         <v>118.3830109382156</v>
@@ -6956,34 +6956,34 @@
         <v>1.706812493756311</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>5.593596602198444</v>
       </c>
       <c r="I123" t="n">
-        <v>40.15017108447688</v>
+        <v>34.55657448227843</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>3.915517621538914</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>1.678078980659534</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>0.1957758810769457</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>3.719741740461968</v>
       </c>
       <c r="N123" t="n">
-        <v>2.007508554223851</v>
+        <v>1.811732673146903</v>
       </c>
       <c r="O123" t="n">
-        <v>37.88837811338482</v>
+        <v>34.19343465119255</v>
       </c>
       <c r="P123" t="n">
-        <v>0.2542844168683545</v>
+        <v>0.2294861385986078</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.2542844168683545</v>
+        <v>0.2294861385986078</v>
       </c>
     </row>
     <row r="124">
@@ -6991,7 +6991,7 @@
         <v>2022</v>
       </c>
       <c r="B124" t="n">
-        <v>84.26257763696478</v>
+        <v>84.26257763696479</v>
       </c>
       <c r="C124" t="n">
         <v>125.033979026341</v>
@@ -7009,34 +7009,34 @@
         <v>1.842367426322195</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>6.034001874694433</v>
       </c>
       <c r="I124" t="n">
-        <v>42.91726462039608</v>
+        <v>36.88326274570169</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>4.223801312286104</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>1.81020056240833</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>0.2111900656143052</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>4.012611246671798</v>
       </c>
       <c r="N124" t="n">
-        <v>2.1458632310198</v>
+        <v>1.934673165405494</v>
       </c>
       <c r="O124" t="n">
-        <v>40.22778270418451</v>
+        <v>36.26867294080166</v>
       </c>
       <c r="P124" t="n">
-        <v>0.5436186851916825</v>
+        <v>0.4901172019027252</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.5436186851916825</v>
+        <v>0.4901172019027252</v>
       </c>
     </row>
     <row r="125">
@@ -7044,7 +7044,7 @@
         <v>2023</v>
       </c>
       <c r="B125" t="n">
-        <v>88.35896729439666</v>
+        <v>88.35896729439672</v>
       </c>
       <c r="C125" t="n">
         <v>131.8712312041254</v>
@@ -7062,34 +7062,34 @@
         <v>1.982765377958593</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>6.49716758053727</v>
       </c>
       <c r="I125" t="n">
-        <v>45.80238306287206</v>
+        <v>39.30521548233491</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>4.548017306376085</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1.94915027416118</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>0.2274008653188043</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>4.320616441057281</v>
       </c>
       <c r="N125" t="n">
-        <v>2.290119153143615</v>
+        <v>2.062718287824809</v>
       </c>
       <c r="O125" t="n">
-        <v>42.64201863153411</v>
+        <v>38.40781451929794</v>
       </c>
       <c r="P125" t="n">
-        <v>0.8702452781945738</v>
+        <v>0.7838329493734274</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.8702452781945738</v>
+        <v>0.7838329493734274</v>
       </c>
     </row>
     <row r="126">
@@ -7115,34 +7115,34 @@
         <v>2.128921802461761</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>6.988099810554784</v>
       </c>
       <c r="I126" t="n">
-        <v>48.83154511059495</v>
+        <v>41.84344530004014</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>4.89166986738835</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>2.096429943166435</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>0.2445834933694175</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>4.647086374018932</v>
       </c>
       <c r="N126" t="n">
-        <v>2.441577255529737</v>
+        <v>2.196993762160319</v>
       </c>
       <c r="O126" t="n">
-        <v>45.1529020455966</v>
+        <v>40.62973797488483</v>
       </c>
       <c r="P126" t="n">
-        <v>1.2370658094684</v>
+        <v>1.113143506161228</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.2370658094684</v>
+        <v>1.113143506161228</v>
       </c>
     </row>
     <row r="127">
@@ -7150,13 +7150,13 @@
         <v>2025</v>
       </c>
       <c r="B127" t="n">
-        <v>96.80381155082489</v>
+        <v>96.79842035469085</v>
       </c>
       <c r="C127" t="n">
         <v>146.2396730367932</v>
       </c>
       <c r="D127" t="n">
-        <v>0.005391196134028911</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>146.2396730367933</v>
@@ -7168,34 +7168,34 @@
         <v>2.282461785754994</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>7.514162882752021</v>
       </c>
       <c r="I127" t="n">
-        <v>52.04342387589727</v>
+        <v>44.52926099314534</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>5.259914017926413</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>2.254248864825605</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>0.2629957008963207</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>4.996918317030091</v>
       </c>
       <c r="N127" t="n">
-        <v>2.602171193794865</v>
+        <v>2.339175492898545</v>
       </c>
       <c r="O127" t="n">
-        <v>47.79321092603235</v>
+        <v>42.96285655290327</v>
       </c>
       <c r="P127" t="n">
-        <v>1.648041756070081</v>
+        <v>1.481477812169078</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.648041756070081</v>
+        <v>1.481477812169078</v>
       </c>
     </row>
     <row r="128">
@@ -7203,13 +7203,13 @@
         <v>2026</v>
       </c>
       <c r="B128" t="n">
-        <v>101.4533549662503</v>
+        <v>101.0038726117915</v>
       </c>
       <c r="C128" t="n">
         <v>153.7155852298232</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4494823544587734</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>153.7155852298232</v>
@@ -7221,34 +7221,34 @@
         <v>2.445573497932465</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>8.084793159184132</v>
       </c>
       <c r="I128" t="n">
-        <v>55.48601328213876</v>
+        <v>47.40122012295468</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>5.659355211428895</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>2.425437947755241</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>0.2829677605714448</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>5.376387450857451</v>
       </c>
       <c r="N128" t="n">
-        <v>2.774300664106933</v>
+        <v>2.491332903535488</v>
       </c>
       <c r="O128" t="n">
-        <v>50.60324411331045</v>
+        <v>45.44191216048731</v>
       </c>
       <c r="P128" t="n">
-        <v>2.108468504721269</v>
+        <v>1.893413006686971</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.108468504721269</v>
+        <v>1.893413006686971</v>
       </c>
     </row>
     <row r="129">
@@ -7256,13 +7256,13 @@
         <v>2027</v>
       </c>
       <c r="B129" t="n">
-        <v>106.3655002823904</v>
+        <v>105.3093856722118</v>
       </c>
       <c r="C129" t="n">
         <v>161.2451655146982</v>
       </c>
       <c r="D129" t="n">
-        <v>1.370716976169613</v>
+        <v>0.3146023659910416</v>
       </c>
       <c r="E129" t="n">
         <v>161.2451655146982</v>
@@ -7274,34 +7274,34 @@
         <v>2.620736540033069</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>8.710820085476046</v>
       </c>
       <c r="I129" t="n">
-        <v>59.21092864050289</v>
+        <v>50.50010855502678</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>6.097574059833236</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>2.613246025642816</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>0.3048787029916618</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>5.792695356841573</v>
       </c>
       <c r="N129" t="n">
-        <v>2.960546432025131</v>
+        <v>2.65566772903347</v>
       </c>
       <c r="O129" t="n">
-        <v>53.62536437208186</v>
+        <v>48.10299479855958</v>
       </c>
       <c r="P129" t="n">
-        <v>2.625017836395616</v>
+        <v>2.354692053076343</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.625017836395616</v>
+        <v>2.354692053076343</v>
       </c>
     </row>
     <row r="130">
@@ -7309,13 +7309,13 @@
         <v>2028</v>
       </c>
       <c r="B130" t="n">
-        <v>111.5265237653745</v>
+        <v>109.9100269519866</v>
       </c>
       <c r="C130" t="n">
         <v>168.8124474416805</v>
       </c>
       <c r="D130" t="n">
-        <v>2.816877081922565</v>
+        <v>1.200380268534631</v>
       </c>
       <c r="E130" t="n">
         <v>168.8124474416805</v>
@@ -7327,34 +7327,34 @@
         <v>2.810371331148954</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>9.403459384183696</v>
       </c>
       <c r="I130" t="n">
-        <v>63.26610606129324</v>
+        <v>53.8626466771095</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>6.582421568928592</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>2.821037815255112</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>0.3291210784464296</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>6.253300490482164</v>
       </c>
       <c r="N130" t="n">
-        <v>3.163305303064662</v>
+        <v>2.834184224618232</v>
       </c>
       <c r="O130" t="n">
-        <v>56.89731805112304</v>
+        <v>50.97752692013326</v>
       </c>
       <c r="P130" t="n">
-        <v>3.205482707105523</v>
+        <v>2.871973347613141</v>
       </c>
       <c r="Q130" t="n">
-        <v>3.205482707105523</v>
+        <v>2.871973347613141</v>
       </c>
     </row>
     <row r="131">
@@ -7362,13 +7362,13 @@
         <v>2029</v>
       </c>
       <c r="B131" t="n">
-        <v>116.7458564565552</v>
+        <v>114.8127934671061</v>
       </c>
       <c r="C131" t="n">
         <v>176.4265596965934</v>
       </c>
       <c r="D131" t="n">
-        <v>4.622941288551674</v>
+        <v>2.689878299102581</v>
       </c>
       <c r="E131" t="n">
         <v>176.4265596965934</v>
@@ -7380,34 +7380,34 @@
         <v>3.016466956340614</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>10.17306606247657</v>
       </c>
       <c r="I131" t="n">
-        <v>67.68804687220003</v>
+        <v>57.51498080972349</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>7.121146243733603</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>3.051919818742972</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>0.3560573121866801</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>6.765088931546923</v>
       </c>
       <c r="N131" t="n">
-        <v>3.384402343609999</v>
+        <v>3.028345031423319</v>
       </c>
       <c r="O131" t="n">
-        <v>60.44542585687456</v>
+        <v>54.08624226122048</v>
       </c>
       <c r="P131" t="n">
-        <v>3.858218671715398</v>
+        <v>3.452313335822583</v>
       </c>
       <c r="Q131" t="n">
-        <v>3.858218671715398</v>
+        <v>3.452313335822583</v>
       </c>
     </row>
     <row r="132">
@@ -7415,13 +7415,13 @@
         <v>2030</v>
       </c>
       <c r="B132" t="n">
-        <v>121.7613976801551</v>
+        <v>119.6646333953857</v>
       </c>
       <c r="C132" t="n">
         <v>183.989813320455</v>
       </c>
       <c r="D132" t="n">
-        <v>6.641982856292548</v>
+        <v>4.545218571523107</v>
       </c>
       <c r="E132" t="n">
         <v>183.9898133204551</v>
@@ -7433,34 +7433,34 @@
         <v>3.240251160078616</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>11.0278414029541</v>
       </c>
       <c r="I132" t="n">
-        <v>72.49515631220278</v>
+        <v>61.46731490924865</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>7.719488982067879</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>3.308352420886233</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>0.385974449103394</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>7.333514532964484</v>
       </c>
       <c r="N132" t="n">
-        <v>3.624757815610125</v>
+        <v>3.238783366506734</v>
       </c>
       <c r="O132" t="n">
-        <v>64.27903859681957</v>
+        <v>57.43442503271941</v>
       </c>
       <c r="P132" t="n">
-        <v>4.591359899772828</v>
+        <v>4.10245893090853</v>
       </c>
       <c r="Q132" t="n">
-        <v>4.591359899772828</v>
+        <v>4.10245893090853</v>
       </c>
     </row>
     <row r="133">
@@ -7468,13 +7468,13 @@
         <v>2031</v>
       </c>
       <c r="B133" t="n">
-        <v>124.5961528840084</v>
+        <v>122.0495454247645</v>
       </c>
       <c r="C133" t="n">
         <v>189.1074544842005</v>
       </c>
       <c r="D133" t="n">
-        <v>9.288257691550035</v>
+        <v>6.741650232306065</v>
       </c>
       <c r="E133" t="n">
         <v>189.1074544842005</v>
@@ -7486,34 +7486,34 @@
         <v>3.481962705166648</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>11.9727483180986</v>
       </c>
       <c r="I133" t="n">
-        <v>77.68374662288633</v>
+        <v>65.71099830478785</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>8.380923822669015</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>3.591824495429578</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>0.4190461911334508</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>7.961877631535565</v>
       </c>
       <c r="N133" t="n">
-        <v>3.884187331144318</v>
+        <v>3.465141140010869</v>
       </c>
       <c r="O133" t="n">
-        <v>68.38759161034763</v>
+        <v>61.00958500512468</v>
       </c>
       <c r="P133" t="n">
-        <v>5.411967681394417</v>
+        <v>4.828096655081809</v>
       </c>
       <c r="Q133" t="n">
-        <v>5.411967681394417</v>
+        <v>4.828096655081809</v>
       </c>
     </row>
     <row r="134">
@@ -7521,13 +7521,13 @@
         <v>2032</v>
       </c>
       <c r="B134" t="n">
-        <v>127.7679244914054</v>
+        <v>124.5875289084015</v>
       </c>
       <c r="C134" t="n">
         <v>194.0974522539099</v>
       </c>
       <c r="D134" t="n">
-        <v>12.73989458863758</v>
+        <v>9.559499005633699</v>
       </c>
       <c r="E134" t="n">
         <v>194.0974522539098</v>
@@ -7539,34 +7539,34 @@
         <v>3.74090793311641</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>13.00952172493289</v>
       </c>
       <c r="I134" t="n">
-        <v>83.23097089593917</v>
+        <v>70.22144917100621</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>9.106665207453029</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>3.902856517479869</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>0.4553332603726513</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>8.651331947080376</v>
       </c>
       <c r="N134" t="n">
-        <v>4.16154854479695</v>
+        <v>3.706215284424301</v>
       </c>
       <c r="O134" t="n">
-        <v>72.7438685630507</v>
+        <v>64.78464317173678</v>
       </c>
       <c r="P134" t="n">
-        <v>6.325553788091366</v>
+        <v>5.633447232324937</v>
       </c>
       <c r="Q134" t="n">
-        <v>6.325553788091366</v>
+        <v>5.633447232324937</v>
       </c>
     </row>
     <row r="135">
@@ -7574,13 +7574,13 @@
         <v>2033</v>
       </c>
       <c r="B135" t="n">
-        <v>130.7667922638132</v>
+        <v>127.2715588320981</v>
       </c>
       <c r="C135" t="n">
         <v>198.9162401116627</v>
       </c>
       <c r="D135" t="n">
-        <v>16.4960104990999</v>
+        <v>13.00077706738478</v>
       </c>
       <c r="E135" t="n">
         <v>198.9162401116627</v>
@@ -7592,34 +7592,34 @@
         <v>4.015611661938696</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>14.13707036719994</v>
       </c>
       <c r="I135" t="n">
-        <v>89.10048247047314</v>
+        <v>74.96341210327314</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>9.895949257039952</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>4.241121110159979</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>0.4947974628519975</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>9.401151794187953</v>
       </c>
       <c r="N135" t="n">
-        <v>4.455024123523654</v>
+        <v>3.960226660671656</v>
       </c>
       <c r="O135" t="n">
-        <v>77.30951862354712</v>
+        <v>68.72313331818879</v>
       </c>
       <c r="P135" t="n">
-        <v>7.335939723402281</v>
+        <v>6.521173234572658</v>
       </c>
       <c r="Q135" t="n">
-        <v>7.335939723402281</v>
+        <v>6.521173234572658</v>
       </c>
     </row>
     <row r="136">
@@ -7627,13 +7627,13 @@
         <v>2034</v>
       </c>
       <c r="B136" t="n">
-        <v>133.5966402400276</v>
+        <v>129.7518236977429</v>
       </c>
       <c r="C136" t="n">
         <v>203.5770253542709</v>
       </c>
       <c r="D136" t="n">
-        <v>20.51659863267507</v>
+        <v>16.67178209039043</v>
       </c>
       <c r="E136" t="n">
         <v>203.5770253542709</v>
@@ -7645,34 +7645,34 @@
         <v>4.304473996023441</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>15.35427513642435</v>
       </c>
       <c r="I136" t="n">
-        <v>95.25998289149315</v>
+        <v>79.90570775506865</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>10.74799259549704</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>4.606282540927304</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>0.5373996297748521</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>10.21059296572219</v>
       </c>
       <c r="N136" t="n">
-        <v>4.76299914457465</v>
+        <v>4.225599514799798</v>
       </c>
       <c r="O136" t="n">
-        <v>82.05059859720598</v>
+        <v>72.79299430828452</v>
       </c>
       <c r="P136" t="n">
-        <v>8.446385149712379</v>
+        <v>7.493396472911642</v>
       </c>
       <c r="Q136" t="n">
-        <v>8.446385149712379</v>
+        <v>7.493396472911642</v>
       </c>
     </row>
     <row r="137">
@@ -7680,13 +7680,13 @@
         <v>2035</v>
       </c>
       <c r="B137" t="n">
-        <v>136.2983910582808</v>
+        <v>132.0676054375508</v>
       </c>
       <c r="C137" t="n">
         <v>208.1488232342726</v>
       </c>
       <c r="D137" t="n">
-        <v>24.77119441863739</v>
+        <v>20.54040879790736</v>
       </c>
       <c r="E137" t="n">
         <v>208.1488232342726</v>
@@ -7698,34 +7698,34 @@
         <v>4.60675474578855</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>16.66465161585926</v>
       </c>
       <c r="I137" t="n">
-        <v>101.7069753627672</v>
+        <v>85.04232374690801</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>11.66525613110148</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>4.99939548475778</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>0.5832628065550742</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>11.08199332454641</v>
       </c>
       <c r="N137" t="n">
-        <v>5.085348768138372</v>
+        <v>4.502085961583298</v>
       </c>
       <c r="O137" t="n">
-        <v>86.95946393516617</v>
+        <v>76.9856699430744</v>
       </c>
       <c r="P137" t="n">
-        <v>9.662162659462908</v>
+        <v>8.553963327008265</v>
       </c>
       <c r="Q137" t="n">
-        <v>9.662162659462908</v>
+        <v>8.553963327008265</v>
       </c>
     </row>
     <row r="138">
@@ -7733,13 +7733,13 @@
         <v>2036</v>
       </c>
       <c r="B138" t="n">
-        <v>138.8973077241067</v>
+        <v>134.2395719690208</v>
       </c>
       <c r="C138" t="n">
         <v>212.6745799222512</v>
       </c>
       <c r="D138" t="n">
-        <v>29.30110254942676</v>
+        <v>24.64336679434086</v>
       </c>
       <c r="E138" t="n">
         <v>212.6745799222513</v>
@@ -7751,34 +7751,34 @@
         <v>4.923938628831444</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>18.08312053449354</v>
       </c>
       <c r="I138" t="n">
-        <v>108.5035523658646</v>
+        <v>90.42043183137119</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>12.65818437414547</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>5.424936160348059</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>0.6329092187072736</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>12.0252751554382</v>
       </c>
       <c r="N138" t="n">
-        <v>5.425177618293228</v>
+        <v>4.792268399585952</v>
       </c>
       <c r="O138" t="n">
-        <v>92.08334810783039</v>
+        <v>81.34076896897223</v>
       </c>
       <c r="P138" t="n">
-        <v>10.99502663974094</v>
+        <v>9.712330623160861</v>
       </c>
       <c r="Q138" t="n">
-        <v>10.99502663974094</v>
+        <v>9.712330623160861</v>
       </c>
     </row>
     <row r="139">
@@ -7786,13 +7786,13 @@
         <v>2037</v>
       </c>
       <c r="B139" t="n">
-        <v>141.6119011341136</v>
+        <v>136.4765584310039</v>
       </c>
       <c r="C139" t="n">
         <v>217.5051618867421</v>
       </c>
       <c r="D139" t="n">
-        <v>34.12762626897324</v>
+        <v>28.99228356586357</v>
       </c>
       <c r="E139" t="n">
         <v>217.5051618867421</v>
@@ -7804,34 +7804,34 @@
         <v>5.261209429216033</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>19.64307841988361</v>
       </c>
       <c r="I139" t="n">
-        <v>115.8114600227387</v>
+        <v>96.16838160285492</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>13.75015489391853</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>5.892923525965083</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>0.6875077446959266</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>13.0626471492226</v>
       </c>
       <c r="N139" t="n">
-        <v>5.790573001136935</v>
+        <v>5.103065256441011</v>
       </c>
       <c r="O139" t="n">
-        <v>97.55185315915359</v>
+        <v>85.96963935350955</v>
       </c>
       <c r="P139" t="n">
-        <v>12.4690338624482</v>
+        <v>10.98860051886964</v>
       </c>
       <c r="Q139" t="n">
-        <v>12.4690338624482</v>
+        <v>10.98860051886964</v>
       </c>
     </row>
     <row r="140">
@@ -7839,13 +7839,13 @@
         <v>2038</v>
       </c>
       <c r="B140" t="n">
-        <v>144.6604879450198</v>
+        <v>138.9813525319487</v>
       </c>
       <c r="C140" t="n">
         <v>222.9956159829009</v>
       </c>
       <c r="D140" t="n">
-        <v>39.37579879175666</v>
+        <v>33.69666337868557</v>
       </c>
       <c r="E140" t="n">
         <v>222.9956159829009</v>
@@ -7857,34 +7857,34 @@
         <v>5.628385615571461</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>21.39933098784725</v>
       </c>
       <c r="I140" t="n">
-        <v>123.9062387680401</v>
+        <v>102.5069077801927</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>14.97953169149307</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>6.419799296354176</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>0.7489765845746539</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>14.23055510691842</v>
       </c>
       <c r="N140" t="n">
-        <v>6.195311938401989</v>
+        <v>5.446335353827333</v>
       </c>
       <c r="O140" t="n">
-        <v>103.5856156100812</v>
+        <v>91.06272711599301</v>
       </c>
       <c r="P140" t="n">
-        <v>14.12531121955654</v>
+        <v>12.41764460672632</v>
       </c>
       <c r="Q140" t="n">
-        <v>14.12531121955654</v>
+        <v>12.41764460672632</v>
       </c>
     </row>
     <row r="141">
@@ -7892,13 +7892,13 @@
         <v>2039</v>
       </c>
       <c r="B141" t="n">
-        <v>148.3129800222902</v>
+        <v>142.005115227178</v>
       </c>
       <c r="C141" t="n">
         <v>229.5874655591185</v>
       </c>
       <c r="D141" t="n">
-        <v>45.20717427702904</v>
+        <v>38.89930948191665</v>
       </c>
       <c r="E141" t="n">
         <v>229.5874655591184</v>
@@ -7910,34 +7910,34 @@
         <v>6.039274154485429</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>23.42028319907573</v>
       </c>
       <c r="I141" t="n">
-        <v>133.1385892777446</v>
+        <v>109.7183060786686</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>16.39419823935301</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>7.026084959722718</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>0.8197099119676505</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>15.57448832738536</v>
       </c>
       <c r="N141" t="n">
-        <v>6.656929463887224</v>
+        <v>5.837219551919565</v>
       </c>
       <c r="O141" t="n">
-        <v>110.4606495707687</v>
+        <v>96.85892976485201</v>
       </c>
       <c r="P141" t="n">
-        <v>16.02101024308859</v>
+        <v>14.04824172161976</v>
       </c>
       <c r="Q141" t="n">
-        <v>16.02101024308859</v>
+        <v>14.04824172161976</v>
       </c>
     </row>
     <row r="142">
@@ -7945,13 +7945,13 @@
         <v>2040</v>
       </c>
       <c r="B142" t="n">
-        <v>152.8073119417711</v>
+        <v>145.7712523662865</v>
       </c>
       <c r="C142" t="n">
         <v>237.6759659616862</v>
       </c>
       <c r="D142" t="n">
-        <v>51.75841195949734</v>
+        <v>44.72235238401266</v>
       </c>
       <c r="E142" t="n">
         <v>237.6759659616862</v>
@@ -7963,34 +7963,34 @@
         <v>6.508393953569184</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>25.76430936001736</v>
       </c>
       <c r="I142" t="n">
-        <v>143.8179641888547</v>
+        <v>118.0536548288378</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>18.03501655201215</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>7.729292808005206</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>0.9017508276006073</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>17.13326572441154</v>
       </c>
       <c r="N142" t="n">
-        <v>7.190898209442762</v>
+        <v>6.289147381842151</v>
       </c>
       <c r="O142" t="n">
-        <v>118.4101238488242</v>
+        <v>103.5612935543341</v>
       </c>
       <c r="P142" t="n">
-        <v>18.21694213058833</v>
+        <v>15.93250670066678</v>
       </c>
       <c r="Q142" t="n">
-        <v>18.21694213058833</v>
+        <v>15.93250670066678</v>
       </c>
     </row>
     <row r="143">
@@ -7998,13 +7998,13 @@
         <v>2041</v>
       </c>
       <c r="B143" t="n">
-        <v>158.9531186193433</v>
+        <v>151.090211197111</v>
       </c>
       <c r="C143" t="n">
         <v>248.1349053122017</v>
       </c>
       <c r="D143" t="n">
-        <v>59.0469616909393</v>
+        <v>51.18405426870699</v>
       </c>
       <c r="E143" t="n">
         <v>248.1349053122016</v>
@@ -8016,34 +8016,34 @@
         <v>7.044855179310461</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>28.44295273988029</v>
       </c>
       <c r="I143" t="n">
-        <v>156.0302614566288</v>
+        <v>127.5873087167484</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>19.9100669179162</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>8.532885821964088</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>0.9955033458958101</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>18.9145635720204</v>
       </c>
       <c r="N143" t="n">
-        <v>7.801513072831456</v>
+        <v>6.806009726935643</v>
       </c>
       <c r="O143" t="n">
-        <v>127.476723610066</v>
+        <v>111.2101989381284</v>
       </c>
       <c r="P143" t="n">
-        <v>20.75202477373167</v>
+        <v>18.10398587364881</v>
       </c>
       <c r="Q143" t="n">
-        <v>20.75202477373167</v>
+        <v>18.10398587364881</v>
       </c>
     </row>
     <row r="144">
@@ -8051,13 +8051,13 @@
         <v>2042</v>
       </c>
       <c r="B144" t="n">
-        <v>165.91051635602</v>
+        <v>157.147644292213</v>
       </c>
       <c r="C144" t="n">
         <v>260.0319119243792</v>
       </c>
       <c r="D144" t="n">
-        <v>66.87412781421739</v>
+        <v>58.11125575041037</v>
       </c>
       <c r="E144" t="n">
         <v>260.0319119243791</v>
@@ -8069,34 +8069,34 @@
         <v>7.64531250079699</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>31.38752851215964</v>
       </c>
       <c r="I144" t="n">
-        <v>169.4689719816592</v>
+        <v>138.0814434694997</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>21.97126995851176</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>9.416258553647896</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1.098563497925588</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>20.87270646058616</v>
       </c>
       <c r="N144" t="n">
-        <v>8.47344859908298</v>
+        <v>7.374885101157392</v>
       </c>
       <c r="O144" t="n">
-        <v>137.3828466197987</v>
+        <v>119.5714704400985</v>
       </c>
       <c r="P144" t="n">
-        <v>23.6126767627779</v>
+        <v>20.55134648189193</v>
       </c>
       <c r="Q144" t="n">
-        <v>23.6126767627779</v>
+        <v>20.55134648189193</v>
       </c>
     </row>
     <row r="145">
@@ -8104,13 +8104,13 @@
         <v>2043</v>
       </c>
       <c r="B145" t="n">
-        <v>173.2115299027648</v>
+        <v>163.5268279718294</v>
       </c>
       <c r="C145" t="n">
         <v>272.608733423946</v>
       </c>
       <c r="D145" t="n">
-        <v>74.81910041967369</v>
+        <v>65.13439848873831</v>
       </c>
       <c r="E145" t="n">
         <v>272.608733423946</v>
@@ -8122,34 +8122,34 @@
         <v>8.28903914630521</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>34.44095913985565</v>
       </c>
       <c r="I145" t="n">
-        <v>183.3855830956362</v>
+        <v>148.9446239557809</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>24.10867139789895</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>10.33228774195669</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1.205433569894947</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>22.90323782800399</v>
       </c>
       <c r="N145" t="n">
-        <v>9.169279154781835</v>
+        <v>7.963845584886885</v>
       </c>
       <c r="O145" t="n">
-        <v>147.5031373365905</v>
+        <v>128.1117293088804</v>
       </c>
       <c r="P145" t="n">
-        <v>26.71316660426441</v>
+        <v>23.20133680397046</v>
       </c>
       <c r="Q145" t="n">
-        <v>26.71316660426441</v>
+        <v>23.20133680397046</v>
       </c>
     </row>
     <row r="146">
@@ -8157,13 +8157,13 @@
         <v>2044</v>
       </c>
       <c r="B146" t="n">
-        <v>180.2004367315896</v>
+        <v>169.6340914070369</v>
       </c>
       <c r="C146" t="n">
         <v>284.7963107611207</v>
       </c>
       <c r="D146" t="n">
-        <v>82.35222438106597</v>
+        <v>71.78587905651312</v>
       </c>
       <c r="E146" t="n">
         <v>284.7963107611207</v>
@@ -8175,34 +8175,34 @@
         <v>8.940566419565251</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>37.401052637886</v>
       </c>
       <c r="I146" t="n">
-        <v>196.787472011155</v>
+        <v>159.386419373269</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>26.18073684652023</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>11.22031579136581</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1.309036842326011</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>24.87170000419422</v>
       </c>
       <c r="N146" t="n">
-        <v>9.839373600557741</v>
+        <v>8.530336758231723</v>
       </c>
       <c r="O146" t="n">
-        <v>157.0364026649015</v>
+        <v>136.1441746613783</v>
       </c>
       <c r="P146" t="n">
-        <v>29.91169574569552</v>
+        <v>25.93222374502443</v>
       </c>
       <c r="Q146" t="n">
-        <v>29.91169574569552</v>
+        <v>25.93222374502443</v>
       </c>
     </row>
     <row r="147">
@@ -8210,13 +8210,13 @@
         <v>2045</v>
       </c>
       <c r="B147" t="n">
-        <v>186.3399378123927</v>
+        <v>174.9745882349745</v>
       </c>
       <c r="C147" t="n">
         <v>295.7122062965233</v>
       </c>
       <c r="D147" t="n">
-        <v>89.07766770491965</v>
+        <v>77.71231812750138</v>
       </c>
       <c r="E147" t="n">
         <v>295.7122062965233</v>
@@ -8228,34 +8228,34 @@
         <v>9.562403161816164</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>40.11710016576078</v>
       </c>
       <c r="I147" t="n">
-        <v>208.8946696726843</v>
+        <v>168.7775695069238</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>28.08197011603254</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>12.03513004972823</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1.404098505801627</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>26.67787161023091</v>
       </c>
       <c r="N147" t="n">
-        <v>10.44473348363422</v>
+        <v>9.040634977832593</v>
       </c>
       <c r="O147" t="n">
-        <v>165.3749468242085</v>
+        <v>143.1433871490161</v>
       </c>
       <c r="P147" t="n">
-        <v>33.07498936484168</v>
+        <v>28.6286774298032</v>
       </c>
       <c r="Q147" t="n">
-        <v>33.07498936484168</v>
+        <v>28.6286774298032</v>
       </c>
     </row>
     <row r="148">
@@ -8263,13 +8263,13 @@
         <v>2046</v>
       </c>
       <c r="B148" t="n">
-        <v>191.6068672685933</v>
+        <v>179.5122161706476</v>
       </c>
       <c r="C148" t="n">
         <v>305.3112982838852</v>
       </c>
       <c r="D148" t="n">
-        <v>95.02737942849539</v>
+        <v>82.93272833054978</v>
       </c>
       <c r="E148" t="n">
         <v>305.3112982838852</v>
@@ -8281,34 +8281,34 @@
         <v>10.13614105427204</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>42.61021111926681</v>
       </c>
       <c r="I148" t="n">
-        <v>219.7176952039863</v>
+        <v>177.1074840847195</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>29.82714778348678</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>12.78306333578005</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1.491357389174339</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>28.33579039431244</v>
       </c>
       <c r="N148" t="n">
-        <v>10.98588476019933</v>
+        <v>9.49452737102499</v>
       </c>
       <c r="O148" t="n">
-        <v>172.5516299668642</v>
+        <v>149.1273765742326</v>
       </c>
       <c r="P148" t="n">
-        <v>36.18018047692311</v>
+        <v>31.26864347524229</v>
       </c>
       <c r="Q148" t="n">
-        <v>36.18018047692311</v>
+        <v>31.26864347524229</v>
       </c>
     </row>
     <row r="149">
@@ -8316,13 +8316,13 @@
         <v>2047</v>
       </c>
       <c r="B149" t="n">
-        <v>196.74939931541</v>
+        <v>183.9087096233729</v>
       </c>
       <c r="C149" t="n">
         <v>314.8176492837634</v>
       </c>
       <c r="D149" t="n">
-        <v>100.8243336924301</v>
+        <v>87.98364400039294</v>
       </c>
       <c r="E149" t="n">
         <v>314.8176492837634</v>
@@ -8334,34 +8334,34 @@
         <v>10.68254453975854</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>45.14379972480448</v>
       </c>
       <c r="I149" t="n">
-        <v>230.4132459587196</v>
+        <v>185.2694462339149</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>31.6006598073631</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>13.54313991744133</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1.580032990368156</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>30.02062681699496</v>
       </c>
       <c r="N149" t="n">
-        <v>11.52066229793598</v>
+        <v>9.940629307567818</v>
       </c>
       <c r="O149" t="n">
-        <v>179.4919186018425</v>
+        <v>154.8750046119066</v>
       </c>
       <c r="P149" t="n">
-        <v>39.40066505894102</v>
+        <v>33.99695223188192</v>
       </c>
       <c r="Q149" t="n">
-        <v>39.40066505894102</v>
+        <v>33.99695223188192</v>
       </c>
     </row>
     <row r="150">
@@ -8369,13 +8369,13 @@
         <v>2048</v>
       </c>
       <c r="B150" t="n">
-        <v>203.1126386747584</v>
+        <v>189.3759923990764</v>
       </c>
       <c r="C150" t="n">
         <v>326.4510396700113</v>
       </c>
       <c r="D150" t="n">
-        <v>107.5015131667782</v>
+        <v>93.7648668910961</v>
       </c>
       <c r="E150" t="n">
         <v>326.4510396700114</v>
@@ -8387,34 +8387,34 @@
         <v>11.2652902820602</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>48.15237147325642</v>
       </c>
       <c r="I150" t="n">
-        <v>242.9893833284536</v>
+        <v>194.837011855197</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>33.70666003127949</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>14.44571144197693</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1.685333001563975</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>32.02132702971551</v>
       </c>
       <c r="N150" t="n">
-        <v>12.14946916642268</v>
+        <v>10.46413616485871</v>
       </c>
       <c r="O150" t="n">
-        <v>187.7497968517852</v>
+        <v>161.7057842009499</v>
       </c>
       <c r="P150" t="n">
-        <v>43.09011731024577</v>
+        <v>37.11280293136553</v>
       </c>
       <c r="Q150" t="n">
-        <v>43.09011731024577</v>
+        <v>37.11280293136553</v>
       </c>
     </row>
     <row r="151">
@@ -8422,13 +8422,13 @@
         <v>2049</v>
       </c>
       <c r="B151" t="n">
-        <v>211.9209985910203</v>
+        <v>197.0360070875492</v>
       </c>
       <c r="C151" t="n">
         <v>342.2517457625455</v>
       </c>
       <c r="D151" t="n">
-        <v>115.9197816731526</v>
+        <v>101.0347901696816</v>
       </c>
       <c r="E151" t="n">
         <v>342.2517457625455</v>
@@ -8440,34 +8440,34 @@
         <v>11.96600367182679</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>51.99918323055068</v>
       </c>
       <c r="I151" t="n">
-        <v>259.2110829943975</v>
+        <v>207.2118997638468</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>36.39942826138545</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>15.59975496916519</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>1.819971413069273</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>34.57945684831618</v>
       </c>
       <c r="N151" t="n">
-        <v>12.9605541497199</v>
+        <v>11.14058273665062</v>
       </c>
       <c r="O151" t="n">
-        <v>198.6420932680403</v>
+        <v>170.7479980770652</v>
       </c>
       <c r="P151" t="n">
-        <v>47.60843557663772</v>
+        <v>40.92307391929658</v>
       </c>
       <c r="Q151" t="n">
-        <v>47.60843557663772</v>
+        <v>40.92307391929658</v>
       </c>
     </row>
     <row r="152">
@@ -8475,13 +8475,13 @@
         <v>2050</v>
       </c>
       <c r="B152" t="n">
-        <v>223.0119706534915</v>
+        <v>206.7424300753027</v>
       </c>
       <c r="C152" t="n">
         <v>362.0209274588516</v>
       </c>
       <c r="D152" t="n">
-        <v>126.2509615905963</v>
+        <v>109.9814210124075</v>
       </c>
       <c r="E152" t="n">
         <v>362.0209274588516</v>
@@ -8493,34 +8493,34 @@
         <v>12.83484747740433</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>56.68050815349348</v>
       </c>
       <c r="I152" t="n">
-        <v>279.2209667325853</v>
+        <v>222.540458579092</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>39.67635570744545</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>17.00415244604805</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1.983817785372273</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>37.69253792207319</v>
       </c>
       <c r="N152" t="n">
-        <v>13.96104833662929</v>
+        <v>11.97723055125701</v>
       </c>
       <c r="O152" t="n">
-        <v>212.2079347167652</v>
+        <v>182.0539043791066</v>
       </c>
       <c r="P152" t="n">
-        <v>53.05198367919128</v>
+        <v>45.51347609477664</v>
       </c>
       <c r="Q152" t="n">
-        <v>53.05198367919128</v>
+        <v>45.51347609477664</v>
       </c>
     </row>
   </sheetData>

--- a/results/flows_per_year.xlsx
+++ b/results/flows_per_year.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>F_0_1_t</t>
+          <t>F_0_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>F_1_2_t</t>
+          <t>F_1_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>F_1_9_t</t>
+          <t>F_1_9</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>F_2_3_t</t>
+          <t>F_2_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>F_3_4_t</t>
+          <t>F_3_4</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>F_4_0_t</t>
+          <t>F_4_0</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>F_4_5_t</t>
+          <t>F_4_5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>F_4_7_t</t>
+          <t>F_4_7</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>F_5_6_t</t>
+          <t>F_5_6</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>F_5_7_t</t>
+          <t>F_5_7</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>F_6_0_t</t>
+          <t>F_6_0</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>F_6_1_t</t>
+          <t>F_6_1</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>F_7_0_t</t>
+          <t>F_7_0</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>F_7_1_t</t>
+          <t>F_7_1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>F_7_8_t</t>
+          <t>F_7_8</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>F_8_1_t</t>
+          <t>F_8_1</t>
         </is>
       </c>
     </row>

--- a/results/flows_per_year.xlsx
+++ b/results/flows_per_year.xlsx
@@ -3175,46 +3175,46 @@
         <v>1950</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7823895370749557</v>
+        <v>2.131833727357441</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7823983635889724</v>
+        <v>2.131854661487357</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7823983635889723</v>
+        <v>2.131854661487357</v>
       </c>
       <c r="F52" t="n">
-        <v>2.477952778306368e-05</v>
+        <v>6.751848453703026e-05</v>
       </c>
       <c r="G52" t="n">
-        <v>1.548846039717237e-05</v>
+        <v>4.548255830976046e-05</v>
       </c>
       <c r="H52" t="n">
-        <v>3.216138710500837e-07</v>
+        <v>7.627820617131848e-07</v>
       </c>
       <c r="I52" t="n">
-        <v>8.969453514841231e-06</v>
+        <v>2.127314416555659e-05</v>
       </c>
       <c r="J52" t="n">
-        <v>2.251297097350587e-07</v>
+        <v>5.339474431992291e-07</v>
       </c>
       <c r="K52" t="n">
-        <v>9.648416131502515e-08</v>
+        <v>2.288346185139554e-07</v>
       </c>
       <c r="L52" t="n">
-        <v>1.125648548675293e-08</v>
+        <v>2.669737215996146e-08</v>
       </c>
       <c r="M52" t="n">
-        <v>2.138732242483057e-07</v>
+        <v>5.072500710392676e-07</v>
       </c>
       <c r="N52" t="n">
-        <v>4.532968838078127e-07</v>
+        <v>1.075098939203527e-06</v>
       </c>
       <c r="O52" t="n">
-        <v>8.61264079234844e-06</v>
+        <v>2.042687984486702e-05</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3228,46 +3228,46 @@
         <v>1951</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144362330033751</v>
+        <v>2.227400165825532</v>
       </c>
       <c r="C53" t="n">
-        <v>1.144392468223195</v>
+        <v>2.227464608693493</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.144392468223195</v>
+        <v>2.227464608693492</v>
       </c>
       <c r="F53" t="n">
-        <v>8.337428874665348e-05</v>
+        <v>0.0002043418276828171</v>
       </c>
       <c r="G53" t="n">
-        <v>5.164987880566476e-05</v>
+        <v>0.0001365072298290614</v>
       </c>
       <c r="H53" t="n">
-        <v>1.098152651803456e-06</v>
+        <v>2.348120694937693e-06</v>
       </c>
       <c r="I53" t="n">
-        <v>3.062625728918525e-05</v>
+        <v>6.548647715881787e-05</v>
       </c>
       <c r="J53" t="n">
-        <v>7.687068562624188e-07</v>
+        <v>1.643684486456385e-06</v>
       </c>
       <c r="K53" t="n">
-        <v>3.294457955410367e-07</v>
+        <v>7.044362084813079e-07</v>
       </c>
       <c r="L53" t="n">
-        <v>3.843534281312094e-08</v>
+        <v>8.218422432281925e-08</v>
       </c>
       <c r="M53" t="n">
-        <v>7.302715134492979e-07</v>
+        <v>1.561500262133566e-06</v>
       </c>
       <c r="N53" t="n">
-        <v>1.547785154236315e-06</v>
+        <v>3.309545668364958e-06</v>
       </c>
       <c r="O53" t="n">
-        <v>2.940791793048997e-05</v>
+        <v>6.288136769893422e-05</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3281,46 +3281,46 @@
         <v>1952</v>
       </c>
       <c r="B54" t="n">
-        <v>1.219706994084049</v>
+        <v>2.273923987223408</v>
       </c>
       <c r="C54" t="n">
-        <v>1.219791787651812</v>
+        <v>2.274108359093904</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1.219791787651812</v>
+        <v>2.274108359093904</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0002317763015437608</v>
+        <v>0.0005729875505049157</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0001425199144243226</v>
+        <v>0.0003789118973516688</v>
       </c>
       <c r="H54" t="n">
-        <v>3.089644169519017e-06</v>
+        <v>6.718003378381619e-06</v>
       </c>
       <c r="I54" t="n">
-        <v>8.616674294991927e-05</v>
+        <v>0.000187357649774865</v>
       </c>
       <c r="J54" t="n">
-        <v>2.162750918663312e-06</v>
+        <v>4.702602364867131e-06</v>
       </c>
       <c r="K54" t="n">
-        <v>9.268932508557052e-07</v>
+        <v>2.015401013514485e-06</v>
       </c>
       <c r="L54" t="n">
-        <v>1.081375459331656e-07</v>
+        <v>2.351301182433566e-07</v>
       </c>
       <c r="M54" t="n">
-        <v>2.054613372730147e-06</v>
+        <v>4.467472246623773e-06</v>
       </c>
       <c r="N54" t="n">
-        <v>4.354681810038749e-06</v>
+        <v>9.468652539418975e-06</v>
       </c>
       <c r="O54" t="n">
-        <v>8.273895439073621e-05</v>
+        <v>0.0001799043982489605</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3334,46 +3334,46 @@
         <v>1953</v>
       </c>
       <c r="B55" t="n">
-        <v>1.295553626632328</v>
+        <v>2.412137457170345</v>
       </c>
       <c r="C55" t="n">
-        <v>1.2957777037949</v>
+        <v>2.412633989338709</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1.295777703794901</v>
+        <v>2.412633989338709</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0006031469019389264</v>
+        <v>0.001506052049417606</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0003672762044942191</v>
+        <v>0.0009833866090345853</v>
       </c>
       <c r="H55" t="n">
-        <v>8.164754911547536e-06</v>
+        <v>1.80922652440276e-05</v>
       </c>
       <c r="I55" t="n">
-        <v>0.000227705942533159</v>
+        <v>0.0005045731751389917</v>
       </c>
       <c r="J55" t="n">
-        <v>5.715328438083275e-06</v>
+        <v>1.266458567081931e-05</v>
       </c>
       <c r="K55" t="n">
-        <v>2.449426473464261e-06</v>
+        <v>5.427679573208279e-06</v>
       </c>
       <c r="L55" t="n">
-        <v>2.857664219041639e-07</v>
+        <v>6.332292835409655e-07</v>
       </c>
       <c r="M55" t="n">
-        <v>5.42956201617911e-06</v>
+        <v>1.203135638727835e-05</v>
       </c>
       <c r="N55" t="n">
-        <v>1.150776845033116e-05</v>
+        <v>2.550004273560999e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0002186476005562921</v>
+        <v>0.0004845008119765897</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3387,46 +3387,46 @@
         <v>1954</v>
       </c>
       <c r="B56" t="n">
-        <v>1.371674661878093</v>
+        <v>2.446802475702612</v>
       </c>
       <c r="C56" t="n">
-        <v>1.372232313010214</v>
+        <v>2.448054503093188</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1.372232313010214</v>
+        <v>2.448054503093188</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001473580663985026</v>
+        <v>0.003698418099428664</v>
       </c>
       <c r="G56" t="n">
-        <v>0.000886579472278362</v>
+        <v>0.002380494530401474</v>
       </c>
       <c r="H56" t="n">
-        <v>2.031927202061536e-05</v>
+        <v>4.562043123555665e-05</v>
       </c>
       <c r="I56" t="n">
-        <v>0.000566681919686051</v>
+        <v>0.001272303137791634</v>
       </c>
       <c r="J56" t="n">
-        <v>1.422349041443076e-05</v>
+        <v>3.193430186488965e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>6.09578160618461e-06</v>
+        <v>1.368612937066699e-05</v>
       </c>
       <c r="L56" t="n">
-        <v>7.111745207215381e-07</v>
+        <v>1.596715093244482e-06</v>
       </c>
       <c r="M56" t="n">
-        <v>1.351231589370922e-05</v>
+        <v>3.033758677164515e-05</v>
       </c>
       <c r="N56" t="n">
-        <v>2.863888506461178e-05</v>
+        <v>6.42994633581151e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0005441388162276237</v>
+        <v>0.001221689803804187</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3440,46 +3440,46 @@
         <v>1955</v>
       </c>
       <c r="B57" t="n">
-        <v>1.447864535864563</v>
+        <v>2.72426909579695</v>
       </c>
       <c r="C57" t="n">
-        <v>1.449171723720781</v>
+        <v>2.727233611677841</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1.449171723720781</v>
+        <v>2.727233611677839</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003382511702279268</v>
+        <v>0.008510125001736238</v>
       </c>
       <c r="G57" t="n">
-        <v>0.002006524485207306</v>
+        <v>0.005389581969220034</v>
       </c>
       <c r="H57" t="n">
-        <v>4.763032674479875e-05</v>
+        <v>0.0001080187972794075</v>
       </c>
       <c r="I57" t="n">
-        <v>0.001328356890327164</v>
+        <v>0.003012524235236809</v>
       </c>
       <c r="J57" t="n">
-        <v>3.33412287213591e-05</v>
+        <v>7.561315809558527e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>1.428909802343962e-05</v>
+        <v>3.240563918382226e-05</v>
       </c>
       <c r="L57" t="n">
-        <v>1.667061436067956e-06</v>
+        <v>3.780657904779264e-06</v>
       </c>
       <c r="M57" t="n">
-        <v>3.167416728529115e-05</v>
+        <v>7.1832500190806e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>6.713229941753023e-05</v>
+        <v>0.0001522464937210317</v>
       </c>
       <c r="O57" t="n">
-        <v>0.001275513688933074</v>
+        <v>0.002892683380699601</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3493,46 +3493,46 @@
         <v>1956</v>
       </c>
       <c r="B58" t="n">
-        <v>1.523947228182803</v>
+        <v>2.775352761122007</v>
       </c>
       <c r="C58" t="n">
-        <v>1.526832260614457</v>
+        <v>2.781928079236085</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1.526832260614457</v>
+        <v>2.781928079236085</v>
       </c>
       <c r="F58" t="n">
-        <v>0.007296715934061198</v>
+        <v>0.01832446307765396</v>
       </c>
       <c r="G58" t="n">
-        <v>0.004259839690215275</v>
+        <v>0.0114030755891504</v>
       </c>
       <c r="H58" t="n">
-        <v>0.000105122639210051</v>
+        <v>0.000239586489986662</v>
       </c>
       <c r="I58" t="n">
-        <v>0.002931753604635868</v>
+        <v>0.006681800998516904</v>
       </c>
       <c r="J58" t="n">
-        <v>7.358584744703572e-05</v>
+        <v>0.0001677105429906633</v>
       </c>
       <c r="K58" t="n">
-        <v>3.153679176301531e-05</v>
+        <v>7.187594699599857e-05</v>
       </c>
       <c r="L58" t="n">
-        <v>3.679292372351787e-06</v>
+        <v>8.385527149533167e-06</v>
       </c>
       <c r="M58" t="n">
-        <v>6.990655507468395e-05</v>
+        <v>0.0001593250158411301</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0001481645198199442</v>
+        <v>0.0003376838472756449</v>
       </c>
       <c r="O58" t="n">
-        <v>0.00281512587657894</v>
+        <v>0.006415993098237254</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3546,46 +3546,46 @@
         <v>1957</v>
       </c>
       <c r="B59" t="n">
-        <v>1.599721972127494</v>
+        <v>2.616947602509854</v>
       </c>
       <c r="C59" t="n">
-        <v>1.605715143852206</v>
+        <v>2.630616831731272</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1.605715143852206</v>
+        <v>2.630616831731272</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01479732907457044</v>
+        <v>0.03696053266726409</v>
       </c>
       <c r="G59" t="n">
-        <v>0.008488727259083621</v>
+        <v>0.02257187032893062</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0002183746782283898</v>
+        <v>0.0004980690809423113</v>
       </c>
       <c r="I59" t="n">
-        <v>0.006090227137258432</v>
+        <v>0.01389059325739114</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0001528622747598728</v>
+        <v>0.0003486483566596181</v>
       </c>
       <c r="K59" t="n">
-        <v>6.551240346851689e-05</v>
+        <v>0.0001494207242826935</v>
       </c>
       <c r="L59" t="n">
-        <v>7.643113737993637e-06</v>
+        <v>1.743241783298091e-05</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0001452191610218791</v>
+        <v>0.0003312159388266373</v>
       </c>
       <c r="N59" t="n">
-        <v>0.000307786977036347</v>
+        <v>0.0007020006990836913</v>
       </c>
       <c r="O59" t="n">
-        <v>0.005847952563690592</v>
+        <v>0.01333801328259013</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3599,46 +3599,46 @@
         <v>1958</v>
       </c>
       <c r="B60" t="n">
-        <v>1.674930557180924</v>
+        <v>2.631003813208855</v>
       </c>
       <c r="C60" t="n">
-        <v>1.686648593105146</v>
+        <v>2.657654956713095</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1.686648593105147</v>
+        <v>2.657654956713096</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0282279543243262</v>
+        <v>0.06990830960503955</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01589317966724957</v>
+        <v>0.04185447433741846</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0004269729688988061</v>
+        <v>0.0009710942977253446</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01190780168817779</v>
+        <v>0.0270827409698957</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0002988810782291642</v>
+        <v>0.0006797660084077412</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0001280918906696418</v>
+        <v>0.0002913282893176034</v>
       </c>
       <c r="L60" t="n">
-        <v>1.494405391145821e-05</v>
+        <v>3.398830042038707e-05</v>
       </c>
       <c r="M60" t="n">
-        <v>0.000283937024317706</v>
+        <v>0.0006457777079873541</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0006017946789423726</v>
+        <v>0.001368703462960666</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01143409889990508</v>
+        <v>0.02600536579625266</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3652,46 +3652,46 @@
         <v>1959</v>
       </c>
       <c r="B61" t="n">
-        <v>1.749226509086238</v>
+        <v>2.685214959941869</v>
       </c>
       <c r="C61" t="n">
-        <v>1.770803019300031</v>
+        <v>2.733980274155538</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1.77080301930003</v>
+        <v>2.733980274155539</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05070534844333319</v>
+        <v>0.1241259708529912</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0279932324288149</v>
+        <v>0.07279406115439273</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0007861886312717883</v>
+        <v>0.001776873797259184</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02192592738324654</v>
+        <v>0.04955503590133939</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0005503320418902518</v>
+        <v>0.001243811658081429</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0002358565893815365</v>
+        <v>0.0005330621391777552</v>
       </c>
       <c r="L61" t="n">
-        <v>2.751660209451259e-05</v>
+        <v>6.219058290407145e-05</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0005228154397957393</v>
+        <v>0.001181621075177357</v>
       </c>
       <c r="N61" t="n">
-        <v>0.001108089198631403</v>
+        <v>0.002504404902025861</v>
       </c>
       <c r="O61" t="n">
-        <v>0.02105369477399666</v>
+        <v>0.04758369313849135</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3705,46 +3705,46 @@
         <v>1960</v>
       </c>
       <c r="B62" t="n">
-        <v>1.821638718871136</v>
+        <v>2.720261228177977</v>
       </c>
       <c r="C62" t="n">
-        <v>1.859483209483754</v>
+        <v>2.80418631901876</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1.859483209483754</v>
+        <v>2.804186319018759</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0858873575413311</v>
+        <v>0.2072048051841198</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04605105163331238</v>
+        <v>0.1188626042990853</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001378949050662182</v>
+        <v>0.003057999261405052</v>
       </c>
       <c r="I62" t="n">
-        <v>0.03845735685735644</v>
+        <v>0.08528420162362969</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0009652643354635283</v>
+        <v>0.002140599482983535</v>
       </c>
       <c r="K62" t="n">
-        <v>0.000413684715198655</v>
+        <v>0.0009173997784215151</v>
       </c>
       <c r="L62" t="n">
-        <v>4.826321677317641e-05</v>
+        <v>0.0001070299741491767</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0009170011186903518</v>
+        <v>0.002033569508834358</v>
       </c>
       <c r="N62" t="n">
-        <v>0.001943552078627755</v>
+        <v>0.004310080070102561</v>
       </c>
       <c r="O62" t="n">
-        <v>0.03692748949392733</v>
+        <v>0.08189152133194864</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3758,46 +3758,46 @@
         <v>1961</v>
       </c>
       <c r="B63" t="n">
-        <v>1.891890186961323</v>
+        <v>2.71451127311451</v>
       </c>
       <c r="C63" t="n">
-        <v>1.95394668638418</v>
+        <v>2.850322151420507</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1.953946686384181</v>
+        <v>2.850322151420507</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1374434026129219</v>
+        <v>0.3258255317601765</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07212077164149419</v>
+        <v>0.1828667124907071</v>
       </c>
       <c r="H63" t="n">
-        <v>0.002261167995164797</v>
+        <v>0.004948574513173954</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06306146297626282</v>
+        <v>0.1380102447562958</v>
       </c>
       <c r="J63" t="n">
-        <v>0.001582817596615359</v>
+        <v>0.003464002159221769</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0006783503985494396</v>
+        <v>0.001484572353952187</v>
       </c>
       <c r="L63" t="n">
-        <v>7.914087983076798e-05</v>
+        <v>0.0001732001079610884</v>
       </c>
       <c r="M63" t="n">
-        <v>0.001503676716784591</v>
+        <v>0.00329080205126068</v>
       </c>
       <c r="N63" t="n">
-        <v>0.00318699066874061</v>
+        <v>0.006974740855512401</v>
       </c>
       <c r="O63" t="n">
-        <v>0.06055282270607158</v>
+        <v>0.1325200762547356</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3811,46 +3811,46 @@
         <v>1962</v>
       </c>
       <c r="B64" t="n">
-        <v>1.958897608100081</v>
+        <v>2.718739787056369</v>
       </c>
       <c r="C64" t="n">
-        <v>2.055159917932549</v>
+        <v>2.926039532291856</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>2.05515991793255</v>
+        <v>2.926039532291856</v>
       </c>
       <c r="F64" t="n">
-        <v>0.208284267332479</v>
+        <v>0.4837958217541118</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1069555201404066</v>
+        <v>0.2655855636114928</v>
       </c>
       <c r="H64" t="n">
-        <v>0.003507533556648657</v>
+        <v>0.007553432012629095</v>
       </c>
       <c r="I64" t="n">
-        <v>0.09782121363542358</v>
+        <v>0.2106568261299893</v>
       </c>
       <c r="J64" t="n">
-        <v>0.002455273489654057</v>
+        <v>0.005287402408840364</v>
       </c>
       <c r="K64" t="n">
-        <v>0.001052260066994596</v>
+        <v>0.002266029603788728</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0001227636744827029</v>
+        <v>0.0002643701204420183</v>
       </c>
       <c r="M64" t="n">
-        <v>0.002332509815171354</v>
+        <v>0.005023032288398347</v>
       </c>
       <c r="N64" t="n">
-        <v>0.004943673685120909</v>
+        <v>0.01064614278668889</v>
       </c>
       <c r="O64" t="n">
-        <v>0.09392980001729727</v>
+        <v>0.202276712947089</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3864,46 +3864,46 @@
         <v>1963</v>
       </c>
       <c r="B65" t="n">
-        <v>2.02198778309767</v>
+        <v>2.972635815931097</v>
       </c>
       <c r="C65" t="n">
-        <v>2.163619866882521</v>
+        <v>3.271912630870709</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>2.16361986688252</v>
+        <v>3.27191263087071</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2997415772680127</v>
+        <v>0.68028499209624</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1506551732839584</v>
+        <v>0.3652567658440161</v>
       </c>
       <c r="H65" t="n">
-        <v>0.005160683214832626</v>
+        <v>0.01090482321642312</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1439257207692212</v>
+        <v>0.3041234030358</v>
       </c>
       <c r="J65" t="n">
-        <v>0.003612478250382839</v>
+        <v>0.007633376251496185</v>
       </c>
       <c r="K65" t="n">
-        <v>0.001548204964449788</v>
+        <v>0.003271446964926937</v>
       </c>
       <c r="L65" t="n">
-        <v>0.000180623912519142</v>
+        <v>0.0003816688125748093</v>
       </c>
       <c r="M65" t="n">
-        <v>0.003431854337863697</v>
+        <v>0.007251707438921376</v>
       </c>
       <c r="N65" t="n">
-        <v>0.00727369628668354</v>
+        <v>0.01536974250003638</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1382002294469873</v>
+        <v>0.2920251075006911</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3917,46 +3917,46 @@
         <v>1964</v>
       </c>
       <c r="B66" t="n">
-        <v>2.081305704868987</v>
+        <v>3.002233071111525</v>
       </c>
       <c r="C66" t="n">
-        <v>2.279593568491393</v>
+        <v>3.412232780560001</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>2.279593568491392</v>
+        <v>3.412232780560001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4109718379233552</v>
+        <v>0.9089660133442991</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2022477709524026</v>
+        <v>0.4773873718195909</v>
       </c>
       <c r="H66" t="n">
-        <v>0.007225063856686829</v>
+        <v>0.01493926066816303</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2014990031142661</v>
+        <v>0.4166393808565466</v>
       </c>
       <c r="J66" t="n">
-        <v>0.005057544699680779</v>
+        <v>0.01045748246771413</v>
       </c>
       <c r="K66" t="n">
-        <v>0.002167519157006048</v>
+        <v>0.004481778200448911</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0002528772349840389</v>
+        <v>0.0005228741233857066</v>
       </c>
       <c r="M66" t="n">
-        <v>0.004804667464696739</v>
+        <v>0.009934608344328421</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0101833261135636</v>
+        <v>0.02105605795284978</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1934831961577084</v>
+        <v>0.4000651011041459</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3970,46 +3970,46 @@
         <v>1965</v>
       </c>
       <c r="B67" t="n">
-        <v>2.138767917762037</v>
+        <v>3.150506967374873</v>
       </c>
       <c r="C67" t="n">
-        <v>2.403911251260527</v>
+        <v>3.685587164291961</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2.403911251260529</v>
+        <v>3.685587164291961</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5388319369121423</v>
+        <v>1.158635888599413</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2597336911242545</v>
+        <v>0.5953935760551116</v>
       </c>
       <c r="H67" t="n">
-        <v>0.009661093123426797</v>
+        <v>0.01949684928037973</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2694371526644581</v>
+        <v>0.543745463263923</v>
       </c>
       <c r="J67" t="n">
-        <v>0.006762765186398761</v>
+        <v>0.0136477944962658</v>
       </c>
       <c r="K67" t="n">
-        <v>0.00289832793702804</v>
+        <v>0.005849054784113916</v>
       </c>
       <c r="L67" t="n">
-        <v>0.000338138259319938</v>
+        <v>0.0006823897248132901</v>
       </c>
       <c r="M67" t="n">
-        <v>0.006424626927078821</v>
+        <v>0.01296540477145252</v>
       </c>
       <c r="N67" t="n">
-        <v>0.01361677403007432</v>
+        <v>0.02747972590240187</v>
       </c>
       <c r="O67" t="n">
-        <v>0.2587187065714121</v>
+        <v>0.5221147921456354</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -4023,46 +4023,46 @@
         <v>1966</v>
       </c>
       <c r="B68" t="n">
-        <v>2.195928426539525</v>
+        <v>3.071245611791163</v>
       </c>
       <c r="C68" t="n">
-        <v>2.53597778287106</v>
+        <v>3.739449571087937</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2.535977782871059</v>
+        <v>3.739449571087934</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6783245818130712</v>
+        <v>1.415191276501825</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3203778909377725</v>
+        <v>0.7118186877683812</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01239046237645264</v>
+        <v>0.02434751268692693</v>
       </c>
       <c r="I68" t="n">
-        <v>0.345556228498846</v>
+        <v>0.6790250760465183</v>
       </c>
       <c r="J68" t="n">
-        <v>0.008673323663516848</v>
+        <v>0.01704325888084887</v>
       </c>
       <c r="K68" t="n">
-        <v>0.003717138712935792</v>
+        <v>0.007304253806078086</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0004336661831758424</v>
+        <v>0.0008521629440424437</v>
       </c>
       <c r="M68" t="n">
-        <v>0.008239657480341006</v>
+        <v>0.01619109593680644</v>
       </c>
       <c r="N68" t="n">
-        <v>0.01746366836058908</v>
+        <v>0.03431646649262984</v>
       </c>
       <c r="O68" t="n">
-        <v>0.3318096988511925</v>
+        <v>0.6520128633599667</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -4076,46 +4076,46 @@
         <v>1967</v>
       </c>
       <c r="B69" t="n">
-        <v>2.256752618253778</v>
+        <v>2.937279698426804</v>
       </c>
       <c r="C69" t="n">
-        <v>2.676973166348567</v>
+        <v>3.739711364015677</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>2.676973166348567</v>
+        <v>3.739711364015677</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8235063805398571</v>
+        <v>1.664438192333541</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3811689614927141</v>
+        <v>0.8197732811873615</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01531167989009349</v>
+        <v>0.02923840077044472</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4270257391570521</v>
+        <v>0.8154265103757361</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01071817592306545</v>
+        <v>0.0204668805393113</v>
       </c>
       <c r="K69" t="n">
-        <v>0.00459350396702805</v>
+        <v>0.008771520231133416</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0005359087961532725</v>
+        <v>0.001023344026965565</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01018226712691218</v>
+        <v>0.01944353651234574</v>
       </c>
       <c r="N69" t="n">
-        <v>0.02158096215620401</v>
+        <v>0.04120990153034351</v>
       </c>
       <c r="O69" t="n">
-        <v>0.410038280967876</v>
+        <v>0.7829881290765265</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4129,46 +4129,46 @@
         <v>1968</v>
       </c>
       <c r="B70" t="n">
-        <v>2.328316656380988</v>
+        <v>3.115917525769652</v>
       </c>
       <c r="C70" t="n">
-        <v>2.828605545489053</v>
+        <v>4.047002806290071</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2.828605545489054</v>
+        <v>4.04700280629007</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9685867384915459</v>
+        <v>1.894760751814617</v>
       </c>
       <c r="G70" t="n">
-        <v>0.441966855219895</v>
+        <v>0.9146709828457552</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01822914980555707</v>
+        <v>0.03392618431046063</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5083907334660915</v>
+        <v>0.9461635846584028</v>
       </c>
       <c r="J70" t="n">
-        <v>0.01276040486388995</v>
+        <v>0.02374832901732244</v>
       </c>
       <c r="K70" t="n">
-        <v>0.005468744941667121</v>
+        <v>0.01017785529313819</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0006380202431944974</v>
+        <v>0.001187416450866122</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01212238462069545</v>
+        <v>0.02256091256645631</v>
       </c>
       <c r="N70" t="n">
-        <v>0.02569297392038793</v>
+        <v>0.04781707199757698</v>
       </c>
       <c r="O70" t="n">
-        <v>0.4881665044873706</v>
+        <v>0.9085243679539629</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -4182,46 +4182,46 @@
         <v>1969</v>
       </c>
       <c r="B71" t="n">
-        <v>2.412201127024789</v>
+        <v>3.122179930559311</v>
       </c>
       <c r="C71" t="n">
-        <v>2.991706571733651</v>
+        <v>4.172447293387454</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>2.991706571733651</v>
+        <v>4.172447293387454</v>
       </c>
       <c r="F71" t="n">
-        <v>1.108898730122017</v>
+        <v>2.098850669902291</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4988929988495314</v>
+        <v>0.993306077451613</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02111558300558612</v>
+        <v>0.03826885127713883</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5888901482669016</v>
+        <v>1.067275741173539</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01478090810391029</v>
+        <v>0.02678819589399718</v>
       </c>
       <c r="K71" t="n">
-        <v>0.006334674901675838</v>
+        <v>0.01148065538314164</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0007390454051955143</v>
+        <v>0.001339409794699859</v>
       </c>
       <c r="M71" t="n">
-        <v>0.01404186269871477</v>
+        <v>0.02544878609929732</v>
       </c>
       <c r="N71" t="n">
-        <v>0.02976124115842887</v>
+        <v>0.05393781982783396</v>
       </c>
       <c r="O71" t="n">
-        <v>0.5654635820101486</v>
+        <v>1.024818576728845</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4235,46 +4235,46 @@
         <v>1970</v>
       </c>
       <c r="B72" t="n">
-        <v>2.213937512451965</v>
+        <v>2.595519459899545</v>
       </c>
       <c r="C72" t="n">
-        <v>3.163969480252374</v>
+        <v>4.134007727948172</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>3.163969480252371</v>
+        <v>4.13400772794817</v>
       </c>
       <c r="F72" t="n">
-        <v>1.241502074109054</v>
+        <v>2.274219543447532</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2414684237928338</v>
+        <v>0.6547582086595086</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03461654943402299</v>
+        <v>0.05605827697343171</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9654171008821939</v>
+        <v>1.563403057814594</v>
       </c>
       <c r="J72" t="n">
-        <v>0.02423158460381607</v>
+        <v>0.03924079388140218</v>
       </c>
       <c r="K72" t="n">
-        <v>0.01038496483020689</v>
+        <v>0.0168174830920295</v>
       </c>
       <c r="L72" t="n">
-        <v>0.001211579230190803</v>
+        <v>0.00196203969407011</v>
       </c>
       <c r="M72" t="n">
-        <v>0.02302000537362527</v>
+        <v>0.03727875418733208</v>
       </c>
       <c r="N72" t="n">
-        <v>0.04879010328562012</v>
+        <v>0.07901102704533125</v>
       </c>
       <c r="O72" t="n">
-        <v>0.9270119624267823</v>
+        <v>1.501209513861294</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4288,46 +4288,46 @@
         <v>1971</v>
       </c>
       <c r="B73" t="n">
-        <v>2.288375907297766</v>
+        <v>2.886419420101067</v>
       </c>
       <c r="C73" t="n">
-        <v>3.341872069067371</v>
+        <v>4.556675368038155</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>3.341872069067371</v>
+        <v>4.556675368038154</v>
       </c>
       <c r="F73" t="n">
-        <v>1.365330720843189</v>
+        <v>2.422617258825374</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2563873926646564</v>
+        <v>0.6644531031021279</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03838649982156456</v>
+        <v>0.06085952846734326</v>
       </c>
       <c r="I73" t="n">
-        <v>1.070556828356969</v>
+        <v>1.697304627255907</v>
       </c>
       <c r="J73" t="n">
-        <v>0.02687054987509519</v>
+        <v>0.04260166992714026</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01151594994646937</v>
+        <v>0.01825785854020296</v>
       </c>
       <c r="L73" t="n">
-        <v>0.00134352749375476</v>
+        <v>0.002130083496357013</v>
       </c>
       <c r="M73" t="n">
-        <v>0.02552702238134044</v>
+        <v>0.04047158643078323</v>
       </c>
       <c r="N73" t="n">
-        <v>0.05410363891517184</v>
+        <v>0.08577812428980543</v>
       </c>
       <c r="O73" t="n">
-        <v>1.027969139388265</v>
+        <v>1.629784361506303</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4341,46 +4341,46 @@
         <v>1972</v>
       </c>
       <c r="B74" t="n">
-        <v>2.371311995363845</v>
+        <v>3.009303431986114</v>
       </c>
       <c r="C74" t="n">
-        <v>3.522426915577626</v>
+        <v>4.797332458549149</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.522426915577626</v>
+        <v>4.797332458549149</v>
       </c>
       <c r="F74" t="n">
-        <v>1.48094765139328</v>
+        <v>2.548789557389801</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2692477353787726</v>
+        <v>0.6666537399550239</v>
       </c>
       <c r="H74" t="n">
-        <v>0.04194345863127138</v>
+        <v>0.06515085521889602</v>
       </c>
       <c r="I74" t="n">
-        <v>1.169756457383234</v>
+        <v>1.816984962215879</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02936042104188995</v>
+        <v>0.04560559865322722</v>
       </c>
       <c r="K74" t="n">
-        <v>0.01258303758938141</v>
+        <v>0.01954525656566882</v>
       </c>
       <c r="L74" t="n">
-        <v>0.001468021052094498</v>
+        <v>0.002280279932661361</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02789239998979546</v>
+        <v>0.04332531872056587</v>
       </c>
       <c r="N74" t="n">
-        <v>0.05911697474863077</v>
+        <v>0.09182651093907732</v>
       </c>
       <c r="O74" t="n">
-        <v>1.123222520223985</v>
+        <v>1.744703707842469</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4394,46 +4394,46 @@
         <v>1973</v>
       </c>
       <c r="B75" t="n">
-        <v>2.461666539187351</v>
+        <v>3.125996506184912</v>
       </c>
       <c r="C75" t="n">
-        <v>3.705661353790857</v>
+        <v>5.02156263237667</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>3.705661353790857</v>
+        <v>5.021562632376672</v>
       </c>
       <c r="F75" t="n">
-        <v>1.590062434304865</v>
+        <v>2.659169529530361</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2805942084064351</v>
+        <v>0.6638367651179858</v>
       </c>
       <c r="H75" t="n">
-        <v>0.04532774628109947</v>
+        <v>0.06906921107581314</v>
       </c>
       <c r="I75" t="n">
-        <v>1.264140479617329</v>
+        <v>1.926263553336566</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03172942239676961</v>
+        <v>0.04834844775306916</v>
       </c>
       <c r="K75" t="n">
-        <v>0.01359832388432984</v>
+        <v>0.02072076332274393</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001586471119838481</v>
+        <v>0.002417422387653459</v>
       </c>
       <c r="M75" t="n">
-        <v>0.03014295127693115</v>
+        <v>0.0459310253654157</v>
       </c>
       <c r="N75" t="n">
-        <v>0.06388694017508292</v>
+        <v>0.09734921583296548</v>
       </c>
       <c r="O75" t="n">
-        <v>1.213851863326576</v>
+        <v>1.849635100826344</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4447,46 +4447,46 @@
         <v>1974</v>
       </c>
       <c r="B76" t="n">
-        <v>2.557109521132036</v>
+        <v>2.600498628554994</v>
       </c>
       <c r="C76" t="n">
-        <v>3.89098263293052</v>
+        <v>4.598083921555602</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>3.890982632930521</v>
+        <v>4.598083921555602</v>
       </c>
       <c r="F76" t="n">
-        <v>1.694986312517623</v>
+        <v>2.760687907265937</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2909093527297431</v>
+        <v>0.6579665462126666</v>
       </c>
       <c r="H76" t="n">
-        <v>0.04860266399265732</v>
+        <v>0.072786508651844</v>
       </c>
       <c r="I76" t="n">
-        <v>1.355474295795219</v>
+        <v>2.029934852401427</v>
       </c>
       <c r="J76" t="n">
-        <v>0.03402186479486013</v>
+        <v>0.05095055605629085</v>
       </c>
       <c r="K76" t="n">
-        <v>0.01458079919779719</v>
+        <v>0.02183595259555322</v>
       </c>
       <c r="L76" t="n">
-        <v>0.001701093239743006</v>
+        <v>0.002547527802814542</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03232077155511711</v>
+        <v>0.04840302825347629</v>
       </c>
       <c r="N76" t="n">
-        <v>0.06850275474965091</v>
+        <v>0.102588540249849</v>
       </c>
       <c r="O76" t="n">
-        <v>1.301552340243367</v>
+        <v>1.949182264747132</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4500,46 +4500,46 @@
         <v>1975</v>
       </c>
       <c r="B77" t="n">
-        <v>2.638597670149226</v>
+        <v>2.564336329967801</v>
       </c>
       <c r="C77" t="n">
-        <v>4.06131531902916</v>
+        <v>4.643408668924463</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>0.01994188170938601</v>
       </c>
       <c r="E77" t="n">
-        <v>4.061315319029158</v>
+        <v>4.643408668924462</v>
       </c>
       <c r="F77" t="n">
-        <v>1.79816168368667</v>
+        <v>2.85993600488951</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3005641585498969</v>
+        <v>0.6504473515568269</v>
       </c>
       <c r="H77" t="n">
-        <v>0.05183991433165753</v>
+        <v>0.07648229953843909</v>
       </c>
       <c r="I77" t="n">
-        <v>1.445757610805115</v>
+        <v>2.133006353794246</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03628794003216024</v>
+        <v>0.05353760967690734</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01555197429949725</v>
+        <v>0.02294468986153171</v>
       </c>
       <c r="L77" t="n">
-        <v>0.001814397001608012</v>
+        <v>0.002676880483845366</v>
       </c>
       <c r="M77" t="n">
-        <v>0.03447354303055224</v>
+        <v>0.05086072919306196</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0730654792552306</v>
+        <v>0.1077975521827888</v>
       </c>
       <c r="O77" t="n">
-        <v>1.388244105849382</v>
+        <v>2.048153491472987</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4553,46 +4553,46 @@
         <v>1976</v>
       </c>
       <c r="B78" t="n">
-        <v>2.935836610765424</v>
+        <v>3.005295995689941</v>
       </c>
       <c r="C78" t="n">
-        <v>4.448270032903375</v>
+        <v>5.209583253749699</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>4.448270032903375</v>
+        <v>5.209583253749699</v>
       </c>
       <c r="F78" t="n">
-        <v>1.901847405519414</v>
+        <v>2.962498736336787</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3098122243215768</v>
+        <v>0.6421963594317786</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05510891011838686</v>
+        <v>0.08031815920055811</v>
       </c>
       <c r="I78" t="n">
-        <v>1.536926271079454</v>
+        <v>2.239984217704456</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03857623708287079</v>
+        <v>0.05622271144039062</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01653267303551605</v>
+        <v>0.0240954477601674</v>
       </c>
       <c r="L78" t="n">
-        <v>0.00192881185414354</v>
+        <v>0.00281113557201953</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03664742522872724</v>
+        <v>0.05341157586837107</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07767294720574855</v>
+        <v>0.1132039832732309</v>
       </c>
       <c r="O78" t="n">
-        <v>1.475785996909222</v>
+        <v>2.150875682191387</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4606,46 +4606,46 @@
         <v>1977</v>
       </c>
       <c r="B79" t="n">
-        <v>3.239856469522336</v>
+        <v>3.459269523575525</v>
       </c>
       <c r="C79" t="n">
-        <v>4.844539358548025</v>
+        <v>5.776090157233726</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>4.844539358548027</v>
+        <v>5.776090157233726</v>
       </c>
       <c r="F79" t="n">
-        <v>2.007946471223307</v>
+        <v>3.072513724567922</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3188065880383696</v>
+        <v>0.6337551628224471</v>
       </c>
       <c r="H79" t="n">
-        <v>0.05847022672563244</v>
+        <v>0.08441856559888172</v>
       </c>
       <c r="I79" t="n">
-        <v>1.630669656459305</v>
+        <v>2.354339996146588</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0409291587079427</v>
+        <v>0.05909299591921727</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01754106801768973</v>
+        <v>0.02532556967966455</v>
       </c>
       <c r="L79" t="n">
-        <v>0.002046457935397135</v>
+        <v>0.002954649795960864</v>
       </c>
       <c r="M79" t="n">
-        <v>0.03888270077254557</v>
+        <v>0.05613834612325641</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08241053622384971</v>
+        <v>0.1189832782913128</v>
       </c>
       <c r="O79" t="n">
-        <v>1.565800188253145</v>
+        <v>2.260682287534944</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4659,46 +4659,46 @@
         <v>1978</v>
       </c>
       <c r="B80" t="n">
-        <v>3.560374328403034</v>
+        <v>3.798441980938272</v>
       </c>
       <c r="C80" t="n">
-        <v>5.261210467632917</v>
+        <v>6.237118746575494</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>5.261210467632917</v>
+        <v>6.237118746575495</v>
       </c>
       <c r="F80" t="n">
-        <v>2.117982665562109</v>
+        <v>3.192421243075666</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3276288347938159</v>
+        <v>0.6253930687206918</v>
       </c>
       <c r="H80" t="n">
-        <v>0.06197378644967178</v>
+        <v>0.08885866757382589</v>
       </c>
       <c r="I80" t="n">
-        <v>1.728380044318627</v>
+        <v>2.478169506781147</v>
       </c>
       <c r="J80" t="n">
-        <v>0.04338165051477027</v>
+        <v>0.06220106730167817</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01859213593490154</v>
+        <v>0.02665760027214778</v>
       </c>
       <c r="L80" t="n">
-        <v>0.002169082525738514</v>
+        <v>0.003110053365083908</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04121256798903176</v>
+        <v>0.05909101393659427</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08734860901267631</v>
+        <v>0.1252413553526646</v>
       </c>
       <c r="O80" t="n">
-        <v>1.65962357124085</v>
+        <v>2.379585751700627</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4712,46 +4712,46 @@
         <v>1979</v>
       </c>
       <c r="B81" t="n">
-        <v>3.898912640085512</v>
+        <v>3.93856989592445</v>
       </c>
       <c r="C81" t="n">
-        <v>5.700902481867001</v>
+        <v>6.509002695032314</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>5.700902481867002</v>
+        <v>6.509002695032311</v>
       </c>
       <c r="F81" t="n">
-        <v>2.233147624247495</v>
+        <v>3.322894328790309</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3363162118459249</v>
+        <v>0.6171755928872947</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06565954889082358</v>
+        <v>0.09365949470433516</v>
       </c>
       <c r="I81" t="n">
-        <v>1.831171863510744</v>
+        <v>2.612059241198687</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04596168422357649</v>
+        <v>0.06556164629303463</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01969786466724707</v>
+        <v>0.02809784841130055</v>
       </c>
       <c r="L81" t="n">
-        <v>0.002298084211178824</v>
+        <v>0.00327808231465173</v>
       </c>
       <c r="M81" t="n">
-        <v>0.04366360001239766</v>
+        <v>0.0622835639783829</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0925434864088996</v>
+        <v>0.132007854480499</v>
       </c>
       <c r="O81" t="n">
-        <v>1.758326241769092</v>
+        <v>2.508149235129481</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -4765,46 +4765,46 @@
         <v>1980</v>
       </c>
       <c r="B82" t="n">
-        <v>4.246338804938929</v>
+        <v>3.548762278082866</v>
       </c>
       <c r="C82" t="n">
-        <v>6.165421704723717</v>
+        <v>6.262305405416895</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>6.165421704723719</v>
+        <v>6.262305405416897</v>
       </c>
       <c r="F82" t="n">
-        <v>2.35438835457418</v>
+        <v>3.462994763070391</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3343010916428283</v>
+        <v>0.6066335764029936</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06992609756300845</v>
+        <v>0.09887404107694844</v>
       </c>
       <c r="I82" t="n">
-        <v>1.950161165368345</v>
+        <v>2.757487145590447</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0489482682941059</v>
+        <v>0.06921182875386389</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02097782926890253</v>
+        <v>0.02966221232308452</v>
       </c>
       <c r="L82" t="n">
-        <v>0.002447413414705295</v>
+        <v>0.003460591437693195</v>
       </c>
       <c r="M82" t="n">
-        <v>0.04650085487940062</v>
+        <v>0.06575123731617072</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09855694973186246</v>
+        <v>0.1393574678956768</v>
       </c>
       <c r="O82" t="n">
-        <v>1.872582044905386</v>
+        <v>2.647791890017859</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -4818,46 +4818,46 @@
         <v>1981</v>
       </c>
       <c r="B83" t="n">
-        <v>4.534860614032703</v>
+        <v>3.675579011968292</v>
       </c>
       <c r="C83" t="n">
-        <v>6.568583847659139</v>
+        <v>6.338760236647092</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.1987313190299777</v>
       </c>
       <c r="E83" t="n">
-        <v>6.568583847659139</v>
+        <v>6.338760236647094</v>
       </c>
       <c r="F83" t="n">
-        <v>2.482504367742087</v>
+        <v>3.610603895568238</v>
       </c>
       <c r="G83" t="n">
-        <v>0.341743069187942</v>
+        <v>0.5980643758747899</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0741054618560282</v>
+        <v>0.1042822831906635</v>
       </c>
       <c r="I83" t="n">
-        <v>2.066655836698111</v>
+        <v>2.908257236502778</v>
       </c>
       <c r="J83" t="n">
-        <v>0.05187382329921975</v>
+        <v>0.07299759823346436</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02223163855680846</v>
+        <v>0.03128468495719901</v>
       </c>
       <c r="L83" t="n">
-        <v>0.002593691164960988</v>
+        <v>0.003649879911673218</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04928013213425875</v>
+        <v>0.06934771832179117</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1044443737627461</v>
+        <v>0.1469770960729993</v>
       </c>
       <c r="O83" t="n">
-        <v>1.984443101492177</v>
+        <v>2.792564825386987</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4871,46 +4871,46 @@
         <v>1982</v>
       </c>
       <c r="B84" t="n">
-        <v>4.84020447753528</v>
+        <v>3.806289693955618</v>
       </c>
       <c r="C84" t="n">
-        <v>6.996012553418439</v>
+        <v>6.403287027434011</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.4182754977777368</v>
       </c>
       <c r="E84" t="n">
-        <v>6.996012553418438</v>
+        <v>6.403287027434009</v>
       </c>
       <c r="F84" t="n">
-        <v>2.618257995583384</v>
+        <v>3.762988377140328</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3489863367590043</v>
+        <v>0.5890169758180817</v>
       </c>
       <c r="H84" t="n">
-        <v>0.07856020020981068</v>
+        <v>0.1098762050934525</v>
       </c>
       <c r="I84" t="n">
-        <v>2.190711458614564</v>
+        <v>3.064095196228794</v>
       </c>
       <c r="J84" t="n">
-        <v>0.05499214014686751</v>
+        <v>0.07691334356541678</v>
       </c>
       <c r="K84" t="n">
-        <v>0.02356806006294321</v>
+        <v>0.03296286152803578</v>
       </c>
       <c r="L84" t="n">
-        <v>0.002749607007343375</v>
+        <v>0.003845667178270839</v>
       </c>
       <c r="M84" t="n">
-        <v>0.05224253313952412</v>
+        <v>0.07306767638714594</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1107139759338755</v>
+        <v>0.1548529028878413</v>
       </c>
       <c r="O84" t="n">
-        <v>2.103565542743635</v>
+        <v>2.942205154868984</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4924,46 +4924,46 @@
         <v>1983</v>
       </c>
       <c r="B85" t="n">
-        <v>5.164071075422292</v>
+        <v>4.281823089277573</v>
       </c>
       <c r="C85" t="n">
-        <v>7.450185134085848</v>
+        <v>7.068808345689589</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>0.3844523962336597</v>
       </c>
       <c r="E85" t="n">
-        <v>7.450185134085853</v>
+        <v>7.06880834568959</v>
       </c>
       <c r="F85" t="n">
-        <v>2.762490227407168</v>
+        <v>3.917541551857265</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3560543761823688</v>
+        <v>0.5791861280197037</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0833254288786542</v>
+        <v>0.1155832443358457</v>
       </c>
       <c r="I85" t="n">
-        <v>2.323110422346142</v>
+        <v>3.222772179501711</v>
       </c>
       <c r="J85" t="n">
-        <v>0.05832780021505792</v>
+        <v>0.08090827103509209</v>
       </c>
       <c r="K85" t="n">
-        <v>0.02499762866359626</v>
+        <v>0.03467497330075376</v>
       </c>
       <c r="L85" t="n">
-        <v>0.002916390010752896</v>
+        <v>0.004045413551754603</v>
       </c>
       <c r="M85" t="n">
-        <v>0.05541141020430503</v>
+        <v>0.07686285748333749</v>
       </c>
       <c r="N85" t="n">
-        <v>0.117405402550487</v>
+        <v>0.1628723576401231</v>
       </c>
       <c r="O85" t="n">
-        <v>2.230702648459252</v>
+        <v>3.094574795162338</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4977,46 +4977,46 @@
         <v>1984</v>
       </c>
       <c r="B86" t="n">
-        <v>5.506678902937047</v>
+        <v>4.741624709025705</v>
       </c>
       <c r="C86" t="n">
-        <v>7.932276888826484</v>
+        <v>7.698900748172544</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>0.3716309783465218</v>
       </c>
       <c r="E86" t="n">
-        <v>7.932276888826483</v>
+        <v>7.698900748172544</v>
       </c>
       <c r="F86" t="n">
-        <v>2.916259672632286</v>
+        <v>4.07243797957077</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3629986348539272</v>
+        <v>0.5683253295777608</v>
       </c>
       <c r="H86" t="n">
-        <v>0.08845226597175081</v>
+        <v>0.1213652978635349</v>
       </c>
       <c r="I86" t="n">
-        <v>2.464808771806602</v>
+        <v>3.382747352129475</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0619165861802256</v>
+        <v>0.08495570850447441</v>
       </c>
       <c r="K86" t="n">
-        <v>0.02653567979152526</v>
+        <v>0.03640958935906046</v>
       </c>
       <c r="L86" t="n">
-        <v>0.003095829309011281</v>
+        <v>0.00424778542522372</v>
       </c>
       <c r="M86" t="n">
-        <v>0.05882075687121433</v>
+        <v>0.08070792307925069</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1245672225799064</v>
+        <v>0.1709578470744268</v>
       </c>
       <c r="O86" t="n">
-        <v>2.366777229018221</v>
+        <v>3.248199094414109</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5030,46 +5030,46 @@
         <v>1985</v>
       </c>
       <c r="B87" t="n">
-        <v>5.873684238406561</v>
+        <v>5.307878811860944</v>
       </c>
       <c r="C87" t="n">
-        <v>8.4492106127342</v>
+        <v>8.498642488586162</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>0.2965734104423846</v>
       </c>
       <c r="E87" t="n">
-        <v>8.449210612734202</v>
+        <v>8.498642488586166</v>
       </c>
       <c r="F87" t="n">
-        <v>3.080989030668098</v>
+        <v>4.227201875296796</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3699086366390083</v>
+        <v>0.5563207309098469</v>
       </c>
       <c r="H87" t="n">
-        <v>0.09402292950468553</v>
+        <v>0.127247566959405</v>
       </c>
       <c r="I87" t="n">
-        <v>2.617057464524409</v>
+        <v>3.543633577427548</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0658160506532799</v>
+        <v>0.08907329687158347</v>
       </c>
       <c r="K87" t="n">
-        <v>0.02820687885140567</v>
+        <v>0.03817427008782149</v>
       </c>
       <c r="L87" t="n">
-        <v>0.003290802532663994</v>
+        <v>0.004453664843579173</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0625252481206159</v>
+        <v>0.08461963202800432</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1322632171687907</v>
+        <v>0.1790903923757683</v>
       </c>
       <c r="O87" t="n">
-        <v>2.513001126207022</v>
+        <v>3.402717455139599</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -5083,46 +5083,46 @@
         <v>1986</v>
       </c>
       <c r="B88" t="n">
-        <v>6.485868424462868</v>
+        <v>5.52699112302097</v>
       </c>
       <c r="C88" t="n">
-        <v>9.223458478176109</v>
+        <v>8.725895326374101</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>0.4488114865960926</v>
       </c>
       <c r="E88" t="n">
-        <v>9.223458478176113</v>
+        <v>8.725895326374101</v>
       </c>
       <c r="F88" t="n">
-        <v>3.258591562786502</v>
+        <v>4.382930881928898</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3769178220357238</v>
+        <v>0.5432301556665575</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1001736062829566</v>
+        <v>0.1333435802442249</v>
       </c>
       <c r="I88" t="n">
-        <v>2.781500134467824</v>
+        <v>3.70635714601811</v>
       </c>
       <c r="J88" t="n">
-        <v>0.07012152439806964</v>
+        <v>0.09334050617095739</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03005208188488699</v>
+        <v>0.04000307407326745</v>
       </c>
       <c r="L88" t="n">
-        <v>0.003506076219903481</v>
+        <v>0.00466702530854787</v>
       </c>
       <c r="M88" t="n">
-        <v>0.06661544817816614</v>
+        <v>0.08867348086240952</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1405776108176358</v>
+        <v>0.187318011004569</v>
       </c>
       <c r="O88" t="n">
-        <v>2.670974605535079</v>
+        <v>3.559042209086812</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -5136,46 +5136,46 @@
         <v>1987</v>
       </c>
       <c r="B89" t="n">
-        <v>7.094801017068058</v>
+        <v>6.026210471712553</v>
       </c>
       <c r="C89" t="n">
-        <v>10.00874157381215</v>
+        <v>9.390688257343633</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>0.4478216959905905</v>
       </c>
       <c r="E89" t="n">
-        <v>10.00874157381215</v>
+        <v>9.390688257343635</v>
       </c>
       <c r="F89" t="n">
-        <v>3.451502785867361</v>
+        <v>4.542224202003479</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3841969366630467</v>
+        <v>0.5292773792438259</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1071249025416769</v>
+        <v>0.1398870037586215</v>
       </c>
       <c r="I89" t="n">
-        <v>2.960180946662628</v>
+        <v>3.873059819001028</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07498743177917386</v>
+        <v>0.09792090263103503</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03213747076250308</v>
+        <v>0.04196610112758646</v>
       </c>
       <c r="L89" t="n">
-        <v>0.003749371588958693</v>
+        <v>0.004896045131551752</v>
       </c>
       <c r="M89" t="n">
-        <v>0.07123806019021514</v>
+        <v>0.09302485749948332</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1496159208712566</v>
+        <v>0.1957512960064309</v>
       </c>
       <c r="O89" t="n">
-        <v>2.842702496553875</v>
+        <v>3.719274624122188</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5189,46 +5189,46 @@
         <v>1988</v>
       </c>
       <c r="B90" t="n">
-        <v>7.728811355387215</v>
+        <v>6.534773073871226</v>
       </c>
       <c r="C90" t="n">
-        <v>10.83594791283362</v>
+        <v>10.06838013270938</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.4505324204277113</v>
       </c>
       <c r="E90" t="n">
-        <v>10.83594791283362</v>
+        <v>10.06838013270938</v>
       </c>
       <c r="F90" t="n">
-        <v>3.662607258970992</v>
+        <v>4.708618064421971</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3919371985010966</v>
+        <v>0.5147870336157956</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1152211362940993</v>
+        <v>0.1472559726301184</v>
       </c>
       <c r="I90" t="n">
-        <v>3.1554489241758</v>
+        <v>4.046575058176058</v>
       </c>
       <c r="J90" t="n">
-        <v>0.08065479540586945</v>
+        <v>0.1030791808410828</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03456634088822978</v>
+        <v>0.0441767917890355</v>
       </c>
       <c r="L90" t="n">
-        <v>0.004032739770293474</v>
+        <v>0.005153959042054142</v>
       </c>
       <c r="M90" t="n">
-        <v>0.07662205563557598</v>
+        <v>0.0979252217990287</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1595007632532014</v>
+        <v>0.2045375924982547</v>
       </c>
       <c r="O90" t="n">
-        <v>3.030514501810827</v>
+        <v>3.88621425746684</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5242,46 +5242,46 @@
         <v>1989</v>
       </c>
       <c r="B91" t="n">
-        <v>8.383753233104876</v>
+        <v>6.951973445017396</v>
       </c>
       <c r="C91" t="n">
-        <v>11.70370975114997</v>
+        <v>10.60519039690503</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>0.5132181314458938</v>
       </c>
       <c r="E91" t="n">
-        <v>11.70370975114997</v>
+        <v>10.60519039690503</v>
       </c>
       <c r="F91" t="n">
-        <v>3.895011631030851</v>
+        <v>4.885812141385514</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4003205594044466</v>
+        <v>0.5000910010344248</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1249722637436758</v>
+        <v>0.1560017004405624</v>
       </c>
       <c r="I91" t="n">
-        <v>3.369718807882742</v>
+        <v>4.229719439910526</v>
       </c>
       <c r="J91" t="n">
-        <v>0.08748058462057316</v>
+        <v>0.1092011903083937</v>
       </c>
       <c r="K91" t="n">
-        <v>0.03749167912310278</v>
+        <v>0.0468005101321687</v>
       </c>
       <c r="L91" t="n">
-        <v>0.004374029231028658</v>
+        <v>0.005460059515419683</v>
       </c>
       <c r="M91" t="n">
-        <v>0.08310655538954449</v>
+        <v>0.103741130792974</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1703605243502922</v>
+        <v>0.2138259975021346</v>
       </c>
       <c r="O91" t="n">
-        <v>3.236849962655552</v>
+        <v>4.062693952540556</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -5295,46 +5295,46 @@
         <v>1990</v>
       </c>
       <c r="B92" t="n">
-        <v>9.067228125245355</v>
+        <v>7.732564690175723</v>
       </c>
       <c r="C92" t="n">
-        <v>12.62235075651687</v>
+        <v>11.70129699061663</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>0.3931352767383892</v>
       </c>
       <c r="E92" t="n">
-        <v>12.62235075651687</v>
+        <v>11.70129699061663</v>
       </c>
       <c r="F92" t="n">
-        <v>4.151720821692239</v>
+        <v>5.076883274426002</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4094864729853884</v>
+        <v>0.4854437195004228</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1370893961709882</v>
+        <v>0.1668709137204112</v>
       </c>
       <c r="I92" t="n">
-        <v>3.605144952535865</v>
+        <v>4.424568641205167</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09596257731969175</v>
+        <v>0.116809639604288</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04112681885129645</v>
+        <v>0.05006127411612341</v>
       </c>
       <c r="L92" t="n">
-        <v>0.004798128865984589</v>
+        <v>0.005840481980214398</v>
       </c>
       <c r="M92" t="n">
-        <v>0.09116444845370716</v>
+        <v>0.1109691576240736</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1823135885693583</v>
+        <v>0.2237314957660644</v>
       </c>
       <c r="O92" t="n">
-        <v>3.463958182817807</v>
+        <v>4.250898419555224</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -5348,46 +5348,46 @@
         <v>1991</v>
       </c>
       <c r="B93" t="n">
-        <v>9.918259259835144</v>
+        <v>8.098633226736771</v>
       </c>
       <c r="C93" t="n">
-        <v>13.73327540270258</v>
+        <v>12.15015025620565</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>0.5206379155616649</v>
       </c>
       <c r="E93" t="n">
-        <v>13.73327540270259</v>
+        <v>12.15015025620565</v>
       </c>
       <c r="F93" t="n">
-        <v>4.435311242011473</v>
+        <v>5.283769646936467</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4195047758352188</v>
+        <v>0.4709749679569521</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1524998166381014</v>
+        <v>0.1808071366850772</v>
       </c>
       <c r="I93" t="n">
-        <v>3.863306649538149</v>
+        <v>4.631987542294436</v>
       </c>
       <c r="J93" t="n">
-        <v>0.106749871646671</v>
+        <v>0.126564995679554</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04574994499143042</v>
+        <v>0.05424214100552315</v>
       </c>
       <c r="L93" t="n">
-        <v>0.005337493582333551</v>
+        <v>0.006328249783977702</v>
       </c>
       <c r="M93" t="n">
-        <v>0.1014123780643374</v>
+        <v>0.1202367458955764</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1954528297264791</v>
+        <v>0.2343114841649982</v>
       </c>
       <c r="O93" t="n">
-        <v>3.7136037648031</v>
+        <v>4.451918199134966</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -5401,46 +5401,46 @@
         <v>1992</v>
       </c>
       <c r="B94" t="n">
-        <v>10.80560387077906</v>
+        <v>8.555844590534422</v>
       </c>
       <c r="C94" t="n">
-        <v>14.9070836140786</v>
+        <v>12.74381446440137</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>0.610242833852226</v>
       </c>
       <c r="E94" t="n">
-        <v>14.9070836140786</v>
+        <v>12.74381446440137</v>
       </c>
       <c r="F94" t="n">
-        <v>4.747708848959265</v>
+        <v>5.507463617245771</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4303617507492168</v>
+        <v>0.4567133985940036</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1723251610992703</v>
+        <v>0.1989348442507512</v>
       </c>
       <c r="I94" t="n">
-        <v>4.145021937110776</v>
+        <v>4.851815374401017</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1206276127694892</v>
+        <v>0.1392543909755257</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0516975483297811</v>
+        <v>0.05968045327522531</v>
       </c>
       <c r="L94" t="n">
-        <v>0.006031380638474463</v>
+        <v>0.006962719548776286</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1145962321310148</v>
+        <v>0.1322916714267495</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2098359742720275</v>
+        <v>0.2455747913838121</v>
       </c>
       <c r="O94" t="n">
-        <v>3.986883511168522</v>
+        <v>4.665921036292429</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -5454,46 +5454,46 @@
         <v>1993</v>
       </c>
       <c r="B95" t="n">
-        <v>11.73672544550648</v>
+        <v>8.932928070352611</v>
       </c>
       <c r="C95" t="n">
-        <v>16.15254653538332</v>
+        <v>13.22381478175301</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>0.7499107492550926</v>
       </c>
       <c r="E95" t="n">
-        <v>16.15254653538332</v>
+        <v>13.22381478175301</v>
       </c>
       <c r="F95" t="n">
-        <v>5.090196902014091</v>
+        <v>5.748742292319313</v>
       </c>
       <c r="G95" t="n">
-        <v>0.441964175827937</v>
+        <v>0.4426397021556401</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1978163986983907</v>
+        <v>0.2224989107483024</v>
       </c>
       <c r="I95" t="n">
-        <v>4.450416327487757</v>
+        <v>5.083603679415375</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1384714790888736</v>
+        <v>0.1557492375238118</v>
       </c>
       <c r="K95" t="n">
-        <v>0.05934491960951725</v>
+        <v>0.06674967322449074</v>
       </c>
       <c r="L95" t="n">
-        <v>0.00692357395444368</v>
+        <v>0.007787461876190588</v>
       </c>
       <c r="M95" t="n">
-        <v>0.1315479051344299</v>
+        <v>0.1479617756476211</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2254880623548639</v>
+        <v>0.2575176676319932</v>
       </c>
       <c r="O95" t="n">
-        <v>4.284273184742414</v>
+        <v>4.89283568500787</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5507,46 +5507,46 @@
         <v>1994</v>
       </c>
       <c r="B96" t="n">
-        <v>12.71875794859675</v>
+        <v>9.61669485303352</v>
       </c>
       <c r="C96" t="n">
-        <v>17.47779507978552</v>
+        <v>14.16656025535655</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.7516809833701353</v>
       </c>
       <c r="E96" t="n">
-        <v>17.47779507978552</v>
+        <v>14.16656025535655</v>
       </c>
       <c r="F96" t="n">
-        <v>5.463668470532991</v>
+        <v>6.0093195876742</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4541557008605959</v>
+        <v>0.4287444448392769</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2302484572284473</v>
+        <v>0.2527743132937678</v>
       </c>
       <c r="I96" t="n">
-        <v>4.77926431244394</v>
+        <v>5.327800829541149</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1611739200599131</v>
+        <v>0.1769420193056374</v>
       </c>
       <c r="K96" t="n">
-        <v>0.06907453716853421</v>
+        <v>0.07583229398813029</v>
       </c>
       <c r="L96" t="n">
-        <v>0.008058696002995656</v>
+        <v>0.00884710096528187</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1531152240569175</v>
+        <v>0.1680949183403555</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2424169424806237</v>
+        <v>0.2701816561764637</v>
       </c>
       <c r="O96" t="n">
-        <v>4.605921907131851</v>
+        <v>5.133451467352811</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5560,46 +5560,46 @@
         <v>1995</v>
       </c>
       <c r="B97" t="n">
-        <v>13.63852110795781</v>
+        <v>10.19884434814469</v>
       </c>
       <c r="C97" t="n">
-        <v>18.88419963126952</v>
+        <v>15.00058305422018</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.8819099683786211</v>
       </c>
       <c r="E97" t="n">
-        <v>18.88419963126952</v>
+        <v>15.00058305422017</v>
       </c>
       <c r="F97" t="n">
-        <v>5.869073987499586</v>
+        <v>6.29278197616606</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3473071208556951</v>
+        <v>0.3099938977933249</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2773483974211842</v>
+        <v>0.2970325574811727</v>
       </c>
       <c r="I97" t="n">
-        <v>5.244418469222724</v>
+        <v>5.685755520891564</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1941438781948289</v>
+        <v>0.207922790236821</v>
       </c>
       <c r="K97" t="n">
-        <v>0.08320451922635529</v>
+        <v>0.08910976724435184</v>
       </c>
       <c r="L97" t="n">
-        <v>0.00970719390974145</v>
+        <v>0.01039613951184105</v>
       </c>
       <c r="M97" t="n">
-        <v>0.1844366842850875</v>
+        <v>0.1975266507249799</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2663811494224539</v>
+        <v>0.288743264406796</v>
       </c>
       <c r="O97" t="n">
-        <v>5.061241839026624</v>
+        <v>5.486122023729125</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5613,46 +5613,46 @@
         <v>1996</v>
       </c>
       <c r="B98" t="n">
-        <v>14.86240168760793</v>
+        <v>11.08532290571155</v>
       </c>
       <c r="C98" t="n">
-        <v>20.49960419562446</v>
+        <v>16.23291866224717</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.816819626582595</v>
       </c>
       <c r="E98" t="n">
-        <v>20.49960419562446</v>
+        <v>16.23291866224718</v>
       </c>
       <c r="F98" t="n">
-        <v>6.307925725668424</v>
+        <v>6.604912683043813</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3740283488089066</v>
+        <v>0.3265807008141021</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3268403015127088</v>
+        <v>0.3431075368403788</v>
       </c>
       <c r="I98" t="n">
-        <v>5.607057075346804</v>
+        <v>5.935224445389324</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2287882110588961</v>
+        <v>0.2401752757882651</v>
       </c>
       <c r="K98" t="n">
-        <v>0.09805209045381263</v>
+        <v>0.1029322610521136</v>
       </c>
       <c r="L98" t="n">
-        <v>0.01143941055294481</v>
+        <v>0.01200876378941325</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2173488005059513</v>
+        <v>0.2281665119988518</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2852554582900308</v>
+        <v>0.3019078353220718</v>
       </c>
       <c r="O98" t="n">
-        <v>5.419853707510586</v>
+        <v>5.736248871119366</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5666,46 +5666,46 @@
         <v>1997</v>
       </c>
       <c r="B99" t="n">
-        <v>16.14557602732021</v>
+        <v>11.97742628865367</v>
       </c>
       <c r="C99" t="n">
-        <v>22.20644918120961</v>
+        <v>17.47568760831992</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.7796777933575846</v>
       </c>
       <c r="E99" t="n">
-        <v>22.20644918120961</v>
+        <v>17.47568760831992</v>
       </c>
       <c r="F99" t="n">
-        <v>6.78267143596442</v>
+        <v>6.952981828280524</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4028049581860883</v>
+        <v>0.3446248672027885</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3858122957569509</v>
+        <v>0.3982790923865274</v>
       </c>
       <c r="I99" t="n">
-        <v>5.994054182021385</v>
+        <v>6.210077868691187</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2700686070298656</v>
+        <v>0.2787953646705692</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1157436887270852</v>
+        <v>0.1194837277159582</v>
       </c>
       <c r="L99" t="n">
-        <v>0.01350343035149328</v>
+        <v>0.01393976823352845</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2565651766783723</v>
+        <v>0.2648555964370407</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3054898935374229</v>
+        <v>0.3164780798203576</v>
       </c>
       <c r="O99" t="n">
-        <v>5.804307977211035</v>
+        <v>6.013083516586794</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5719,46 +5719,46 @@
         <v>1998</v>
       </c>
       <c r="B100" t="n">
-        <v>17.48129677706358</v>
+        <v>12.70431478551022</v>
       </c>
       <c r="C100" t="n">
-        <v>24.00116840916332</v>
+        <v>18.48292995567607</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.8522129689820854</v>
       </c>
       <c r="E100" t="n">
-        <v>24.00116840916332</v>
+        <v>18.48292995567606</v>
       </c>
       <c r="F100" t="n">
-        <v>7.296821335414607</v>
+        <v>7.344181730018353</v>
       </c>
       <c r="G100" t="n">
-        <v>0.433798564783296</v>
+        <v>0.3643626361784272</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4545278240957051</v>
+        <v>0.4626485688806732</v>
       </c>
       <c r="I100" t="n">
-        <v>6.408494946535606</v>
+        <v>6.517170524959267</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3181694768669936</v>
+        <v>0.3238539982164712</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1363583472287115</v>
+        <v>0.1387945706642019</v>
       </c>
       <c r="L100" t="n">
-        <v>0.01590847384334968</v>
+        <v>0.01619269991082356</v>
       </c>
       <c r="M100" t="n">
-        <v>0.3022610030236439</v>
+        <v>0.3076612983056475</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3272426646882156</v>
+        <v>0.3327982547811729</v>
       </c>
       <c r="O100" t="n">
-        <v>6.217610629076096</v>
+        <v>6.323166840842285</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5772,46 +5772,46 @@
         <v>1999</v>
       </c>
       <c r="B101" t="n">
-        <v>18.86603684574176</v>
+        <v>13.89105603585598</v>
       </c>
       <c r="C101" t="n">
-        <v>25.88417699296133</v>
+        <v>20.16214256540783</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.7567141704229547</v>
       </c>
       <c r="E101" t="n">
-        <v>25.88417699296131</v>
+        <v>20.16214256540783</v>
       </c>
       <c r="F101" t="n">
-        <v>7.854775474744732</v>
+        <v>7.783660724086149</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4672595303031036</v>
+        <v>0.3859757767442735</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5329962463415562</v>
+        <v>0.5358899743777132</v>
       </c>
       <c r="I101" t="n">
-        <v>6.854519698100094</v>
+        <v>6.861794972964177</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3730973724390893</v>
+        <v>0.3751229820643991</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1598988739024668</v>
+        <v>0.1607669923133139</v>
       </c>
       <c r="L101" t="n">
-        <v>0.01865486862195446</v>
+        <v>0.01875614910321996</v>
       </c>
       <c r="M101" t="n">
-        <v>0.3544425038171347</v>
+        <v>0.3563668329611792</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3507209286001274</v>
+        <v>0.3511280982638746</v>
       </c>
       <c r="O101" t="n">
-        <v>6.663697643402423</v>
+        <v>6.671433867013619</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5825,46 +5825,46 @@
         <v>2000</v>
       </c>
       <c r="B102" t="n">
-        <v>20.3092274956126</v>
+        <v>14.94423922759077</v>
       </c>
       <c r="C102" t="n">
-        <v>27.86925146271627</v>
+        <v>21.65118276145365</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.7631493720943558</v>
       </c>
       <c r="E102" t="n">
-        <v>27.86925146271627</v>
+        <v>21.65118276145365</v>
       </c>
       <c r="F102" t="n">
-        <v>8.461442147970862</v>
+        <v>8.272791486806781</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5035221825985924</v>
+        <v>0.4095357963254733</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6210632189450225</v>
+        <v>0.6172640254968308</v>
       </c>
       <c r="I102" t="n">
-        <v>7.336856746427269</v>
+        <v>7.245991664984476</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4347442532615157</v>
+        <v>0.4320848178477812</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1863189656835068</v>
+        <v>0.1851792076490491</v>
       </c>
       <c r="L102" t="n">
-        <v>0.02173721266307579</v>
+        <v>0.02160424089238907</v>
       </c>
       <c r="M102" t="n">
-        <v>0.41300704059844</v>
+        <v>0.4104805769553923</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3761587856055382</v>
+        <v>0.371558543631676</v>
       </c>
       <c r="O102" t="n">
-        <v>7.147016926505227</v>
+        <v>7.059612329001846</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -5878,46 +5878,46 @@
         <v>2001</v>
       </c>
       <c r="B103" t="n">
-        <v>21.52906479298959</v>
+        <v>15.06506616369104</v>
       </c>
       <c r="C103" t="n">
-        <v>29.67893729575596</v>
+        <v>21.83305581041606</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1.186843609858095</v>
       </c>
       <c r="E103" t="n">
-        <v>29.67893729575596</v>
+        <v>21.83305581041606</v>
       </c>
       <c r="F103" t="n">
-        <v>9.12180191037535</v>
+        <v>8.808500090402186</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5429887495686379</v>
+        <v>0.4349913992620372</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7185158291067386</v>
+        <v>0.705697971280644</v>
       </c>
       <c r="I103" t="n">
-        <v>7.860297331699955</v>
+        <v>7.667810719859478</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5029610803747172</v>
+        <v>0.4939885798964505</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2155547487320216</v>
+        <v>0.2117093913841931</v>
       </c>
       <c r="L103" t="n">
-        <v>0.02514805401873586</v>
+        <v>0.02469942899482253</v>
       </c>
       <c r="M103" t="n">
-        <v>0.4778130263559813</v>
+        <v>0.469289150901628</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4037926040215997</v>
+        <v>0.3939760055621839</v>
       </c>
       <c r="O103" t="n">
-        <v>7.672059476410391</v>
+        <v>7.485544105681495</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -5931,46 +5931,46 @@
         <v>2002</v>
       </c>
       <c r="B104" t="n">
-        <v>23.16470869720548</v>
+        <v>16.0805801293499</v>
       </c>
       <c r="C104" t="n">
-        <v>31.95649829823761</v>
+        <v>23.27474777523325</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1.281634794180793</v>
       </c>
       <c r="E104" t="n">
-        <v>31.9564982982376</v>
+        <v>23.27474777523326</v>
       </c>
       <c r="F104" t="n">
-        <v>9.840627189930093</v>
+        <v>9.384116741559323</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5861118204225867</v>
+        <v>0.4622194362286282</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8251865658535784</v>
+        <v>0.7999490202226864</v>
       </c>
       <c r="I104" t="n">
-        <v>8.429328803653927</v>
+        <v>8.121948285107981</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5776305960975044</v>
+        <v>0.5599643141558807</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2475559697560734</v>
+        <v>0.239984706066806</v>
       </c>
       <c r="L104" t="n">
-        <v>0.02888152980487523</v>
+        <v>0.02799821570779402</v>
       </c>
       <c r="M104" t="n">
-        <v>0.5487490662926293</v>
+        <v>0.5319660984480862</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4338442386705001</v>
+        <v>0.4180966495587394</v>
       </c>
       <c r="O104" t="n">
-        <v>8.243040534739503</v>
+        <v>7.943836341616048</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -5984,46 +5984,46 @@
         <v>2003</v>
       </c>
       <c r="B105" t="n">
-        <v>25.61682836721571</v>
+        <v>17.24505418121921</v>
       </c>
       <c r="C105" t="n">
-        <v>35.10639525044857</v>
+        <v>24.86972827207047</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1.400550655290121</v>
       </c>
       <c r="E105" t="n">
-        <v>35.10639525044858</v>
+        <v>24.86972827207048</v>
       </c>
       <c r="F105" t="n">
-        <v>10.62239466337435</v>
+        <v>9.991340560426947</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6333768915502709</v>
+        <v>0.4911039855413066</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9410341640843113</v>
+        <v>0.8988076198045603</v>
       </c>
       <c r="I105" t="n">
-        <v>9.047983607739774</v>
+        <v>8.601428955081099</v>
       </c>
       <c r="J105" t="n">
-        <v>0.6587239148590174</v>
+        <v>0.6291653338631917</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2823102492252932</v>
+        <v>0.2696422859413679</v>
       </c>
       <c r="L105" t="n">
-        <v>0.03293619574295088</v>
+        <v>0.03145826669315959</v>
       </c>
       <c r="M105" t="n">
-        <v>0.6257877191160665</v>
+        <v>0.5977070671700323</v>
       </c>
       <c r="N105" t="n">
-        <v>0.466514692848253</v>
+        <v>0.4435535620511236</v>
       </c>
       <c r="O105" t="n">
-        <v>8.86377916411681</v>
+        <v>8.427517678971345</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -6037,46 +6037,46 @@
         <v>2004</v>
       </c>
       <c r="B106" t="n">
-        <v>28.33903125540199</v>
+        <v>19.1291206919339</v>
       </c>
       <c r="C106" t="n">
-        <v>38.58584585341514</v>
+        <v>27.47247966402889</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1.252961542478843</v>
       </c>
       <c r="E106" t="n">
-        <v>38.58584585341512</v>
+        <v>27.4724796640289</v>
       </c>
       <c r="F106" t="n">
-        <v>11.47141073629234</v>
+        <v>10.62303480685961</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6852901068048161</v>
+        <v>0.5216447915187167</v>
       </c>
       <c r="H106" t="n">
-        <v>1.066196865923339</v>
+        <v>1.001345536540408</v>
       </c>
       <c r="I106" t="n">
-        <v>9.719923763564188</v>
+        <v>9.100044478800482</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7463378061463369</v>
+        <v>0.7009418755782842</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3198590597770015</v>
+        <v>0.3004036609621219</v>
       </c>
       <c r="L106" t="n">
-        <v>0.03731689030731686</v>
+        <v>0.03504709377891421</v>
       </c>
       <c r="M106" t="n">
-        <v>0.7090209158390203</v>
+        <v>0.6658947817993699</v>
       </c>
       <c r="N106" t="n">
-        <v>0.5019891411670589</v>
+        <v>0.4700224069881299</v>
       </c>
       <c r="O106" t="n">
-        <v>9.53779368217412</v>
+        <v>8.930425732774468</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -6090,46 +6090,46 @@
         <v>2005</v>
       </c>
       <c r="B107" t="n">
-        <v>31.19866495178711</v>
+        <v>21.14149184989295</v>
       </c>
       <c r="C107" t="n">
-        <v>42.26590601235014</v>
+        <v>30.24816565909692</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1.078772821157917</v>
       </c>
       <c r="E107" t="n">
-        <v>42.26590601235013</v>
+        <v>30.24816565909691</v>
       </c>
       <c r="F107" t="n">
-        <v>12.39209860971879</v>
+        <v>11.27555339124476</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7423711775471842</v>
+        <v>0.5540306224427676</v>
       </c>
       <c r="H107" t="n">
-        <v>1.201021972706486</v>
+        <v>1.107101525914756</v>
       </c>
       <c r="I107" t="n">
-        <v>10.44870545946513</v>
+        <v>9.614421242887207</v>
       </c>
       <c r="J107" t="n">
-        <v>0.8407153808945398</v>
+        <v>0.7749710681403296</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3603065918119458</v>
+        <v>0.3321304577744272</v>
       </c>
       <c r="L107" t="n">
-        <v>0.042035769044727</v>
+        <v>0.0387485534070165</v>
       </c>
       <c r="M107" t="n">
-        <v>0.7986796118498132</v>
+        <v>0.7362225147333133</v>
       </c>
       <c r="N107" t="n">
-        <v>0.540450602563853</v>
+        <v>0.4973275850330823</v>
       </c>
       <c r="O107" t="n">
-        <v>10.26856144871321</v>
+        <v>9.449224115628565</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6143,46 +6143,46 @@
         <v>2006</v>
       </c>
       <c r="B108" t="n">
-        <v>32.98087007413067</v>
+        <v>22.78000570979693</v>
       </c>
       <c r="C108" t="n">
-        <v>44.93576872973179</v>
+        <v>32.59332837327072</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.9799313479735949</v>
       </c>
       <c r="E108" t="n">
-        <v>44.93576872973181</v>
+        <v>32.59332837327072</v>
       </c>
       <c r="F108" t="n">
-        <v>13.38924892150854</v>
+        <v>11.94999151487746</v>
       </c>
       <c r="G108" t="n">
-        <v>0.8051450735073482</v>
+        <v>0.5886715028276057</v>
       </c>
       <c r="H108" t="n">
-        <v>1.346064683057886</v>
+        <v>1.216169597771753</v>
       </c>
       <c r="I108" t="n">
-        <v>11.23803916494331</v>
+        <v>10.14515041427811</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9422452781405208</v>
+        <v>0.8513187184402283</v>
       </c>
       <c r="K108" t="n">
-        <v>0.403819404917366</v>
+        <v>0.3648508793315264</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04711226390702604</v>
+        <v>0.04256593592201141</v>
       </c>
       <c r="M108" t="n">
-        <v>0.8951330142334947</v>
+        <v>0.8087527825182168</v>
       </c>
       <c r="N108" t="n">
-        <v>0.5820929284930334</v>
+        <v>0.525500064680482</v>
       </c>
       <c r="O108" t="n">
-        <v>11.05976564136763</v>
+        <v>9.98450122892916</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -6196,46 +6196,46 @@
         <v>2007</v>
       </c>
       <c r="B109" t="n">
-        <v>34.44486646795255</v>
+        <v>24.29351035515877</v>
       </c>
       <c r="C109" t="n">
-        <v>47.35929930440431</v>
+        <v>34.79768967814404</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.9203610648209872</v>
       </c>
       <c r="E109" t="n">
-        <v>47.35929930440432</v>
+        <v>34.79768967814404</v>
       </c>
       <c r="F109" t="n">
-        <v>14.46827836333312</v>
+        <v>12.65200304455796</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8741385354891777</v>
+        <v>0.6261710573934774</v>
       </c>
       <c r="H109" t="n">
-        <v>1.502080210431748</v>
+        <v>1.329162020211691</v>
       </c>
       <c r="I109" t="n">
-        <v>12.09205961741221</v>
+        <v>10.6966699669528</v>
       </c>
       <c r="J109" t="n">
-        <v>1.051456147302223</v>
+        <v>0.9304134141481836</v>
       </c>
       <c r="K109" t="n">
-        <v>0.4506240631295244</v>
+        <v>0.3987486060635073</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05257280736511117</v>
+        <v>0.04652067070740919</v>
       </c>
       <c r="M109" t="n">
-        <v>0.9988833399371119</v>
+        <v>0.8838927434407744</v>
       </c>
       <c r="N109" t="n">
-        <v>0.627134184027087</v>
+        <v>0.5547709286508147</v>
       </c>
       <c r="O109" t="n">
-        <v>11.91554949651465</v>
+        <v>10.54064764436548</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -6249,46 +6249,46 @@
         <v>2008</v>
       </c>
       <c r="B110" t="n">
-        <v>35.99779999661326</v>
+        <v>24.62573641254541</v>
       </c>
       <c r="C110" t="n">
-        <v>49.97152138176251</v>
+        <v>35.35280986659711</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1.372742055102471</v>
       </c>
       <c r="E110" t="n">
-        <v>49.97152138176254</v>
+        <v>35.35280986659711</v>
       </c>
       <c r="F110" t="n">
-        <v>15.63532055433391</v>
+        <v>13.39049397383479</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9261401489136417</v>
+        <v>0.6538460694619836</v>
       </c>
       <c r="H110" t="n">
-        <v>1.672834559733693</v>
+        <v>1.448687068946946</v>
       </c>
       <c r="I110" t="n">
-        <v>13.03634584568659</v>
+        <v>11.28796083542588</v>
       </c>
       <c r="J110" t="n">
-        <v>1.170984191813584</v>
+        <v>1.014080948262863</v>
       </c>
       <c r="K110" t="n">
-        <v>0.5018503679201075</v>
+        <v>0.4346061206840838</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05854920959067921</v>
+        <v>0.05070404741314313</v>
       </c>
       <c r="M110" t="n">
-        <v>1.112434982222905</v>
+        <v>0.9633769008497194</v>
       </c>
       <c r="N110" t="n">
-        <v>0.6769098106803352</v>
+        <v>0.5861283478054979</v>
       </c>
       <c r="O110" t="n">
-        <v>12.86128640292636</v>
+        <v>11.13643860830446</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6302,46 +6302,46 @@
         <v>2009</v>
       </c>
       <c r="B111" t="n">
-        <v>37.31318191314007</v>
+        <v>23.06164265806218</v>
       </c>
       <c r="C111" t="n">
-        <v>52.41103899180159</v>
+        <v>33.29634133807617</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>2.570906478388885</v>
       </c>
       <c r="E111" t="n">
-        <v>52.4110389918016</v>
+        <v>33.29634133807618</v>
       </c>
       <c r="F111" t="n">
-        <v>16.89725124695648</v>
+        <v>14.17605569495872</v>
       </c>
       <c r="G111" t="n">
-        <v>1.004770111523327</v>
+        <v>0.6964713176925234</v>
       </c>
       <c r="H111" t="n">
-        <v>1.854330021547832</v>
+        <v>1.573128698579804</v>
       </c>
       <c r="I111" t="n">
-        <v>14.03815111388533</v>
+        <v>11.90645567868637</v>
       </c>
       <c r="J111" t="n">
-        <v>1.298031015083482</v>
+        <v>1.101190089005863</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5562990064643497</v>
+        <v>0.4719386095739415</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06490155075417411</v>
+        <v>0.0550595044502932</v>
       </c>
       <c r="M111" t="n">
-        <v>1.233129464329309</v>
+        <v>1.046130584555571</v>
       </c>
       <c r="N111" t="n">
-        <v>0.7297225060174857</v>
+        <v>0.6189197144130163</v>
       </c>
       <c r="O111" t="n">
-        <v>13.86472761433222</v>
+        <v>11.75947457384731</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6355,46 +6355,46 @@
         <v>2010</v>
       </c>
       <c r="B112" t="n">
-        <v>38.53270291330154</v>
+        <v>26.88585565741073</v>
       </c>
       <c r="C112" t="n">
-        <v>55.26574352741148</v>
+        <v>38.91827020803096</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1.950076841777767</v>
       </c>
       <c r="E112" t="n">
-        <v>55.26574352741153</v>
+        <v>38.91827020803095</v>
       </c>
       <c r="F112" t="n">
-        <v>18.26171875765548</v>
+        <v>15.02004125513028</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6479917954345021</v>
+        <v>0.301629263132358</v>
       </c>
       <c r="H112" t="n">
-        <v>2.101947885417857</v>
+        <v>1.756810607557083</v>
       </c>
       <c r="I112" t="n">
-        <v>15.51177907680317</v>
+        <v>12.96160138444084</v>
       </c>
       <c r="J112" t="n">
-        <v>1.471363519792502</v>
+        <v>1.229767425289958</v>
       </c>
       <c r="K112" t="n">
-        <v>0.6305843656253578</v>
+        <v>0.527043182267125</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07356817598962509</v>
+        <v>0.0614883712644979</v>
       </c>
       <c r="M112" t="n">
-        <v>1.397795343802876</v>
+        <v>1.16827905402546</v>
       </c>
       <c r="N112" t="n">
-        <v>0.8071181721214243</v>
+        <v>0.6744322283353975</v>
       </c>
       <c r="O112" t="n">
-        <v>15.33524527030706</v>
+        <v>12.81421233837255</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -6408,46 +6408,46 @@
         <v>2011</v>
       </c>
       <c r="B113" t="n">
-        <v>40.79939021894846</v>
+        <v>28.53445176177642</v>
       </c>
       <c r="C113" t="n">
-        <v>58.87040531933942</v>
+        <v>41.27977727991384</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>2.075796224066713</v>
       </c>
       <c r="E113" t="n">
-        <v>58.8704053193394</v>
+        <v>41.27977727991384</v>
       </c>
       <c r="F113" t="n">
-        <v>19.73710300499457</v>
+        <v>15.93336137976604</v>
       </c>
       <c r="G113" t="n">
-        <v>0.714981846688314</v>
+        <v>0.3321805984985342</v>
       </c>
       <c r="H113" t="n">
-        <v>2.31772477082815</v>
+        <v>1.9017857217854</v>
       </c>
       <c r="I113" t="n">
-        <v>16.70439638747812</v>
+        <v>13.69939505948208</v>
       </c>
       <c r="J113" t="n">
-        <v>1.622407339579706</v>
+        <v>1.33125000524978</v>
       </c>
       <c r="K113" t="n">
-        <v>0.6953174312484455</v>
+        <v>0.5705357165356204</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08112036697898529</v>
+        <v>0.06656250026248904</v>
       </c>
       <c r="M113" t="n">
-        <v>1.541286972600721</v>
+        <v>1.264687504987292</v>
       </c>
       <c r="N113" t="n">
-        <v>0.8699856909363285</v>
+        <v>0.7134965388008861</v>
       </c>
       <c r="O113" t="n">
-        <v>16.52972812779025</v>
+        <v>13.55643423721684</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6461,46 +6461,46 @@
         <v>2012</v>
       </c>
       <c r="B114" t="n">
-        <v>43.03447868196191</v>
+        <v>30.86852223190524</v>
       </c>
       <c r="C114" t="n">
-        <v>62.55072668345144</v>
+        <v>44.53817057768306</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>2.06232713847598</v>
       </c>
       <c r="E114" t="n">
-        <v>62.55072668345145</v>
+        <v>44.5381705776831</v>
       </c>
       <c r="F114" t="n">
-        <v>21.33235795471774</v>
+        <v>16.92673092202409</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7889390057814439</v>
+        <v>0.3667567280727583</v>
       </c>
       <c r="H114" t="n">
-        <v>2.550764993437445</v>
+        <v>2.057559767646614</v>
       </c>
       <c r="I114" t="n">
-        <v>17.99265395549892</v>
+        <v>14.50241442630475</v>
       </c>
       <c r="J114" t="n">
-        <v>1.785535495406209</v>
+        <v>1.44029183735263</v>
       </c>
       <c r="K114" t="n">
-        <v>0.7652294980312322</v>
+        <v>0.6172679302939842</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08927677477031044</v>
+        <v>0.0720145918676315</v>
       </c>
       <c r="M114" t="n">
-        <v>1.696258720635899</v>
+        <v>1.368277245484998</v>
       </c>
       <c r="N114" t="n">
-        <v>0.9378941726765063</v>
+        <v>0.7559841178299371</v>
       </c>
       <c r="O114" t="n">
-        <v>17.81998928085362</v>
+        <v>14.36369823876881</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -6514,46 +6514,46 @@
         <v>2013</v>
       </c>
       <c r="B115" t="n">
-        <v>45.55413567694195</v>
+        <v>32.98284653899051</v>
       </c>
       <c r="C115" t="n">
-        <v>66.63099116507644</v>
+        <v>47.48719224347603</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>2.2195917060949</v>
       </c>
       <c r="E115" t="n">
-        <v>66.63099116507645</v>
+        <v>47.48719224347599</v>
       </c>
       <c r="F115" t="n">
-        <v>23.05664609925314</v>
+        <v>18.01009038891617</v>
       </c>
       <c r="G115" t="n">
-        <v>0.870482427532682</v>
+        <v>0.4059457461999856</v>
       </c>
       <c r="H115" t="n">
-        <v>2.802541120871313</v>
+        <v>2.22561805390585</v>
       </c>
       <c r="I115" t="n">
-        <v>19.38362255084913</v>
+        <v>15.37852658881037</v>
       </c>
       <c r="J115" t="n">
-        <v>1.96177878460992</v>
+        <v>1.557932637734094</v>
       </c>
       <c r="K115" t="n">
-        <v>0.8407623362613943</v>
+        <v>0.6676854161717549</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09808893923049601</v>
+        <v>0.07789663188670475</v>
       </c>
       <c r="M115" t="n">
-        <v>1.863689845379424</v>
+        <v>1.48003600584739</v>
       </c>
       <c r="N115" t="n">
-        <v>1.011219244355528</v>
+        <v>0.8023106002491061</v>
       </c>
       <c r="O115" t="n">
-        <v>19.21316564275503</v>
+        <v>15.24390140473301</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -6567,46 +6567,46 @@
         <v>2014</v>
       </c>
       <c r="B116" t="n">
-        <v>48.55749619010848</v>
+        <v>35.42131452504442</v>
       </c>
       <c r="C116" t="n">
-        <v>71.35622192922754</v>
+        <v>50.88915499454972</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>2.362409235563128</v>
       </c>
       <c r="E116" t="n">
-        <v>71.35622192922757</v>
+        <v>50.88915499454968</v>
       </c>
       <c r="F116" t="n">
-        <v>24.91850717779905</v>
+        <v>19.19201695182204</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9198485050420869</v>
+        <v>0.4233330517500055</v>
       </c>
       <c r="H116" t="n">
-        <v>3.079777952781366</v>
+        <v>2.41090426964533</v>
       </c>
       <c r="I116" t="n">
-        <v>20.91888071997557</v>
+        <v>16.35777963042669</v>
       </c>
       <c r="J116" t="n">
-        <v>2.155844566946954</v>
+        <v>1.687632988751731</v>
       </c>
       <c r="K116" t="n">
-        <v>0.923933385834409</v>
+        <v>0.7232712808935992</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1077922283473477</v>
+        <v>0.08438164943758658</v>
       </c>
       <c r="M116" t="n">
-        <v>2.048052338599606</v>
+        <v>1.603251339314145</v>
       </c>
       <c r="N116" t="n">
-        <v>1.092140705290499</v>
+        <v>0.8540525455660143</v>
       </c>
       <c r="O116" t="n">
-        <v>20.75067340051947</v>
+        <v>16.22699836575427</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -6620,46 +6620,46 @@
         <v>2015</v>
       </c>
       <c r="B117" t="n">
-        <v>51.68981323588291</v>
+        <v>37.24828787001455</v>
       </c>
       <c r="C117" t="n">
-        <v>76.30776642543557</v>
+        <v>53.42195489625384</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>2.837109257636589</v>
       </c>
       <c r="E117" t="n">
-        <v>76.30776642543567</v>
+        <v>53.42195489625382</v>
       </c>
       <c r="F117" t="n">
-        <v>26.92454568317987</v>
+        <v>20.47859527670142</v>
       </c>
       <c r="G117" t="n">
-        <v>1.010910746808613</v>
+        <v>0.4672518199899859</v>
       </c>
       <c r="H117" t="n">
-        <v>3.373996976501415</v>
+        <v>2.608166693006074</v>
       </c>
       <c r="I117" t="n">
-        <v>22.53963795986976</v>
+        <v>17.40317676370536</v>
       </c>
       <c r="J117" t="n">
-        <v>2.361797883550991</v>
+        <v>1.825716685104254</v>
       </c>
       <c r="K117" t="n">
-        <v>1.012199092950425</v>
+        <v>0.7824500079018231</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1180898941775496</v>
+        <v>0.09128583425521269</v>
       </c>
       <c r="M117" t="n">
-        <v>2.243707989373441</v>
+        <v>1.734430850849041</v>
       </c>
       <c r="N117" t="n">
-        <v>1.177591852641011</v>
+        <v>0.9092813385803591</v>
       </c>
       <c r="O117" t="n">
-        <v>22.37424520017922</v>
+        <v>17.27634543302682</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6673,46 +6673,46 @@
         <v>2016</v>
       </c>
       <c r="B118" t="n">
-        <v>54.90892981744472</v>
+        <v>39.84860028426063</v>
       </c>
       <c r="C118" t="n">
-        <v>81.47867853446489</v>
+        <v>57.03113428110638</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>3.106008986873838</v>
       </c>
       <c r="E118" t="n">
-        <v>81.47867853446492</v>
+        <v>57.03113428110639</v>
       </c>
       <c r="F118" t="n">
-        <v>29.07787201914574</v>
+        <v>21.87233954739412</v>
       </c>
       <c r="G118" t="n">
-        <v>1.109715474914016</v>
+        <v>0.5159785118998768</v>
       </c>
       <c r="H118" t="n">
-        <v>3.690337783736823</v>
+        <v>2.820893603974961</v>
       </c>
       <c r="I118" t="n">
-        <v>24.27781876049494</v>
+        <v>18.53546743151928</v>
       </c>
       <c r="J118" t="n">
-        <v>2.583236448615778</v>
+        <v>1.974625522782471</v>
       </c>
       <c r="K118" t="n">
-        <v>1.107101335121048</v>
+        <v>0.8462680811924873</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1291618224307889</v>
+        <v>0.09873127613912355</v>
       </c>
       <c r="M118" t="n">
-        <v>2.454074626184989</v>
+        <v>1.875894246643347</v>
       </c>
       <c r="N118" t="n">
-        <v>1.2692460047808</v>
+        <v>0.9690867756355899</v>
       </c>
       <c r="O118" t="n">
-        <v>24.11567409083519</v>
+        <v>18.41264873707622</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -6726,46 +6726,46 @@
         <v>2017</v>
       </c>
       <c r="B119" t="n">
-        <v>61.71492650839402</v>
+        <v>43.67182001238419</v>
       </c>
       <c r="C119" t="n">
-        <v>90.36763078706926</v>
+        <v>62.2299284860156</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>3.103578234400665</v>
       </c>
       <c r="E119" t="n">
-        <v>90.36763078706925</v>
+        <v>62.22992848601553</v>
       </c>
       <c r="F119" t="n">
-        <v>31.37689392909997</v>
+        <v>23.37139017179633</v>
       </c>
       <c r="G119" t="n">
-        <v>1.21615258312595</v>
+        <v>0.5696146896574276</v>
       </c>
       <c r="H119" t="n">
-        <v>4.028864951069711</v>
+        <v>3.049097859624001</v>
       </c>
       <c r="I119" t="n">
-        <v>26.13187639490427</v>
+        <v>19.75267762251497</v>
       </c>
       <c r="J119" t="n">
-        <v>2.820205465748798</v>
+        <v>2.134368501736801</v>
       </c>
       <c r="K119" t="n">
-        <v>1.208659485320914</v>
+        <v>0.9147293578872001</v>
       </c>
       <c r="L119" t="n">
-        <v>0.14101027328744</v>
+        <v>0.10671842508684</v>
       </c>
       <c r="M119" t="n">
-        <v>2.679195192461358</v>
+        <v>2.02765007664996</v>
       </c>
       <c r="N119" t="n">
-        <v>1.367026794011258</v>
+        <v>1.03337034902011</v>
       </c>
       <c r="O119" t="n">
-        <v>25.9735090862139</v>
+        <v>19.6340366313821</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6779,46 +6779,46 @@
         <v>2018</v>
       </c>
       <c r="B120" t="n">
-        <v>68.04686417136037</v>
+        <v>45.41881452386783</v>
       </c>
       <c r="C120" t="n">
-        <v>98.90763487473572</v>
+        <v>64.42473873489173</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>4.118566183999898</v>
       </c>
       <c r="E120" t="n">
-        <v>98.90763487473575</v>
+        <v>64.42473873489172</v>
       </c>
       <c r="F120" t="n">
-        <v>33.81482581348035</v>
+        <v>24.96961612151896</v>
       </c>
       <c r="G120" t="n">
-        <v>1.329804020453647</v>
+        <v>0.6280472846518895</v>
       </c>
       <c r="H120" t="n">
-        <v>4.388946822404344</v>
+        <v>3.292208515361215</v>
       </c>
       <c r="I120" t="n">
-        <v>28.09607497062228</v>
+        <v>21.04936032150599</v>
       </c>
       <c r="J120" t="n">
-        <v>3.072262775683035</v>
+        <v>2.304545960752848</v>
       </c>
       <c r="K120" t="n">
-        <v>1.316684046721301</v>
+        <v>0.9876625546083638</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1536131387841518</v>
+        <v>0.1152272980376424</v>
       </c>
       <c r="M120" t="n">
-        <v>2.918649636898884</v>
+        <v>2.189318662715206</v>
       </c>
       <c r="N120" t="n">
-        <v>1.470637950867183</v>
+        <v>1.101851143805715</v>
       </c>
       <c r="O120" t="n">
-        <v>27.94212106647648</v>
+        <v>20.93517173230858</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -6832,46 +6832,46 @@
         <v>2019</v>
       </c>
       <c r="B121" t="n">
-        <v>72.09885536267615</v>
+        <v>64.10763947522686</v>
       </c>
       <c r="C121" t="n">
-        <v>105.2833867332675</v>
+        <v>85.4557412983695</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>3.321553530257378</v>
       </c>
       <c r="E121" t="n">
-        <v>105.2833867332675</v>
+        <v>85.45574129836947</v>
       </c>
       <c r="F121" t="n">
-        <v>36.38107286061565</v>
+        <v>26.6590067288819</v>
       </c>
       <c r="G121" t="n">
-        <v>1.449987207361574</v>
+        <v>0.6909484621449834</v>
       </c>
       <c r="H121" t="n">
-        <v>4.769440059122014</v>
+        <v>3.54940704786994</v>
       </c>
       <c r="I121" t="n">
-        <v>30.16164559413206</v>
+        <v>22.41865121886692</v>
       </c>
       <c r="J121" t="n">
-        <v>3.33860804138541</v>
+        <v>2.484584933508958</v>
       </c>
       <c r="K121" t="n">
-        <v>1.430832017736604</v>
+        <v>1.064822114360982</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1669304020692704</v>
+        <v>0.1242292466754479</v>
       </c>
       <c r="M121" t="n">
-        <v>3.171677639316139</v>
+        <v>2.36035568683351</v>
       </c>
       <c r="N121" t="n">
-        <v>1.579623880593432</v>
+        <v>1.174173666661395</v>
       </c>
       <c r="O121" t="n">
-        <v>30.01285373127521</v>
+        <v>22.3092996665665</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -6885,46 +6885,46 @@
         <v>2020</v>
       </c>
       <c r="B122" t="n">
-        <v>76.24035465322309</v>
+        <v>61.63858221518523</v>
       </c>
       <c r="C122" t="n">
-        <v>111.8543888051666</v>
+        <v>84.50406033612971</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>3.424233876098944</v>
       </c>
       <c r="E122" t="n">
-        <v>111.8543888051667</v>
+        <v>84.5040603361297</v>
       </c>
       <c r="F122" t="n">
-        <v>39.06435274798992</v>
+        <v>28.43114265782432</v>
       </c>
       <c r="G122" t="n">
-        <v>1.575895745944168</v>
+        <v>0.7577616083047451</v>
       </c>
       <c r="H122" t="n">
-        <v>5.173235904039406</v>
+        <v>3.823058998889638</v>
       </c>
       <c r="I122" t="n">
-        <v>32.31522109800648</v>
+        <v>23.85032205062977</v>
       </c>
       <c r="J122" t="n">
-        <v>3.621265132827584</v>
+        <v>2.676141299222742</v>
       </c>
       <c r="K122" t="n">
-        <v>1.551970771211822</v>
+        <v>1.14691769966689</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1810632566413792</v>
+        <v>0.1338070649611371</v>
       </c>
       <c r="M122" t="n">
-        <v>3.440201876186205</v>
+        <v>2.542334234261605</v>
       </c>
       <c r="N122" t="n">
-        <v>1.693359593460912</v>
+        <v>1.249861987514832</v>
       </c>
       <c r="O122" t="n">
-        <v>32.17383227575733</v>
+        <v>23.74737776278181</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -6938,52 +6938,52 @@
         <v>2021</v>
       </c>
       <c r="B123" t="n">
-        <v>80.24034840796251</v>
+        <v>88.59587763501385</v>
       </c>
       <c r="C123" t="n">
-        <v>118.3830109382156</v>
+        <v>114.4636976935092</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>2.115648224423981</v>
       </c>
       <c r="E123" t="n">
-        <v>118.3830109382156</v>
+        <v>114.4636976935092</v>
       </c>
       <c r="F123" t="n">
-        <v>41.85698357823328</v>
+        <v>30.28411421157437</v>
       </c>
       <c r="G123" t="n">
-        <v>1.706812493756311</v>
+        <v>0.827831808501344</v>
       </c>
       <c r="H123" t="n">
-        <v>5.593596602198444</v>
+        <v>4.108496219279974</v>
       </c>
       <c r="I123" t="n">
-        <v>34.55657448227843</v>
+        <v>25.3477861837931</v>
       </c>
       <c r="J123" t="n">
-        <v>3.915517621538914</v>
+        <v>2.875947353495984</v>
       </c>
       <c r="K123" t="n">
-        <v>1.678078980659534</v>
+        <v>1.232548865783993</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1957758810769457</v>
+        <v>0.1437973676747992</v>
       </c>
       <c r="M123" t="n">
-        <v>3.719741740461968</v>
+        <v>2.732149985821184</v>
       </c>
       <c r="N123" t="n">
-        <v>1.811732673146903</v>
+        <v>1.329016752478851</v>
       </c>
       <c r="O123" t="n">
-        <v>34.19343465119255</v>
+        <v>25.08297617511751</v>
       </c>
       <c r="P123" t="n">
-        <v>0.2294861385986078</v>
+        <v>0.1683421219806544</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.2294861385986078</v>
+        <v>0.1683421219806544</v>
       </c>
     </row>
     <row r="124">
@@ -6991,52 +6991,52 @@
         <v>2022</v>
       </c>
       <c r="B124" t="n">
-        <v>84.26257763696479</v>
+        <v>78.25372517991902</v>
       </c>
       <c r="C124" t="n">
-        <v>125.033979026341</v>
+        <v>105.1902290531082</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>2.820097781276047</v>
       </c>
       <c r="E124" t="n">
-        <v>125.033979026341</v>
+        <v>105.1902290531082</v>
       </c>
       <c r="F124" t="n">
-        <v>44.75963204671818</v>
+        <v>32.22323697652185</v>
       </c>
       <c r="G124" t="n">
-        <v>1.842367426322195</v>
+        <v>0.9004983928743427</v>
       </c>
       <c r="H124" t="n">
-        <v>6.034001874694433</v>
+        <v>4.409228776801488</v>
       </c>
       <c r="I124" t="n">
-        <v>36.88326274570169</v>
+        <v>26.91350980684602</v>
       </c>
       <c r="J124" t="n">
-        <v>4.223801312286104</v>
+        <v>3.086460143761048</v>
       </c>
       <c r="K124" t="n">
-        <v>1.81020056240833</v>
+        <v>1.322768633040449</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2111900656143052</v>
+        <v>0.1543230071880524</v>
       </c>
       <c r="M124" t="n">
-        <v>4.012611246671798</v>
+        <v>2.932137136572996</v>
       </c>
       <c r="N124" t="n">
-        <v>1.934673165405494</v>
+        <v>1.411813921994329</v>
       </c>
       <c r="O124" t="n">
-        <v>36.26867294080166</v>
+        <v>26.46680499098702</v>
       </c>
       <c r="P124" t="n">
-        <v>0.4901172019027252</v>
+        <v>0.3576595269052301</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.4901172019027252</v>
+        <v>0.3576595269052301</v>
       </c>
     </row>
     <row r="125">
@@ -7044,52 +7044,52 @@
         <v>2023</v>
       </c>
       <c r="B125" t="n">
-        <v>88.35896729439672</v>
+        <v>81.27343980850978</v>
       </c>
       <c r="C125" t="n">
-        <v>131.8712312041254</v>
+        <v>109.1482484672265</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>3.753038156694164</v>
       </c>
       <c r="E125" t="n">
-        <v>131.8712312041253</v>
+        <v>109.1482484672265</v>
       </c>
       <c r="F125" t="n">
-        <v>47.78514844083077</v>
+        <v>34.26773289223675</v>
       </c>
       <c r="G125" t="n">
-        <v>1.982765377958593</v>
+        <v>0.9752625602252696</v>
       </c>
       <c r="H125" t="n">
-        <v>6.49716758053727</v>
+        <v>4.728839809478236</v>
       </c>
       <c r="I125" t="n">
-        <v>39.30521548233491</v>
+        <v>28.5636305225332</v>
       </c>
       <c r="J125" t="n">
-        <v>4.548017306376085</v>
+        <v>3.310187866634764</v>
       </c>
       <c r="K125" t="n">
-        <v>1.94915027416118</v>
+        <v>1.418651942843471</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2274008653188043</v>
+        <v>0.1655093933317382</v>
       </c>
       <c r="M125" t="n">
-        <v>4.320616441057281</v>
+        <v>3.144678473303026</v>
       </c>
       <c r="N125" t="n">
-        <v>2.062718287824809</v>
+        <v>1.499114123268835</v>
       </c>
       <c r="O125" t="n">
-        <v>38.40781451929794</v>
+        <v>27.91350497526571</v>
       </c>
       <c r="P125" t="n">
-        <v>0.7838329493734274</v>
+        <v>0.5696633668421573</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.7838329493734274</v>
+        <v>0.5696633668421573</v>
       </c>
     </row>
     <row r="126">
@@ -7097,52 +7097,52 @@
         <v>2024</v>
       </c>
       <c r="B126" t="n">
-        <v>92.62107406984481</v>
+        <v>87.85609060055641</v>
       </c>
       <c r="C126" t="n">
-        <v>139.0110419249098</v>
+        <v>117.5679683320474</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>3.916344624103607</v>
       </c>
       <c r="E126" t="n">
-        <v>139.0110419249098</v>
+        <v>117.5679683320474</v>
       </c>
       <c r="F126" t="n">
-        <v>50.96046691305683</v>
+        <v>36.45004258394035</v>
       </c>
       <c r="G126" t="n">
-        <v>2.128921802461761</v>
+        <v>1.051913788577608</v>
       </c>
       <c r="H126" t="n">
-        <v>6.988099810554784</v>
+        <v>5.0730663380442</v>
       </c>
       <c r="I126" t="n">
-        <v>41.84344530004014</v>
+        <v>30.32506245731852</v>
       </c>
       <c r="J126" t="n">
-        <v>4.89166986738835</v>
+        <v>3.551146436630952</v>
       </c>
       <c r="K126" t="n">
-        <v>2.096429943166435</v>
+        <v>1.521919901413265</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2445834933694175</v>
+        <v>0.1775573218315477</v>
       </c>
       <c r="M126" t="n">
-        <v>4.647086374018932</v>
+        <v>3.373589114799405</v>
       </c>
       <c r="N126" t="n">
-        <v>2.196993762160319</v>
+        <v>1.59234911793659</v>
       </c>
       <c r="O126" t="n">
-        <v>40.62973797488483</v>
+        <v>29.44784302104067</v>
       </c>
       <c r="P126" t="n">
-        <v>1.113143506161228</v>
+        <v>0.8067902197545389</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.113143506161228</v>
+        <v>0.8067902197545389</v>
       </c>
     </row>
     <row r="127">
@@ -7150,52 +7150,52 @@
         <v>2025</v>
       </c>
       <c r="B127" t="n">
-        <v>96.79842035469085</v>
+        <v>94.69587305310208</v>
       </c>
       <c r="C127" t="n">
-        <v>146.2396730367932</v>
+        <v>126.4298185814665</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>4.067292406964537</v>
       </c>
       <c r="E127" t="n">
-        <v>146.2396730367933</v>
+        <v>126.4298185814664</v>
       </c>
       <c r="F127" t="n">
-        <v>54.32588566165203</v>
+        <v>38.81616024391897</v>
       </c>
       <c r="G127" t="n">
-        <v>2.282461785754994</v>
+        <v>1.130646627783273</v>
       </c>
       <c r="H127" t="n">
-        <v>7.514162882752021</v>
+        <v>5.449985215973107</v>
       </c>
       <c r="I127" t="n">
-        <v>44.52926099314534</v>
+        <v>32.23552840016266</v>
       </c>
       <c r="J127" t="n">
-        <v>5.259914017926413</v>
+        <v>3.814989651181174</v>
       </c>
       <c r="K127" t="n">
-        <v>2.254248864825605</v>
+        <v>1.634995564791932</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2629957008963207</v>
+        <v>0.1907494825590587</v>
       </c>
       <c r="M127" t="n">
-        <v>4.996918317030091</v>
+        <v>3.624240168622116</v>
       </c>
       <c r="N127" t="n">
-        <v>2.339175492898545</v>
+        <v>1.693526198247726</v>
       </c>
       <c r="O127" t="n">
-        <v>42.96285655290327</v>
+        <v>31.10443117448323</v>
       </c>
       <c r="P127" t="n">
-        <v>1.481477812169078</v>
+        <v>1.07256659222356</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.481477812169078</v>
+        <v>1.07256659222356</v>
       </c>
     </row>
     <row r="128">
@@ -7203,52 +7203,52 @@
         <v>2026</v>
       </c>
       <c r="B128" t="n">
-        <v>101.0038726117915</v>
+        <v>101.9968659410127</v>
       </c>
       <c r="C128" t="n">
-        <v>153.7155852298232</v>
+        <v>135.8457192763196</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>4.35247004342637</v>
       </c>
       <c r="E128" t="n">
-        <v>153.7155852298232</v>
+        <v>135.8457192763196</v>
       </c>
       <c r="F128" t="n">
-        <v>57.93158678007099</v>
+        <v>41.42408071827047</v>
       </c>
       <c r="G128" t="n">
-        <v>2.445573497932465</v>
+        <v>1.212161372235444</v>
       </c>
       <c r="H128" t="n">
-        <v>8.084793159184132</v>
+        <v>5.86996213298942</v>
       </c>
       <c r="I128" t="n">
-        <v>47.40122012295468</v>
+        <v>34.3419572130456</v>
       </c>
       <c r="J128" t="n">
-        <v>5.659355211428895</v>
+        <v>4.108973493092595</v>
       </c>
       <c r="K128" t="n">
-        <v>2.425437947755241</v>
+        <v>1.760988639896826</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2829677605714448</v>
+        <v>0.2054486746546297</v>
       </c>
       <c r="M128" t="n">
-        <v>5.376387450857451</v>
+        <v>3.903524818437965</v>
       </c>
       <c r="N128" t="n">
-        <v>2.491332903535488</v>
+        <v>1.805147292647122</v>
       </c>
       <c r="O128" t="n">
-        <v>45.44191216048731</v>
+        <v>32.92588661788351</v>
       </c>
       <c r="P128" t="n">
-        <v>1.893413006686971</v>
+        <v>1.371911942411813</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.893413006686971</v>
+        <v>1.371911942411813</v>
       </c>
     </row>
     <row r="129">
@@ -7256,52 +7256,52 @@
         <v>2027</v>
       </c>
       <c r="B129" t="n">
-        <v>105.3093856722118</v>
+        <v>109.5652526687277</v>
       </c>
       <c r="C129" t="n">
-        <v>161.2451655146982</v>
+        <v>145.7352891815606</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3146023659910416</v>
+        <v>4.721417986331637</v>
       </c>
       <c r="E129" t="n">
-        <v>161.2451655146982</v>
+        <v>145.7352891815606</v>
       </c>
       <c r="F129" t="n">
-        <v>61.8316651805357</v>
+        <v>44.34139010968724</v>
       </c>
       <c r="G129" t="n">
-        <v>2.620736540033069</v>
+        <v>1.297753794777082</v>
       </c>
       <c r="H129" t="n">
-        <v>8.710820085476046</v>
+        <v>6.345445097408044</v>
       </c>
       <c r="I129" t="n">
-        <v>50.50010855502678</v>
+        <v>36.698191217502</v>
       </c>
       <c r="J129" t="n">
-        <v>6.097574059833236</v>
+        <v>4.441811568185631</v>
       </c>
       <c r="K129" t="n">
-        <v>2.613246025642816</v>
+        <v>1.903633529222414</v>
       </c>
       <c r="L129" t="n">
-        <v>0.3048787029916618</v>
+        <v>0.2220905784092817</v>
       </c>
       <c r="M129" t="n">
-        <v>5.792695356841573</v>
+        <v>4.21972098977635</v>
       </c>
       <c r="N129" t="n">
-        <v>2.65566772903347</v>
+        <v>1.930091237336222</v>
       </c>
       <c r="O129" t="n">
-        <v>48.10299479855958</v>
+        <v>34.96038594561674</v>
       </c>
       <c r="P129" t="n">
-        <v>2.354692053076343</v>
+        <v>1.711347563771449</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.354692053076343</v>
+        <v>1.711347563771449</v>
       </c>
     </row>
     <row r="130">
@@ -7309,52 +7309,52 @@
         <v>2028</v>
       </c>
       <c r="B130" t="n">
-        <v>109.9100269519866</v>
+        <v>117.3785519608777</v>
       </c>
       <c r="C130" t="n">
-        <v>168.8124474416805</v>
+        <v>156.1257757114915</v>
       </c>
       <c r="D130" t="n">
-        <v>1.200380268534631</v>
+        <v>5.192762226099223</v>
       </c>
       <c r="E130" t="n">
-        <v>168.8124474416805</v>
+        <v>156.1257757114915</v>
       </c>
       <c r="F130" t="n">
-        <v>66.07647739244243</v>
+        <v>47.64199852989557</v>
       </c>
       <c r="G130" t="n">
-        <v>2.810371331148954</v>
+        <v>1.389381712303087</v>
       </c>
       <c r="H130" t="n">
-        <v>9.403459384183696</v>
+        <v>6.890569051296728</v>
       </c>
       <c r="I130" t="n">
-        <v>53.8626466771095</v>
+        <v>39.36204776629586</v>
       </c>
       <c r="J130" t="n">
-        <v>6.582421568928592</v>
+        <v>4.823398335907717</v>
       </c>
       <c r="K130" t="n">
-        <v>2.821037815255112</v>
+        <v>2.067170715389022</v>
       </c>
       <c r="L130" t="n">
-        <v>0.3291210784464296</v>
+        <v>0.2411699167953859</v>
       </c>
       <c r="M130" t="n">
-        <v>6.253300490482164</v>
+        <v>4.582228419112331</v>
       </c>
       <c r="N130" t="n">
-        <v>2.834184224618232</v>
+        <v>2.071460924084242</v>
       </c>
       <c r="O130" t="n">
-        <v>50.97752692013326</v>
+        <v>37.25867715452857</v>
       </c>
       <c r="P130" t="n">
-        <v>2.871973347613141</v>
+        <v>2.099080403072032</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.871973347613141</v>
+        <v>2.099080403072032</v>
       </c>
     </row>
     <row r="131">
@@ -7362,52 +7362,52 @@
         <v>2029</v>
       </c>
       <c r="B131" t="n">
-        <v>114.8127934671061</v>
+        <v>125.4680471341807</v>
       </c>
       <c r="C131" t="n">
-        <v>176.4265596965934</v>
+        <v>167.0351802391282</v>
       </c>
       <c r="D131" t="n">
-        <v>2.689878299102581</v>
+        <v>5.848628259080809</v>
       </c>
       <c r="E131" t="n">
-        <v>176.4265596965934</v>
+        <v>167.0351802391281</v>
       </c>
       <c r="F131" t="n">
-        <v>70.70451382854088</v>
+        <v>51.40099009043107</v>
       </c>
       <c r="G131" t="n">
-        <v>3.016466956340614</v>
+        <v>1.489662338822367</v>
       </c>
       <c r="H131" t="n">
-        <v>10.17306606247657</v>
+        <v>7.520345740214717</v>
       </c>
       <c r="I131" t="n">
-        <v>57.51498080972349</v>
+        <v>42.39098201139389</v>
       </c>
       <c r="J131" t="n">
-        <v>7.121146243733603</v>
+        <v>5.264242018150311</v>
       </c>
       <c r="K131" t="n">
-        <v>3.051919818742972</v>
+        <v>2.256103722064419</v>
       </c>
       <c r="L131" t="n">
-        <v>0.3560573121866801</v>
+        <v>0.2632121009075156</v>
       </c>
       <c r="M131" t="n">
-        <v>6.765088931546923</v>
+        <v>5.001029917242795</v>
       </c>
       <c r="N131" t="n">
-        <v>3.028345031423319</v>
+        <v>2.232354286672918</v>
       </c>
       <c r="O131" t="n">
-        <v>54.08624226122048</v>
+        <v>39.86984755997831</v>
       </c>
       <c r="P131" t="n">
-        <v>3.452313335822583</v>
+        <v>2.544883886807126</v>
       </c>
       <c r="Q131" t="n">
-        <v>3.452313335822583</v>
+        <v>2.544883886807126</v>
       </c>
     </row>
     <row r="132">
@@ -7415,52 +7415,52 @@
         <v>2030</v>
       </c>
       <c r="B132" t="n">
-        <v>119.6646333953857</v>
+        <v>134.1624433412562</v>
       </c>
       <c r="C132" t="n">
-        <v>183.989813320455</v>
+        <v>178.4542411970642</v>
       </c>
       <c r="D132" t="n">
-        <v>4.545218571523107</v>
+        <v>7.088560076291516</v>
       </c>
       <c r="E132" t="n">
-        <v>183.9898133204551</v>
+        <v>178.4542411970642</v>
       </c>
       <c r="F132" t="n">
-        <v>75.73540747228121</v>
+        <v>55.68632538651841</v>
       </c>
       <c r="G132" t="n">
-        <v>3.240251160078616</v>
+        <v>1.601738089571374</v>
       </c>
       <c r="H132" t="n">
-        <v>11.0278414029541</v>
+        <v>8.249215916895702</v>
       </c>
       <c r="I132" t="n">
-        <v>61.46731490924865</v>
+        <v>45.83537138005117</v>
       </c>
       <c r="J132" t="n">
-        <v>7.719488982067879</v>
+        <v>5.774451141827</v>
       </c>
       <c r="K132" t="n">
-        <v>3.308352420886233</v>
+        <v>2.474764775068714</v>
       </c>
       <c r="L132" t="n">
-        <v>0.385974449103394</v>
+        <v>0.28872255709135</v>
       </c>
       <c r="M132" t="n">
-        <v>7.333514532964484</v>
+        <v>5.485728584735649</v>
       </c>
       <c r="N132" t="n">
-        <v>3.238783366506734</v>
+        <v>2.415506807755993</v>
       </c>
       <c r="O132" t="n">
-        <v>57.43442503271941</v>
+        <v>42.83498739087295</v>
       </c>
       <c r="P132" t="n">
-        <v>4.10245893090853</v>
+        <v>3.059641956490925</v>
       </c>
       <c r="Q132" t="n">
-        <v>4.10245893090853</v>
+        <v>3.059641956490925</v>
       </c>
     </row>
     <row r="133">
@@ -7468,52 +7468,52 @@
         <v>2031</v>
       </c>
       <c r="B133" t="n">
-        <v>122.0495454247645</v>
+        <v>138.7387730442215</v>
       </c>
       <c r="C133" t="n">
-        <v>189.1074544842005</v>
+        <v>184.8842309398251</v>
       </c>
       <c r="D133" t="n">
-        <v>6.741650232306065</v>
+        <v>9.731698029190433</v>
       </c>
       <c r="E133" t="n">
-        <v>189.1074544842005</v>
+        <v>184.884230939825</v>
       </c>
       <c r="F133" t="n">
-        <v>81.16570932805288</v>
+        <v>60.54701914879749</v>
       </c>
       <c r="G133" t="n">
-        <v>3.481962705166648</v>
+        <v>1.728960280593156</v>
       </c>
       <c r="H133" t="n">
-        <v>11.9727483180986</v>
+        <v>9.08892099961767</v>
       </c>
       <c r="I133" t="n">
-        <v>65.71099830478785</v>
+        <v>49.72913786858641</v>
       </c>
       <c r="J133" t="n">
-        <v>8.380923822669015</v>
+        <v>6.362244699732359</v>
       </c>
       <c r="K133" t="n">
-        <v>3.591824495429578</v>
+        <v>2.726676299885297</v>
       </c>
       <c r="L133" t="n">
-        <v>0.4190461911334508</v>
+        <v>0.3181122349866179</v>
       </c>
       <c r="M133" t="n">
-        <v>7.961877631535565</v>
+        <v>6.044132464745742</v>
       </c>
       <c r="N133" t="n">
-        <v>3.465141140010869</v>
+        <v>2.622790708423587</v>
       </c>
       <c r="O133" t="n">
-        <v>61.00958500512468</v>
+        <v>46.17860173964463</v>
       </c>
       <c r="P133" t="n">
-        <v>4.828096655081809</v>
+        <v>3.654421720403533</v>
       </c>
       <c r="Q133" t="n">
-        <v>4.828096655081809</v>
+        <v>3.654421720403533</v>
       </c>
     </row>
     <row r="134">
@@ -7521,52 +7521,52 @@
         <v>2032</v>
       </c>
       <c r="B134" t="n">
-        <v>124.5875289084015</v>
+        <v>146.0698518867342</v>
       </c>
       <c r="C134" t="n">
-        <v>194.0974522539099</v>
+        <v>195.0101320359997</v>
       </c>
       <c r="D134" t="n">
-        <v>9.559499005633699</v>
+        <v>11.98247887332855</v>
       </c>
       <c r="E134" t="n">
-        <v>194.0974522539098</v>
+        <v>195.0101320359997</v>
       </c>
       <c r="F134" t="n">
-        <v>86.9718788290557</v>
+        <v>66.00376762418617</v>
       </c>
       <c r="G134" t="n">
-        <v>3.74090793311641</v>
+        <v>1.87454760040289</v>
       </c>
       <c r="H134" t="n">
-        <v>13.00952172493289</v>
+        <v>10.04681342527472</v>
       </c>
       <c r="I134" t="n">
-        <v>70.22144917100621</v>
+        <v>54.08240659850862</v>
       </c>
       <c r="J134" t="n">
-        <v>9.106665207453029</v>
+        <v>7.032769397692297</v>
       </c>
       <c r="K134" t="n">
-        <v>3.902856517479869</v>
+        <v>3.014044027582413</v>
       </c>
       <c r="L134" t="n">
-        <v>0.4553332603726513</v>
+        <v>0.351638469884615</v>
       </c>
       <c r="M134" t="n">
-        <v>8.651331947080376</v>
+        <v>6.681130927807682</v>
       </c>
       <c r="N134" t="n">
-        <v>3.706215284424301</v>
+        <v>2.854822531304548</v>
       </c>
       <c r="O134" t="n">
-        <v>64.78464317173678</v>
+        <v>49.90229784720351</v>
       </c>
       <c r="P134" t="n">
-        <v>5.633447232324937</v>
+        <v>4.339330247582914</v>
       </c>
       <c r="Q134" t="n">
-        <v>5.633447232324937</v>
+        <v>4.339330247582914</v>
       </c>
     </row>
     <row r="135">
@@ -7574,52 +7574,52 @@
         <v>2033</v>
       </c>
       <c r="B135" t="n">
-        <v>127.2715588320981</v>
+        <v>153.3982893179883</v>
       </c>
       <c r="C135" t="n">
-        <v>198.9162401116627</v>
+        <v>205.2986816649515</v>
       </c>
       <c r="D135" t="n">
-        <v>13.00077706738478</v>
+        <v>14.60021905511417</v>
       </c>
       <c r="E135" t="n">
-        <v>198.9162401116627</v>
+        <v>205.2986816649516</v>
       </c>
       <c r="F135" t="n">
-        <v>93.11609413241153</v>
+        <v>72.04174898204722</v>
       </c>
       <c r="G135" t="n">
-        <v>4.015611661938696</v>
+        <v>2.041105400913027</v>
       </c>
       <c r="H135" t="n">
-        <v>14.13707036719994</v>
+        <v>11.12452302236001</v>
       </c>
       <c r="I135" t="n">
-        <v>74.96341210327314</v>
+        <v>58.87612055877393</v>
       </c>
       <c r="J135" t="n">
-        <v>9.895949257039952</v>
+        <v>7.78716611565201</v>
       </c>
       <c r="K135" t="n">
-        <v>4.241121110159979</v>
+        <v>3.337356906708005</v>
       </c>
       <c r="L135" t="n">
-        <v>0.4947974628519975</v>
+        <v>0.3893583057826006</v>
       </c>
       <c r="M135" t="n">
-        <v>9.401151794187953</v>
+        <v>7.397807809869408</v>
       </c>
       <c r="N135" t="n">
-        <v>3.960226660671656</v>
+        <v>3.110673873274105</v>
       </c>
       <c r="O135" t="n">
-        <v>68.72313331818879</v>
+        <v>53.98056061421663</v>
       </c>
       <c r="P135" t="n">
-        <v>6.521173234572658</v>
+        <v>5.12224297799136</v>
       </c>
       <c r="Q135" t="n">
-        <v>6.521173234572658</v>
+        <v>5.12224297799136</v>
       </c>
     </row>
     <row r="136">
@@ -7627,52 +7627,52 @@
         <v>2034</v>
       </c>
       <c r="B136" t="n">
-        <v>129.7518236977429</v>
+        <v>160.625687692995</v>
       </c>
       <c r="C136" t="n">
-        <v>203.5770253542709</v>
+        <v>215.6268989386365</v>
       </c>
       <c r="D136" t="n">
-        <v>16.67178209039043</v>
+        <v>17.57188868110666</v>
       </c>
       <c r="E136" t="n">
-        <v>203.5770253542709</v>
+        <v>215.6268989386365</v>
       </c>
       <c r="F136" t="n">
-        <v>99.56445688751668</v>
+        <v>78.6232860779207</v>
       </c>
       <c r="G136" t="n">
-        <v>4.304473996023441</v>
+        <v>2.230549312922399</v>
       </c>
       <c r="H136" t="n">
-        <v>15.35427513642435</v>
+        <v>12.32019998143978</v>
       </c>
       <c r="I136" t="n">
-        <v>79.90570775506865</v>
+        <v>64.07253678355831</v>
       </c>
       <c r="J136" t="n">
-        <v>10.74799259549704</v>
+        <v>8.624139987007851</v>
       </c>
       <c r="K136" t="n">
-        <v>4.606282540927304</v>
+        <v>3.696059994431935</v>
       </c>
       <c r="L136" t="n">
-        <v>0.5373996297748521</v>
+        <v>0.4312069993503926</v>
       </c>
       <c r="M136" t="n">
-        <v>10.21059296572219</v>
+        <v>8.192932987657459</v>
       </c>
       <c r="N136" t="n">
-        <v>4.225599514799798</v>
+        <v>3.38842983889951</v>
       </c>
       <c r="O136" t="n">
-        <v>72.79299430828452</v>
+        <v>58.37135135810889</v>
       </c>
       <c r="P136" t="n">
-        <v>7.493396472911642</v>
+        <v>6.008815580981798</v>
       </c>
       <c r="Q136" t="n">
-        <v>7.493396472911642</v>
+        <v>6.008815580981798</v>
       </c>
     </row>
     <row r="137">
@@ -7680,52 +7680,52 @@
         <v>2035</v>
       </c>
       <c r="B137" t="n">
-        <v>132.0676054375508</v>
+        <v>167.6791364712218</v>
       </c>
       <c r="C137" t="n">
-        <v>208.1488232342726</v>
+        <v>225.9036114072468</v>
       </c>
       <c r="D137" t="n">
-        <v>20.54040879790736</v>
+        <v>20.88887918929361</v>
       </c>
       <c r="E137" t="n">
-        <v>208.1488232342726</v>
+        <v>225.9036114072468</v>
       </c>
       <c r="F137" t="n">
-        <v>106.3137301085562</v>
+        <v>85.72165380636649</v>
       </c>
       <c r="G137" t="n">
-        <v>4.60675474578855</v>
+        <v>2.444438937609983</v>
       </c>
       <c r="H137" t="n">
-        <v>16.66465161585926</v>
+        <v>13.63456207284041</v>
       </c>
       <c r="I137" t="n">
-        <v>85.04232374690801</v>
+        <v>69.64265279591594</v>
       </c>
       <c r="J137" t="n">
-        <v>11.66525613110148</v>
+        <v>9.544193450988292</v>
       </c>
       <c r="K137" t="n">
-        <v>4.99939548475778</v>
+        <v>4.090368621852124</v>
       </c>
       <c r="L137" t="n">
-        <v>0.5832628065550742</v>
+        <v>0.4772096725494146</v>
       </c>
       <c r="M137" t="n">
-        <v>11.08199332454641</v>
+        <v>9.066983778438875</v>
       </c>
       <c r="N137" t="n">
-        <v>4.502085961583298</v>
+        <v>3.686651070888409</v>
       </c>
       <c r="O137" t="n">
-        <v>76.9856699430744</v>
+        <v>63.04173331219179</v>
       </c>
       <c r="P137" t="n">
-        <v>8.553963327008265</v>
+        <v>7.004637034687976</v>
       </c>
       <c r="Q137" t="n">
-        <v>8.553963327008265</v>
+        <v>7.004637034687976</v>
       </c>
     </row>
     <row r="138">
@@ -7733,52 +7733,52 @@
         <v>2036</v>
       </c>
       <c r="B138" t="n">
-        <v>134.2395719690208</v>
+        <v>174.5236186160502</v>
       </c>
       <c r="C138" t="n">
-        <v>212.6745799222512</v>
+        <v>236.1008088229762</v>
       </c>
       <c r="D138" t="n">
-        <v>24.64336679434086</v>
+        <v>24.58024408432989</v>
       </c>
       <c r="E138" t="n">
-        <v>212.6745799222513</v>
+        <v>236.1008088229762</v>
       </c>
       <c r="F138" t="n">
-        <v>113.4274909946963</v>
+        <v>93.37691677012455</v>
       </c>
       <c r="G138" t="n">
-        <v>4.923938628831444</v>
+        <v>2.684880674065465</v>
       </c>
       <c r="H138" t="n">
-        <v>18.08312053449354</v>
+        <v>15.08093247239558</v>
       </c>
       <c r="I138" t="n">
-        <v>90.42043183137119</v>
+        <v>75.6111036236634</v>
       </c>
       <c r="J138" t="n">
-        <v>12.65818437414547</v>
+        <v>10.5566527306769</v>
       </c>
       <c r="K138" t="n">
-        <v>5.424936160348059</v>
+        <v>4.524279741718674</v>
       </c>
       <c r="L138" t="n">
-        <v>0.6329092187072736</v>
+        <v>0.5278326365338452</v>
       </c>
       <c r="M138" t="n">
-        <v>12.0252751554382</v>
+        <v>10.02882009414306</v>
       </c>
       <c r="N138" t="n">
-        <v>4.792268399585952</v>
+        <v>4.006769168269099</v>
       </c>
       <c r="O138" t="n">
-        <v>81.34076896897223</v>
+        <v>68.00822868275417</v>
       </c>
       <c r="P138" t="n">
-        <v>9.712330623160861</v>
+        <v>8.120385514358706</v>
       </c>
       <c r="Q138" t="n">
-        <v>9.712330623160861</v>
+        <v>8.120385514358706</v>
       </c>
     </row>
     <row r="139">
@@ -7786,52 +7786,52 @@
         <v>2037</v>
       </c>
       <c r="B139" t="n">
-        <v>136.4765584310039</v>
+        <v>181.3228330959237</v>
       </c>
       <c r="C139" t="n">
-        <v>217.5051618867421</v>
+        <v>246.4621687221807</v>
       </c>
       <c r="D139" t="n">
-        <v>28.99228356586357</v>
+        <v>28.72180967213212</v>
       </c>
       <c r="E139" t="n">
-        <v>217.5051618867421</v>
+        <v>246.4621687221807</v>
       </c>
       <c r="F139" t="n">
-        <v>121.0726694519549</v>
+        <v>101.7569781874877</v>
       </c>
       <c r="G139" t="n">
-        <v>5.261209429216033</v>
+        <v>2.955772610235873</v>
       </c>
       <c r="H139" t="n">
-        <v>19.64307841988361</v>
+        <v>16.696184861448</v>
       </c>
       <c r="I139" t="n">
-        <v>96.16838160285492</v>
+        <v>82.10502071580348</v>
       </c>
       <c r="J139" t="n">
-        <v>13.75015489391853</v>
+        <v>11.68732940301361</v>
       </c>
       <c r="K139" t="n">
-        <v>5.892923525965083</v>
+        <v>5.008855458434402</v>
       </c>
       <c r="L139" t="n">
-        <v>0.6875077446959266</v>
+        <v>0.5843664701506804</v>
       </c>
       <c r="M139" t="n">
-        <v>13.0626471492226</v>
+        <v>11.10296293286293</v>
       </c>
       <c r="N139" t="n">
-        <v>5.103065256441011</v>
+        <v>4.355693808711903</v>
       </c>
       <c r="O139" t="n">
-        <v>85.96963935350955</v>
+        <v>73.3789216974332</v>
       </c>
       <c r="P139" t="n">
-        <v>10.98860051886964</v>
+        <v>9.379260668092968</v>
       </c>
       <c r="Q139" t="n">
-        <v>10.98860051886964</v>
+        <v>9.379260668092968</v>
       </c>
     </row>
     <row r="140">
@@ -7839,52 +7839,52 @@
         <v>2038</v>
       </c>
       <c r="B140" t="n">
-        <v>138.9813525319487</v>
+        <v>188.3756025187616</v>
       </c>
       <c r="C140" t="n">
-        <v>222.9956159829009</v>
+        <v>257.4404357031362</v>
       </c>
       <c r="D140" t="n">
-        <v>33.69666337868557</v>
+        <v>33.46431742111633</v>
       </c>
       <c r="E140" t="n">
-        <v>222.9956159829009</v>
+        <v>257.4404357031363</v>
       </c>
       <c r="F140" t="n">
-        <v>129.5346243836112</v>
+        <v>111.1891953084651</v>
       </c>
       <c r="G140" t="n">
-        <v>5.628385615571461</v>
+        <v>3.263773618474527</v>
       </c>
       <c r="H140" t="n">
-        <v>21.39933098784725</v>
+        <v>18.54610096310638</v>
       </c>
       <c r="I140" t="n">
-        <v>102.5069077801927</v>
+        <v>89.37932072688409</v>
       </c>
       <c r="J140" t="n">
-        <v>14.97953169149307</v>
+        <v>12.98227067417447</v>
       </c>
       <c r="K140" t="n">
-        <v>6.419799296354176</v>
+        <v>5.563830288931914</v>
       </c>
       <c r="L140" t="n">
-        <v>0.7489765845746539</v>
+        <v>0.6491135337087234</v>
       </c>
       <c r="M140" t="n">
-        <v>14.23055510691842</v>
+        <v>12.33315714046574</v>
       </c>
       <c r="N140" t="n">
-        <v>5.446335353827333</v>
+        <v>4.747157550790804</v>
       </c>
       <c r="O140" t="n">
-        <v>91.06272711599301</v>
+        <v>79.37247424922222</v>
       </c>
       <c r="P140" t="n">
-        <v>12.41764460672632</v>
+        <v>10.82351921580303</v>
       </c>
       <c r="Q140" t="n">
-        <v>12.41764460672632</v>
+        <v>10.82351921580303</v>
       </c>
     </row>
     <row r="141">
@@ -7892,52 +7892,52 @@
         <v>2039</v>
       </c>
       <c r="B141" t="n">
-        <v>142.005115227178</v>
+        <v>196.1491113370772</v>
       </c>
       <c r="C141" t="n">
-        <v>229.5874655591185</v>
+        <v>269.7288253206814</v>
       </c>
       <c r="D141" t="n">
-        <v>38.89930948191665</v>
+        <v>38.99530330388384</v>
       </c>
       <c r="E141" t="n">
-        <v>229.5874655591184</v>
+        <v>269.7288253206815</v>
       </c>
       <c r="F141" t="n">
-        <v>139.17786343223</v>
+        <v>122.1180725646748</v>
       </c>
       <c r="G141" t="n">
-        <v>6.039274154485429</v>
+        <v>3.618054367318986</v>
       </c>
       <c r="H141" t="n">
-        <v>23.42028319907573</v>
+        <v>20.71668619199556</v>
       </c>
       <c r="I141" t="n">
-        <v>109.7183060786686</v>
+        <v>97.78333200536065</v>
       </c>
       <c r="J141" t="n">
-        <v>16.39419823935301</v>
+        <v>14.50168033439688</v>
       </c>
       <c r="K141" t="n">
-        <v>7.026084959722718</v>
+        <v>6.215005857598666</v>
       </c>
       <c r="L141" t="n">
-        <v>0.8197099119676505</v>
+        <v>0.7250840167198442</v>
       </c>
       <c r="M141" t="n">
-        <v>15.57448832738536</v>
+        <v>13.77659631767704</v>
       </c>
       <c r="N141" t="n">
-        <v>5.837219551919565</v>
+        <v>5.199916893147952</v>
       </c>
       <c r="O141" t="n">
-        <v>96.85892976485201</v>
+        <v>86.28395431363502</v>
       </c>
       <c r="P141" t="n">
-        <v>14.04824172161976</v>
+        <v>12.51446665617608</v>
       </c>
       <c r="Q141" t="n">
-        <v>14.04824172161976</v>
+        <v>12.51446665617608</v>
       </c>
     </row>
     <row r="142">
@@ -7945,52 +7945,52 @@
         <v>2040</v>
       </c>
       <c r="B142" t="n">
-        <v>145.7712523662865</v>
+        <v>205.1440243995598</v>
       </c>
       <c r="C142" t="n">
-        <v>237.6759659616862</v>
+        <v>284.0601705235532</v>
       </c>
       <c r="D142" t="n">
-        <v>44.72235238401266</v>
+        <v>45.4692124045437</v>
       </c>
       <c r="E142" t="n">
-        <v>237.6759659616862</v>
+        <v>284.0601705235532</v>
       </c>
       <c r="F142" t="n">
-        <v>150.3263581424243</v>
+        <v>134.9599269227219</v>
       </c>
       <c r="G142" t="n">
-        <v>6.508393953569184</v>
+        <v>4.027970576893257</v>
       </c>
       <c r="H142" t="n">
-        <v>25.76430936001736</v>
+        <v>23.28590963156237</v>
       </c>
       <c r="I142" t="n">
-        <v>118.0536548288378</v>
+        <v>107.646046714266</v>
       </c>
       <c r="J142" t="n">
-        <v>18.03501655201215</v>
+        <v>16.30013674209366</v>
       </c>
       <c r="K142" t="n">
-        <v>7.729292808005206</v>
+        <v>6.985772889468714</v>
       </c>
       <c r="L142" t="n">
-        <v>0.9017508276006073</v>
+        <v>0.8150068371046831</v>
       </c>
       <c r="M142" t="n">
-        <v>17.13326572441154</v>
+        <v>15.48512990498898</v>
       </c>
       <c r="N142" t="n">
-        <v>6.289147381842151</v>
+        <v>5.731590980186739</v>
       </c>
       <c r="O142" t="n">
-        <v>103.5612935543341</v>
+        <v>94.38019814040834</v>
       </c>
       <c r="P142" t="n">
-        <v>15.93250670066678</v>
+        <v>14.52003048313974</v>
       </c>
       <c r="Q142" t="n">
-        <v>15.93250670066678</v>
+        <v>14.52003048313974</v>
       </c>
     </row>
     <row r="143">
@@ -7998,52 +7998,52 @@
         <v>2041</v>
       </c>
       <c r="B143" t="n">
-        <v>151.090211197111</v>
+        <v>216.9211530652136</v>
       </c>
       <c r="C143" t="n">
-        <v>248.1349053122017</v>
+        <v>301.9542868274308</v>
       </c>
       <c r="D143" t="n">
-        <v>51.18405426870699</v>
+        <v>53.07552341982947</v>
       </c>
       <c r="E143" t="n">
-        <v>248.1349053122016</v>
+        <v>301.9542868274309</v>
       </c>
       <c r="F143" t="n">
-        <v>163.0751166359394</v>
+        <v>149.8761192403065</v>
       </c>
       <c r="G143" t="n">
-        <v>7.044855179310461</v>
+        <v>4.498585364467966</v>
       </c>
       <c r="H143" t="n">
-        <v>28.44295273988029</v>
+        <v>26.28019150713241</v>
       </c>
       <c r="I143" t="n">
-        <v>127.5873087167484</v>
+        <v>119.0973423687062</v>
       </c>
       <c r="J143" t="n">
-        <v>19.9100669179162</v>
+        <v>18.39613405499269</v>
       </c>
       <c r="K143" t="n">
-        <v>8.532885821964088</v>
+        <v>7.884057452139724</v>
       </c>
       <c r="L143" t="n">
-        <v>0.9955033458958101</v>
+        <v>0.9198067027496345</v>
       </c>
       <c r="M143" t="n">
-        <v>18.9145635720204</v>
+        <v>17.47632735224305</v>
       </c>
       <c r="N143" t="n">
-        <v>6.806009726935643</v>
+        <v>6.3490699910423</v>
       </c>
       <c r="O143" t="n">
-        <v>111.2101989381284</v>
+        <v>103.7438036536311</v>
       </c>
       <c r="P143" t="n">
-        <v>18.10398587364881</v>
+        <v>16.88852617617252</v>
       </c>
       <c r="Q143" t="n">
-        <v>18.10398587364881</v>
+        <v>16.88852617617252</v>
       </c>
     </row>
     <row r="144">
@@ -8051,52 +8051,52 @@
         <v>2042</v>
       </c>
       <c r="B144" t="n">
-        <v>157.147644292213</v>
+        <v>230.2547967977638</v>
       </c>
       <c r="C144" t="n">
-        <v>260.0319119243792</v>
+        <v>322.2599192071803</v>
       </c>
       <c r="D144" t="n">
-        <v>58.11125575041037</v>
+        <v>61.46164661472317</v>
       </c>
       <c r="E144" t="n">
-        <v>260.0319119243791</v>
+        <v>322.2599192071802</v>
       </c>
       <c r="F144" t="n">
-        <v>177.1142844824566</v>
+        <v>166.569728804288</v>
       </c>
       <c r="G144" t="n">
-        <v>7.64531250079699</v>
+        <v>5.025761410456442</v>
       </c>
       <c r="H144" t="n">
-        <v>31.38752851215964</v>
+        <v>29.63621875119442</v>
       </c>
       <c r="I144" t="n">
-        <v>138.0814434694997</v>
+        <v>131.9077486426366</v>
       </c>
       <c r="J144" t="n">
-        <v>21.97126995851176</v>
+        <v>20.74535312583608</v>
       </c>
       <c r="K144" t="n">
-        <v>9.416258553647896</v>
+        <v>8.89086562535832</v>
       </c>
       <c r="L144" t="n">
-        <v>1.098563497925588</v>
+        <v>1.037267656291804</v>
       </c>
       <c r="M144" t="n">
-        <v>20.87270646058616</v>
+        <v>19.70808546954428</v>
       </c>
       <c r="N144" t="n">
-        <v>7.374885101157392</v>
+        <v>7.039930713399753</v>
       </c>
       <c r="O144" t="n">
-        <v>119.5714704400985</v>
+        <v>114.1407432999213</v>
       </c>
       <c r="P144" t="n">
-        <v>20.55134648189193</v>
+        <v>19.61794025467398</v>
       </c>
       <c r="Q144" t="n">
-        <v>20.55134648189193</v>
+        <v>19.61794025467398</v>
       </c>
     </row>
     <row r="145">
@@ -8104,52 +8104,52 @@
         <v>2043</v>
       </c>
       <c r="B145" t="n">
-        <v>163.5268279718294</v>
+        <v>244.513927498796</v>
       </c>
       <c r="C145" t="n">
-        <v>272.608733423946</v>
+        <v>344.0150294148694</v>
       </c>
       <c r="D145" t="n">
-        <v>65.13439848873831</v>
+        <v>70.20991309788148</v>
       </c>
       <c r="E145" t="n">
-        <v>272.608733423946</v>
+        <v>344.0150294148696</v>
       </c>
       <c r="F145" t="n">
-        <v>191.6746222419419</v>
+        <v>184.2364246324337</v>
       </c>
       <c r="G145" t="n">
-        <v>8.28903914630521</v>
+        <v>5.593250933533809</v>
       </c>
       <c r="H145" t="n">
-        <v>34.44095913985565</v>
+        <v>33.19368766594012</v>
       </c>
       <c r="I145" t="n">
-        <v>148.9446239557809</v>
+        <v>145.4494860329594</v>
       </c>
       <c r="J145" t="n">
-        <v>24.10867139789895</v>
+        <v>23.23558136615808</v>
       </c>
       <c r="K145" t="n">
-        <v>10.33228774195669</v>
+        <v>9.958106299782033</v>
       </c>
       <c r="L145" t="n">
-        <v>1.205433569894947</v>
+        <v>1.161779068307904</v>
       </c>
       <c r="M145" t="n">
-        <v>22.90323782800399</v>
+        <v>22.07380229785018</v>
       </c>
       <c r="N145" t="n">
-        <v>7.963845584886885</v>
+        <v>7.77037961663709</v>
       </c>
       <c r="O145" t="n">
-        <v>128.1117293088804</v>
+        <v>124.999506766302</v>
       </c>
       <c r="P145" t="n">
-        <v>23.20133680397046</v>
+        <v>22.63770594980272</v>
       </c>
       <c r="Q145" t="n">
-        <v>23.20133680397046</v>
+        <v>22.63770594980272</v>
       </c>
     </row>
     <row r="146">
@@ -8157,52 +8157,52 @@
         <v>2044</v>
       </c>
       <c r="B146" t="n">
-        <v>169.6340914070369</v>
+        <v>258.6650128381318</v>
       </c>
       <c r="C146" t="n">
-        <v>284.7963107611207</v>
+        <v>365.7047268580182</v>
       </c>
       <c r="D146" t="n">
-        <v>71.78587905651312</v>
+        <v>78.82614122293005</v>
       </c>
       <c r="E146" t="n">
-        <v>284.7963107611207</v>
+        <v>365.7047268580181</v>
       </c>
       <c r="F146" t="n">
-        <v>205.7280384307197</v>
+        <v>201.8243490901824</v>
       </c>
       <c r="G146" t="n">
-        <v>8.940566419565251</v>
+        <v>6.176080413533216</v>
       </c>
       <c r="H146" t="n">
-        <v>37.401052637886</v>
+        <v>36.74916593381963</v>
       </c>
       <c r="I146" t="n">
-        <v>159.386419373269</v>
+        <v>158.8991027428292</v>
       </c>
       <c r="J146" t="n">
-        <v>26.18073684652023</v>
+        <v>25.72441615367372</v>
       </c>
       <c r="K146" t="n">
-        <v>11.22031579136581</v>
+        <v>11.02474978014588</v>
       </c>
       <c r="L146" t="n">
-        <v>1.309036842326011</v>
+        <v>1.286220807683686</v>
       </c>
       <c r="M146" t="n">
-        <v>24.87170000419422</v>
+        <v>24.43819534599004</v>
       </c>
       <c r="N146" t="n">
-        <v>8.530336758231723</v>
+        <v>8.49619262614876</v>
       </c>
       <c r="O146" t="n">
-        <v>136.1441746613783</v>
+        <v>135.5992343133342</v>
       </c>
       <c r="P146" t="n">
-        <v>25.93222374502443</v>
+        <v>25.82842558349222</v>
       </c>
       <c r="Q146" t="n">
-        <v>25.93222374502443</v>
+        <v>25.82842558349222</v>
       </c>
     </row>
     <row r="147">
@@ -8210,52 +8210,52 @@
         <v>2045</v>
       </c>
       <c r="B147" t="n">
-        <v>174.9745882349745</v>
+        <v>271.7639989343784</v>
       </c>
       <c r="C147" t="n">
-        <v>295.7122062965233</v>
+        <v>386.0128453708336</v>
       </c>
       <c r="D147" t="n">
-        <v>77.71231812750138</v>
+        <v>87.01752899794187</v>
       </c>
       <c r="E147" t="n">
-        <v>295.7122062965233</v>
+        <v>386.0128453708338</v>
       </c>
       <c r="F147" t="n">
-        <v>218.4570728344998</v>
+        <v>218.6112201585819</v>
       </c>
       <c r="G147" t="n">
-        <v>9.562403161816164</v>
+        <v>6.751877596058832</v>
       </c>
       <c r="H147" t="n">
-        <v>40.11710016576078</v>
+        <v>40.17244413497087</v>
       </c>
       <c r="I147" t="n">
-        <v>168.7775695069238</v>
+        <v>171.6868984275524</v>
       </c>
       <c r="J147" t="n">
-        <v>28.08197011603254</v>
+        <v>28.12071089447958</v>
       </c>
       <c r="K147" t="n">
-        <v>12.03513004972823</v>
+        <v>12.05173324049125</v>
       </c>
       <c r="L147" t="n">
-        <v>1.404098505801627</v>
+        <v>1.406035544723979</v>
       </c>
       <c r="M147" t="n">
-        <v>26.67787161023091</v>
+        <v>26.71467534975561</v>
       </c>
       <c r="N147" t="n">
-        <v>9.040634977832593</v>
+        <v>9.186931583402181</v>
       </c>
       <c r="O147" t="n">
-        <v>143.1433871490161</v>
+        <v>145.4597500705345</v>
       </c>
       <c r="P147" t="n">
-        <v>28.6286774298032</v>
+        <v>29.0919500141069</v>
       </c>
       <c r="Q147" t="n">
-        <v>28.6286774298032</v>
+        <v>29.0919500141069</v>
       </c>
     </row>
     <row r="148">
@@ -8263,52 +8263,52 @@
         <v>2046</v>
       </c>
       <c r="B148" t="n">
-        <v>179.5122161706476</v>
+        <v>283.6585821144615</v>
       </c>
       <c r="C148" t="n">
-        <v>305.3112982838852</v>
+        <v>404.8662512932382</v>
       </c>
       <c r="D148" t="n">
-        <v>82.93272833054978</v>
+        <v>95.0128010133942</v>
       </c>
       <c r="E148" t="n">
-        <v>305.3112982838852</v>
+        <v>404.8662512932382</v>
       </c>
       <c r="F148" t="n">
-        <v>229.8538362582583</v>
+        <v>234.918757918784</v>
       </c>
       <c r="G148" t="n">
-        <v>10.13614105427204</v>
+        <v>7.31826297965728</v>
       </c>
       <c r="H148" t="n">
-        <v>42.61021111926681</v>
+        <v>43.54890387254227</v>
       </c>
       <c r="I148" t="n">
-        <v>177.1074840847195</v>
+        <v>184.051591066585</v>
       </c>
       <c r="J148" t="n">
-        <v>29.82714778348678</v>
+        <v>30.48423271077959</v>
       </c>
       <c r="K148" t="n">
-        <v>12.78306333578005</v>
+        <v>13.06467116176268</v>
       </c>
       <c r="L148" t="n">
-        <v>1.491357389174339</v>
+        <v>1.524211635538979</v>
       </c>
       <c r="M148" t="n">
-        <v>28.33579039431244</v>
+        <v>28.9600210752406</v>
       </c>
       <c r="N148" t="n">
-        <v>9.49452737102499</v>
+        <v>9.855813111417387</v>
       </c>
       <c r="O148" t="n">
-        <v>149.1273765742326</v>
+        <v>154.8019712699958</v>
       </c>
       <c r="P148" t="n">
-        <v>31.26864347524229</v>
+        <v>32.45847784693458</v>
       </c>
       <c r="Q148" t="n">
-        <v>31.26864347524229</v>
+        <v>32.45847784693458</v>
       </c>
     </row>
     <row r="149">
@@ -8316,52 +8316,52 @@
         <v>2047</v>
       </c>
       <c r="B149" t="n">
-        <v>183.9087096233729</v>
+        <v>295.5120648136131</v>
       </c>
       <c r="C149" t="n">
-        <v>314.8176492837634</v>
+        <v>424.1782141097754</v>
       </c>
       <c r="D149" t="n">
-        <v>87.98364400039294</v>
+        <v>103.7076827849469</v>
       </c>
       <c r="E149" t="n">
-        <v>314.8176492837634</v>
+        <v>424.1782141097756</v>
       </c>
       <c r="F149" t="n">
-        <v>241.0957904984783</v>
+        <v>252.5118037514512</v>
       </c>
       <c r="G149" t="n">
-        <v>10.68254453975854</v>
+        <v>7.907769981862276</v>
       </c>
       <c r="H149" t="n">
-        <v>45.14379972480448</v>
+        <v>47.25562421368247</v>
       </c>
       <c r="I149" t="n">
-        <v>185.2694462339149</v>
+        <v>197.348409555906</v>
       </c>
       <c r="J149" t="n">
-        <v>31.6006598073631</v>
+        <v>33.07893694957771</v>
       </c>
       <c r="K149" t="n">
-        <v>13.54313991744133</v>
+        <v>14.17668726410473</v>
       </c>
       <c r="L149" t="n">
-        <v>1.580032990368156</v>
+        <v>1.653946847478886</v>
       </c>
       <c r="M149" t="n">
-        <v>30.02062681699496</v>
+        <v>31.42499010209883</v>
       </c>
       <c r="N149" t="n">
-        <v>9.940629307567818</v>
+        <v>10.57625484100055</v>
       </c>
       <c r="O149" t="n">
-        <v>154.8750046119066</v>
+        <v>164.7780504227886</v>
       </c>
       <c r="P149" t="n">
-        <v>33.99695223188192</v>
+        <v>36.17079155622186</v>
       </c>
       <c r="Q149" t="n">
-        <v>33.99695223188192</v>
+        <v>36.17079155622186</v>
       </c>
     </row>
     <row r="150">
@@ -8369,52 +8369,52 @@
         <v>2048</v>
       </c>
       <c r="B150" t="n">
-        <v>189.3759923990764</v>
+        <v>309.6004161112439</v>
       </c>
       <c r="C150" t="n">
-        <v>326.4510396700113</v>
+        <v>447.4678372140485</v>
       </c>
       <c r="D150" t="n">
-        <v>93.7648668910961</v>
+        <v>114.3793976287918</v>
       </c>
       <c r="E150" t="n">
-        <v>326.4510396700114</v>
+        <v>447.4678372140486</v>
       </c>
       <c r="F150" t="n">
-        <v>254.2546736105134</v>
+        <v>274.1096896493495</v>
       </c>
       <c r="G150" t="n">
-        <v>11.2652902820602</v>
+        <v>8.586722563459638</v>
       </c>
       <c r="H150" t="n">
-        <v>48.15237147325642</v>
+        <v>51.85417830871484</v>
       </c>
       <c r="I150" t="n">
-        <v>194.837011855197</v>
+        <v>213.6687887771755</v>
       </c>
       <c r="J150" t="n">
-        <v>33.70666003127949</v>
+        <v>36.29792481610038</v>
       </c>
       <c r="K150" t="n">
-        <v>14.44571144197693</v>
+        <v>15.55625349261445</v>
       </c>
       <c r="L150" t="n">
-        <v>1.685333001563975</v>
+        <v>1.814896240805019</v>
       </c>
       <c r="M150" t="n">
-        <v>32.02132702971551</v>
+        <v>34.48302857529536</v>
       </c>
       <c r="N150" t="n">
-        <v>10.46413616485871</v>
+        <v>11.46125211348952</v>
       </c>
       <c r="O150" t="n">
-        <v>161.7057842009499</v>
+        <v>177.1145493271248</v>
       </c>
       <c r="P150" t="n">
-        <v>37.11280293136553</v>
+        <v>40.64924082917615</v>
       </c>
       <c r="Q150" t="n">
-        <v>37.11280293136553</v>
+        <v>40.64924082917615</v>
       </c>
     </row>
     <row r="151">
@@ -8422,52 +8422,52 @@
         <v>2049</v>
       </c>
       <c r="B151" t="n">
-        <v>197.0360070875492</v>
+        <v>328.0964145648064</v>
       </c>
       <c r="C151" t="n">
-        <v>342.2517457625455</v>
+        <v>477.9577081372535</v>
       </c>
       <c r="D151" t="n">
-        <v>101.0347901696816</v>
+        <v>127.9225740810941</v>
       </c>
       <c r="E151" t="n">
-        <v>342.2517457625455</v>
+        <v>477.9577081372534</v>
       </c>
       <c r="F151" t="n">
-        <v>271.1770866662249</v>
+        <v>301.8322895354253</v>
       </c>
       <c r="G151" t="n">
-        <v>11.96600367182679</v>
+        <v>9.428218321171807</v>
       </c>
       <c r="H151" t="n">
-        <v>51.99918323055068</v>
+        <v>57.76622042485127</v>
       </c>
       <c r="I151" t="n">
-        <v>207.2118997638468</v>
+        <v>234.6378507894022</v>
       </c>
       <c r="J151" t="n">
-        <v>36.39942826138545</v>
+        <v>40.43635429739586</v>
       </c>
       <c r="K151" t="n">
-        <v>15.59975496916519</v>
+        <v>17.32986612745537</v>
       </c>
       <c r="L151" t="n">
-        <v>1.819971413069273</v>
+        <v>2.021817714869793</v>
       </c>
       <c r="M151" t="n">
-        <v>34.57945684831618</v>
+        <v>38.41453658252607</v>
       </c>
       <c r="N151" t="n">
-        <v>11.14058273665062</v>
+        <v>12.59838584584291</v>
       </c>
       <c r="O151" t="n">
-        <v>170.7479980770652</v>
+        <v>193.0912603972856</v>
       </c>
       <c r="P151" t="n">
-        <v>40.92307391929658</v>
+        <v>46.27807067372957</v>
       </c>
       <c r="Q151" t="n">
-        <v>40.92307391929658</v>
+        <v>46.27807067372957</v>
       </c>
     </row>
     <row r="152">
@@ -8475,52 +8475,52 @@
         <v>2050</v>
       </c>
       <c r="B152" t="n">
-        <v>206.7424300753027</v>
+        <v>350.8911348802565</v>
       </c>
       <c r="C152" t="n">
-        <v>362.0209274588516</v>
+        <v>515.4229584641976</v>
       </c>
       <c r="D152" t="n">
-        <v>109.9814210124075</v>
+        <v>144.1091814282977</v>
       </c>
       <c r="E152" t="n">
-        <v>362.0209274588516</v>
+        <v>515.4229584641976</v>
       </c>
       <c r="F152" t="n">
-        <v>292.0558142099894</v>
+        <v>335.3512826028077</v>
       </c>
       <c r="G152" t="n">
-        <v>12.83484747740433</v>
+        <v>10.46601416887253</v>
       </c>
       <c r="H152" t="n">
-        <v>56.68050815349348</v>
+        <v>64.89661915642904</v>
       </c>
       <c r="I152" t="n">
-        <v>222.540458579092</v>
+        <v>259.9886492775066</v>
       </c>
       <c r="J152" t="n">
-        <v>39.67635570744545</v>
+        <v>45.42763340950029</v>
       </c>
       <c r="K152" t="n">
-        <v>17.00415244604805</v>
+        <v>19.46898574692869</v>
       </c>
       <c r="L152" t="n">
-        <v>1.983817785372273</v>
+        <v>2.271381670475014</v>
       </c>
       <c r="M152" t="n">
-        <v>37.69253792207319</v>
+        <v>43.15625173902526</v>
       </c>
       <c r="N152" t="n">
-        <v>11.97723055125701</v>
+        <v>13.97288175122176</v>
       </c>
       <c r="O152" t="n">
-        <v>182.0539043791066</v>
+        <v>212.3878026185707</v>
       </c>
       <c r="P152" t="n">
-        <v>45.51347609477664</v>
+        <v>53.09695065464268</v>
       </c>
       <c r="Q152" t="n">
-        <v>45.51347609477664</v>
+        <v>53.09695065464268</v>
       </c>
     </row>
   </sheetData>

--- a/results/flows_per_year.xlsx
+++ b/results/flows_per_year.xlsx
@@ -3175,46 +3175,46 @@
         <v>1950</v>
       </c>
       <c r="B52" t="n">
-        <v>2.131833727357441</v>
+        <v>0.7823895370749557</v>
       </c>
       <c r="C52" t="n">
-        <v>2.131854661487357</v>
+        <v>0.7823983635889724</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>2.131854661487357</v>
+        <v>0.7823983635889724</v>
       </c>
       <c r="F52" t="n">
-        <v>6.751848453703026e-05</v>
+        <v>2.477952778306368e-05</v>
       </c>
       <c r="G52" t="n">
-        <v>4.548255830976046e-05</v>
+        <v>1.548846039717237e-05</v>
       </c>
       <c r="H52" t="n">
-        <v>7.627820617131848e-07</v>
+        <v>3.216138710500839e-07</v>
       </c>
       <c r="I52" t="n">
-        <v>2.127314416555659e-05</v>
+        <v>8.969453514841229e-06</v>
       </c>
       <c r="J52" t="n">
-        <v>5.339474431992291e-07</v>
+        <v>2.251297097350587e-07</v>
       </c>
       <c r="K52" t="n">
-        <v>2.288346185139554e-07</v>
+        <v>9.648416131502515e-08</v>
       </c>
       <c r="L52" t="n">
-        <v>2.669737215996146e-08</v>
+        <v>1.125648548675294e-08</v>
       </c>
       <c r="M52" t="n">
-        <v>5.072500710392676e-07</v>
+        <v>2.138732242483058e-07</v>
       </c>
       <c r="N52" t="n">
-        <v>1.075098939203527e-06</v>
+        <v>4.532968838078127e-07</v>
       </c>
       <c r="O52" t="n">
-        <v>2.042687984486702e-05</v>
+        <v>8.61264079234844e-06</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3228,46 +3228,46 @@
         <v>1951</v>
       </c>
       <c r="B53" t="n">
-        <v>2.227400165825532</v>
+        <v>1.144362330033751</v>
       </c>
       <c r="C53" t="n">
-        <v>2.227464608693493</v>
+        <v>1.144392468223195</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>2.227464608693492</v>
+        <v>1.144392468223195</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0002043418276828171</v>
+        <v>8.33742887466535e-05</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0001365072298290614</v>
+        <v>5.164987880566475e-05</v>
       </c>
       <c r="H53" t="n">
-        <v>2.348120694937693e-06</v>
+        <v>1.098152651803456e-06</v>
       </c>
       <c r="I53" t="n">
-        <v>6.548647715881787e-05</v>
+        <v>3.062625728918526e-05</v>
       </c>
       <c r="J53" t="n">
-        <v>1.643684486456385e-06</v>
+        <v>7.687068562624188e-07</v>
       </c>
       <c r="K53" t="n">
-        <v>7.044362084813079e-07</v>
+        <v>3.294457955410366e-07</v>
       </c>
       <c r="L53" t="n">
-        <v>8.218422432281925e-08</v>
+        <v>3.843534281312094e-08</v>
       </c>
       <c r="M53" t="n">
-        <v>1.561500262133566e-06</v>
+        <v>7.30271513449298e-07</v>
       </c>
       <c r="N53" t="n">
-        <v>3.309545668364958e-06</v>
+        <v>1.547785154236315e-06</v>
       </c>
       <c r="O53" t="n">
-        <v>6.288136769893422e-05</v>
+        <v>2.940791793048997e-05</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3281,46 +3281,46 @@
         <v>1952</v>
       </c>
       <c r="B54" t="n">
-        <v>2.273923987223408</v>
+        <v>1.219706994084048</v>
       </c>
       <c r="C54" t="n">
-        <v>2.274108359093904</v>
+        <v>1.219791787651812</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>2.274108359093904</v>
+        <v>1.219791787651813</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0005729875505049157</v>
+        <v>0.0002317763015437609</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0003789118973516688</v>
+        <v>0.0001425199144243225</v>
       </c>
       <c r="H54" t="n">
-        <v>6.718003378381619e-06</v>
+        <v>3.089644169519018e-06</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000187357649774865</v>
+        <v>8.616674294991928e-05</v>
       </c>
       <c r="J54" t="n">
-        <v>4.702602364867131e-06</v>
+        <v>2.162750918663312e-06</v>
       </c>
       <c r="K54" t="n">
-        <v>2.015401013514485e-06</v>
+        <v>9.268932508557051e-07</v>
       </c>
       <c r="L54" t="n">
-        <v>2.351301182433566e-07</v>
+        <v>1.081375459331656e-07</v>
       </c>
       <c r="M54" t="n">
-        <v>4.467472246623773e-06</v>
+        <v>2.054613372730147e-06</v>
       </c>
       <c r="N54" t="n">
-        <v>9.468652539418975e-06</v>
+        <v>4.354681810038749e-06</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0001799043982489605</v>
+        <v>8.273895439073621e-05</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3334,46 +3334,46 @@
         <v>1953</v>
       </c>
       <c r="B55" t="n">
-        <v>2.412137457170345</v>
+        <v>1.295553626632328</v>
       </c>
       <c r="C55" t="n">
-        <v>2.412633989338709</v>
+        <v>1.2957777037949</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>2.412633989338709</v>
+        <v>1.2957777037949</v>
       </c>
       <c r="F55" t="n">
-        <v>0.001506052049417606</v>
+        <v>0.0006031469019389259</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0009833866090345853</v>
+        <v>0.0003672762044942192</v>
       </c>
       <c r="H55" t="n">
-        <v>1.80922652440276e-05</v>
+        <v>8.164754911547536e-06</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0005045731751389917</v>
+        <v>0.0002277059425331589</v>
       </c>
       <c r="J55" t="n">
-        <v>1.266458567081931e-05</v>
+        <v>5.715328438083275e-06</v>
       </c>
       <c r="K55" t="n">
-        <v>5.427679573208279e-06</v>
+        <v>2.449426473464261e-06</v>
       </c>
       <c r="L55" t="n">
-        <v>6.332292835409655e-07</v>
+        <v>2.857664219041638e-07</v>
       </c>
       <c r="M55" t="n">
-        <v>1.203135638727835e-05</v>
+        <v>5.429562016179111e-06</v>
       </c>
       <c r="N55" t="n">
-        <v>2.550004273560999e-05</v>
+        <v>1.150776845033116e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0004845008119765897</v>
+        <v>0.0002186476005562921</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3387,46 +3387,46 @@
         <v>1954</v>
       </c>
       <c r="B56" t="n">
-        <v>2.446802475702612</v>
+        <v>1.371674661878093</v>
       </c>
       <c r="C56" t="n">
-        <v>2.448054503093188</v>
+        <v>1.372232313010214</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>2.448054503093188</v>
+        <v>1.372232313010214</v>
       </c>
       <c r="F56" t="n">
-        <v>0.003698418099428664</v>
+        <v>0.001473580663985028</v>
       </c>
       <c r="G56" t="n">
-        <v>0.002380494530401474</v>
+        <v>0.0008865794722783627</v>
       </c>
       <c r="H56" t="n">
-        <v>4.562043123555665e-05</v>
+        <v>2.031927202061537e-05</v>
       </c>
       <c r="I56" t="n">
-        <v>0.001272303137791634</v>
+        <v>0.0005666819196860513</v>
       </c>
       <c r="J56" t="n">
-        <v>3.193430186488965e-05</v>
+        <v>1.422349041443076e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>1.368612937066699e-05</v>
+        <v>6.095781606184613e-06</v>
       </c>
       <c r="L56" t="n">
-        <v>1.596715093244482e-06</v>
+        <v>7.111745207215381e-07</v>
       </c>
       <c r="M56" t="n">
-        <v>3.033758677164515e-05</v>
+        <v>1.351231589370922e-05</v>
       </c>
       <c r="N56" t="n">
-        <v>6.42994633581151e-05</v>
+        <v>2.863888506461178e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.001221689803804187</v>
+        <v>0.0005441388162276237</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3440,46 +3440,46 @@
         <v>1955</v>
       </c>
       <c r="B57" t="n">
-        <v>2.72426909579695</v>
+        <v>1.447864535864563</v>
       </c>
       <c r="C57" t="n">
-        <v>2.727233611677841</v>
+        <v>1.449171723720781</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>2.727233611677839</v>
+        <v>1.449171723720781</v>
       </c>
       <c r="F57" t="n">
-        <v>0.008510125001736238</v>
+        <v>0.003382511702279269</v>
       </c>
       <c r="G57" t="n">
-        <v>0.005389581969220034</v>
+        <v>0.002006524485207304</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0001080187972794075</v>
+        <v>4.763032674479871e-05</v>
       </c>
       <c r="I57" t="n">
-        <v>0.003012524235236809</v>
+        <v>0.001328356890327163</v>
       </c>
       <c r="J57" t="n">
-        <v>7.561315809558527e-05</v>
+        <v>3.33412287213591e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>3.240563918382226e-05</v>
+        <v>1.428909802343962e-05</v>
       </c>
       <c r="L57" t="n">
-        <v>3.780657904779264e-06</v>
+        <v>1.667061436067955e-06</v>
       </c>
       <c r="M57" t="n">
-        <v>7.1832500190806e-05</v>
+        <v>3.167416728529115e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0001522464937210317</v>
+        <v>6.713229941753021e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>0.002892683380699601</v>
+        <v>0.001275513688933074</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3493,46 +3493,46 @@
         <v>1956</v>
       </c>
       <c r="B58" t="n">
-        <v>2.775352761122007</v>
+        <v>1.523947228182803</v>
       </c>
       <c r="C58" t="n">
-        <v>2.781928079236085</v>
+        <v>1.526832260614457</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>2.781928079236085</v>
+        <v>1.526832260614457</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01832446307765396</v>
+        <v>0.007296715934061196</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0114030755891504</v>
+        <v>0.00425983969021528</v>
       </c>
       <c r="H58" t="n">
-        <v>0.000239586489986662</v>
+        <v>0.000105122639210051</v>
       </c>
       <c r="I58" t="n">
-        <v>0.006681800998516904</v>
+        <v>0.002931753604635867</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0001677105429906633</v>
+        <v>7.358584744703574e-05</v>
       </c>
       <c r="K58" t="n">
-        <v>7.187594699599857e-05</v>
+        <v>3.153679176301533e-05</v>
       </c>
       <c r="L58" t="n">
-        <v>8.385527149533167e-06</v>
+        <v>3.679292372351787e-06</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0001593250158411301</v>
+        <v>6.990655507468396e-05</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0003376838472756449</v>
+        <v>0.0001481645198199442</v>
       </c>
       <c r="O58" t="n">
-        <v>0.006415993098237254</v>
+        <v>0.00281512587657894</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3546,46 +3546,46 @@
         <v>1957</v>
       </c>
       <c r="B59" t="n">
-        <v>2.616947602509854</v>
+        <v>1.599721972127493</v>
       </c>
       <c r="C59" t="n">
-        <v>2.630616831731272</v>
+        <v>1.605715143852207</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>2.630616831731272</v>
+        <v>1.605715143852207</v>
       </c>
       <c r="F59" t="n">
-        <v>0.03696053266726409</v>
+        <v>0.01479732907457044</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02257187032893062</v>
+        <v>0.008488727259083624</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0004980690809423113</v>
+        <v>0.0002183746782283898</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01389059325739114</v>
+        <v>0.006090227137258433</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0003486483566596181</v>
+        <v>0.0001528622747598727</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0001494207242826935</v>
+        <v>6.551240346851693e-05</v>
       </c>
       <c r="L59" t="n">
-        <v>1.743241783298091e-05</v>
+        <v>7.643113737993637e-06</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0003312159388266373</v>
+        <v>0.0001452191610218791</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0007020006990836913</v>
+        <v>0.000307786977036347</v>
       </c>
       <c r="O59" t="n">
-        <v>0.01333801328259013</v>
+        <v>0.005847952563690593</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3599,46 +3599,46 @@
         <v>1958</v>
       </c>
       <c r="B60" t="n">
-        <v>2.631003813208855</v>
+        <v>1.674930557180924</v>
       </c>
       <c r="C60" t="n">
-        <v>2.657654956713095</v>
+        <v>1.686648593105146</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>2.657654956713096</v>
+        <v>1.686648593105147</v>
       </c>
       <c r="F60" t="n">
-        <v>0.06990830960503955</v>
+        <v>0.02822795432432623</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04185447433741846</v>
+        <v>0.01589317966724957</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0009710942977253446</v>
+        <v>0.0004269729688988061</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0270827409698957</v>
+        <v>0.01190780168817779</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0006797660084077412</v>
+        <v>0.0002988810782291642</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0002913282893176034</v>
+        <v>0.0001280918906696419</v>
       </c>
       <c r="L60" t="n">
-        <v>3.398830042038707e-05</v>
+        <v>1.494405391145822e-05</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0006457777079873541</v>
+        <v>0.0002839370243177061</v>
       </c>
       <c r="N60" t="n">
-        <v>0.001368703462960666</v>
+        <v>0.0006017946789423729</v>
       </c>
       <c r="O60" t="n">
-        <v>0.02600536579625266</v>
+        <v>0.01143409889990508</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3652,46 +3652,46 @@
         <v>1959</v>
       </c>
       <c r="B61" t="n">
-        <v>2.685214959941869</v>
+        <v>1.749226509086238</v>
       </c>
       <c r="C61" t="n">
-        <v>2.733980274155538</v>
+        <v>1.77080301930003</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>2.733980274155539</v>
+        <v>1.770803019300031</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1241259708529912</v>
+        <v>0.0507053484433331</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07279406115439273</v>
+        <v>0.02799323242881487</v>
       </c>
       <c r="H61" t="n">
-        <v>0.001776873797259184</v>
+        <v>0.000786188631271788</v>
       </c>
       <c r="I61" t="n">
-        <v>0.04955503590133939</v>
+        <v>0.02192592738324652</v>
       </c>
       <c r="J61" t="n">
-        <v>0.001243811658081429</v>
+        <v>0.0005503320418902516</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0005330621391777552</v>
+        <v>0.0002358565893815364</v>
       </c>
       <c r="L61" t="n">
-        <v>6.219058290407145e-05</v>
+        <v>2.751660209451259e-05</v>
       </c>
       <c r="M61" t="n">
-        <v>0.001181621075177357</v>
+        <v>0.0005228154397957389</v>
       </c>
       <c r="N61" t="n">
-        <v>0.002504404902025861</v>
+        <v>0.001108089198631403</v>
       </c>
       <c r="O61" t="n">
-        <v>0.04758369313849135</v>
+        <v>0.02105369477399666</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3705,46 +3705,46 @@
         <v>1960</v>
       </c>
       <c r="B62" t="n">
-        <v>2.720261228177977</v>
+        <v>1.821638718871136</v>
       </c>
       <c r="C62" t="n">
-        <v>2.80418631901876</v>
+        <v>1.859483209483754</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>2.804186319018759</v>
+        <v>1.859483209483754</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2072048051841198</v>
+        <v>0.08588735754133112</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1188626042990853</v>
+        <v>0.04605105163331243</v>
       </c>
       <c r="H62" t="n">
-        <v>0.003057999261405052</v>
+        <v>0.001378949050662185</v>
       </c>
       <c r="I62" t="n">
-        <v>0.08528420162362969</v>
+        <v>0.03845735685735647</v>
       </c>
       <c r="J62" t="n">
-        <v>0.002140599482983535</v>
+        <v>0.000965264335463528</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0009173997784215151</v>
+        <v>0.000413684715198655</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0001070299741491767</v>
+        <v>4.826321677317643e-05</v>
       </c>
       <c r="M62" t="n">
-        <v>0.002033569508834358</v>
+        <v>0.0009170011186903518</v>
       </c>
       <c r="N62" t="n">
-        <v>0.004310080070102561</v>
+        <v>0.001943552078627755</v>
       </c>
       <c r="O62" t="n">
-        <v>0.08189152133194864</v>
+        <v>0.03692748949392734</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3758,46 +3758,46 @@
         <v>1961</v>
       </c>
       <c r="B63" t="n">
-        <v>2.71451127311451</v>
+        <v>1.891890186961323</v>
       </c>
       <c r="C63" t="n">
-        <v>2.850322151420507</v>
+        <v>1.953946686384179</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>2.850322151420507</v>
+        <v>1.95394668638418</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3258255317601765</v>
+        <v>0.137443402612922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1828667124907071</v>
+        <v>0.07212077164149422</v>
       </c>
       <c r="H63" t="n">
-        <v>0.004948574513173954</v>
+        <v>0.002261167995164797</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1380102447562958</v>
+        <v>0.06306146297626281</v>
       </c>
       <c r="J63" t="n">
-        <v>0.003464002159221769</v>
+        <v>0.001582817596615359</v>
       </c>
       <c r="K63" t="n">
-        <v>0.001484572353952187</v>
+        <v>0.0006783503985494397</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0001732001079610884</v>
+        <v>7.914087983076794e-05</v>
       </c>
       <c r="M63" t="n">
-        <v>0.00329080205126068</v>
+        <v>0.001503676716784591</v>
       </c>
       <c r="N63" t="n">
-        <v>0.006974740855512401</v>
+        <v>0.003186990668740609</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1325200762547356</v>
+        <v>0.06055282270607157</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3811,46 +3811,46 @@
         <v>1962</v>
       </c>
       <c r="B64" t="n">
-        <v>2.718739787056369</v>
+        <v>1.95889760810008</v>
       </c>
       <c r="C64" t="n">
-        <v>2.926039532291856</v>
+        <v>2.055159917932549</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>2.926039532291856</v>
+        <v>2.055159917932549</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4837958217541118</v>
+        <v>0.2082842673324793</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2655855636114928</v>
+        <v>0.1069555201404065</v>
       </c>
       <c r="H64" t="n">
-        <v>0.007553432012629095</v>
+        <v>0.003507533556648657</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2106568261299893</v>
+        <v>0.09782121363542366</v>
       </c>
       <c r="J64" t="n">
-        <v>0.005287402408840364</v>
+        <v>0.002455273489654059</v>
       </c>
       <c r="K64" t="n">
-        <v>0.002266029603788728</v>
+        <v>0.001052260066994596</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0002643701204420183</v>
+        <v>0.0001227636744827029</v>
       </c>
       <c r="M64" t="n">
-        <v>0.005023032288398347</v>
+        <v>0.002332509815171356</v>
       </c>
       <c r="N64" t="n">
-        <v>0.01064614278668889</v>
+        <v>0.004943673685120909</v>
       </c>
       <c r="O64" t="n">
-        <v>0.202276712947089</v>
+        <v>0.09392980001729725</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3864,46 +3864,46 @@
         <v>1963</v>
       </c>
       <c r="B65" t="n">
-        <v>2.972635815931097</v>
+        <v>2.02198778309767</v>
       </c>
       <c r="C65" t="n">
-        <v>3.271912630870709</v>
+        <v>2.163619866882521</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>3.27191263087071</v>
+        <v>2.16361986688252</v>
       </c>
       <c r="F65" t="n">
-        <v>0.68028499209624</v>
+        <v>0.2997415772680127</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3652567658440161</v>
+        <v>0.1506551732839585</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01090482321642312</v>
+        <v>0.005160683214832629</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3041234030358</v>
+        <v>0.1439257207692212</v>
       </c>
       <c r="J65" t="n">
-        <v>0.007633376251496185</v>
+        <v>0.003612478250382838</v>
       </c>
       <c r="K65" t="n">
-        <v>0.003271446964926937</v>
+        <v>0.001548204964449788</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0003816688125748093</v>
+        <v>0.000180623912519142</v>
       </c>
       <c r="M65" t="n">
-        <v>0.007251707438921376</v>
+        <v>0.003431854337863697</v>
       </c>
       <c r="N65" t="n">
-        <v>0.01536974250003638</v>
+        <v>0.007273696286683544</v>
       </c>
       <c r="O65" t="n">
-        <v>0.2920251075006911</v>
+        <v>0.1382002294469873</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3917,46 +3917,46 @@
         <v>1964</v>
       </c>
       <c r="B66" t="n">
-        <v>3.002233071111525</v>
+        <v>2.081305704868988</v>
       </c>
       <c r="C66" t="n">
-        <v>3.412232780560001</v>
+        <v>2.279593568491393</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>3.412232780560001</v>
+        <v>2.279593568491392</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9089660133442991</v>
+        <v>0.4109718379233551</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4773873718195909</v>
+        <v>0.2022477709524027</v>
       </c>
       <c r="H66" t="n">
-        <v>0.01493926066816303</v>
+        <v>0.007225063856686828</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4166393808565466</v>
+        <v>0.2014990031142661</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01045748246771413</v>
+        <v>0.005057544699680781</v>
       </c>
       <c r="K66" t="n">
-        <v>0.004481778200448911</v>
+        <v>0.002167519157006048</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0005228741233857066</v>
+        <v>0.000252877234984039</v>
       </c>
       <c r="M66" t="n">
-        <v>0.009934608344328421</v>
+        <v>0.004804667464696741</v>
       </c>
       <c r="N66" t="n">
-        <v>0.02105605795284978</v>
+        <v>0.0101833261135636</v>
       </c>
       <c r="O66" t="n">
-        <v>0.4000651011041459</v>
+        <v>0.1934831961577084</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3970,46 +3970,46 @@
         <v>1965</v>
       </c>
       <c r="B67" t="n">
-        <v>3.150506967374873</v>
+        <v>2.138767917762037</v>
       </c>
       <c r="C67" t="n">
-        <v>3.685587164291961</v>
+        <v>2.403911251260527</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>3.685587164291961</v>
+        <v>2.403911251260527</v>
       </c>
       <c r="F67" t="n">
-        <v>1.158635888599413</v>
+        <v>0.5388319369121423</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5953935760551116</v>
+        <v>0.2597336911242546</v>
       </c>
       <c r="H67" t="n">
-        <v>0.01949684928037973</v>
+        <v>0.009661093123426808</v>
       </c>
       <c r="I67" t="n">
-        <v>0.543745463263923</v>
+        <v>0.2694371526644583</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0136477944962658</v>
+        <v>0.006762765186398758</v>
       </c>
       <c r="K67" t="n">
-        <v>0.005849054784113916</v>
+        <v>0.00289832793702804</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0006823897248132901</v>
+        <v>0.0003381382593199379</v>
       </c>
       <c r="M67" t="n">
-        <v>0.01296540477145252</v>
+        <v>0.006424626927078821</v>
       </c>
       <c r="N67" t="n">
-        <v>0.02747972590240187</v>
+        <v>0.01361677403007432</v>
       </c>
       <c r="O67" t="n">
-        <v>0.5221147921456354</v>
+        <v>0.2587187065714122</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -4023,46 +4023,46 @@
         <v>1966</v>
       </c>
       <c r="B68" t="n">
-        <v>3.071245611791163</v>
+        <v>2.195928426539525</v>
       </c>
       <c r="C68" t="n">
-        <v>3.739449571087937</v>
+        <v>2.535977782871059</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>3.739449571087934</v>
+        <v>2.53597778287106</v>
       </c>
       <c r="F68" t="n">
-        <v>1.415191276501825</v>
+        <v>0.6783245818130719</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7118186877683812</v>
+        <v>0.3203778909377728</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02434751268692693</v>
+        <v>0.01239046237645264</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6790250760465183</v>
+        <v>0.3455562284988458</v>
       </c>
       <c r="J68" t="n">
-        <v>0.01704325888084887</v>
+        <v>0.008673323663516848</v>
       </c>
       <c r="K68" t="n">
-        <v>0.007304253806078086</v>
+        <v>0.003717138712935792</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0008521629440424437</v>
+        <v>0.0004336661831758423</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01619109593680644</v>
+        <v>0.008239657480341004</v>
       </c>
       <c r="N68" t="n">
-        <v>0.03431646649262984</v>
+        <v>0.01746366836058907</v>
       </c>
       <c r="O68" t="n">
-        <v>0.6520128633599667</v>
+        <v>0.3318096988511925</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -4076,46 +4076,46 @@
         <v>1967</v>
       </c>
       <c r="B69" t="n">
-        <v>2.937279698426804</v>
+        <v>2.256752618253778</v>
       </c>
       <c r="C69" t="n">
-        <v>3.739711364015677</v>
+        <v>2.676973166348567</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>3.739711364015677</v>
+        <v>2.676973166348567</v>
       </c>
       <c r="F69" t="n">
-        <v>1.664438192333541</v>
+        <v>0.8235063805398574</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8197732811873615</v>
+        <v>0.3811689614927144</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02923840077044472</v>
+        <v>0.01531167989009348</v>
       </c>
       <c r="I69" t="n">
-        <v>0.8154265103757361</v>
+        <v>0.4270257391570529</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0204668805393113</v>
+        <v>0.01071817592306546</v>
       </c>
       <c r="K69" t="n">
-        <v>0.008771520231133416</v>
+        <v>0.00459350396702805</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001023344026965565</v>
+        <v>0.0005359087961532727</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01944353651234574</v>
+        <v>0.01018226712691218</v>
       </c>
       <c r="N69" t="n">
-        <v>0.04120990153034351</v>
+        <v>0.02158096215620401</v>
       </c>
       <c r="O69" t="n">
-        <v>0.7829881290765265</v>
+        <v>0.4100382809678762</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4129,46 +4129,46 @@
         <v>1968</v>
       </c>
       <c r="B70" t="n">
-        <v>3.115917525769652</v>
+        <v>2.328316656380987</v>
       </c>
       <c r="C70" t="n">
-        <v>4.047002806290071</v>
+        <v>2.828605545489054</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>4.04700280629007</v>
+        <v>2.828605545489053</v>
       </c>
       <c r="F70" t="n">
-        <v>1.894760751814617</v>
+        <v>0.9685867384915454</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9146709828457552</v>
+        <v>0.4419668552198957</v>
       </c>
       <c r="H70" t="n">
-        <v>0.03392618431046063</v>
+        <v>0.01822914980555709</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9461635846584028</v>
+        <v>0.5083907334660919</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02374832901732244</v>
+        <v>0.01276040486388995</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01017785529313819</v>
+        <v>0.00546874494166712</v>
       </c>
       <c r="L70" t="n">
-        <v>0.001187416450866122</v>
+        <v>0.0006380202431944974</v>
       </c>
       <c r="M70" t="n">
-        <v>0.02256091256645631</v>
+        <v>0.01212238462069545</v>
       </c>
       <c r="N70" t="n">
-        <v>0.04781707199757698</v>
+        <v>0.02569297392038793</v>
       </c>
       <c r="O70" t="n">
-        <v>0.9085243679539629</v>
+        <v>0.4881665044873706</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -4182,46 +4182,46 @@
         <v>1969</v>
       </c>
       <c r="B71" t="n">
-        <v>3.122179930559311</v>
+        <v>2.412201127024789</v>
       </c>
       <c r="C71" t="n">
-        <v>4.172447293387454</v>
+        <v>2.991706571733653</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>4.172447293387454</v>
+        <v>2.991706571733653</v>
       </c>
       <c r="F71" t="n">
-        <v>2.098850669902291</v>
+        <v>1.108898730122018</v>
       </c>
       <c r="G71" t="n">
-        <v>0.993306077451613</v>
+        <v>0.4988929988495319</v>
       </c>
       <c r="H71" t="n">
-        <v>0.03826885127713883</v>
+        <v>0.02111558300558612</v>
       </c>
       <c r="I71" t="n">
-        <v>1.067275741173539</v>
+        <v>0.5888901482669013</v>
       </c>
       <c r="J71" t="n">
-        <v>0.02678819589399718</v>
+        <v>0.01478090810391028</v>
       </c>
       <c r="K71" t="n">
-        <v>0.01148065538314164</v>
+        <v>0.006334674901675835</v>
       </c>
       <c r="L71" t="n">
-        <v>0.001339409794699859</v>
+        <v>0.0007390454051955143</v>
       </c>
       <c r="M71" t="n">
-        <v>0.02544878609929732</v>
+        <v>0.01404186269871478</v>
       </c>
       <c r="N71" t="n">
-        <v>0.05393781982783396</v>
+        <v>0.02976124115842888</v>
       </c>
       <c r="O71" t="n">
-        <v>1.024818576728845</v>
+        <v>0.5654635820101487</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4235,46 +4235,46 @@
         <v>1970</v>
       </c>
       <c r="B72" t="n">
-        <v>2.595519459899545</v>
+        <v>2.213937512451965</v>
       </c>
       <c r="C72" t="n">
-        <v>4.134007727948172</v>
+        <v>3.163969480252373</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>4.13400772794817</v>
+        <v>3.163969480252373</v>
       </c>
       <c r="F72" t="n">
-        <v>2.274219543447532</v>
+        <v>1.241502074109055</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6547582086595086</v>
+        <v>0.2414684237928338</v>
       </c>
       <c r="H72" t="n">
-        <v>0.05605827697343171</v>
+        <v>0.03461654943402299</v>
       </c>
       <c r="I72" t="n">
-        <v>1.563403057814594</v>
+        <v>0.9654171008821946</v>
       </c>
       <c r="J72" t="n">
-        <v>0.03924079388140218</v>
+        <v>0.02423158460381607</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0168174830920295</v>
+        <v>0.01038496483020688</v>
       </c>
       <c r="L72" t="n">
-        <v>0.00196203969407011</v>
+        <v>0.001211579230190803</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03727875418733208</v>
+        <v>0.02302000537362527</v>
       </c>
       <c r="N72" t="n">
-        <v>0.07901102704533125</v>
+        <v>0.04879010328562013</v>
       </c>
       <c r="O72" t="n">
-        <v>1.501209513861294</v>
+        <v>0.9270119624267823</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4288,46 +4288,46 @@
         <v>1971</v>
       </c>
       <c r="B73" t="n">
-        <v>2.886419420101067</v>
+        <v>2.288375907297766</v>
       </c>
       <c r="C73" t="n">
-        <v>4.556675368038155</v>
+        <v>3.341872069067371</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>4.556675368038154</v>
+        <v>3.34187206906737</v>
       </c>
       <c r="F73" t="n">
-        <v>2.422617258825374</v>
+        <v>1.365330720843192</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6644531031021279</v>
+        <v>0.2563873926646563</v>
       </c>
       <c r="H73" t="n">
-        <v>0.06085952846734326</v>
+        <v>0.03838649982156459</v>
       </c>
       <c r="I73" t="n">
-        <v>1.697304627255907</v>
+        <v>1.070556828356969</v>
       </c>
       <c r="J73" t="n">
-        <v>0.04260166992714026</v>
+        <v>0.02687054987509518</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01825785854020296</v>
+        <v>0.01151594994646936</v>
       </c>
       <c r="L73" t="n">
-        <v>0.002130083496357013</v>
+        <v>0.001343527493754759</v>
       </c>
       <c r="M73" t="n">
-        <v>0.04047158643078323</v>
+        <v>0.02552702238134042</v>
       </c>
       <c r="N73" t="n">
-        <v>0.08577812428980543</v>
+        <v>0.05410363891517184</v>
       </c>
       <c r="O73" t="n">
-        <v>1.629784361506303</v>
+        <v>1.027969139388265</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4341,46 +4341,46 @@
         <v>1972</v>
       </c>
       <c r="B74" t="n">
-        <v>3.009303431986114</v>
+        <v>2.371311995363846</v>
       </c>
       <c r="C74" t="n">
-        <v>4.797332458549149</v>
+        <v>3.522426915577626</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>4.797332458549149</v>
+        <v>3.522426915577625</v>
       </c>
       <c r="F74" t="n">
-        <v>2.548789557389801</v>
+        <v>1.480947651393279</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6666537399550239</v>
+        <v>0.2692477353787723</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06515085521889602</v>
+        <v>0.04194345863127134</v>
       </c>
       <c r="I74" t="n">
-        <v>1.816984962215879</v>
+        <v>1.169756457383233</v>
       </c>
       <c r="J74" t="n">
-        <v>0.04560559865322722</v>
+        <v>0.02936042104188997</v>
       </c>
       <c r="K74" t="n">
-        <v>0.01954525656566882</v>
+        <v>0.01258303758938141</v>
       </c>
       <c r="L74" t="n">
-        <v>0.002280279932661361</v>
+        <v>0.001468021052094498</v>
       </c>
       <c r="M74" t="n">
-        <v>0.04332531872056587</v>
+        <v>0.02789239998979546</v>
       </c>
       <c r="N74" t="n">
-        <v>0.09182651093907732</v>
+        <v>0.05911697474863077</v>
       </c>
       <c r="O74" t="n">
-        <v>1.744703707842469</v>
+        <v>1.123222520223985</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4394,46 +4394,46 @@
         <v>1973</v>
       </c>
       <c r="B75" t="n">
-        <v>3.125996506184912</v>
+        <v>2.461666539187352</v>
       </c>
       <c r="C75" t="n">
-        <v>5.02156263237667</v>
+        <v>3.705661353790858</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>5.021562632376672</v>
+        <v>3.705661353790857</v>
       </c>
       <c r="F75" t="n">
-        <v>2.659169529530361</v>
+        <v>1.590062434304865</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6638367651179858</v>
+        <v>0.2805942084064353</v>
       </c>
       <c r="H75" t="n">
-        <v>0.06906921107581314</v>
+        <v>0.04532774628109947</v>
       </c>
       <c r="I75" t="n">
-        <v>1.926263553336566</v>
+        <v>1.264140479617328</v>
       </c>
       <c r="J75" t="n">
-        <v>0.04834844775306916</v>
+        <v>0.0317294223967696</v>
       </c>
       <c r="K75" t="n">
-        <v>0.02072076332274393</v>
+        <v>0.01359832388432984</v>
       </c>
       <c r="L75" t="n">
-        <v>0.002417422387653459</v>
+        <v>0.001586471119838481</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0459310253654157</v>
+        <v>0.03014295127693114</v>
       </c>
       <c r="N75" t="n">
-        <v>0.09734921583296548</v>
+        <v>0.0638869401750829</v>
       </c>
       <c r="O75" t="n">
-        <v>1.849635100826344</v>
+        <v>1.213851863326575</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4447,46 +4447,46 @@
         <v>1974</v>
       </c>
       <c r="B76" t="n">
-        <v>2.600498628554994</v>
+        <v>2.557109521132037</v>
       </c>
       <c r="C76" t="n">
-        <v>4.598083921555602</v>
+        <v>3.89098263293052</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>4.598083921555602</v>
+        <v>3.890982632930521</v>
       </c>
       <c r="F76" t="n">
-        <v>2.760687907265937</v>
+        <v>1.694986312517624</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6579665462126666</v>
+        <v>0.2909093527297431</v>
       </c>
       <c r="H76" t="n">
-        <v>0.072786508651844</v>
+        <v>0.04860266399265734</v>
       </c>
       <c r="I76" t="n">
-        <v>2.029934852401427</v>
+        <v>1.355474295795218</v>
       </c>
       <c r="J76" t="n">
-        <v>0.05095055605629085</v>
+        <v>0.03402186479486015</v>
       </c>
       <c r="K76" t="n">
-        <v>0.02183595259555322</v>
+        <v>0.0145807991977972</v>
       </c>
       <c r="L76" t="n">
-        <v>0.002547527802814542</v>
+        <v>0.001701093239743007</v>
       </c>
       <c r="M76" t="n">
-        <v>0.04840302825347629</v>
+        <v>0.03232077155511712</v>
       </c>
       <c r="N76" t="n">
-        <v>0.102588540249849</v>
+        <v>0.0685027547496509</v>
       </c>
       <c r="O76" t="n">
-        <v>1.949182264747132</v>
+        <v>1.301552340243367</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4500,46 +4500,46 @@
         <v>1975</v>
       </c>
       <c r="B77" t="n">
-        <v>2.564336329967801</v>
+        <v>2.638597670149225</v>
       </c>
       <c r="C77" t="n">
-        <v>4.643408668924463</v>
+        <v>4.06131531902916</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01994188170938601</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>4.643408668924462</v>
+        <v>4.061315319029158</v>
       </c>
       <c r="F77" t="n">
-        <v>2.85993600488951</v>
+        <v>1.798161683686671</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6504473515568269</v>
+        <v>0.3005641585498971</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07648229953843909</v>
+        <v>0.05183991433165743</v>
       </c>
       <c r="I77" t="n">
-        <v>2.133006353794246</v>
+        <v>1.445757610805116</v>
       </c>
       <c r="J77" t="n">
-        <v>0.05353760967690734</v>
+        <v>0.03628794003216024</v>
       </c>
       <c r="K77" t="n">
-        <v>0.02294468986153171</v>
+        <v>0.01555197429949725</v>
       </c>
       <c r="L77" t="n">
-        <v>0.002676880483845366</v>
+        <v>0.001814397001608012</v>
       </c>
       <c r="M77" t="n">
-        <v>0.05086072919306196</v>
+        <v>0.03447354303055223</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1077975521827888</v>
+        <v>0.0730654792552306</v>
       </c>
       <c r="O77" t="n">
-        <v>2.048153491472987</v>
+        <v>1.388244105849382</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4553,46 +4553,46 @@
         <v>1976</v>
       </c>
       <c r="B78" t="n">
-        <v>3.005295995689941</v>
+        <v>2.935836610765424</v>
       </c>
       <c r="C78" t="n">
-        <v>5.209583253749699</v>
+        <v>4.448270032903376</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>5.209583253749699</v>
+        <v>4.448270032903377</v>
       </c>
       <c r="F78" t="n">
-        <v>2.962498736336787</v>
+        <v>1.901847405519417</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6421963594317786</v>
+        <v>0.309812224321577</v>
       </c>
       <c r="H78" t="n">
-        <v>0.08031815920055811</v>
+        <v>0.05510891011838689</v>
       </c>
       <c r="I78" t="n">
-        <v>2.239984217704456</v>
+        <v>1.536926271079455</v>
       </c>
       <c r="J78" t="n">
-        <v>0.05622271144039062</v>
+        <v>0.03857623708287076</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0240954477601674</v>
+        <v>0.01653267303551604</v>
       </c>
       <c r="L78" t="n">
-        <v>0.00281113557201953</v>
+        <v>0.001928811854143538</v>
       </c>
       <c r="M78" t="n">
-        <v>0.05341157586837107</v>
+        <v>0.03664742522872723</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1132039832732309</v>
+        <v>0.0776729472057486</v>
       </c>
       <c r="O78" t="n">
-        <v>2.150875682191387</v>
+        <v>1.475785996909223</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4606,46 +4606,46 @@
         <v>1977</v>
       </c>
       <c r="B79" t="n">
-        <v>3.459269523575525</v>
+        <v>3.239856469522337</v>
       </c>
       <c r="C79" t="n">
-        <v>5.776090157233726</v>
+        <v>4.844539358548028</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>5.776090157233726</v>
+        <v>4.844539358548028</v>
       </c>
       <c r="F79" t="n">
-        <v>3.072513724567922</v>
+        <v>2.007946471223308</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6337551628224471</v>
+        <v>0.3188065880383699</v>
       </c>
       <c r="H79" t="n">
-        <v>0.08441856559888172</v>
+        <v>0.05847022672563248</v>
       </c>
       <c r="I79" t="n">
-        <v>2.354339996146588</v>
+        <v>1.630669656459304</v>
       </c>
       <c r="J79" t="n">
-        <v>0.05909299591921727</v>
+        <v>0.04092915870794267</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02532556967966455</v>
+        <v>0.01754106801768972</v>
       </c>
       <c r="L79" t="n">
-        <v>0.002954649795960864</v>
+        <v>0.002046457935397133</v>
       </c>
       <c r="M79" t="n">
-        <v>0.05613834612325641</v>
+        <v>0.03888270077254553</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1189832782913128</v>
+        <v>0.08241053622384968</v>
       </c>
       <c r="O79" t="n">
-        <v>2.260682287534944</v>
+        <v>1.565800188253144</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4659,46 +4659,46 @@
         <v>1978</v>
       </c>
       <c r="B80" t="n">
-        <v>3.798441980938272</v>
+        <v>3.560374328403033</v>
       </c>
       <c r="C80" t="n">
-        <v>6.237118746575494</v>
+        <v>5.261210467632917</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>6.237118746575495</v>
+        <v>5.261210467632916</v>
       </c>
       <c r="F80" t="n">
-        <v>3.192421243075666</v>
+        <v>2.11798266556211</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6253930687206918</v>
+        <v>0.3276288347938159</v>
       </c>
       <c r="H80" t="n">
-        <v>0.08885866757382589</v>
+        <v>0.06197378644967178</v>
       </c>
       <c r="I80" t="n">
-        <v>2.478169506781147</v>
+        <v>1.728380044318624</v>
       </c>
       <c r="J80" t="n">
-        <v>0.06220106730167817</v>
+        <v>0.04338165051477026</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02665760027214778</v>
+        <v>0.01859213593490154</v>
       </c>
       <c r="L80" t="n">
-        <v>0.003110053365083908</v>
+        <v>0.002169082525738513</v>
       </c>
       <c r="M80" t="n">
-        <v>0.05909101393659427</v>
+        <v>0.04121256798903176</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1252413553526646</v>
+        <v>0.08734860901267633</v>
       </c>
       <c r="O80" t="n">
-        <v>2.379585751700627</v>
+        <v>1.65962357124085</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4712,46 +4712,46 @@
         <v>1979</v>
       </c>
       <c r="B81" t="n">
-        <v>3.93856989592445</v>
+        <v>3.898912640085512</v>
       </c>
       <c r="C81" t="n">
-        <v>6.509002695032314</v>
+        <v>5.700902481867001</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>6.509002695032311</v>
+        <v>5.700902481867003</v>
       </c>
       <c r="F81" t="n">
-        <v>3.322894328790309</v>
+        <v>2.233147624247495</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6171755928872947</v>
+        <v>0.3363162118459249</v>
       </c>
       <c r="H81" t="n">
-        <v>0.09365949470433516</v>
+        <v>0.06565954889082358</v>
       </c>
       <c r="I81" t="n">
-        <v>2.612059241198687</v>
+        <v>1.831171863510745</v>
       </c>
       <c r="J81" t="n">
-        <v>0.06556164629303463</v>
+        <v>0.04596168422357649</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02809784841130055</v>
+        <v>0.01969786466724707</v>
       </c>
       <c r="L81" t="n">
-        <v>0.00327808231465173</v>
+        <v>0.002298084211178825</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0622835639783829</v>
+        <v>0.04366360001239766</v>
       </c>
       <c r="N81" t="n">
-        <v>0.132007854480499</v>
+        <v>0.09254348640889958</v>
       </c>
       <c r="O81" t="n">
-        <v>2.508149235129481</v>
+        <v>1.758326241769092</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -4765,46 +4765,46 @@
         <v>1980</v>
       </c>
       <c r="B82" t="n">
-        <v>3.548762278082866</v>
+        <v>4.246338804938926</v>
       </c>
       <c r="C82" t="n">
-        <v>6.262305405416895</v>
+        <v>6.165421704723717</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>6.262305405416897</v>
+        <v>6.165421704723719</v>
       </c>
       <c r="F82" t="n">
-        <v>3.462994763070391</v>
+        <v>2.354388354574182</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6066335764029936</v>
+        <v>0.334301091642828</v>
       </c>
       <c r="H82" t="n">
-        <v>0.09887404107694844</v>
+        <v>0.06992609756300837</v>
       </c>
       <c r="I82" t="n">
-        <v>2.757487145590447</v>
+        <v>1.950161165368346</v>
       </c>
       <c r="J82" t="n">
-        <v>0.06921182875386389</v>
+        <v>0.04894826829410591</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02966221232308452</v>
+        <v>0.02097782926890254</v>
       </c>
       <c r="L82" t="n">
-        <v>0.003460591437693195</v>
+        <v>0.002447413414705296</v>
       </c>
       <c r="M82" t="n">
-        <v>0.06575123731617072</v>
+        <v>0.04650085487940064</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1393574678956768</v>
+        <v>0.09855694973186251</v>
       </c>
       <c r="O82" t="n">
-        <v>2.647791890017859</v>
+        <v>1.872582044905387</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -4818,46 +4818,46 @@
         <v>1981</v>
       </c>
       <c r="B83" t="n">
-        <v>3.675579011968292</v>
+        <v>4.534860614032703</v>
       </c>
       <c r="C83" t="n">
-        <v>6.338760236647092</v>
+        <v>6.568583847659138</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1987313190299777</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>6.338760236647094</v>
+        <v>6.56858384765914</v>
       </c>
       <c r="F83" t="n">
-        <v>3.610603895568238</v>
+        <v>2.482504367742085</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5980643758747899</v>
+        <v>0.3417430691879415</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1042822831906635</v>
+        <v>0.0741054618560282</v>
       </c>
       <c r="I83" t="n">
-        <v>2.908257236502778</v>
+        <v>2.066655836698112</v>
       </c>
       <c r="J83" t="n">
-        <v>0.07299759823346436</v>
+        <v>0.05187382329921975</v>
       </c>
       <c r="K83" t="n">
-        <v>0.03128468495719901</v>
+        <v>0.02223163855680846</v>
       </c>
       <c r="L83" t="n">
-        <v>0.003649879911673218</v>
+        <v>0.002593691164960988</v>
       </c>
       <c r="M83" t="n">
-        <v>0.06934771832179117</v>
+        <v>0.04928013213425875</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1469770960729993</v>
+        <v>0.1044443737627461</v>
       </c>
       <c r="O83" t="n">
-        <v>2.792564825386987</v>
+        <v>1.984443101492177</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4871,46 +4871,46 @@
         <v>1982</v>
       </c>
       <c r="B84" t="n">
-        <v>3.806289693955618</v>
+        <v>4.840204477535282</v>
       </c>
       <c r="C84" t="n">
-        <v>6.403287027434011</v>
+        <v>6.99601255341844</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4182754977777368</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>6.403287027434009</v>
+        <v>6.996012553418438</v>
       </c>
       <c r="F84" t="n">
-        <v>3.762988377140328</v>
+        <v>2.618257995583384</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5890169758180817</v>
+        <v>0.3489863367590045</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1098762050934525</v>
+        <v>0.07856020020981069</v>
       </c>
       <c r="I84" t="n">
-        <v>3.064095196228794</v>
+        <v>2.190711458614564</v>
       </c>
       <c r="J84" t="n">
-        <v>0.07691334356541678</v>
+        <v>0.05499214014686748</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03296286152803578</v>
+        <v>0.02356806006294321</v>
       </c>
       <c r="L84" t="n">
-        <v>0.003845667178270839</v>
+        <v>0.002749607007343373</v>
       </c>
       <c r="M84" t="n">
-        <v>0.07306767638714594</v>
+        <v>0.05224253313952411</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1548529028878413</v>
+        <v>0.1107139759338754</v>
       </c>
       <c r="O84" t="n">
-        <v>2.942205154868984</v>
+        <v>2.103565542743633</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4924,46 +4924,46 @@
         <v>1983</v>
       </c>
       <c r="B85" t="n">
-        <v>4.281823089277573</v>
+        <v>5.164071075422294</v>
       </c>
       <c r="C85" t="n">
-        <v>7.068808345689589</v>
+        <v>7.450185134085852</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3844523962336597</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>7.06880834568959</v>
+        <v>7.450185134085853</v>
       </c>
       <c r="F85" t="n">
-        <v>3.917541551857265</v>
+        <v>2.762490227407169</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5791861280197037</v>
+        <v>0.3560543761823694</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1155832443358457</v>
+        <v>0.08332542887865418</v>
       </c>
       <c r="I85" t="n">
-        <v>3.222772179501711</v>
+        <v>2.32311042234614</v>
       </c>
       <c r="J85" t="n">
-        <v>0.08090827103509209</v>
+        <v>0.05832780021505792</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03467497330075376</v>
+        <v>0.02499762866359625</v>
       </c>
       <c r="L85" t="n">
-        <v>0.004045413551754603</v>
+        <v>0.002916390010752897</v>
       </c>
       <c r="M85" t="n">
-        <v>0.07686285748333749</v>
+        <v>0.05541141020430503</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1628723576401231</v>
+        <v>0.117405402550487</v>
       </c>
       <c r="O85" t="n">
-        <v>3.094574795162338</v>
+        <v>2.230702648459252</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4977,46 +4977,46 @@
         <v>1984</v>
       </c>
       <c r="B86" t="n">
-        <v>4.741624709025705</v>
+        <v>5.506678902937048</v>
       </c>
       <c r="C86" t="n">
-        <v>7.698900748172544</v>
+        <v>7.932276888826482</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3716309783465218</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>7.698900748172544</v>
+        <v>7.932276888826484</v>
       </c>
       <c r="F86" t="n">
-        <v>4.07243797957077</v>
+        <v>2.916259672632278</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5683253295777608</v>
+        <v>0.3629986348539272</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1213652978635349</v>
+        <v>0.08845226597175088</v>
       </c>
       <c r="I86" t="n">
-        <v>3.382747352129475</v>
+        <v>2.464808771806603</v>
       </c>
       <c r="J86" t="n">
-        <v>0.08495570850447441</v>
+        <v>0.06191658618022564</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03640958935906046</v>
+        <v>0.02653567979152528</v>
       </c>
       <c r="L86" t="n">
-        <v>0.00424778542522372</v>
+        <v>0.003095829309011281</v>
       </c>
       <c r="M86" t="n">
-        <v>0.08070792307925069</v>
+        <v>0.05882075687121436</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1709578470744268</v>
+        <v>0.1245672225799064</v>
       </c>
       <c r="O86" t="n">
-        <v>3.248199094414109</v>
+        <v>2.366777229018221</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5030,46 +5030,46 @@
         <v>1985</v>
       </c>
       <c r="B87" t="n">
-        <v>5.307878811860944</v>
+        <v>5.873684238406561</v>
       </c>
       <c r="C87" t="n">
-        <v>8.498642488586162</v>
+        <v>8.449210612734202</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2965734104423846</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>8.498642488586166</v>
+        <v>8.4492106127342</v>
       </c>
       <c r="F87" t="n">
-        <v>4.227201875296796</v>
+        <v>3.080989030668105</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5563207309098469</v>
+        <v>0.3699086366390086</v>
       </c>
       <c r="H87" t="n">
-        <v>0.127247566959405</v>
+        <v>0.09402292950468563</v>
       </c>
       <c r="I87" t="n">
-        <v>3.543633577427548</v>
+        <v>2.617057464524411</v>
       </c>
       <c r="J87" t="n">
-        <v>0.08907329687158347</v>
+        <v>0.0658160506532799</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03817427008782149</v>
+        <v>0.02820687885140568</v>
       </c>
       <c r="L87" t="n">
-        <v>0.004453664843579173</v>
+        <v>0.003290802532663994</v>
       </c>
       <c r="M87" t="n">
-        <v>0.08461963202800432</v>
+        <v>0.06252524812061591</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1790903923757683</v>
+        <v>0.1322632171687906</v>
       </c>
       <c r="O87" t="n">
-        <v>3.402717455139599</v>
+        <v>2.513001126207022</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -5083,46 +5083,46 @@
         <v>1986</v>
       </c>
       <c r="B88" t="n">
-        <v>5.52699112302097</v>
+        <v>6.485868424462867</v>
       </c>
       <c r="C88" t="n">
-        <v>8.725895326374101</v>
+        <v>9.223458478176109</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4488114865960926</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>8.725895326374101</v>
+        <v>9.223458478176118</v>
       </c>
       <c r="F88" t="n">
-        <v>4.382930881928898</v>
+        <v>3.258591562786505</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5432301556665575</v>
+        <v>0.3769178220357247</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1333435802442249</v>
+        <v>0.1001736062829565</v>
       </c>
       <c r="I88" t="n">
-        <v>3.70635714601811</v>
+        <v>2.781500134467826</v>
       </c>
       <c r="J88" t="n">
-        <v>0.09334050617095739</v>
+        <v>0.07012152439806961</v>
       </c>
       <c r="K88" t="n">
-        <v>0.04000307407326745</v>
+        <v>0.03005208188488699</v>
       </c>
       <c r="L88" t="n">
-        <v>0.00466702530854787</v>
+        <v>0.003506076219903481</v>
       </c>
       <c r="M88" t="n">
-        <v>0.08867348086240952</v>
+        <v>0.06661544817816614</v>
       </c>
       <c r="N88" t="n">
-        <v>0.187318011004569</v>
+        <v>0.1405776108176358</v>
       </c>
       <c r="O88" t="n">
-        <v>3.559042209086812</v>
+        <v>2.67097460553508</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -5136,46 +5136,46 @@
         <v>1987</v>
       </c>
       <c r="B89" t="n">
-        <v>6.026210471712553</v>
+        <v>7.09480101706806</v>
       </c>
       <c r="C89" t="n">
-        <v>9.390688257343633</v>
+        <v>10.00874157381215</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4478216959905905</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>9.390688257343635</v>
+        <v>10.00874157381215</v>
       </c>
       <c r="F89" t="n">
-        <v>4.542224202003479</v>
+        <v>3.45150278586736</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5292773792438259</v>
+        <v>0.3841969366630469</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1398870037586215</v>
+        <v>0.1071249025416768</v>
       </c>
       <c r="I89" t="n">
-        <v>3.873059819001028</v>
+        <v>2.960180946662627</v>
       </c>
       <c r="J89" t="n">
-        <v>0.09792090263103503</v>
+        <v>0.07498743177917383</v>
       </c>
       <c r="K89" t="n">
-        <v>0.04196610112758646</v>
+        <v>0.03213747076250308</v>
       </c>
       <c r="L89" t="n">
-        <v>0.004896045131551752</v>
+        <v>0.003749371588958691</v>
       </c>
       <c r="M89" t="n">
-        <v>0.09302485749948332</v>
+        <v>0.07123806019021513</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1957512960064309</v>
+        <v>0.1496159208712565</v>
       </c>
       <c r="O89" t="n">
-        <v>3.719274624122188</v>
+        <v>2.842702496553875</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5189,46 +5189,46 @@
         <v>1988</v>
       </c>
       <c r="B90" t="n">
-        <v>6.534773073871226</v>
+        <v>7.728811355387213</v>
       </c>
       <c r="C90" t="n">
-        <v>10.06838013270938</v>
+        <v>10.83594791283362</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4505324204277113</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>10.06838013270938</v>
+        <v>10.83594791283362</v>
       </c>
       <c r="F90" t="n">
-        <v>4.708618064421971</v>
+        <v>3.662607258970999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5147870336157956</v>
+        <v>0.3919371985010961</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1472559726301184</v>
+        <v>0.115221136294099</v>
       </c>
       <c r="I90" t="n">
-        <v>4.046575058176058</v>
+        <v>3.155448924175802</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1030791808410828</v>
+        <v>0.08065479540586949</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0441767917890355</v>
+        <v>0.03456634088822978</v>
       </c>
       <c r="L90" t="n">
-        <v>0.005153959042054142</v>
+        <v>0.004032739770293474</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0979252217990287</v>
+        <v>0.07662205563557603</v>
       </c>
       <c r="N90" t="n">
-        <v>0.2045375924982547</v>
+        <v>0.1595007632532014</v>
       </c>
       <c r="O90" t="n">
-        <v>3.88621425746684</v>
+        <v>3.030514501810827</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5242,46 +5242,46 @@
         <v>1989</v>
       </c>
       <c r="B91" t="n">
-        <v>6.951973445017396</v>
+        <v>8.383753233104878</v>
       </c>
       <c r="C91" t="n">
-        <v>10.60519039690503</v>
+        <v>11.70370975114997</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5132181314458938</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>10.60519039690503</v>
+        <v>11.70370975114997</v>
       </c>
       <c r="F91" t="n">
-        <v>4.885812141385514</v>
+        <v>3.895011631030853</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5000910010344248</v>
+        <v>0.4003205594044468</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1560017004405624</v>
+        <v>0.1249722637436758</v>
       </c>
       <c r="I91" t="n">
-        <v>4.229719439910526</v>
+        <v>3.369718807882745</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1092011903083937</v>
+        <v>0.08748058462057315</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0468005101321687</v>
+        <v>0.03749167912310279</v>
       </c>
       <c r="L91" t="n">
-        <v>0.005460059515419683</v>
+        <v>0.004374029231028658</v>
       </c>
       <c r="M91" t="n">
-        <v>0.103741130792974</v>
+        <v>0.08310655538954448</v>
       </c>
       <c r="N91" t="n">
-        <v>0.2138259975021346</v>
+        <v>0.1703605243502922</v>
       </c>
       <c r="O91" t="n">
-        <v>4.062693952540556</v>
+        <v>3.236849962655552</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -5295,46 +5295,46 @@
         <v>1990</v>
       </c>
       <c r="B92" t="n">
-        <v>7.732564690175723</v>
+        <v>9.067228125245357</v>
       </c>
       <c r="C92" t="n">
-        <v>11.70129699061663</v>
+        <v>12.62235075651687</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3931352767383892</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>11.70129699061663</v>
+        <v>12.62235075651687</v>
       </c>
       <c r="F92" t="n">
-        <v>5.076883274426002</v>
+        <v>4.151720821692241</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4854437195004228</v>
+        <v>0.4094864729853886</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1668709137204112</v>
+        <v>0.1370893961709882</v>
       </c>
       <c r="I92" t="n">
-        <v>4.424568641205167</v>
+        <v>3.605144952535868</v>
       </c>
       <c r="J92" t="n">
-        <v>0.116809639604288</v>
+        <v>0.09596257731969178</v>
       </c>
       <c r="K92" t="n">
-        <v>0.05006127411612341</v>
+        <v>0.04112681885129647</v>
       </c>
       <c r="L92" t="n">
-        <v>0.005840481980214398</v>
+        <v>0.004798128865984589</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1109691576240736</v>
+        <v>0.09116444845370719</v>
       </c>
       <c r="N92" t="n">
-        <v>0.2237314957660644</v>
+        <v>0.1823135885693583</v>
       </c>
       <c r="O92" t="n">
-        <v>4.250898419555224</v>
+        <v>3.463958182817806</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -5348,46 +5348,46 @@
         <v>1991</v>
       </c>
       <c r="B93" t="n">
-        <v>8.098633226736771</v>
+        <v>9.918259259835143</v>
       </c>
       <c r="C93" t="n">
-        <v>12.15015025620565</v>
+        <v>13.73327540270258</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5206379155616649</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>12.15015025620565</v>
+        <v>13.73327540270258</v>
       </c>
       <c r="F93" t="n">
-        <v>5.283769646936467</v>
+        <v>4.435311242011473</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4709749679569521</v>
+        <v>0.4195047758352188</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1808071366850772</v>
+        <v>0.1524998166381013</v>
       </c>
       <c r="I93" t="n">
-        <v>4.631987542294436</v>
+        <v>3.863306649538151</v>
       </c>
       <c r="J93" t="n">
-        <v>0.126564995679554</v>
+        <v>0.106749871646671</v>
       </c>
       <c r="K93" t="n">
-        <v>0.05424214100552315</v>
+        <v>0.04574994499143045</v>
       </c>
       <c r="L93" t="n">
-        <v>0.006328249783977702</v>
+        <v>0.005337493582333552</v>
       </c>
       <c r="M93" t="n">
-        <v>0.1202367458955764</v>
+        <v>0.1014123780643375</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2343114841649982</v>
+        <v>0.195452829726479</v>
       </c>
       <c r="O93" t="n">
-        <v>4.451918199134966</v>
+        <v>3.7136037648031</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -5401,46 +5401,46 @@
         <v>1992</v>
       </c>
       <c r="B94" t="n">
-        <v>8.555844590534422</v>
+        <v>10.80560387077906</v>
       </c>
       <c r="C94" t="n">
-        <v>12.74381446440137</v>
+        <v>14.9070836140786</v>
       </c>
       <c r="D94" t="n">
-        <v>0.610242833852226</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>12.74381446440137</v>
+        <v>14.9070836140786</v>
       </c>
       <c r="F94" t="n">
-        <v>5.507463617245771</v>
+        <v>4.747708848959263</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4567133985940036</v>
+        <v>0.4303617507492168</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1989348442507512</v>
+        <v>0.1723251610992703</v>
       </c>
       <c r="I94" t="n">
-        <v>4.851815374401017</v>
+        <v>4.145021937110779</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1392543909755257</v>
+        <v>0.1206276127694892</v>
       </c>
       <c r="K94" t="n">
-        <v>0.05968045327522531</v>
+        <v>0.05169754832978112</v>
       </c>
       <c r="L94" t="n">
-        <v>0.006962719548776286</v>
+        <v>0.006031380638474464</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1322916714267495</v>
+        <v>0.1145962321310148</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2455747913838121</v>
+        <v>0.2098359742720275</v>
       </c>
       <c r="O94" t="n">
-        <v>4.665921036292429</v>
+        <v>3.986883511168522</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -5454,46 +5454,46 @@
         <v>1993</v>
       </c>
       <c r="B95" t="n">
-        <v>8.932928070352611</v>
+        <v>11.73672544550648</v>
       </c>
       <c r="C95" t="n">
-        <v>13.22381478175301</v>
+        <v>16.15254653538333</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7499107492550926</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>13.22381478175301</v>
+        <v>16.15254653538332</v>
       </c>
       <c r="F95" t="n">
-        <v>5.748742292319313</v>
+        <v>5.090196902014093</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4426397021556401</v>
+        <v>0.4419641758279369</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2224989107483024</v>
+        <v>0.1978163986983907</v>
       </c>
       <c r="I95" t="n">
-        <v>5.083603679415375</v>
+        <v>4.45041632748775</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1557492375238118</v>
+        <v>0.1384714790888736</v>
       </c>
       <c r="K95" t="n">
-        <v>0.06674967322449074</v>
+        <v>0.05934491960951727</v>
       </c>
       <c r="L95" t="n">
-        <v>0.007787461876190588</v>
+        <v>0.006923573954443682</v>
       </c>
       <c r="M95" t="n">
-        <v>0.1479617756476211</v>
+        <v>0.13154790513443</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2575176676319932</v>
+        <v>0.2254880623548639</v>
       </c>
       <c r="O95" t="n">
-        <v>4.89283568500787</v>
+        <v>4.284273184742415</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5507,46 +5507,46 @@
         <v>1994</v>
       </c>
       <c r="B96" t="n">
-        <v>9.61669485303352</v>
+        <v>12.71875794859674</v>
       </c>
       <c r="C96" t="n">
-        <v>14.16656025535655</v>
+        <v>17.47779507978551</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7516809833701353</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>14.16656025535655</v>
+        <v>17.47779507978552</v>
       </c>
       <c r="F96" t="n">
-        <v>6.0093195876742</v>
+        <v>5.463668470532984</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4287444448392769</v>
+        <v>0.4541557008605954</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2527743132937678</v>
+        <v>0.2302484572284474</v>
       </c>
       <c r="I96" t="n">
-        <v>5.327800829541149</v>
+        <v>4.779264312443935</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1769420193056374</v>
+        <v>0.1611739200599132</v>
       </c>
       <c r="K96" t="n">
-        <v>0.07583229398813029</v>
+        <v>0.06907453716853419</v>
       </c>
       <c r="L96" t="n">
-        <v>0.00884710096528187</v>
+        <v>0.008058696002995655</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1680949183403555</v>
+        <v>0.1531152240569175</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2701816561764637</v>
+        <v>0.2424169424806238</v>
       </c>
       <c r="O96" t="n">
-        <v>5.133451467352811</v>
+        <v>4.605921907131852</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5560,46 +5560,46 @@
         <v>1995</v>
       </c>
       <c r="B97" t="n">
-        <v>10.19884434814469</v>
+        <v>13.63852110795782</v>
       </c>
       <c r="C97" t="n">
-        <v>15.00058305422018</v>
+        <v>18.88419963126954</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8819099683786211</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>15.00058305422017</v>
+        <v>18.88419963126952</v>
       </c>
       <c r="F97" t="n">
-        <v>6.29278197616606</v>
+        <v>5.869073987499601</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3099938977933249</v>
+        <v>0.3473071208556951</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2970325574811727</v>
+        <v>0.2773483974211845</v>
       </c>
       <c r="I97" t="n">
-        <v>5.685755520891564</v>
+        <v>5.244418469222728</v>
       </c>
       <c r="J97" t="n">
-        <v>0.207922790236821</v>
+        <v>0.194143878194829</v>
       </c>
       <c r="K97" t="n">
-        <v>0.08910976724435184</v>
+        <v>0.08320451922635533</v>
       </c>
       <c r="L97" t="n">
-        <v>0.01039613951184105</v>
+        <v>0.009707193909741453</v>
       </c>
       <c r="M97" t="n">
-        <v>0.1975266507249799</v>
+        <v>0.1844366842850876</v>
       </c>
       <c r="N97" t="n">
-        <v>0.288743264406796</v>
+        <v>0.2663811494224539</v>
       </c>
       <c r="O97" t="n">
-        <v>5.486122023729125</v>
+        <v>5.061241839026624</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5613,46 +5613,46 @@
         <v>1996</v>
       </c>
       <c r="B98" t="n">
-        <v>11.08532290571155</v>
+        <v>14.86240168760792</v>
       </c>
       <c r="C98" t="n">
-        <v>16.23291866224717</v>
+        <v>20.49960419562446</v>
       </c>
       <c r="D98" t="n">
-        <v>0.816819626582595</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>16.23291866224718</v>
+        <v>20.49960419562446</v>
       </c>
       <c r="F98" t="n">
-        <v>6.604912683043813</v>
+        <v>6.307925725668418</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3265807008141021</v>
+        <v>0.3740283488089061</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3431075368403788</v>
+        <v>0.3268403015127092</v>
       </c>
       <c r="I98" t="n">
-        <v>5.935224445389324</v>
+        <v>5.607057075346803</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2401752757882651</v>
+        <v>0.2287882110588962</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1029322610521136</v>
+        <v>0.09805209045381263</v>
       </c>
       <c r="L98" t="n">
-        <v>0.01200876378941325</v>
+        <v>0.01143941055294481</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2281665119988518</v>
+        <v>0.2173488005059513</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3019078353220718</v>
+        <v>0.2852554582900307</v>
       </c>
       <c r="O98" t="n">
-        <v>5.736248871119366</v>
+        <v>5.419853707510584</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5666,46 +5666,46 @@
         <v>1997</v>
       </c>
       <c r="B99" t="n">
-        <v>11.97742628865367</v>
+        <v>16.1455760273202</v>
       </c>
       <c r="C99" t="n">
-        <v>17.47568760831992</v>
+        <v>22.20644918120961</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7796777933575846</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>17.47568760831992</v>
+        <v>22.2064491812096</v>
       </c>
       <c r="F99" t="n">
-        <v>6.952981828280524</v>
+        <v>6.782671435964418</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3446248672027885</v>
+        <v>0.4028049581860886</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3982790923865274</v>
+        <v>0.3858122957569506</v>
       </c>
       <c r="I99" t="n">
-        <v>6.210077868691187</v>
+        <v>5.994054182021382</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2787953646705692</v>
+        <v>0.2700686070298655</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1194837277159582</v>
+        <v>0.1157436887270852</v>
       </c>
       <c r="L99" t="n">
-        <v>0.01393976823352845</v>
+        <v>0.01350343035149328</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2648555964370407</v>
+        <v>0.2565651766783723</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3164780798203576</v>
+        <v>0.305489893537423</v>
       </c>
       <c r="O99" t="n">
-        <v>6.013083516586794</v>
+        <v>5.804307977211038</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5719,46 +5719,46 @@
         <v>1998</v>
       </c>
       <c r="B100" t="n">
-        <v>12.70431478551022</v>
+        <v>17.48129677706358</v>
       </c>
       <c r="C100" t="n">
-        <v>18.48292995567607</v>
+        <v>24.00116840916332</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8522129689820854</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>18.48292995567606</v>
+        <v>24.00116840916332</v>
       </c>
       <c r="F100" t="n">
-        <v>7.344181730018353</v>
+        <v>7.296821335414601</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3643626361784272</v>
+        <v>0.4337985647832954</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4626485688806732</v>
+        <v>0.4545278240957047</v>
       </c>
       <c r="I100" t="n">
-        <v>6.517170524959267</v>
+        <v>6.408494946535606</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3238539982164712</v>
+        <v>0.3181694768669937</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1387945706642019</v>
+        <v>0.1363583472287116</v>
       </c>
       <c r="L100" t="n">
-        <v>0.01619269991082356</v>
+        <v>0.01590847384334968</v>
       </c>
       <c r="M100" t="n">
-        <v>0.3076612983056475</v>
+        <v>0.302261003023644</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3327982547811729</v>
+        <v>0.3272426646882157</v>
       </c>
       <c r="O100" t="n">
-        <v>6.323166840842285</v>
+        <v>6.217610629076098</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5772,46 +5772,46 @@
         <v>1999</v>
       </c>
       <c r="B101" t="n">
-        <v>13.89105603585598</v>
+        <v>18.86603684574176</v>
       </c>
       <c r="C101" t="n">
-        <v>20.16214256540783</v>
+        <v>25.88417699296132</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7567141704229547</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>20.16214256540783</v>
+        <v>25.88417699296132</v>
       </c>
       <c r="F101" t="n">
-        <v>7.783660724086149</v>
+        <v>7.854775474744735</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3859757767442735</v>
+        <v>0.4672595303031035</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5358899743777132</v>
+        <v>0.5329962463415558</v>
       </c>
       <c r="I101" t="n">
-        <v>6.861794972964177</v>
+        <v>6.85451969810009</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3751229820643991</v>
+        <v>0.3730973724390893</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1607669923133139</v>
+        <v>0.1598988739024669</v>
       </c>
       <c r="L101" t="n">
-        <v>0.01875614910321996</v>
+        <v>0.01865486862195447</v>
       </c>
       <c r="M101" t="n">
-        <v>0.3563668329611792</v>
+        <v>0.3544425038171348</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3511280982638746</v>
+        <v>0.3507209286001275</v>
       </c>
       <c r="O101" t="n">
-        <v>6.671433867013619</v>
+        <v>6.663697643402423</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5825,46 +5825,46 @@
         <v>2000</v>
       </c>
       <c r="B102" t="n">
-        <v>14.94423922759077</v>
+        <v>20.3092274956126</v>
       </c>
       <c r="C102" t="n">
-        <v>21.65118276145365</v>
+        <v>27.86925146271627</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7631493720943558</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>21.65118276145365</v>
+        <v>27.86925146271627</v>
       </c>
       <c r="F102" t="n">
-        <v>8.272791486806781</v>
+        <v>8.461442147970862</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4095357963254733</v>
+        <v>0.5035221825985919</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6172640254968308</v>
+        <v>0.6210632189450224</v>
       </c>
       <c r="I102" t="n">
-        <v>7.245991664984476</v>
+        <v>7.336856746427261</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4320848178477812</v>
+        <v>0.4347442532615156</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1851792076490491</v>
+        <v>0.1863189656835067</v>
       </c>
       <c r="L102" t="n">
-        <v>0.02160424089238907</v>
+        <v>0.02173721266307579</v>
       </c>
       <c r="M102" t="n">
-        <v>0.4104805769553923</v>
+        <v>0.4130070405984398</v>
       </c>
       <c r="N102" t="n">
-        <v>0.371558543631676</v>
+        <v>0.3761587856055384</v>
       </c>
       <c r="O102" t="n">
-        <v>7.059612329001846</v>
+        <v>7.147016926505227</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -5878,46 +5878,46 @@
         <v>2001</v>
       </c>
       <c r="B103" t="n">
-        <v>15.06506616369104</v>
+        <v>21.52906479298959</v>
       </c>
       <c r="C103" t="n">
-        <v>21.83305581041606</v>
+        <v>29.67893729575595</v>
       </c>
       <c r="D103" t="n">
-        <v>1.186843609858095</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>21.83305581041606</v>
+        <v>29.67893729575596</v>
       </c>
       <c r="F103" t="n">
-        <v>8.808500090402186</v>
+        <v>9.121801910375343</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4349913992620372</v>
+        <v>0.5429887495686381</v>
       </c>
       <c r="H103" t="n">
-        <v>0.705697971280644</v>
+        <v>0.7185158291067395</v>
       </c>
       <c r="I103" t="n">
-        <v>7.667810719859478</v>
+        <v>7.860297331699959</v>
       </c>
       <c r="J103" t="n">
-        <v>0.4939885798964505</v>
+        <v>0.5029610803747171</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2117093913841931</v>
+        <v>0.2155547487320216</v>
       </c>
       <c r="L103" t="n">
-        <v>0.02469942899482253</v>
+        <v>0.02514805401873587</v>
       </c>
       <c r="M103" t="n">
-        <v>0.469289150901628</v>
+        <v>0.4778130263559814</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3939760055621839</v>
+        <v>0.4037926040215997</v>
       </c>
       <c r="O103" t="n">
-        <v>7.485544105681495</v>
+        <v>7.672059476410394</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -5931,46 +5931,46 @@
         <v>2002</v>
       </c>
       <c r="B104" t="n">
-        <v>16.0805801293499</v>
+        <v>23.16511577713221</v>
       </c>
       <c r="C104" t="n">
-        <v>23.27474777523325</v>
+        <v>31.95690538966872</v>
       </c>
       <c r="D104" t="n">
-        <v>1.281634794180793</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>23.27474777523326</v>
+        <v>31.95690538966874</v>
       </c>
       <c r="F104" t="n">
-        <v>9.384116741559323</v>
+        <v>9.840627202823192</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4622194362286282</v>
+        <v>0.5861118212058078</v>
       </c>
       <c r="H104" t="n">
-        <v>0.7999490202226864</v>
+        <v>0.8251865674764929</v>
       </c>
       <c r="I104" t="n">
-        <v>8.121948285107981</v>
+        <v>8.429328814140867</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5599643141558807</v>
+        <v>0.5776305972335447</v>
       </c>
       <c r="K104" t="n">
-        <v>0.239984706066806</v>
+        <v>0.2475559702429477</v>
       </c>
       <c r="L104" t="n">
-        <v>0.02799821570779402</v>
+        <v>0.02888152986167723</v>
       </c>
       <c r="M104" t="n">
-        <v>0.5319660984480862</v>
+        <v>0.5487490673718671</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4180966495587394</v>
+        <v>0.4338442392191917</v>
       </c>
       <c r="O104" t="n">
-        <v>7.943836341616048</v>
+        <v>8.243040545164643</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -5984,46 +5984,46 @@
         <v>2003</v>
       </c>
       <c r="B105" t="n">
-        <v>17.24505418121921</v>
+        <v>25.61749563332431</v>
       </c>
       <c r="C105" t="n">
-        <v>24.86972827207047</v>
+        <v>35.10706255749932</v>
       </c>
       <c r="D105" t="n">
-        <v>1.400550655290121</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>24.86972827207048</v>
+        <v>35.1070625574993</v>
       </c>
       <c r="F105" t="n">
-        <v>9.991340560426947</v>
+        <v>10.62239470918577</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4911039855413066</v>
+        <v>0.6333768942647127</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8988076198045603</v>
+        <v>0.9410341698900117</v>
       </c>
       <c r="I105" t="n">
-        <v>8.601428955081099</v>
+        <v>9.047983645031055</v>
       </c>
       <c r="J105" t="n">
-        <v>0.6291653338631917</v>
+        <v>0.6587239189230086</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2696422859413679</v>
+        <v>0.2823102509670037</v>
       </c>
       <c r="L105" t="n">
-        <v>0.03145826669315959</v>
+        <v>0.03293619594615044</v>
       </c>
       <c r="M105" t="n">
-        <v>0.5977070671700323</v>
+        <v>0.6257877229768583</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4435535620511236</v>
+        <v>0.4665146947999025</v>
       </c>
       <c r="O105" t="n">
-        <v>8.427517678971345</v>
+        <v>8.863779201198144</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -6037,46 +6037,46 @@
         <v>2004</v>
       </c>
       <c r="B106" t="n">
-        <v>19.1291206919339</v>
+        <v>28.34024398574875</v>
       </c>
       <c r="C106" t="n">
-        <v>27.47247966402889</v>
+        <v>38.58705871290726</v>
       </c>
       <c r="D106" t="n">
-        <v>1.252961542478843</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>27.4724796640289</v>
+        <v>38.58705871290726</v>
       </c>
       <c r="F106" t="n">
-        <v>10.62303480685961</v>
+        <v>11.47141088060018</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5216447915187167</v>
+        <v>0.6852901151701603</v>
       </c>
       <c r="H106" t="n">
-        <v>1.001345536540408</v>
+        <v>1.066196884305411</v>
       </c>
       <c r="I106" t="n">
-        <v>9.100044478800482</v>
+        <v>9.719923881124622</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7009418755782842</v>
+        <v>0.7463378190137887</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3004036609621219</v>
+        <v>0.3198590652916238</v>
       </c>
       <c r="L106" t="n">
-        <v>0.03504709377891421</v>
+        <v>0.03731689095068945</v>
       </c>
       <c r="M106" t="n">
-        <v>0.6658947817993699</v>
+        <v>0.7090209280630996</v>
       </c>
       <c r="N106" t="n">
-        <v>0.4700224069881299</v>
+        <v>0.501989147320811</v>
       </c>
       <c r="O106" t="n">
-        <v>8.930425732774468</v>
+        <v>9.537793799095411</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -6090,46 +6090,46 @@
         <v>2005</v>
       </c>
       <c r="B107" t="n">
-        <v>21.14149184989295</v>
+        <v>31.20157768356328</v>
       </c>
       <c r="C107" t="n">
-        <v>30.24816565909692</v>
+        <v>42.26881913334662</v>
       </c>
       <c r="D107" t="n">
-        <v>1.078772821157917</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>30.24816565909691</v>
+        <v>42.26881913334663</v>
       </c>
       <c r="F107" t="n">
-        <v>11.27555339124476</v>
+        <v>12.39209904522554</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5540306224427676</v>
+        <v>0.7423712033483258</v>
       </c>
       <c r="H107" t="n">
-        <v>1.107101525914756</v>
+        <v>1.20102202838171</v>
       </c>
       <c r="I107" t="n">
-        <v>9.614421242887207</v>
+        <v>10.4487058134955</v>
       </c>
       <c r="J107" t="n">
-        <v>0.7749710681403296</v>
+        <v>0.8407154198671974</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3321304577744272</v>
+        <v>0.3603066085145131</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0387485534070165</v>
+        <v>0.04203577099335987</v>
       </c>
       <c r="M107" t="n">
-        <v>0.7362225147333133</v>
+        <v>0.7986796488738375</v>
       </c>
       <c r="N107" t="n">
-        <v>0.4973275850330823</v>
+        <v>0.5404506211005001</v>
       </c>
       <c r="O107" t="n">
-        <v>9.449224115628565</v>
+        <v>10.2685618009095</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6143,46 +6143,46 @@
         <v>2006</v>
       </c>
       <c r="B108" t="n">
-        <v>22.78000570979693</v>
+        <v>32.98440712714562</v>
       </c>
       <c r="C108" t="n">
-        <v>32.59332837327072</v>
+        <v>44.93930678450081</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9799313479735949</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>32.59332837327072</v>
+        <v>44.93930678450082</v>
       </c>
       <c r="F108" t="n">
-        <v>11.94999151487746</v>
+        <v>13.38925004147802</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5886715028276057</v>
+        <v>0.8051451389988715</v>
       </c>
       <c r="H108" t="n">
-        <v>1.216169597771753</v>
+        <v>1.346064826638057</v>
       </c>
       <c r="I108" t="n">
-        <v>10.14515041427811</v>
+        <v>11.23804007584111</v>
       </c>
       <c r="J108" t="n">
-        <v>0.8513187184402283</v>
+        <v>0.9422453786466395</v>
       </c>
       <c r="K108" t="n">
-        <v>0.3648508793315264</v>
+        <v>0.4038194479914168</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04256593592201141</v>
+        <v>0.04711226893233195</v>
       </c>
       <c r="M108" t="n">
-        <v>0.8087527825182168</v>
+        <v>0.895133109714307</v>
       </c>
       <c r="N108" t="n">
-        <v>0.525500064680482</v>
+        <v>0.5820929761916258</v>
       </c>
       <c r="O108" t="n">
-        <v>9.98450122892916</v>
+        <v>11.0597665476409</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -6196,46 +6196,46 @@
         <v>2007</v>
       </c>
       <c r="B109" t="n">
-        <v>24.29351035515877</v>
+        <v>34.44911238779719</v>
       </c>
       <c r="C109" t="n">
-        <v>34.79768967814404</v>
+        <v>47.3635476398462</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9203610648209872</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>34.79768967814404</v>
+        <v>47.3635476398462</v>
       </c>
       <c r="F109" t="n">
-        <v>12.65200304455796</v>
+        <v>14.4682810623603</v>
       </c>
       <c r="G109" t="n">
-        <v>0.6261710573934774</v>
+        <v>0.874138691782392</v>
       </c>
       <c r="H109" t="n">
-        <v>1.329162020211691</v>
+        <v>1.502080557328154</v>
       </c>
       <c r="I109" t="n">
-        <v>10.6966699669528</v>
+        <v>12.09206181324973</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9304134141481836</v>
+        <v>1.051456390129709</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3987486060635073</v>
+        <v>0.4506241671984467</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04652067070740919</v>
+        <v>0.05257281950648546</v>
       </c>
       <c r="M109" t="n">
-        <v>0.8838927434407744</v>
+        <v>0.9988835706232236</v>
       </c>
       <c r="N109" t="n">
-        <v>0.5547709286508147</v>
+        <v>0.6271342990224092</v>
       </c>
       <c r="O109" t="n">
-        <v>10.54064764436548</v>
+        <v>11.91555168142577</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -6249,46 +6249,46 @@
         <v>2008</v>
       </c>
       <c r="B110" t="n">
-        <v>24.62573641254541</v>
+        <v>36.00409341269139</v>
       </c>
       <c r="C110" t="n">
-        <v>35.35280986659711</v>
+        <v>49.97782031520752</v>
       </c>
       <c r="D110" t="n">
-        <v>1.372742055102471</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>35.35280986659711</v>
+        <v>49.9778203152075</v>
       </c>
       <c r="F110" t="n">
-        <v>13.39049397383479</v>
+        <v>15.6353267171515</v>
       </c>
       <c r="G110" t="n">
-        <v>0.6538460694619836</v>
+        <v>0.9261405039766387</v>
       </c>
       <c r="H110" t="n">
-        <v>1.448687068946946</v>
+        <v>1.672835353779219</v>
       </c>
       <c r="I110" t="n">
-        <v>11.28796083542588</v>
+        <v>13.03635085939563</v>
       </c>
       <c r="J110" t="n">
-        <v>1.014080948262863</v>
+        <v>1.170984747645452</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4346061206840838</v>
+        <v>0.5018506061337653</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05070404741314313</v>
+        <v>0.05854923738227263</v>
       </c>
       <c r="M110" t="n">
-        <v>0.9633769008497194</v>
+        <v>1.11243551026318</v>
       </c>
       <c r="N110" t="n">
-        <v>0.5861283478054979</v>
+        <v>0.6769100732764705</v>
       </c>
       <c r="O110" t="n">
-        <v>11.13643860830446</v>
+        <v>12.86129139225294</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6302,46 +6302,46 @@
         <v>2009</v>
       </c>
       <c r="B111" t="n">
-        <v>23.06164265806218</v>
+        <v>37.32206276628811</v>
       </c>
       <c r="C111" t="n">
-        <v>33.29634133807617</v>
+        <v>52.41993173343474</v>
       </c>
       <c r="D111" t="n">
-        <v>2.570906478388885</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>33.29634133807618</v>
+        <v>52.41993173343469</v>
       </c>
       <c r="F111" t="n">
-        <v>14.17605569495872</v>
+        <v>16.89726452474225</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6964713176925234</v>
+        <v>1.004770875114259</v>
       </c>
       <c r="H111" t="n">
-        <v>1.573128698579804</v>
+        <v>1.854331736348536</v>
       </c>
       <c r="I111" t="n">
-        <v>11.90645567868637</v>
+        <v>14.03816191327949</v>
       </c>
       <c r="J111" t="n">
-        <v>1.101190089005863</v>
+        <v>1.298032215443975</v>
       </c>
       <c r="K111" t="n">
-        <v>0.4719386095739415</v>
+        <v>0.5562995209045608</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0550595044502932</v>
+        <v>0.06490161077219876</v>
       </c>
       <c r="M111" t="n">
-        <v>1.046130584555571</v>
+        <v>1.233130604671776</v>
       </c>
       <c r="N111" t="n">
-        <v>0.6189197144130163</v>
+        <v>0.7297230717092013</v>
       </c>
       <c r="O111" t="n">
-        <v>11.75947457384731</v>
+        <v>13.86473836247482</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6355,46 +6355,46 @@
         <v>2010</v>
       </c>
       <c r="B112" t="n">
-        <v>26.88585565741073</v>
+        <v>38.54244830046838</v>
       </c>
       <c r="C112" t="n">
-        <v>38.91827020803096</v>
+        <v>55.27551361958053</v>
       </c>
       <c r="D112" t="n">
-        <v>1.950076841777767</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>38.91827020803095</v>
+        <v>55.2755136195805</v>
       </c>
       <c r="F112" t="n">
-        <v>15.02004125513028</v>
+        <v>18.26174576366033</v>
       </c>
       <c r="G112" t="n">
-        <v>0.301629263132358</v>
+        <v>0.6479927961738013</v>
       </c>
       <c r="H112" t="n">
-        <v>1.756810607557083</v>
+        <v>2.101951457497775</v>
       </c>
       <c r="I112" t="n">
-        <v>12.96160138444084</v>
+        <v>15.51180150998879</v>
       </c>
       <c r="J112" t="n">
-        <v>1.229767425289958</v>
+        <v>1.471366020248443</v>
       </c>
       <c r="K112" t="n">
-        <v>0.527043182267125</v>
+        <v>0.6305854372493327</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0614883712644979</v>
+        <v>0.07356830101242215</v>
       </c>
       <c r="M112" t="n">
-        <v>1.16827905402546</v>
+        <v>1.397797719236021</v>
       </c>
       <c r="N112" t="n">
-        <v>0.6744322283353975</v>
+        <v>0.8071193473619033</v>
       </c>
       <c r="O112" t="n">
-        <v>12.81421233837255</v>
+        <v>15.33526759987616</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -6408,46 +6408,46 @@
         <v>2011</v>
       </c>
       <c r="B113" t="n">
-        <v>28.53445176177642</v>
+        <v>40.93585982994149</v>
       </c>
       <c r="C113" t="n">
-        <v>41.27977727991384</v>
+        <v>58.87642844280943</v>
       </c>
       <c r="D113" t="n">
-        <v>2.075796224066713</v>
+        <v>0.1304940352938363</v>
       </c>
       <c r="E113" t="n">
-        <v>41.27977727991384</v>
+        <v>58.87642844280946</v>
       </c>
       <c r="F113" t="n">
-        <v>15.93336137976604</v>
+        <v>19.73715497825195</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3321805984985342</v>
+        <v>0.7149837696606113</v>
       </c>
       <c r="H113" t="n">
-        <v>1.9017857217854</v>
+        <v>2.317731663916671</v>
       </c>
       <c r="I113" t="n">
-        <v>13.69939505948208</v>
+        <v>16.70443954467464</v>
       </c>
       <c r="J113" t="n">
-        <v>1.33125000524978</v>
+        <v>1.62241216474167</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5705357165356204</v>
+        <v>0.6953194991750014</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06656250026248904</v>
+        <v>0.08112060823708353</v>
       </c>
       <c r="M113" t="n">
-        <v>1.264687504987292</v>
+        <v>1.541291556504587</v>
       </c>
       <c r="N113" t="n">
-        <v>0.7134965388008861</v>
+        <v>0.8699879521924831</v>
       </c>
       <c r="O113" t="n">
-        <v>13.55643423721684</v>
+        <v>16.52977109165718</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6461,46 +6461,46 @@
         <v>2012</v>
       </c>
       <c r="B114" t="n">
-        <v>30.86852223190524</v>
+        <v>43.56818699158931</v>
       </c>
       <c r="C114" t="n">
-        <v>44.53817057768306</v>
+        <v>62.56649249195914</v>
       </c>
       <c r="D114" t="n">
-        <v>2.06232713847598</v>
+        <v>0.5180298912026954</v>
       </c>
       <c r="E114" t="n">
-        <v>44.5381705776831</v>
+        <v>62.56649249195915</v>
       </c>
       <c r="F114" t="n">
-        <v>16.92673092202409</v>
+        <v>21.33245348408001</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3667567280727583</v>
+        <v>0.7889425455826641</v>
       </c>
       <c r="H114" t="n">
-        <v>2.057559767646614</v>
+        <v>2.550777702001489</v>
       </c>
       <c r="I114" t="n">
-        <v>14.50241442630475</v>
+        <v>17.99273323649591</v>
       </c>
       <c r="J114" t="n">
-        <v>1.44029183735263</v>
+        <v>1.785544391401046</v>
       </c>
       <c r="K114" t="n">
-        <v>0.6172679302939842</v>
+        <v>0.7652333106004483</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0720145918676315</v>
+        <v>0.08927721957005227</v>
       </c>
       <c r="M114" t="n">
-        <v>1.368277245484998</v>
+        <v>1.696267171830993</v>
       </c>
       <c r="N114" t="n">
-        <v>0.7559841178299371</v>
+        <v>0.937898327354817</v>
       </c>
       <c r="O114" t="n">
-        <v>14.36369823876881</v>
+        <v>17.82006821974153</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -6514,46 +6514,46 @@
         <v>2013</v>
       </c>
       <c r="B115" t="n">
-        <v>32.98284653899051</v>
+        <v>46.48269986453338</v>
       </c>
       <c r="C115" t="n">
-        <v>47.48719224347603</v>
+        <v>66.6444248117308</v>
       </c>
       <c r="D115" t="n">
-        <v>2.2195917060949</v>
+        <v>0.9152833703081137</v>
       </c>
       <c r="E115" t="n">
-        <v>47.48719224347599</v>
+        <v>66.64442481173074</v>
       </c>
       <c r="F115" t="n">
-        <v>18.01009038891617</v>
+        <v>23.05681318010057</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4059457461999856</v>
+        <v>0.870488635357917</v>
       </c>
       <c r="H115" t="n">
-        <v>2.22561805390585</v>
+        <v>2.80256342312412</v>
       </c>
       <c r="I115" t="n">
-        <v>15.37852658881037</v>
+        <v>19.38376112161855</v>
       </c>
       <c r="J115" t="n">
-        <v>1.557932637734094</v>
+        <v>1.96179439618688</v>
       </c>
       <c r="K115" t="n">
-        <v>0.6676854161717549</v>
+        <v>0.8407690269372347</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07789663188670475</v>
+        <v>0.09808971980934406</v>
       </c>
       <c r="M115" t="n">
-        <v>1.48003600584739</v>
+        <v>1.863704676377537</v>
       </c>
       <c r="N115" t="n">
-        <v>0.8023106002491061</v>
+        <v>1.01122650742779</v>
       </c>
       <c r="O115" t="n">
-        <v>15.24390140473301</v>
+        <v>19.213303641128</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -6567,46 +6567,46 @@
         <v>2014</v>
       </c>
       <c r="B116" t="n">
-        <v>35.42131452504442</v>
+        <v>49.85896626888161</v>
       </c>
       <c r="C116" t="n">
-        <v>50.88915499454972</v>
+        <v>71.36646641051534</v>
       </c>
       <c r="D116" t="n">
-        <v>2.362409235563128</v>
+        <v>1.291481198695803</v>
       </c>
       <c r="E116" t="n">
-        <v>50.88915499454968</v>
+        <v>71.36646641051537</v>
       </c>
       <c r="F116" t="n">
-        <v>19.19201695182204</v>
+        <v>24.91878665216598</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4233330517500055</v>
+        <v>0.9198589255032608</v>
       </c>
       <c r="H116" t="n">
-        <v>2.41090426964533</v>
+        <v>3.079815401062842</v>
       </c>
       <c r="I116" t="n">
-        <v>16.35777963042669</v>
+        <v>20.91911232559979</v>
       </c>
       <c r="J116" t="n">
-        <v>1.687632988751731</v>
+        <v>2.15587078074399</v>
       </c>
       <c r="K116" t="n">
-        <v>0.7232712808935992</v>
+        <v>0.9239446203188525</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08438164943758658</v>
+        <v>0.1077935390371995</v>
       </c>
       <c r="M116" t="n">
-        <v>1.603251339314145</v>
+        <v>2.04807724170679</v>
       </c>
       <c r="N116" t="n">
-        <v>0.8540525455660143</v>
+        <v>1.092152847295934</v>
       </c>
       <c r="O116" t="n">
-        <v>16.22699836575427</v>
+        <v>20.75090409862275</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -6620,46 +6620,46 @@
         <v>2015</v>
       </c>
       <c r="B117" t="n">
-        <v>37.24828787001455</v>
+        <v>53.42316910222919</v>
       </c>
       <c r="C117" t="n">
-        <v>53.42195489625384</v>
+        <v>76.31129881802728</v>
       </c>
       <c r="D117" t="n">
-        <v>2.837109257636589</v>
+        <v>1.730233366774119</v>
       </c>
       <c r="E117" t="n">
-        <v>53.42195489625382</v>
+        <v>76.31129881802724</v>
       </c>
       <c r="F117" t="n">
-        <v>20.47859527670142</v>
+        <v>26.92499391211438</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4672518199899859</v>
+        <v>1.010927509406876</v>
       </c>
       <c r="H117" t="n">
-        <v>2.608166693006074</v>
+        <v>3.374057309796362</v>
       </c>
       <c r="I117" t="n">
-        <v>17.40317676370536</v>
+        <v>22.5400090929112</v>
       </c>
       <c r="J117" t="n">
-        <v>1.825716685104254</v>
+        <v>2.361840116857454</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7824500079018231</v>
+        <v>1.012217192938909</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09128583425521269</v>
+        <v>0.1180920058428727</v>
       </c>
       <c r="M117" t="n">
-        <v>1.734430850849041</v>
+        <v>2.243748111014581</v>
       </c>
       <c r="N117" t="n">
-        <v>0.9092813385803591</v>
+        <v>1.177611314292506</v>
       </c>
       <c r="O117" t="n">
-        <v>17.27634543302682</v>
+        <v>22.37461497155762</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6673,46 +6673,46 @@
         <v>2016</v>
       </c>
       <c r="B118" t="n">
-        <v>39.84860028426063</v>
+        <v>57.13334459802296</v>
       </c>
       <c r="C118" t="n">
-        <v>57.03113428110638</v>
+        <v>81.47081769211074</v>
       </c>
       <c r="D118" t="n">
-        <v>3.106008986873838</v>
+        <v>2.232907519464058</v>
       </c>
       <c r="E118" t="n">
-        <v>57.03113428110639</v>
+        <v>81.47081769211073</v>
       </c>
       <c r="F118" t="n">
-        <v>21.87233954739412</v>
+        <v>29.07856306344841</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5159785118998768</v>
+        <v>1.109741364972842</v>
       </c>
       <c r="H118" t="n">
-        <v>2.820893603974961</v>
+        <v>3.69043129892194</v>
       </c>
       <c r="I118" t="n">
-        <v>18.53546743151928</v>
+        <v>24.27839039955367</v>
       </c>
       <c r="J118" t="n">
-        <v>1.974625522782471</v>
+        <v>2.583301909245352</v>
       </c>
       <c r="K118" t="n">
-        <v>0.8462680811924873</v>
+        <v>1.107129389676579</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09873127613912355</v>
+        <v>0.1291650954622676</v>
       </c>
       <c r="M118" t="n">
-        <v>1.875894246643347</v>
+        <v>2.454136813783085</v>
       </c>
       <c r="N118" t="n">
-        <v>0.9690867756355899</v>
+        <v>1.269275989461514</v>
       </c>
       <c r="O118" t="n">
-        <v>18.41264873707622</v>
+        <v>24.11624379976876</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -6726,46 +6726,46 @@
         <v>2017</v>
       </c>
       <c r="B119" t="n">
-        <v>43.67182001238419</v>
+        <v>63.6373576722326</v>
       </c>
       <c r="C119" t="n">
-        <v>62.2299284860156</v>
+        <v>90.33661901213341</v>
       </c>
       <c r="D119" t="n">
-        <v>3.103578234400665</v>
+        <v>1.954381185207834</v>
       </c>
       <c r="E119" t="n">
-        <v>62.22992848601553</v>
+        <v>90.3366190121334</v>
       </c>
       <c r="F119" t="n">
-        <v>23.37139017179633</v>
+        <v>31.37791999814606</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5696146896574276</v>
+        <v>1.216191024347482</v>
       </c>
       <c r="H119" t="n">
-        <v>3.049097859624001</v>
+        <v>4.029004716577744</v>
       </c>
       <c r="I119" t="n">
-        <v>19.75267762251497</v>
+        <v>26.13272425722079</v>
       </c>
       <c r="J119" t="n">
-        <v>2.134368501736801</v>
+        <v>2.820303301604421</v>
       </c>
       <c r="K119" t="n">
-        <v>0.9147293578872001</v>
+        <v>1.208701414973323</v>
       </c>
       <c r="L119" t="n">
-        <v>0.10671842508684</v>
+        <v>0.141015165080221</v>
       </c>
       <c r="M119" t="n">
-        <v>2.02765007664996</v>
+        <v>2.6792881365242</v>
       </c>
       <c r="N119" t="n">
-        <v>1.03337034902011</v>
+        <v>1.367071283609708</v>
       </c>
       <c r="O119" t="n">
-        <v>19.6340366313821</v>
+        <v>25.97435438858444</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6779,46 +6779,46 @@
         <v>2018</v>
       </c>
       <c r="B120" t="n">
-        <v>45.41881452386783</v>
+        <v>70.05638467979449</v>
       </c>
       <c r="C120" t="n">
-        <v>64.42473873489173</v>
+        <v>98.80274467259031</v>
       </c>
       <c r="D120" t="n">
-        <v>4.118566183999898</v>
+        <v>2.115753279465661</v>
       </c>
       <c r="E120" t="n">
-        <v>64.42473873489172</v>
+        <v>98.80274467259036</v>
       </c>
       <c r="F120" t="n">
-        <v>24.96961612151896</v>
+        <v>33.81629391907736</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6280472846518895</v>
+        <v>1.329858895644362</v>
       </c>
       <c r="H120" t="n">
-        <v>3.292208515361215</v>
+        <v>4.389148460799702</v>
       </c>
       <c r="I120" t="n">
-        <v>21.04936032150599</v>
+        <v>28.09728656263341</v>
       </c>
       <c r="J120" t="n">
-        <v>2.304545960752848</v>
+        <v>3.072403922559789</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9876625546083638</v>
+        <v>1.31674453823991</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1152272980376424</v>
+        <v>0.1536201961279896</v>
       </c>
       <c r="M120" t="n">
-        <v>2.189318662715206</v>
+        <v>2.9187837264318</v>
       </c>
       <c r="N120" t="n">
-        <v>1.101851143805715</v>
+        <v>1.470701555043667</v>
       </c>
       <c r="O120" t="n">
-        <v>20.93517173230858</v>
+        <v>27.94332954582966</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -6832,46 +6832,46 @@
         <v>2019</v>
       </c>
       <c r="B121" t="n">
-        <v>64.10763947522686</v>
+        <v>78.3416441720219</v>
       </c>
       <c r="C121" t="n">
-        <v>85.4557412983695</v>
+        <v>109.5648481587632</v>
       </c>
       <c r="D121" t="n">
-        <v>3.321553530257378</v>
+        <v>1.963307832231385</v>
       </c>
       <c r="E121" t="n">
-        <v>85.45574129836947</v>
+        <v>109.5648481587632</v>
       </c>
       <c r="F121" t="n">
-        <v>26.6590067288819</v>
+        <v>36.38323993464351</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6909484621449834</v>
+        <v>1.450069598882783</v>
       </c>
       <c r="H121" t="n">
-        <v>3.54940704786994</v>
+        <v>4.769741494689848</v>
       </c>
       <c r="I121" t="n">
-        <v>22.41865121886692</v>
+        <v>30.16342884107097</v>
       </c>
       <c r="J121" t="n">
-        <v>2.484584933508958</v>
+        <v>3.338819046282888</v>
       </c>
       <c r="K121" t="n">
-        <v>1.064822114360982</v>
+        <v>1.430922448406952</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1242292466754479</v>
+        <v>0.1669409523141444</v>
       </c>
       <c r="M121" t="n">
-        <v>2.36035568683351</v>
+        <v>3.171878093968743</v>
       </c>
       <c r="N121" t="n">
-        <v>1.174173666661395</v>
+        <v>1.579717564473892</v>
       </c>
       <c r="O121" t="n">
-        <v>22.3092996665665</v>
+        <v>30.01463372500395</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -6885,46 +6885,46 @@
         <v>2020</v>
       </c>
       <c r="B122" t="n">
-        <v>61.63858221518523</v>
+        <v>87.23891864028052</v>
       </c>
       <c r="C122" t="n">
-        <v>84.50406033612971</v>
+        <v>121.0655736342365</v>
       </c>
       <c r="D122" t="n">
-        <v>3.424233876098944</v>
+        <v>1.790355225469642</v>
       </c>
       <c r="E122" t="n">
-        <v>84.5040603361297</v>
+        <v>121.0655736342365</v>
       </c>
       <c r="F122" t="n">
-        <v>28.43114265782432</v>
+        <v>39.0676125154931</v>
       </c>
       <c r="G122" t="n">
-        <v>0.7577616083047451</v>
+        <v>1.576022810834373</v>
       </c>
       <c r="H122" t="n">
-        <v>3.823058998889638</v>
+        <v>5.173762246347358</v>
       </c>
       <c r="I122" t="n">
-        <v>23.85032205062977</v>
+        <v>32.31782745831124</v>
       </c>
       <c r="J122" t="n">
-        <v>2.676141299222742</v>
+        <v>3.621633572443155</v>
       </c>
       <c r="K122" t="n">
-        <v>1.14691769966689</v>
+        <v>1.552128673904209</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1338070649611371</v>
+        <v>0.1810816786221578</v>
       </c>
       <c r="M122" t="n">
-        <v>2.542334234261605</v>
+        <v>3.440551893820997</v>
       </c>
       <c r="N122" t="n">
-        <v>1.249861987514832</v>
+        <v>1.69349780661077</v>
       </c>
       <c r="O122" t="n">
-        <v>23.74737776278181</v>
+        <v>32.17645832560461</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -6938,52 +6938,52 @@
         <v>2021</v>
       </c>
       <c r="B123" t="n">
-        <v>88.59587763501385</v>
+        <v>95.02066897339203</v>
       </c>
       <c r="C123" t="n">
-        <v>114.4636976935092</v>
+        <v>131.0410769800475</v>
       </c>
       <c r="D123" t="n">
-        <v>2.115648224423981</v>
+        <v>2.126921274471722</v>
       </c>
       <c r="E123" t="n">
-        <v>114.4636976935092</v>
+        <v>131.0410769800475</v>
       </c>
       <c r="F123" t="n">
-        <v>30.28411421157437</v>
+        <v>41.8621016717363</v>
       </c>
       <c r="G123" t="n">
-        <v>0.827831808501344</v>
+        <v>1.707018217918119</v>
       </c>
       <c r="H123" t="n">
-        <v>4.108496219279974</v>
+        <v>5.594342335030941</v>
       </c>
       <c r="I123" t="n">
-        <v>25.3477861837931</v>
+        <v>34.56074111878707</v>
       </c>
       <c r="J123" t="n">
-        <v>2.875947353495984</v>
+        <v>3.916039634521664</v>
       </c>
       <c r="K123" t="n">
-        <v>1.232548865783993</v>
+        <v>1.678302700509285</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1437973676747992</v>
+        <v>0.1958019817260832</v>
       </c>
       <c r="M123" t="n">
-        <v>2.732149985821184</v>
+        <v>3.720237652795579</v>
       </c>
       <c r="N123" t="n">
-        <v>1.329016752478851</v>
+        <v>1.811952190964821</v>
       </c>
       <c r="O123" t="n">
-        <v>25.08297617511751</v>
+        <v>34.19757768414271</v>
       </c>
       <c r="P123" t="n">
-        <v>0.1683421219806544</v>
+        <v>0.2295139441888773</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.1683421219806544</v>
+        <v>0.2295139441888773</v>
       </c>
     </row>
     <row r="124">
@@ -6991,52 +6991,52 @@
         <v>2022</v>
       </c>
       <c r="B124" t="n">
-        <v>78.25372517991902</v>
+        <v>103.164067767756</v>
       </c>
       <c r="C124" t="n">
-        <v>105.1902290531082</v>
+        <v>141.4288706953041</v>
       </c>
       <c r="D124" t="n">
-        <v>2.820097781276047</v>
+        <v>2.514536029857493</v>
       </c>
       <c r="E124" t="n">
-        <v>105.1902290531082</v>
+        <v>141.428870695304</v>
       </c>
       <c r="F124" t="n">
-        <v>32.22323697652185</v>
+        <v>44.76834932682797</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9004983928743427</v>
+        <v>1.842729371664313</v>
       </c>
       <c r="H124" t="n">
-        <v>4.409228776801488</v>
+        <v>6.03515506670132</v>
       </c>
       <c r="I124" t="n">
-        <v>26.91350980684602</v>
+        <v>36.89046488846235</v>
       </c>
       <c r="J124" t="n">
-        <v>3.086460143761048</v>
+        <v>4.224608546690922</v>
       </c>
       <c r="K124" t="n">
-        <v>1.322768633040449</v>
+        <v>1.810546520010396</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1543230071880524</v>
+        <v>0.2112304273345461</v>
       </c>
       <c r="M124" t="n">
-        <v>2.932137136572996</v>
+        <v>4.013378119356375</v>
       </c>
       <c r="N124" t="n">
-        <v>1.411813921994329</v>
+        <v>1.935050570423643</v>
       </c>
       <c r="O124" t="n">
-        <v>26.46680499098702</v>
+        <v>36.27574802687521</v>
       </c>
       <c r="P124" t="n">
-        <v>0.3576595269052301</v>
+        <v>0.4902128111739895</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.3576595269052301</v>
+        <v>0.4902128111739895</v>
       </c>
     </row>
     <row r="125">
@@ -7044,52 +7044,52 @@
         <v>2023</v>
       </c>
       <c r="B125" t="n">
-        <v>81.27343980850978</v>
+        <v>111.7068978392938</v>
       </c>
       <c r="C125" t="n">
-        <v>109.1482484672265</v>
+        <v>152.3530068490895</v>
       </c>
       <c r="D125" t="n">
-        <v>3.753038156694164</v>
+        <v>2.880872288976775</v>
       </c>
       <c r="E125" t="n">
-        <v>109.1482484672265</v>
+        <v>152.3530068490895</v>
       </c>
       <c r="F125" t="n">
-        <v>34.26773289223675</v>
+        <v>47.80132921683662</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9752625602252696</v>
+        <v>1.983454165497107</v>
       </c>
       <c r="H125" t="n">
-        <v>4.728839809478236</v>
+        <v>6.499185992840162</v>
       </c>
       <c r="I125" t="n">
-        <v>28.5636305225332</v>
+        <v>39.31868905849935</v>
       </c>
       <c r="J125" t="n">
-        <v>3.310187866634764</v>
+        <v>4.549430194988108</v>
       </c>
       <c r="K125" t="n">
-        <v>1.418651942843471</v>
+        <v>1.949755797852047</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1655093933317382</v>
+        <v>0.2274715097494054</v>
       </c>
       <c r="M125" t="n">
-        <v>3.144678473303026</v>
+        <v>4.321958685238703</v>
       </c>
       <c r="N125" t="n">
-        <v>1.499114123268835</v>
+        <v>2.06342224281757</v>
       </c>
       <c r="O125" t="n">
-        <v>27.91350497526571</v>
+        <v>38.42092216126316</v>
       </c>
       <c r="P125" t="n">
-        <v>0.5696633668421573</v>
+        <v>0.7841004522706766</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.5696633668421573</v>
+        <v>0.7841004522706766</v>
       </c>
     </row>
     <row r="126">
@@ -7097,52 +7097,52 @@
         <v>2024</v>
       </c>
       <c r="B126" t="n">
-        <v>87.85609060055641</v>
+        <v>120.8662088746398</v>
       </c>
       <c r="C126" t="n">
-        <v>117.5679683320474</v>
+        <v>163.8432898803891</v>
       </c>
       <c r="D126" t="n">
-        <v>3.916344624103607</v>
+        <v>3.441862419422464</v>
       </c>
       <c r="E126" t="n">
-        <v>117.5679683320474</v>
+        <v>163.8432898803891</v>
       </c>
       <c r="F126" t="n">
-        <v>36.45004258394035</v>
+        <v>50.99234228603075</v>
       </c>
       <c r="G126" t="n">
-        <v>1.051913788577608</v>
+        <v>2.130296575323647</v>
       </c>
       <c r="H126" t="n">
-        <v>5.0730663380442</v>
+        <v>6.992028379914052</v>
       </c>
       <c r="I126" t="n">
-        <v>30.32506245731852</v>
+        <v>41.87001733079321</v>
       </c>
       <c r="J126" t="n">
-        <v>3.551146436630952</v>
+        <v>4.894419865939852</v>
       </c>
       <c r="K126" t="n">
-        <v>1.521919901413265</v>
+        <v>2.097608513974222</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1775573218315477</v>
+        <v>0.2447209932969926</v>
       </c>
       <c r="M126" t="n">
-        <v>3.373589114799405</v>
+        <v>4.649698872642859</v>
       </c>
       <c r="N126" t="n">
-        <v>1.59234911793659</v>
+        <v>2.198381292238363</v>
       </c>
       <c r="O126" t="n">
-        <v>29.44784302104067</v>
+        <v>40.65539803112812</v>
       </c>
       <c r="P126" t="n">
-        <v>0.8067902197545389</v>
+        <v>1.11384652140077</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.8067902197545389</v>
+        <v>1.11384652140077</v>
       </c>
     </row>
     <row r="127">
@@ -7150,52 +7150,52 @@
         <v>2025</v>
       </c>
       <c r="B127" t="n">
-        <v>94.69587305310208</v>
+        <v>130.3387162913513</v>
       </c>
       <c r="C127" t="n">
-        <v>126.4298185814665</v>
+        <v>175.7838837144921</v>
       </c>
       <c r="D127" t="n">
-        <v>4.067292406964537</v>
+        <v>4.054356717884028</v>
       </c>
       <c r="E127" t="n">
-        <v>126.4298185814664</v>
+        <v>175.7838837144921</v>
       </c>
       <c r="F127" t="n">
-        <v>38.81616024391897</v>
+        <v>54.38999998418476</v>
       </c>
       <c r="G127" t="n">
-        <v>1.130646627783273</v>
+        <v>2.285237730474481</v>
       </c>
       <c r="H127" t="n">
-        <v>5.449985215973107</v>
+        <v>7.52220910482728</v>
       </c>
       <c r="I127" t="n">
-        <v>32.23552840016266</v>
+        <v>44.58255314888311</v>
       </c>
       <c r="J127" t="n">
-        <v>3.814989651181174</v>
+        <v>5.265546373379092</v>
       </c>
       <c r="K127" t="n">
-        <v>1.634995564791932</v>
+        <v>2.256662731448182</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1907494825590587</v>
+        <v>0.2632773186689545</v>
       </c>
       <c r="M127" t="n">
-        <v>3.624240168622116</v>
+        <v>5.002269054710136</v>
       </c>
       <c r="N127" t="n">
-        <v>1.693526198247726</v>
+        <v>2.341960794016563</v>
       </c>
       <c r="O127" t="n">
-        <v>31.10443117448323</v>
+        <v>43.01401325010419</v>
       </c>
       <c r="P127" t="n">
-        <v>1.07256659222356</v>
+        <v>1.483241836210489</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.07256659222356</v>
+        <v>1.483241836210489</v>
       </c>
     </row>
     <row r="128">
@@ -7203,52 +7203,52 @@
         <v>2026</v>
       </c>
       <c r="B128" t="n">
-        <v>101.9968659410127</v>
+        <v>140.3964232765705</v>
       </c>
       <c r="C128" t="n">
-        <v>135.8457192763196</v>
+        <v>188.2502336522901</v>
       </c>
       <c r="D128" t="n">
-        <v>4.35247004342637</v>
+        <v>4.973772038237957</v>
       </c>
       <c r="E128" t="n">
-        <v>135.8457192763196</v>
+        <v>188.2502336522901</v>
       </c>
       <c r="F128" t="n">
-        <v>41.42408071827047</v>
+        <v>58.05907061739327</v>
       </c>
       <c r="G128" t="n">
-        <v>1.212161372235444</v>
+        <v>2.451089129016799</v>
       </c>
       <c r="H128" t="n">
-        <v>5.86996213298942</v>
+        <v>8.10126558683532</v>
       </c>
       <c r="I128" t="n">
-        <v>34.3419572130456</v>
+        <v>47.50671590154094</v>
       </c>
       <c r="J128" t="n">
-        <v>4.108973493092595</v>
+        <v>5.670885910784736</v>
       </c>
       <c r="K128" t="n">
-        <v>1.760988639896826</v>
+        <v>2.430379676050601</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2054486746546297</v>
+        <v>0.2835442955392368</v>
       </c>
       <c r="M128" t="n">
-        <v>3.903524818437965</v>
+        <v>5.3873416152455</v>
       </c>
       <c r="N128" t="n">
-        <v>1.805147292647122</v>
+        <v>2.496854778879581</v>
       </c>
       <c r="O128" t="n">
-        <v>32.92588661788351</v>
+        <v>45.54263116676356</v>
       </c>
       <c r="P128" t="n">
-        <v>1.371911942411813</v>
+        <v>1.897609631948482</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.371911942411813</v>
+        <v>1.897609631948482</v>
       </c>
     </row>
     <row r="129">
@@ -7256,52 +7256,52 @@
         <v>2027</v>
       </c>
       <c r="B129" t="n">
-        <v>109.5652526687277</v>
+        <v>150.7736114360991</v>
       </c>
       <c r="C129" t="n">
-        <v>145.7352891815606</v>
+        <v>201.0948168640502</v>
       </c>
       <c r="D129" t="n">
-        <v>4.721417986331637</v>
+        <v>6.15237432224565</v>
       </c>
       <c r="E129" t="n">
-        <v>145.7352891815606</v>
+        <v>201.0948168640502</v>
       </c>
       <c r="F129" t="n">
-        <v>44.34139010968724</v>
+        <v>62.07721624660423</v>
       </c>
       <c r="G129" t="n">
-        <v>1.297753794777082</v>
+        <v>2.631342825344597</v>
       </c>
       <c r="H129" t="n">
-        <v>6.345445097408044</v>
+        <v>8.743506716102942</v>
       </c>
       <c r="I129" t="n">
-        <v>36.698191217502</v>
+        <v>50.70236670515695</v>
       </c>
       <c r="J129" t="n">
-        <v>4.441811568185631</v>
+        <v>6.120454701272059</v>
       </c>
       <c r="K129" t="n">
-        <v>1.903633529222414</v>
+        <v>2.623052014830882</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2220905784092817</v>
+        <v>0.3060227350636029</v>
       </c>
       <c r="M129" t="n">
-        <v>4.21972098977635</v>
+        <v>5.814431966208456</v>
       </c>
       <c r="N129" t="n">
-        <v>1.930091237336222</v>
+        <v>2.666270935999383</v>
       </c>
       <c r="O129" t="n">
-        <v>34.96038594561674</v>
+        <v>48.2950542207355</v>
       </c>
       <c r="P129" t="n">
-        <v>1.711347563771449</v>
+        <v>2.364093563252787</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.711347563771449</v>
+        <v>2.364093563252787</v>
       </c>
     </row>
     <row r="130">
@@ -7309,52 +7309,52 @@
         <v>2028</v>
       </c>
       <c r="B130" t="n">
-        <v>117.3785519608777</v>
+        <v>161.4405050270041</v>
       </c>
       <c r="C130" t="n">
-        <v>156.1257757114915</v>
+        <v>214.3034247339133</v>
       </c>
       <c r="D130" t="n">
-        <v>5.192762226099223</v>
+        <v>7.65190334657271</v>
       </c>
       <c r="E130" t="n">
-        <v>156.1257757114915</v>
+        <v>214.3034247339132</v>
       </c>
       <c r="F130" t="n">
-        <v>47.64199852989557</v>
+        <v>66.52975456888467</v>
       </c>
       <c r="G130" t="n">
-        <v>1.389381712303087</v>
+        <v>2.829940828377446</v>
       </c>
       <c r="H130" t="n">
-        <v>6.890569051296728</v>
+        <v>9.465429513218568</v>
       </c>
       <c r="I130" t="n">
-        <v>39.36204776629586</v>
+        <v>54.23438422728874</v>
       </c>
       <c r="J130" t="n">
-        <v>4.823398335907717</v>
+        <v>6.625800659252979</v>
       </c>
       <c r="K130" t="n">
-        <v>2.067170715389022</v>
+        <v>2.839628853965563</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2411699167953859</v>
+        <v>0.331290032962649</v>
       </c>
       <c r="M130" t="n">
-        <v>4.582228419112331</v>
+        <v>6.294510626290331</v>
       </c>
       <c r="N130" t="n">
-        <v>2.071460924084242</v>
+        <v>2.853700654062714</v>
       </c>
       <c r="O130" t="n">
-        <v>37.25867715452857</v>
+        <v>51.32856243107467</v>
       </c>
       <c r="P130" t="n">
-        <v>2.099080403072032</v>
+        <v>2.891749996116883</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.099080403072032</v>
+        <v>2.891749996116883</v>
       </c>
     </row>
     <row r="131">
@@ -7362,52 +7362,52 @@
         <v>2029</v>
       </c>
       <c r="B131" t="n">
-        <v>125.4680471341807</v>
+        <v>172.4393522825322</v>
       </c>
       <c r="C131" t="n">
-        <v>167.0351802391282</v>
+        <v>227.8481155335761</v>
       </c>
       <c r="D131" t="n">
-        <v>5.848628259080809</v>
+        <v>9.620314336187285</v>
       </c>
       <c r="E131" t="n">
-        <v>167.0351802391281</v>
+        <v>227.8481155335761</v>
       </c>
       <c r="F131" t="n">
-        <v>51.40099009043107</v>
+        <v>71.50264359250616</v>
       </c>
       <c r="G131" t="n">
-        <v>1.489662338822367</v>
+        <v>3.050982974367805</v>
       </c>
       <c r="H131" t="n">
-        <v>7.520345740214717</v>
+        <v>10.28473099981785</v>
       </c>
       <c r="I131" t="n">
-        <v>42.39098201139389</v>
+        <v>58.16692961832029</v>
       </c>
       <c r="J131" t="n">
-        <v>5.264242018150311</v>
+        <v>7.199311699872506</v>
       </c>
       <c r="K131" t="n">
-        <v>2.256103722064419</v>
+        <v>3.085419299945359</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2632121009075156</v>
+        <v>0.3599655849936253</v>
       </c>
       <c r="M131" t="n">
-        <v>5.001029917242795</v>
+        <v>6.839346114878881</v>
       </c>
       <c r="N131" t="n">
-        <v>2.232354286672918</v>
+        <v>3.062617445913286</v>
       </c>
       <c r="O131" t="n">
-        <v>39.86984755997831</v>
+        <v>54.69834758401127</v>
       </c>
       <c r="P131" t="n">
-        <v>2.544883886807126</v>
+        <v>3.491383888341145</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.544883886807126</v>
+        <v>3.491383888341145</v>
       </c>
     </row>
     <row r="132">
@@ -7415,52 +7415,52 @@
         <v>2030</v>
       </c>
       <c r="B132" t="n">
-        <v>134.1624433412562</v>
+        <v>183.5521006338596</v>
       </c>
       <c r="C132" t="n">
-        <v>178.4542411970642</v>
+        <v>241.6949561569524</v>
       </c>
       <c r="D132" t="n">
-        <v>7.088560076291516</v>
+        <v>11.94418799454734</v>
       </c>
       <c r="E132" t="n">
-        <v>178.4542411970642</v>
+        <v>241.6949561569524</v>
       </c>
       <c r="F132" t="n">
-        <v>55.68632538651841</v>
+        <v>77.07422512629186</v>
       </c>
       <c r="G132" t="n">
-        <v>1.601738089571374</v>
+        <v>3.298389844565489</v>
       </c>
       <c r="H132" t="n">
-        <v>8.249215916895702</v>
+        <v>11.21894073496716</v>
       </c>
       <c r="I132" t="n">
-        <v>45.83537138005117</v>
+        <v>62.55689454675915</v>
       </c>
       <c r="J132" t="n">
-        <v>5.774451141827</v>
+        <v>7.853258514477014</v>
       </c>
       <c r="K132" t="n">
-        <v>2.474764775068714</v>
+        <v>3.365682220490149</v>
       </c>
       <c r="L132" t="n">
-        <v>0.28872255709135</v>
+        <v>0.3926629257238508</v>
       </c>
       <c r="M132" t="n">
-        <v>5.485728584735649</v>
+        <v>7.460595588753163</v>
       </c>
       <c r="N132" t="n">
-        <v>2.415506807755993</v>
+        <v>3.29612883836247</v>
       </c>
       <c r="O132" t="n">
-        <v>42.83498739087295</v>
+        <v>58.45135140029445</v>
       </c>
       <c r="P132" t="n">
-        <v>3.059641956490925</v>
+        <v>4.175096528592461</v>
       </c>
       <c r="Q132" t="n">
-        <v>3.059641956490925</v>
+        <v>4.175096528592461</v>
       </c>
     </row>
     <row r="133">
@@ -7468,52 +7468,52 @@
         <v>2031</v>
       </c>
       <c r="B133" t="n">
-        <v>138.7387730442215</v>
+        <v>191.2614054660062</v>
       </c>
       <c r="C133" t="n">
-        <v>184.8842309398251</v>
+        <v>252.0288784433762</v>
       </c>
       <c r="D133" t="n">
-        <v>9.731698029190433</v>
+        <v>14.97709615303167</v>
       </c>
       <c r="E133" t="n">
-        <v>184.884230939825</v>
+        <v>252.0288784433762</v>
       </c>
       <c r="F133" t="n">
-        <v>60.54701914879749</v>
+        <v>83.30666449908728</v>
       </c>
       <c r="G133" t="n">
-        <v>1.728960280593156</v>
+        <v>3.575539098664273</v>
       </c>
       <c r="H133" t="n">
-        <v>9.08892099961767</v>
+        <v>12.28380488101353</v>
       </c>
       <c r="I133" t="n">
-        <v>49.72913786858641</v>
+        <v>67.44732051940946</v>
       </c>
       <c r="J133" t="n">
-        <v>6.362244699732359</v>
+        <v>8.598663416709462</v>
       </c>
       <c r="K133" t="n">
-        <v>2.726676299885297</v>
+        <v>3.685141464304055</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3181122349866179</v>
+        <v>0.4299331708354731</v>
       </c>
       <c r="M133" t="n">
-        <v>6.044132464745742</v>
+        <v>8.16873024587399</v>
       </c>
       <c r="N133" t="n">
-        <v>2.622790708423587</v>
+        <v>3.556623099185672</v>
       </c>
       <c r="O133" t="n">
-        <v>46.17860173964463</v>
+        <v>62.62027736632907</v>
       </c>
       <c r="P133" t="n">
-        <v>3.654421720403533</v>
+        <v>4.955561518198704</v>
       </c>
       <c r="Q133" t="n">
-        <v>3.654421720403533</v>
+        <v>4.955561518198704</v>
       </c>
     </row>
     <row r="134">
@@ -7521,52 +7521,52 @@
         <v>2032</v>
       </c>
       <c r="B134" t="n">
-        <v>146.0698518867342</v>
+        <v>198.7785760052341</v>
       </c>
       <c r="C134" t="n">
-        <v>195.0101320359997</v>
+        <v>262.2817453070928</v>
       </c>
       <c r="D134" t="n">
-        <v>11.98247887332855</v>
+        <v>18.53677577498413</v>
       </c>
       <c r="E134" t="n">
-        <v>195.0101320359997</v>
+        <v>262.2817453070928</v>
       </c>
       <c r="F134" t="n">
-        <v>66.00376762418617</v>
+        <v>90.24293750286893</v>
       </c>
       <c r="G134" t="n">
-        <v>1.87454760040289</v>
+        <v>3.88510057987671</v>
       </c>
       <c r="H134" t="n">
-        <v>10.04681342527472</v>
+        <v>13.49252648537261</v>
       </c>
       <c r="I134" t="n">
-        <v>54.08240659850862</v>
+        <v>72.86531043761964</v>
       </c>
       <c r="J134" t="n">
-        <v>7.032769397692297</v>
+        <v>9.44476853976083</v>
       </c>
       <c r="K134" t="n">
-        <v>3.014044027582413</v>
+        <v>4.047757945611785</v>
       </c>
       <c r="L134" t="n">
-        <v>0.351638469884615</v>
+        <v>0.4722384269880416</v>
       </c>
       <c r="M134" t="n">
-        <v>6.681130927807682</v>
+        <v>8.972530112772789</v>
       </c>
       <c r="N134" t="n">
-        <v>2.854822531304548</v>
+        <v>3.845653419161581</v>
       </c>
       <c r="O134" t="n">
-        <v>49.90229784720351</v>
+        <v>67.22202176694447</v>
       </c>
       <c r="P134" t="n">
-        <v>4.339330247582914</v>
+        <v>5.845393197125605</v>
       </c>
       <c r="Q134" t="n">
-        <v>4.339330247582914</v>
+        <v>5.845393197125605</v>
       </c>
     </row>
     <row r="135">
@@ -7574,52 +7574,52 @@
         <v>2033</v>
       </c>
       <c r="B135" t="n">
-        <v>153.3982893179883</v>
+        <v>206.0269812960533</v>
       </c>
       <c r="C135" t="n">
-        <v>205.2986816649515</v>
+        <v>272.3827372685247</v>
       </c>
       <c r="D135" t="n">
-        <v>14.60021905511417</v>
+        <v>22.63639610727108</v>
       </c>
       <c r="E135" t="n">
-        <v>205.2986816649516</v>
+        <v>272.3827372685247</v>
       </c>
       <c r="F135" t="n">
-        <v>72.04174898204722</v>
+        <v>97.904781748254</v>
       </c>
       <c r="G135" t="n">
-        <v>2.041105400913027</v>
+        <v>4.228832190630408</v>
       </c>
       <c r="H135" t="n">
-        <v>11.12452302236001</v>
+        <v>14.85505438516844</v>
       </c>
       <c r="I135" t="n">
-        <v>58.87612055877393</v>
+        <v>78.82089517245524</v>
       </c>
       <c r="J135" t="n">
-        <v>7.78716611565201</v>
+        <v>10.39853806961791</v>
       </c>
       <c r="K135" t="n">
-        <v>3.337356906708005</v>
+        <v>4.456516315550534</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3893583057826006</v>
+        <v>0.5199269034808957</v>
       </c>
       <c r="M135" t="n">
-        <v>7.397807809869408</v>
+        <v>9.878611166137016</v>
       </c>
       <c r="N135" t="n">
-        <v>3.110673873274105</v>
+        <v>4.163870574400289</v>
       </c>
       <c r="O135" t="n">
-        <v>53.98056061421663</v>
+        <v>72.25703403442634</v>
       </c>
       <c r="P135" t="n">
-        <v>5.12224297799136</v>
+        <v>6.856506879179142</v>
       </c>
       <c r="Q135" t="n">
-        <v>5.12224297799136</v>
+        <v>6.856506879179142</v>
       </c>
     </row>
     <row r="136">
@@ -7627,52 +7627,52 @@
         <v>2034</v>
       </c>
       <c r="B136" t="n">
-        <v>160.625687692995</v>
+        <v>212.9923262898564</v>
       </c>
       <c r="C136" t="n">
-        <v>215.6268989386365</v>
+        <v>282.3373230080605</v>
       </c>
       <c r="D136" t="n">
-        <v>17.57188868110666</v>
+        <v>27.26891367638092</v>
       </c>
       <c r="E136" t="n">
-        <v>215.6268989386365</v>
+        <v>282.3373230080606</v>
       </c>
       <c r="F136" t="n">
-        <v>78.6232860779207</v>
+        <v>106.3068438491957</v>
       </c>
       <c r="G136" t="n">
-        <v>2.230549312922399</v>
+        <v>4.60799080226397</v>
       </c>
       <c r="H136" t="n">
-        <v>12.32019998143978</v>
+        <v>16.38036132479276</v>
       </c>
       <c r="I136" t="n">
-        <v>64.07253678355831</v>
+        <v>85.31849172213856</v>
       </c>
       <c r="J136" t="n">
-        <v>8.624139987007851</v>
+        <v>11.46625292735494</v>
       </c>
       <c r="K136" t="n">
-        <v>3.696059994431935</v>
+        <v>4.914108397437832</v>
       </c>
       <c r="L136" t="n">
-        <v>0.4312069993503926</v>
+        <v>0.5733126463677469</v>
       </c>
       <c r="M136" t="n">
-        <v>8.192932987657459</v>
+        <v>10.89294028098719</v>
       </c>
       <c r="N136" t="n">
-        <v>3.38842983889951</v>
+        <v>4.511630005978833</v>
       </c>
       <c r="O136" t="n">
-        <v>58.37135135810889</v>
+        <v>77.72034623632871</v>
       </c>
       <c r="P136" t="n">
-        <v>6.008815580981798</v>
+        <v>8.000623877269131</v>
       </c>
       <c r="Q136" t="n">
-        <v>6.008815580981798</v>
+        <v>8.000623877269131</v>
       </c>
     </row>
     <row r="137">
@@ -7680,52 +7680,52 @@
         <v>2035</v>
       </c>
       <c r="B137" t="n">
-        <v>167.6791364712218</v>
+        <v>219.7188157510194</v>
       </c>
       <c r="C137" t="n">
-        <v>225.9036114072468</v>
+        <v>292.2278516132248</v>
       </c>
       <c r="D137" t="n">
-        <v>20.88887918929361</v>
+        <v>32.42845902584374</v>
       </c>
       <c r="E137" t="n">
-        <v>225.9036114072468</v>
+        <v>292.2278516132249</v>
       </c>
       <c r="F137" t="n">
-        <v>85.72165380636649</v>
+        <v>115.4847618325242</v>
       </c>
       <c r="G137" t="n">
-        <v>2.444438937609983</v>
+        <v>5.024240897735652</v>
       </c>
       <c r="H137" t="n">
-        <v>13.63456207284041</v>
+        <v>18.08141172887304</v>
       </c>
       <c r="I137" t="n">
-        <v>69.64265279591594</v>
+        <v>92.37910920591547</v>
       </c>
       <c r="J137" t="n">
-        <v>9.544193450988292</v>
+        <v>12.65698821021113</v>
       </c>
       <c r="K137" t="n">
-        <v>4.090368621852124</v>
+        <v>5.424423518661912</v>
       </c>
       <c r="L137" t="n">
-        <v>0.4772096725494146</v>
+        <v>0.6328494105105564</v>
       </c>
       <c r="M137" t="n">
-        <v>9.066983778438875</v>
+        <v>12.02413879970057</v>
       </c>
       <c r="N137" t="n">
-        <v>3.686651070888409</v>
+        <v>4.890176636228875</v>
       </c>
       <c r="O137" t="n">
-        <v>63.04173331219179</v>
+        <v>83.62202047951376</v>
       </c>
       <c r="P137" t="n">
-        <v>7.004637034687976</v>
+        <v>9.291335608834864</v>
       </c>
       <c r="Q137" t="n">
-        <v>7.004637034687976</v>
+        <v>9.291335608834864</v>
       </c>
     </row>
     <row r="138">
@@ -7733,52 +7733,52 @@
         <v>2036</v>
       </c>
       <c r="B138" t="n">
-        <v>174.5236186160502</v>
+        <v>226.291891440465</v>
       </c>
       <c r="C138" t="n">
-        <v>236.1008088229762</v>
+        <v>302.2010133971123</v>
       </c>
       <c r="D138" t="n">
-        <v>24.58024408432989</v>
+        <v>38.14713780898632</v>
       </c>
       <c r="E138" t="n">
-        <v>236.1008088229762</v>
+        <v>302.2010133971123</v>
       </c>
       <c r="F138" t="n">
-        <v>93.37691677012455</v>
+        <v>125.5404801498808</v>
       </c>
       <c r="G138" t="n">
-        <v>2.684880674065465</v>
+        <v>5.48125934395078</v>
       </c>
       <c r="H138" t="n">
-        <v>15.08093247239558</v>
+        <v>19.98348000769622</v>
       </c>
       <c r="I138" t="n">
-        <v>75.6111036236634</v>
+        <v>100.075740798234</v>
       </c>
       <c r="J138" t="n">
-        <v>10.5566527306769</v>
+        <v>13.98843600538735</v>
       </c>
       <c r="K138" t="n">
-        <v>4.524279741718674</v>
+        <v>5.995044002308865</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5278326365338452</v>
+        <v>0.6994218002693677</v>
       </c>
       <c r="M138" t="n">
-        <v>10.02882009414306</v>
+        <v>13.28901420511799</v>
       </c>
       <c r="N138" t="n">
-        <v>4.006769168269099</v>
+        <v>5.303539240027138</v>
       </c>
       <c r="O138" t="n">
-        <v>68.00822868275417</v>
+        <v>90.01873936739392</v>
       </c>
       <c r="P138" t="n">
-        <v>8.120385514358706</v>
+        <v>10.74850619312167</v>
       </c>
       <c r="Q138" t="n">
-        <v>8.120385514358706</v>
+        <v>10.74850619312167</v>
       </c>
     </row>
     <row r="139">
@@ -7786,52 +7786,52 @@
         <v>2037</v>
       </c>
       <c r="B139" t="n">
-        <v>181.3228330959237</v>
+        <v>232.9759649407333</v>
       </c>
       <c r="C139" t="n">
-        <v>246.4621687221807</v>
+        <v>312.6485504712073</v>
       </c>
       <c r="D139" t="n">
-        <v>28.72180967213212</v>
+        <v>44.49890649407669</v>
       </c>
       <c r="E139" t="n">
-        <v>246.4621687221807</v>
+        <v>312.6485504712073</v>
       </c>
       <c r="F139" t="n">
-        <v>101.7569781874877</v>
+        <v>136.6935773161424</v>
       </c>
       <c r="G139" t="n">
-        <v>2.955772610235873</v>
+        <v>5.986743606089196</v>
       </c>
       <c r="H139" t="n">
-        <v>16.696184861448</v>
+        <v>22.13364040734454</v>
       </c>
       <c r="I139" t="n">
-        <v>82.10502071580348</v>
+        <v>108.5731933027088</v>
       </c>
       <c r="J139" t="n">
-        <v>11.68732940301361</v>
+        <v>15.49354828514118</v>
       </c>
       <c r="K139" t="n">
-        <v>5.008855458434402</v>
+        <v>6.640092122203364</v>
       </c>
       <c r="L139" t="n">
-        <v>0.5843664701506804</v>
+        <v>0.774677414257059</v>
       </c>
       <c r="M139" t="n">
-        <v>11.10296293286293</v>
+        <v>14.71887087088412</v>
       </c>
       <c r="N139" t="n">
-        <v>4.355693808711903</v>
+        <v>5.760664271245611</v>
       </c>
       <c r="O139" t="n">
-        <v>73.3789216974332</v>
+        <v>97.04799075625107</v>
       </c>
       <c r="P139" t="n">
-        <v>9.379260668092968</v>
+        <v>12.40463039741555</v>
       </c>
       <c r="Q139" t="n">
-        <v>9.379260668092968</v>
+        <v>12.40463039741555</v>
       </c>
     </row>
     <row r="140">
@@ -7839,52 +7839,52 @@
         <v>2038</v>
       </c>
       <c r="B140" t="n">
-        <v>188.3756025187616</v>
+        <v>240.113855437183</v>
       </c>
       <c r="C140" t="n">
-        <v>257.4404357031362</v>
+        <v>324.0901283611206</v>
       </c>
       <c r="D140" t="n">
-        <v>33.46431742111633</v>
+        <v>51.64093929410521</v>
       </c>
       <c r="E140" t="n">
-        <v>257.4404357031363</v>
+        <v>324.0901283611208</v>
       </c>
       <c r="F140" t="n">
-        <v>111.1891953084651</v>
+        <v>149.3088990799846</v>
       </c>
       <c r="G140" t="n">
-        <v>3.263773618474527</v>
+        <v>6.55393885046582</v>
       </c>
       <c r="H140" t="n">
-        <v>18.54610096310638</v>
+        <v>24.6056045637981</v>
       </c>
       <c r="I140" t="n">
-        <v>89.37932072688409</v>
+        <v>118.1493556657208</v>
       </c>
       <c r="J140" t="n">
-        <v>12.98227067417447</v>
+        <v>17.22392319465868</v>
       </c>
       <c r="K140" t="n">
-        <v>5.563830288931914</v>
+        <v>7.381681369139439</v>
       </c>
       <c r="L140" t="n">
-        <v>0.6491135337087234</v>
+        <v>0.8611961597329345</v>
       </c>
       <c r="M140" t="n">
-        <v>12.33315714046574</v>
+        <v>16.36272703492575</v>
       </c>
       <c r="N140" t="n">
-        <v>4.747157550790804</v>
+        <v>6.276551851743001</v>
       </c>
       <c r="O140" t="n">
-        <v>79.37247424922222</v>
+        <v>104.943946961143</v>
       </c>
       <c r="P140" t="n">
-        <v>10.82351921580303</v>
+        <v>14.31053822197405</v>
       </c>
       <c r="Q140" t="n">
-        <v>10.82351921580303</v>
+        <v>14.31053822197405</v>
       </c>
     </row>
     <row r="141">
@@ -7892,52 +7892,52 @@
         <v>2039</v>
       </c>
       <c r="B141" t="n">
-        <v>196.1491113370772</v>
+        <v>248.1500148945091</v>
       </c>
       <c r="C141" t="n">
-        <v>269.7288253206814</v>
+        <v>337.193186084098</v>
       </c>
       <c r="D141" t="n">
-        <v>38.99530330388384</v>
+        <v>59.77775110890648</v>
       </c>
       <c r="E141" t="n">
-        <v>269.7288253206815</v>
+        <v>337.1931860840979</v>
       </c>
       <c r="F141" t="n">
-        <v>122.1180725646748</v>
+        <v>163.8547747851431</v>
       </c>
       <c r="G141" t="n">
-        <v>3.618054367318986</v>
+        <v>7.201172365674398</v>
       </c>
       <c r="H141" t="n">
-        <v>20.71668619199556</v>
+        <v>27.49100024155525</v>
       </c>
       <c r="I141" t="n">
-        <v>97.78333200536065</v>
+        <v>129.1626021779136</v>
       </c>
       <c r="J141" t="n">
-        <v>14.50168033439688</v>
+        <v>19.24370016908866</v>
       </c>
       <c r="K141" t="n">
-        <v>6.215005857598666</v>
+        <v>8.247300072466571</v>
       </c>
       <c r="L141" t="n">
-        <v>0.7250840167198442</v>
+        <v>0.9621850084544329</v>
       </c>
       <c r="M141" t="n">
-        <v>13.77659631767704</v>
+        <v>18.28151516063423</v>
       </c>
       <c r="N141" t="n">
-        <v>5.199916893147952</v>
+        <v>6.870495112519007</v>
       </c>
       <c r="O141" t="n">
-        <v>86.28395431363502</v>
+        <v>114.0044155670654</v>
       </c>
       <c r="P141" t="n">
-        <v>12.51446665617608</v>
+        <v>16.53499157079574</v>
       </c>
       <c r="Q141" t="n">
-        <v>12.51446665617608</v>
+        <v>16.53499157079574</v>
       </c>
     </row>
     <row r="142">
@@ -7945,52 +7945,52 @@
         <v>2040</v>
       </c>
       <c r="B142" t="n">
-        <v>205.1440243995598</v>
+        <v>257.5070743631541</v>
       </c>
       <c r="C142" t="n">
-        <v>284.0601705235532</v>
+        <v>352.5877468367814</v>
       </c>
       <c r="D142" t="n">
-        <v>45.4692124045437</v>
+        <v>69.08514720895184</v>
       </c>
       <c r="E142" t="n">
-        <v>284.0601705235532</v>
+        <v>352.5877468367814</v>
       </c>
       <c r="F142" t="n">
-        <v>134.9599269227219</v>
+        <v>180.753933786834</v>
       </c>
       <c r="G142" t="n">
-        <v>4.027970576893257</v>
+        <v>7.947807805171259</v>
       </c>
       <c r="H142" t="n">
-        <v>23.28590963156237</v>
+        <v>30.86989270649473</v>
       </c>
       <c r="I142" t="n">
-        <v>107.646046714266</v>
+        <v>141.9362332751674</v>
       </c>
       <c r="J142" t="n">
-        <v>16.30013674209366</v>
+        <v>21.60892489454629</v>
       </c>
       <c r="K142" t="n">
-        <v>6.985772889468714</v>
+        <v>9.260967811948415</v>
       </c>
       <c r="L142" t="n">
-        <v>0.8150068371046831</v>
+        <v>1.080446244727315</v>
       </c>
       <c r="M142" t="n">
-        <v>15.48512990498898</v>
+        <v>20.52847864981898</v>
       </c>
       <c r="N142" t="n">
-        <v>5.731590980186739</v>
+        <v>7.559860054355789</v>
       </c>
       <c r="O142" t="n">
-        <v>94.38019814040834</v>
+        <v>124.4856955617253</v>
       </c>
       <c r="P142" t="n">
-        <v>14.52003048313974</v>
+        <v>19.15164547103467</v>
       </c>
       <c r="Q142" t="n">
-        <v>14.52003048313974</v>
+        <v>19.15164547103467</v>
       </c>
     </row>
     <row r="143">
@@ -7998,52 +7998,52 @@
         <v>2041</v>
       </c>
       <c r="B143" t="n">
-        <v>216.9211530652136</v>
+        <v>269.8053115945357</v>
       </c>
       <c r="C143" t="n">
-        <v>301.9542868274308</v>
+        <v>371.814203732589</v>
       </c>
       <c r="D143" t="n">
-        <v>53.07552341982947</v>
+        <v>79.75669535422267</v>
       </c>
       <c r="E143" t="n">
-        <v>301.9542868274309</v>
+        <v>371.8142037325891</v>
       </c>
       <c r="F143" t="n">
-        <v>149.8761192403065</v>
+        <v>200.1383426835404</v>
       </c>
       <c r="G143" t="n">
-        <v>4.498585364467966</v>
+        <v>8.806145323250016</v>
       </c>
       <c r="H143" t="n">
-        <v>26.28019150713241</v>
+        <v>34.7632021658038</v>
       </c>
       <c r="I143" t="n">
-        <v>119.0973423687062</v>
+        <v>156.5689951944865</v>
       </c>
       <c r="J143" t="n">
-        <v>18.39613405499269</v>
+        <v>24.33424151606268</v>
       </c>
       <c r="K143" t="n">
-        <v>7.884057452139724</v>
+        <v>10.42896064974115</v>
       </c>
       <c r="L143" t="n">
-        <v>0.9198067027496345</v>
+        <v>1.216712075803134</v>
       </c>
       <c r="M143" t="n">
-        <v>17.47632735224305</v>
+        <v>23.11752944025955</v>
       </c>
       <c r="N143" t="n">
-        <v>6.3490699910423</v>
+        <v>8.349897792211397</v>
       </c>
       <c r="O143" t="n">
-        <v>103.7438036536311</v>
+        <v>136.4373299247343</v>
       </c>
       <c r="P143" t="n">
-        <v>16.88852617617252</v>
+        <v>22.21072812728232</v>
       </c>
       <c r="Q143" t="n">
-        <v>16.88852617617252</v>
+        <v>22.21072812728232</v>
       </c>
     </row>
     <row r="144">
@@ -8051,52 +8051,52 @@
         <v>2042</v>
       </c>
       <c r="B144" t="n">
-        <v>230.2547967977638</v>
+        <v>283.6027308647297</v>
       </c>
       <c r="C144" t="n">
-        <v>322.2599192071803</v>
+        <v>393.4646536655009</v>
       </c>
       <c r="D144" t="n">
-        <v>61.46164661472317</v>
+        <v>91.38798485324884</v>
       </c>
       <c r="E144" t="n">
-        <v>322.2599192071802</v>
+        <v>393.4646536655009</v>
       </c>
       <c r="F144" t="n">
-        <v>166.569728804288</v>
+        <v>221.6138389984716</v>
       </c>
       <c r="G144" t="n">
-        <v>5.025761410456442</v>
+        <v>9.771830941608334</v>
       </c>
       <c r="H144" t="n">
-        <v>29.63621875119442</v>
+        <v>39.0883369568142</v>
       </c>
       <c r="I144" t="n">
-        <v>131.9077486426366</v>
+        <v>172.7536711000489</v>
       </c>
       <c r="J144" t="n">
-        <v>20.74535312583608</v>
+        <v>27.36183586976993</v>
       </c>
       <c r="K144" t="n">
-        <v>8.89086562535832</v>
+        <v>11.72650108704426</v>
       </c>
       <c r="L144" t="n">
-        <v>1.037267656291804</v>
+        <v>1.368091793488497</v>
       </c>
       <c r="M144" t="n">
-        <v>19.70808546954428</v>
+        <v>25.99374407628144</v>
       </c>
       <c r="N144" t="n">
-        <v>7.039930713399753</v>
+        <v>9.224008609354652</v>
       </c>
       <c r="O144" t="n">
-        <v>114.1407432999213</v>
+        <v>149.5519262530035</v>
       </c>
       <c r="P144" t="n">
-        <v>19.61794025467398</v>
+        <v>25.70423732473497</v>
       </c>
       <c r="Q144" t="n">
-        <v>19.61794025467398</v>
+        <v>25.70423732473497</v>
       </c>
     </row>
     <row r="145">
@@ -8104,52 +8104,52 @@
         <v>2043</v>
       </c>
       <c r="B145" t="n">
-        <v>244.513927498796</v>
+        <v>298.2046285795827</v>
       </c>
       <c r="C145" t="n">
-        <v>344.0150294148694</v>
+        <v>416.4597230231314</v>
       </c>
       <c r="D145" t="n">
-        <v>70.20991309788148</v>
+        <v>103.4381775946135</v>
       </c>
       <c r="E145" t="n">
-        <v>344.0150294148696</v>
+        <v>416.4597230231313</v>
       </c>
       <c r="F145" t="n">
-        <v>184.2364246324337</v>
+        <v>244.1782119443476</v>
       </c>
       <c r="G145" t="n">
-        <v>5.593250933533809</v>
+        <v>10.81687295680877</v>
       </c>
       <c r="H145" t="n">
-        <v>33.19368766594012</v>
+        <v>43.64647999359784</v>
       </c>
       <c r="I145" t="n">
-        <v>145.4494860329594</v>
+        <v>189.7148589939412</v>
       </c>
       <c r="J145" t="n">
-        <v>23.23558136615808</v>
+        <v>30.55253599551851</v>
       </c>
       <c r="K145" t="n">
-        <v>9.958106299782033</v>
+        <v>13.09394399807936</v>
       </c>
       <c r="L145" t="n">
-        <v>1.161779068307904</v>
+        <v>1.527626799775926</v>
       </c>
       <c r="M145" t="n">
-        <v>22.07380229785018</v>
+        <v>29.02490919574259</v>
       </c>
       <c r="N145" t="n">
-        <v>7.77037961663709</v>
+        <v>10.14044014960104</v>
       </c>
       <c r="O145" t="n">
-        <v>124.999506766302</v>
+        <v>163.1258805399154</v>
       </c>
       <c r="P145" t="n">
-        <v>22.63770594980272</v>
+        <v>29.54248230250436</v>
       </c>
       <c r="Q145" t="n">
-        <v>22.63770594980272</v>
+        <v>29.54248230250436</v>
       </c>
     </row>
     <row r="146">
@@ -8157,52 +8157,52 @@
         <v>2044</v>
       </c>
       <c r="B146" t="n">
-        <v>258.6650128381318</v>
+        <v>312.5410675845372</v>
       </c>
       <c r="C146" t="n">
-        <v>365.7047268580182</v>
+        <v>439.1851448560911</v>
       </c>
       <c r="D146" t="n">
-        <v>78.82614122293005</v>
+        <v>115.2155783399858</v>
       </c>
       <c r="E146" t="n">
-        <v>365.7047268580181</v>
+        <v>439.1851448560911</v>
       </c>
       <c r="F146" t="n">
-        <v>201.8243490901824</v>
+        <v>266.4822900962154</v>
       </c>
       <c r="G146" t="n">
-        <v>6.176080413533216</v>
+        <v>11.89317892617383</v>
       </c>
       <c r="H146" t="n">
-        <v>36.74916593381963</v>
+        <v>48.17848444432095</v>
       </c>
       <c r="I146" t="n">
-        <v>158.8991027428292</v>
+        <v>206.4106267257206</v>
       </c>
       <c r="J146" t="n">
-        <v>25.72441615367372</v>
+        <v>33.72493911102467</v>
       </c>
       <c r="K146" t="n">
-        <v>11.02474978014588</v>
+        <v>14.45354533329629</v>
       </c>
       <c r="L146" t="n">
-        <v>1.286220807683686</v>
+        <v>1.686246955551234</v>
       </c>
       <c r="M146" t="n">
-        <v>24.43819534599004</v>
+        <v>32.03869215547343</v>
       </c>
       <c r="N146" t="n">
-        <v>8.49619262614876</v>
+        <v>11.04320860295086</v>
       </c>
       <c r="O146" t="n">
-        <v>135.5992343133342</v>
+        <v>176.2496093030957</v>
       </c>
       <c r="P146" t="n">
-        <v>25.82842558349222</v>
+        <v>33.5713541529706</v>
       </c>
       <c r="Q146" t="n">
-        <v>25.82842558349222</v>
+        <v>33.5713541529706</v>
       </c>
     </row>
     <row r="147">
@@ -8210,52 +8210,52 @@
         <v>2045</v>
       </c>
       <c r="B147" t="n">
-        <v>271.7639989343784</v>
+        <v>325.6435388148945</v>
       </c>
       <c r="C147" t="n">
-        <v>386.0128453708336</v>
+        <v>460.2286270165629</v>
       </c>
       <c r="D147" t="n">
-        <v>87.01752899794187</v>
+        <v>126.2037802426122</v>
       </c>
       <c r="E147" t="n">
-        <v>386.0128453708338</v>
+        <v>460.2286270165629</v>
       </c>
       <c r="F147" t="n">
-        <v>218.6112201585819</v>
+        <v>287.465051445029</v>
       </c>
       <c r="G147" t="n">
-        <v>6.751877596058832</v>
+        <v>12.95045308262887</v>
       </c>
       <c r="H147" t="n">
-        <v>40.17244413497087</v>
+        <v>52.49456056083711</v>
       </c>
       <c r="I147" t="n">
-        <v>171.6868984275524</v>
+        <v>222.020037801564</v>
       </c>
       <c r="J147" t="n">
-        <v>28.12071089447958</v>
+        <v>36.746192392586</v>
       </c>
       <c r="K147" t="n">
-        <v>12.05173324049125</v>
+        <v>15.74836816825114</v>
       </c>
       <c r="L147" t="n">
-        <v>1.406035544723979</v>
+        <v>1.8373096196293</v>
       </c>
       <c r="M147" t="n">
-        <v>26.71467534975561</v>
+        <v>34.90888277295669</v>
       </c>
       <c r="N147" t="n">
-        <v>9.186931583402181</v>
+        <v>11.88842029849073</v>
       </c>
       <c r="O147" t="n">
-        <v>145.4597500705345</v>
+        <v>188.2333213927699</v>
       </c>
       <c r="P147" t="n">
-        <v>29.0919500141069</v>
+        <v>37.64666427855397</v>
       </c>
       <c r="Q147" t="n">
-        <v>29.0919500141069</v>
+        <v>37.64666427855397</v>
       </c>
     </row>
     <row r="148">
@@ -8263,52 +8263,52 @@
         <v>2046</v>
       </c>
       <c r="B148" t="n">
-        <v>283.6585821144615</v>
+        <v>337.3228844495869</v>
       </c>
       <c r="C148" t="n">
-        <v>404.8662512932382</v>
+        <v>479.4093042004354</v>
       </c>
       <c r="D148" t="n">
-        <v>95.0128010133942</v>
+        <v>136.4720552148237</v>
       </c>
       <c r="E148" t="n">
-        <v>404.8662512932382</v>
+        <v>479.4093042004353</v>
       </c>
       <c r="F148" t="n">
-        <v>234.918757918784</v>
+        <v>307.185939840958</v>
       </c>
       <c r="G148" t="n">
-        <v>7.31826297965728</v>
+        <v>13.96649250867097</v>
       </c>
       <c r="H148" t="n">
-        <v>43.54890387254227</v>
+        <v>56.64064880395148</v>
       </c>
       <c r="I148" t="n">
-        <v>184.051591066585</v>
+        <v>236.5787985283353</v>
       </c>
       <c r="J148" t="n">
-        <v>30.48423271077959</v>
+        <v>39.64845416276602</v>
       </c>
       <c r="K148" t="n">
-        <v>13.06467116176268</v>
+        <v>16.99219464118545</v>
       </c>
       <c r="L148" t="n">
-        <v>1.524211635538979</v>
+        <v>1.982422708138302</v>
       </c>
       <c r="M148" t="n">
-        <v>28.9600210752406</v>
+        <v>37.66603145462773</v>
       </c>
       <c r="N148" t="n">
-        <v>9.855813111417387</v>
+        <v>12.67854965847602</v>
       </c>
       <c r="O148" t="n">
-        <v>154.8019712699958</v>
+        <v>199.1377533024634</v>
       </c>
       <c r="P148" t="n">
-        <v>32.45847784693458</v>
+        <v>41.75469020858102</v>
       </c>
       <c r="Q148" t="n">
-        <v>32.45847784693458</v>
+        <v>41.75469020858102</v>
       </c>
     </row>
     <row r="149">
@@ -8316,52 +8316,52 @@
         <v>2047</v>
       </c>
       <c r="B149" t="n">
-        <v>295.5120648136131</v>
+        <v>348.6841520237479</v>
       </c>
       <c r="C149" t="n">
-        <v>424.1782141097754</v>
+        <v>498.5357848192107</v>
       </c>
       <c r="D149" t="n">
-        <v>103.7076827849469</v>
+        <v>146.9203767847928</v>
       </c>
       <c r="E149" t="n">
-        <v>424.1782141097756</v>
+        <v>498.5357848192107</v>
       </c>
       <c r="F149" t="n">
-        <v>252.5118037514512</v>
+        <v>327.3680939825205</v>
       </c>
       <c r="G149" t="n">
-        <v>7.907769981862276</v>
+        <v>14.97650495067231</v>
       </c>
       <c r="H149" t="n">
-        <v>47.25562421368247</v>
+        <v>61.00062147461901</v>
       </c>
       <c r="I149" t="n">
-        <v>197.348409555906</v>
+        <v>251.3909675572292</v>
       </c>
       <c r="J149" t="n">
-        <v>33.07893694957771</v>
+        <v>42.7004350322333</v>
       </c>
       <c r="K149" t="n">
-        <v>14.17668726410473</v>
+        <v>18.3001864423857</v>
       </c>
       <c r="L149" t="n">
-        <v>1.653946847478886</v>
+        <v>2.135021751611665</v>
       </c>
       <c r="M149" t="n">
-        <v>31.42499010209883</v>
+        <v>40.56541328062163</v>
       </c>
       <c r="N149" t="n">
-        <v>10.57625484100055</v>
+        <v>13.48455769998074</v>
       </c>
       <c r="O149" t="n">
-        <v>164.7780504227886</v>
+        <v>210.0894089657</v>
       </c>
       <c r="P149" t="n">
-        <v>36.17079155622186</v>
+        <v>46.1171873339341</v>
       </c>
       <c r="Q149" t="n">
-        <v>36.17079155622186</v>
+        <v>46.1171873339341</v>
       </c>
     </row>
     <row r="150">
@@ -8369,52 +8369,52 @@
         <v>2048</v>
       </c>
       <c r="B150" t="n">
-        <v>309.6004161112439</v>
+        <v>361.9622900679457</v>
       </c>
       <c r="C150" t="n">
-        <v>447.4678372140485</v>
+        <v>521.1024429048521</v>
       </c>
       <c r="D150" t="n">
-        <v>114.3793976287918</v>
+        <v>159.0452311787882</v>
       </c>
       <c r="E150" t="n">
-        <v>447.4678372140486</v>
+        <v>521.102442904852</v>
       </c>
       <c r="F150" t="n">
-        <v>274.1096896493495</v>
+        <v>351.0106679950528</v>
       </c>
       <c r="G150" t="n">
-        <v>8.586722563459638</v>
+        <v>16.0786848206375</v>
       </c>
       <c r="H150" t="n">
-        <v>51.85417830871484</v>
+        <v>66.20179351361278</v>
       </c>
       <c r="I150" t="n">
-        <v>213.6687887771755</v>
+        <v>268.7301896608025</v>
       </c>
       <c r="J150" t="n">
-        <v>36.29792481610038</v>
+        <v>46.34125545952889</v>
       </c>
       <c r="K150" t="n">
-        <v>15.55625349261445</v>
+        <v>19.8605380540838</v>
       </c>
       <c r="L150" t="n">
-        <v>1.814896240805019</v>
+        <v>2.317062772976444</v>
       </c>
       <c r="M150" t="n">
-        <v>34.48302857529536</v>
+        <v>44.02419268655244</v>
       </c>
       <c r="N150" t="n">
-        <v>11.46125211348952</v>
+        <v>14.42953638574432</v>
       </c>
       <c r="O150" t="n">
-        <v>177.1145493271248</v>
+        <v>222.9844356143689</v>
       </c>
       <c r="P150" t="n">
-        <v>40.64924082917615</v>
+        <v>51.17675571477317</v>
       </c>
       <c r="Q150" t="n">
-        <v>40.64924082917615</v>
+        <v>51.17675571477317</v>
       </c>
     </row>
     <row r="151">
@@ -8422,52 +8422,52 @@
         <v>2049</v>
       </c>
       <c r="B151" t="n">
-        <v>328.0964145648064</v>
+        <v>379.4019107266312</v>
       </c>
       <c r="C151" t="n">
-        <v>477.9577081372535</v>
+        <v>550.5180224866436</v>
       </c>
       <c r="D151" t="n">
-        <v>127.9225740810941</v>
+        <v>174.1153440951588</v>
       </c>
       <c r="E151" t="n">
-        <v>477.9577081372534</v>
+        <v>550.5180224866436</v>
       </c>
       <c r="F151" t="n">
-        <v>301.8322895354253</v>
+        <v>380.7983294972809</v>
       </c>
       <c r="G151" t="n">
-        <v>9.428218321171807</v>
+        <v>17.3967970181538</v>
       </c>
       <c r="H151" t="n">
-        <v>57.76622042485127</v>
+        <v>72.77265377232766</v>
       </c>
       <c r="I151" t="n">
-        <v>234.6378507894022</v>
+        <v>290.6288787068004</v>
       </c>
       <c r="J151" t="n">
-        <v>40.43635429739586</v>
+        <v>50.94085764062941</v>
       </c>
       <c r="K151" t="n">
-        <v>17.32986612745537</v>
+        <v>21.83179613169832</v>
       </c>
       <c r="L151" t="n">
-        <v>2.021817714869793</v>
+        <v>2.54704288203147</v>
       </c>
       <c r="M151" t="n">
-        <v>38.41453658252607</v>
+        <v>48.39381475859793</v>
       </c>
       <c r="N151" t="n">
-        <v>12.59838584584291</v>
+        <v>15.62303374192492</v>
       </c>
       <c r="O151" t="n">
-        <v>193.0912603972856</v>
+        <v>239.4490304845693</v>
       </c>
       <c r="P151" t="n">
-        <v>46.27807067372957</v>
+        <v>57.38861061200416</v>
       </c>
       <c r="Q151" t="n">
-        <v>46.27807067372957</v>
+        <v>57.38861061200416</v>
       </c>
     </row>
     <row r="152">
@@ -8475,52 +8475,52 @@
         <v>2050</v>
       </c>
       <c r="B152" t="n">
-        <v>350.8911348802565</v>
+        <v>401.2538610224766</v>
       </c>
       <c r="C152" t="n">
-        <v>515.4229584641976</v>
+        <v>587.1277118130001</v>
       </c>
       <c r="D152" t="n">
-        <v>144.1091814282977</v>
+        <v>192.2292835108902</v>
       </c>
       <c r="E152" t="n">
-        <v>515.4229584641976</v>
+        <v>587.127711813</v>
       </c>
       <c r="F152" t="n">
-        <v>335.3512826028077</v>
+        <v>417.0082888372175</v>
       </c>
       <c r="G152" t="n">
-        <v>10.46601416887253</v>
+        <v>19.00498957257069</v>
       </c>
       <c r="H152" t="n">
-        <v>64.89661915642904</v>
+        <v>80.71110710747494</v>
       </c>
       <c r="I152" t="n">
-        <v>259.9886492775066</v>
+        <v>317.2921921571711</v>
       </c>
       <c r="J152" t="n">
-        <v>45.42763340950029</v>
+        <v>56.49777497523236</v>
       </c>
       <c r="K152" t="n">
-        <v>19.46898574692869</v>
+        <v>24.21333213224244</v>
       </c>
       <c r="L152" t="n">
-        <v>2.271381670475014</v>
+        <v>2.824888748761619</v>
       </c>
       <c r="M152" t="n">
-        <v>43.15625173902526</v>
+        <v>53.67288622647072</v>
       </c>
       <c r="N152" t="n">
-        <v>13.97288175122176</v>
+        <v>17.07527621447068</v>
       </c>
       <c r="O152" t="n">
-        <v>212.3878026185707</v>
+        <v>259.5441984599544</v>
       </c>
       <c r="P152" t="n">
-        <v>53.09695065464268</v>
+        <v>64.88604961498861</v>
       </c>
       <c r="Q152" t="n">
-        <v>53.09695065464268</v>
+        <v>64.88604961498861</v>
       </c>
     </row>
   </sheetData>

--- a/results/flows_per_year.xlsx
+++ b/results/flows_per_year.xlsx
@@ -3175,46 +3175,46 @@
         <v>1950</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7823895370749557</v>
+        <v>0.744584189818023</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7823983635889724</v>
+        <v>0.7445924209023935</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7823983635889724</v>
+        <v>0.7445924209023934</v>
       </c>
       <c r="F52" t="n">
-        <v>2.477952778306368e-05</v>
+        <v>2.358216662950798e-05</v>
       </c>
       <c r="G52" t="n">
-        <v>1.548846039717237e-05</v>
+        <v>1.491786729175064e-05</v>
       </c>
       <c r="H52" t="n">
-        <v>3.216138710500839e-07</v>
+        <v>2.999180539992922e-07</v>
       </c>
       <c r="I52" t="n">
-        <v>8.969453514841229e-06</v>
+        <v>8.364381283758035e-06</v>
       </c>
       <c r="J52" t="n">
-        <v>2.251297097350587e-07</v>
+        <v>2.099426377995045e-07</v>
       </c>
       <c r="K52" t="n">
-        <v>9.648416131502515e-08</v>
+        <v>8.997541619978765e-08</v>
       </c>
       <c r="L52" t="n">
-        <v>1.125648548675294e-08</v>
+        <v>1.049713188997523e-08</v>
       </c>
       <c r="M52" t="n">
-        <v>2.138732242483058e-07</v>
+        <v>1.994455059095293e-07</v>
       </c>
       <c r="N52" t="n">
-        <v>4.532968838078127e-07</v>
+        <v>4.227178349978912e-07</v>
       </c>
       <c r="O52" t="n">
-        <v>8.61264079234844e-06</v>
+        <v>8.031638864959934e-06</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3228,46 +3228,46 @@
         <v>1951</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144362330033751</v>
+        <v>1.086052312017061</v>
       </c>
       <c r="C53" t="n">
-        <v>1.144392468223195</v>
+        <v>1.086080577761309</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.144392468223195</v>
+        <v>1.086080577761309</v>
       </c>
       <c r="F53" t="n">
-        <v>8.33742887466535e-05</v>
+        <v>7.962006388732192e-05</v>
       </c>
       <c r="G53" t="n">
-        <v>5.164987880566475e-05</v>
+        <v>4.986664888933396e-05</v>
       </c>
       <c r="H53" t="n">
-        <v>1.098152651803456e-06</v>
+        <v>1.029925903776508e-06</v>
       </c>
       <c r="I53" t="n">
-        <v>3.062625728918526e-05</v>
+        <v>2.87234890942115e-05</v>
       </c>
       <c r="J53" t="n">
-        <v>7.687068562624188e-07</v>
+        <v>7.209481326435558e-07</v>
       </c>
       <c r="K53" t="n">
-        <v>3.294457955410366e-07</v>
+        <v>3.089777711329526e-07</v>
       </c>
       <c r="L53" t="n">
-        <v>3.843534281312094e-08</v>
+        <v>3.604740663217779e-08</v>
       </c>
       <c r="M53" t="n">
-        <v>7.30271513449298e-07</v>
+        <v>6.849007260113779e-07</v>
       </c>
       <c r="N53" t="n">
-        <v>1.547785154236315e-06</v>
+        <v>1.451623343267223e-06</v>
       </c>
       <c r="O53" t="n">
-        <v>2.940791793048997e-05</v>
+        <v>2.758084352207723e-05</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3281,46 +3281,46 @@
         <v>1952</v>
       </c>
       <c r="B54" t="n">
-        <v>1.219706994084048</v>
+        <v>1.15708731455863</v>
       </c>
       <c r="C54" t="n">
-        <v>1.219791787651812</v>
+        <v>1.157167372857787</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1.219791787651813</v>
+        <v>1.157167372857787</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0002317763015437609</v>
+        <v>0.0002223669135482678</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0001425199144243225</v>
+        <v>0.0001380950196987331</v>
       </c>
       <c r="H54" t="n">
-        <v>3.089644169519018e-06</v>
+        <v>2.917104017868508e-06</v>
       </c>
       <c r="I54" t="n">
-        <v>8.616674294991928e-05</v>
+        <v>8.135478983166609e-05</v>
       </c>
       <c r="J54" t="n">
-        <v>2.162750918663312e-06</v>
+        <v>2.041972812507956e-06</v>
       </c>
       <c r="K54" t="n">
-        <v>9.268932508557051e-07</v>
+        <v>8.751312053605526e-07</v>
       </c>
       <c r="L54" t="n">
-        <v>1.081375459331656e-07</v>
+        <v>1.020986406253978e-07</v>
       </c>
       <c r="M54" t="n">
-        <v>2.054613372730147e-06</v>
+        <v>1.939874171882557e-06</v>
       </c>
       <c r="N54" t="n">
-        <v>4.354681810038749e-06</v>
+        <v>4.111496051851336e-06</v>
       </c>
       <c r="O54" t="n">
-        <v>8.273895439073621e-05</v>
+        <v>7.811842498517535e-05</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3334,46 +3334,46 @@
         <v>1953</v>
       </c>
       <c r="B55" t="n">
-        <v>1.295553626632328</v>
+        <v>1.228709516403379</v>
       </c>
       <c r="C55" t="n">
-        <v>1.2957777037949</v>
+        <v>1.228922436623395</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1.2957777037949</v>
+        <v>1.228922436623396</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0006031469019389259</v>
+        <v>0.0005810721301021295</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0003672762044942192</v>
+        <v>0.0003569455827163223</v>
       </c>
       <c r="H55" t="n">
-        <v>8.164754911547536e-06</v>
+        <v>7.758226640277937e-06</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0002277059425331589</v>
+        <v>0.0002163683207455289</v>
       </c>
       <c r="J55" t="n">
-        <v>5.715328438083275e-06</v>
+        <v>5.430758648194555e-06</v>
       </c>
       <c r="K55" t="n">
-        <v>2.449426473464261e-06</v>
+        <v>2.32746799208338e-06</v>
       </c>
       <c r="L55" t="n">
-        <v>2.857664219041638e-07</v>
+        <v>2.715379324097278e-07</v>
       </c>
       <c r="M55" t="n">
-        <v>5.429562016179111e-06</v>
+        <v>5.159220715784826e-06</v>
       </c>
       <c r="N55" t="n">
-        <v>1.150776845033116e-05</v>
+        <v>1.093478943688062e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0002186476005562921</v>
+        <v>0.0002077609993007318</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3387,46 +3387,46 @@
         <v>1954</v>
       </c>
       <c r="B56" t="n">
-        <v>1.371674661878093</v>
+        <v>1.30074879923361</v>
       </c>
       <c r="C56" t="n">
-        <v>1.372232313010214</v>
+        <v>1.301281823219264</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1.372232313010214</v>
+        <v>1.301281823219264</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001473580663985028</v>
+        <v>0.001424732690721722</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0008865794722783627</v>
+        <v>0.000863654811087201</v>
       </c>
       <c r="H56" t="n">
-        <v>2.031927202061537e-05</v>
+        <v>1.942192660273344e-05</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0005666819196860513</v>
+        <v>0.0005416559530317886</v>
       </c>
       <c r="J56" t="n">
-        <v>1.422349041443076e-05</v>
+        <v>1.359534862191341e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>6.095781606184613e-06</v>
+        <v>5.826577980820033e-06</v>
       </c>
       <c r="L56" t="n">
-        <v>7.111745207215381e-07</v>
+        <v>6.797674310956705e-07</v>
       </c>
       <c r="M56" t="n">
-        <v>1.351231589370922e-05</v>
+        <v>1.291558119081774e-05</v>
       </c>
       <c r="N56" t="n">
-        <v>2.863888506461178e-05</v>
+        <v>2.737412655063041e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0005441388162276237</v>
+        <v>0.0005201084044619779</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3440,46 +3440,46 @@
         <v>1955</v>
       </c>
       <c r="B57" t="n">
-        <v>1.447864535864563</v>
+        <v>1.373057627924981</v>
       </c>
       <c r="C57" t="n">
-        <v>1.449171723720781</v>
+        <v>1.374313700583103</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1.449171723720781</v>
+        <v>1.374313700583102</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003382511702279269</v>
+        <v>0.003279985922641272</v>
       </c>
       <c r="G57" t="n">
-        <v>0.002006524485207304</v>
+        <v>0.001957804177249701</v>
       </c>
       <c r="H57" t="n">
-        <v>4.763032674479871e-05</v>
+        <v>4.576782964816963e-05</v>
       </c>
       <c r="I57" t="n">
-        <v>0.001328356890327163</v>
+        <v>0.001276413915743397</v>
       </c>
       <c r="J57" t="n">
-        <v>3.33412287213591e-05</v>
+        <v>3.203748075371873e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>1.428909802343962e-05</v>
+        <v>1.373034889445089e-05</v>
       </c>
       <c r="L57" t="n">
-        <v>1.667061436067955e-06</v>
+        <v>1.601874037685937e-06</v>
       </c>
       <c r="M57" t="n">
-        <v>3.167416728529115e-05</v>
+        <v>3.043560671603281e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>6.713229941753021e-05</v>
+        <v>6.45072132318924e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>0.001275513688933074</v>
+        <v>0.001225637051405955</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3493,46 +3493,46 @@
         <v>1956</v>
       </c>
       <c r="B58" t="n">
-        <v>1.523947228182803</v>
+        <v>1.445518337807213</v>
       </c>
       <c r="C58" t="n">
-        <v>1.526832260614457</v>
+        <v>1.448303232313549</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1.526832260614457</v>
+        <v>1.448303232313549</v>
       </c>
       <c r="F58" t="n">
-        <v>0.007296715934061196</v>
+        <v>0.007091562756200766</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00425983969021528</v>
+        <v>0.004160094854794986</v>
       </c>
       <c r="H58" t="n">
-        <v>0.000105122639210051</v>
+        <v>0.0001014738888948154</v>
       </c>
       <c r="I58" t="n">
-        <v>0.002931753604635867</v>
+        <v>0.002829994012510962</v>
       </c>
       <c r="J58" t="n">
-        <v>7.358584744703574e-05</v>
+        <v>7.103172222637077e-05</v>
       </c>
       <c r="K58" t="n">
-        <v>3.153679176301533e-05</v>
+        <v>3.044216666844461e-05</v>
       </c>
       <c r="L58" t="n">
-        <v>3.679292372351787e-06</v>
+        <v>3.551586111318539e-06</v>
       </c>
       <c r="M58" t="n">
-        <v>6.990655507468396e-05</v>
+        <v>6.748013611505222e-05</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0001481645198199442</v>
+        <v>0.0001430218089589704</v>
       </c>
       <c r="O58" t="n">
-        <v>0.00281512587657894</v>
+        <v>0.002717414370220437</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3546,46 +3546,46 @@
         <v>1957</v>
       </c>
       <c r="B59" t="n">
-        <v>1.599721972127493</v>
+        <v>1.517984891523442</v>
       </c>
       <c r="C59" t="n">
-        <v>1.605715143852207</v>
+        <v>1.523792060370432</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1.605715143852207</v>
+        <v>1.523792060370432</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01479732907457044</v>
+        <v>0.01440409098520096</v>
       </c>
       <c r="G59" t="n">
-        <v>0.008488727259083624</v>
+        <v>0.008291281672580744</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0002183746782283898</v>
+        <v>0.0002115972454368538</v>
       </c>
       <c r="I59" t="n">
-        <v>0.006090227137258433</v>
+        <v>0.005901212067183361</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0001528622747598727</v>
+        <v>0.0001481180718057976</v>
       </c>
       <c r="K59" t="n">
-        <v>6.551240346851693e-05</v>
+        <v>6.347917363105611e-05</v>
       </c>
       <c r="L59" t="n">
-        <v>7.643113737993637e-06</v>
+        <v>7.405903590289877e-06</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0001452191610218791</v>
+        <v>0.0001407121682155077</v>
       </c>
       <c r="N59" t="n">
-        <v>0.000307786977036347</v>
+        <v>0.0002982345620407209</v>
       </c>
       <c r="O59" t="n">
-        <v>0.005847952563690593</v>
+        <v>0.005666456678773696</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3599,46 +3599,46 @@
         <v>1958</v>
       </c>
       <c r="B60" t="n">
-        <v>1.674930557180924</v>
+        <v>1.590246400412096</v>
       </c>
       <c r="C60" t="n">
-        <v>1.686648593105146</v>
+        <v>1.601635139380522</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1.686648593105147</v>
+        <v>1.601635139380522</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02822795432432623</v>
+        <v>0.02750304740797675</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01589317966724957</v>
+        <v>0.01551490112542319</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0004269729688988061</v>
+        <v>0.0004149742943960835</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01190780168817779</v>
+        <v>0.01157317198815743</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0002988810782291642</v>
+        <v>0.0002904820060772582</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0001280918906696419</v>
+        <v>0.000124492288318825</v>
       </c>
       <c r="L60" t="n">
-        <v>1.494405391145822e-05</v>
+        <v>1.452410030386291e-05</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0002839370243177061</v>
+        <v>0.0002759579057733953</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0006017946789423729</v>
+        <v>0.0005848832138238127</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01143409889990508</v>
+        <v>0.01111278106265244</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3652,46 +3652,46 @@
         <v>1959</v>
       </c>
       <c r="B61" t="n">
-        <v>1.749226509086238</v>
+        <v>1.661990904384175</v>
       </c>
       <c r="C61" t="n">
-        <v>1.77080301930003</v>
+        <v>1.6830086740096</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1.770803019300031</v>
+        <v>1.6830086740096</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0507053484433331</v>
+        <v>0.04941691831490352</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02799323242881487</v>
+        <v>0.02729295028814121</v>
       </c>
       <c r="H61" t="n">
-        <v>0.000786188631271788</v>
+        <v>0.0007658296624648507</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02192592738324652</v>
+        <v>0.02135813836429749</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0005503320418902516</v>
+        <v>0.0005360807637253954</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0002358565893815364</v>
+        <v>0.0002297488987394552</v>
       </c>
       <c r="L61" t="n">
-        <v>2.751660209451259e-05</v>
+        <v>2.680403818626978e-05</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0005228154397957389</v>
+        <v>0.0005092767255391257</v>
       </c>
       <c r="N61" t="n">
-        <v>0.001108089198631403</v>
+        <v>0.001079394363151848</v>
       </c>
       <c r="O61" t="n">
-        <v>0.02105369477399666</v>
+        <v>0.02050849289988511</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3705,46 +3705,46 @@
         <v>1960</v>
       </c>
       <c r="B62" t="n">
-        <v>1.821638718871136</v>
+        <v>1.732260032570623</v>
       </c>
       <c r="C62" t="n">
-        <v>1.859483209483754</v>
+        <v>1.769188176897987</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1.859483209483754</v>
+        <v>1.769188176897987</v>
       </c>
       <c r="F62" t="n">
-        <v>0.08588735754133112</v>
+        <v>0.08367766949346481</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04605105163331243</v>
+        <v>0.04480593862255418</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001378949050662185</v>
+        <v>0.001345559914762299</v>
       </c>
       <c r="I62" t="n">
-        <v>0.03845735685735647</v>
+        <v>0.03752617095614855</v>
       </c>
       <c r="J62" t="n">
-        <v>0.000965264335463528</v>
+        <v>0.0009418919403336085</v>
       </c>
       <c r="K62" t="n">
-        <v>0.000413684715198655</v>
+        <v>0.0004036679744286896</v>
       </c>
       <c r="L62" t="n">
-        <v>4.826321677317643e-05</v>
+        <v>4.709459701668043e-05</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0009170011186903518</v>
+        <v>0.0008947973433169287</v>
       </c>
       <c r="N62" t="n">
-        <v>0.001943552078627755</v>
+        <v>0.001896491946528861</v>
       </c>
       <c r="O62" t="n">
-        <v>0.03692748949392734</v>
+        <v>0.03603334698404835</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3758,46 +3758,46 @@
         <v>1961</v>
       </c>
       <c r="B63" t="n">
-        <v>1.891890186961323</v>
+        <v>1.800750044313367</v>
       </c>
       <c r="C63" t="n">
-        <v>1.953946686384179</v>
+        <v>1.861358037933646</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1.95394668638418</v>
+        <v>1.861358037933646</v>
       </c>
       <c r="F63" t="n">
-        <v>0.137443402612922</v>
+        <v>0.1337897762373819</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07212077164149422</v>
+        <v>0.06999188821603658</v>
       </c>
       <c r="H63" t="n">
-        <v>0.002261167995164797</v>
+        <v>0.002208388431508113</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06306146297626281</v>
+        <v>0.06158949958983725</v>
       </c>
       <c r="J63" t="n">
-        <v>0.001582817596615359</v>
+        <v>0.001545871902055676</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0006783503985494397</v>
+        <v>0.0006625165294524329</v>
       </c>
       <c r="L63" t="n">
-        <v>7.914087983076794e-05</v>
+        <v>7.729359510278382e-05</v>
       </c>
       <c r="M63" t="n">
-        <v>0.001503676716784591</v>
+        <v>0.001468578306952892</v>
       </c>
       <c r="N63" t="n">
-        <v>0.003186990668740609</v>
+        <v>0.003112600805964485</v>
       </c>
       <c r="O63" t="n">
-        <v>0.06055282270607157</v>
+        <v>0.05913941531332521</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3811,46 +3811,46 @@
         <v>1962</v>
       </c>
       <c r="B64" t="n">
-        <v>1.95889760810008</v>
+        <v>1.866321199725868</v>
       </c>
       <c r="C64" t="n">
-        <v>2.055159917932549</v>
+        <v>1.960366315990114</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>2.055159917932549</v>
+        <v>1.960366315990114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2082842673324793</v>
+        <v>0.2024711466781209</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1069555201404065</v>
+        <v>0.1034762874525994</v>
       </c>
       <c r="H64" t="n">
-        <v>0.003507533556648657</v>
+        <v>0.003426745127037294</v>
       </c>
       <c r="I64" t="n">
-        <v>0.09782121363542366</v>
+        <v>0.09556811409848456</v>
       </c>
       <c r="J64" t="n">
-        <v>0.002455273489654059</v>
+        <v>0.002398721588926109</v>
       </c>
       <c r="K64" t="n">
-        <v>0.001052260066994596</v>
+        <v>0.00102802353811119</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0001227636744827029</v>
+        <v>0.0001199360794463055</v>
       </c>
       <c r="M64" t="n">
-        <v>0.002332509815171356</v>
+        <v>0.002278785509479803</v>
       </c>
       <c r="N64" t="n">
-        <v>0.004943673685120909</v>
+        <v>0.004829806881829789</v>
       </c>
       <c r="O64" t="n">
-        <v>0.09392980001729725</v>
+        <v>0.09176633075476599</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3864,46 +3864,46 @@
         <v>1963</v>
       </c>
       <c r="B65" t="n">
-        <v>2.02198778309767</v>
+        <v>1.928209333875156</v>
       </c>
       <c r="C65" t="n">
-        <v>2.163619866882521</v>
+        <v>2.066556108197895</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>2.16361986688252</v>
+        <v>2.066556108197895</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2997415772680127</v>
+        <v>0.2908613094403053</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1506551732839585</v>
+        <v>0.1452331259426857</v>
       </c>
       <c r="H65" t="n">
-        <v>0.005160683214832629</v>
+        <v>0.005040975582609911</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1439257207692212</v>
+        <v>0.1405872079150099</v>
       </c>
       <c r="J65" t="n">
-        <v>0.003612478250382838</v>
+        <v>0.003528682907826939</v>
       </c>
       <c r="K65" t="n">
-        <v>0.001548204964449788</v>
+        <v>0.001512292674782974</v>
       </c>
       <c r="L65" t="n">
-        <v>0.000180623912519142</v>
+        <v>0.000176434145391347</v>
       </c>
       <c r="M65" t="n">
-        <v>0.003431854337863697</v>
+        <v>0.003352248762435591</v>
       </c>
       <c r="N65" t="n">
-        <v>0.007273696286683544</v>
+        <v>0.007104975029489632</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1382002294469873</v>
+        <v>0.134994525560303</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3917,46 +3917,46 @@
         <v>1964</v>
       </c>
       <c r="B66" t="n">
-        <v>2.081305704868988</v>
+        <v>1.986459392842581</v>
       </c>
       <c r="C66" t="n">
-        <v>2.279593568491393</v>
+        <v>2.180042842966841</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>2.279593568491392</v>
+        <v>2.180042842966841</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4109718379233551</v>
+        <v>0.3979704746940166</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2022477709524027</v>
+        <v>0.1941984219316391</v>
       </c>
       <c r="H66" t="n">
-        <v>0.007225063856686828</v>
+        <v>0.007053647980236146</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2014990031142661</v>
+        <v>0.1967184047821415</v>
       </c>
       <c r="J66" t="n">
-        <v>0.005057544699680781</v>
+        <v>0.0049375535861653</v>
       </c>
       <c r="K66" t="n">
-        <v>0.002167519157006048</v>
+        <v>0.002116094394070843</v>
       </c>
       <c r="L66" t="n">
-        <v>0.000252877234984039</v>
+        <v>0.000246877679308265</v>
       </c>
       <c r="M66" t="n">
-        <v>0.004804667464696741</v>
+        <v>0.004690675906857036</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0101833261135636</v>
+        <v>0.009941724958810613</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1934831961577084</v>
+        <v>0.1888927742174016</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3970,46 +3970,46 @@
         <v>1965</v>
       </c>
       <c r="B67" t="n">
-        <v>2.138767917762037</v>
+        <v>2.042920835840527</v>
       </c>
       <c r="C67" t="n">
-        <v>2.403911251260527</v>
+        <v>2.301568052423394</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2.403911251260527</v>
+        <v>2.301568052423395</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5388319369121423</v>
+        <v>0.5206058086188259</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2597336911242546</v>
+        <v>0.24834558063686</v>
       </c>
       <c r="H67" t="n">
-        <v>0.009661093123426808</v>
+        <v>0.009424392507068053</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2694371526644583</v>
+        <v>0.2628358354748976</v>
       </c>
       <c r="J67" t="n">
-        <v>0.006762765186398758</v>
+        <v>0.006597074754947635</v>
       </c>
       <c r="K67" t="n">
-        <v>0.00289832793702804</v>
+        <v>0.002827317752120414</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0003381382593199379</v>
+        <v>0.0003298537377473817</v>
       </c>
       <c r="M67" t="n">
-        <v>0.006424626927078821</v>
+        <v>0.006267221017200253</v>
       </c>
       <c r="N67" t="n">
-        <v>0.01361677403007432</v>
+        <v>0.01328315766135091</v>
       </c>
       <c r="O67" t="n">
-        <v>0.2587187065714122</v>
+        <v>0.2523799955656673</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -4023,46 +4023,46 @@
         <v>1966</v>
       </c>
       <c r="B68" t="n">
-        <v>2.195928426539525</v>
+        <v>2.099230229187111</v>
       </c>
       <c r="C68" t="n">
-        <v>2.535977782871059</v>
+        <v>2.430644775299633</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2.53597778287106</v>
+        <v>2.430644775299632</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6783245818130719</v>
+        <v>0.6538553722643639</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3203778909377728</v>
+        <v>0.3049979553038153</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01239046237645264</v>
+        <v>0.01207583366401898</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3455562284988458</v>
+        <v>0.3367815832965289</v>
       </c>
       <c r="J68" t="n">
-        <v>0.008673323663516848</v>
+        <v>0.008453083564813283</v>
       </c>
       <c r="K68" t="n">
-        <v>0.003717138712935792</v>
+        <v>0.003622750099205692</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0004336661831758423</v>
+        <v>0.000422654178240664</v>
       </c>
       <c r="M68" t="n">
-        <v>0.008239657480341004</v>
+        <v>0.008030429386572618</v>
       </c>
       <c r="N68" t="n">
-        <v>0.01746366836058907</v>
+        <v>0.01702021666978674</v>
       </c>
       <c r="O68" t="n">
-        <v>0.3318096988511925</v>
+        <v>0.323384116725948</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -4076,46 +4076,46 @@
         <v>1967</v>
       </c>
       <c r="B69" t="n">
-        <v>2.256752618253778</v>
+        <v>2.159212860101406</v>
       </c>
       <c r="C69" t="n">
-        <v>2.676973166348567</v>
+        <v>2.568393812169447</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>2.676973166348567</v>
+        <v>2.568393812169448</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8235063805398574</v>
+        <v>0.7920044163393498</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3811689614927144</v>
+        <v>0.3612876246887816</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01531167989009348</v>
+        <v>0.01490942740328895</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4270257391570529</v>
+        <v>0.4158073642472801</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01071817592306546</v>
+        <v>0.01043659918230226</v>
       </c>
       <c r="K69" t="n">
-        <v>0.00459350396702805</v>
+        <v>0.004472828220986682</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0005359087961532727</v>
+        <v>0.0005218299591151129</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01018226712691218</v>
+        <v>0.009914769223187146</v>
       </c>
       <c r="N69" t="n">
-        <v>0.02158096215620401</v>
+        <v>0.02101400962341338</v>
       </c>
       <c r="O69" t="n">
-        <v>0.4100382809678762</v>
+        <v>0.3992661828448539</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4129,46 +4129,46 @@
         <v>1968</v>
       </c>
       <c r="B70" t="n">
-        <v>2.328316656380987</v>
+        <v>2.229592358747737</v>
       </c>
       <c r="C70" t="n">
-        <v>2.828605545489054</v>
+        <v>2.716316473224738</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2.828605545489053</v>
+        <v>2.716316473224739</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9685867384915454</v>
+        <v>0.9296038032626226</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4419668552198957</v>
+        <v>0.4172626301289369</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01822914980555709</v>
+        <v>0.01773488676231989</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5083907334660919</v>
+        <v>0.4946062863713652</v>
       </c>
       <c r="J70" t="n">
-        <v>0.01276040486388995</v>
+        <v>0.01241442073362393</v>
       </c>
       <c r="K70" t="n">
-        <v>0.00546874494166712</v>
+        <v>0.005320466028695968</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0006380202431944974</v>
+        <v>0.0006207210366811961</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01212238462069545</v>
+        <v>0.01179369969694273</v>
       </c>
       <c r="N70" t="n">
-        <v>0.02569297392038793</v>
+        <v>0.02499633762000311</v>
       </c>
       <c r="O70" t="n">
-        <v>0.4881665044873706</v>
+        <v>0.474930414780059</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -4182,46 +4182,46 @@
         <v>1969</v>
       </c>
       <c r="B71" t="n">
-        <v>2.412201127024789</v>
+        <v>2.311781618924483</v>
       </c>
       <c r="C71" t="n">
-        <v>2.991706571733653</v>
+        <v>2.87522432597495</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>2.991706571733653</v>
+        <v>2.875224325974949</v>
       </c>
       <c r="F71" t="n">
-        <v>1.108898730122018</v>
+        <v>1.06237858004114</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4988929988495319</v>
+        <v>0.4692809936722305</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02111558300558612</v>
+        <v>0.02053030106661619</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5888901482669013</v>
+        <v>0.5725672853022958</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01478090810391028</v>
+        <v>0.01437121074663133</v>
       </c>
       <c r="K71" t="n">
-        <v>0.006334674901675835</v>
+        <v>0.006159090319984855</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0007390454051955143</v>
+        <v>0.0007185605373315665</v>
       </c>
       <c r="M71" t="n">
-        <v>0.01404186269871478</v>
+        <v>0.01365265020929977</v>
       </c>
       <c r="N71" t="n">
-        <v>0.02976124115842888</v>
+        <v>0.02893631878111402</v>
       </c>
       <c r="O71" t="n">
-        <v>0.5654635820101487</v>
+        <v>0.5497900568411663</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4235,46 +4235,46 @@
         <v>1970</v>
       </c>
       <c r="B72" t="n">
-        <v>2.213937512451965</v>
+        <v>2.14571795551699</v>
       </c>
       <c r="C72" t="n">
-        <v>3.163969480252373</v>
+        <v>3.043039118447272</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>3.163969480252373</v>
+        <v>3.043039118447272</v>
       </c>
       <c r="F72" t="n">
-        <v>1.241502074109055</v>
+        <v>1.187756694005555</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2414684237928338</v>
+        <v>0.2432081014473627</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03461654943402299</v>
+        <v>0.03269591281932196</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9654171008821946</v>
+        <v>0.911852679738869</v>
       </c>
       <c r="J72" t="n">
-        <v>0.02423158460381607</v>
+        <v>0.02288713897352538</v>
       </c>
       <c r="K72" t="n">
-        <v>0.01038496483020688</v>
+        <v>0.009808773845796594</v>
       </c>
       <c r="L72" t="n">
-        <v>0.001211579230190803</v>
+        <v>0.001144356948676269</v>
       </c>
       <c r="M72" t="n">
-        <v>0.02302000537362527</v>
+        <v>0.02174278202484911</v>
       </c>
       <c r="N72" t="n">
-        <v>0.04879010328562013</v>
+        <v>0.04608307267923328</v>
       </c>
       <c r="O72" t="n">
-        <v>0.9270119624267823</v>
+        <v>0.8755783809054323</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4288,46 +4288,46 @@
         <v>1971</v>
       </c>
       <c r="B73" t="n">
-        <v>2.288375907297766</v>
+        <v>2.221812076226869</v>
       </c>
       <c r="C73" t="n">
-        <v>3.341872069067371</v>
+        <v>3.216635053022899</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>3.34187206906737</v>
+        <v>3.216635053022898</v>
       </c>
       <c r="F73" t="n">
-        <v>1.365330720843192</v>
+        <v>1.30495406352422</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2563873926646563</v>
+        <v>0.2577719826862905</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03838649982156459</v>
+        <v>0.03624861049054359</v>
       </c>
       <c r="I73" t="n">
-        <v>1.070556828356969</v>
+        <v>1.010933470347384</v>
       </c>
       <c r="J73" t="n">
-        <v>0.02687054987509518</v>
+        <v>0.02537402734338052</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01151594994646936</v>
+        <v>0.01087458314716308</v>
       </c>
       <c r="L73" t="n">
-        <v>0.001343527493754759</v>
+        <v>0.001268701367169026</v>
       </c>
       <c r="M73" t="n">
-        <v>0.02552702238134042</v>
+        <v>0.02410532597621149</v>
       </c>
       <c r="N73" t="n">
-        <v>0.05410363891517184</v>
+        <v>0.05109040267472726</v>
       </c>
       <c r="O73" t="n">
-        <v>1.027969139388265</v>
+        <v>0.970717650819818</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4341,46 +4341,46 @@
         <v>1972</v>
       </c>
       <c r="B74" t="n">
-        <v>2.371311995363846</v>
+        <v>2.306070170181353</v>
       </c>
       <c r="C74" t="n">
-        <v>3.522426915577626</v>
+        <v>3.393268422013399</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.522426915577625</v>
+        <v>3.393268422013398</v>
       </c>
       <c r="F74" t="n">
-        <v>1.480947651393279</v>
+        <v>1.414695549565536</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2692477353787723</v>
+        <v>0.2702763371107524</v>
       </c>
       <c r="H74" t="n">
-        <v>0.04194345863127134</v>
+        <v>0.03961451120035786</v>
       </c>
       <c r="I74" t="n">
-        <v>1.169756457383233</v>
+        <v>1.104804701254425</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02936042104188997</v>
+        <v>0.02773015784025055</v>
       </c>
       <c r="K74" t="n">
-        <v>0.01258303758938141</v>
+        <v>0.01188435336010738</v>
       </c>
       <c r="L74" t="n">
-        <v>0.001468021052094498</v>
+        <v>0.001386507892012527</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02789239998979546</v>
+        <v>0.02634364994823802</v>
       </c>
       <c r="N74" t="n">
-        <v>0.05911697474863077</v>
+        <v>0.05583445273072674</v>
       </c>
       <c r="O74" t="n">
-        <v>1.123222520223985</v>
+        <v>1.060854601883808</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4394,46 +4394,46 @@
         <v>1973</v>
       </c>
       <c r="B75" t="n">
-        <v>2.461666539187352</v>
+        <v>2.397332687335056</v>
       </c>
       <c r="C75" t="n">
-        <v>3.705661353790858</v>
+        <v>3.572904905291879</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>3.705661353790857</v>
+        <v>3.572904905291878</v>
       </c>
       <c r="F75" t="n">
-        <v>1.590062434304865</v>
+        <v>1.518731517571425</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2805942084064353</v>
+        <v>0.2812870776168759</v>
       </c>
       <c r="H75" t="n">
-        <v>0.04532774628109947</v>
+        <v>0.04283461522919596</v>
       </c>
       <c r="I75" t="n">
-        <v>1.264140479617328</v>
+        <v>1.194609824725354</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0317294223967696</v>
+        <v>0.02998423066043718</v>
       </c>
       <c r="K75" t="n">
-        <v>0.01359832388432984</v>
+        <v>0.01285038456875879</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001586471119838481</v>
+        <v>0.001499211533021858</v>
       </c>
       <c r="M75" t="n">
-        <v>0.03014295127693114</v>
+        <v>0.02848501912741531</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0638869401750829</v>
+        <v>0.06037301046470566</v>
       </c>
       <c r="O75" t="n">
-        <v>1.213851863326575</v>
+        <v>1.147087198829407</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4447,46 +4447,46 @@
         <v>1974</v>
       </c>
       <c r="B76" t="n">
-        <v>2.557109521132037</v>
+        <v>2.4933398978326</v>
       </c>
       <c r="C76" t="n">
-        <v>3.89098263293052</v>
+        <v>3.75496115065173</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>3.890982632930521</v>
+        <v>3.754961150651731</v>
       </c>
       <c r="F76" t="n">
-        <v>1.694986312517624</v>
+        <v>1.619317033628941</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2909093527297431</v>
+        <v>0.2912946622403838</v>
       </c>
       <c r="H76" t="n">
-        <v>0.04860266399265734</v>
+        <v>0.04597000516345011</v>
       </c>
       <c r="I76" t="n">
-        <v>1.355474295795218</v>
+        <v>1.28205236622511</v>
       </c>
       <c r="J76" t="n">
-        <v>0.03402186479486015</v>
+        <v>0.03217900361441506</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0145807991977972</v>
+        <v>0.01379100154903502</v>
       </c>
       <c r="L76" t="n">
-        <v>0.001701093239743007</v>
+        <v>0.001608950180720753</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03232077155511712</v>
+        <v>0.03057005343369431</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0685027547496509</v>
+        <v>0.06479216838870715</v>
       </c>
       <c r="O76" t="n">
-        <v>1.301552340243367</v>
+        <v>1.231051199385436</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4500,46 +4500,46 @@
         <v>1975</v>
       </c>
       <c r="B77" t="n">
-        <v>2.638597670149225</v>
+        <v>2.575840851688425</v>
       </c>
       <c r="C77" t="n">
-        <v>4.06131531902916</v>
+        <v>3.923044990428134</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>4.061315319029158</v>
+        <v>3.923044990428134</v>
       </c>
       <c r="F77" t="n">
-        <v>1.798161683686671</v>
+        <v>1.718776935186904</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3005641585498971</v>
+        <v>0.3006673154608901</v>
       </c>
       <c r="H77" t="n">
-        <v>0.05183991433165743</v>
+        <v>0.04908840991359271</v>
       </c>
       <c r="I77" t="n">
-        <v>1.445757610805116</v>
+        <v>1.369021209812419</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03628794003216024</v>
+        <v>0.03436188693951488</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01555197429949725</v>
+        <v>0.01472652297407781</v>
       </c>
       <c r="L77" t="n">
-        <v>0.001814397001608012</v>
+        <v>0.001718094346975745</v>
       </c>
       <c r="M77" t="n">
-        <v>0.03447354303055223</v>
+        <v>0.03264379259253913</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0730654792552306</v>
+        <v>0.06918738663932475</v>
       </c>
       <c r="O77" t="n">
-        <v>1.388244105849382</v>
+        <v>1.31456034614717</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4553,46 +4553,46 @@
         <v>1976</v>
       </c>
       <c r="B78" t="n">
-        <v>2.935836610765424</v>
+        <v>2.859588382652347</v>
       </c>
       <c r="C78" t="n">
-        <v>4.448270032903376</v>
+        <v>4.293685633949213</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>4.448270032903377</v>
+        <v>4.293685633949216</v>
       </c>
       <c r="F78" t="n">
-        <v>1.901847405519417</v>
+        <v>1.819225000777015</v>
       </c>
       <c r="G78" t="n">
-        <v>0.309812224321577</v>
+        <v>0.3096489467803148</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05510891011838689</v>
+        <v>0.05225455571527042</v>
       </c>
       <c r="I78" t="n">
-        <v>1.536926271079455</v>
+        <v>1.457321498281433</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03857623708287076</v>
+        <v>0.03657818900068928</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01653267303551604</v>
+        <v>0.01567636671458112</v>
       </c>
       <c r="L78" t="n">
-        <v>0.001928811854143538</v>
+        <v>0.001828909450034464</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03664742522872723</v>
+        <v>0.03474927955065482</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0776729472057486</v>
+        <v>0.0736498932498006</v>
       </c>
       <c r="O78" t="n">
-        <v>1.475785996909223</v>
+        <v>1.399347971746211</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4606,46 +4606,46 @@
         <v>1977</v>
       </c>
       <c r="B79" t="n">
-        <v>3.239856469522337</v>
+        <v>3.149223031803262</v>
       </c>
       <c r="C79" t="n">
-        <v>4.844539358548028</v>
+        <v>4.673059439734233</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>4.844539358548028</v>
+        <v>4.673059439734234</v>
       </c>
       <c r="F79" t="n">
-        <v>2.007946471223308</v>
+        <v>1.922417891462806</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3188065880383699</v>
+        <v>0.3183795673249419</v>
       </c>
       <c r="H79" t="n">
-        <v>0.05847022672563248</v>
+        <v>0.05552440352784915</v>
       </c>
       <c r="I79" t="n">
-        <v>1.630669656459304</v>
+        <v>1.548513920610014</v>
       </c>
       <c r="J79" t="n">
-        <v>0.04092915870794267</v>
+        <v>0.03886708246949441</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01754106801768972</v>
+        <v>0.01665732105835474</v>
       </c>
       <c r="L79" t="n">
-        <v>0.002046457935397133</v>
+        <v>0.00194335412347472</v>
       </c>
       <c r="M79" t="n">
-        <v>0.03888270077254553</v>
+        <v>0.03692372834601967</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08241053622384968</v>
+        <v>0.07825856208341851</v>
       </c>
       <c r="O79" t="n">
-        <v>1.565800188253144</v>
+        <v>1.486912679584952</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4659,46 +4659,46 @@
         <v>1978</v>
       </c>
       <c r="B80" t="n">
-        <v>3.560374328403033</v>
+        <v>3.45506049766611</v>
       </c>
       <c r="C80" t="n">
-        <v>5.261210467632917</v>
+        <v>5.072738690294598</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>5.261210467632916</v>
+        <v>5.072738690294593</v>
       </c>
       <c r="F80" t="n">
-        <v>2.11798266556211</v>
+        <v>2.02974613205892</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3276288347938159</v>
+        <v>0.3269269819236699</v>
       </c>
       <c r="H80" t="n">
-        <v>0.06197378644967178</v>
+        <v>0.0589437398123741</v>
       </c>
       <c r="I80" t="n">
-        <v>1.728380044318624</v>
+        <v>1.643875410322877</v>
       </c>
       <c r="J80" t="n">
-        <v>0.04338165051477026</v>
+        <v>0.04126061786866183</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01859213593490154</v>
+        <v>0.01768312194371221</v>
       </c>
       <c r="L80" t="n">
-        <v>0.002169082525738513</v>
+        <v>0.002063030893433091</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04121256798903176</v>
+        <v>0.03919758697522874</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08734860901267633</v>
+        <v>0.08307792661332941</v>
       </c>
       <c r="O80" t="n">
-        <v>1.65962357124085</v>
+        <v>1.578480605653259</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4712,46 +4712,46 @@
         <v>1979</v>
       </c>
       <c r="B81" t="n">
-        <v>3.898912640085512</v>
+        <v>3.778769905102184</v>
       </c>
       <c r="C81" t="n">
-        <v>5.700902481867001</v>
+        <v>5.495393425911622</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>5.700902481867003</v>
+        <v>5.495393425911622</v>
       </c>
       <c r="F81" t="n">
-        <v>2.233147624247495</v>
+        <v>2.142287613090776</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3363162118459249</v>
+        <v>0.3353154859229418</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06565954889082358</v>
+        <v>0.06254903517119406</v>
       </c>
       <c r="I81" t="n">
-        <v>1.831171863510745</v>
+        <v>1.744423091996636</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04596168422357649</v>
+        <v>0.04378432461983593</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01969786466724707</v>
+        <v>0.01876471055135824</v>
       </c>
       <c r="L81" t="n">
-        <v>0.002298084211178825</v>
+        <v>0.002189216230991796</v>
       </c>
       <c r="M81" t="n">
-        <v>0.04366360001239766</v>
+        <v>0.04159510838884412</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09254348640889958</v>
+        <v>0.08815939012739971</v>
       </c>
       <c r="O81" t="n">
-        <v>1.758326241769092</v>
+        <v>1.675028412420595</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -4765,46 +4765,46 @@
         <v>1980</v>
       </c>
       <c r="B82" t="n">
-        <v>4.246338804938926</v>
+        <v>4.111241160969968</v>
       </c>
       <c r="C82" t="n">
-        <v>6.165421704723717</v>
+        <v>5.942709988222804</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>6.165421704723719</v>
+        <v>5.942709988222806</v>
       </c>
       <c r="F82" t="n">
-        <v>2.354388354574182</v>
+        <v>2.260896037165926</v>
       </c>
       <c r="G82" t="n">
-        <v>0.334301091642828</v>
+        <v>0.3330341137418884</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06992609756300837</v>
+        <v>0.06673368196467833</v>
       </c>
       <c r="I82" t="n">
-        <v>1.950161165368346</v>
+        <v>1.861128241459359</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04894826829410591</v>
+        <v>0.04671357737527478</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02097782926890254</v>
+        <v>0.02002010458940348</v>
       </c>
       <c r="L82" t="n">
-        <v>0.002447413414705296</v>
+        <v>0.002335678868763739</v>
       </c>
       <c r="M82" t="n">
-        <v>0.04650085487940064</v>
+        <v>0.04437789850651104</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09855694973186251</v>
+        <v>0.09405741730243819</v>
       </c>
       <c r="O82" t="n">
-        <v>1.872582044905387</v>
+        <v>1.787090928746325</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -4818,46 +4818,46 @@
         <v>1981</v>
       </c>
       <c r="B83" t="n">
-        <v>4.534860614032703</v>
+        <v>4.393833309817474</v>
       </c>
       <c r="C83" t="n">
-        <v>6.568583847659138</v>
+        <v>6.337716699166497</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>6.56858384765914</v>
+        <v>6.337716699166498</v>
       </c>
       <c r="F83" t="n">
-        <v>2.482504367742085</v>
+        <v>2.386296462284649</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3417430691879415</v>
+        <v>0.3401034208646218</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0741054618560282</v>
+        <v>0.07083185858096665</v>
       </c>
       <c r="I83" t="n">
-        <v>2.066655836698112</v>
+        <v>1.975361182839062</v>
       </c>
       <c r="J83" t="n">
-        <v>0.05187382329921975</v>
+        <v>0.04958230100667664</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02223163855680846</v>
+        <v>0.02124955757429</v>
       </c>
       <c r="L83" t="n">
-        <v>0.002593691164960988</v>
+        <v>0.002479115050333832</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04928013213425875</v>
+        <v>0.04710318595634282</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1044443737627461</v>
+        <v>0.09983053702066749</v>
       </c>
       <c r="O83" t="n">
-        <v>1.984443101492177</v>
+        <v>1.896780203392682</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4871,46 +4871,46 @@
         <v>1982</v>
       </c>
       <c r="B84" t="n">
-        <v>4.840204477535282</v>
+        <v>4.692958990004266</v>
       </c>
       <c r="C84" t="n">
-        <v>6.99601255341844</v>
+        <v>6.756615312882894</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>6.996012553418438</v>
+        <v>6.756615312882889</v>
       </c>
       <c r="F84" t="n">
-        <v>2.618257995583384</v>
+        <v>2.519191792258845</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3489863367590045</v>
+        <v>0.3469219787023974</v>
       </c>
       <c r="H84" t="n">
-        <v>0.07856020020981069</v>
+        <v>0.07520214359112044</v>
       </c>
       <c r="I84" t="n">
-        <v>2.190711458614564</v>
+        <v>2.097067669965325</v>
       </c>
       <c r="J84" t="n">
-        <v>0.05499214014686748</v>
+        <v>0.05264150051378423</v>
       </c>
       <c r="K84" t="n">
-        <v>0.02356806006294321</v>
+        <v>0.02256064307733609</v>
       </c>
       <c r="L84" t="n">
-        <v>0.002749607007343373</v>
+        <v>0.002632075025689211</v>
       </c>
       <c r="M84" t="n">
-        <v>0.05224253313952411</v>
+        <v>0.05000942548809503</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1107139759338754</v>
+        <v>0.1059814156521332</v>
       </c>
       <c r="O84" t="n">
-        <v>2.103565542743633</v>
+        <v>2.01364689739053</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4924,46 +4924,46 @@
         <v>1983</v>
       </c>
       <c r="B85" t="n">
-        <v>5.164071075422294</v>
+        <v>5.010319025331436</v>
       </c>
       <c r="C85" t="n">
-        <v>7.450185134085852</v>
+        <v>7.201842969155004</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>7.450185134085853</v>
+        <v>7.201842969155003</v>
       </c>
       <c r="F85" t="n">
-        <v>2.762490227407169</v>
+        <v>2.660374342738379</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3560543761823694</v>
+        <v>0.3535070334504183</v>
       </c>
       <c r="H85" t="n">
-        <v>0.08332542887865418</v>
+        <v>0.07987802508499649</v>
       </c>
       <c r="I85" t="n">
-        <v>2.32311042234614</v>
+        <v>2.226989284202967</v>
       </c>
       <c r="J85" t="n">
-        <v>0.05832780021505792</v>
+        <v>0.05591461755949751</v>
       </c>
       <c r="K85" t="n">
-        <v>0.02499762866359625</v>
+        <v>0.02396340752549895</v>
       </c>
       <c r="L85" t="n">
-        <v>0.002916390010752897</v>
+        <v>0.002795730877974877</v>
       </c>
       <c r="M85" t="n">
-        <v>0.05541141020430503</v>
+        <v>0.05311888668152266</v>
       </c>
       <c r="N85" t="n">
-        <v>0.117405402550487</v>
+        <v>0.1125476345864233</v>
       </c>
       <c r="O85" t="n">
-        <v>2.230702648459252</v>
+        <v>2.138405057142044</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4977,46 +4977,46 @@
         <v>1984</v>
       </c>
       <c r="B86" t="n">
-        <v>5.506678902937048</v>
+        <v>5.346072044956271</v>
       </c>
       <c r="C86" t="n">
-        <v>7.932276888826482</v>
+        <v>7.674478023710384</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>7.932276888826484</v>
+        <v>7.674478023710384</v>
       </c>
       <c r="F86" t="n">
-        <v>2.916259672632278</v>
+        <v>2.810858495251876</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3629986348539272</v>
+        <v>0.3599048334054465</v>
       </c>
       <c r="H86" t="n">
-        <v>0.08845226597175088</v>
+        <v>0.08490895978813461</v>
       </c>
       <c r="I86" t="n">
-        <v>2.464808771806603</v>
+        <v>2.366044702058289</v>
       </c>
       <c r="J86" t="n">
-        <v>0.06191658618022564</v>
+        <v>0.05943627185169425</v>
       </c>
       <c r="K86" t="n">
-        <v>0.02653567979152528</v>
+        <v>0.02547268793644039</v>
       </c>
       <c r="L86" t="n">
-        <v>0.003095829309011281</v>
+        <v>0.002971813592584712</v>
       </c>
       <c r="M86" t="n">
-        <v>0.05882075687121436</v>
+        <v>0.05646445825910951</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1245672225799064</v>
+        <v>0.1195758694997371</v>
       </c>
       <c r="O86" t="n">
-        <v>2.366777229018221</v>
+        <v>2.271941520495004</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5030,46 +5030,46 @@
         <v>1985</v>
       </c>
       <c r="B87" t="n">
-        <v>5.873684238406561</v>
+        <v>5.705569869923626</v>
       </c>
       <c r="C87" t="n">
-        <v>8.449210612734202</v>
+        <v>8.181098203524222</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>8.4492106127342</v>
+        <v>8.181098203524222</v>
       </c>
       <c r="F87" t="n">
-        <v>3.080989030668105</v>
+        <v>2.972019367043435</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3699086366390086</v>
+        <v>0.3662000685164913</v>
       </c>
       <c r="H87" t="n">
-        <v>0.09402292950468563</v>
+        <v>0.09037512581156508</v>
       </c>
       <c r="I87" t="n">
-        <v>2.617057464524411</v>
+        <v>2.515444172715372</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0658160506532799</v>
+        <v>0.06326258806809558</v>
       </c>
       <c r="K87" t="n">
-        <v>0.02820687885140568</v>
+        <v>0.02711253774346953</v>
       </c>
       <c r="L87" t="n">
-        <v>0.003290802532663994</v>
+        <v>0.003163129403404779</v>
       </c>
       <c r="M87" t="n">
-        <v>0.06252524812061591</v>
+        <v>0.06009945866469078</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1322632171687906</v>
+        <v>0.1271278355229423</v>
       </c>
       <c r="O87" t="n">
-        <v>2.513001126207022</v>
+        <v>2.415428874935904</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -5083,46 +5083,46 @@
         <v>1986</v>
       </c>
       <c r="B88" t="n">
-        <v>6.485868424462867</v>
+        <v>6.310315280789602</v>
       </c>
       <c r="C88" t="n">
-        <v>9.223458478176109</v>
+        <v>8.9448457300934</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>9.223458478176118</v>
+        <v>8.9448457300934</v>
       </c>
       <c r="F88" t="n">
-        <v>3.258591562786505</v>
+        <v>3.145710756685371</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3769178220357247</v>
+        <v>0.3725208100497929</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1001736062829565</v>
+        <v>0.09640989195902204</v>
       </c>
       <c r="I88" t="n">
-        <v>2.781500134467826</v>
+        <v>2.676780054676561</v>
       </c>
       <c r="J88" t="n">
-        <v>0.07012152439806961</v>
+        <v>0.0674869243713154</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03005208188488699</v>
+        <v>0.0289229675877066</v>
       </c>
       <c r="L88" t="n">
-        <v>0.003506076219903481</v>
+        <v>0.00337434621856577</v>
       </c>
       <c r="M88" t="n">
-        <v>0.06661544817816614</v>
+        <v>0.06411257815274961</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1405776108176358</v>
+        <v>0.1352851511132131</v>
       </c>
       <c r="O88" t="n">
-        <v>2.67097460553508</v>
+        <v>2.570417871151048</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -5136,46 +5136,46 @@
         <v>1987</v>
       </c>
       <c r="B89" t="n">
-        <v>7.09480101706806</v>
+        <v>6.912859588280189</v>
       </c>
       <c r="C89" t="n">
-        <v>10.00874157381215</v>
+        <v>9.720355547032977</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>10.00874157381215</v>
+        <v>9.720355547032977</v>
       </c>
       <c r="F89" t="n">
-        <v>3.45150278586736</v>
+        <v>3.334289731785938</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3841969366630469</v>
+        <v>0.3790308278356396</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1071249025416768</v>
+        <v>0.1032298668181963</v>
       </c>
       <c r="I89" t="n">
-        <v>2.960180946662627</v>
+        <v>2.852029037132105</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07498743177917383</v>
+        <v>0.07226090677273747</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03213747076250308</v>
+        <v>0.03096896004545892</v>
       </c>
       <c r="L89" t="n">
-        <v>0.003749371588958691</v>
+        <v>0.003613045338636874</v>
       </c>
       <c r="M89" t="n">
-        <v>0.07123806019021513</v>
+        <v>0.06864786143410058</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1496159208712565</v>
+        <v>0.1441498998588781</v>
       </c>
       <c r="O89" t="n">
-        <v>2.842702496553875</v>
+        <v>2.738848097318685</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5189,46 +5189,46 @@
         <v>1988</v>
       </c>
       <c r="B90" t="n">
-        <v>7.728811355387213</v>
+        <v>7.54109744216093</v>
       </c>
       <c r="C90" t="n">
-        <v>10.83594791283362</v>
+        <v>10.53799506120822</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>10.83594791283362</v>
+        <v>10.53799506120821</v>
       </c>
       <c r="F90" t="n">
-        <v>3.662607258970999</v>
+        <v>3.540540969285261</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3919371985010961</v>
+        <v>0.3859118966039105</v>
       </c>
       <c r="H90" t="n">
-        <v>0.115221136294099</v>
+        <v>0.1111738405641583</v>
       </c>
       <c r="I90" t="n">
-        <v>3.155448924175802</v>
+        <v>3.043455232117187</v>
       </c>
       <c r="J90" t="n">
-        <v>0.08065479540586949</v>
+        <v>0.07782168839491081</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03456634088822978</v>
+        <v>0.03335215216924749</v>
       </c>
       <c r="L90" t="n">
-        <v>0.004032739770293474</v>
+        <v>0.00389108441974554</v>
       </c>
       <c r="M90" t="n">
-        <v>0.07662205563557603</v>
+        <v>0.07393060397516527</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1595007632532014</v>
+        <v>0.153840369214322</v>
       </c>
       <c r="O90" t="n">
-        <v>3.030514501810827</v>
+        <v>2.922967015072119</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5242,46 +5242,46 @@
         <v>1989</v>
       </c>
       <c r="B91" t="n">
-        <v>8.383753233104878</v>
+        <v>8.191288729661604</v>
       </c>
       <c r="C91" t="n">
-        <v>11.70370975114997</v>
+        <v>11.39670477375562</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>11.70370975114997</v>
+        <v>11.39670477375562</v>
       </c>
       <c r="F91" t="n">
-        <v>3.895011631030853</v>
+        <v>3.767455974792103</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4003205594044468</v>
+        <v>0.3933338231141935</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1249722637436758</v>
+        <v>0.1207444224617103</v>
       </c>
       <c r="I91" t="n">
-        <v>3.369718807882745</v>
+        <v>3.253377729216205</v>
       </c>
       <c r="J91" t="n">
-        <v>0.08748058462057315</v>
+        <v>0.08452109572319717</v>
       </c>
       <c r="K91" t="n">
-        <v>0.03749167912310279</v>
+        <v>0.03622332673851307</v>
       </c>
       <c r="L91" t="n">
-        <v>0.004374029231028658</v>
+        <v>0.004226054786159858</v>
       </c>
       <c r="M91" t="n">
-        <v>0.08310655538954448</v>
+        <v>0.08029504093703733</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1703605243502922</v>
+        <v>0.1644800527977355</v>
       </c>
       <c r="O91" t="n">
-        <v>3.236849962655552</v>
+        <v>3.125121003156974</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -5295,46 +5295,46 @@
         <v>1990</v>
       </c>
       <c r="B92" t="n">
-        <v>9.067228125245357</v>
+        <v>8.870973766443651</v>
       </c>
       <c r="C92" t="n">
-        <v>12.62235075651687</v>
+        <v>12.30665262872206</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>12.62235075651687</v>
+        <v>12.30665262872206</v>
       </c>
       <c r="F92" t="n">
-        <v>4.151720821692241</v>
+        <v>4.017926110323083</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4094864729853886</v>
+        <v>0.4014220447668463</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1370893961709882</v>
+        <v>0.1326432653083423</v>
       </c>
       <c r="I92" t="n">
-        <v>3.605144952535868</v>
+        <v>3.483860800247881</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09596257731969178</v>
+        <v>0.09285028571583973</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04112681885129647</v>
+        <v>0.03979297959250274</v>
       </c>
       <c r="L92" t="n">
-        <v>0.004798128865984589</v>
+        <v>0.004642514285791989</v>
       </c>
       <c r="M92" t="n">
-        <v>0.09116444845370719</v>
+        <v>0.08820777143004775</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1823135885693583</v>
+        <v>0.1761826889920192</v>
       </c>
       <c r="O92" t="n">
-        <v>3.463958182817806</v>
+        <v>3.347471090848364</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -5348,46 +5348,46 @@
         <v>1991</v>
       </c>
       <c r="B93" t="n">
-        <v>9.918259259835143</v>
+        <v>9.704095622217341</v>
       </c>
       <c r="C93" t="n">
-        <v>13.73327540270258</v>
+        <v>13.39409438970349</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>13.73327540270258</v>
+        <v>13.39409438970349</v>
       </c>
       <c r="F93" t="n">
-        <v>4.435311242011473</v>
+        <v>4.294441660706008</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4195047758352188</v>
+        <v>0.4102324317732172</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1524998166381013</v>
+        <v>0.1477856527471484</v>
       </c>
       <c r="I93" t="n">
-        <v>3.863306649538151</v>
+        <v>3.736423576185636</v>
       </c>
       <c r="J93" t="n">
-        <v>0.106749871646671</v>
+        <v>0.103449956923004</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04574994499143045</v>
+        <v>0.04433569582414455</v>
       </c>
       <c r="L93" t="n">
-        <v>0.005337493582333552</v>
+        <v>0.005172497846150198</v>
       </c>
       <c r="M93" t="n">
-        <v>0.1014123780643375</v>
+        <v>0.09827745907685374</v>
       </c>
       <c r="N93" t="n">
-        <v>0.195452829726479</v>
+        <v>0.1890379636004892</v>
       </c>
       <c r="O93" t="n">
-        <v>3.7136037648031</v>
+        <v>3.591721308409296</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -5401,46 +5401,46 @@
         <v>1992</v>
       </c>
       <c r="B94" t="n">
-        <v>10.80560387077906</v>
+        <v>10.57359117578259</v>
       </c>
       <c r="C94" t="n">
-        <v>14.9070836140786</v>
+        <v>14.54379353228429</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>14.9070836140786</v>
+        <v>14.54379353228428</v>
       </c>
       <c r="F94" t="n">
-        <v>4.747708848959263</v>
+        <v>4.598900368463311</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4303617507492168</v>
+        <v>0.4197399931983672</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1723251610992703</v>
+        <v>0.1672782909707505</v>
       </c>
       <c r="I94" t="n">
-        <v>4.145021937110779</v>
+        <v>4.011882084294193</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1206276127694892</v>
+        <v>0.1170948036795255</v>
       </c>
       <c r="K94" t="n">
-        <v>0.05169754832978112</v>
+        <v>0.0501834872912252</v>
       </c>
       <c r="L94" t="n">
-        <v>0.006031380638474464</v>
+        <v>0.005854740183976274</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1145962321310148</v>
+        <v>0.1112400634955492</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2098359742720275</v>
+        <v>0.2031032785792713</v>
       </c>
       <c r="O94" t="n">
-        <v>3.986883511168522</v>
+        <v>3.858962293006154</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -5454,46 +5454,46 @@
         <v>1993</v>
       </c>
       <c r="B95" t="n">
-        <v>11.73672544550648</v>
+        <v>11.48481396392333</v>
       </c>
       <c r="C95" t="n">
-        <v>16.15254653538333</v>
+        <v>15.7624676384827</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>16.15254653538332</v>
+        <v>15.7624676384827</v>
       </c>
       <c r="F95" t="n">
-        <v>5.090196902014093</v>
+        <v>4.932638410634716</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4419641758279369</v>
+        <v>0.4298450689932766</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1978163986983907</v>
+        <v>0.1923539994725292</v>
       </c>
       <c r="I95" t="n">
-        <v>4.45041632748775</v>
+        <v>4.310439342168899</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1384714790888736</v>
+        <v>0.1346477996307702</v>
       </c>
       <c r="K95" t="n">
-        <v>0.05934491960951727</v>
+        <v>0.05770619984175866</v>
       </c>
       <c r="L95" t="n">
-        <v>0.006923573954443682</v>
+        <v>0.006732389981538513</v>
       </c>
       <c r="M95" t="n">
-        <v>0.13154790513443</v>
+        <v>0.1279154096492317</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2254880623548639</v>
+        <v>0.2184072771005329</v>
       </c>
       <c r="O95" t="n">
-        <v>4.284273184742415</v>
+        <v>4.149738264910125</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5507,46 +5507,46 @@
         <v>1994</v>
       </c>
       <c r="B96" t="n">
-        <v>12.71875794859674</v>
+        <v>12.44330443416773</v>
       </c>
       <c r="C96" t="n">
-        <v>17.47779507978551</v>
+        <v>17.05679024146738</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>17.47779507978552</v>
+        <v>17.05679024146738</v>
       </c>
       <c r="F96" t="n">
-        <v>5.463668470532984</v>
+        <v>5.296691234145418</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4541557008605954</v>
+        <v>0.4403903843563269</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2302484572284474</v>
+        <v>0.2242669215966473</v>
       </c>
       <c r="I96" t="n">
-        <v>4.779264312443935</v>
+        <v>4.632033928192466</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1611739200599132</v>
+        <v>0.1569868451176531</v>
       </c>
       <c r="K96" t="n">
-        <v>0.06907453716853419</v>
+        <v>0.06728007647899419</v>
       </c>
       <c r="L96" t="n">
-        <v>0.008058696002995655</v>
+        <v>0.007849342255882652</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1531152240569175</v>
+        <v>0.1491375028617704</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2424169424806238</v>
+        <v>0.2349657002335723</v>
       </c>
       <c r="O96" t="n">
-        <v>4.605921907131852</v>
+        <v>4.464348304437874</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5560,46 +5560,46 @@
         <v>1995</v>
       </c>
       <c r="B97" t="n">
-        <v>13.63852110795782</v>
+        <v>13.33080244102963</v>
       </c>
       <c r="C97" t="n">
-        <v>18.88419963126954</v>
+        <v>18.42877475444216</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>18.88419963126952</v>
+        <v>18.42877475444216</v>
       </c>
       <c r="F97" t="n">
-        <v>5.869073987499601</v>
+        <v>5.692227307839731</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3473071208556951</v>
+        <v>0.3259406621423332</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2773483974211845</v>
+        <v>0.2710720547443496</v>
       </c>
       <c r="I97" t="n">
-        <v>5.244418469222728</v>
+        <v>5.095214590953042</v>
       </c>
       <c r="J97" t="n">
-        <v>0.194143878194829</v>
+        <v>0.1897504383210445</v>
       </c>
       <c r="K97" t="n">
-        <v>0.08320451922635533</v>
+        <v>0.08132161642330481</v>
       </c>
       <c r="L97" t="n">
-        <v>0.009707193909741453</v>
+        <v>0.009487521916052229</v>
       </c>
       <c r="M97" t="n">
-        <v>0.1844366842850876</v>
+        <v>0.1802629164049923</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2663811494224539</v>
+        <v>0.2588268103688178</v>
       </c>
       <c r="O97" t="n">
-        <v>5.061241839026624</v>
+        <v>4.917709397007541</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5613,46 +5613,46 @@
         <v>1996</v>
       </c>
       <c r="B98" t="n">
-        <v>14.86240168760792</v>
+        <v>14.52453203538851</v>
       </c>
       <c r="C98" t="n">
-        <v>20.49960419562446</v>
+        <v>20.00575774752425</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>20.49960419562446</v>
+        <v>20.00575774752425</v>
       </c>
       <c r="F98" t="n">
-        <v>6.307925725668418</v>
+        <v>6.121016587948318</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3740283488089061</v>
+        <v>0.3513053120159589</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3268403015127092</v>
+        <v>0.3197833409403133</v>
       </c>
       <c r="I98" t="n">
-        <v>5.607057075346803</v>
+        <v>5.449927934992056</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2287882110588962</v>
+        <v>0.2238483386582194</v>
       </c>
       <c r="K98" t="n">
-        <v>0.09805209045381263</v>
+        <v>0.09593500228209405</v>
       </c>
       <c r="L98" t="n">
-        <v>0.01143941055294481</v>
+        <v>0.01119241693291097</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2173488005059513</v>
+        <v>0.2126559217253084</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2852554582900307</v>
+        <v>0.2772931468637072</v>
       </c>
       <c r="O98" t="n">
-        <v>5.419853707510584</v>
+        <v>5.268569790410437</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5666,46 +5666,46 @@
         <v>1997</v>
       </c>
       <c r="B99" t="n">
-        <v>16.1455760273202</v>
+        <v>15.77712271491049</v>
       </c>
       <c r="C99" t="n">
-        <v>22.20644918120961</v>
+        <v>21.67384620536577</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>22.2064491812096</v>
+        <v>21.67384620536577</v>
       </c>
       <c r="F99" t="n">
-        <v>6.782671435964418</v>
+        <v>6.585752658690168</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4028049581860886</v>
+        <v>0.3786753003161836</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3858122957569506</v>
+        <v>0.3778064687227076</v>
       </c>
       <c r="I99" t="n">
-        <v>5.994054182021382</v>
+        <v>5.829270889651265</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2700686070298655</v>
+        <v>0.2644645281058954</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1157436887270852</v>
+        <v>0.1133419406168123</v>
       </c>
       <c r="L99" t="n">
-        <v>0.01350343035149328</v>
+        <v>0.01322322640529477</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2565651766783723</v>
+        <v>0.2512413017006006</v>
       </c>
       <c r="N99" t="n">
-        <v>0.305489893537423</v>
+        <v>0.2971306415134039</v>
       </c>
       <c r="O99" t="n">
-        <v>5.804307977211038</v>
+        <v>5.645482188754674</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5719,46 +5719,46 @@
         <v>1998</v>
       </c>
       <c r="B100" t="n">
-        <v>17.48129677706358</v>
+        <v>17.08565008604496</v>
       </c>
       <c r="C100" t="n">
-        <v>24.00116840916332</v>
+        <v>23.43345925433724</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>24.00116840916332</v>
+        <v>23.43345925433724</v>
       </c>
       <c r="F100" t="n">
-        <v>7.296821335414601</v>
+        <v>7.09012377753709</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4337985647832954</v>
+        <v>0.4082193898609998</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4545278240957047</v>
+        <v>0.4453959797715057</v>
       </c>
       <c r="I100" t="n">
-        <v>6.408494946535606</v>
+        <v>6.236508407904557</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3181694768669937</v>
+        <v>0.3117771858400536</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1363583472287116</v>
+        <v>0.1336187939314516</v>
       </c>
       <c r="L100" t="n">
-        <v>0.01590847384334968</v>
+        <v>0.01558885929200268</v>
       </c>
       <c r="M100" t="n">
-        <v>0.302261003023644</v>
+        <v>0.2961883265480509</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3272426646882157</v>
+        <v>0.3185063600918011</v>
       </c>
       <c r="O100" t="n">
-        <v>6.217610629076098</v>
+        <v>6.051620841744221</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5772,46 +5772,46 @@
         <v>1999</v>
       </c>
       <c r="B101" t="n">
-        <v>18.86603684574176</v>
+        <v>18.44963606230677</v>
       </c>
       <c r="C101" t="n">
-        <v>25.88417699296132</v>
+        <v>25.28812156794087</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>25.88417699296132</v>
+        <v>25.28812156794087</v>
       </c>
       <c r="F101" t="n">
-        <v>7.854775474744735</v>
+        <v>7.638592684244794</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4672595303031035</v>
+        <v>0.4401868888404722</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5329962463415558</v>
+        <v>0.5225622201482325</v>
       </c>
       <c r="I101" t="n">
-        <v>6.85451969810009</v>
+        <v>6.675843575256089</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3730973724390893</v>
+        <v>0.3657935541037632</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1598988739024669</v>
+        <v>0.15676866604447</v>
       </c>
       <c r="L101" t="n">
-        <v>0.01865486862195447</v>
+        <v>0.01828967770518816</v>
       </c>
       <c r="M101" t="n">
-        <v>0.3544425038171348</v>
+        <v>0.347503876398575</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3507209286001275</v>
+        <v>0.341630612065028</v>
       </c>
       <c r="O101" t="n">
-        <v>6.663697643402423</v>
+        <v>6.490981629235533</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5825,46 +5825,46 @@
         <v>2000</v>
       </c>
       <c r="B102" t="n">
-        <v>20.3092274956126</v>
+        <v>19.87686195055336</v>
       </c>
       <c r="C102" t="n">
-        <v>27.86925146271627</v>
+        <v>27.24989204759812</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>27.86925146271627</v>
+        <v>27.24989204759812</v>
       </c>
       <c r="F102" t="n">
-        <v>8.461442147970862</v>
+        <v>8.235986341674966</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5035221825985919</v>
+        <v>0.4749020289962608</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6210632189450224</v>
+        <v>0.6091591266311852</v>
       </c>
       <c r="I102" t="n">
-        <v>7.336856746427261</v>
+        <v>7.151925186047555</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4347442532615156</v>
+        <v>0.426411388641829</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1863189656835067</v>
+        <v>0.1827477379893553</v>
       </c>
       <c r="L102" t="n">
-        <v>0.02173721266307579</v>
+        <v>0.02132056943209145</v>
       </c>
       <c r="M102" t="n">
-        <v>0.4130070405984398</v>
+        <v>0.4050908192097376</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3761587856055384</v>
+        <v>0.366733646201844</v>
       </c>
       <c r="O102" t="n">
-        <v>7.147016926505227</v>
+        <v>6.967939277835036</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -5878,46 +5878,46 @@
         <v>2001</v>
       </c>
       <c r="B103" t="n">
-        <v>21.52906479298959</v>
+        <v>21.08769727393875</v>
       </c>
       <c r="C103" t="n">
-        <v>29.67893729575595</v>
+        <v>29.04328952430578</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>29.67893729575596</v>
+        <v>29.04328952430578</v>
       </c>
       <c r="F103" t="n">
-        <v>9.121801910375343</v>
+        <v>8.887056223567733</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5429887495686381</v>
+        <v>0.512748591602441</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7185158291067395</v>
+        <v>0.7049840241077043</v>
       </c>
       <c r="I103" t="n">
-        <v>7.860297331699959</v>
+        <v>7.669323607857621</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5029610803747171</v>
+        <v>0.493488816875393</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2155547487320216</v>
+        <v>0.2114952072323114</v>
       </c>
       <c r="L103" t="n">
-        <v>0.02514805401873587</v>
+        <v>0.02467444084376965</v>
       </c>
       <c r="M103" t="n">
-        <v>0.4778130263559814</v>
+        <v>0.4688143760316233</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4037926040215997</v>
+        <v>0.3940409407544954</v>
       </c>
       <c r="O103" t="n">
-        <v>7.672059476410394</v>
+        <v>7.486777874335413</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -5931,46 +5931,46 @@
         <v>2002</v>
       </c>
       <c r="B104" t="n">
-        <v>23.16511577713221</v>
+        <v>22.70461802157049</v>
       </c>
       <c r="C104" t="n">
-        <v>31.95690538966872</v>
+        <v>31.29457864583031</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>31.95690538966874</v>
+        <v>31.29457864583033</v>
       </c>
       <c r="F104" t="n">
-        <v>9.840627202823192</v>
+        <v>9.59621793552275</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5861118212058078</v>
+        <v>0.5541541205123999</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8251865674764929</v>
+        <v>0.8098752512301869</v>
       </c>
       <c r="I104" t="n">
-        <v>8.429328814140867</v>
+        <v>8.232188563780166</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5776305972335447</v>
+        <v>0.5669126758611308</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2475559702429477</v>
+        <v>0.2429625753690559</v>
       </c>
       <c r="L104" t="n">
-        <v>0.02888152986167723</v>
+        <v>0.02834563379305653</v>
       </c>
       <c r="M104" t="n">
-        <v>0.5487490673718671</v>
+        <v>0.5385670420680742</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4338442392191917</v>
+        <v>0.423757556957461</v>
       </c>
       <c r="O104" t="n">
-        <v>8.243040545164643</v>
+        <v>8.051393582191757</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -5984,46 +5984,46 @@
         <v>2003</v>
       </c>
       <c r="B105" t="n">
-        <v>25.61749563332431</v>
+        <v>25.14052486225393</v>
       </c>
       <c r="C105" t="n">
-        <v>35.10706255749932</v>
+        <v>34.42005762918843</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>35.1070625574993</v>
+        <v>34.42005762918844</v>
       </c>
       <c r="F105" t="n">
-        <v>10.62239470918577</v>
+        <v>10.36750424735867</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6333768942647127</v>
+        <v>0.5995750190065808</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9410341698900117</v>
+        <v>0.9237881397325941</v>
       </c>
       <c r="I105" t="n">
-        <v>9.047983645031055</v>
+        <v>8.844141088619512</v>
       </c>
       <c r="J105" t="n">
-        <v>0.6587239189230086</v>
+        <v>0.646651697812816</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2823102509670037</v>
+        <v>0.2771364419197782</v>
       </c>
       <c r="L105" t="n">
-        <v>0.03293619594615044</v>
+        <v>0.03233258489064079</v>
       </c>
       <c r="M105" t="n">
-        <v>0.6257877229768583</v>
+        <v>0.6143191129221748</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4665146947999025</v>
+        <v>0.4560638765269642</v>
       </c>
       <c r="O105" t="n">
-        <v>8.863779201198144</v>
+        <v>8.665213654012318</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -6037,46 +6037,46 @@
         <v>2004</v>
       </c>
       <c r="B106" t="n">
-        <v>28.34024398574875</v>
+        <v>27.83330958807306</v>
       </c>
       <c r="C106" t="n">
-        <v>38.58705871290726</v>
+        <v>37.86080095640008</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>38.58705871290726</v>
+        <v>37.86080095640007</v>
       </c>
       <c r="F106" t="n">
-        <v>11.47141088060018</v>
+        <v>11.20474108879131</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6852901151701603</v>
+        <v>0.649487016868132</v>
       </c>
       <c r="H106" t="n">
-        <v>1.066196884305411</v>
+        <v>1.04684623349264</v>
       </c>
       <c r="I106" t="n">
-        <v>9.719923881124622</v>
+        <v>9.508407838430536</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7463378190137887</v>
+        <v>0.7327923634448481</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3198590652916238</v>
+        <v>0.3140538700477921</v>
       </c>
       <c r="L106" t="n">
-        <v>0.03731689095068945</v>
+        <v>0.03663961817224241</v>
       </c>
       <c r="M106" t="n">
-        <v>0.7090209280630996</v>
+        <v>0.6961527452726057</v>
       </c>
       <c r="N106" t="n">
-        <v>0.501989147320811</v>
+        <v>0.4911230854239169</v>
       </c>
       <c r="O106" t="n">
-        <v>9.537793799095411</v>
+        <v>9.331338623054421</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -6090,46 +6090,46 @@
         <v>2005</v>
       </c>
       <c r="B107" t="n">
-        <v>31.20157768356328</v>
+        <v>30.65354763191299</v>
       </c>
       <c r="C107" t="n">
-        <v>42.26881913334662</v>
+        <v>41.49068203230665</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>42.26881913334663</v>
+        <v>41.49068203230666</v>
       </c>
       <c r="F107" t="n">
-        <v>12.39209904522554</v>
+        <v>12.11189081820913</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7423712033483258</v>
+        <v>0.7043809230579104</v>
       </c>
       <c r="H107" t="n">
-        <v>1.20102202838171</v>
+        <v>1.179372697236165</v>
       </c>
       <c r="I107" t="n">
-        <v>10.4487058134955</v>
+        <v>10.22813719791505</v>
       </c>
       <c r="J107" t="n">
-        <v>0.8407154198671974</v>
+        <v>0.8255608880653146</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3603066085145131</v>
+        <v>0.3538118091708492</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04203577099335987</v>
+        <v>0.04127804440326575</v>
       </c>
       <c r="M107" t="n">
-        <v>0.7986796488738375</v>
+        <v>0.7842828436620487</v>
       </c>
       <c r="N107" t="n">
-        <v>0.5404506211005001</v>
+        <v>0.5290974503542952</v>
       </c>
       <c r="O107" t="n">
-        <v>10.2685618009095</v>
+        <v>10.05285155673161</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6143,46 +6143,46 @@
         <v>2006</v>
       </c>
       <c r="B108" t="n">
-        <v>32.98440712714562</v>
+        <v>32.37034104081044</v>
       </c>
       <c r="C108" t="n">
-        <v>44.93930678450081</v>
+        <v>44.0825103299584</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>44.93930678450082</v>
+        <v>44.08251032995844</v>
       </c>
       <c r="F108" t="n">
-        <v>13.38925004147802</v>
+        <v>13.09335630997322</v>
       </c>
       <c r="G108" t="n">
-        <v>0.8051451389988715</v>
+        <v>0.7647570582385415</v>
       </c>
       <c r="H108" t="n">
-        <v>1.346064826638057</v>
+        <v>1.321894105466488</v>
       </c>
       <c r="I108" t="n">
-        <v>11.23804007584111</v>
+        <v>11.00670514626822</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9422453786466395</v>
+        <v>0.9253258738265434</v>
       </c>
       <c r="K108" t="n">
-        <v>0.4038194479914168</v>
+        <v>0.396568231639947</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04711226893233195</v>
+        <v>0.04626629369132717</v>
       </c>
       <c r="M108" t="n">
-        <v>0.895133109714307</v>
+        <v>0.879059580135216</v>
       </c>
       <c r="N108" t="n">
-        <v>0.5820929761916258</v>
+        <v>0.570163668895408</v>
       </c>
       <c r="O108" t="n">
-        <v>11.0597665476409</v>
+        <v>10.83310970901275</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -6196,46 +6196,46 @@
         <v>2007</v>
       </c>
       <c r="B109" t="n">
-        <v>34.44911238779719</v>
+        <v>33.79858589576824</v>
       </c>
       <c r="C109" t="n">
-        <v>47.3635476398462</v>
+        <v>46.45559292368985</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>47.3635476398462</v>
+        <v>46.45559292368985</v>
       </c>
       <c r="F109" t="n">
-        <v>14.4682810623603</v>
+        <v>14.15428971611015</v>
       </c>
       <c r="G109" t="n">
-        <v>0.874138691782392</v>
+        <v>0.8311244235610928</v>
       </c>
       <c r="H109" t="n">
-        <v>1.502080557328154</v>
+        <v>1.475139850735338</v>
       </c>
       <c r="I109" t="n">
-        <v>12.09206181324973</v>
+        <v>11.84802544181372</v>
       </c>
       <c r="J109" t="n">
-        <v>1.051456390129709</v>
+        <v>1.032597895514737</v>
       </c>
       <c r="K109" t="n">
-        <v>0.4506241671984467</v>
+        <v>0.4425419552206014</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05257281950648546</v>
+        <v>0.05162989477573683</v>
       </c>
       <c r="M109" t="n">
-        <v>0.9988835706232236</v>
+        <v>0.9809680007389998</v>
       </c>
       <c r="N109" t="n">
-        <v>0.6271342990224092</v>
+        <v>0.6145283698517164</v>
       </c>
       <c r="O109" t="n">
-        <v>11.91555168142577</v>
+        <v>11.67603902718261</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -6249,46 +6249,46 @@
         <v>2008</v>
       </c>
       <c r="B110" t="n">
-        <v>36.00409341269139</v>
+        <v>35.32020781256806</v>
       </c>
       <c r="C110" t="n">
-        <v>49.97782031520752</v>
+        <v>49.01867867162576</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>49.9778203152075</v>
+        <v>49.01867867162575</v>
       </c>
       <c r="F110" t="n">
-        <v>15.6353267171515</v>
+        <v>15.30071839453511</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9261405039766387</v>
+        <v>0.8812753850007269</v>
       </c>
       <c r="H110" t="n">
-        <v>1.672835353779219</v>
+        <v>1.642738911781556</v>
       </c>
       <c r="I110" t="n">
-        <v>13.03635085939563</v>
+        <v>12.77670409775284</v>
       </c>
       <c r="J110" t="n">
-        <v>1.170984747645452</v>
+        <v>1.14991723824709</v>
       </c>
       <c r="K110" t="n">
-        <v>0.5018506061337653</v>
+        <v>0.4928216735344672</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05854923738227263</v>
+        <v>0.05749586191235447</v>
       </c>
       <c r="M110" t="n">
-        <v>1.11243551026318</v>
+        <v>1.092421376334735</v>
       </c>
       <c r="N110" t="n">
-        <v>0.6769100732764705</v>
+        <v>0.6634762885643666</v>
       </c>
       <c r="O110" t="n">
-        <v>12.86129139225294</v>
+        <v>12.60604948272297</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6302,46 +6302,46 @@
         <v>2009</v>
       </c>
       <c r="B111" t="n">
-        <v>37.32206276628811</v>
+        <v>36.61104862256455</v>
       </c>
       <c r="C111" t="n">
-        <v>52.41993173343474</v>
+        <v>51.41451833481092</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>52.41993173343469</v>
+        <v>51.41451833481094</v>
       </c>
       <c r="F111" t="n">
-        <v>16.89726452474225</v>
+        <v>16.53959125650667</v>
       </c>
       <c r="G111" t="n">
-        <v>1.004770875114259</v>
+        <v>0.9569915594051684</v>
       </c>
       <c r="H111" t="n">
-        <v>1.854331736348536</v>
+        <v>1.820909988999009</v>
       </c>
       <c r="I111" t="n">
-        <v>14.03816191327949</v>
+        <v>13.76168970810246</v>
       </c>
       <c r="J111" t="n">
-        <v>1.298032215443975</v>
+        <v>1.274636992299306</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5562995209045608</v>
+        <v>0.5462729966997024</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06490161077219876</v>
+        <v>0.06373184961496528</v>
       </c>
       <c r="M111" t="n">
-        <v>1.233130604671776</v>
+        <v>1.21090514268434</v>
       </c>
       <c r="N111" t="n">
-        <v>0.7297230717092013</v>
+        <v>0.7153981352401081</v>
       </c>
       <c r="O111" t="n">
-        <v>13.86473836247482</v>
+        <v>13.59256456956205</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6355,46 +6355,46 @@
         <v>2010</v>
       </c>
       <c r="B112" t="n">
-        <v>38.54244830046838</v>
+        <v>37.83934524300237</v>
       </c>
       <c r="C112" t="n">
-        <v>55.27551361958053</v>
+        <v>54.2158006404908</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>55.2755136195805</v>
+        <v>54.21580064049076</v>
       </c>
       <c r="F112" t="n">
-        <v>18.26174576366033</v>
+        <v>17.87880214246977</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6479927961738013</v>
+        <v>0.6404280398504157</v>
       </c>
       <c r="H112" t="n">
-        <v>2.101951457497775</v>
+        <v>2.059921479679092</v>
       </c>
       <c r="I112" t="n">
-        <v>15.51180150998879</v>
+        <v>15.17845262294031</v>
       </c>
       <c r="J112" t="n">
-        <v>1.471366020248443</v>
+        <v>1.441945035775365</v>
       </c>
       <c r="K112" t="n">
-        <v>0.6305854372493327</v>
+        <v>0.6179764439037276</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07356830101242215</v>
+        <v>0.07209725178876825</v>
       </c>
       <c r="M112" t="n">
-        <v>1.397797719236021</v>
+        <v>1.369847783986597</v>
       </c>
       <c r="N112" t="n">
-        <v>0.8071193473619033</v>
+        <v>0.7898214533422011</v>
       </c>
       <c r="O112" t="n">
-        <v>15.33526759987616</v>
+        <v>15.00660761350182</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -6408,46 +6408,46 @@
         <v>2011</v>
       </c>
       <c r="B113" t="n">
-        <v>40.93585982994149</v>
+        <v>40.15103416691173</v>
       </c>
       <c r="C113" t="n">
-        <v>58.87642844280943</v>
+        <v>57.74643365312262</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1304940352938363</v>
+        <v>0.0940144792251581</v>
       </c>
       <c r="E113" t="n">
-        <v>58.87642844280946</v>
+        <v>57.74643365312266</v>
       </c>
       <c r="F113" t="n">
-        <v>19.73715497825195</v>
+        <v>19.32711041262537</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7149837696606113</v>
+        <v>0.7066746595347948</v>
       </c>
       <c r="H113" t="n">
-        <v>2.317731663916671</v>
+        <v>2.271483204592345</v>
       </c>
       <c r="I113" t="n">
-        <v>16.70443954467464</v>
+        <v>16.34895254849824</v>
       </c>
       <c r="J113" t="n">
-        <v>1.62241216474167</v>
+        <v>1.590038243214642</v>
       </c>
       <c r="K113" t="n">
-        <v>0.6953194991750014</v>
+        <v>0.6814449613777034</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08112060823708353</v>
+        <v>0.07950191216073209</v>
       </c>
       <c r="M113" t="n">
-        <v>1.541291556504587</v>
+        <v>1.51053633105391</v>
       </c>
       <c r="N113" t="n">
-        <v>0.8699879521924831</v>
+        <v>0.8515198754937969</v>
       </c>
       <c r="O113" t="n">
-        <v>16.52977109165718</v>
+        <v>16.17887763438214</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6461,46 +6461,46 @@
         <v>2012</v>
       </c>
       <c r="B114" t="n">
-        <v>43.56818699158931</v>
+        <v>42.71328181286425</v>
       </c>
       <c r="C114" t="n">
-        <v>62.56649249195914</v>
+        <v>61.33851933980796</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5180298912026954</v>
+        <v>0.4831567370605332</v>
       </c>
       <c r="E114" t="n">
-        <v>62.56649249195915</v>
+        <v>61.33851933980795</v>
       </c>
       <c r="F114" t="n">
-        <v>21.33245348408001</v>
+        <v>20.8939119044668</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7889425455826641</v>
+        <v>0.7798126791991512</v>
       </c>
       <c r="H114" t="n">
-        <v>2.550777702001489</v>
+        <v>2.500118876671755</v>
       </c>
       <c r="I114" t="n">
-        <v>17.99273323649591</v>
+        <v>17.61398034859589</v>
       </c>
       <c r="J114" t="n">
-        <v>1.785544391401046</v>
+        <v>1.750083213670228</v>
       </c>
       <c r="K114" t="n">
-        <v>0.7652333106004483</v>
+        <v>0.750035663001526</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08927721957005227</v>
+        <v>0.08750416068351143</v>
       </c>
       <c r="M114" t="n">
-        <v>1.696267171830993</v>
+        <v>1.662579052986717</v>
       </c>
       <c r="N114" t="n">
-        <v>0.937898327354817</v>
+        <v>0.918200800579871</v>
       </c>
       <c r="O114" t="n">
-        <v>17.82006821974153</v>
+        <v>17.44581521101755</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -6514,46 +6514,46 @@
         <v>2013</v>
       </c>
       <c r="B115" t="n">
-        <v>46.48269986453338</v>
+        <v>45.5673283547663</v>
       </c>
       <c r="C115" t="n">
-        <v>66.6444248117308</v>
+        <v>65.33333673650816</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9152833703081137</v>
+        <v>0.8758939294796461</v>
       </c>
       <c r="E115" t="n">
-        <v>66.64442481173074</v>
+        <v>65.33333673650814</v>
       </c>
       <c r="F115" t="n">
-        <v>23.05681318010057</v>
+        <v>22.58877621397678</v>
       </c>
       <c r="G115" t="n">
-        <v>0.870488635357917</v>
+        <v>0.860457991638413</v>
       </c>
       <c r="H115" t="n">
-        <v>2.80256342312412</v>
+        <v>2.747342859241669</v>
       </c>
       <c r="I115" t="n">
-        <v>19.38376112161855</v>
+        <v>18.98097536309681</v>
       </c>
       <c r="J115" t="n">
-        <v>1.96179439618688</v>
+        <v>1.923140001469168</v>
       </c>
       <c r="K115" t="n">
-        <v>0.8407690269372347</v>
+        <v>0.8242028577725005</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09808971980934406</v>
+        <v>0.09615700007345836</v>
       </c>
       <c r="M115" t="n">
-        <v>1.863704676377537</v>
+        <v>1.82698300139571</v>
       </c>
       <c r="N115" t="n">
-        <v>1.01122650742779</v>
+        <v>0.9902589110434634</v>
       </c>
       <c r="O115" t="n">
-        <v>19.213303641128</v>
+        <v>18.8149193098258</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -6567,46 +6567,46 @@
         <v>2014</v>
       </c>
       <c r="B116" t="n">
-        <v>49.85896626888161</v>
+        <v>48.86593820210654</v>
       </c>
       <c r="C116" t="n">
-        <v>71.36646641051534</v>
+        <v>69.94817738861833</v>
       </c>
       <c r="D116" t="n">
-        <v>1.291481198695803</v>
+        <v>1.252208068204856</v>
       </c>
       <c r="E116" t="n">
-        <v>71.36646641051537</v>
+        <v>69.94817738861835</v>
       </c>
       <c r="F116" t="n">
-        <v>24.91878665216598</v>
+        <v>24.4205085188335</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9198589255032608</v>
+        <v>0.9105640401844778</v>
       </c>
       <c r="H116" t="n">
-        <v>3.079815401062842</v>
+        <v>3.019678402053206</v>
       </c>
       <c r="I116" t="n">
-        <v>20.91911232559979</v>
+        <v>20.49026607659585</v>
       </c>
       <c r="J116" t="n">
-        <v>2.15587078074399</v>
+        <v>2.113774881437245</v>
       </c>
       <c r="K116" t="n">
-        <v>0.9239446203188525</v>
+        <v>0.905903520615962</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1077935390371995</v>
+        <v>0.1056887440718623</v>
       </c>
       <c r="M116" t="n">
-        <v>2.04807724170679</v>
+        <v>2.008086137365384</v>
       </c>
       <c r="N116" t="n">
-        <v>1.092152847295934</v>
+        <v>1.069808479860593</v>
       </c>
       <c r="O116" t="n">
-        <v>20.75090409862275</v>
+        <v>20.32636111735127</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -6620,46 +6620,46 @@
         <v>2015</v>
       </c>
       <c r="B117" t="n">
-        <v>53.42316910222919</v>
+        <v>52.36174280135805</v>
       </c>
       <c r="C117" t="n">
-        <v>76.31129881802728</v>
+        <v>74.80053557334431</v>
       </c>
       <c r="D117" t="n">
-        <v>1.730233366774119</v>
+        <v>1.68634659601466</v>
       </c>
       <c r="E117" t="n">
-        <v>76.31129881802724</v>
+        <v>74.80053557334426</v>
       </c>
       <c r="F117" t="n">
-        <v>26.92499391211438</v>
+        <v>26.39574930436814</v>
       </c>
       <c r="G117" t="n">
-        <v>1.010927509406876</v>
+        <v>1.000865759103983</v>
       </c>
       <c r="H117" t="n">
-        <v>3.374057309796362</v>
+        <v>3.309055624558184</v>
       </c>
       <c r="I117" t="n">
-        <v>22.5400090929112</v>
+        <v>22.08582792070597</v>
       </c>
       <c r="J117" t="n">
-        <v>2.361840116857454</v>
+        <v>2.316338937190733</v>
       </c>
       <c r="K117" t="n">
-        <v>1.012217192938909</v>
+        <v>0.9927166873674571</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1180920058428727</v>
+        <v>0.1158169468595366</v>
       </c>
       <c r="M117" t="n">
-        <v>2.243748111014581</v>
+        <v>2.200521990331196</v>
       </c>
       <c r="N117" t="n">
-        <v>1.177611314292506</v>
+        <v>1.153927230403669</v>
       </c>
       <c r="O117" t="n">
-        <v>22.37461497155762</v>
+        <v>21.92461737766971</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6673,46 +6673,46 @@
         <v>2016</v>
       </c>
       <c r="B118" t="n">
-        <v>57.13334459802296</v>
+        <v>55.98667603846788</v>
       </c>
       <c r="C118" t="n">
-        <v>81.47081769211074</v>
+        <v>79.84639834009316</v>
       </c>
       <c r="D118" t="n">
-        <v>2.232907519464058</v>
+        <v>2.187856655110526</v>
       </c>
       <c r="E118" t="n">
-        <v>81.47081769211073</v>
+        <v>79.84639834009324</v>
       </c>
       <c r="F118" t="n">
-        <v>29.07856306344841</v>
+        <v>28.51736640729802</v>
       </c>
       <c r="G118" t="n">
-        <v>1.109741364972842</v>
+        <v>1.098862242312947</v>
       </c>
       <c r="H118" t="n">
-        <v>3.69043129892194</v>
+        <v>3.620386800504454</v>
       </c>
       <c r="I118" t="n">
-        <v>24.27839039955367</v>
+        <v>23.79811736448055</v>
       </c>
       <c r="J118" t="n">
-        <v>2.583301909245352</v>
+        <v>2.534270760353116</v>
       </c>
       <c r="K118" t="n">
-        <v>1.107129389676579</v>
+        <v>1.086116040151335</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1291650954622676</v>
+        <v>0.1267135380176558</v>
       </c>
       <c r="M118" t="n">
-        <v>2.454136813783085</v>
+        <v>2.40755722233546</v>
       </c>
       <c r="N118" t="n">
-        <v>1.269275989461514</v>
+        <v>1.244211670231598</v>
       </c>
       <c r="O118" t="n">
-        <v>24.11624379976876</v>
+        <v>23.64002173440036</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -6726,46 +6726,46 @@
         <v>2017</v>
       </c>
       <c r="B119" t="n">
-        <v>63.6373576722326</v>
+        <v>62.36908913901154</v>
       </c>
       <c r="C119" t="n">
-        <v>90.33661901213341</v>
+        <v>88.55183608130851</v>
       </c>
       <c r="D119" t="n">
-        <v>1.954381185207834</v>
+        <v>1.917133231966113</v>
       </c>
       <c r="E119" t="n">
-        <v>90.3366190121334</v>
+        <v>88.55183608130849</v>
       </c>
       <c r="F119" t="n">
-        <v>31.37791999814606</v>
+        <v>30.78326054166327</v>
       </c>
       <c r="G119" t="n">
-        <v>1.216191024347482</v>
+        <v>1.20443930559682</v>
       </c>
       <c r="H119" t="n">
-        <v>4.029004716577744</v>
+        <v>3.953664977997713</v>
       </c>
       <c r="I119" t="n">
-        <v>26.13272425722079</v>
+        <v>25.62515625806879</v>
       </c>
       <c r="J119" t="n">
-        <v>2.820303301604421</v>
+        <v>2.767565484598403</v>
       </c>
       <c r="K119" t="n">
-        <v>1.208701414973323</v>
+        <v>1.186099493399315</v>
       </c>
       <c r="L119" t="n">
-        <v>0.141015165080221</v>
+        <v>0.1383782742299201</v>
       </c>
       <c r="M119" t="n">
-        <v>2.6792881365242</v>
+        <v>2.629187210368482</v>
       </c>
       <c r="N119" t="n">
-        <v>1.367071283609708</v>
+        <v>1.3405627875734</v>
       </c>
       <c r="O119" t="n">
-        <v>25.97435438858444</v>
+        <v>25.4706929638946</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6779,46 +6779,46 @@
         <v>2018</v>
       </c>
       <c r="B120" t="n">
-        <v>70.05638467979449</v>
+        <v>68.65213837691752</v>
       </c>
       <c r="C120" t="n">
-        <v>98.80274467259031</v>
+        <v>96.85555469931862</v>
       </c>
       <c r="D120" t="n">
-        <v>2.115753279465661</v>
+        <v>2.071921538903001</v>
       </c>
       <c r="E120" t="n">
-        <v>98.80274467259036</v>
+        <v>96.85555469931857</v>
       </c>
       <c r="F120" t="n">
-        <v>33.81629391907736</v>
+        <v>33.18595111527016</v>
       </c>
       <c r="G120" t="n">
-        <v>1.329858895644362</v>
+        <v>1.317174419160608</v>
       </c>
       <c r="H120" t="n">
-        <v>4.389148460799702</v>
+        <v>4.308162272490946</v>
       </c>
       <c r="I120" t="n">
-        <v>28.09728656263341</v>
+        <v>27.56061442361861</v>
       </c>
       <c r="J120" t="n">
-        <v>3.072403922559789</v>
+        <v>3.015713590743659</v>
       </c>
       <c r="K120" t="n">
-        <v>1.31674453823991</v>
+        <v>1.292448681747283</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1536201961279896</v>
+        <v>0.1507856795371829</v>
       </c>
       <c r="M120" t="n">
-        <v>2.9187837264318</v>
+        <v>2.864927911206476</v>
       </c>
       <c r="N120" t="n">
-        <v>1.470701555043667</v>
+        <v>1.442653155268296</v>
       </c>
       <c r="O120" t="n">
-        <v>27.94332954582966</v>
+        <v>27.41040995009762</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -6832,46 +6832,46 @@
         <v>2019</v>
       </c>
       <c r="B121" t="n">
-        <v>78.3416441720219</v>
+        <v>75.63651454609726</v>
       </c>
       <c r="C121" t="n">
-        <v>109.5648481587632</v>
+        <v>105.8772639799259</v>
       </c>
       <c r="D121" t="n">
-        <v>1.963307832231385</v>
+        <v>2.323144417484022</v>
       </c>
       <c r="E121" t="n">
-        <v>109.5648481587632</v>
+        <v>105.877263979926</v>
       </c>
       <c r="F121" t="n">
-        <v>36.38323993464351</v>
+        <v>35.7141677045591</v>
       </c>
       <c r="G121" t="n">
-        <v>1.450069598882783</v>
+        <v>1.436384703177205</v>
       </c>
       <c r="H121" t="n">
-        <v>4.769741494689848</v>
+        <v>4.682642392204005</v>
       </c>
       <c r="I121" t="n">
-        <v>30.16342884107097</v>
+        <v>29.59514060917786</v>
       </c>
       <c r="J121" t="n">
-        <v>3.338819046282888</v>
+        <v>3.277849674542802</v>
       </c>
       <c r="K121" t="n">
-        <v>1.430922448406952</v>
+        <v>1.404792717661201</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1669409523141444</v>
+        <v>0.1638924837271401</v>
       </c>
       <c r="M121" t="n">
-        <v>3.171878093968743</v>
+        <v>3.113957190815661</v>
       </c>
       <c r="N121" t="n">
-        <v>1.579717564473892</v>
+        <v>1.549996666341951</v>
       </c>
       <c r="O121" t="n">
-        <v>30.01463372500395</v>
+        <v>29.44993666049707</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -6885,46 +6885,46 @@
         <v>2020</v>
       </c>
       <c r="B122" t="n">
-        <v>87.23891864028052</v>
+        <v>83.06480072928075</v>
       </c>
       <c r="C122" t="n">
-        <v>121.0655736342365</v>
+        <v>115.4316696187375</v>
       </c>
       <c r="D122" t="n">
-        <v>1.790355225469642</v>
+        <v>2.588130278247885</v>
       </c>
       <c r="E122" t="n">
-        <v>121.0655736342365</v>
+        <v>115.4316696187375</v>
       </c>
       <c r="F122" t="n">
-        <v>39.0676125154931</v>
+        <v>38.35599967400017</v>
       </c>
       <c r="G122" t="n">
-        <v>1.576022810834373</v>
+        <v>1.56126370799537</v>
       </c>
       <c r="H122" t="n">
-        <v>5.173762246347358</v>
+        <v>5.079942025898704</v>
       </c>
       <c r="I122" t="n">
-        <v>32.31782745831124</v>
+        <v>31.71479394010611</v>
       </c>
       <c r="J122" t="n">
-        <v>3.621633572443155</v>
+        <v>3.555959418129095</v>
       </c>
       <c r="K122" t="n">
-        <v>1.552128673904209</v>
+        <v>1.523982607769612</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1810816786221578</v>
+        <v>0.1777979709064547</v>
       </c>
       <c r="M122" t="n">
-        <v>3.440551893820997</v>
+        <v>3.378161447222639</v>
       </c>
       <c r="N122" t="n">
-        <v>1.69349780661077</v>
+        <v>1.661938827393789</v>
       </c>
       <c r="O122" t="n">
-        <v>32.17645832560461</v>
+        <v>31.57683772048199</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -6938,52 +6938,52 @@
         <v>2021</v>
       </c>
       <c r="B123" t="n">
-        <v>95.02066897339203</v>
+        <v>90.46540569758392</v>
       </c>
       <c r="C123" t="n">
-        <v>131.0410769800475</v>
+        <v>124.9995111204607</v>
       </c>
       <c r="D123" t="n">
-        <v>2.126921274471722</v>
+        <v>2.907636579017978</v>
       </c>
       <c r="E123" t="n">
-        <v>131.0410769800475</v>
+        <v>124.9995111204606</v>
       </c>
       <c r="F123" t="n">
-        <v>41.8621016717363</v>
+        <v>41.10346126159549</v>
       </c>
       <c r="G123" t="n">
-        <v>1.707018217918119</v>
+        <v>1.691101259600993</v>
       </c>
       <c r="H123" t="n">
-        <v>5.594342335030941</v>
+        <v>5.493128945041874</v>
       </c>
       <c r="I123" t="n">
-        <v>34.56074111878707</v>
+        <v>33.91923105695249</v>
       </c>
       <c r="J123" t="n">
-        <v>3.916039634521664</v>
+        <v>3.845190261529305</v>
       </c>
       <c r="K123" t="n">
-        <v>1.678302700509285</v>
+        <v>1.647938683512559</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1958019817260832</v>
+        <v>0.1922595130764652</v>
       </c>
       <c r="M123" t="n">
-        <v>3.720237652795579</v>
+        <v>3.652930748452839</v>
       </c>
       <c r="N123" t="n">
-        <v>1.811952190964821</v>
+        <v>1.778358487023256</v>
       </c>
       <c r="O123" t="n">
-        <v>34.19757768414271</v>
+        <v>33.56355251175224</v>
       </c>
       <c r="P123" t="n">
-        <v>0.2295139441888773</v>
+        <v>0.2252587416896124</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.2295139441888773</v>
+        <v>0.2252587416896124</v>
       </c>
     </row>
     <row r="124">
@@ -6991,52 +6991,52 @@
         <v>2022</v>
       </c>
       <c r="B124" t="n">
-        <v>103.164067767756</v>
+        <v>98.17948218665308</v>
       </c>
       <c r="C124" t="n">
-        <v>141.4288706953041</v>
+        <v>134.9432603051098</v>
       </c>
       <c r="D124" t="n">
-        <v>2.514536029857493</v>
+        <v>3.261548075717518</v>
       </c>
       <c r="E124" t="n">
-        <v>141.428870695304</v>
+        <v>134.9432603051098</v>
       </c>
       <c r="F124" t="n">
-        <v>44.76834932682797</v>
+        <v>43.95746919871409</v>
       </c>
       <c r="G124" t="n">
-        <v>1.842729371664313</v>
+        <v>1.825546889056818</v>
       </c>
       <c r="H124" t="n">
-        <v>6.03515506670132</v>
+        <v>5.925729939220315</v>
       </c>
       <c r="I124" t="n">
-        <v>36.89046488846235</v>
+        <v>36.20619237043676</v>
       </c>
       <c r="J124" t="n">
-        <v>4.224608546690922</v>
+        <v>4.148010957454221</v>
       </c>
       <c r="K124" t="n">
-        <v>1.810546520010396</v>
+        <v>1.777718981766095</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2112304273345461</v>
+        <v>0.2074005478727111</v>
       </c>
       <c r="M124" t="n">
-        <v>4.013378119356375</v>
+        <v>3.94061040958151</v>
       </c>
       <c r="N124" t="n">
-        <v>1.935050570423643</v>
+        <v>1.899195567610144</v>
       </c>
       <c r="O124" t="n">
-        <v>36.27574802687521</v>
+        <v>35.60358624079816</v>
       </c>
       <c r="P124" t="n">
-        <v>0.4902128111739895</v>
+        <v>0.4811295437945697</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.4902128111739895</v>
+        <v>0.4811295437945697</v>
       </c>
     </row>
     <row r="125">
@@ -7044,52 +7044,52 @@
         <v>2023</v>
       </c>
       <c r="B125" t="n">
-        <v>111.7068978392938</v>
+        <v>106.2453201369459</v>
       </c>
       <c r="C125" t="n">
-        <v>152.3530068490895</v>
+        <v>145.3745460200483</v>
       </c>
       <c r="D125" t="n">
-        <v>2.880872288976775</v>
+        <v>3.589640819622489</v>
       </c>
       <c r="E125" t="n">
-        <v>152.3530068490895</v>
+        <v>145.3745460200483</v>
       </c>
       <c r="F125" t="n">
-        <v>47.80132921683662</v>
+        <v>46.93207792228509</v>
       </c>
       <c r="G125" t="n">
-        <v>1.983454165497107</v>
+        <v>1.964849814153402</v>
       </c>
       <c r="H125" t="n">
-        <v>6.499185992840162</v>
+        <v>6.380556084597687</v>
       </c>
       <c r="I125" t="n">
-        <v>39.31868905849935</v>
+        <v>38.58667202353386</v>
       </c>
       <c r="J125" t="n">
-        <v>4.549430194988108</v>
+        <v>4.46638925921838</v>
       </c>
       <c r="K125" t="n">
-        <v>1.949755797852047</v>
+        <v>1.914166825379306</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2274715097494054</v>
+        <v>0.2233194629609191</v>
       </c>
       <c r="M125" t="n">
-        <v>4.321958685238703</v>
+        <v>4.243069796257462</v>
       </c>
       <c r="N125" t="n">
-        <v>2.06342224281757</v>
+        <v>2.025041942445658</v>
       </c>
       <c r="O125" t="n">
-        <v>38.42092216126316</v>
+        <v>37.70628096833816</v>
       </c>
       <c r="P125" t="n">
-        <v>0.7841004522706766</v>
+        <v>0.7695159381293502</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.7841004522706766</v>
+        <v>0.7695159381293502</v>
       </c>
     </row>
     <row r="126">
@@ -7097,52 +7097,52 @@
         <v>2024</v>
       </c>
       <c r="B126" t="n">
-        <v>120.8662088746398</v>
+        <v>114.8475361935944</v>
       </c>
       <c r="C126" t="n">
-        <v>163.8432898803891</v>
+        <v>156.3186734621285</v>
       </c>
       <c r="D126" t="n">
-        <v>3.441862419422464</v>
+        <v>4.078607777137774</v>
       </c>
       <c r="E126" t="n">
-        <v>163.8432898803891</v>
+        <v>156.3186734621285</v>
       </c>
       <c r="F126" t="n">
-        <v>50.99234228603075</v>
+        <v>50.05711883256001</v>
       </c>
       <c r="G126" t="n">
-        <v>2.130296575323647</v>
+        <v>2.110018784484424</v>
       </c>
       <c r="H126" t="n">
-        <v>6.992028379914052</v>
+        <v>6.862920767756378</v>
       </c>
       <c r="I126" t="n">
-        <v>41.87001733079321</v>
+        <v>41.0841792803193</v>
       </c>
       <c r="J126" t="n">
-        <v>4.894419865939852</v>
+        <v>4.804044537429458</v>
       </c>
       <c r="K126" t="n">
-        <v>2.097608513974222</v>
+        <v>2.058876230326911</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2447209932969926</v>
+        <v>0.240202226871473</v>
       </c>
       <c r="M126" t="n">
-        <v>4.649698872642859</v>
+        <v>4.563842310557987</v>
       </c>
       <c r="N126" t="n">
-        <v>2.198381292238363</v>
+        <v>2.157152775532312</v>
       </c>
       <c r="O126" t="n">
-        <v>40.65539803112812</v>
+        <v>39.89294532884421</v>
       </c>
       <c r="P126" t="n">
-        <v>1.11384652140077</v>
+        <v>1.092957406269705</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.11384652140077</v>
+        <v>1.092957406269705</v>
       </c>
     </row>
     <row r="127">
@@ -7150,52 +7150,52 @@
         <v>2025</v>
       </c>
       <c r="B127" t="n">
-        <v>130.3387162913513</v>
+        <v>123.6639188400725</v>
       </c>
       <c r="C127" t="n">
-        <v>175.7838837144921</v>
+        <v>167.5980927079317</v>
       </c>
       <c r="D127" t="n">
-        <v>4.054356717884028</v>
+        <v>4.625908333124672</v>
       </c>
       <c r="E127" t="n">
-        <v>175.7838837144921</v>
+        <v>167.5980927079317</v>
       </c>
       <c r="F127" t="n">
-        <v>54.38999998418476</v>
+        <v>53.37873892271327</v>
       </c>
       <c r="G127" t="n">
-        <v>2.285237730474481</v>
+        <v>2.262862921677526</v>
       </c>
       <c r="H127" t="n">
-        <v>7.52220910482728</v>
+        <v>7.380892386131872</v>
       </c>
       <c r="I127" t="n">
-        <v>44.58255314888311</v>
+        <v>43.73498361490367</v>
       </c>
       <c r="J127" t="n">
-        <v>5.265546373379092</v>
+        <v>5.166624670292309</v>
       </c>
       <c r="K127" t="n">
-        <v>2.256662731448182</v>
+        <v>2.214267715839562</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2632773186689545</v>
+        <v>0.2583312335146155</v>
       </c>
       <c r="M127" t="n">
-        <v>5.002269054710136</v>
+        <v>4.908293436777694</v>
       </c>
       <c r="N127" t="n">
-        <v>2.341960794016563</v>
+        <v>2.297462566537167</v>
       </c>
       <c r="O127" t="n">
-        <v>43.01401325010419</v>
+        <v>42.19672913873264</v>
       </c>
       <c r="P127" t="n">
-        <v>1.483241836210489</v>
+        <v>1.455059625473539</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.483241836210489</v>
+        <v>1.455059625473539</v>
       </c>
     </row>
     <row r="128">
@@ -7203,52 +7203,52 @@
         <v>2026</v>
       </c>
       <c r="B128" t="n">
-        <v>140.3964232765705</v>
+        <v>132.9774450473744</v>
       </c>
       <c r="C128" t="n">
-        <v>188.2502336522901</v>
+        <v>179.3280266006007</v>
       </c>
       <c r="D128" t="n">
-        <v>4.973772038237957</v>
+        <v>5.454691147207979</v>
       </c>
       <c r="E128" t="n">
-        <v>188.2502336522901</v>
+        <v>179.3280266006006</v>
       </c>
       <c r="F128" t="n">
-        <v>58.05907061739327</v>
+        <v>56.95777193594949</v>
       </c>
       <c r="G128" t="n">
-        <v>2.451089129016799</v>
+        <v>2.425905935492497</v>
       </c>
       <c r="H128" t="n">
-        <v>8.10126558683532</v>
+        <v>7.945289828475532</v>
       </c>
       <c r="I128" t="n">
-        <v>47.50671590154094</v>
+        <v>46.58657617198141</v>
       </c>
       <c r="J128" t="n">
-        <v>5.670885910784736</v>
+        <v>5.561702879932872</v>
       </c>
       <c r="K128" t="n">
-        <v>2.430379676050601</v>
+        <v>2.38358694854266</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2835442955392368</v>
+        <v>0.2780851439966435</v>
       </c>
       <c r="M128" t="n">
-        <v>5.3873416152455</v>
+        <v>5.283617735936229</v>
       </c>
       <c r="N128" t="n">
-        <v>2.496854778879581</v>
+        <v>2.448508156026211</v>
       </c>
       <c r="O128" t="n">
-        <v>45.54263116676356</v>
+        <v>44.66078876591808</v>
       </c>
       <c r="P128" t="n">
-        <v>1.897609631948482</v>
+        <v>1.86086619857992</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.897609631948482</v>
+        <v>1.86086619857992</v>
       </c>
     </row>
     <row r="129">
@@ -7256,52 +7256,52 @@
         <v>2027</v>
       </c>
       <c r="B129" t="n">
-        <v>150.7736114360991</v>
+        <v>142.5217447439112</v>
       </c>
       <c r="C129" t="n">
-        <v>201.0948168640502</v>
+        <v>191.3404726280888</v>
       </c>
       <c r="D129" t="n">
-        <v>6.15237432224565</v>
+        <v>6.531966610381867</v>
       </c>
       <c r="E129" t="n">
-        <v>201.0948168640502</v>
+        <v>191.3404726280887</v>
       </c>
       <c r="F129" t="n">
-        <v>62.07721624660423</v>
+        <v>60.86608210428034</v>
       </c>
       <c r="G129" t="n">
-        <v>2.631342825344597</v>
+        <v>2.602193162638964</v>
       </c>
       <c r="H129" t="n">
-        <v>8.743506716102942</v>
+        <v>8.569372343486748</v>
       </c>
       <c r="I129" t="n">
-        <v>50.70236670515695</v>
+        <v>49.69451659815484</v>
       </c>
       <c r="J129" t="n">
-        <v>6.120454701272059</v>
+        <v>5.998560640440726</v>
       </c>
       <c r="K129" t="n">
-        <v>2.623052014830882</v>
+        <v>2.570811703046025</v>
       </c>
       <c r="L129" t="n">
-        <v>0.3060227350636029</v>
+        <v>0.2999280320220363</v>
       </c>
       <c r="M129" t="n">
-        <v>5.814431966208456</v>
+        <v>5.698632608418688</v>
       </c>
       <c r="N129" t="n">
-        <v>2.666270935999383</v>
+        <v>2.61326641506004</v>
       </c>
       <c r="O129" t="n">
-        <v>48.2950542207355</v>
+        <v>47.3349656647875</v>
       </c>
       <c r="P129" t="n">
-        <v>2.364093563252787</v>
+        <v>2.317096221353235</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.364093563252787</v>
+        <v>2.317096221353235</v>
       </c>
     </row>
     <row r="130">
@@ -7309,52 +7309,52 @@
         <v>2028</v>
       </c>
       <c r="B130" t="n">
-        <v>161.4405050270041</v>
+        <v>152.2591432717623</v>
       </c>
       <c r="C130" t="n">
-        <v>214.3034247339133</v>
+        <v>203.6068187452159</v>
       </c>
       <c r="D130" t="n">
-        <v>7.65190334657271</v>
+        <v>7.919191640785447</v>
       </c>
       <c r="E130" t="n">
-        <v>214.3034247339132</v>
+        <v>203.6068187452159</v>
       </c>
       <c r="F130" t="n">
-        <v>66.52975456888467</v>
+        <v>65.18119979936991</v>
       </c>
       <c r="G130" t="n">
-        <v>2.829940828377446</v>
+        <v>2.795023889644619</v>
       </c>
       <c r="H130" t="n">
-        <v>9.465429513218568</v>
+        <v>9.268221755431766</v>
       </c>
       <c r="I130" t="n">
-        <v>54.23438422728874</v>
+        <v>53.11795415429364</v>
       </c>
       <c r="J130" t="n">
-        <v>6.625800659252979</v>
+        <v>6.487755228802232</v>
       </c>
       <c r="K130" t="n">
-        <v>2.839628853965563</v>
+        <v>2.780466526629528</v>
       </c>
       <c r="L130" t="n">
-        <v>0.331290032962649</v>
+        <v>0.3243877614401116</v>
       </c>
       <c r="M130" t="n">
-        <v>6.294510626290331</v>
+        <v>6.163367467362121</v>
       </c>
       <c r="N130" t="n">
-        <v>2.853700654062714</v>
+        <v>2.794921034046153</v>
       </c>
       <c r="O130" t="n">
-        <v>51.32856243107467</v>
+        <v>50.27131299904348</v>
       </c>
       <c r="P130" t="n">
-        <v>2.891749996116883</v>
+        <v>2.832186647833435</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.891749996116883</v>
+        <v>2.832186647833435</v>
       </c>
     </row>
     <row r="131">
@@ -7362,52 +7362,52 @@
         <v>2029</v>
       </c>
       <c r="B131" t="n">
-        <v>172.4393522825322</v>
+        <v>162.2159318972246</v>
       </c>
       <c r="C131" t="n">
-        <v>227.8481155335761</v>
+        <v>216.0922556486424</v>
       </c>
       <c r="D131" t="n">
-        <v>9.620314336187285</v>
+        <v>9.747082165385738</v>
       </c>
       <c r="E131" t="n">
-        <v>227.8481155335761</v>
+        <v>216.0922556486425</v>
       </c>
       <c r="F131" t="n">
-        <v>71.50264359250616</v>
+        <v>69.97965027765204</v>
       </c>
       <c r="G131" t="n">
-        <v>3.050982974367805</v>
+        <v>3.007644049437699</v>
       </c>
       <c r="H131" t="n">
-        <v>10.28473099981785</v>
+        <v>10.05778921024435</v>
       </c>
       <c r="I131" t="n">
-        <v>58.16692961832029</v>
+        <v>56.9142170179699</v>
       </c>
       <c r="J131" t="n">
-        <v>7.199311699872506</v>
+        <v>7.040452447171054</v>
       </c>
       <c r="K131" t="n">
-        <v>3.085419299945359</v>
+        <v>3.017336763073308</v>
       </c>
       <c r="L131" t="n">
-        <v>0.3599655849936253</v>
+        <v>0.3520226223585527</v>
       </c>
       <c r="M131" t="n">
-        <v>6.839346114878881</v>
+        <v>6.688429824812501</v>
       </c>
       <c r="N131" t="n">
-        <v>3.062617445913286</v>
+        <v>2.996577689052159</v>
       </c>
       <c r="O131" t="n">
-        <v>54.69834758401127</v>
+        <v>53.51887752647156</v>
       </c>
       <c r="P131" t="n">
-        <v>3.491383888341145</v>
+        <v>3.416098565519462</v>
       </c>
       <c r="Q131" t="n">
-        <v>3.491383888341145</v>
+        <v>3.416098565519462</v>
       </c>
     </row>
     <row r="132">
@@ -7415,52 +7415,52 @@
         <v>2030</v>
       </c>
       <c r="B132" t="n">
-        <v>183.5521006338596</v>
+        <v>172.1817561051182</v>
       </c>
       <c r="C132" t="n">
-        <v>241.6949561569524</v>
+        <v>228.7301371142152</v>
       </c>
       <c r="D132" t="n">
-        <v>11.94418799454734</v>
+        <v>11.93400954207581</v>
       </c>
       <c r="E132" t="n">
-        <v>241.6949561569524</v>
+        <v>228.7301371142152</v>
       </c>
       <c r="F132" t="n">
-        <v>77.07422512629186</v>
+        <v>75.32966001235908</v>
       </c>
       <c r="G132" t="n">
-        <v>3.298389844565489</v>
+        <v>3.242933116387595</v>
       </c>
       <c r="H132" t="n">
-        <v>11.21894073496716</v>
+        <v>10.95365741240149</v>
       </c>
       <c r="I132" t="n">
-        <v>62.55689454675915</v>
+        <v>61.13306948356984</v>
       </c>
       <c r="J132" t="n">
-        <v>7.853258514477014</v>
+        <v>7.667560188681051</v>
       </c>
       <c r="K132" t="n">
-        <v>3.365682220490149</v>
+        <v>3.286097223720451</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3926629257238508</v>
+        <v>0.3833780094340526</v>
       </c>
       <c r="M132" t="n">
-        <v>7.460595588753163</v>
+        <v>7.284182179246998</v>
       </c>
       <c r="N132" t="n">
-        <v>3.29612883836247</v>
+        <v>3.220958335364516</v>
       </c>
       <c r="O132" t="n">
-        <v>58.45135140029445</v>
+        <v>57.11832781379744</v>
       </c>
       <c r="P132" t="n">
-        <v>4.175096528592461</v>
+        <v>4.079880558128388</v>
       </c>
       <c r="Q132" t="n">
-        <v>4.175096528592461</v>
+        <v>4.079880558128388</v>
       </c>
     </row>
     <row r="133">
@@ -7468,52 +7468,52 @@
         <v>2031</v>
       </c>
       <c r="B133" t="n">
-        <v>191.2614054660062</v>
+        <v>179.4820390640085</v>
       </c>
       <c r="C133" t="n">
-        <v>252.0288784433762</v>
+        <v>238.7522311723569</v>
       </c>
       <c r="D133" t="n">
-        <v>14.97709615303167</v>
+        <v>14.62181938377533</v>
       </c>
       <c r="E133" t="n">
-        <v>252.0288784433762</v>
+        <v>238.7522311723568</v>
       </c>
       <c r="F133" t="n">
-        <v>83.30666449908728</v>
+        <v>81.28418181402868</v>
       </c>
       <c r="G133" t="n">
-        <v>3.575539098664273</v>
+        <v>3.50311708547751</v>
       </c>
       <c r="H133" t="n">
-        <v>12.28380488101353</v>
+        <v>11.96965310054636</v>
       </c>
       <c r="I133" t="n">
-        <v>67.44732051940946</v>
+        <v>65.81141162800508</v>
       </c>
       <c r="J133" t="n">
-        <v>8.598663416709462</v>
+        <v>8.378757170382446</v>
       </c>
       <c r="K133" t="n">
-        <v>3.685141464304055</v>
+        <v>3.590895930163906</v>
       </c>
       <c r="L133" t="n">
-        <v>0.4299331708354731</v>
+        <v>0.4189378585191224</v>
       </c>
       <c r="M133" t="n">
-        <v>8.16873024587399</v>
+        <v>7.959819311863323</v>
       </c>
       <c r="N133" t="n">
-        <v>3.556623099185672</v>
+        <v>3.470115377908447</v>
       </c>
       <c r="O133" t="n">
-        <v>62.62027736632907</v>
+        <v>61.09716475370804</v>
       </c>
       <c r="P133" t="n">
-        <v>4.955561518198704</v>
+        <v>4.835027426552435</v>
       </c>
       <c r="Q133" t="n">
-        <v>4.955561518198704</v>
+        <v>4.835027426552435</v>
       </c>
     </row>
     <row r="134">
@@ -7521,52 +7521,52 @@
         <v>2032</v>
       </c>
       <c r="B134" t="n">
-        <v>198.7785760052341</v>
+        <v>186.6182960047205</v>
       </c>
       <c r="C134" t="n">
-        <v>262.2817453070928</v>
+        <v>248.7270327870399</v>
       </c>
       <c r="D134" t="n">
-        <v>18.53677577498413</v>
+        <v>17.77660222904192</v>
       </c>
       <c r="E134" t="n">
-        <v>262.2817453070928</v>
+        <v>248.7270327870399</v>
       </c>
       <c r="F134" t="n">
-        <v>90.24293750286893</v>
+        <v>87.87953741193182</v>
       </c>
       <c r="G134" t="n">
-        <v>3.88510057987671</v>
+        <v>3.789706873656663</v>
       </c>
       <c r="H134" t="n">
-        <v>13.49252648537261</v>
+        <v>13.11732349948515</v>
       </c>
       <c r="I134" t="n">
-        <v>72.86531043761964</v>
+        <v>70.97250703878973</v>
       </c>
       <c r="J134" t="n">
-        <v>9.44476853976083</v>
+        <v>9.182126449639611</v>
       </c>
       <c r="K134" t="n">
-        <v>4.047757945611785</v>
+        <v>3.935197049845549</v>
       </c>
       <c r="L134" t="n">
-        <v>0.4722384269880416</v>
+        <v>0.4591063224819806</v>
       </c>
       <c r="M134" t="n">
-        <v>8.972530112772789</v>
+        <v>8.72302012715763</v>
       </c>
       <c r="N134" t="n">
-        <v>3.845653419161581</v>
+        <v>3.745385204431767</v>
       </c>
       <c r="O134" t="n">
-        <v>67.22202176694447</v>
+        <v>65.46933337346729</v>
       </c>
       <c r="P134" t="n">
-        <v>5.845393197125605</v>
+        <v>5.692985510736287</v>
       </c>
       <c r="Q134" t="n">
-        <v>5.845393197125605</v>
+        <v>5.692985510736287</v>
       </c>
     </row>
     <row r="135">
@@ -7574,52 +7574,52 @@
         <v>2033</v>
       </c>
       <c r="B135" t="n">
-        <v>206.0269812960533</v>
+        <v>193.5206269846865</v>
       </c>
       <c r="C135" t="n">
-        <v>272.3827372685247</v>
+        <v>258.589229112944</v>
       </c>
       <c r="D135" t="n">
-        <v>22.63639610727108</v>
+        <v>21.4114167341288</v>
       </c>
       <c r="E135" t="n">
-        <v>272.3827372685247</v>
+        <v>258.5892291129441</v>
       </c>
       <c r="F135" t="n">
-        <v>97.904781748254</v>
+        <v>95.1350391872873</v>
       </c>
       <c r="G135" t="n">
-        <v>4.228832190630408</v>
+        <v>4.103440384775466</v>
       </c>
       <c r="H135" t="n">
-        <v>14.85505438516844</v>
+        <v>14.40548785353953</v>
       </c>
       <c r="I135" t="n">
-        <v>78.82089517245524</v>
+        <v>76.62611094897271</v>
       </c>
       <c r="J135" t="n">
-        <v>10.39853806961791</v>
+        <v>10.08384149747767</v>
       </c>
       <c r="K135" t="n">
-        <v>4.456516315550534</v>
+        <v>4.32164635606186</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5199269034808957</v>
+        <v>0.5041920748738836</v>
       </c>
       <c r="M135" t="n">
-        <v>9.878611166137016</v>
+        <v>9.579649422603788</v>
       </c>
       <c r="N135" t="n">
-        <v>4.163870574400289</v>
+        <v>4.047387865251713</v>
       </c>
       <c r="O135" t="n">
-        <v>72.25703403442634</v>
+        <v>70.23567075500139</v>
       </c>
       <c r="P135" t="n">
-        <v>6.856506879179142</v>
+        <v>6.664698684781151</v>
       </c>
       <c r="Q135" t="n">
-        <v>6.856506879179142</v>
+        <v>6.664698684781151</v>
       </c>
     </row>
     <row r="136">
@@ -7627,52 +7627,52 @@
         <v>2034</v>
       </c>
       <c r="B136" t="n">
-        <v>212.9923262898564</v>
+        <v>200.1723053036394</v>
       </c>
       <c r="C136" t="n">
-        <v>282.3373230080605</v>
+        <v>268.3390237933873</v>
       </c>
       <c r="D136" t="n">
-        <v>27.26891367638092</v>
+        <v>25.52495934627066</v>
       </c>
       <c r="E136" t="n">
-        <v>282.3373230080606</v>
+        <v>268.3390237933874</v>
       </c>
       <c r="F136" t="n">
-        <v>106.3068438491957</v>
+        <v>103.067598088192</v>
       </c>
       <c r="G136" t="n">
-        <v>4.60799080226397</v>
+        <v>4.44477931343591</v>
       </c>
       <c r="H136" t="n">
-        <v>16.38036132479276</v>
+        <v>15.84257872630101</v>
       </c>
       <c r="I136" t="n">
-        <v>85.31849172213856</v>
+        <v>82.78024004845537</v>
       </c>
       <c r="J136" t="n">
-        <v>11.46625292735494</v>
+        <v>11.08980510841071</v>
       </c>
       <c r="K136" t="n">
-        <v>4.914108397437832</v>
+        <v>4.752773617890304</v>
       </c>
       <c r="L136" t="n">
-        <v>0.5733126463677469</v>
+        <v>0.5544902554205353</v>
       </c>
       <c r="M136" t="n">
-        <v>10.89294028098719</v>
+        <v>10.53531485299017</v>
       </c>
       <c r="N136" t="n">
-        <v>4.511630005978833</v>
+        <v>4.376650683317282</v>
       </c>
       <c r="O136" t="n">
-        <v>77.72034623632871</v>
+        <v>75.39510243794572</v>
       </c>
       <c r="P136" t="n">
-        <v>8.000623877269131</v>
+        <v>7.761260545082649</v>
       </c>
       <c r="Q136" t="n">
-        <v>8.000623877269131</v>
+        <v>7.761260545082649</v>
       </c>
     </row>
     <row r="137">
@@ -7680,52 +7680,52 @@
         <v>2035</v>
       </c>
       <c r="B137" t="n">
-        <v>219.7188157510194</v>
+        <v>206.6143531246682</v>
       </c>
       <c r="C137" t="n">
-        <v>292.2278516132248</v>
+        <v>278.053884754177</v>
       </c>
       <c r="D137" t="n">
-        <v>32.42845902584374</v>
+        <v>30.11946666927938</v>
       </c>
       <c r="E137" t="n">
-        <v>292.2278516132249</v>
+        <v>278.053884754177</v>
       </c>
       <c r="F137" t="n">
-        <v>115.4847618325242</v>
+        <v>111.7190317822366</v>
       </c>
       <c r="G137" t="n">
-        <v>5.024240897735652</v>
+        <v>4.814823046670377</v>
       </c>
       <c r="H137" t="n">
-        <v>18.08141172887304</v>
+        <v>17.44147942526644</v>
       </c>
       <c r="I137" t="n">
-        <v>92.37910920591547</v>
+        <v>89.46272931030022</v>
       </c>
       <c r="J137" t="n">
-        <v>12.65698821021113</v>
+        <v>12.20903559768651</v>
       </c>
       <c r="K137" t="n">
-        <v>5.424423518661912</v>
+        <v>5.232443827579933</v>
       </c>
       <c r="L137" t="n">
-        <v>0.6328494105105564</v>
+        <v>0.6104517798843256</v>
       </c>
       <c r="M137" t="n">
-        <v>12.02413879970057</v>
+        <v>11.59858381780218</v>
       </c>
       <c r="N137" t="n">
-        <v>4.890176636228875</v>
+        <v>4.734758656893999</v>
       </c>
       <c r="O137" t="n">
-        <v>83.62202047951376</v>
+        <v>80.96437303288738</v>
       </c>
       <c r="P137" t="n">
-        <v>9.291335608834864</v>
+        <v>8.996041448098596</v>
       </c>
       <c r="Q137" t="n">
-        <v>9.291335608834864</v>
+        <v>8.996041448098596</v>
       </c>
     </row>
     <row r="138">
@@ -7733,52 +7733,52 @@
         <v>2036</v>
       </c>
       <c r="B138" t="n">
-        <v>226.291891440465</v>
+        <v>212.9446406939977</v>
       </c>
       <c r="C138" t="n">
-        <v>302.2010133971123</v>
+        <v>287.8967379732956</v>
       </c>
       <c r="D138" t="n">
-        <v>38.14713780898632</v>
+        <v>35.23121202377429</v>
       </c>
       <c r="E138" t="n">
-        <v>302.2010133971123</v>
+        <v>287.8967379732956</v>
       </c>
       <c r="F138" t="n">
-        <v>125.5404801498808</v>
+        <v>121.1992195017853</v>
       </c>
       <c r="G138" t="n">
-        <v>5.48125934395078</v>
+        <v>5.216788656446675</v>
       </c>
       <c r="H138" t="n">
-        <v>19.98348000769622</v>
+        <v>19.22747424094078</v>
       </c>
       <c r="I138" t="n">
-        <v>100.075740798234</v>
+        <v>96.75495660439825</v>
       </c>
       <c r="J138" t="n">
-        <v>13.98843600538735</v>
+        <v>13.45923196865855</v>
       </c>
       <c r="K138" t="n">
-        <v>5.995044002308865</v>
+        <v>5.768242272282233</v>
       </c>
       <c r="L138" t="n">
-        <v>0.6994218002693677</v>
+        <v>0.6729615984329274</v>
       </c>
       <c r="M138" t="n">
-        <v>13.28901420511799</v>
+        <v>12.78627037022562</v>
       </c>
       <c r="N138" t="n">
-        <v>5.303539240027138</v>
+        <v>5.126159943834027</v>
       </c>
       <c r="O138" t="n">
-        <v>90.01873936739392</v>
+        <v>87.00802144667621</v>
       </c>
       <c r="P138" t="n">
-        <v>10.74850619312167</v>
+        <v>10.38901748617029</v>
       </c>
       <c r="Q138" t="n">
-        <v>10.74850619312167</v>
+        <v>10.38901748617029</v>
       </c>
     </row>
     <row r="139">
@@ -7786,52 +7786,52 @@
         <v>2037</v>
       </c>
       <c r="B139" t="n">
-        <v>232.9759649407333</v>
+        <v>219.4104461485354</v>
       </c>
       <c r="C139" t="n">
-        <v>312.6485504712073</v>
+        <v>298.2404323246339</v>
       </c>
       <c r="D139" t="n">
-        <v>44.49890649407669</v>
+        <v>40.9426347693363</v>
       </c>
       <c r="E139" t="n">
-        <v>312.6485504712073</v>
+        <v>298.2404323246339</v>
       </c>
       <c r="F139" t="n">
-        <v>136.6935773161424</v>
+        <v>131.7342229149502</v>
       </c>
       <c r="G139" t="n">
-        <v>5.986743606089196</v>
+        <v>5.65777981449247</v>
       </c>
       <c r="H139" t="n">
-        <v>22.13364040734454</v>
+        <v>21.24718885085996</v>
       </c>
       <c r="I139" t="n">
-        <v>108.5731933027088</v>
+        <v>104.8292542495976</v>
       </c>
       <c r="J139" t="n">
-        <v>15.49354828514118</v>
+        <v>14.87303219560198</v>
       </c>
       <c r="K139" t="n">
-        <v>6.640092122203364</v>
+        <v>6.374156655257992</v>
       </c>
       <c r="L139" t="n">
-        <v>0.774677414257059</v>
+        <v>0.743651609780099</v>
       </c>
       <c r="M139" t="n">
-        <v>14.71887087088412</v>
+        <v>14.12938058582188</v>
       </c>
       <c r="N139" t="n">
-        <v>5.760664271245611</v>
+        <v>5.560170545242787</v>
       </c>
       <c r="O139" t="n">
-        <v>97.04799075625107</v>
+        <v>93.67033978552345</v>
       </c>
       <c r="P139" t="n">
-        <v>12.40463039741555</v>
+        <v>11.97290057408947</v>
       </c>
       <c r="Q139" t="n">
-        <v>12.40463039741555</v>
+        <v>11.97290057408947</v>
       </c>
     </row>
     <row r="140">
@@ -7839,52 +7839,52 @@
         <v>2038</v>
       </c>
       <c r="B140" t="n">
-        <v>240.113855437183</v>
+        <v>226.3509150930307</v>
       </c>
       <c r="C140" t="n">
-        <v>324.0901283611206</v>
+        <v>309.6039129810488</v>
       </c>
       <c r="D140" t="n">
-        <v>51.64093929410521</v>
+        <v>47.41010804436546</v>
       </c>
       <c r="E140" t="n">
-        <v>324.0901283611208</v>
+        <v>309.6039129810488</v>
       </c>
       <c r="F140" t="n">
-        <v>149.3088990799846</v>
+        <v>143.690161583008</v>
       </c>
       <c r="G140" t="n">
-        <v>6.55393885046582</v>
+        <v>6.150050075235977</v>
       </c>
       <c r="H140" t="n">
-        <v>24.6056045637981</v>
+        <v>23.57281706555787</v>
       </c>
       <c r="I140" t="n">
-        <v>118.1493556657208</v>
+        <v>113.9672944422139</v>
       </c>
       <c r="J140" t="n">
-        <v>17.22392319465868</v>
+        <v>16.50097194589053</v>
       </c>
       <c r="K140" t="n">
-        <v>7.381681369139439</v>
+        <v>7.071845119667372</v>
       </c>
       <c r="L140" t="n">
-        <v>0.8611961597329345</v>
+        <v>0.8250485972945266</v>
       </c>
       <c r="M140" t="n">
-        <v>16.36272703492575</v>
+        <v>15.67592334859601</v>
       </c>
       <c r="N140" t="n">
-        <v>6.276551851743001</v>
+        <v>6.051956978094084</v>
       </c>
       <c r="O140" t="n">
-        <v>104.943946961143</v>
+        <v>101.1887206737331</v>
       </c>
       <c r="P140" t="n">
-        <v>14.31053822197405</v>
+        <v>13.79846191005451</v>
       </c>
       <c r="Q140" t="n">
-        <v>14.31053822197405</v>
+        <v>13.79846191005451</v>
       </c>
     </row>
     <row r="141">
@@ -7892,52 +7892,52 @@
         <v>2039</v>
       </c>
       <c r="B141" t="n">
-        <v>248.1500148945091</v>
+        <v>234.2045006455352</v>
       </c>
       <c r="C141" t="n">
-        <v>337.193186084098</v>
+        <v>322.6519569784534</v>
       </c>
       <c r="D141" t="n">
-        <v>59.77775110890648</v>
+        <v>54.82919499767799</v>
       </c>
       <c r="E141" t="n">
-        <v>337.1931860840979</v>
+        <v>322.6519569784533</v>
       </c>
       <c r="F141" t="n">
-        <v>163.8547747851431</v>
+        <v>157.5279456459137</v>
       </c>
       <c r="G141" t="n">
-        <v>7.201172365674398</v>
+        <v>6.710417929496795</v>
       </c>
       <c r="H141" t="n">
-        <v>27.49100024155525</v>
+        <v>26.29295233307023</v>
       </c>
       <c r="I141" t="n">
-        <v>129.1626021779136</v>
+        <v>124.5245753833468</v>
       </c>
       <c r="J141" t="n">
-        <v>19.24370016908866</v>
+        <v>18.40506663314916</v>
       </c>
       <c r="K141" t="n">
-        <v>8.247300072466571</v>
+        <v>7.887885699921068</v>
       </c>
       <c r="L141" t="n">
-        <v>0.9621850084544329</v>
+        <v>0.9202533316574582</v>
       </c>
       <c r="M141" t="n">
-        <v>18.28151516063423</v>
+        <v>17.4848133014917</v>
       </c>
       <c r="N141" t="n">
-        <v>6.870495112519007</v>
+        <v>6.620623054163389</v>
       </c>
       <c r="O141" t="n">
-        <v>114.0044155670654</v>
+        <v>109.8582052120845</v>
       </c>
       <c r="P141" t="n">
-        <v>16.53499157079574</v>
+        <v>15.93363281701989</v>
       </c>
       <c r="Q141" t="n">
-        <v>16.53499157079574</v>
+        <v>15.93363281701989</v>
       </c>
     </row>
     <row r="142">
@@ -7945,52 +7945,52 @@
         <v>2040</v>
       </c>
       <c r="B142" t="n">
-        <v>257.5070743631541</v>
+        <v>243.3801913475593</v>
       </c>
       <c r="C142" t="n">
-        <v>352.5877468367814</v>
+        <v>338.0014727091076</v>
       </c>
       <c r="D142" t="n">
-        <v>69.08514720895184</v>
+        <v>63.36024881989379</v>
       </c>
       <c r="E142" t="n">
-        <v>352.5877468367814</v>
+        <v>338.0014727091075</v>
       </c>
       <c r="F142" t="n">
-        <v>180.753933786834</v>
+        <v>173.6527972390048</v>
       </c>
       <c r="G142" t="n">
-        <v>7.947807805171259</v>
+        <v>7.356449679592164</v>
       </c>
       <c r="H142" t="n">
-        <v>30.86989270649473</v>
+        <v>29.48322986283425</v>
       </c>
       <c r="I142" t="n">
-        <v>141.9362332751674</v>
+        <v>136.8131176965787</v>
       </c>
       <c r="J142" t="n">
-        <v>21.60892489454629</v>
+        <v>20.63826090398398</v>
       </c>
       <c r="K142" t="n">
-        <v>9.260967811948415</v>
+        <v>8.844968958850277</v>
       </c>
       <c r="L142" t="n">
-        <v>1.080446244727315</v>
+        <v>1.031913045199199</v>
       </c>
       <c r="M142" t="n">
-        <v>20.52847864981898</v>
+        <v>19.60634785878478</v>
       </c>
       <c r="N142" t="n">
-        <v>7.559860054355789</v>
+        <v>7.282904332771444</v>
       </c>
       <c r="O142" t="n">
-        <v>124.4856955617253</v>
+        <v>119.9251580129698</v>
       </c>
       <c r="P142" t="n">
-        <v>19.15164547103467</v>
+        <v>18.45002430968766</v>
       </c>
       <c r="Q142" t="n">
-        <v>19.15164547103467</v>
+        <v>18.45002430968766</v>
       </c>
     </row>
     <row r="143">
@@ -7998,52 +7998,52 @@
         <v>2041</v>
       </c>
       <c r="B143" t="n">
-        <v>269.8053115945357</v>
+        <v>255.057067162839</v>
       </c>
       <c r="C143" t="n">
-        <v>371.814203732589</v>
+        <v>356.6939430546898</v>
       </c>
       <c r="D143" t="n">
-        <v>79.75669535422267</v>
+        <v>73.23320820146428</v>
       </c>
       <c r="E143" t="n">
-        <v>371.8142037325891</v>
+        <v>356.6939430546898</v>
       </c>
       <c r="F143" t="n">
-        <v>200.1383426835404</v>
+        <v>192.172838985857</v>
       </c>
       <c r="G143" t="n">
-        <v>8.806145323250016</v>
+        <v>8.099066256051501</v>
       </c>
       <c r="H143" t="n">
-        <v>34.7632021658038</v>
+        <v>33.15996265201581</v>
       </c>
       <c r="I143" t="n">
-        <v>156.5689951944865</v>
+        <v>150.9138100777892</v>
       </c>
       <c r="J143" t="n">
-        <v>24.33424151606268</v>
+        <v>23.21197385641107</v>
       </c>
       <c r="K143" t="n">
-        <v>10.42896064974115</v>
+        <v>9.947988795604743</v>
       </c>
       <c r="L143" t="n">
-        <v>1.216712075803134</v>
+        <v>1.160598692820553</v>
       </c>
       <c r="M143" t="n">
-        <v>23.11752944025955</v>
+        <v>22.05137516359051</v>
       </c>
       <c r="N143" t="n">
-        <v>8.349897792211397</v>
+        <v>8.043089943669713</v>
       </c>
       <c r="O143" t="n">
-        <v>136.4373299247343</v>
+        <v>131.4240896795631</v>
       </c>
       <c r="P143" t="n">
-        <v>22.21072812728232</v>
+        <v>21.39461925016144</v>
       </c>
       <c r="Q143" t="n">
-        <v>22.21072812728232</v>
+        <v>21.39461925016144</v>
       </c>
     </row>
     <row r="144">
@@ -8051,52 +8051,52 @@
         <v>2042</v>
       </c>
       <c r="B144" t="n">
-        <v>283.6027308647297</v>
+        <v>268.0973376310944</v>
       </c>
       <c r="C144" t="n">
-        <v>393.4646536655009</v>
+        <v>377.6469106371355</v>
       </c>
       <c r="D144" t="n">
-        <v>91.38798485324884</v>
+        <v>84.00451704749224</v>
       </c>
       <c r="E144" t="n">
-        <v>393.4646536655009</v>
+        <v>377.6469106371355</v>
       </c>
       <c r="F144" t="n">
-        <v>221.6138389984716</v>
+        <v>212.6751240018931</v>
       </c>
       <c r="G144" t="n">
-        <v>9.771830941608334</v>
+        <v>8.933976577120449</v>
       </c>
       <c r="H144" t="n">
-        <v>39.0883369568142</v>
+        <v>37.23828359814896</v>
       </c>
       <c r="I144" t="n">
-        <v>172.7536711000489</v>
+        <v>166.502863826623</v>
       </c>
       <c r="J144" t="n">
-        <v>27.36183586976993</v>
+        <v>26.06679851870427</v>
       </c>
       <c r="K144" t="n">
-        <v>11.72650108704426</v>
+        <v>11.17148507944469</v>
       </c>
       <c r="L144" t="n">
-        <v>1.368091793488497</v>
+        <v>1.303339925935214</v>
       </c>
       <c r="M144" t="n">
-        <v>25.99374407628144</v>
+        <v>24.76345859276906</v>
       </c>
       <c r="N144" t="n">
-        <v>9.224008609354652</v>
+        <v>8.883717445303391</v>
       </c>
       <c r="O144" t="n">
-        <v>149.5519262530035</v>
+        <v>144.0346721798523</v>
       </c>
       <c r="P144" t="n">
-        <v>25.70423732473497</v>
+        <v>24.75595928091211</v>
       </c>
       <c r="Q144" t="n">
-        <v>25.70423732473497</v>
+        <v>24.75595928091211</v>
       </c>
     </row>
     <row r="145">
@@ -8104,52 +8104,52 @@
         <v>2043</v>
       </c>
       <c r="B145" t="n">
-        <v>298.2046285795827</v>
+        <v>281.7599351137809</v>
       </c>
       <c r="C145" t="n">
-        <v>416.4597230231314</v>
+        <v>399.7148545799609</v>
       </c>
       <c r="D145" t="n">
-        <v>103.4381775946135</v>
+        <v>95.15557009743281</v>
       </c>
       <c r="E145" t="n">
-        <v>416.4597230231313</v>
+        <v>399.714854579961</v>
       </c>
       <c r="F145" t="n">
-        <v>244.1782119443476</v>
+        <v>234.1625259524348</v>
       </c>
       <c r="G145" t="n">
-        <v>10.81687295680877</v>
+        <v>9.835694832842133</v>
       </c>
       <c r="H145" t="n">
-        <v>43.64647999359784</v>
+        <v>41.52286407540862</v>
       </c>
       <c r="I145" t="n">
-        <v>189.7148589939412</v>
+        <v>182.8039670441835</v>
       </c>
       <c r="J145" t="n">
-        <v>30.55253599551851</v>
+        <v>29.06600485278603</v>
       </c>
       <c r="K145" t="n">
-        <v>13.09394399807936</v>
+        <v>12.45685922262258</v>
       </c>
       <c r="L145" t="n">
-        <v>1.527626799775926</v>
+        <v>1.453300242639302</v>
       </c>
       <c r="M145" t="n">
-        <v>29.02490919574259</v>
+        <v>27.61270461014672</v>
       </c>
       <c r="N145" t="n">
-        <v>10.14044014960104</v>
+        <v>9.763041313340318</v>
       </c>
       <c r="O145" t="n">
-        <v>163.1258805399154</v>
+        <v>157.0547912606013</v>
       </c>
       <c r="P145" t="n">
-        <v>29.54248230250436</v>
+        <v>28.4429936928648</v>
       </c>
       <c r="Q145" t="n">
-        <v>29.54248230250436</v>
+        <v>28.4429936928648</v>
       </c>
     </row>
     <row r="146">
@@ -8157,52 +8157,52 @@
         <v>2044</v>
       </c>
       <c r="B146" t="n">
-        <v>312.5410675845372</v>
+        <v>294.9592367172039</v>
       </c>
       <c r="C146" t="n">
-        <v>439.1851448560911</v>
+        <v>421.2562571814752</v>
       </c>
       <c r="D146" t="n">
-        <v>115.2155783399858</v>
+        <v>106.0469097624393</v>
       </c>
       <c r="E146" t="n">
-        <v>439.1851448560911</v>
+        <v>421.2562571814753</v>
       </c>
       <c r="F146" t="n">
-        <v>266.4822900962154</v>
+        <v>255.3337318940098</v>
       </c>
       <c r="G146" t="n">
-        <v>11.89317892617383</v>
+        <v>10.76117376063007</v>
       </c>
       <c r="H146" t="n">
-        <v>48.17848444432095</v>
+        <v>45.76635039450078</v>
       </c>
       <c r="I146" t="n">
-        <v>206.4106267257206</v>
+        <v>198.8062077388787</v>
       </c>
       <c r="J146" t="n">
-        <v>33.72493911102467</v>
+        <v>32.03644527615057</v>
       </c>
       <c r="K146" t="n">
-        <v>14.45354533329629</v>
+        <v>13.72990511835025</v>
       </c>
       <c r="L146" t="n">
-        <v>1.686246955551234</v>
+        <v>1.601822263807529</v>
       </c>
       <c r="M146" t="n">
-        <v>32.03869215547343</v>
+        <v>30.43462301234305</v>
       </c>
       <c r="N146" t="n">
-        <v>11.04320860295086</v>
+        <v>10.62680564286145</v>
       </c>
       <c r="O146" t="n">
-        <v>176.2496093030957</v>
+        <v>169.6038180600688</v>
       </c>
       <c r="P146" t="n">
-        <v>33.5713541529706</v>
+        <v>32.3054891542988</v>
       </c>
       <c r="Q146" t="n">
-        <v>33.5713541529706</v>
+        <v>32.3054891542988</v>
       </c>
     </row>
     <row r="147">
@@ -8210,52 +8210,52 @@
         <v>2045</v>
       </c>
       <c r="B147" t="n">
-        <v>325.6435388148945</v>
+        <v>306.7676838656045</v>
       </c>
       <c r="C147" t="n">
-        <v>460.2286270165629</v>
+        <v>440.9121971538107</v>
       </c>
       <c r="D147" t="n">
-        <v>126.2037802426122</v>
+        <v>116.238557178559</v>
       </c>
       <c r="E147" t="n">
-        <v>460.2286270165629</v>
+        <v>440.9121971538106</v>
       </c>
       <c r="F147" t="n">
-        <v>287.465051445029</v>
+        <v>275.2274339912868</v>
       </c>
       <c r="G147" t="n">
-        <v>12.95045308262887</v>
+        <v>11.66630718416576</v>
       </c>
       <c r="H147" t="n">
-        <v>52.49456056083711</v>
+        <v>49.79885921498895</v>
       </c>
       <c r="I147" t="n">
-        <v>222.020037801564</v>
+        <v>213.7622675921328</v>
       </c>
       <c r="J147" t="n">
-        <v>36.746192392586</v>
+        <v>34.85920145049224</v>
       </c>
       <c r="K147" t="n">
-        <v>15.74836816825114</v>
+        <v>14.93965776449667</v>
       </c>
       <c r="L147" t="n">
-        <v>1.8373096196293</v>
+        <v>1.742960072524612</v>
       </c>
       <c r="M147" t="n">
-        <v>34.90888277295669</v>
+        <v>33.11624137796761</v>
       </c>
       <c r="N147" t="n">
-        <v>11.88842029849073</v>
+        <v>11.43509626783145</v>
       </c>
       <c r="O147" t="n">
-        <v>188.2333213927699</v>
+        <v>181.0556909073312</v>
       </c>
       <c r="P147" t="n">
-        <v>37.64666427855397</v>
+        <v>36.21113818146623</v>
       </c>
       <c r="Q147" t="n">
-        <v>37.64666427855397</v>
+        <v>36.21113818146623</v>
       </c>
     </row>
     <row r="148">
@@ -8263,52 +8263,52 @@
         <v>2046</v>
       </c>
       <c r="B148" t="n">
-        <v>337.3228844495869</v>
+        <v>317.0956488720854</v>
       </c>
       <c r="C148" t="n">
-        <v>479.4093042004354</v>
+        <v>458.6478657949548</v>
       </c>
       <c r="D148" t="n">
-        <v>136.4720552148237</v>
+        <v>125.879502234837</v>
       </c>
       <c r="E148" t="n">
-        <v>479.4093042004353</v>
+        <v>458.6478657949548</v>
       </c>
       <c r="F148" t="n">
-        <v>307.185939840958</v>
+        <v>294.0402597150579</v>
       </c>
       <c r="G148" t="n">
-        <v>13.96649250867097</v>
+        <v>12.53318691747243</v>
       </c>
       <c r="H148" t="n">
-        <v>56.64064880395148</v>
+        <v>53.68940534091659</v>
       </c>
       <c r="I148" t="n">
-        <v>236.5787985283353</v>
+        <v>227.8176674566686</v>
       </c>
       <c r="J148" t="n">
-        <v>39.64845416276602</v>
+        <v>37.58258373864159</v>
       </c>
       <c r="K148" t="n">
-        <v>16.99219464118545</v>
+        <v>16.10682160227497</v>
       </c>
       <c r="L148" t="n">
-        <v>1.982422708138302</v>
+        <v>1.879129186932079</v>
       </c>
       <c r="M148" t="n">
-        <v>37.66603145462773</v>
+        <v>35.70345455170951</v>
       </c>
       <c r="N148" t="n">
-        <v>12.67854965847602</v>
+        <v>12.1962244529472</v>
       </c>
       <c r="O148" t="n">
-        <v>199.1377533024634</v>
+        <v>191.5620320742907</v>
       </c>
       <c r="P148" t="n">
-        <v>41.75469020858102</v>
+        <v>40.16623253170609</v>
       </c>
       <c r="Q148" t="n">
-        <v>41.75469020858102</v>
+        <v>40.16623253170609</v>
       </c>
     </row>
     <row r="149">
@@ -8316,52 +8316,52 @@
         <v>2047</v>
       </c>
       <c r="B149" t="n">
-        <v>348.6841520237479</v>
+        <v>327.1615814054412</v>
       </c>
       <c r="C149" t="n">
-        <v>498.5357848192107</v>
+        <v>476.4547532614316</v>
       </c>
       <c r="D149" t="n">
-        <v>146.9203767847928</v>
+        <v>135.9162856506358</v>
       </c>
       <c r="E149" t="n">
-        <v>498.5357848192107</v>
+        <v>476.4547532614315</v>
       </c>
       <c r="F149" t="n">
-        <v>327.3680939825205</v>
+        <v>313.6161650632701</v>
       </c>
       <c r="G149" t="n">
-        <v>14.97650495067231</v>
+        <v>13.39568347734869</v>
       </c>
       <c r="H149" t="n">
-        <v>61.00062147461901</v>
+        <v>57.83677193921276</v>
       </c>
       <c r="I149" t="n">
-        <v>251.3909675572292</v>
+        <v>242.38370964671</v>
       </c>
       <c r="J149" t="n">
-        <v>42.7004350322333</v>
+        <v>40.48574035744889</v>
       </c>
       <c r="K149" t="n">
-        <v>18.3001864423857</v>
+        <v>17.35103158176381</v>
       </c>
       <c r="L149" t="n">
-        <v>2.135021751611665</v>
+        <v>2.024287017872445</v>
       </c>
       <c r="M149" t="n">
-        <v>40.56541328062163</v>
+        <v>38.46145333957644</v>
       </c>
       <c r="N149" t="n">
-        <v>13.48455769998074</v>
+        <v>12.98673706142367</v>
       </c>
       <c r="O149" t="n">
-        <v>210.0894089657</v>
+        <v>202.3333634169807</v>
       </c>
       <c r="P149" t="n">
-        <v>46.1171873339341</v>
+        <v>44.41464075006893</v>
       </c>
       <c r="Q149" t="n">
-        <v>46.1171873339341</v>
+        <v>44.41464075006893</v>
       </c>
     </row>
     <row r="150">
@@ -8369,52 +8369,52 @@
         <v>2048</v>
       </c>
       <c r="B150" t="n">
-        <v>361.9622900679457</v>
+        <v>339.2334374143427</v>
       </c>
       <c r="C150" t="n">
-        <v>521.1024429048521</v>
+        <v>497.9081051645924</v>
       </c>
       <c r="D150" t="n">
-        <v>159.0452311787882</v>
+        <v>147.8148962113497</v>
       </c>
       <c r="E150" t="n">
-        <v>521.102442904852</v>
+        <v>497.9081051645925</v>
       </c>
       <c r="F150" t="n">
-        <v>351.0106679950528</v>
+        <v>336.9633699705659</v>
       </c>
       <c r="G150" t="n">
-        <v>16.0786848206375</v>
+        <v>14.34277632677703</v>
       </c>
       <c r="H150" t="n">
-        <v>66.20179351361278</v>
+        <v>62.85882765263148</v>
       </c>
       <c r="I150" t="n">
-        <v>268.7301896608025</v>
+        <v>259.7617659911576</v>
       </c>
       <c r="J150" t="n">
-        <v>46.34125545952889</v>
+        <v>44.00117935684204</v>
       </c>
       <c r="K150" t="n">
-        <v>19.8605380540838</v>
+        <v>18.85764829578945</v>
       </c>
       <c r="L150" t="n">
-        <v>2.317062772976444</v>
+        <v>2.200058967842101</v>
       </c>
       <c r="M150" t="n">
-        <v>44.02419268655244</v>
+        <v>41.80112038899994</v>
       </c>
       <c r="N150" t="n">
-        <v>14.42953638574432</v>
+        <v>13.93097071434734</v>
       </c>
       <c r="O150" t="n">
-        <v>222.9844356143689</v>
+        <v>215.2799341057143</v>
       </c>
       <c r="P150" t="n">
-        <v>51.17675571477317</v>
+        <v>49.40850946688522</v>
       </c>
       <c r="Q150" t="n">
-        <v>51.17675571477317</v>
+        <v>49.40850946688522</v>
       </c>
     </row>
     <row r="151">
@@ -8422,52 +8422,52 @@
         <v>2049</v>
       </c>
       <c r="B151" t="n">
-        <v>379.4019107266312</v>
+        <v>355.4144976022116</v>
       </c>
       <c r="C151" t="n">
-        <v>550.5180224866436</v>
+        <v>526.2400912192411</v>
       </c>
       <c r="D151" t="n">
-        <v>174.1153440951588</v>
+        <v>162.7145721775377</v>
       </c>
       <c r="E151" t="n">
-        <v>550.5180224866436</v>
+        <v>526.240091219241</v>
       </c>
       <c r="F151" t="n">
-        <v>380.7983294972809</v>
+        <v>366.5781090919286</v>
       </c>
       <c r="G151" t="n">
-        <v>17.3967970181538</v>
+        <v>15.4831977292261</v>
       </c>
       <c r="H151" t="n">
-        <v>72.77265377232766</v>
+        <v>69.2398556277732</v>
       </c>
       <c r="I151" t="n">
-        <v>290.6288787068004</v>
+        <v>281.8550557349297</v>
       </c>
       <c r="J151" t="n">
-        <v>50.94085764062941</v>
+        <v>48.46789893944126</v>
       </c>
       <c r="K151" t="n">
-        <v>21.83179613169832</v>
+        <v>20.77195668833197</v>
       </c>
       <c r="L151" t="n">
-        <v>2.54704288203147</v>
+        <v>2.423394946972063</v>
       </c>
       <c r="M151" t="n">
-        <v>48.39381475859793</v>
+        <v>46.04450399246919</v>
       </c>
       <c r="N151" t="n">
-        <v>15.62303374192492</v>
+        <v>15.13135062116305</v>
       </c>
       <c r="O151" t="n">
-        <v>239.4490304845693</v>
+        <v>231.9131671870257</v>
       </c>
       <c r="P151" t="n">
-        <v>57.38861061200416</v>
+        <v>55.58249461507225</v>
       </c>
       <c r="Q151" t="n">
-        <v>57.38861061200416</v>
+        <v>55.58249461507225</v>
       </c>
     </row>
     <row r="152">
@@ -8475,52 +8475,52 @@
         <v>2050</v>
       </c>
       <c r="B152" t="n">
-        <v>401.2538610224766</v>
+        <v>375.8615299044272</v>
       </c>
       <c r="C152" t="n">
-        <v>587.1277118130001</v>
+        <v>561.6154857983338</v>
       </c>
       <c r="D152" t="n">
-        <v>192.2292835108902</v>
+        <v>180.4724370201221</v>
       </c>
       <c r="E152" t="n">
-        <v>587.127711813</v>
+        <v>561.615485798334</v>
       </c>
       <c r="F152" t="n">
-        <v>417.0082888372175</v>
+        <v>402.3794354289444</v>
       </c>
       <c r="G152" t="n">
-        <v>19.00498957257069</v>
+        <v>16.87796920365071</v>
       </c>
       <c r="H152" t="n">
-        <v>80.71110710747494</v>
+        <v>76.91157854634235</v>
       </c>
       <c r="I152" t="n">
-        <v>317.2921921571711</v>
+        <v>308.5898876789516</v>
       </c>
       <c r="J152" t="n">
-        <v>56.49777497523236</v>
+        <v>53.83810498243961</v>
       </c>
       <c r="K152" t="n">
-        <v>24.21333213224244</v>
+        <v>23.0734735639027</v>
       </c>
       <c r="L152" t="n">
-        <v>2.824888748761619</v>
+        <v>2.691905249121981</v>
       </c>
       <c r="M152" t="n">
-        <v>53.67288622647072</v>
+        <v>51.14619973331763</v>
       </c>
       <c r="N152" t="n">
-        <v>17.07527621447068</v>
+        <v>16.58316806214269</v>
       </c>
       <c r="O152" t="n">
-        <v>259.5441984599544</v>
+        <v>252.0641545445689</v>
       </c>
       <c r="P152" t="n">
-        <v>64.88604961498861</v>
+        <v>63.01603863614223</v>
       </c>
       <c r="Q152" t="n">
-        <v>64.88604961498861</v>
+        <v>63.01603863614223</v>
       </c>
     </row>
   </sheetData>

--- a/results/flows_per_year.xlsx
+++ b/results/flows_per_year.xlsx
@@ -3175,46 +3175,46 @@
         <v>1950</v>
       </c>
       <c r="B52" t="n">
-        <v>0.744584189818023</v>
+        <v>0.9832544657424795</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7445924209023935</v>
+        <v>0.9832646556115289</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7445924209023934</v>
+        <v>0.983264655611529</v>
       </c>
       <c r="F52" t="n">
-        <v>2.358216662950798e-05</v>
+        <v>3.114121269383217e-05</v>
       </c>
       <c r="G52" t="n">
-        <v>1.491786729175064e-05</v>
+        <v>2.04150347470797e-05</v>
       </c>
       <c r="H52" t="n">
-        <v>2.999180539992922e-07</v>
+        <v>3.712907750798934e-07</v>
       </c>
       <c r="I52" t="n">
-        <v>8.364381283758035e-06</v>
+        <v>1.035488717167258e-05</v>
       </c>
       <c r="J52" t="n">
-        <v>2.099426377995045e-07</v>
+        <v>2.599035425559254e-07</v>
       </c>
       <c r="K52" t="n">
-        <v>8.997541619978765e-08</v>
+        <v>1.113872325239681e-07</v>
       </c>
       <c r="L52" t="n">
-        <v>1.049713188997523e-08</v>
+        <v>1.299517712779627e-08</v>
       </c>
       <c r="M52" t="n">
-        <v>1.994455059095293e-07</v>
+        <v>2.469083654281291e-07</v>
       </c>
       <c r="N52" t="n">
-        <v>4.227178349978912e-07</v>
+        <v>5.233137202098276e-07</v>
       </c>
       <c r="O52" t="n">
-        <v>8.031638864959934e-06</v>
+        <v>9.942960683986723e-06</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3228,46 +3228,46 @@
         <v>1951</v>
       </c>
       <c r="B53" t="n">
-        <v>1.086052312017061</v>
+        <v>1.280747670472055</v>
       </c>
       <c r="C53" t="n">
-        <v>1.086080577761309</v>
+        <v>1.280781537684726</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.086080577761309</v>
+        <v>1.280781537684727</v>
       </c>
       <c r="F53" t="n">
-        <v>7.962006388732192e-05</v>
+        <v>0.0001015267333268332</v>
       </c>
       <c r="G53" t="n">
-        <v>4.986664888933396e-05</v>
+        <v>6.587703577853875e-05</v>
       </c>
       <c r="H53" t="n">
-        <v>1.029925903776508e-06</v>
+        <v>1.234027992056348e-06</v>
       </c>
       <c r="I53" t="n">
-        <v>2.87234890942115e-05</v>
+        <v>3.441566955623815e-05</v>
       </c>
       <c r="J53" t="n">
-        <v>7.209481326435558e-07</v>
+        <v>8.638195944394435e-07</v>
       </c>
       <c r="K53" t="n">
-        <v>3.089777711329526e-07</v>
+        <v>3.702083976169041e-07</v>
       </c>
       <c r="L53" t="n">
-        <v>3.604740663217779e-08</v>
+        <v>4.319097972197217e-08</v>
       </c>
       <c r="M53" t="n">
-        <v>6.849007260113779e-07</v>
+        <v>8.20628614717471e-07</v>
       </c>
       <c r="N53" t="n">
-        <v>1.451623343267223e-06</v>
+        <v>1.739293897692751e-06</v>
       </c>
       <c r="O53" t="n">
-        <v>2.758084352207723e-05</v>
+        <v>3.304658405616228e-05</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3281,46 +3281,46 @@
         <v>1952</v>
       </c>
       <c r="B54" t="n">
-        <v>1.15708731455863</v>
+        <v>1.371549067166585</v>
       </c>
       <c r="C54" t="n">
-        <v>1.157167372857787</v>
+        <v>1.371646330733605</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1.157167372857787</v>
+        <v>1.371646330733605</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0002223669135482678</v>
+        <v>0.000286265929050842</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0001380950196987331</v>
+        <v>0.0001838832269245864</v>
       </c>
       <c r="H54" t="n">
-        <v>2.917104017868508e-06</v>
+        <v>3.544016612062686e-06</v>
       </c>
       <c r="I54" t="n">
-        <v>8.135478983166609e-05</v>
+        <v>9.883868551419268e-05</v>
       </c>
       <c r="J54" t="n">
-        <v>2.041972812507956e-06</v>
+        <v>2.480811628443881e-06</v>
       </c>
       <c r="K54" t="n">
-        <v>8.751312053605526e-07</v>
+        <v>1.063204983618806e-06</v>
       </c>
       <c r="L54" t="n">
-        <v>1.020986406253978e-07</v>
+        <v>1.240405814221939e-07</v>
       </c>
       <c r="M54" t="n">
-        <v>1.939874171882557e-06</v>
+        <v>2.356771047021686e-06</v>
       </c>
       <c r="N54" t="n">
-        <v>4.111496051851336e-06</v>
+        <v>4.995094524890574e-06</v>
       </c>
       <c r="O54" t="n">
-        <v>7.811842498517535e-05</v>
+        <v>9.490679597292088e-05</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3334,46 +3334,46 @@
         <v>1953</v>
       </c>
       <c r="B55" t="n">
-        <v>1.228709516403379</v>
+        <v>1.463286043911202</v>
       </c>
       <c r="C55" t="n">
-        <v>1.228922436623395</v>
+        <v>1.463547867290413</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1.228922436623396</v>
+        <v>1.463547867290412</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0005810721301021295</v>
+        <v>0.0007537469413737727</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0003569455827163223</v>
+        <v>0.0004781433843101338</v>
       </c>
       <c r="H55" t="n">
-        <v>7.758226640277937e-06</v>
+        <v>9.540123129125985e-06</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0002163683207455289</v>
+        <v>0.0002660634339345133</v>
       </c>
       <c r="J55" t="n">
-        <v>5.430758648194555e-06</v>
+        <v>6.678086190388188e-06</v>
       </c>
       <c r="K55" t="n">
-        <v>2.32746799208338e-06</v>
+        <v>2.862036938737795e-06</v>
       </c>
       <c r="L55" t="n">
-        <v>2.715379324097278e-07</v>
+        <v>3.339043095194094e-07</v>
       </c>
       <c r="M55" t="n">
-        <v>5.159220715784826e-06</v>
+        <v>6.344181880868777e-06</v>
       </c>
       <c r="N55" t="n">
-        <v>1.093478943688062e-05</v>
+        <v>1.344627354366256e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0002077609993007318</v>
+        <v>0.0002554791973295887</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3387,46 +3387,46 @@
         <v>1954</v>
       </c>
       <c r="B56" t="n">
-        <v>1.30074879923361</v>
+        <v>1.555867180731192</v>
       </c>
       <c r="C56" t="n">
-        <v>1.301281823219264</v>
+        <v>1.556529274182774</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1.301281823219264</v>
+        <v>1.556529274182773</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001424732690721722</v>
+        <v>0.001858666681480654</v>
       </c>
       <c r="G56" t="n">
-        <v>0.000863654811087201</v>
+        <v>0.001161726206130952</v>
       </c>
       <c r="H56" t="n">
-        <v>1.942192660273344e-05</v>
+        <v>2.412486260825886e-05</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0005416559530317886</v>
+        <v>0.000672815612741442</v>
       </c>
       <c r="J56" t="n">
-        <v>1.359534862191341e-05</v>
+        <v>1.688740382578122e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>5.826577980820033e-06</v>
+        <v>7.237458782477661e-06</v>
       </c>
       <c r="L56" t="n">
-        <v>6.797674310956705e-07</v>
+        <v>8.443701912890606e-07</v>
       </c>
       <c r="M56" t="n">
-        <v>1.291558119081774e-05</v>
+        <v>1.604303363449215e-05</v>
       </c>
       <c r="N56" t="n">
-        <v>2.737412655063041e-05</v>
+        <v>3.400265357619596e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0005201084044619779</v>
+        <v>0.0006460504179477231</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3440,46 +3440,46 @@
         <v>1955</v>
       </c>
       <c r="B57" t="n">
-        <v>1.373057627924981</v>
+        <v>1.648966135797418</v>
       </c>
       <c r="C57" t="n">
-        <v>1.374313700583103</v>
+        <v>1.6505389715436</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1.374313700583102</v>
+        <v>1.6505389715436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003279985922641272</v>
+        <v>0.004295714231566949</v>
       </c>
       <c r="G57" t="n">
-        <v>0.001957804177249701</v>
+        <v>0.002640097656638805</v>
       </c>
       <c r="H57" t="n">
-        <v>4.576782964816963e-05</v>
+        <v>5.730980451674356e-05</v>
       </c>
       <c r="I57" t="n">
-        <v>0.001276413915743397</v>
+        <v>0.001598306770411403</v>
       </c>
       <c r="J57" t="n">
-        <v>3.203748075371873e-05</v>
+        <v>4.011686316172048e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>1.373034889445089e-05</v>
+        <v>1.719294135502306e-05</v>
       </c>
       <c r="L57" t="n">
-        <v>1.601874037685937e-06</v>
+        <v>2.005843158086023e-06</v>
       </c>
       <c r="M57" t="n">
-        <v>3.043560671603281e-05</v>
+        <v>3.811102000363445e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>6.45072132318924e-05</v>
+        <v>8.077498558832133e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>0.001225637051405955</v>
+        <v>0.001534724726178105</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3493,46 +3493,46 @@
         <v>1956</v>
       </c>
       <c r="B58" t="n">
-        <v>1.445518337807213</v>
+        <v>1.74270527508257</v>
       </c>
       <c r="C58" t="n">
-        <v>1.448303232313549</v>
+        <v>1.746213803759601</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1.448303232313549</v>
+        <v>1.746213803759602</v>
       </c>
       <c r="F58" t="n">
-        <v>0.007091562756200766</v>
+        <v>0.009308618605799636</v>
       </c>
       <c r="G58" t="n">
-        <v>0.004160094854794986</v>
+        <v>0.005615430524713336</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0001014738888948154</v>
+        <v>0.0001278411258837567</v>
       </c>
       <c r="I58" t="n">
-        <v>0.002829994012510962</v>
+        <v>0.003565346955202547</v>
       </c>
       <c r="J58" t="n">
-        <v>7.103172222637077e-05</v>
+        <v>8.948878811862969e-05</v>
       </c>
       <c r="K58" t="n">
-        <v>3.044216666844461e-05</v>
+        <v>3.835233776512701e-05</v>
       </c>
       <c r="L58" t="n">
-        <v>3.551586111318539e-06</v>
+        <v>4.474439405931485e-06</v>
       </c>
       <c r="M58" t="n">
-        <v>6.748013611505222e-05</v>
+        <v>8.50143487126982e-05</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0001430218089589704</v>
+        <v>0.0001801849646483837</v>
       </c>
       <c r="O58" t="n">
-        <v>0.002717414370220437</v>
+        <v>0.00342351432831929</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3546,46 +3546,46 @@
         <v>1957</v>
       </c>
       <c r="B59" t="n">
-        <v>1.517984891523442</v>
+        <v>1.836644459125478</v>
       </c>
       <c r="C59" t="n">
-        <v>1.523792060370432</v>
+        <v>1.843992078514103</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1.523792060370432</v>
+        <v>1.843992078514104</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01440409098520096</v>
+        <v>0.01892158861886011</v>
       </c>
       <c r="G59" t="n">
-        <v>0.008291281672580744</v>
+        <v>0.01118725242030759</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0002115972454368538</v>
+        <v>0.0002677270222575872</v>
       </c>
       <c r="I59" t="n">
-        <v>0.005901212067183361</v>
+        <v>0.007466609176294941</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0001481180718057976</v>
+        <v>0.0001874089155803112</v>
       </c>
       <c r="K59" t="n">
-        <v>6.347917363105611e-05</v>
+        <v>8.031810667727621e-05</v>
       </c>
       <c r="L59" t="n">
-        <v>7.405903590289877e-06</v>
+        <v>9.370445779015559e-06</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0001407121682155077</v>
+        <v>0.0001780384698012956</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0002982345620407209</v>
+        <v>0.0003773463641486105</v>
       </c>
       <c r="O59" t="n">
-        <v>0.005666456678773696</v>
+        <v>0.0071695809188236</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3599,46 +3599,46 @@
         <v>1958</v>
       </c>
       <c r="B60" t="n">
-        <v>1.590246400412096</v>
+        <v>1.930497641922121</v>
       </c>
       <c r="C60" t="n">
-        <v>1.601635139380522</v>
+        <v>1.944946162228489</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1.601635139380522</v>
+        <v>1.944946162228488</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02750304740797675</v>
+        <v>0.03610693506483358</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01551490112542319</v>
+        <v>0.02089796632128835</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0004149742943960835</v>
+        <v>0.0005264643026611817</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01157317198815743</v>
+        <v>0.01468250444088403</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0002904820060772582</v>
+        <v>0.0003685250118628272</v>
       </c>
       <c r="K60" t="n">
-        <v>0.000124492288318825</v>
+        <v>0.0001579392907983545</v>
       </c>
       <c r="L60" t="n">
-        <v>1.452410030386291e-05</v>
+        <v>1.842625059314137e-05</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0002759579057733953</v>
+        <v>0.0003500987612696859</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0005848832138238127</v>
+        <v>0.0007420221865841212</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01111278106265244</v>
+        <v>0.0140984215450983</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3652,46 +3652,46 @@
         <v>1959</v>
       </c>
       <c r="B61" t="n">
-        <v>1.661990904384175</v>
+        <v>2.023583973851347</v>
       </c>
       <c r="C61" t="n">
-        <v>1.6830086740096</v>
+        <v>2.050281375274702</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1.6830086740096</v>
+        <v>2.050281375274702</v>
       </c>
       <c r="F61" t="n">
-        <v>0.04941691831490352</v>
+        <v>0.06475721624778906</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02729295028814121</v>
+        <v>0.03665468843373138</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0007658296624648507</v>
+        <v>0.0009727798089481477</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02135813836429749</v>
+        <v>0.02712974800510942</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0005360807637253954</v>
+        <v>0.0006809458662637036</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0002297488987394552</v>
+        <v>0.0002918339426844444</v>
       </c>
       <c r="L61" t="n">
-        <v>2.680403818626978e-05</v>
+        <v>3.404729331318518e-05</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0005092767255391257</v>
+        <v>0.0006468985729505185</v>
       </c>
       <c r="N61" t="n">
-        <v>0.001079394363151848</v>
+        <v>0.001371079097389695</v>
       </c>
       <c r="O61" t="n">
-        <v>0.02050849289988511</v>
+        <v>0.02605050285040419</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3705,46 +3705,46 @@
         <v>1960</v>
       </c>
       <c r="B62" t="n">
-        <v>1.732260032570623</v>
+        <v>2.114367298021671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.769188176897987</v>
+        <v>2.161107433649095</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1.769188176897987</v>
+        <v>2.161107433649095</v>
       </c>
       <c r="F62" t="n">
-        <v>0.08367766949346481</v>
+        <v>0.1093299721008082</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04480593862255418</v>
+        <v>0.06012982933509847</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001345559914762299</v>
+        <v>0.001703081864966879</v>
       </c>
       <c r="I62" t="n">
-        <v>0.03752617095614855</v>
+        <v>0.04749706090074296</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0009418919403336085</v>
+        <v>0.001192157305476815</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0004036679744286896</v>
+        <v>0.0005109245594900635</v>
       </c>
       <c r="L62" t="n">
-        <v>4.709459701668043e-05</v>
+        <v>5.960786527384074e-05</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0008947973433169287</v>
+        <v>0.001132549440202974</v>
       </c>
       <c r="N62" t="n">
-        <v>0.001896491946528861</v>
+        <v>0.002400399273011648</v>
       </c>
       <c r="O62" t="n">
-        <v>0.03603334698404835</v>
+        <v>0.04560758618722133</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3758,46 +3758,46 @@
         <v>1961</v>
       </c>
       <c r="B63" t="n">
-        <v>1.800750044313367</v>
+        <v>2.201850736795855</v>
       </c>
       <c r="C63" t="n">
-        <v>1.861358037933646</v>
+        <v>2.278457195042203</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1.861358037933646</v>
+        <v>2.278457195042203</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1337897762373819</v>
+        <v>0.1741133671749863</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06999188821603658</v>
+        <v>0.09347499007356613</v>
       </c>
       <c r="H63" t="n">
-        <v>0.002208388431508113</v>
+        <v>0.002791328438126084</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06158949958983725</v>
+        <v>0.07784704866329398</v>
       </c>
       <c r="J63" t="n">
-        <v>0.001545871902055676</v>
+        <v>0.001953929906688258</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0006625165294524329</v>
+        <v>0.0008373985314378254</v>
       </c>
       <c r="L63" t="n">
-        <v>7.729359510278382e-05</v>
+        <v>9.769649533441297e-05</v>
       </c>
       <c r="M63" t="n">
-        <v>0.001468578306952892</v>
+        <v>0.001856233411353846</v>
       </c>
       <c r="N63" t="n">
-        <v>0.003112600805964485</v>
+        <v>0.003934222359736598</v>
       </c>
       <c r="O63" t="n">
-        <v>0.05913941531332521</v>
+        <v>0.07475022483499534</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3811,46 +3811,46 @@
         <v>1962</v>
       </c>
       <c r="B64" t="n">
-        <v>1.866321199725868</v>
+        <v>2.284045235177516</v>
       </c>
       <c r="C64" t="n">
-        <v>1.960366315990114</v>
+        <v>2.402643665457569</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1.960366315990114</v>
+        <v>2.402643665457568</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2024711466781209</v>
+        <v>0.26221984914378</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1034762874525994</v>
+        <v>0.1373793962174095</v>
       </c>
       <c r="H64" t="n">
-        <v>0.003426745127037294</v>
+        <v>0.004321400293605141</v>
       </c>
       <c r="I64" t="n">
-        <v>0.09556811409848456</v>
+        <v>0.1205190526327656</v>
       </c>
       <c r="J64" t="n">
-        <v>0.002398721588926109</v>
+        <v>0.003024980205523598</v>
       </c>
       <c r="K64" t="n">
-        <v>0.00102802353811119</v>
+        <v>0.001296420088081543</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0001199360794463055</v>
+        <v>0.0001512490102761799</v>
       </c>
       <c r="M64" t="n">
-        <v>0.002278785509479803</v>
+        <v>0.002873731195247418</v>
       </c>
       <c r="N64" t="n">
-        <v>0.004829806881829789</v>
+        <v>0.006090773636042358</v>
       </c>
       <c r="O64" t="n">
-        <v>0.09176633075476599</v>
+        <v>0.1157246990848048</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3864,46 +3864,46 @@
         <v>1963</v>
       </c>
       <c r="B65" t="n">
-        <v>1.928209333875156</v>
+        <v>2.359331434259504</v>
       </c>
       <c r="C65" t="n">
-        <v>2.066556108197895</v>
+        <v>2.533269534477248</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>2.066556108197895</v>
+        <v>2.533269534477249</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2908613094403053</v>
+        <v>0.3745902738541116</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1452331259426857</v>
+        <v>0.1914975367828012</v>
       </c>
       <c r="H65" t="n">
-        <v>0.005040975582609911</v>
+        <v>0.006337825514006904</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1405872079150099</v>
+        <v>0.1767549115573034</v>
       </c>
       <c r="J65" t="n">
-        <v>0.003528682907826939</v>
+        <v>0.004436477859804835</v>
       </c>
       <c r="K65" t="n">
-        <v>0.001512292674782974</v>
+        <v>0.001901347654202072</v>
       </c>
       <c r="L65" t="n">
-        <v>0.000176434145391347</v>
+        <v>0.0002218238929902418</v>
       </c>
       <c r="M65" t="n">
-        <v>0.003352248762435591</v>
+        <v>0.004214653966814595</v>
       </c>
       <c r="N65" t="n">
-        <v>0.007104975029489632</v>
+        <v>0.008932812960575293</v>
       </c>
       <c r="O65" t="n">
-        <v>0.134994525560303</v>
+        <v>0.1697234462509306</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3917,46 +3917,46 @@
         <v>1964</v>
       </c>
       <c r="B66" t="n">
-        <v>1.986459392842581</v>
+        <v>2.427829401004758</v>
       </c>
       <c r="C66" t="n">
-        <v>2.180042842966841</v>
+        <v>2.670340361082149</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>2.180042842966841</v>
+        <v>2.670340361082148</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3979704746940166</v>
+        <v>0.5093798344668413</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1941984219316391</v>
+        <v>0.2541051396485342</v>
       </c>
       <c r="H66" t="n">
-        <v>0.007053647980236146</v>
+        <v>0.008836431743710613</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1967184047821415</v>
+        <v>0.2464382630745953</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0049375535861653</v>
+        <v>0.006185502220597418</v>
       </c>
       <c r="K66" t="n">
-        <v>0.002116094394070843</v>
+        <v>0.00265092952311318</v>
       </c>
       <c r="L66" t="n">
-        <v>0.000246877679308265</v>
+        <v>0.0003092751110298709</v>
       </c>
       <c r="M66" t="n">
-        <v>0.004690675906857036</v>
+        <v>0.005876227109567546</v>
       </c>
       <c r="N66" t="n">
-        <v>0.009941724958810613</v>
+        <v>0.01245445962988543</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1888927742174016</v>
+        <v>0.2366347329678231</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3970,46 +3970,46 @@
         <v>1965</v>
       </c>
       <c r="B67" t="n">
-        <v>2.042920835840527</v>
+        <v>2.49188594275468</v>
       </c>
       <c r="C67" t="n">
-        <v>2.301568052423394</v>
+        <v>2.814626429830736</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2.301568052423395</v>
+        <v>2.814626429830737</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5206058086188259</v>
+        <v>0.6620189158355521</v>
       </c>
       <c r="G67" t="n">
-        <v>0.24834558063686</v>
+        <v>0.3222920873344409</v>
       </c>
       <c r="H67" t="n">
-        <v>0.009424392507068053</v>
+        <v>0.01175977483273079</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2628358354748976</v>
+        <v>0.3279670536683804</v>
       </c>
       <c r="J67" t="n">
-        <v>0.006597074754947635</v>
+        <v>0.008231842382911548</v>
       </c>
       <c r="K67" t="n">
-        <v>0.002827317752120414</v>
+        <v>0.003527932449819236</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0003298537377473817</v>
+        <v>0.0004115921191455774</v>
       </c>
       <c r="M67" t="n">
-        <v>0.006267221017200253</v>
+        <v>0.007820250263765972</v>
       </c>
       <c r="N67" t="n">
-        <v>0.01328315766135091</v>
+        <v>0.01657474930591</v>
       </c>
       <c r="O67" t="n">
-        <v>0.2523799955656673</v>
+        <v>0.3149202368122899</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -4023,46 +4023,46 @@
         <v>1966</v>
       </c>
       <c r="B68" t="n">
-        <v>2.099230229187111</v>
+        <v>2.553941415117072</v>
       </c>
       <c r="C68" t="n">
-        <v>2.430644775299633</v>
+        <v>2.965800865539175</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2.430644775299632</v>
+        <v>2.965800865539176</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6538553722643639</v>
+        <v>0.8260049292787029</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3049979553038153</v>
+        <v>0.392468665676491</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01207583366401898</v>
+        <v>0.01500702450930738</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3367815832965289</v>
+        <v>0.4185292390929059</v>
       </c>
       <c r="J68" t="n">
-        <v>0.008453083564813283</v>
+        <v>0.01050491715651518</v>
       </c>
       <c r="K68" t="n">
-        <v>0.003622750099205692</v>
+        <v>0.00450210735279222</v>
       </c>
       <c r="L68" t="n">
-        <v>0.000422654178240664</v>
+        <v>0.000525245857825759</v>
       </c>
       <c r="M68" t="n">
-        <v>0.008030429386572618</v>
+        <v>0.009979671298689423</v>
       </c>
       <c r="N68" t="n">
-        <v>0.01702021666978674</v>
+        <v>0.02115156732228494</v>
       </c>
       <c r="O68" t="n">
-        <v>0.323384116725948</v>
+        <v>0.4018797791234136</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -4076,46 +4076,46 @@
         <v>1967</v>
       </c>
       <c r="B69" t="n">
-        <v>2.159212860101406</v>
+        <v>2.619807325464045</v>
       </c>
       <c r="C69" t="n">
-        <v>2.568393812169447</v>
+        <v>3.126318311286409</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>2.568393812169448</v>
+        <v>3.126318311286409</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7920044163393498</v>
+        <v>0.9941950051922792</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3612876246887816</v>
+        <v>0.4610255464319002</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01490942740328895</v>
+        <v>0.01845586588016707</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4158073642472801</v>
+        <v>0.514713592880214</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01043659918230226</v>
+        <v>0.01291910611611695</v>
       </c>
       <c r="K69" t="n">
-        <v>0.004472828220986682</v>
+        <v>0.00553675976405012</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0005218299591151129</v>
+        <v>0.0006459553058058471</v>
       </c>
       <c r="M69" t="n">
-        <v>0.009914769223187146</v>
+        <v>0.0122731508103111</v>
       </c>
       <c r="N69" t="n">
-        <v>0.02101400962341338</v>
+        <v>0.02601251763221325</v>
       </c>
       <c r="O69" t="n">
-        <v>0.3992661828448539</v>
+        <v>0.4942378350120517</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4129,46 +4129,46 @@
         <v>1968</v>
       </c>
       <c r="B70" t="n">
-        <v>2.229592358747737</v>
+        <v>2.697659374846915</v>
       </c>
       <c r="C70" t="n">
-        <v>2.716316473224738</v>
+        <v>3.299042169728524</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2.716316473224739</v>
+        <v>3.299042169728522</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9296038032626226</v>
+        <v>1.160181475909547</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4172626301289369</v>
+        <v>0.527146954981537</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01773488676231989</v>
+        <v>0.02191273341673879</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4946062863713652</v>
+        <v>0.6111217875112698</v>
       </c>
       <c r="J70" t="n">
-        <v>0.01241442073362393</v>
+        <v>0.01533891339171715</v>
       </c>
       <c r="K70" t="n">
-        <v>0.005320466028695968</v>
+        <v>0.006573820025021635</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0006207210366811961</v>
+        <v>0.0007669456695858572</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01179369969694273</v>
+        <v>0.01457196772213129</v>
       </c>
       <c r="N70" t="n">
-        <v>0.02499633762000311</v>
+        <v>0.0308847803768146</v>
       </c>
       <c r="O70" t="n">
-        <v>0.474930414780059</v>
+        <v>0.5868108271594776</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -4182,46 +4182,46 @@
         <v>1969</v>
       </c>
       <c r="B71" t="n">
-        <v>2.311781618924483</v>
+        <v>2.791042627298846</v>
       </c>
       <c r="C71" t="n">
-        <v>2.87522432597495</v>
+        <v>3.486397410750618</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>2.875224325974949</v>
+        <v>3.486397410750618</v>
       </c>
       <c r="F71" t="n">
-        <v>1.06237858004114</v>
+        <v>1.319334966348079</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4692809936722305</v>
+        <v>0.5873825627146338</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02053030106661619</v>
+        <v>0.0253368139719269</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5725672853022958</v>
+        <v>0.7066155896615174</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01437121074663133</v>
+        <v>0.01773576978034884</v>
       </c>
       <c r="K71" t="n">
-        <v>0.006159090319984855</v>
+        <v>0.007601044191578075</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0007185605373315665</v>
+        <v>0.0008867884890174422</v>
       </c>
       <c r="M71" t="n">
-        <v>0.01365265020929977</v>
+        <v>0.01684898129133139</v>
       </c>
       <c r="N71" t="n">
-        <v>0.02893631878111402</v>
+        <v>0.03571083169265475</v>
       </c>
       <c r="O71" t="n">
-        <v>0.5497900568411663</v>
+        <v>0.6785058021604402</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4235,46 +4235,46 @@
         <v>1970</v>
       </c>
       <c r="B72" t="n">
-        <v>2.14571795551699</v>
+        <v>2.642233017707059</v>
       </c>
       <c r="C72" t="n">
-        <v>3.043039118447272</v>
+        <v>3.685919049661901</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>3.043039118447272</v>
+        <v>3.685919049661904</v>
       </c>
       <c r="F72" t="n">
-        <v>1.187756694005555</v>
+        <v>1.46927267788439</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2432081014473627</v>
+        <v>0.370655802142451</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03269591281932196</v>
+        <v>0.03802904569875948</v>
       </c>
       <c r="I72" t="n">
-        <v>0.911852679738869</v>
+        <v>1.06058783004318</v>
       </c>
       <c r="J72" t="n">
-        <v>0.02288713897352538</v>
+        <v>0.0266203319891316</v>
       </c>
       <c r="K72" t="n">
-        <v>0.009808773845796594</v>
+        <v>0.01140871370962783</v>
       </c>
       <c r="L72" t="n">
-        <v>0.001144356948676269</v>
+        <v>0.00133101659945658</v>
       </c>
       <c r="M72" t="n">
-        <v>0.02174278202484911</v>
+        <v>0.02528931538967502</v>
       </c>
       <c r="N72" t="n">
-        <v>0.04608307267923328</v>
+        <v>0.05359982718764041</v>
       </c>
       <c r="O72" t="n">
-        <v>0.8755783809054323</v>
+        <v>1.018396716565168</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4288,46 +4288,46 @@
         <v>1971</v>
       </c>
       <c r="B73" t="n">
-        <v>2.221812076226869</v>
+        <v>2.735393176271349</v>
       </c>
       <c r="C73" t="n">
-        <v>3.216635053022899</v>
+        <v>3.893846116314338</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>3.216635053022898</v>
+        <v>3.893846116314338</v>
       </c>
       <c r="F73" t="n">
-        <v>1.30495406352422</v>
+        <v>1.609746363453554</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2577719826862905</v>
+        <v>0.3903222160398823</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03624861049054359</v>
+        <v>0.04221083587201179</v>
       </c>
       <c r="I73" t="n">
-        <v>1.010933470347384</v>
+        <v>1.177213311541659</v>
       </c>
       <c r="J73" t="n">
-        <v>0.02537402734338052</v>
+        <v>0.02954758511040823</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01087458314716308</v>
+        <v>0.01266325076160353</v>
       </c>
       <c r="L73" t="n">
-        <v>0.001268701367169026</v>
+        <v>0.001477379255520411</v>
       </c>
       <c r="M73" t="n">
-        <v>0.02410532597621149</v>
+        <v>0.02807020585488781</v>
       </c>
       <c r="N73" t="n">
-        <v>0.05109040267472726</v>
+        <v>0.0594938281151632</v>
       </c>
       <c r="O73" t="n">
-        <v>0.970717650819818</v>
+        <v>1.130382734188101</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4341,46 +4341,46 @@
         <v>1972</v>
       </c>
       <c r="B74" t="n">
-        <v>2.306070170181353</v>
+        <v>2.837623379538426</v>
       </c>
       <c r="C74" t="n">
-        <v>3.393268422013399</v>
+        <v>4.10631847812053</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.393268422013398</v>
+        <v>4.106318478120532</v>
       </c>
       <c r="F74" t="n">
-        <v>1.414695549565536</v>
+        <v>1.742127314814833</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2702763371107524</v>
+        <v>0.4066587899915647</v>
       </c>
       <c r="H74" t="n">
-        <v>0.03961451120035786</v>
+        <v>0.04622775662849776</v>
       </c>
       <c r="I74" t="n">
-        <v>1.104804701254425</v>
+        <v>1.289240768194768</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02773015784025055</v>
+        <v>0.03235942963994842</v>
       </c>
       <c r="K74" t="n">
-        <v>0.01188435336010738</v>
+        <v>0.01386832698854933</v>
       </c>
       <c r="L74" t="n">
-        <v>0.001386507892012527</v>
+        <v>0.001617971481997422</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02634364994823802</v>
+        <v>0.03074145815795102</v>
       </c>
       <c r="N74" t="n">
-        <v>0.05583445273072674</v>
+        <v>0.065155454759166</v>
       </c>
       <c r="O74" t="n">
-        <v>1.060854601883808</v>
+        <v>1.237953640424154</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4394,46 +4394,46 @@
         <v>1973</v>
       </c>
       <c r="B75" t="n">
-        <v>2.397332687335056</v>
+        <v>2.947564909904635</v>
       </c>
       <c r="C75" t="n">
-        <v>3.572904905291879</v>
+        <v>4.323364017593966</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>3.572904905291878</v>
+        <v>4.323364017593964</v>
       </c>
       <c r="F75" t="n">
-        <v>1.518731517571425</v>
+        <v>1.868734429618275</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2812870776168759</v>
+        <v>0.4205248425768772</v>
       </c>
       <c r="H75" t="n">
-        <v>0.04283461522919596</v>
+        <v>0.05013033185912535</v>
       </c>
       <c r="I75" t="n">
-        <v>1.194609824725354</v>
+        <v>1.398079255182273</v>
       </c>
       <c r="J75" t="n">
-        <v>0.02998423066043718</v>
+        <v>0.03509123230138776</v>
       </c>
       <c r="K75" t="n">
-        <v>0.01285038456875879</v>
+        <v>0.01503909955773761</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001499211533021858</v>
+        <v>0.001754561615069388</v>
       </c>
       <c r="M75" t="n">
-        <v>0.02848501912741531</v>
+        <v>0.03333667068631838</v>
       </c>
       <c r="N75" t="n">
-        <v>0.06037301046470566</v>
+        <v>0.07065591773700064</v>
       </c>
       <c r="O75" t="n">
-        <v>1.147087198829407</v>
+        <v>1.342462437003012</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4447,46 +4447,46 @@
         <v>1974</v>
       </c>
       <c r="B76" t="n">
-        <v>2.4933398978326</v>
+        <v>3.06175529202569</v>
       </c>
       <c r="C76" t="n">
-        <v>3.75496115065173</v>
+        <v>4.543369964609577</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>3.754961150651731</v>
+        <v>4.543369964609576</v>
       </c>
       <c r="F76" t="n">
-        <v>1.619317033628941</v>
+        <v>1.992215107695094</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2912946622403838</v>
+        <v>0.432620715501529</v>
       </c>
       <c r="H76" t="n">
-        <v>0.04597000516345011</v>
+        <v>0.05398595972977731</v>
       </c>
       <c r="I76" t="n">
-        <v>1.28205236622511</v>
+        <v>1.505608432463789</v>
       </c>
       <c r="J76" t="n">
-        <v>0.03217900361441506</v>
+        <v>0.03779017181084411</v>
       </c>
       <c r="K76" t="n">
-        <v>0.01379100154903502</v>
+        <v>0.01619578791893319</v>
       </c>
       <c r="L76" t="n">
-        <v>0.001608950180720753</v>
+        <v>0.001889508590542204</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03057005343369431</v>
+        <v>0.03590066322030188</v>
       </c>
       <c r="N76" t="n">
-        <v>0.06479216838870715</v>
+        <v>0.07609021101913607</v>
       </c>
       <c r="O76" t="n">
-        <v>1.231051199385436</v>
+        <v>1.445714009363585</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4500,46 +4500,46 @@
         <v>1975</v>
       </c>
       <c r="B77" t="n">
-        <v>2.575840851688425</v>
+        <v>3.157418525672077</v>
       </c>
       <c r="C77" t="n">
-        <v>3.923044990428134</v>
+        <v>4.74549728373374</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>3.923044990428134</v>
+        <v>4.745497283733743</v>
       </c>
       <c r="F77" t="n">
-        <v>1.718776935186904</v>
+        <v>2.115099347023732</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3006673154608901</v>
+        <v>0.4434374964325044</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04908840991359271</v>
+        <v>0.05786521790508084</v>
       </c>
       <c r="I77" t="n">
-        <v>1.369021209812419</v>
+        <v>1.613796632686143</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03436188693951488</v>
+        <v>0.04050565253355664</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01472652297407781</v>
+        <v>0.01735956537152427</v>
       </c>
       <c r="L77" t="n">
-        <v>0.001718094346975745</v>
+        <v>0.002025282626677831</v>
       </c>
       <c r="M77" t="n">
-        <v>0.03264379259253913</v>
+        <v>0.0384803699068788</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06918738663932475</v>
+        <v>0.08155780990288347</v>
       </c>
       <c r="O77" t="n">
-        <v>1.31456034614717</v>
+        <v>1.549598388154786</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4553,46 +4553,46 @@
         <v>1976</v>
       </c>
       <c r="B78" t="n">
-        <v>2.859588382652347</v>
+        <v>3.47995650257877</v>
       </c>
       <c r="C78" t="n">
-        <v>4.293685633949213</v>
+        <v>5.176934193980172</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>4.293685633949216</v>
+        <v>5.176934193980168</v>
       </c>
       <c r="F78" t="n">
-        <v>1.819225000777015</v>
+        <v>2.239566259097753</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3096489467803148</v>
+        <v>0.4532739523594317</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05225455571527042</v>
+        <v>0.0618331952332494</v>
       </c>
       <c r="I78" t="n">
-        <v>1.457321498281433</v>
+        <v>1.724459111505066</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03657818900068928</v>
+        <v>0.04328323666327454</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01567636671458112</v>
+        <v>0.01854995856997481</v>
       </c>
       <c r="L78" t="n">
-        <v>0.001828909450034464</v>
+        <v>0.002164161833163727</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03474927955065482</v>
+        <v>0.04111907483011082</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0736498932498006</v>
+        <v>0.08715045350375208</v>
       </c>
       <c r="O78" t="n">
-        <v>1.399347971746211</v>
+        <v>1.65585861657129</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4606,46 +4606,46 @@
         <v>1977</v>
       </c>
       <c r="B79" t="n">
-        <v>3.149223031803262</v>
+        <v>3.804955312743629</v>
       </c>
       <c r="C79" t="n">
-        <v>4.673059439734233</v>
+        <v>5.614784683694561</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>4.673059439734234</v>
+        <v>5.614784683694561</v>
       </c>
       <c r="F79" t="n">
-        <v>1.922417891462806</v>
+        <v>2.367365064335805</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3183795673249419</v>
+        <v>0.4622815159664065</v>
       </c>
       <c r="H79" t="n">
-        <v>0.05552440352784915</v>
+        <v>0.0659451997512485</v>
       </c>
       <c r="I79" t="n">
-        <v>1.548513920610014</v>
+        <v>1.839138348618153</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03886708246949441</v>
+        <v>0.04616163982587398</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01665732105835474</v>
+        <v>0.01978355992537457</v>
       </c>
       <c r="L79" t="n">
-        <v>0.00194335412347472</v>
+        <v>0.002308081991293699</v>
       </c>
       <c r="M79" t="n">
-        <v>0.03692372834601967</v>
+        <v>0.04385355783458029</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07825856208341851</v>
+        <v>0.0929460954271764</v>
       </c>
       <c r="O79" t="n">
-        <v>1.486912679584952</v>
+        <v>1.765975813116351</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4659,46 +4659,46 @@
         <v>1978</v>
       </c>
       <c r="B80" t="n">
-        <v>3.45506049766611</v>
+        <v>4.146475805899841</v>
       </c>
       <c r="C80" t="n">
-        <v>5.072738690294598</v>
+        <v>6.074361524200143</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>5.072738690294593</v>
+        <v>6.074361524200143</v>
       </c>
       <c r="F80" t="n">
-        <v>2.02974613205892</v>
+        <v>2.499871093055593</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3269269819236699</v>
+        <v>0.4705177053710664</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0589437398123741</v>
+        <v>0.07024684803523371</v>
       </c>
       <c r="I80" t="n">
-        <v>1.643875410322877</v>
+        <v>1.959106539649295</v>
       </c>
       <c r="J80" t="n">
-        <v>0.04126061786866183</v>
+        <v>0.04917279362466359</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01768312194371221</v>
+        <v>0.02107405441057012</v>
       </c>
       <c r="L80" t="n">
-        <v>0.002063030893433091</v>
+        <v>0.002458639681233181</v>
       </c>
       <c r="M80" t="n">
-        <v>0.03919758697522874</v>
+        <v>0.04671415394343043</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08307792661332941</v>
+        <v>0.09900902970299327</v>
       </c>
       <c r="O80" t="n">
-        <v>1.578480605653259</v>
+        <v>1.881171564356872</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4712,46 +4712,46 @@
         <v>1979</v>
       </c>
       <c r="B81" t="n">
-        <v>3.778769905102184</v>
+        <v>4.505555125153624</v>
       </c>
       <c r="C81" t="n">
-        <v>5.495393425911622</v>
+        <v>6.557741406754223</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>5.495393425911622</v>
+        <v>6.557741406754221</v>
       </c>
       <c r="F81" t="n">
-        <v>2.142287613090776</v>
+        <v>2.638184121093803</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3353154859229418</v>
+        <v>0.4779880351984387</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06254903517119406</v>
+        <v>0.0747760183579166</v>
       </c>
       <c r="I81" t="n">
-        <v>1.744423091996636</v>
+        <v>2.085420067537449</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04378432461983593</v>
+        <v>0.05234321285054158</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01876471055135824</v>
+        <v>0.02243280550737497</v>
       </c>
       <c r="L81" t="n">
-        <v>0.002189216230991796</v>
+        <v>0.00261716064252708</v>
       </c>
       <c r="M81" t="n">
-        <v>0.04159510838884412</v>
+        <v>0.04972605220801452</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08815939012739971</v>
+        <v>0.1053926436522413</v>
       </c>
       <c r="O81" t="n">
-        <v>1.675028412420595</v>
+        <v>2.002460229392585</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -4765,46 +4765,46 @@
         <v>1980</v>
       </c>
       <c r="B82" t="n">
-        <v>4.111241160969968</v>
+        <v>4.874107822835223</v>
       </c>
       <c r="C82" t="n">
-        <v>5.942709988222804</v>
+        <v>7.066428965490724</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>5.942709988222806</v>
+        <v>7.066428965490723</v>
       </c>
       <c r="F82" t="n">
-        <v>2.260896037165926</v>
+        <v>2.783239504221501</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3330341137418884</v>
+        <v>0.4755330382683445</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06673368196467833</v>
+        <v>0.07988214689837855</v>
       </c>
       <c r="I82" t="n">
-        <v>1.861128241459359</v>
+        <v>2.227824319054783</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04671357737527478</v>
+        <v>0.05591750282886499</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02002010458940348</v>
+        <v>0.02396464406951357</v>
       </c>
       <c r="L82" t="n">
-        <v>0.002335678868763739</v>
+        <v>0.00279587514144325</v>
       </c>
       <c r="M82" t="n">
-        <v>0.04437789850651104</v>
+        <v>0.05312162768742174</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09405741730243819</v>
+        <v>0.1125894481562146</v>
       </c>
       <c r="O82" t="n">
-        <v>1.787090928746325</v>
+        <v>2.139199514968078</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -4818,46 +4818,46 @@
         <v>1981</v>
       </c>
       <c r="B83" t="n">
-        <v>4.393833309817474</v>
+        <v>5.188946409239435</v>
       </c>
       <c r="C83" t="n">
-        <v>6.337716699166497</v>
+        <v>7.521575815227841</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>6.337716699166498</v>
+        <v>7.521575815227841</v>
       </c>
       <c r="F83" t="n">
-        <v>2.386296462284649</v>
+        <v>2.935906543619341</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3401034208646218</v>
+        <v>0.480507168894704</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07083185858096665</v>
+        <v>0.08499702879189439</v>
       </c>
       <c r="I83" t="n">
-        <v>1.975361182839062</v>
+        <v>2.370402345932745</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04958230100667664</v>
+        <v>0.05949792015432612</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02124955757429</v>
+        <v>0.02549910863756835</v>
       </c>
       <c r="L83" t="n">
-        <v>0.002479115050333832</v>
+        <v>0.002974896007716307</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04710318595634282</v>
+        <v>0.05652302414660983</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09983053702066749</v>
+        <v>0.1197950727285156</v>
       </c>
       <c r="O83" t="n">
-        <v>1.896780203392682</v>
+        <v>2.276106381841797</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4871,46 +4871,46 @@
         <v>1982</v>
       </c>
       <c r="B84" t="n">
-        <v>4.692958990004266</v>
+        <v>5.519765463602406</v>
       </c>
       <c r="C84" t="n">
-        <v>6.756615312882894</v>
+        <v>8.001668735216864</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>6.756615312882889</v>
+        <v>8.001668735216867</v>
       </c>
       <c r="F84" t="n">
-        <v>2.519191792258845</v>
+        <v>3.097085037937468</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3469219787023974</v>
+        <v>0.4845552783433071</v>
       </c>
       <c r="H84" t="n">
-        <v>0.07520214359112044</v>
+        <v>0.09044332669754734</v>
       </c>
       <c r="I84" t="n">
-        <v>2.097067669965325</v>
+        <v>2.522086432896614</v>
       </c>
       <c r="J84" t="n">
-        <v>0.05264150051378423</v>
+        <v>0.06331032868828312</v>
       </c>
       <c r="K84" t="n">
-        <v>0.02256064307733609</v>
+        <v>0.02713299800926419</v>
       </c>
       <c r="L84" t="n">
-        <v>0.002632075025689211</v>
+        <v>0.003165516434414156</v>
       </c>
       <c r="M84" t="n">
-        <v>0.05000942548809503</v>
+        <v>0.06014481225386895</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1059814156521332</v>
+        <v>0.1274609715452941</v>
       </c>
       <c r="O84" t="n">
-        <v>2.01364689739053</v>
+        <v>2.421758459360589</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4924,46 +4924,46 @@
         <v>1983</v>
       </c>
       <c r="B85" t="n">
-        <v>5.010319025331436</v>
+        <v>5.869437784960096</v>
       </c>
       <c r="C85" t="n">
-        <v>7.201842969155004</v>
+        <v>8.510578690719463</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>7.201842969155003</v>
+        <v>8.510578690719463</v>
       </c>
       <c r="F85" t="n">
-        <v>2.660374342738379</v>
+        <v>3.26780259963653</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3535070334504183</v>
+        <v>0.4876542777845631</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07987802508499649</v>
+        <v>0.09626548235992419</v>
       </c>
       <c r="I85" t="n">
-        <v>2.226989284202967</v>
+        <v>2.683882839492038</v>
       </c>
       <c r="J85" t="n">
-        <v>0.05591461755949751</v>
+        <v>0.0673858376519469</v>
       </c>
       <c r="K85" t="n">
-        <v>0.02396340752549895</v>
+        <v>0.02887964470797725</v>
       </c>
       <c r="L85" t="n">
-        <v>0.002795730877974877</v>
+        <v>0.003369291882597347</v>
       </c>
       <c r="M85" t="n">
-        <v>0.05311888668152266</v>
+        <v>0.06401654576934956</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1125476345864233</v>
+        <v>0.135638124210001</v>
       </c>
       <c r="O85" t="n">
-        <v>2.138405057142044</v>
+        <v>2.577124359990019</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4977,46 +4977,46 @@
         <v>1984</v>
       </c>
       <c r="B86" t="n">
-        <v>5.346072044956271</v>
+        <v>6.239203655775427</v>
       </c>
       <c r="C86" t="n">
-        <v>7.674478023710384</v>
+        <v>9.050763475444848</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>7.674478023710384</v>
+        <v>9.050763475444848</v>
       </c>
       <c r="F86" t="n">
-        <v>2.810858495251876</v>
+        <v>3.449336698658172</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3599048334054465</v>
+        <v>0.4898000463745756</v>
       </c>
       <c r="H86" t="n">
-        <v>0.08490895978813461</v>
+        <v>0.1025274083478821</v>
       </c>
       <c r="I86" t="n">
-        <v>2.366044702058289</v>
+        <v>2.857009243935718</v>
       </c>
       <c r="J86" t="n">
-        <v>0.05943627185169425</v>
+        <v>0.07176918584351748</v>
       </c>
       <c r="K86" t="n">
-        <v>0.02547268793644039</v>
+        <v>0.03075822250436464</v>
       </c>
       <c r="L86" t="n">
-        <v>0.002971813592584712</v>
+        <v>0.003588459292175874</v>
       </c>
       <c r="M86" t="n">
-        <v>0.05646445825910951</v>
+        <v>0.06818072655134159</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1195758694997371</v>
+        <v>0.144388373322004</v>
       </c>
       <c r="O86" t="n">
-        <v>2.271941520495004</v>
+        <v>2.743379093118077</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5030,46 +5030,46 @@
         <v>1985</v>
       </c>
       <c r="B87" t="n">
-        <v>5.705569869923626</v>
+        <v>6.633700764823655</v>
       </c>
       <c r="C87" t="n">
-        <v>8.181098203524222</v>
+        <v>9.628416068025047</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>8.181098203524222</v>
+        <v>9.628416068025048</v>
       </c>
       <c r="F87" t="n">
-        <v>2.972019367043435</v>
+        <v>3.643349595705357</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3662000685164913</v>
+        <v>0.491017697598623</v>
       </c>
       <c r="H87" t="n">
-        <v>0.09037512581156508</v>
+        <v>0.1093297315844247</v>
       </c>
       <c r="I87" t="n">
-        <v>2.515444172715372</v>
+        <v>3.043002166522308</v>
       </c>
       <c r="J87" t="n">
-        <v>0.06326258806809558</v>
+        <v>0.07653081210909721</v>
       </c>
       <c r="K87" t="n">
-        <v>0.02711253774346953</v>
+        <v>0.03279891947532739</v>
       </c>
       <c r="L87" t="n">
-        <v>0.003163129403404779</v>
+        <v>0.003826540605454862</v>
       </c>
       <c r="M87" t="n">
-        <v>0.06009945866469078</v>
+        <v>0.07270427150364236</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1271278355229423</v>
+        <v>0.1537900542998815</v>
       </c>
       <c r="O87" t="n">
-        <v>2.415428874935904</v>
+        <v>2.92201103169775</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -5083,46 +5083,46 @@
         <v>1986</v>
       </c>
       <c r="B88" t="n">
-        <v>6.310315280789602</v>
+        <v>7.346958209170226</v>
       </c>
       <c r="C88" t="n">
-        <v>8.9448457300934</v>
+        <v>10.53956710551111</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>8.9448457300934</v>
+        <v>10.53956710551111</v>
       </c>
       <c r="F88" t="n">
-        <v>3.145710756685371</v>
+        <v>3.852008539026058</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3725208100497929</v>
+        <v>0.4913675955093393</v>
       </c>
       <c r="H88" t="n">
-        <v>0.09640989195902204</v>
+        <v>0.1168372697724622</v>
       </c>
       <c r="I88" t="n">
-        <v>2.676780054676561</v>
+        <v>3.243803673744259</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0674869243713154</v>
+        <v>0.08178608884072348</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0289229675877066</v>
+        <v>0.03505118093173864</v>
       </c>
       <c r="L88" t="n">
-        <v>0.00337434621856577</v>
+        <v>0.004089304442036175</v>
       </c>
       <c r="M88" t="n">
-        <v>0.06411257815274961</v>
+        <v>0.07769678439868732</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1352851511132131</v>
+        <v>0.1639427427338</v>
       </c>
       <c r="O88" t="n">
-        <v>2.570417871151048</v>
+        <v>3.1149121119422</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -5136,46 +5136,46 @@
         <v>1987</v>
       </c>
       <c r="B89" t="n">
-        <v>6.912859588280189</v>
+        <v>8.052366594794801</v>
       </c>
       <c r="C89" t="n">
-        <v>9.720355547032977</v>
+        <v>11.46008048375416</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>9.720355547032977</v>
+        <v>11.46008048375416</v>
       </c>
       <c r="F89" t="n">
-        <v>3.334289731785938</v>
+        <v>4.07800286217914</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3790308278356396</v>
+        <v>0.4909356106429756</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1032298668181963</v>
+        <v>0.1253167897797308</v>
       </c>
       <c r="I89" t="n">
-        <v>2.852029037132105</v>
+        <v>3.461750461756441</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07226090677273747</v>
+        <v>0.0877217528458117</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03096896004545892</v>
+        <v>0.03759503693391929</v>
       </c>
       <c r="L89" t="n">
-        <v>0.003613045338636874</v>
+        <v>0.004386087642290584</v>
       </c>
       <c r="M89" t="n">
-        <v>0.06864786143410058</v>
+        <v>0.08333566520352109</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1441498998588781</v>
+        <v>0.1749672749345179</v>
       </c>
       <c r="O89" t="n">
-        <v>2.738848097318685</v>
+        <v>3.32437822375584</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5189,46 +5189,46 @@
         <v>1988</v>
       </c>
       <c r="B90" t="n">
-        <v>7.54109744216093</v>
+        <v>8.77848207755525</v>
       </c>
       <c r="C90" t="n">
-        <v>10.53799506120822</v>
+        <v>12.4213927175754</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>10.53799506120821</v>
+        <v>12.4213927175754</v>
       </c>
       <c r="F90" t="n">
-        <v>3.540540969285261</v>
+        <v>4.324454427197947</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3859118966039105</v>
+        <v>0.4898116482293645</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1111738405641583</v>
+        <v>0.1351869994117864</v>
       </c>
       <c r="I90" t="n">
-        <v>3.043455232117187</v>
+        <v>3.699455779556796</v>
       </c>
       <c r="J90" t="n">
-        <v>0.07782168839491081</v>
+        <v>0.09463089958825043</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03335215216924749</v>
+        <v>0.0405560998235359</v>
       </c>
       <c r="L90" t="n">
-        <v>0.00389108441974554</v>
+        <v>0.004731544979412522</v>
       </c>
       <c r="M90" t="n">
-        <v>0.07393060397516527</v>
+        <v>0.0898993546088379</v>
       </c>
       <c r="N90" t="n">
-        <v>0.153840369214322</v>
+        <v>0.1870005939690164</v>
       </c>
       <c r="O90" t="n">
-        <v>2.922967015072119</v>
+        <v>3.553011285411314</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5242,46 +5242,46 @@
         <v>1989</v>
       </c>
       <c r="B91" t="n">
-        <v>8.191288729661604</v>
+        <v>9.516370727499361</v>
       </c>
       <c r="C91" t="n">
-        <v>11.39670477375562</v>
+        <v>13.41765220841899</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>11.39670477375562</v>
+        <v>13.41765220841899</v>
       </c>
       <c r="F91" t="n">
-        <v>3.767455974792103</v>
+        <v>4.594665779105505</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3933338231141935</v>
+        <v>0.4880536939269443</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1207444224617103</v>
+        <v>0.1470727427228271</v>
       </c>
       <c r="I91" t="n">
-        <v>3.253377729216205</v>
+        <v>3.959539342455727</v>
       </c>
       <c r="J91" t="n">
-        <v>0.08452109572319717</v>
+        <v>0.1029509199059789</v>
       </c>
       <c r="K91" t="n">
-        <v>0.03622332673851307</v>
+        <v>0.04412182281684809</v>
       </c>
       <c r="L91" t="n">
-        <v>0.004226054786159858</v>
+        <v>0.005147545995298945</v>
       </c>
       <c r="M91" t="n">
-        <v>0.08029504093703733</v>
+        <v>0.09780337391067995</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1644800527977355</v>
+        <v>0.2001830582636289</v>
       </c>
       <c r="O91" t="n">
-        <v>3.125121003156974</v>
+        <v>3.803478107008949</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -5295,46 +5295,46 @@
         <v>1990</v>
       </c>
       <c r="B92" t="n">
-        <v>8.870973766443651</v>
+        <v>10.27363308945956</v>
       </c>
       <c r="C92" t="n">
-        <v>12.30665262872206</v>
+        <v>14.4594560365324</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>12.30665262872206</v>
+        <v>14.4594560365324</v>
       </c>
       <c r="F92" t="n">
-        <v>4.017926110323083</v>
+        <v>4.891780524492975</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4014220447668463</v>
+        <v>0.4856511065215622</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1326432653083423</v>
+        <v>0.1618513479978695</v>
       </c>
       <c r="I92" t="n">
-        <v>3.483860800247881</v>
+        <v>4.244278069973535</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09285028571583973</v>
+        <v>0.1132959435985088</v>
       </c>
       <c r="K92" t="n">
-        <v>0.03979297959250274</v>
+        <v>0.04855540439936094</v>
       </c>
       <c r="L92" t="n">
-        <v>0.004642514285791989</v>
+        <v>0.005664797179925443</v>
       </c>
       <c r="M92" t="n">
-        <v>0.08820777143004775</v>
+        <v>0.1076311464185834</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1761826889920192</v>
+        <v>0.214641673718645</v>
       </c>
       <c r="O92" t="n">
-        <v>3.347471090848364</v>
+        <v>4.078191800654255</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -5348,46 +5348,46 @@
         <v>1991</v>
       </c>
       <c r="B93" t="n">
-        <v>9.704095622217341</v>
+        <v>11.16445978758947</v>
       </c>
       <c r="C93" t="n">
-        <v>13.39409438970349</v>
+        <v>15.66362961074615</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>13.39409438970349</v>
+        <v>15.66362961074615</v>
       </c>
       <c r="F93" t="n">
-        <v>4.294441660706008</v>
+        <v>5.218467366777982</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4102324317732172</v>
+        <v>0.4824991318762154</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1477856527471484</v>
+        <v>0.1806719772569388</v>
       </c>
       <c r="I93" t="n">
-        <v>3.736423576185636</v>
+        <v>4.555296257644827</v>
       </c>
       <c r="J93" t="n">
-        <v>0.103449956923004</v>
+        <v>0.1264703840798573</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04433569582414455</v>
+        <v>0.05420159317708169</v>
       </c>
       <c r="L93" t="n">
-        <v>0.005172497846150198</v>
+        <v>0.006323519203992864</v>
       </c>
       <c r="M93" t="n">
-        <v>0.09827745907685374</v>
+        <v>0.1201468648758644</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1890379636004892</v>
+        <v>0.2304748925410953</v>
       </c>
       <c r="O93" t="n">
-        <v>3.591721308409296</v>
+        <v>4.379022958280809</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -5401,46 +5401,46 @@
         <v>1992</v>
       </c>
       <c r="B94" t="n">
-        <v>10.57359117578259</v>
+        <v>12.08743926194716</v>
       </c>
       <c r="C94" t="n">
-        <v>14.54379353228429</v>
+        <v>16.93088307466993</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>14.54379353228428</v>
+        <v>16.93088307466993</v>
       </c>
       <c r="F94" t="n">
-        <v>4.598900368463311</v>
+        <v>5.576753393838914</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4197399931983672</v>
+        <v>0.4783914857096773</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1672782909707505</v>
+        <v>0.2049268175703297</v>
       </c>
       <c r="I94" t="n">
-        <v>4.011882084294193</v>
+        <v>4.893435090558909</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1170948036795255</v>
+        <v>0.1434487722992307</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0501834872912252</v>
+        <v>0.06147804527109887</v>
       </c>
       <c r="L94" t="n">
-        <v>0.005854740183976274</v>
+        <v>0.007172438614961533</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1112400634955492</v>
+        <v>0.1362763336842691</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2031032785792713</v>
+        <v>0.2477456567915</v>
       </c>
       <c r="O94" t="n">
-        <v>3.858962293006154</v>
+        <v>4.707167479038501</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -5454,46 +5454,46 @@
         <v>1993</v>
       </c>
       <c r="B95" t="n">
-        <v>11.48481396392333</v>
+        <v>13.04959224348898</v>
       </c>
       <c r="C95" t="n">
-        <v>15.7624676384827</v>
+        <v>18.26993186318211</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>15.7624676384827</v>
+        <v>18.26993186318211</v>
       </c>
       <c r="F95" t="n">
-        <v>4.932638410634716</v>
+        <v>5.96812528799933</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4298450689932766</v>
+        <v>0.4730309514802464</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1923539994725292</v>
+        <v>0.23616477627772</v>
       </c>
       <c r="I95" t="n">
-        <v>4.310439342168899</v>
+        <v>5.258929560241359</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1346477996307702</v>
+        <v>0.165315343394404</v>
       </c>
       <c r="K95" t="n">
-        <v>0.05770619984175866</v>
+        <v>0.07084943288331599</v>
       </c>
       <c r="L95" t="n">
-        <v>0.006732389981538513</v>
+        <v>0.008265767169720203</v>
       </c>
       <c r="M95" t="n">
-        <v>0.1279154096492317</v>
+        <v>0.1570495762246839</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2184072771005329</v>
+        <v>0.266488949656234</v>
       </c>
       <c r="O95" t="n">
-        <v>4.149738264910125</v>
+        <v>5.063290043468446</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5507,46 +5507,46 @@
         <v>1994</v>
       </c>
       <c r="B96" t="n">
-        <v>12.44330443416773</v>
+        <v>14.05730624673002</v>
       </c>
       <c r="C96" t="n">
-        <v>17.05679024146738</v>
+        <v>19.68875995704872</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>17.05679024146738</v>
+        <v>19.68875995704872</v>
       </c>
       <c r="F96" t="n">
-        <v>5.296691234145418</v>
+        <v>6.39389216218808</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4403903843563269</v>
+        <v>0.4660461513262931</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2242669215966473</v>
+        <v>0.2759534378884783</v>
       </c>
       <c r="I96" t="n">
-        <v>4.632033928192466</v>
+        <v>5.65189257297331</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1569868451176531</v>
+        <v>0.1931674065219346</v>
       </c>
       <c r="K96" t="n">
-        <v>0.06728007647899419</v>
+        <v>0.0827860313665434</v>
       </c>
       <c r="L96" t="n">
-        <v>0.007849342255882652</v>
+        <v>0.009658370326096732</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1491375028617704</v>
+        <v>0.1835090361958379</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2349657002335723</v>
+        <v>0.2867339302169924</v>
       </c>
       <c r="O96" t="n">
-        <v>4.464348304437874</v>
+        <v>5.447944674122856</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5560,46 +5560,46 @@
         <v>1995</v>
       </c>
       <c r="B97" t="n">
-        <v>13.33080244102963</v>
+        <v>14.9971294635303</v>
       </c>
       <c r="C97" t="n">
-        <v>18.42877475444216</v>
+        <v>21.18944251279241</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>18.42877475444216</v>
+        <v>21.18944251279241</v>
       </c>
       <c r="F97" t="n">
-        <v>5.692227307839731</v>
+        <v>6.855713354596666</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3259406621423332</v>
+        <v>0.3374890922155019</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2710720547443496</v>
+        <v>0.332342990120916</v>
       </c>
       <c r="I97" t="n">
-        <v>5.095214590953042</v>
+        <v>6.185881272260243</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1897504383210445</v>
+        <v>0.2326400930846413</v>
       </c>
       <c r="K97" t="n">
-        <v>0.08132161642330481</v>
+        <v>0.09970289703627488</v>
       </c>
       <c r="L97" t="n">
-        <v>0.009487521916052229</v>
+        <v>0.01163200465423207</v>
       </c>
       <c r="M97" t="n">
-        <v>0.1802629164049923</v>
+        <v>0.2210080884304093</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2588268103688178</v>
+        <v>0.3142792084648261</v>
       </c>
       <c r="O97" t="n">
-        <v>4.917709397007541</v>
+        <v>5.971304960831698</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5613,46 +5613,46 @@
         <v>1996</v>
       </c>
       <c r="B98" t="n">
-        <v>14.52453203538851</v>
+        <v>16.29108280014058</v>
       </c>
       <c r="C98" t="n">
-        <v>20.00575774752425</v>
+        <v>22.93412535152774</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>20.00575774752425</v>
+        <v>22.93412535152775</v>
       </c>
       <c r="F98" t="n">
-        <v>6.121016587948318</v>
+        <v>7.35610329448896</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3513053120159589</v>
+        <v>0.3634269246077293</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3197833409403133</v>
+        <v>0.3917389095867455</v>
       </c>
       <c r="I98" t="n">
-        <v>5.449927934992056</v>
+        <v>6.600937460294491</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2238483386582194</v>
+        <v>0.2742172367107216</v>
       </c>
       <c r="K98" t="n">
-        <v>0.09593500228209405</v>
+        <v>0.1175216728760236</v>
       </c>
       <c r="L98" t="n">
-        <v>0.01119241693291097</v>
+        <v>0.01371086183553608</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2126559217253084</v>
+        <v>0.2605063748751855</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2772931468637072</v>
+        <v>0.3359229566585257</v>
       </c>
       <c r="O98" t="n">
-        <v>5.268569790410437</v>
+        <v>6.382536176511989</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5666,46 +5666,46 @@
         <v>1997</v>
       </c>
       <c r="B99" t="n">
-        <v>15.77712271491049</v>
+        <v>17.63852059697011</v>
       </c>
       <c r="C99" t="n">
-        <v>21.67384620536577</v>
+        <v>24.7704417750704</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>21.67384620536577</v>
+        <v>24.77044177507041</v>
       </c>
       <c r="F99" t="n">
-        <v>6.585752658690168</v>
+        <v>7.898687504345951</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3786753003161836</v>
+        <v>0.3914020537140616</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3778064687227076</v>
+        <v>0.4622712001168197</v>
       </c>
       <c r="I99" t="n">
-        <v>5.829270889651265</v>
+        <v>7.045014250515065</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2644645281058954</v>
+        <v>0.3235898400817734</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1133419406168123</v>
+        <v>0.1386813600350457</v>
       </c>
       <c r="L99" t="n">
-        <v>0.01322322640529477</v>
+        <v>0.01617949200408867</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2512413017006006</v>
+        <v>0.3074103480776848</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2971306415134039</v>
+        <v>0.3591847805275057</v>
       </c>
       <c r="O99" t="n">
-        <v>5.645482188754674</v>
+        <v>6.824510830022607</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5719,46 +5719,46 @@
         <v>1998</v>
       </c>
       <c r="B100" t="n">
-        <v>17.08565008604496</v>
+        <v>19.03634553014268</v>
       </c>
       <c r="C100" t="n">
-        <v>23.43345925433724</v>
+        <v>26.6995303415059</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>23.43345925433724</v>
+        <v>26.69953034150587</v>
       </c>
       <c r="F100" t="n">
-        <v>7.09012377753709</v>
+        <v>8.488102016454068</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4082193898609998</v>
+        <v>0.4215916887033282</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4453959797715057</v>
+        <v>0.5441120485499865</v>
       </c>
       <c r="I100" t="n">
-        <v>6.236508407904557</v>
+        <v>7.522398279200769</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3117771858400536</v>
+        <v>0.3808784339849901</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1336187939314516</v>
+        <v>0.1632336145649958</v>
       </c>
       <c r="L100" t="n">
-        <v>0.01558885929200268</v>
+        <v>0.01904392169924952</v>
       </c>
       <c r="M100" t="n">
-        <v>0.2961883265480509</v>
+        <v>0.3618345122857407</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3185063600918011</v>
+        <v>0.3842815946882879</v>
       </c>
       <c r="O100" t="n">
-        <v>6.051620841744221</v>
+        <v>7.301350299077471</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5772,46 +5772,46 @@
         <v>1999</v>
       </c>
       <c r="B101" t="n">
-        <v>18.44963606230677</v>
+        <v>20.48508710745141</v>
       </c>
       <c r="C101" t="n">
-        <v>25.28812156794087</v>
+        <v>28.72660194169531</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>25.28812156794087</v>
+        <v>28.72660194169532</v>
       </c>
       <c r="F101" t="n">
-        <v>7.638592684244794</v>
+        <v>9.129530063855007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4401868888404722</v>
+        <v>0.4542512909667034</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5225622201482325</v>
+        <v>0.6371227817316885</v>
       </c>
       <c r="I101" t="n">
-        <v>6.675843575256089</v>
+        <v>8.038155991156634</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3657935541037632</v>
+        <v>0.4459859472121815</v>
       </c>
       <c r="K101" t="n">
-        <v>0.15676866604447</v>
+        <v>0.1911368345195064</v>
       </c>
       <c r="L101" t="n">
-        <v>0.01828967770518816</v>
+        <v>0.02229929736060908</v>
       </c>
       <c r="M101" t="n">
-        <v>0.347503876398575</v>
+        <v>0.4236866498515725</v>
       </c>
       <c r="N101" t="n">
-        <v>0.341630612065028</v>
+        <v>0.4114646412838073</v>
       </c>
       <c r="O101" t="n">
-        <v>6.490981629235533</v>
+        <v>7.817828184392336</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5825,46 +5825,46 @@
         <v>2000</v>
       </c>
       <c r="B102" t="n">
-        <v>19.87686195055336</v>
+        <v>21.99133479592608</v>
       </c>
       <c r="C102" t="n">
-        <v>27.24989204759812</v>
+        <v>30.86277162813151</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>27.24989204759812</v>
+        <v>30.86277162813151</v>
       </c>
       <c r="F102" t="n">
-        <v>8.235986341674966</v>
+        <v>9.82805928509533</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4749020289962608</v>
+        <v>0.4897047248790656</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6091591266311852</v>
+        <v>0.7409672888327432</v>
       </c>
       <c r="I102" t="n">
-        <v>7.151925186047555</v>
+        <v>8.597387271383489</v>
       </c>
       <c r="J102" t="n">
-        <v>0.426411388641829</v>
+        <v>0.5186771021829201</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1827477379893553</v>
+        <v>0.222290186649823</v>
       </c>
       <c r="L102" t="n">
-        <v>0.02132056943209145</v>
+        <v>0.02593385510914601</v>
       </c>
       <c r="M102" t="n">
-        <v>0.4050908192097376</v>
+        <v>0.4927432470737745</v>
       </c>
       <c r="N102" t="n">
-        <v>0.366733646201844</v>
+        <v>0.4409838729016661</v>
       </c>
       <c r="O102" t="n">
-        <v>6.967939277835036</v>
+        <v>8.378693585131655</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -5878,46 +5878,46 @@
         <v>2001</v>
       </c>
       <c r="B103" t="n">
-        <v>21.08769727393875</v>
+        <v>23.23308196643108</v>
       </c>
       <c r="C103" t="n">
-        <v>29.04328952430578</v>
+        <v>32.7898786709012</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>29.04328952430578</v>
+        <v>32.78987867090119</v>
       </c>
       <c r="F103" t="n">
-        <v>8.887056223567733</v>
+        <v>10.58811213620426</v>
       </c>
       <c r="G103" t="n">
-        <v>0.512748591602441</v>
+        <v>0.5283261314988696</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7049840241077043</v>
+        <v>0.8552359612239721</v>
       </c>
       <c r="I103" t="n">
-        <v>7.669323607857621</v>
+        <v>9.204550043481431</v>
       </c>
       <c r="J103" t="n">
-        <v>0.493488816875393</v>
+        <v>0.5986651728567808</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2114952072323114</v>
+        <v>0.2565707883671918</v>
       </c>
       <c r="L103" t="n">
-        <v>0.02467444084376965</v>
+        <v>0.02993325864283904</v>
       </c>
       <c r="M103" t="n">
-        <v>0.4688143760316233</v>
+        <v>0.5687319142139415</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3940409407544954</v>
+        <v>0.473056041592431</v>
       </c>
       <c r="O103" t="n">
-        <v>7.486777874335413</v>
+        <v>8.988064790256187</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -5931,46 +5931,46 @@
         <v>2002</v>
       </c>
       <c r="B104" t="n">
-        <v>22.70461802157049</v>
+        <v>24.90276404362827</v>
       </c>
       <c r="C104" t="n">
-        <v>31.29457864583031</v>
+        <v>35.203333579651</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>31.29457864583033</v>
+        <v>35.20333357965101</v>
       </c>
       <c r="F104" t="n">
-        <v>9.59621793552275</v>
+        <v>11.41322876698884</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5541541205123999</v>
+        <v>0.5705239922280468</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8098752512301869</v>
+        <v>0.979564876584914</v>
       </c>
       <c r="I104" t="n">
-        <v>8.232188563780166</v>
+        <v>9.863139898175838</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5669126758611308</v>
+        <v>0.6856954136094389</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2429625753690559</v>
+        <v>0.2938694629754737</v>
       </c>
       <c r="L104" t="n">
-        <v>0.02834563379305653</v>
+        <v>0.03428477068047193</v>
       </c>
       <c r="M104" t="n">
-        <v>0.5385670420680742</v>
+        <v>0.6514106429289668</v>
       </c>
       <c r="N104" t="n">
-        <v>0.423757556957461</v>
+        <v>0.507850468057567</v>
       </c>
       <c r="O104" t="n">
-        <v>8.051393582191757</v>
+        <v>9.649158893093771</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -5984,46 +5984,46 @@
         <v>2003</v>
       </c>
       <c r="B105" t="n">
-        <v>25.14052486225393</v>
+        <v>27.56174690920761</v>
       </c>
       <c r="C105" t="n">
-        <v>34.42005762918843</v>
+        <v>38.66677928861606</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>34.42005762918844</v>
+        <v>38.66677928861606</v>
       </c>
       <c r="F105" t="n">
-        <v>10.36750424735867</v>
+        <v>12.30623662886071</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5995750190065808</v>
+        <v>0.616728861062335</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9237881397325941</v>
+        <v>1.113731425605158</v>
       </c>
       <c r="I105" t="n">
-        <v>8.844141088619512</v>
+        <v>10.57577634219321</v>
       </c>
       <c r="J105" t="n">
-        <v>0.646651697812816</v>
+        <v>0.779611997923612</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2771364419197782</v>
+        <v>0.334119427681548</v>
       </c>
       <c r="L105" t="n">
-        <v>0.03233258489064079</v>
+        <v>0.0389805998961806</v>
       </c>
       <c r="M105" t="n">
-        <v>0.6143191129221748</v>
+        <v>0.7406313980274314</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4560638765269642</v>
+        <v>0.5454947884937386</v>
       </c>
       <c r="O105" t="n">
-        <v>8.665213654012318</v>
+        <v>10.36440098138103</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -6037,46 +6037,46 @@
         <v>2004</v>
       </c>
       <c r="B106" t="n">
-        <v>27.83330958807306</v>
+        <v>30.44628311182772</v>
       </c>
       <c r="C106" t="n">
-        <v>37.86080095640008</v>
+        <v>42.41851965926664</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>37.86080095640007</v>
+        <v>42.41851965926663</v>
       </c>
       <c r="F106" t="n">
-        <v>11.20474108879131</v>
+        <v>13.26974238341131</v>
       </c>
       <c r="G106" t="n">
-        <v>0.649487016868132</v>
+        <v>0.6673881229492227</v>
       </c>
       <c r="H106" t="n">
-        <v>1.04684623349264</v>
+        <v>1.257722802607013</v>
       </c>
       <c r="I106" t="n">
-        <v>9.508407838430536</v>
+        <v>11.34463145785503</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7327923634448481</v>
+        <v>0.880405961824908</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3140538700477921</v>
+        <v>0.3773168407821035</v>
       </c>
       <c r="L106" t="n">
-        <v>0.03663961817224241</v>
+        <v>0.04402029809124543</v>
       </c>
       <c r="M106" t="n">
-        <v>0.6961527452726057</v>
+        <v>0.8363856637336631</v>
       </c>
       <c r="N106" t="n">
-        <v>0.4911230854239169</v>
+        <v>0.5860974149318563</v>
       </c>
       <c r="O106" t="n">
-        <v>9.331338623054421</v>
+        <v>11.13585088370527</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -6090,46 +6090,46 @@
         <v>2005</v>
       </c>
       <c r="B107" t="n">
-        <v>30.65354763191299</v>
+        <v>33.48773664023016</v>
       </c>
       <c r="C107" t="n">
-        <v>41.49068203230665</v>
+        <v>46.39238377975948</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>41.49068203230666</v>
+        <v>46.39238377975946</v>
       </c>
       <c r="F107" t="n">
-        <v>12.11189081820913</v>
+        <v>14.30680558317876</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7043809230579104</v>
+        <v>0.7229664889374284</v>
       </c>
       <c r="H107" t="n">
-        <v>1.179372697236165</v>
+        <v>1.411783536459856</v>
       </c>
       <c r="I107" t="n">
-        <v>10.22813719791505</v>
+        <v>12.17205555778151</v>
       </c>
       <c r="J107" t="n">
-        <v>0.8255608880653146</v>
+        <v>0.988248475521899</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3538118091708492</v>
+        <v>0.4235350609379567</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04127804440326575</v>
+        <v>0.04941242377609497</v>
       </c>
       <c r="M107" t="n">
-        <v>0.7842828436620487</v>
+        <v>0.9388360517458041</v>
       </c>
       <c r="N107" t="n">
-        <v>0.5290974503542952</v>
+        <v>0.6297795309359745</v>
       </c>
       <c r="O107" t="n">
-        <v>10.05285155673161</v>
+        <v>11.96581108778351</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6143,46 +6143,46 @@
         <v>2006</v>
       </c>
       <c r="B108" t="n">
-        <v>32.37034104081044</v>
+        <v>35.27189653040733</v>
       </c>
       <c r="C108" t="n">
-        <v>44.0825103299584</v>
+        <v>49.17752640804589</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>44.08251032995844</v>
+        <v>49.17752640804589</v>
       </c>
       <c r="F108" t="n">
-        <v>13.09335630997322</v>
+        <v>15.42144885236682</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7647570582385415</v>
+        <v>0.7839437180104247</v>
       </c>
       <c r="H108" t="n">
-        <v>1.321894105466488</v>
+        <v>1.576425749676736</v>
       </c>
       <c r="I108" t="n">
-        <v>11.00670514626822</v>
+        <v>13.06107938467969</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9253258738265434</v>
+        <v>1.103498024773715</v>
       </c>
       <c r="K108" t="n">
-        <v>0.396568231639947</v>
+        <v>0.4729277249030208</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04626629369132717</v>
+        <v>0.05517490123868576</v>
       </c>
       <c r="M108" t="n">
-        <v>0.879059580135216</v>
+        <v>1.04832312353503</v>
       </c>
       <c r="N108" t="n">
-        <v>0.570163668895408</v>
+        <v>0.676700355479133</v>
       </c>
       <c r="O108" t="n">
-        <v>10.83310970901275</v>
+        <v>12.85730675410353</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -6196,46 +6196,46 @@
         <v>2007</v>
       </c>
       <c r="B109" t="n">
-        <v>33.79858589576824</v>
+        <v>36.72912580218303</v>
       </c>
       <c r="C109" t="n">
-        <v>46.45559292368985</v>
+        <v>51.70892174377093</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>46.45559292368985</v>
+        <v>51.70892174377094</v>
       </c>
       <c r="F109" t="n">
-        <v>14.15428971611015</v>
+        <v>16.61902134420284</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8311244235610928</v>
+        <v>0.850815089899833</v>
       </c>
       <c r="H109" t="n">
-        <v>1.475139850735338</v>
+        <v>1.75242624516398</v>
       </c>
       <c r="I109" t="n">
-        <v>11.84802544181372</v>
+        <v>14.01578000913909</v>
       </c>
       <c r="J109" t="n">
-        <v>1.032597895514737</v>
+        <v>1.226698371614787</v>
       </c>
       <c r="K109" t="n">
-        <v>0.4425419552206014</v>
+        <v>0.5257278735491944</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05162989477573683</v>
+        <v>0.06133491858073935</v>
       </c>
       <c r="M109" t="n">
-        <v>0.9809680007389998</v>
+        <v>1.165363453034048</v>
       </c>
       <c r="N109" t="n">
-        <v>0.6145283698517164</v>
+        <v>0.7270753941344139</v>
       </c>
       <c r="O109" t="n">
-        <v>11.67603902718261</v>
+        <v>13.81443248855387</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -6249,46 +6249,46 @@
         <v>2008</v>
       </c>
       <c r="B110" t="n">
-        <v>35.32020781256806</v>
+        <v>38.31255443832332</v>
       </c>
       <c r="C110" t="n">
-        <v>49.01867867162576</v>
+        <v>54.46696255088701</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>49.01867867162575</v>
+        <v>54.466962550887</v>
       </c>
       <c r="F110" t="n">
-        <v>15.30071839453511</v>
+        <v>17.90621623738308</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8812753850007269</v>
+        <v>0.9015761188949689</v>
       </c>
       <c r="H110" t="n">
-        <v>1.642738911781556</v>
+        <v>1.943483527371637</v>
       </c>
       <c r="I110" t="n">
-        <v>12.77670409775284</v>
+        <v>15.06115659111641</v>
       </c>
       <c r="J110" t="n">
-        <v>1.14991723824709</v>
+        <v>1.360438469160148</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4928216735344672</v>
+        <v>0.5830450582114922</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05749586191235447</v>
+        <v>0.06802192345800741</v>
       </c>
       <c r="M110" t="n">
-        <v>1.092421376334735</v>
+        <v>1.292416545702141</v>
       </c>
       <c r="N110" t="n">
-        <v>0.6634762885643666</v>
+        <v>0.7822100824663963</v>
       </c>
       <c r="O110" t="n">
-        <v>12.60604948272297</v>
+        <v>14.86199156686153</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6302,46 +6302,46 @@
         <v>2009</v>
       </c>
       <c r="B111" t="n">
-        <v>36.61104862256455</v>
+        <v>39.58437811747459</v>
       </c>
       <c r="C111" t="n">
-        <v>51.41451833481092</v>
+        <v>56.98199118561126</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>51.41451833481094</v>
+        <v>56.98199118561121</v>
       </c>
       <c r="F111" t="n">
-        <v>16.53959125650667</v>
+        <v>19.29092949970236</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9569915594051684</v>
+        <v>0.9776525858743244</v>
       </c>
       <c r="H111" t="n">
-        <v>1.820909988999009</v>
+        <v>2.145984063235667</v>
       </c>
       <c r="I111" t="n">
-        <v>13.76168970810246</v>
+        <v>16.16729285059237</v>
       </c>
       <c r="J111" t="n">
-        <v>1.274636992299306</v>
+        <v>1.502188844264968</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5462729966997024</v>
+        <v>0.6437952189707009</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06373184961496528</v>
+        <v>0.07510944221324843</v>
       </c>
       <c r="M111" t="n">
-        <v>1.21090514268434</v>
+        <v>1.42707940205172</v>
       </c>
       <c r="N111" t="n">
-        <v>0.7153981352401081</v>
+        <v>0.8405544034781541</v>
       </c>
       <c r="O111" t="n">
-        <v>13.59256456956205</v>
+        <v>15.97053366608493</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6355,46 +6355,46 @@
         <v>2010</v>
       </c>
       <c r="B112" t="n">
-        <v>37.83934524300237</v>
+        <v>41.47248525036689</v>
       </c>
       <c r="C112" t="n">
-        <v>54.2158006404908</v>
+        <v>59.85715594875621</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.7542078672766691</v>
       </c>
       <c r="E112" t="n">
-        <v>54.21580064049076</v>
+        <v>59.85715594875621</v>
       </c>
       <c r="F112" t="n">
-        <v>17.87880214246977</v>
+        <v>20.7821202437271</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6404280398504157</v>
+        <v>0.6359322798681422</v>
       </c>
       <c r="H112" t="n">
-        <v>2.059921479679092</v>
+        <v>2.413392500823536</v>
       </c>
       <c r="I112" t="n">
-        <v>15.17845262294031</v>
+        <v>17.7327954630354</v>
       </c>
       <c r="J112" t="n">
-        <v>1.441945035775365</v>
+        <v>1.689374750576474</v>
       </c>
       <c r="K112" t="n">
-        <v>0.6179764439037276</v>
+        <v>0.7240177502470604</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07209725178876825</v>
+        <v>0.0844687375288237</v>
       </c>
       <c r="M112" t="n">
-        <v>1.369847783986597</v>
+        <v>1.60490601304765</v>
       </c>
       <c r="N112" t="n">
-        <v>0.7898214533422011</v>
+        <v>0.9228406606641233</v>
       </c>
       <c r="O112" t="n">
-        <v>15.00660761350182</v>
+        <v>17.53397255261835</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -6408,46 +6408,46 @@
         <v>2011</v>
       </c>
       <c r="B113" t="n">
-        <v>40.15103416691173</v>
+        <v>44.05266865465592</v>
       </c>
       <c r="C113" t="n">
-        <v>57.74643365312262</v>
+        <v>63.49247590736731</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0940144792251581</v>
+        <v>1.164471740925462</v>
       </c>
       <c r="E113" t="n">
-        <v>57.74643365312266</v>
+        <v>63.4924759073673</v>
       </c>
       <c r="F113" t="n">
-        <v>19.32711041262537</v>
+        <v>22.38964561575915</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7066746595347948</v>
+        <v>0.7009308856150822</v>
       </c>
       <c r="H113" t="n">
-        <v>2.271483204592345</v>
+        <v>2.651655980979185</v>
       </c>
       <c r="I113" t="n">
-        <v>16.34895254849824</v>
+        <v>19.03705874916495</v>
       </c>
       <c r="J113" t="n">
-        <v>1.590038243214642</v>
+        <v>1.856159186685432</v>
       </c>
       <c r="K113" t="n">
-        <v>0.6814449613777034</v>
+        <v>0.7954967942937565</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07950191216073209</v>
+        <v>0.09280795933427162</v>
       </c>
       <c r="M113" t="n">
-        <v>1.51053633105391</v>
+        <v>1.76335122735116</v>
       </c>
       <c r="N113" t="n">
-        <v>0.8515198754937969</v>
+        <v>0.9916277771729325</v>
       </c>
       <c r="O113" t="n">
-        <v>16.17887763438214</v>
+        <v>18.84092776628571</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6461,46 +6461,46 @@
         <v>2012</v>
       </c>
       <c r="B114" t="n">
-        <v>42.71328181286425</v>
+        <v>46.65705679122431</v>
       </c>
       <c r="C114" t="n">
-        <v>61.33851933980796</v>
+        <v>67.15337879997105</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4831567370605332</v>
+        <v>1.687461531312991</v>
       </c>
       <c r="E114" t="n">
-        <v>61.33851933980795</v>
+        <v>67.15337879997105</v>
       </c>
       <c r="F114" t="n">
-        <v>20.8939119044668</v>
+        <v>24.12401458564282</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7798126791991512</v>
+        <v>0.7726634908431116</v>
       </c>
       <c r="H114" t="n">
-        <v>2.500118876671755</v>
+        <v>2.90830698327929</v>
       </c>
       <c r="I114" t="n">
-        <v>17.61398034859589</v>
+        <v>20.44304411152029</v>
       </c>
       <c r="J114" t="n">
-        <v>1.750083213670228</v>
+        <v>2.035814888295505</v>
       </c>
       <c r="K114" t="n">
-        <v>0.750035663001526</v>
+        <v>0.8724920949837877</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08750416068351143</v>
+        <v>0.1017907444147752</v>
       </c>
       <c r="M114" t="n">
-        <v>1.662579052986717</v>
+        <v>1.934024143880729</v>
       </c>
       <c r="N114" t="n">
-        <v>0.918200800579871</v>
+        <v>1.065776810325211</v>
       </c>
       <c r="O114" t="n">
-        <v>17.44581521101755</v>
+        <v>20.24975939617901</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -6514,46 +6514,46 @@
         <v>2013</v>
       </c>
       <c r="B115" t="n">
-        <v>45.5673283547663</v>
+        <v>49.59719041134449</v>
       </c>
       <c r="C115" t="n">
-        <v>65.33333673650816</v>
+        <v>71.27546831686797</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8758939294796461</v>
+        <v>2.208675807811822</v>
       </c>
       <c r="E115" t="n">
-        <v>65.33333673650814</v>
+        <v>71.27546831686793</v>
       </c>
       <c r="F115" t="n">
-        <v>22.58877621397678</v>
+        <v>25.99590009388736</v>
       </c>
       <c r="G115" t="n">
-        <v>0.860457991638413</v>
+        <v>0.8517382903765044</v>
       </c>
       <c r="H115" t="n">
-        <v>2.747342859241669</v>
+        <v>3.185025415217889</v>
       </c>
       <c r="I115" t="n">
-        <v>18.98097536309681</v>
+        <v>21.95913638829304</v>
       </c>
       <c r="J115" t="n">
-        <v>1.923140001469168</v>
+        <v>2.229517790652523</v>
       </c>
       <c r="K115" t="n">
-        <v>0.8242028577725005</v>
+        <v>0.9555076245653669</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09615700007345836</v>
+        <v>0.1114758895326261</v>
       </c>
       <c r="M115" t="n">
-        <v>1.82698300139571</v>
+        <v>2.118041901119896</v>
       </c>
       <c r="N115" t="n">
-        <v>0.9902589110434634</v>
+        <v>1.145732200642916</v>
       </c>
       <c r="O115" t="n">
-        <v>18.8149193098258</v>
+        <v>21.7689118122154</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -6567,46 +6567,46 @@
         <v>2014</v>
       </c>
       <c r="B116" t="n">
-        <v>48.86593820210654</v>
+        <v>52.99359614647449</v>
       </c>
       <c r="C116" t="n">
-        <v>69.94817738861833</v>
+        <v>76.0407254150262</v>
       </c>
       <c r="D116" t="n">
-        <v>1.252208068204856</v>
+        <v>2.711567714566505</v>
       </c>
       <c r="E116" t="n">
-        <v>69.94817738861835</v>
+        <v>76.04072541502623</v>
       </c>
       <c r="F116" t="n">
-        <v>24.4205085188335</v>
+        <v>28.01503271983476</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9105640401844778</v>
+        <v>0.900614842868267</v>
       </c>
       <c r="H116" t="n">
-        <v>3.019678402053206</v>
+        <v>3.488410535610659</v>
       </c>
       <c r="I116" t="n">
-        <v>20.49026607659585</v>
+        <v>23.62600734135589</v>
       </c>
       <c r="J116" t="n">
-        <v>2.113774881437245</v>
+        <v>2.441887374927458</v>
       </c>
       <c r="K116" t="n">
-        <v>0.905903520615962</v>
+        <v>1.046523160683197</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1056887440718623</v>
+        <v>0.1220943687463729</v>
       </c>
       <c r="M116" t="n">
-        <v>2.008086137365384</v>
+        <v>2.319793006181085</v>
       </c>
       <c r="N116" t="n">
-        <v>1.069808479860593</v>
+        <v>1.233626525101954</v>
       </c>
       <c r="O116" t="n">
-        <v>20.32636111735127</v>
+        <v>23.43890397693712</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -6620,46 +6620,46 @@
         <v>2015</v>
       </c>
       <c r="B117" t="n">
-        <v>52.36174280135805</v>
+        <v>56.62694920798656</v>
       </c>
       <c r="C117" t="n">
-        <v>74.80053557334431</v>
+        <v>81.10093894507213</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68634659601466</v>
+        <v>3.265397993119814</v>
       </c>
       <c r="E117" t="n">
-        <v>74.80053557334426</v>
+        <v>81.10093894507214</v>
       </c>
       <c r="F117" t="n">
-        <v>26.39574930436814</v>
+        <v>30.18843539325706</v>
       </c>
       <c r="G117" t="n">
-        <v>1.000865759103983</v>
+        <v>0.9890798877778103</v>
       </c>
       <c r="H117" t="n">
-        <v>3.309055624558184</v>
+        <v>3.810584793283497</v>
       </c>
       <c r="I117" t="n">
-        <v>22.08582792070597</v>
+        <v>25.38877071219574</v>
       </c>
       <c r="J117" t="n">
-        <v>2.316338937190733</v>
+        <v>2.667409355298456</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9927166873674571</v>
+        <v>1.143175437985053</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1158169468595366</v>
+        <v>0.1333704677649228</v>
       </c>
       <c r="M117" t="n">
-        <v>2.200521990331196</v>
+        <v>2.534038887533534</v>
       </c>
       <c r="N117" t="n">
-        <v>1.153927230403669</v>
+        <v>1.326597307509044</v>
       </c>
       <c r="O117" t="n">
-        <v>21.92461737766971</v>
+        <v>25.20534884267183</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6673,46 +6673,46 @@
         <v>2016</v>
       </c>
       <c r="B118" t="n">
-        <v>55.98667603846788</v>
+        <v>60.29506817407376</v>
       </c>
       <c r="C118" t="n">
-        <v>79.84639834009316</v>
+        <v>86.23375758232953</v>
       </c>
       <c r="D118" t="n">
-        <v>2.187856655110526</v>
+        <v>3.922889254139245</v>
       </c>
       <c r="E118" t="n">
-        <v>79.84639834009324</v>
+        <v>86.23375758232952</v>
       </c>
       <c r="F118" t="n">
-        <v>28.51736640729802</v>
+        <v>32.51829673042896</v>
       </c>
       <c r="G118" t="n">
-        <v>1.098862242312947</v>
+        <v>1.085056033170928</v>
       </c>
       <c r="H118" t="n">
-        <v>3.620386800504454</v>
+        <v>4.156323226525734</v>
       </c>
       <c r="I118" t="n">
-        <v>23.79811736448055</v>
+        <v>27.27691747073222</v>
       </c>
       <c r="J118" t="n">
-        <v>2.534270760353116</v>
+        <v>2.909426258568016</v>
       </c>
       <c r="K118" t="n">
-        <v>1.086116040151335</v>
+        <v>1.246896967957721</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1267135380176558</v>
+        <v>0.1454713129284008</v>
       </c>
       <c r="M118" t="n">
-        <v>2.40755722233546</v>
+        <v>2.763954945639615</v>
       </c>
       <c r="N118" t="n">
-        <v>1.244211670231598</v>
+        <v>1.426190721934496</v>
       </c>
       <c r="O118" t="n">
-        <v>23.64002173440036</v>
+        <v>27.09762371675543</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -6726,46 +6726,46 @@
         <v>2017</v>
       </c>
       <c r="B119" t="n">
-        <v>62.36908913901154</v>
+        <v>68.22524081708806</v>
       </c>
       <c r="C119" t="n">
-        <v>88.55183608130851</v>
+        <v>96.62033618943302</v>
       </c>
       <c r="D119" t="n">
-        <v>1.917133231966113</v>
+        <v>3.726258478830156</v>
       </c>
       <c r="E119" t="n">
-        <v>88.55183608130849</v>
+        <v>96.62033618943306</v>
       </c>
       <c r="F119" t="n">
-        <v>30.78326054166327</v>
+        <v>35.00037409218184</v>
       </c>
       <c r="G119" t="n">
-        <v>1.20443930559682</v>
+        <v>1.188422669892364</v>
       </c>
       <c r="H119" t="n">
-        <v>3.953664977997713</v>
+        <v>4.525331253311148</v>
       </c>
       <c r="I119" t="n">
-        <v>25.62515625806879</v>
+        <v>29.28662016897839</v>
       </c>
       <c r="J119" t="n">
-        <v>2.767565484598403</v>
+        <v>3.167731877317808</v>
       </c>
       <c r="K119" t="n">
-        <v>1.186099493399315</v>
+        <v>1.357599375993347</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1383782742299201</v>
+        <v>0.1583865938658905</v>
       </c>
       <c r="M119" t="n">
-        <v>2.629187210368482</v>
+        <v>3.009345283451919</v>
       </c>
       <c r="N119" t="n">
-        <v>1.3405627875734</v>
+        <v>1.532210977248589</v>
       </c>
       <c r="O119" t="n">
-        <v>25.4706929638946</v>
+        <v>29.1120085677232</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6779,46 +6779,46 @@
         <v>2018</v>
       </c>
       <c r="B120" t="n">
-        <v>68.65213837691752</v>
+        <v>75.83811707372514</v>
       </c>
       <c r="C120" t="n">
-        <v>96.85555469931862</v>
+        <v>106.4117868554797</v>
       </c>
       <c r="D120" t="n">
-        <v>2.071921538903001</v>
+        <v>3.934721232579579</v>
       </c>
       <c r="E120" t="n">
-        <v>96.85555469931857</v>
+        <v>106.4117868554798</v>
       </c>
       <c r="F120" t="n">
-        <v>33.18595111527016</v>
+        <v>37.62337513351493</v>
       </c>
       <c r="G120" t="n">
-        <v>1.317174419160608</v>
+        <v>1.298753013163168</v>
       </c>
       <c r="H120" t="n">
-        <v>4.308162272490946</v>
+        <v>4.916355815456211</v>
       </c>
       <c r="I120" t="n">
-        <v>27.56061442361861</v>
+        <v>31.40826630489551</v>
       </c>
       <c r="J120" t="n">
-        <v>3.015713590743659</v>
+        <v>3.441449070819346</v>
       </c>
       <c r="K120" t="n">
-        <v>1.292448681747283</v>
+        <v>1.474906744636862</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1507856795371829</v>
+        <v>0.1720724535409673</v>
       </c>
       <c r="M120" t="n">
-        <v>2.864927911206476</v>
+        <v>3.269376617278378</v>
       </c>
       <c r="N120" t="n">
-        <v>1.442653155268296</v>
+        <v>1.644158652476623</v>
       </c>
       <c r="O120" t="n">
-        <v>27.41040995009762</v>
+        <v>31.23901439705584</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -6832,46 +6832,46 @@
         <v>2019</v>
       </c>
       <c r="B121" t="n">
-        <v>75.63651454609726</v>
+        <v>82.32007875944601</v>
       </c>
       <c r="C121" t="n">
-        <v>105.8772639799259</v>
+        <v>114.8197900208704</v>
       </c>
       <c r="D121" t="n">
-        <v>2.323144417484022</v>
+        <v>4.508120119379607</v>
       </c>
       <c r="E121" t="n">
-        <v>105.877263979926</v>
+        <v>114.8197900208704</v>
       </c>
       <c r="F121" t="n">
-        <v>35.7141677045591</v>
+        <v>40.37097708149799</v>
       </c>
       <c r="G121" t="n">
-        <v>1.436384703177205</v>
+        <v>1.415365101704278</v>
       </c>
       <c r="H121" t="n">
-        <v>4.682642392204005</v>
+        <v>5.327455133436974</v>
       </c>
       <c r="I121" t="n">
-        <v>29.59514060917786</v>
+        <v>33.62815684635689</v>
       </c>
       <c r="J121" t="n">
-        <v>3.277849674542802</v>
+        <v>3.72921859340588</v>
       </c>
       <c r="K121" t="n">
-        <v>1.404792717661201</v>
+        <v>1.598236540031091</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1638924837271401</v>
+        <v>0.186460929670294</v>
       </c>
       <c r="M121" t="n">
-        <v>3.113957190815661</v>
+        <v>3.542757663735586</v>
       </c>
       <c r="N121" t="n">
-        <v>1.549996666341951</v>
+        <v>1.76131966931939</v>
       </c>
       <c r="O121" t="n">
-        <v>29.44993666049707</v>
+        <v>33.46507371706841</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -6885,46 +6885,46 @@
         <v>2020</v>
       </c>
       <c r="B122" t="n">
-        <v>83.06480072928075</v>
+        <v>89.25458990284569</v>
       </c>
       <c r="C122" t="n">
-        <v>115.4316696187375</v>
+        <v>123.7673558307682</v>
       </c>
       <c r="D122" t="n">
-        <v>2.588130278247885</v>
+        <v>5.09136234410959</v>
       </c>
       <c r="E122" t="n">
-        <v>115.4316696187375</v>
+        <v>123.7673558307681</v>
       </c>
       <c r="F122" t="n">
-        <v>38.35599967400017</v>
+        <v>43.22602152437094</v>
       </c>
       <c r="G122" t="n">
-        <v>1.56126370799537</v>
+        <v>1.537465448547768</v>
       </c>
       <c r="H122" t="n">
-        <v>5.079942025898704</v>
+        <v>5.761380604751657</v>
       </c>
       <c r="I122" t="n">
-        <v>31.71479394010611</v>
+        <v>35.92717547107149</v>
       </c>
       <c r="J122" t="n">
-        <v>3.555959418129095</v>
+        <v>4.032966423326152</v>
       </c>
       <c r="K122" t="n">
-        <v>1.523982607769612</v>
+        <v>1.728414181425494</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1777979709064547</v>
+        <v>0.2016483211663076</v>
       </c>
       <c r="M122" t="n">
-        <v>3.378161447222639</v>
+        <v>3.831318102159844</v>
       </c>
       <c r="N122" t="n">
-        <v>1.661938827393789</v>
+        <v>1.882779482624852</v>
       </c>
       <c r="O122" t="n">
-        <v>31.57683772048199</v>
+        <v>35.77281016987219</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -6938,52 +6938,52 @@
         <v>2021</v>
       </c>
       <c r="B123" t="n">
-        <v>90.46540569758392</v>
+        <v>96.11230047807396</v>
       </c>
       <c r="C123" t="n">
-        <v>124.9995111204607</v>
+        <v>132.7958854913042</v>
       </c>
       <c r="D123" t="n">
-        <v>2.907636579017978</v>
+        <v>5.60277586018108</v>
       </c>
       <c r="E123" t="n">
-        <v>124.9995111204606</v>
+        <v>132.7958854913042</v>
       </c>
       <c r="F123" t="n">
-        <v>41.10346126159549</v>
+        <v>46.17632548293182</v>
       </c>
       <c r="G123" t="n">
-        <v>1.691101259600993</v>
+        <v>1.664366668814546</v>
       </c>
       <c r="H123" t="n">
-        <v>5.493128945041874</v>
+        <v>6.209794244453266</v>
       </c>
       <c r="I123" t="n">
-        <v>33.91923105695249</v>
+        <v>38.30216456966385</v>
       </c>
       <c r="J123" t="n">
-        <v>3.845190261529305</v>
+        <v>4.34685597111728</v>
       </c>
       <c r="K123" t="n">
-        <v>1.647938683512559</v>
+        <v>1.862938273335978</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1922595130764652</v>
+        <v>0.217342798555864</v>
       </c>
       <c r="M123" t="n">
-        <v>3.652930748452839</v>
+        <v>4.129513172561416</v>
       </c>
       <c r="N123" t="n">
-        <v>1.778358487023256</v>
+        <v>2.008255142149993</v>
       </c>
       <c r="O123" t="n">
-        <v>33.56355251175224</v>
+        <v>37.90246871617753</v>
       </c>
       <c r="P123" t="n">
-        <v>0.2252587416896124</v>
+        <v>0.2543789846723324</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.2252587416896124</v>
+        <v>0.2543789846723324</v>
       </c>
     </row>
     <row r="124">
@@ -6991,52 +6991,52 @@
         <v>2022</v>
       </c>
       <c r="B124" t="n">
-        <v>98.17948218665308</v>
+        <v>103.254950951226</v>
       </c>
       <c r="C124" t="n">
-        <v>134.9432603051098</v>
+        <v>142.1706237522132</v>
       </c>
       <c r="D124" t="n">
-        <v>3.261548075717518</v>
+        <v>6.138336900808501</v>
       </c>
       <c r="E124" t="n">
-        <v>134.9432603051098</v>
+        <v>142.1706237522131</v>
       </c>
       <c r="F124" t="n">
-        <v>43.95746919871409</v>
+        <v>49.22101972014001</v>
       </c>
       <c r="G124" t="n">
-        <v>1.825546889056818</v>
+        <v>1.795746349828706</v>
       </c>
       <c r="H124" t="n">
-        <v>5.925729939220315</v>
+        <v>6.676569167960356</v>
       </c>
       <c r="I124" t="n">
-        <v>36.20619237043676</v>
+        <v>40.74870420235094</v>
       </c>
       <c r="J124" t="n">
-        <v>4.148010957454221</v>
+        <v>4.673598417572252</v>
       </c>
       <c r="K124" t="n">
-        <v>1.777718981766095</v>
+        <v>2.002970750388108</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2074005478727111</v>
+        <v>0.2336799208786126</v>
       </c>
       <c r="M124" t="n">
-        <v>3.94061040958151</v>
+        <v>4.43991849669364</v>
       </c>
       <c r="N124" t="n">
-        <v>1.899195567610144</v>
+        <v>2.13758374763695</v>
       </c>
       <c r="O124" t="n">
-        <v>35.60358624079816</v>
+        <v>40.07256998903403</v>
       </c>
       <c r="P124" t="n">
-        <v>0.4811295437945697</v>
+        <v>0.5415212160680274</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.4811295437945697</v>
+        <v>0.5415212160680274</v>
       </c>
     </row>
     <row r="125">
@@ -7044,52 +7044,52 @@
         <v>2023</v>
       </c>
       <c r="B125" t="n">
-        <v>106.2453201369459</v>
+        <v>110.6789243282432</v>
       </c>
       <c r="C125" t="n">
-        <v>145.3745460200483</v>
+        <v>151.8890218901078</v>
       </c>
       <c r="D125" t="n">
-        <v>3.589640819622489</v>
+        <v>6.711634046285372</v>
       </c>
       <c r="E125" t="n">
-        <v>145.3745460200483</v>
+        <v>151.8890218901078</v>
       </c>
       <c r="F125" t="n">
-        <v>46.93207792228509</v>
+        <v>52.3758038172149</v>
       </c>
       <c r="G125" t="n">
-        <v>1.964849814153402</v>
+        <v>1.931875808636002</v>
       </c>
       <c r="H125" t="n">
-        <v>6.380556084597687</v>
+        <v>7.165130833669181</v>
       </c>
       <c r="I125" t="n">
-        <v>38.58667202353386</v>
+        <v>43.27879717490949</v>
       </c>
       <c r="J125" t="n">
-        <v>4.46638925921838</v>
+        <v>5.015591583568435</v>
       </c>
       <c r="K125" t="n">
-        <v>1.914166825379306</v>
+        <v>2.149539250100758</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2233194629609191</v>
+        <v>0.2507795791784218</v>
       </c>
       <c r="M125" t="n">
-        <v>4.243069796257462</v>
+        <v>4.764812004390013</v>
       </c>
       <c r="N125" t="n">
-        <v>2.025041942445658</v>
+        <v>2.271416821250522</v>
       </c>
       <c r="O125" t="n">
-        <v>37.70628096833816</v>
+        <v>42.29378121168472</v>
       </c>
       <c r="P125" t="n">
-        <v>0.7695159381293502</v>
+        <v>0.8631383920751985</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.7695159381293502</v>
+        <v>0.8631383920751985</v>
       </c>
     </row>
     <row r="126">
@@ -7097,52 +7097,52 @@
         <v>2024</v>
       </c>
       <c r="B126" t="n">
-        <v>114.8475361935944</v>
+        <v>118.4005456862342</v>
       </c>
       <c r="C126" t="n">
-        <v>156.3186734621285</v>
+        <v>161.9756995718666</v>
       </c>
       <c r="D126" t="n">
-        <v>4.078607777137774</v>
+        <v>7.346989821483437</v>
       </c>
       <c r="E126" t="n">
-        <v>156.3186734621285</v>
+        <v>161.9756995718667</v>
       </c>
       <c r="F126" t="n">
-        <v>50.05711883256001</v>
+        <v>55.67601704833351</v>
       </c>
       <c r="G126" t="n">
-        <v>2.110018784484424</v>
+        <v>2.073760514527229</v>
       </c>
       <c r="H126" t="n">
-        <v>6.862920767756378</v>
+        <v>7.682208574214514</v>
       </c>
       <c r="I126" t="n">
-        <v>41.0841792803193</v>
+        <v>45.92004795959179</v>
       </c>
       <c r="J126" t="n">
-        <v>4.804044537429458</v>
+        <v>5.377546001950157</v>
       </c>
       <c r="K126" t="n">
-        <v>2.058876230326911</v>
+        <v>2.304662572264353</v>
       </c>
       <c r="L126" t="n">
-        <v>0.240202226871473</v>
+        <v>0.2688773000975079</v>
       </c>
       <c r="M126" t="n">
-        <v>4.563842310557987</v>
+        <v>5.10866870185265</v>
       </c>
       <c r="N126" t="n">
-        <v>2.157152775532312</v>
+        <v>2.411235526592804</v>
       </c>
       <c r="O126" t="n">
-        <v>39.89294532884421</v>
+        <v>44.59178233845626</v>
       </c>
       <c r="P126" t="n">
-        <v>1.092957406269705</v>
+        <v>1.221692666807021</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.092957406269705</v>
+        <v>1.221692666807021</v>
       </c>
     </row>
     <row r="127">
@@ -7150,52 +7150,52 @@
         <v>2025</v>
       </c>
       <c r="B127" t="n">
-        <v>123.6639188400725</v>
+        <v>126.2748283865641</v>
       </c>
       <c r="C127" t="n">
-        <v>167.5980927079317</v>
+        <v>172.2570408450721</v>
       </c>
       <c r="D127" t="n">
-        <v>4.625908333124672</v>
+        <v>8.123785614935619</v>
       </c>
       <c r="E127" t="n">
-        <v>167.5980927079317</v>
+        <v>172.2570408450721</v>
       </c>
       <c r="F127" t="n">
-        <v>53.37873892271327</v>
+        <v>59.17683457177046</v>
       </c>
       <c r="G127" t="n">
-        <v>2.262862921677526</v>
+        <v>2.223152389198297</v>
       </c>
       <c r="H127" t="n">
-        <v>7.380892386131872</v>
+        <v>8.238112716369645</v>
       </c>
       <c r="I127" t="n">
-        <v>43.73498361490367</v>
+        <v>48.71556946620256</v>
       </c>
       <c r="J127" t="n">
-        <v>5.166624670292309</v>
+        <v>5.766678901458743</v>
       </c>
       <c r="K127" t="n">
-        <v>2.214267715839562</v>
+        <v>2.47143381491089</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2583312335146155</v>
+        <v>0.2883339450729371</v>
       </c>
       <c r="M127" t="n">
-        <v>4.908293436777694</v>
+        <v>5.478344956385806</v>
       </c>
       <c r="N127" t="n">
-        <v>2.297462566537167</v>
+        <v>2.559350164055677</v>
       </c>
       <c r="O127" t="n">
-        <v>42.19672913873264</v>
+        <v>47.00673134648927</v>
       </c>
       <c r="P127" t="n">
-        <v>1.455059625473539</v>
+        <v>1.620921770568595</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.455059625473539</v>
+        <v>1.620921770568595</v>
       </c>
     </row>
     <row r="128">
@@ -7203,52 +7203,52 @@
         <v>2026</v>
       </c>
       <c r="B128" t="n">
-        <v>132.9774450473744</v>
+        <v>134.2472861462303</v>
       </c>
       <c r="C128" t="n">
-        <v>179.3280266006007</v>
+        <v>182.6858895150677</v>
       </c>
       <c r="D128" t="n">
-        <v>5.454691147207979</v>
+        <v>9.100958573612592</v>
       </c>
       <c r="E128" t="n">
-        <v>179.3280266006006</v>
+        <v>182.6858895150677</v>
       </c>
       <c r="F128" t="n">
-        <v>56.95777193594949</v>
+        <v>62.95038515781103</v>
       </c>
       <c r="G128" t="n">
-        <v>2.425905935492497</v>
+        <v>2.382425218390024</v>
       </c>
       <c r="H128" t="n">
-        <v>7.945289828475532</v>
+        <v>8.846550080712108</v>
       </c>
       <c r="I128" t="n">
-        <v>46.58657617198141</v>
+        <v>51.7214098587089</v>
       </c>
       <c r="J128" t="n">
-        <v>5.561702879932872</v>
+        <v>6.192585056498472</v>
       </c>
       <c r="K128" t="n">
-        <v>2.38358694854266</v>
+        <v>2.653965024213631</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2780851439966435</v>
+        <v>0.3096292528249237</v>
       </c>
       <c r="M128" t="n">
-        <v>5.283617735936229</v>
+        <v>5.882955803673548</v>
       </c>
       <c r="N128" t="n">
-        <v>2.448508156026211</v>
+        <v>2.718768744146133</v>
       </c>
       <c r="O128" t="n">
-        <v>44.66078876591808</v>
+        <v>49.59034189322544</v>
       </c>
       <c r="P128" t="n">
-        <v>1.86086619857992</v>
+        <v>2.06626424555106</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.86086619857992</v>
+        <v>2.06626424555106</v>
       </c>
     </row>
     <row r="129">
@@ -7256,52 +7256,52 @@
         <v>2027</v>
       </c>
       <c r="B129" t="n">
-        <v>142.5217447439112</v>
+        <v>142.3350083023854</v>
       </c>
       <c r="C129" t="n">
-        <v>191.3404726280888</v>
+        <v>193.2986950374518</v>
       </c>
       <c r="D129" t="n">
-        <v>6.531966610381867</v>
+        <v>10.3355690998358</v>
       </c>
       <c r="E129" t="n">
-        <v>191.3404726280887</v>
+        <v>193.2986950374519</v>
       </c>
       <c r="F129" t="n">
-        <v>60.86608210428034</v>
+        <v>67.07986353392542</v>
       </c>
       <c r="G129" t="n">
-        <v>2.602193162638964</v>
+        <v>2.554331076133623</v>
       </c>
       <c r="H129" t="n">
-        <v>8.569372343486748</v>
+        <v>9.523886308619351</v>
       </c>
       <c r="I129" t="n">
-        <v>49.69451659815484</v>
+        <v>55.00164614917239</v>
       </c>
       <c r="J129" t="n">
-        <v>5.998560640440726</v>
+        <v>6.666720416033543</v>
       </c>
       <c r="K129" t="n">
-        <v>2.570811703046025</v>
+        <v>2.857165892585805</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2999280320220363</v>
+        <v>0.3333360208016772</v>
       </c>
       <c r="M129" t="n">
-        <v>5.698632608418688</v>
+        <v>6.333384395231867</v>
       </c>
       <c r="N129" t="n">
-        <v>2.61326641506004</v>
+        <v>2.89294060208791</v>
       </c>
       <c r="O129" t="n">
-        <v>47.3349656647875</v>
+        <v>52.40079743915233</v>
       </c>
       <c r="P129" t="n">
-        <v>2.317096221353235</v>
+        <v>2.565074000517946</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.317096221353235</v>
+        <v>2.565074000517946</v>
       </c>
     </row>
     <row r="130">
@@ -7309,52 +7309,52 @@
         <v>2028</v>
       </c>
       <c r="B130" t="n">
-        <v>152.2591432717623</v>
+        <v>150.4899996015725</v>
       </c>
       <c r="C130" t="n">
-        <v>203.6068187452159</v>
+        <v>204.0575519537856</v>
       </c>
       <c r="D130" t="n">
-        <v>7.919191640785447</v>
+        <v>11.89632319734771</v>
       </c>
       <c r="E130" t="n">
-        <v>203.6068187452159</v>
+        <v>204.0575519537855</v>
       </c>
       <c r="F130" t="n">
-        <v>65.18119979936991</v>
+        <v>71.65101649106995</v>
       </c>
       <c r="G130" t="n">
-        <v>2.795023889644619</v>
+        <v>2.741673807322012</v>
       </c>
       <c r="H130" t="n">
-        <v>9.268221755431766</v>
+        <v>10.28780804930271</v>
       </c>
       <c r="I130" t="n">
-        <v>53.11795415429364</v>
+        <v>58.62153463444536</v>
       </c>
       <c r="J130" t="n">
-        <v>6.487755228802232</v>
+        <v>7.201465634511898</v>
       </c>
       <c r="K130" t="n">
-        <v>2.780466526629528</v>
+        <v>3.086342414790813</v>
       </c>
       <c r="L130" t="n">
-        <v>0.3243877614401116</v>
+        <v>0.3600732817255949</v>
       </c>
       <c r="M130" t="n">
-        <v>6.163367467362121</v>
+        <v>6.841392352786302</v>
       </c>
       <c r="N130" t="n">
-        <v>2.794921034046153</v>
+        <v>3.085393852461812</v>
       </c>
       <c r="O130" t="n">
-        <v>50.27131299904348</v>
+        <v>55.49595075961312</v>
       </c>
       <c r="P130" t="n">
-        <v>2.832186647833435</v>
+        <v>3.126532437161302</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.832186647833435</v>
+        <v>3.126532437161302</v>
       </c>
     </row>
     <row r="131">
@@ -7362,52 +7362,52 @@
         <v>2029</v>
       </c>
       <c r="B131" t="n">
-        <v>162.2159318972246</v>
+        <v>158.6645538897934</v>
       </c>
       <c r="C131" t="n">
-        <v>216.0922556486424</v>
+        <v>214.9266724515198</v>
       </c>
       <c r="D131" t="n">
-        <v>9.747082165385738</v>
+        <v>13.84306257016858</v>
       </c>
       <c r="E131" t="n">
-        <v>216.0922556486425</v>
+        <v>214.9266724515198</v>
       </c>
       <c r="F131" t="n">
-        <v>69.97965027765204</v>
+        <v>76.74187386744217</v>
       </c>
       <c r="G131" t="n">
-        <v>3.007644049437699</v>
+        <v>2.94694636018425</v>
       </c>
       <c r="H131" t="n">
-        <v>10.05778921024435</v>
+        <v>11.1554610264166</v>
       </c>
       <c r="I131" t="n">
-        <v>56.9142170179699</v>
+        <v>62.63946648084117</v>
       </c>
       <c r="J131" t="n">
-        <v>7.040452447171054</v>
+        <v>7.80882271849164</v>
       </c>
       <c r="K131" t="n">
-        <v>3.017336763073308</v>
+        <v>3.34663830792499</v>
       </c>
       <c r="L131" t="n">
-        <v>0.3520226223585527</v>
+        <v>0.3904411359245821</v>
       </c>
       <c r="M131" t="n">
-        <v>6.688429824812501</v>
+        <v>7.41838158256706</v>
       </c>
       <c r="N131" t="n">
-        <v>2.996577689052159</v>
+        <v>3.29930523943831</v>
       </c>
       <c r="O131" t="n">
-        <v>53.51887752647156</v>
+        <v>58.92559157636823</v>
       </c>
       <c r="P131" t="n">
-        <v>3.416098565519462</v>
+        <v>3.761207972959673</v>
       </c>
       <c r="Q131" t="n">
-        <v>3.416098565519462</v>
+        <v>3.761207972959673</v>
       </c>
     </row>
     <row r="132">
@@ -7415,52 +7415,52 @@
         <v>2030</v>
       </c>
       <c r="B132" t="n">
-        <v>172.1817561051182</v>
+        <v>166.7509164305598</v>
       </c>
       <c r="C132" t="n">
-        <v>228.7301371142152</v>
+        <v>225.8066681439486</v>
       </c>
       <c r="D132" t="n">
-        <v>11.93400954207581</v>
+        <v>16.22252799577456</v>
       </c>
       <c r="E132" t="n">
-        <v>228.7301371142152</v>
+        <v>225.8066681439487</v>
       </c>
       <c r="F132" t="n">
-        <v>75.32966001235908</v>
+        <v>82.41228114413038</v>
       </c>
       <c r="G132" t="n">
-        <v>3.242933116387595</v>
+        <v>3.171986713432335</v>
       </c>
       <c r="H132" t="n">
-        <v>10.95365741240149</v>
+        <v>12.14133167868076</v>
       </c>
       <c r="I132" t="n">
-        <v>61.13306948356984</v>
+        <v>67.09896275201731</v>
       </c>
       <c r="J132" t="n">
-        <v>7.667560188681051</v>
+        <v>8.498932175076524</v>
       </c>
       <c r="K132" t="n">
-        <v>3.286097223720451</v>
+        <v>3.642399503604224</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3833780094340526</v>
+        <v>0.4249466087538262</v>
       </c>
       <c r="M132" t="n">
-        <v>7.284182179246998</v>
+        <v>8.073985566322696</v>
       </c>
       <c r="N132" t="n">
-        <v>3.220958335364516</v>
+        <v>3.537068112781089</v>
       </c>
       <c r="O132" t="n">
-        <v>57.11832781379744</v>
+        <v>62.7240078666513</v>
       </c>
       <c r="P132" t="n">
-        <v>4.079880558128388</v>
+        <v>4.480286276189378</v>
       </c>
       <c r="Q132" t="n">
-        <v>4.079880558128388</v>
+        <v>4.480286276189378</v>
       </c>
     </row>
     <row r="133">
@@ -7468,52 +7468,52 @@
         <v>2031</v>
       </c>
       <c r="B133" t="n">
-        <v>179.4820390640085</v>
+        <v>174.2642367006474</v>
       </c>
       <c r="C133" t="n">
-        <v>238.7522311723569</v>
+        <v>236.1710308280412</v>
       </c>
       <c r="D133" t="n">
-        <v>14.62181938377533</v>
+        <v>19.10699913585916</v>
       </c>
       <c r="E133" t="n">
-        <v>238.7522311723568</v>
+        <v>236.1710308280413</v>
       </c>
       <c r="F133" t="n">
-        <v>81.28418181402868</v>
+        <v>88.6953899396931</v>
       </c>
       <c r="G133" t="n">
-        <v>3.50311708547751</v>
+        <v>3.417712820479501</v>
       </c>
       <c r="H133" t="n">
-        <v>11.96965310054636</v>
+        <v>13.2553264789985</v>
       </c>
       <c r="I133" t="n">
-        <v>65.81141162800508</v>
+        <v>72.02235064021518</v>
       </c>
       <c r="J133" t="n">
-        <v>8.378757170382446</v>
+        <v>9.278728535298958</v>
       </c>
       <c r="K133" t="n">
-        <v>3.590895930163906</v>
+        <v>3.976597943699552</v>
       </c>
       <c r="L133" t="n">
-        <v>0.4189378585191224</v>
+        <v>0.463936426764948</v>
       </c>
       <c r="M133" t="n">
-        <v>7.959819311863323</v>
+        <v>8.814792108534009</v>
       </c>
       <c r="N133" t="n">
-        <v>3.470115377908447</v>
+        <v>3.799947429195733</v>
       </c>
       <c r="O133" t="n">
-        <v>61.09716475370804</v>
+        <v>66.90440773670622</v>
       </c>
       <c r="P133" t="n">
-        <v>4.835027426552435</v>
+        <v>5.294593418012723</v>
       </c>
       <c r="Q133" t="n">
-        <v>4.835027426552435</v>
+        <v>5.294593418012723</v>
       </c>
     </row>
     <row r="134">
@@ -7521,52 +7521,52 @@
         <v>2032</v>
       </c>
       <c r="B134" t="n">
-        <v>186.6182960047205</v>
+        <v>181.6330268110851</v>
       </c>
       <c r="C134" t="n">
-        <v>248.7270327870399</v>
+        <v>246.509766088522</v>
       </c>
       <c r="D134" t="n">
-        <v>17.77660222904192</v>
+        <v>22.44065277393519</v>
       </c>
       <c r="E134" t="n">
-        <v>248.7270327870399</v>
+        <v>246.509766088522</v>
       </c>
       <c r="F134" t="n">
-        <v>87.87953741193182</v>
+        <v>95.59716885434955</v>
       </c>
       <c r="G134" t="n">
-        <v>3.789706873656663</v>
+        <v>3.684124589747525</v>
       </c>
       <c r="H134" t="n">
-        <v>13.11732349948515</v>
+        <v>14.50228318814072</v>
       </c>
       <c r="I134" t="n">
-        <v>70.97250703878973</v>
+        <v>77.41076107646138</v>
       </c>
       <c r="J134" t="n">
-        <v>9.182126449639611</v>
+        <v>10.15159823169854</v>
       </c>
       <c r="K134" t="n">
-        <v>3.935197049845549</v>
+        <v>4.350684956442231</v>
       </c>
       <c r="L134" t="n">
-        <v>0.4591063224819806</v>
+        <v>0.5075799115849269</v>
       </c>
       <c r="M134" t="n">
-        <v>8.72302012715763</v>
+        <v>9.644018320113611</v>
       </c>
       <c r="N134" t="n">
-        <v>3.745385204431767</v>
+        <v>4.088072301645183</v>
       </c>
       <c r="O134" t="n">
-        <v>65.46933337346729</v>
+        <v>71.45950383275778</v>
       </c>
       <c r="P134" t="n">
-        <v>5.692985510736287</v>
+        <v>6.213869898500676</v>
       </c>
       <c r="Q134" t="n">
-        <v>5.692985510736287</v>
+        <v>6.213869898500676</v>
       </c>
     </row>
     <row r="135">
@@ -7574,52 +7574,52 @@
         <v>2033</v>
       </c>
       <c r="B135" t="n">
-        <v>193.5206269846865</v>
+        <v>188.8348031134179</v>
       </c>
       <c r="C135" t="n">
-        <v>258.589229112944</v>
+        <v>256.8058796493025</v>
       </c>
       <c r="D135" t="n">
-        <v>21.4114167341288</v>
+        <v>26.20199173668273</v>
       </c>
       <c r="E135" t="n">
-        <v>258.5892291129441</v>
+        <v>256.8058796493026</v>
       </c>
       <c r="F135" t="n">
-        <v>95.1350391872873</v>
+        <v>103.0999468997127</v>
       </c>
       <c r="G135" t="n">
-        <v>4.103440384775466</v>
+        <v>3.970401349641577</v>
       </c>
       <c r="H135" t="n">
-        <v>14.40548785353953</v>
+        <v>15.88231985234018</v>
       </c>
       <c r="I135" t="n">
-        <v>76.62611094897271</v>
+        <v>83.24722569773068</v>
       </c>
       <c r="J135" t="n">
-        <v>10.08384149747767</v>
+        <v>11.11762389663814</v>
       </c>
       <c r="K135" t="n">
-        <v>4.32164635606186</v>
+        <v>4.764695955702059</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5041920748738836</v>
+        <v>0.5558811948319071</v>
       </c>
       <c r="M135" t="n">
-        <v>9.579649422603788</v>
+        <v>10.56174270180624</v>
       </c>
       <c r="N135" t="n">
-        <v>4.047387865251713</v>
+        <v>4.400596082671639</v>
       </c>
       <c r="O135" t="n">
-        <v>70.23567075500139</v>
+        <v>76.36501068796184</v>
       </c>
       <c r="P135" t="n">
-        <v>6.664698684781151</v>
+        <v>7.246314882799299</v>
       </c>
       <c r="Q135" t="n">
-        <v>6.664698684781151</v>
+        <v>7.246314882799299</v>
       </c>
     </row>
     <row r="136">
@@ -7627,52 +7627,52 @@
         <v>2034</v>
       </c>
       <c r="B136" t="n">
-        <v>200.1723053036394</v>
+        <v>195.8705960872057</v>
       </c>
       <c r="C136" t="n">
-        <v>268.3390237933873</v>
+        <v>267.0705235157247</v>
       </c>
       <c r="D136" t="n">
-        <v>25.52495934627066</v>
+        <v>30.36227989079513</v>
       </c>
       <c r="E136" t="n">
-        <v>268.3390237933874</v>
+        <v>267.0705235157247</v>
       </c>
       <c r="F136" t="n">
-        <v>103.067598088192</v>
+        <v>111.1831310998823</v>
       </c>
       <c r="G136" t="n">
-        <v>4.44477931343591</v>
+        <v>4.275544447972603</v>
       </c>
       <c r="H136" t="n">
-        <v>15.84257872630101</v>
+        <v>17.39453088892883</v>
       </c>
       <c r="I136" t="n">
-        <v>82.78024004845537</v>
+        <v>89.5130557629807</v>
       </c>
       <c r="J136" t="n">
-        <v>11.08980510841071</v>
+        <v>12.17617162225019</v>
       </c>
       <c r="K136" t="n">
-        <v>4.752773617890304</v>
+        <v>5.21835926667865</v>
       </c>
       <c r="L136" t="n">
-        <v>0.5544902554205353</v>
+        <v>0.6088085811125092</v>
       </c>
       <c r="M136" t="n">
-        <v>10.53531485299017</v>
+        <v>11.56736304113768</v>
       </c>
       <c r="N136" t="n">
-        <v>4.376650683317282</v>
+        <v>4.736570751482971</v>
       </c>
       <c r="O136" t="n">
-        <v>75.39510243794572</v>
+        <v>81.59532547887999</v>
       </c>
       <c r="P136" t="n">
-        <v>7.761260545082649</v>
+        <v>8.399518799296471</v>
       </c>
       <c r="Q136" t="n">
-        <v>7.761260545082649</v>
+        <v>8.399518799296471</v>
       </c>
     </row>
     <row r="137">
@@ -7680,52 +7680,52 @@
         <v>2035</v>
       </c>
       <c r="B137" t="n">
-        <v>206.6143531246682</v>
+        <v>202.7840894068633</v>
       </c>
       <c r="C137" t="n">
-        <v>278.053884754177</v>
+        <v>277.3733017856986</v>
       </c>
       <c r="D137" t="n">
-        <v>30.11946666927938</v>
+        <v>34.90620148194929</v>
       </c>
       <c r="E137" t="n">
-        <v>278.053884754177</v>
+        <v>277.3733017856983</v>
       </c>
       <c r="F137" t="n">
-        <v>111.7190317822366</v>
+        <v>119.8577425723302</v>
       </c>
       <c r="G137" t="n">
-        <v>4.814823046670377</v>
+        <v>4.599412192557084</v>
       </c>
       <c r="H137" t="n">
-        <v>17.44147942526644</v>
+        <v>19.04348755637311</v>
       </c>
       <c r="I137" t="n">
-        <v>89.46272931030022</v>
+        <v>96.21484282340019</v>
       </c>
       <c r="J137" t="n">
-        <v>12.20903559768651</v>
+        <v>13.33044128946116</v>
       </c>
       <c r="K137" t="n">
-        <v>5.232443827579933</v>
+        <v>5.713046266911928</v>
       </c>
       <c r="L137" t="n">
-        <v>0.6104517798843256</v>
+        <v>0.6665220644730582</v>
       </c>
       <c r="M137" t="n">
-        <v>11.59858381780218</v>
+        <v>12.66391922498811</v>
       </c>
       <c r="N137" t="n">
-        <v>4.734758656893999</v>
+        <v>5.096394454515601</v>
       </c>
       <c r="O137" t="n">
-        <v>80.96437303288738</v>
+        <v>87.14834517221676</v>
       </c>
       <c r="P137" t="n">
-        <v>8.996041448098596</v>
+        <v>9.683149463579642</v>
       </c>
       <c r="Q137" t="n">
-        <v>8.996041448098596</v>
+        <v>9.683149463579642</v>
       </c>
     </row>
     <row r="138">
@@ -7733,52 +7733,52 @@
         <v>2036</v>
       </c>
       <c r="B138" t="n">
-        <v>212.9446406939977</v>
+        <v>209.6863562171203</v>
       </c>
       <c r="C138" t="n">
-        <v>287.8967379732956</v>
+        <v>287.8846878236367</v>
       </c>
       <c r="D138" t="n">
-        <v>35.23121202377429</v>
+        <v>39.86021637818974</v>
       </c>
       <c r="E138" t="n">
-        <v>287.8967379732956</v>
+        <v>287.8846878236367</v>
       </c>
       <c r="F138" t="n">
-        <v>121.1992195017853</v>
+        <v>129.2163828511007</v>
       </c>
       <c r="G138" t="n">
-        <v>5.216788656446675</v>
+        <v>4.944227077725798</v>
       </c>
       <c r="H138" t="n">
-        <v>19.22747424094078</v>
+        <v>20.84880728195436</v>
       </c>
       <c r="I138" t="n">
-        <v>96.75495660439825</v>
+        <v>103.4233484914205</v>
       </c>
       <c r="J138" t="n">
-        <v>13.45923196865855</v>
+        <v>14.59416509736806</v>
       </c>
       <c r="K138" t="n">
-        <v>5.768242272282233</v>
+        <v>6.254642184586311</v>
       </c>
       <c r="L138" t="n">
-        <v>0.6729615984329274</v>
+        <v>0.7297082548684032</v>
       </c>
       <c r="M138" t="n">
-        <v>12.78627037022562</v>
+        <v>13.86445684249966</v>
       </c>
       <c r="N138" t="n">
-        <v>5.126159943834027</v>
+        <v>5.483899533800343</v>
       </c>
       <c r="O138" t="n">
-        <v>87.00802144667621</v>
+        <v>93.0800547537045</v>
       </c>
       <c r="P138" t="n">
-        <v>10.38901748617029</v>
+        <v>11.11403638850203</v>
       </c>
       <c r="Q138" t="n">
-        <v>10.38901748617029</v>
+        <v>11.11403638850203</v>
       </c>
     </row>
     <row r="139">
@@ -7786,52 +7786,52 @@
         <v>2037</v>
       </c>
       <c r="B139" t="n">
-        <v>219.4104461485354</v>
+        <v>216.8021486202621</v>
       </c>
       <c r="C139" t="n">
-        <v>298.2404323246339</v>
+        <v>298.9448811376621</v>
       </c>
       <c r="D139" t="n">
-        <v>40.9426347693363</v>
+        <v>45.3185668626074</v>
       </c>
       <c r="E139" t="n">
-        <v>298.2404323246339</v>
+        <v>298.9448811376622</v>
       </c>
       <c r="F139" t="n">
-        <v>131.7342229149502</v>
+        <v>139.4860517501689</v>
       </c>
       <c r="G139" t="n">
-        <v>5.65777981449247</v>
+        <v>5.316262929108705</v>
       </c>
       <c r="H139" t="n">
-        <v>21.24718885085996</v>
+        <v>22.85531844430281</v>
       </c>
       <c r="I139" t="n">
-        <v>104.8292542495976</v>
+        <v>111.3144703767573</v>
       </c>
       <c r="J139" t="n">
-        <v>14.87303219560198</v>
+        <v>15.99872291101197</v>
       </c>
       <c r="K139" t="n">
-        <v>6.374156655257992</v>
+        <v>6.856595533290847</v>
       </c>
       <c r="L139" t="n">
-        <v>0.743651609780099</v>
+        <v>0.7999361455505988</v>
       </c>
       <c r="M139" t="n">
-        <v>14.12938058582188</v>
+        <v>15.19878676546138</v>
       </c>
       <c r="N139" t="n">
-        <v>5.560170545242787</v>
+        <v>5.908553295502426</v>
       </c>
       <c r="O139" t="n">
-        <v>93.67033978552345</v>
+        <v>99.53942785156417</v>
       </c>
       <c r="P139" t="n">
-        <v>11.97290057408947</v>
+        <v>12.72308476298189</v>
       </c>
       <c r="Q139" t="n">
-        <v>11.97290057408947</v>
+        <v>12.72308476298189</v>
       </c>
     </row>
     <row r="140">
@@ -7839,52 +7839,52 @@
         <v>2038</v>
       </c>
       <c r="B140" t="n">
-        <v>226.3509150930307</v>
+        <v>224.5075095815424</v>
       </c>
       <c r="C140" t="n">
-        <v>309.6039129810488</v>
+        <v>311.1174643925821</v>
       </c>
       <c r="D140" t="n">
-        <v>47.41010804436546</v>
+        <v>51.4492865028942</v>
       </c>
       <c r="E140" t="n">
-        <v>309.6039129810488</v>
+        <v>311.1174643925821</v>
       </c>
       <c r="F140" t="n">
-        <v>143.690161583008</v>
+        <v>151.0524871787406</v>
       </c>
       <c r="G140" t="n">
-        <v>6.150050075235977</v>
+        <v>5.72697000617893</v>
       </c>
       <c r="H140" t="n">
-        <v>23.57281706555787</v>
+        <v>25.13770485705151</v>
       </c>
       <c r="I140" t="n">
-        <v>113.9672944422139</v>
+        <v>120.1878123155103</v>
       </c>
       <c r="J140" t="n">
-        <v>16.50097194589053</v>
+        <v>17.59639339993605</v>
       </c>
       <c r="K140" t="n">
-        <v>7.071845119667372</v>
+        <v>7.541311457115452</v>
       </c>
       <c r="L140" t="n">
-        <v>0.8250485972945266</v>
+        <v>0.8798196699968028</v>
       </c>
       <c r="M140" t="n">
-        <v>15.67592334859601</v>
+        <v>16.71657372993925</v>
       </c>
       <c r="N140" t="n">
-        <v>6.051956978094084</v>
+        <v>6.386456188631294</v>
       </c>
       <c r="O140" t="n">
-        <v>101.1887206737331</v>
+        <v>106.7815474739152</v>
       </c>
       <c r="P140" t="n">
-        <v>13.79846191005451</v>
+        <v>14.56112011007935</v>
       </c>
       <c r="Q140" t="n">
-        <v>13.79846191005451</v>
+        <v>14.56112011007935</v>
       </c>
     </row>
     <row r="141">
@@ -7892,52 +7892,52 @@
         <v>2039</v>
       </c>
       <c r="B141" t="n">
-        <v>234.2045006455352</v>
+        <v>233.2627421081154</v>
       </c>
       <c r="C141" t="n">
-        <v>322.6519569784534</v>
+        <v>325.0956275038115</v>
       </c>
       <c r="D141" t="n">
-        <v>54.82919499767799</v>
+        <v>58.47281784771423</v>
       </c>
       <c r="E141" t="n">
-        <v>322.6519569784533</v>
+        <v>325.0956275038114</v>
       </c>
       <c r="F141" t="n">
-        <v>157.5279456459137</v>
+        <v>164.4088583664469</v>
       </c>
       <c r="G141" t="n">
-        <v>6.710417929496795</v>
+        <v>6.192328636540939</v>
       </c>
       <c r="H141" t="n">
-        <v>26.29295233307023</v>
+        <v>27.79048198599703</v>
       </c>
       <c r="I141" t="n">
-        <v>124.5245753833468</v>
+        <v>130.4260477439083</v>
       </c>
       <c r="J141" t="n">
-        <v>18.40506663314916</v>
+        <v>19.45333739019793</v>
       </c>
       <c r="K141" t="n">
-        <v>7.887885699921068</v>
+        <v>8.337144595799112</v>
       </c>
       <c r="L141" t="n">
-        <v>0.9202533316574582</v>
+        <v>0.9726668695098964</v>
       </c>
       <c r="M141" t="n">
-        <v>17.4848133014917</v>
+        <v>18.48067052068803</v>
       </c>
       <c r="N141" t="n">
-        <v>6.620623054163389</v>
+        <v>6.938159616985384</v>
       </c>
       <c r="O141" t="n">
-        <v>109.8582052120845</v>
+        <v>115.1271952445108</v>
       </c>
       <c r="P141" t="n">
-        <v>15.93363281701989</v>
+        <v>16.69783747821149</v>
       </c>
       <c r="Q141" t="n">
-        <v>15.93363281701989</v>
+        <v>16.69783747821149</v>
       </c>
     </row>
     <row r="142">
@@ -7945,52 +7945,52 @@
         <v>2040</v>
       </c>
       <c r="B142" t="n">
-        <v>243.3801913475593</v>
+        <v>243.5025277885177</v>
       </c>
       <c r="C142" t="n">
-        <v>338.0014727091076</v>
+        <v>341.5305196017256</v>
       </c>
       <c r="D142" t="n">
-        <v>63.36024881989379</v>
+        <v>66.57181641370418</v>
       </c>
       <c r="E142" t="n">
-        <v>338.0014727091075</v>
+        <v>341.5305196017255</v>
       </c>
       <c r="F142" t="n">
-        <v>173.6527972390048</v>
+        <v>179.9921837807279</v>
       </c>
       <c r="G142" t="n">
-        <v>7.356449679592164</v>
+        <v>6.729227752399879</v>
       </c>
       <c r="H142" t="n">
-        <v>29.48322986283425</v>
+        <v>30.89631351301045</v>
       </c>
       <c r="I142" t="n">
-        <v>136.8131176965787</v>
+        <v>142.3666425153179</v>
       </c>
       <c r="J142" t="n">
-        <v>20.63826090398398</v>
+        <v>21.62741945910732</v>
       </c>
       <c r="K142" t="n">
-        <v>8.844968958850277</v>
+        <v>9.268894053903134</v>
       </c>
       <c r="L142" t="n">
-        <v>1.031913045199199</v>
+        <v>1.081370972955366</v>
       </c>
       <c r="M142" t="n">
-        <v>19.60634785878478</v>
+        <v>20.54604848615195</v>
       </c>
       <c r="N142" t="n">
-        <v>7.282904332771444</v>
+        <v>7.581776828461061</v>
       </c>
       <c r="O142" t="n">
-        <v>119.9251580129698</v>
+        <v>124.8465917753255</v>
       </c>
       <c r="P142" t="n">
-        <v>18.45002430968766</v>
+        <v>19.20716796543469</v>
       </c>
       <c r="Q142" t="n">
-        <v>18.45002430968766</v>
+        <v>19.20716796543469</v>
       </c>
     </row>
     <row r="143">
@@ -7998,52 +7998,52 @@
         <v>2041</v>
       </c>
       <c r="B143" t="n">
-        <v>255.057067162839</v>
+        <v>254.085884475847</v>
       </c>
       <c r="C143" t="n">
-        <v>356.6939430546898</v>
+        <v>359.5566580374504</v>
       </c>
       <c r="D143" t="n">
-        <v>73.23320820146428</v>
+        <v>75.57749942201011</v>
       </c>
       <c r="E143" t="n">
-        <v>356.6939430546898</v>
+        <v>359.5566580374505</v>
       </c>
       <c r="F143" t="n">
-        <v>192.172838985857</v>
+        <v>197.9257869442575</v>
       </c>
       <c r="G143" t="n">
-        <v>8.099066256051501</v>
+        <v>7.348657487822125</v>
       </c>
       <c r="H143" t="n">
-        <v>33.15996265201581</v>
+        <v>34.47649200171241</v>
       </c>
       <c r="I143" t="n">
-        <v>150.9138100777892</v>
+        <v>156.1006374547228</v>
       </c>
       <c r="J143" t="n">
-        <v>23.21197385641107</v>
+        <v>24.13354440119873</v>
       </c>
       <c r="K143" t="n">
-        <v>9.947988795604743</v>
+        <v>10.34294760051374</v>
       </c>
       <c r="L143" t="n">
-        <v>1.160598692820553</v>
+        <v>1.206677220059937</v>
       </c>
       <c r="M143" t="n">
-        <v>22.05137516359051</v>
+        <v>22.9268671811388</v>
       </c>
       <c r="N143" t="n">
-        <v>8.043089943669713</v>
+        <v>8.322179252761828</v>
       </c>
       <c r="O143" t="n">
-        <v>131.4240896795631</v>
+        <v>135.9844089901283</v>
       </c>
       <c r="P143" t="n">
-        <v>21.39461925016144</v>
+        <v>22.13699681234646</v>
       </c>
       <c r="Q143" t="n">
-        <v>21.39461925016144</v>
+        <v>22.13699681234646</v>
       </c>
     </row>
     <row r="144">
@@ -8051,52 +8051,52 @@
         <v>2042</v>
       </c>
       <c r="B144" t="n">
-        <v>268.0973376310944</v>
+        <v>265.902047052237</v>
       </c>
       <c r="C144" t="n">
-        <v>377.6469106371355</v>
+        <v>379.7508246310519</v>
       </c>
       <c r="D144" t="n">
-        <v>84.00451704749224</v>
+        <v>85.40297015135484</v>
       </c>
       <c r="E144" t="n">
-        <v>377.6469106371355</v>
+        <v>379.7508246310519</v>
       </c>
       <c r="F144" t="n">
-        <v>212.6751240018931</v>
+        <v>217.7867015490767</v>
       </c>
       <c r="G144" t="n">
-        <v>8.933976577120449</v>
+        <v>8.048019727845382</v>
       </c>
       <c r="H144" t="n">
-        <v>37.23828359814896</v>
+        <v>38.44716273106342</v>
       </c>
       <c r="I144" t="n">
-        <v>166.502863826623</v>
+        <v>171.2915190901681</v>
       </c>
       <c r="J144" t="n">
-        <v>26.06679851870427</v>
+        <v>26.91301391174437</v>
       </c>
       <c r="K144" t="n">
-        <v>11.17148507944469</v>
+        <v>11.53414881931902</v>
       </c>
       <c r="L144" t="n">
-        <v>1.303339925935214</v>
+        <v>1.345650695587219</v>
       </c>
       <c r="M144" t="n">
-        <v>24.76345859276906</v>
+        <v>25.56736321615715</v>
       </c>
       <c r="N144" t="n">
-        <v>8.883717445303391</v>
+        <v>9.141283395474346</v>
       </c>
       <c r="O144" t="n">
-        <v>144.0346721798523</v>
+        <v>148.2106747852907</v>
       </c>
       <c r="P144" t="n">
-        <v>24.75595928091211</v>
+        <v>25.47370972872184</v>
       </c>
       <c r="Q144" t="n">
-        <v>24.75595928091211</v>
+        <v>25.47370972872184</v>
       </c>
     </row>
     <row r="145">
@@ -8104,52 +8104,52 @@
         <v>2043</v>
       </c>
       <c r="B145" t="n">
-        <v>281.7599351137809</v>
+        <v>278.0830333870588</v>
       </c>
       <c r="C145" t="n">
-        <v>399.7148545799609</v>
+        <v>400.8221670752811</v>
       </c>
       <c r="D145" t="n">
-        <v>95.15557009743281</v>
+        <v>95.5204054634458</v>
       </c>
       <c r="E145" t="n">
-        <v>399.714854579961</v>
+        <v>400.822167075281</v>
       </c>
       <c r="F145" t="n">
-        <v>234.1625259524348</v>
+        <v>238.5529098125313</v>
       </c>
       <c r="G145" t="n">
-        <v>9.835694832842133</v>
+        <v>8.806026494985884</v>
       </c>
       <c r="H145" t="n">
-        <v>41.52286407540862</v>
+        <v>42.6116181378679</v>
       </c>
       <c r="I145" t="n">
-        <v>182.8039670441835</v>
+        <v>187.1352651796774</v>
       </c>
       <c r="J145" t="n">
-        <v>29.06600485278603</v>
+        <v>29.82813269650754</v>
       </c>
       <c r="K145" t="n">
-        <v>12.45685922262258</v>
+        <v>12.78348544136037</v>
       </c>
       <c r="L145" t="n">
-        <v>1.453300242639302</v>
+        <v>1.491406634825377</v>
       </c>
       <c r="M145" t="n">
-        <v>27.61270461014672</v>
+        <v>28.33672606168216</v>
       </c>
       <c r="N145" t="n">
-        <v>9.763041313340318</v>
+        <v>9.995937531051892</v>
       </c>
       <c r="O145" t="n">
-        <v>157.0547912606013</v>
+        <v>160.8013150828547</v>
       </c>
       <c r="P145" t="n">
-        <v>28.4429936928648</v>
+        <v>29.12149800713117</v>
       </c>
       <c r="Q145" t="n">
-        <v>28.4429936928648</v>
+        <v>29.12149800713117</v>
       </c>
     </row>
     <row r="146">
@@ -8157,52 +8157,52 @@
         <v>2044</v>
       </c>
       <c r="B146" t="n">
-        <v>294.9592367172039</v>
+        <v>289.4593325872618</v>
       </c>
       <c r="C146" t="n">
-        <v>421.2562571814752</v>
+        <v>421.0255945038307</v>
       </c>
       <c r="D146" t="n">
-        <v>106.0469097624393</v>
+        <v>105.2996565272522</v>
       </c>
       <c r="E146" t="n">
-        <v>421.2562571814753</v>
+        <v>421.0255945038307</v>
       </c>
       <c r="F146" t="n">
-        <v>255.3337318940098</v>
+        <v>258.9190061352095</v>
       </c>
       <c r="G146" t="n">
-        <v>10.76117376063007</v>
+        <v>9.586460404871996</v>
       </c>
       <c r="H146" t="n">
-        <v>45.76635039450078</v>
+        <v>46.72552672742652</v>
       </c>
       <c r="I146" t="n">
-        <v>198.8062077388787</v>
+        <v>202.6070190029111</v>
       </c>
       <c r="J146" t="n">
-        <v>32.03644527615057</v>
+        <v>32.70786870919855</v>
       </c>
       <c r="K146" t="n">
-        <v>13.72990511835025</v>
+        <v>14.01765801822795</v>
       </c>
       <c r="L146" t="n">
-        <v>1.601822263807529</v>
+        <v>1.635393435459928</v>
       </c>
       <c r="M146" t="n">
-        <v>30.43462301234305</v>
+        <v>31.07247527373863</v>
       </c>
       <c r="N146" t="n">
-        <v>10.62680564286145</v>
+        <v>10.83123385105696</v>
       </c>
       <c r="O146" t="n">
-        <v>169.6038180600688</v>
+        <v>172.8664922628692</v>
       </c>
       <c r="P146" t="n">
-        <v>32.3054891542988</v>
+        <v>32.92695090721316</v>
       </c>
       <c r="Q146" t="n">
-        <v>32.3054891542988</v>
+        <v>32.92695090721316</v>
       </c>
     </row>
     <row r="147">
@@ -8210,52 +8210,52 @@
         <v>2045</v>
       </c>
       <c r="B147" t="n">
-        <v>306.7676838656045</v>
+        <v>299.0999945622477</v>
       </c>
       <c r="C147" t="n">
-        <v>440.9121971538107</v>
+        <v>438.9990771557301</v>
       </c>
       <c r="D147" t="n">
-        <v>116.238557178559</v>
+        <v>114.3571104598709</v>
       </c>
       <c r="E147" t="n">
-        <v>440.9121971538106</v>
+        <v>438.9990771557303</v>
       </c>
       <c r="F147" t="n">
-        <v>275.2274339912868</v>
+        <v>277.9915699683077</v>
       </c>
       <c r="G147" t="n">
-        <v>11.66630718416576</v>
+        <v>10.35347201740884</v>
       </c>
       <c r="H147" t="n">
-        <v>49.79885921498895</v>
+        <v>50.63674183199019</v>
       </c>
       <c r="I147" t="n">
-        <v>213.7622675921328</v>
+        <v>217.0013561189077</v>
       </c>
       <c r="J147" t="n">
-        <v>34.85920145049224</v>
+        <v>35.44571928239312</v>
       </c>
       <c r="K147" t="n">
-        <v>14.93965776449667</v>
+        <v>15.19102254959705</v>
       </c>
       <c r="L147" t="n">
-        <v>1.742960072524612</v>
+        <v>1.772285964119656</v>
       </c>
       <c r="M147" t="n">
-        <v>33.11624137796761</v>
+        <v>33.67343331827346</v>
       </c>
       <c r="N147" t="n">
-        <v>11.43509626783145</v>
+        <v>11.60961893342525</v>
       </c>
       <c r="O147" t="n">
-        <v>181.0556909073312</v>
+        <v>183.8189664458999</v>
       </c>
       <c r="P147" t="n">
-        <v>36.21113818146623</v>
+        <v>36.76379328917996</v>
       </c>
       <c r="Q147" t="n">
-        <v>36.21113818146623</v>
+        <v>36.76379328917996</v>
       </c>
     </row>
     <row r="148">
@@ -8263,52 +8263,52 @@
         <v>2046</v>
       </c>
       <c r="B148" t="n">
-        <v>317.0956488720854</v>
+        <v>307.0350389439464</v>
       </c>
       <c r="C148" t="n">
-        <v>458.6478657949548</v>
+        <v>454.8828345423329</v>
       </c>
       <c r="D148" t="n">
-        <v>125.879502234837</v>
+        <v>122.9482707671381</v>
       </c>
       <c r="E148" t="n">
-        <v>458.6478657949548</v>
+        <v>454.8828345423328</v>
       </c>
       <c r="F148" t="n">
-        <v>294.0402597150579</v>
+        <v>296.1445700938999</v>
       </c>
       <c r="G148" t="n">
-        <v>12.53318691747243</v>
+        <v>11.09607918282109</v>
       </c>
       <c r="H148" t="n">
-        <v>53.68940534091659</v>
+        <v>54.4544413376222</v>
       </c>
       <c r="I148" t="n">
-        <v>227.8176674566686</v>
+        <v>230.5940495734563</v>
       </c>
       <c r="J148" t="n">
-        <v>37.58258373864159</v>
+        <v>38.11810893633552</v>
       </c>
       <c r="K148" t="n">
-        <v>16.10682160227497</v>
+        <v>16.33633240128666</v>
       </c>
       <c r="L148" t="n">
-        <v>1.879129186932079</v>
+        <v>1.905905446816776</v>
       </c>
       <c r="M148" t="n">
-        <v>35.70345455170951</v>
+        <v>36.21220348951875</v>
       </c>
       <c r="N148" t="n">
-        <v>12.1962244529472</v>
+        <v>12.34651909873715</v>
       </c>
       <c r="O148" t="n">
-        <v>191.5620320742907</v>
+        <v>193.9226599774982</v>
       </c>
       <c r="P148" t="n">
-        <v>40.16623253170609</v>
+        <v>40.66120289850766</v>
       </c>
       <c r="Q148" t="n">
-        <v>40.16623253170609</v>
+        <v>40.66120289850766</v>
       </c>
     </row>
     <row r="149">
@@ -8316,52 +8316,52 @@
         <v>2047</v>
       </c>
       <c r="B149" t="n">
-        <v>327.1615814054412</v>
+        <v>314.6465603804302</v>
       </c>
       <c r="C149" t="n">
-        <v>476.4547532614316</v>
+        <v>470.9475910368192</v>
       </c>
       <c r="D149" t="n">
-        <v>135.9162856506358</v>
+        <v>132.1524292918447</v>
       </c>
       <c r="E149" t="n">
-        <v>476.4547532614315</v>
+        <v>470.9475910368192</v>
       </c>
       <c r="F149" t="n">
-        <v>313.6161650632701</v>
+        <v>315.4853659135995</v>
       </c>
       <c r="G149" t="n">
-        <v>13.39568347734869</v>
+        <v>11.85014491545827</v>
       </c>
       <c r="H149" t="n">
-        <v>57.83677193921276</v>
+        <v>58.63408874421231</v>
       </c>
       <c r="I149" t="n">
-        <v>242.38370964671</v>
+        <v>245.001132253928</v>
       </c>
       <c r="J149" t="n">
-        <v>40.48574035744889</v>
+        <v>41.04386212094855</v>
       </c>
       <c r="K149" t="n">
-        <v>17.35103158176381</v>
+        <v>17.59022662326367</v>
       </c>
       <c r="L149" t="n">
-        <v>2.024287017872445</v>
+        <v>2.052193106047428</v>
       </c>
       <c r="M149" t="n">
-        <v>38.46145333957644</v>
+        <v>38.99166901490114</v>
       </c>
       <c r="N149" t="n">
-        <v>12.98673706142367</v>
+        <v>13.12956794385961</v>
       </c>
       <c r="O149" t="n">
-        <v>202.3333634169807</v>
+        <v>204.5586685653327</v>
       </c>
       <c r="P149" t="n">
-        <v>44.41464075006893</v>
+        <v>44.90312236799984</v>
       </c>
       <c r="Q149" t="n">
-        <v>44.41464075006893</v>
+        <v>44.90312236799984</v>
       </c>
     </row>
     <row r="150">
@@ -8369,52 +8369,52 @@
         <v>2048</v>
       </c>
       <c r="B150" t="n">
-        <v>339.2334374143427</v>
+        <v>324.3026417649231</v>
       </c>
       <c r="C150" t="n">
-        <v>497.9081051645924</v>
+        <v>491.0052522998167</v>
       </c>
       <c r="D150" t="n">
-        <v>147.8148962113497</v>
+        <v>143.5169948525848</v>
       </c>
       <c r="E150" t="n">
-        <v>497.9081051645925</v>
+        <v>491.0052522998166</v>
       </c>
       <c r="F150" t="n">
-        <v>336.9633699705659</v>
+        <v>339.2459537762648</v>
       </c>
       <c r="G150" t="n">
-        <v>14.34277632677703</v>
+        <v>12.69900073681377</v>
       </c>
       <c r="H150" t="n">
-        <v>62.85882765263148</v>
+        <v>63.83666819397534</v>
       </c>
       <c r="I150" t="n">
-        <v>259.7617659911576</v>
+        <v>262.710284845475</v>
       </c>
       <c r="J150" t="n">
-        <v>44.00117935684204</v>
+        <v>44.68566773578269</v>
       </c>
       <c r="K150" t="n">
-        <v>18.85764829578945</v>
+        <v>19.15100045819258</v>
       </c>
       <c r="L150" t="n">
-        <v>2.200058967842101</v>
+        <v>2.234283386789135</v>
       </c>
       <c r="M150" t="n">
-        <v>41.80112038899994</v>
+        <v>42.45138434899354</v>
       </c>
       <c r="N150" t="n">
-        <v>13.93097071434734</v>
+        <v>14.09306426518341</v>
       </c>
       <c r="O150" t="n">
-        <v>215.2799341057143</v>
+        <v>217.7848197779676</v>
       </c>
       <c r="P150" t="n">
-        <v>49.40850946688522</v>
+        <v>49.98340126051713</v>
       </c>
       <c r="Q150" t="n">
-        <v>49.40850946688522</v>
+        <v>49.98340126051713</v>
       </c>
     </row>
     <row r="151">
@@ -8422,52 +8422,52 @@
         <v>2049</v>
       </c>
       <c r="B151" t="n">
-        <v>355.4144976022116</v>
+        <v>338.0630013347429</v>
       </c>
       <c r="C151" t="n">
-        <v>526.2400912192411</v>
+        <v>518.307505657681</v>
       </c>
       <c r="D151" t="n">
-        <v>162.7145721775377</v>
+        <v>158.1114386132357</v>
       </c>
       <c r="E151" t="n">
-        <v>526.240091219241</v>
+        <v>518.3075056576806</v>
       </c>
       <c r="F151" t="n">
-        <v>366.5781090919286</v>
+        <v>369.902778417531</v>
       </c>
       <c r="G151" t="n">
-        <v>15.4831977292261</v>
+        <v>13.73862795840169</v>
       </c>
       <c r="H151" t="n">
-        <v>69.2398556277732</v>
+        <v>70.52666745389088</v>
       </c>
       <c r="I151" t="n">
-        <v>281.8550557349297</v>
+        <v>285.6374830052389</v>
       </c>
       <c r="J151" t="n">
-        <v>48.46789893944126</v>
+        <v>49.3686672177237</v>
       </c>
       <c r="K151" t="n">
-        <v>20.77195668833197</v>
+        <v>21.1580002361673</v>
       </c>
       <c r="L151" t="n">
-        <v>2.423394946972063</v>
+        <v>2.468433360886184</v>
       </c>
       <c r="M151" t="n">
-        <v>46.04450399246919</v>
+        <v>46.90023385683751</v>
       </c>
       <c r="N151" t="n">
-        <v>15.13135062116305</v>
+        <v>15.33977416207033</v>
       </c>
       <c r="O151" t="n">
-        <v>231.9131671870257</v>
+        <v>235.1076053239978</v>
       </c>
       <c r="P151" t="n">
-        <v>55.58249461507225</v>
+        <v>56.34810375533829</v>
       </c>
       <c r="Q151" t="n">
-        <v>55.58249461507225</v>
+        <v>56.34810375533829</v>
       </c>
     </row>
     <row r="152">
@@ -8475,52 +8475,52 @@
         <v>2050</v>
       </c>
       <c r="B152" t="n">
-        <v>375.8615299044272</v>
+        <v>356.0031039024108</v>
       </c>
       <c r="C152" t="n">
-        <v>561.6154857983338</v>
+        <v>552.8464948219425</v>
       </c>
       <c r="D152" t="n">
-        <v>180.4724370201221</v>
+        <v>175.5122785695737</v>
       </c>
       <c r="E152" t="n">
-        <v>561.615485798334</v>
+        <v>552.8464948219425</v>
       </c>
       <c r="F152" t="n">
-        <v>402.3794354289444</v>
+        <v>406.9689064274344</v>
       </c>
       <c r="G152" t="n">
-        <v>16.87796920365071</v>
+        <v>15.01557012311385</v>
       </c>
       <c r="H152" t="n">
-        <v>76.91157854634235</v>
+        <v>78.51833573263802</v>
       </c>
       <c r="I152" t="n">
-        <v>308.5898876789516</v>
+        <v>313.4350005716827</v>
       </c>
       <c r="J152" t="n">
-        <v>53.83810498243961</v>
+        <v>54.9628350128466</v>
       </c>
       <c r="K152" t="n">
-        <v>23.0734735639027</v>
+        <v>23.5555007197914</v>
       </c>
       <c r="L152" t="n">
-        <v>2.691905249121981</v>
+        <v>2.74814175064233</v>
       </c>
       <c r="M152" t="n">
-        <v>51.14619973331763</v>
+        <v>52.21469326220428</v>
       </c>
       <c r="N152" t="n">
-        <v>16.58316806214269</v>
+        <v>16.84952506457374</v>
       </c>
       <c r="O152" t="n">
-        <v>252.0641545445689</v>
+        <v>256.1127809815209</v>
       </c>
       <c r="P152" t="n">
-        <v>63.01603863614223</v>
+        <v>64.02819524538023</v>
       </c>
       <c r="Q152" t="n">
-        <v>63.01603863614223</v>
+        <v>64.02819524538023</v>
       </c>
     </row>
   </sheetData>
